--- a/data/top_docs/ctm/thetas_thr_top_docs.xlsx
+++ b/data/top_docs/ctm/thetas_thr_top_docs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>credits composition allmusic listing charts piano drums beats liner label recording download ballad songwriter vocals albums musicians accompanying remix singer mixing singing adapted lyrically tempo formats lyrical pop lyrics acoustic billboard charted musically promotion performing mixed instrumentation background grammy videos promotional reception vocal personnel promote rolling_stone releases artist digital influences usher debuted sounds backing hip footage songwriting compilation guitars chart youtube listings handled popmatters bonus concert musician keyboards reviewer studio studios catchy percussion nme remixes airplay hop mexican vocalist guitarist band recordings thirty peaked tracks jazz sing collaboration rap electronic recorded bass hear highlight radio hot sings listeners dvd stan</t>
+          <t>['episode', 'mulder', 'doctor', 'scully', 'viewers', 'episodes', 'series', 'television', 'character', 'season', 'watched', 'dwight', 'broadcast', 'trek', 'jack']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I 'm That Chick = " I 'm That Chick " is a song by American singer and songwriter Mariah Carey from her eleventh studio album , E = MC ² ( 2008 ) . A disco track with influences of R &amp; B , it was written by Carey , Johntá Austin and production duo Stargate ( Mikkel S. Eriksen and Tor E. Hermansen ) . It contains elements of a song called " Off the Wall " originally performed by Michael Jackson . Rod Temperton , the songs composer , received a songwriting for " I 'm That Chick " as result . The track was positively received amongst most music critics , many of whom called it the best song on the album and praised is disco composition . Carey performed " I 'm That Chick " on The Hills season premiere party , the 2008 Fashion Rocks , Canadian Idol , and included it on the set-list of her eighth concert tour , The Elusive Chanteuse Show ( 2014 ) . It peaked at number 82 on the U.S. Billboard Hot R &amp; B / Hip-Hop Songs chart . = = Recording and composition = = " I 'm That Chick " was written</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sing Like Me = " Sing Like Me " is a song by American recording artist Chris Brown . It was released as a promotional single from his third studio album , Graffiti , on November 24 , 2009 in the United States . The number was written by Brown , Big Makk , Keith Thomas , Lorenza " Big Lo " Lennon and Atozzio Towns , and produced by Makk , Thomas and Lennon . A pop and R &amp; B ballad , the song contains lyrics about Brown leaving a nightclub with several women . " Sing Like Me " received mixed response from critics , and charted for two weeks on the US Hot R &amp; B / Hip-Hop Songs in 2010 , peaking at number eighty-four . = = Background and composition = = " Sing Like Me " was written by Chris Brown , Big Makk , Keith Thomas , andf Lorenza " Big Lo " Lennon , with Makk , Thomas and Lennon producing the track . It was recorded at The Compound — a recording studio in Orlando , Florida — and Tony Maserati mixed the tune at The Record Plant — a studio in Los Angeles , California . The cover art o</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hot Tottie = " Hot Tottie " is a song by recording artist Usher . It was written by Usher , Ester Dean , Jay-Z and Polow da Don , with the latter producing it . The song features guest vocals from rapper Jay-Z and background vocals by Ester Dean . It is the second single in the United States and Canada from his EP , Versus , which is an extension of his sixth studio album , Raymond v. Raymond . The song was sent to rhythmic and urban airplay on August 9 , 2010 . " Hot Tottie " samples Big Tymers 's " Big Ballin ' " off their 1998 album How You Luv That Vol . 2 . " Hot Tottie " is an R &amp; B song with hip hop tones , accompanied by strobing , electronic beats . It received positive reviews , with many critics noting it as a standout from the EP . It peaked at number twenty-one on the US Billboard Hot 100 , and was a top ten hit on the US Hot R &amp; B / Hip-Hop Songs chart . Usher performed the song on The Early Show and on his OMG Tour . = = Background and composition = = The song was leaked</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>I 'm Not Your Hero = " I 'm Not Your Hero " is a song written , recorded and performed by Canadian duo Tegan and Sara and produced by Greg Kurstin for the album Heartthrob ( 2013 ) . Recorded at Echo Studio and EastWest Studios in California in 2012 , it was released on October 21 of that year as a promotional single . The lyrics for the new wave synthpop ballad were written by Sara Quin , and discuss her teenage life in the 1990s when she was unable to identify with the lives of pop culture figures and had unforeseen thoughts about her later life . Guitar chords , drums , bass guitar , synths and harmonized vocals are also played in the track . " I 'm Not Your Hero " was mostly well-received by critics for its songwriting and composition . The track garnered comparisons to the works of Santigold , Fleetwood Mac and The Temper Trap . Commercially , it peaked at number 58 on the Billboard Canadian Hot 100 and 157 on the French SNEP singles chart . Tegan and Sara have performed it at the</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>La Llamada = " La Llamada " ( English : " The Phone Call " ) is a song recorded by American recording artist Selena for her first live album Live ! ( 1993 ) . It was composed by Selena y Los Dinos backup singer Pete Astudillo and Selena 's brother and principal record producer A.B. Quintanilla III . The song was produced by Quintanilla III and Argentine music producer Bebu Silvetti . " La Llamada " was released as the second single from Live ! . It peaked at number 5 on the US Hot Latin Tracks on the week ending 23 October 1993 . On the week ending 9 April 2011 , " La Llamada " entered the Regional Mexican Digital Songs chart . The lyrical content of the song describes a girlfriend 's feelings after witnessing her boyfriend kissing another girl , telling him to never call her again and ending the relationship . The central theme explored on " La Llamada " suggests women empowerment . " La Llamada " is an uptempo Mexican cumbia song . The song received generally positive reviews from mu</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>film release released million story scene scenes script effects production opening plot filming original director sequel action movie weekend blu character bond highest batman score dvd photography cast based reviews films shot box grossing stars visual gave trailer screenplay disney version rotten_tomatoes marvel characters studio said office like rating set filmmakers sequels toy gross theaters wanted making footage burton idea animation critics worldwide animated direct theatrical cinematic shots grossed james_bond stated development horror sequence critical create principal cameron best special north_america halloween screening reception written escapes kills woody filmed villain animators cgi budget sequences movies role features place kill takes</t>
+          <t>['album', 'song', 'madonna', 'chart', 'video', 'music', 'harrison', 'songs', 'carey', 'band', 'pop', 'track', 'recording', 'billboard', 'number']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Octopussy = Octopussy ( 1983 ) is the thirteenth entry in the Eon Productions James Bond film series , and the sixth to star Roger Moore as the fictional MI6 agent James Bond . The film 's title is taken from a short story in Ian Fleming 's 1966 short story collection Octopussy and The Living Daylights , although the film 's plot is original . It does , however , include a scene inspired by the Fleming short story " The Property of a Lady " ( included in 1967 and later editions of Octopussy and The Living Daylights ) , while the events of the short story " Octopussy " form a part of the title character 's background and are recounted by her . Bond is assigned the task of following a general who is stealing jewels and relics from the Soviet government . This leads him to a wealthy Afghan prince , Kamal Khan , and his associate , Octopussy . Bond uncovers a plot to force disarmament in Europe with the use of a nuclear weapon . Octopussy was produced by Albert R. Broccoli and Michael G. W</t>
+          <t>Bitch I 'm Madonna = " Bitch I 'm Madonna " is a song by American singer Madonna from her thirteenth studio album , Rebel Heart ( 2015 ) , featuring guest vocals from rapper Nicki Minaj . The artists co-wrote the song with MoZella , Toby Gad , Ariel Rechtshaid , Diplo , and Sophie ; the latter two co-produced it with Madonna . It was released as the third single from the album by Interscope Records on June 15 , 2015 , along with a number of remixes commissioned . An EDM and vaporwave song , the lyrics speak about having continuous fun because she is " Madonna " . The song divided music critics , as some called it " energetic " , applauding Minaj 's rap verse and the unusual composition , while others criticized it for being a " desperate to shock " endeavor . In the United States , " Bitch I 'm Madonna " became the first Madonna song to enter the Billboard Hot 100 in three years , peaking at number 84 . The song became Minaj 's 63rd and Madonna 's 57th Hot 100 entry , placing them at p</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Thin Red Line ( 1998 film ) = The Thin Red Line is a 1998 American ensemble epic war film written and directed by Terrence Malick . Based on the novel by James Jones , it tells a semi-fictionalized version of the Battle of Mount Austen , which was part of the Guadalcanal Campaign in the Pacific Theater of World War II . It portrays soldiers of C Company , 1st Battalion , 27th Infantry Regiment , 25th Infantry Division , played by Sean Penn , Jim Caviezel , Nick Nolte , Elias Koteas and Ben Chaplin . Although the title may seem to refer to a line from Rudyard Kipling 's poem " Tommy " , from Barrack-Room Ballads , in which he calls foot soldiers " the thin red line of heroes " , referring to the stand of the 93rd Regiment in the Battle of Balaclava of the Crimean War , it is in reality a quote from James Jones 's book which reads , " they discover the thin red line that divides the sane from the mad ... and the living from the dead ... " The film marked Malick 's return to filmmakin</t>
+          <t>La Isla Bonita = " La Isla Bonita " ( English : The Beautiful Island ) is a song by American singer Madonna from her third studio album True Blue ( 1986 ) . It was released as the album 's final single on February 25 , 1987 by Sire Records . The instrumental version of the song was first offered to Michael Jackson before Madonna both accepted it and wrote the lyrics and melody . " La Isla Bonita " is noted for being the first Madonna song to have a Latino influence in it , with arrangements of Cuban drums and Spanish guitar , maracas , harmonicas and a mix of synthesized and real drumming . The lyrics of the song tell about a beautiful island and was a tribute to the beauty of the Latin people according to Madonna . Following its release , " La Isla Bonita " received positive appreciation from critics . It also achieved worldwide popularity , topping the record charts in countries such as Austria , Canada , France , Germany and Switzerland . It became Madonna 's fourth number-one singl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mary Kom ( film ) = Mary Kom is a 2014 Indian biographical sports film directed by Omung Kumar and produced by Sanjay Leela Bhansali . The film stars Priyanka Chopra in the lead role of the eponymous boxer , with Darshan Kumar and Sunil Thapa in supporting roles as her husband and mentor , respectively . The film depicts Kom 's journey of becoming a boxer to her victory at the 2008 World Boxing Championships in Ningbo . Chopra made her first appearance as a Hindi playback singer with the lullaby , " Chaoro " , in the film . The feature was developed by writer Saiwyn Quadras , who suggested the storyline to Kumar when Kom , despite her numerous achievements , was not a familiar name in India . Kumar met Kom to ask her permission for the film , much before her bronze medal victory at the 2012 Summer Olympics , which brought her recognition . Chopra underwent extensive physical training for three months to attain a muscular physique . She also trained for Kom 's distinct boxing styles . P</t>
+          <t>Already Gone ( Kelly Clarkson song ) = " Already Gone " is a song performed by American pop singer-songwriter Kelly Clarkson from her fourth studio album , All I Ever Wanted . It is co-written by Clarkson and Ryan Tedder , who also produced it . The song was released as the album 's third single in August 2009 . Lyrically , " Already Gone " is about the breakup of a relationship ; the music consists of an arrangement using a piano , drums , and string instruments . The production and release of " Already Gone " have been surrounded in controversy . Clarkson claimed that Tedder re-used the musical arrangement on the 2008 Beyoncé Knowles song " Halo " , and stated that the public would incorrectly assume that she had stolen it ; Tedder declared the accusations hurtful and false . After failing to prevent the song from being included on All I Ever Wanted because the track listing had already been finalized and the album was already being pressed , Clarkson then voiced her anger towards he</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mars Attacks ! = Mars Attacks ! is a 1996 American comedy science fiction film directed by Tim Burton and written by Jonathan Gems . Based on the cult trading card series of the same name minus the punctuation , the film features an ensemble cast consisting of Jack Nicholson ( in a dual role ) , Glenn Close , Annette Bening , Pierce Brosnan , Danny DeVito , Martin Short , Sarah Jessica Parker , Michael J. Fox , Rod Steiger , Tom Jones , Lukas Haas , Natalie Portman , Jim Brown , Lisa Marie Smith , and Sylvia Sidney . The film is a parody of science fiction B movies with elements of black comedy and political satire . Alex Cox had tried to make a Mars Attacks ! film in the 1980s before Burton and Gems began development in 1993 . When Gems turned in his first draft in 1994 , Warner Bros. commissioned rewrites from Gems , Burton , Scott Alexander and Larry Karaszewski in an attempt to lower the budget to $ 60 million . The final production budget came to $ 80 million , while Warner Bros. </t>
+          <t>Put the Needle on It = " Put the Needle on It " is a song performed by Australian singer Dannii Minogue , which was written by Minogue , Mathias Johansson , Henrik Korpi and Karen Poole for Minogue 's fourth album Neon Nights ( 2003 ) . It is the opening track , and was released as its lead single on 4 November 2002 . It reached the top twenty on the Australian , Irish and United Kingdom Singles Charts . In the UK it also topped the club charts . In 2003 , it was certified gold by the Australian Recording Industry Association indicating shipment of 35,000 units . " Put the Needle on It " is a dance-pop song which received mixed reviews from music critics , and its musical style was compared to United States pop singer , Madonna . Its music video , directed by Miikka Lommi , features Minogue in a studio surrounded with colourful neon lights and spinning on a human-sized record player . = = Background and writing = = In 2002 , Minogue began writing and recording material for her fourth a</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Beetlejuice = Beetlejuice is a 1988 American comedy fantasy film directed by Tim Burton , produced by The Geffen Film Company and distributed by Warner Bros. The plot revolves around a recently deceased young couple ( Alec Baldwin and Geena Davis ) who become ghosts haunting their former home , and an obnoxious , devious ghost named Betelgeuse ( pronounced Beetlejuice , portrayed by Michael Keaton ) from the Netherworld who tries to scare away the new inhabitants ( Catherine O 'Hara , Jeffrey Jones , and Winona Ryder ) permanently . After the success of Pee-wee 's Big Adventure , Burton was sent several scripts and became disheartened by their lack of imagination and originality . When he was sent Michael McDowell 's original script for Beetlejuice , Burton agreed to direct , although Larry Wilson and later Warren Skaaren were hired to rewrite it . Beetlejuice was a critical and commercial success , grossing $ 73.7 million from a budget of $ 15 million . It won the Academy Award for Be</t>
+          <t>The Generous Mr. Lovewell = The Generous Mr. Lovewell is the sixth studio album by Christian rock band MercyMe . Released in May 2010 , the album is a concept record revolving around a fictional character , ' Mr. Lovewell ' , and the overall theme of love . Produced by Brown Bannister and Dan Muckala , the album met with positive critical and commercial reception . The album sold over 88,000 copies its first week and debuted at number three on the Billboard 200 and at number one on the Christian Albums chart . Three singles were released in promotion of the album , all of them reaching number one on Billboard 's Christian Songs chart . Lead single " All of Creation " spent ten weeks at the top of the Christian Songs chart , also peaking at No. 14 on the Heatseekers Songs chart and No. 2 on the Bubbling Under Hot 100 Singles chart . " Beautiful " and " Move " also reached number one on the Christian Songs chart , holding the top spot for one and nine weeks , respectively , with " Move "</t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>career hit games season league baseball major_league_baseball signed home played manager professional minor earned hits pitcher mlb leagues base giants roster strikeouts average pitched runs spent playing hitter starts spring era pitching basketball cubs inning team catcher national_league traded record starting rookie draft double named year run dodgers baseman batted contract disabled bats batters reds percentage hitting postseason pitchers rbi new_york_yankees seasons plate sophomore pirates prospect pitch rbis bases drafted pitches braves hitters walks ninth signing pennant finished player assists major boston_red_sox american_league chicago_cubs throwing philadelphia_phillies outfielder fastball handed batting fielder fielding shortstop texas_rangers freshman detroit_tigers tied san_francisco_giants list cincinnati_reds</t>
+          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'inch', 'cruiser', 'fleet', 'gun', 'deck', 'admiral', 'german', 'turrets', 'cruisers']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Manny Harris = Corperryale L 'Adorable " Manny " Harris ( born September 21 , 1989 ) is an American professional basketball player for the Anhui Wenyi of the Chinese NBL . He has previously played for the Los Angeles Lakers , Cleveland Cavaliers , Los Angeles D-Fenders , Canton Charge , Texas Legends , BC Azovmash and NSK Eskişehir Basket . He is a former All-Big Ten Conference guard who played three seasons for the Michigan Wolverines team . He decided to forgo his final year of collegiate eligibility and declare himself eligible for the 2010 NBA draft , but went undrafted . He signed with the Cavaliers of the National Basketball Association ( NBA ) . He began his second year injured and rehabbed for two months in the NBA D-League with Cavaliers ' affiliate , the Canton Charge , before being re-signed by the Cavaliers . He signed with BC Azovmash of Ukraine in September 2012 and spent 2012 – 13 playing in the Ukrainian Basketball SuperLeague . For the following two seasons he split ti</t>
+          <t>Admiral-class battlecruiser = The Admiral-class battlecruisers were to have been a class of four British Royal Navy battlecruisers designed near the end of World War I. Their design began as an improved version of the Queen Elizabeth-class battleships , but it was recast as a battlecruiser after Admiral John Jellicoe , commander of the Grand Fleet , pointed out that there was no real need for more battleships , but that a number of German battlecruisers had been laid down that were superior to the bulk of the Grand Fleet 's battlecruisers and the design was revised to counter these . The class was to have consisted of HMS Hood , Anson , Howe , and Rodney — all names of famous admirals — but the latter three ships were suspended as the material and labour required to complete them was needed for higher-priority merchantmen and escort vessels . Their designs were updated to incorporate the lessons from the Battle of Jutland , but the Admiralty eventually decided that it was better to beg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2012 – 13 Ivy League men 's basketball season = The 2012 – 13 Ivy League men 's basketball season marked the continuation of the annual tradition of competitive basketball among Ivy League members . The tradition began when the league was formed during the 1956 – 57 season and its history extends to the predecessor Eastern Intercollegiate Basketball League , which was formed in 1902 . Due to a cheating scandal that involved defending champion Harvard , Princeton was the preseason favorite . Harvard won the regular season title outright and earned the conference 's only postseason bid . Princeton 's Ian Hummer earned the Ivy League Men 's Basketball Player of the Year after setting records for most single-season and career Ivy League Player of the Week awards . Harvard tied an Ivy League single-season team record with 13 combined Player of the Week and Rookie of the Week Awards . Ivy League records also fell for career games played by Hummer and career free throw percentage ( Brian Barb</t>
+          <t>HMS Beagle ( H30 ) = HMS Beagle was a B-class destroyer built for the Royal Navy ( RN ) around 1930 . Initially assigned to the Mediterranean Fleet , she was transferred to the Home Fleet in 1936 . During World War II , the ship spent the bulk of the war on escort duty , participating in the Norwegian Campaign , the Battle of the Atlantic , Operation Torch , the Russian Convoys , and in the Normandy landings before accepting the surrender of the German garrison of the Channel Islands the day after the formal German surrender on 9 May together with another ship . One exception to this pattern was when she helped to evacuate British soldiers and civilians during the Battle of France in 1940 . During the war , Beagle assisted in sinking one German submarine and claimed to have shot down two German aircraft . Redundant after the war , she was broken up for scrap in 1946 . = = Description = = Beagle displaced 1,360 long tons ( 1,380 t ) at standard load and 1,790 long tons ( 1,820 t ) at de</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mets – Phillies rivalry = The Mets – Phillies rivalry or Battle of the Broads is a Major League Baseball ( MLB ) rivalry between the New York Mets and Philadelphia Phillies . Both clubs are members of MLB 's National League ( NL ) East division . The rivalry between the two clubs is said to be among the most fiercely contested in the NL . The two NL East divisional rivals have met each other recently in playoff , division , and Wild Card races . Aside from several brawls in the 1980s , the rivalry remained relatively low-key before the 2006 season , as the teams had seldom been equally good at the same time . A notable moment in their early meetings was Jim Bunning 's perfect game on Father 's Day of 1964 , the first perfect game in Phillies history , which happened when the Mets were on a losing streak . The Phillies were near the bottom of the NL East when the Mets won the 1969 World Series and the National League pennant in 1973 , while the Mets did not enjoy success in the late 197</t>
+          <t xml:space="preserve">HMS Hurricane ( H06 ) = HMS Hurricane was an H-class destroyer that had originally been ordered by the Brazilian Navy in the late 1930s with the name Japura , but was bought by the Royal Navy after the beginning of World War II in September 1939 and later renamed . When completed in June 1940 , the ship was temporarily assigned to the Home Fleet before she began escorting convoys and conducting anti-submarine patrols . She was badly damaged during a German air raid on Liverpool in May 1941 and her repairs were not completed until the beginning of 1942 . Hurricane was then assigned as the flotilla leader of Escort Group B1 assigned to the Mid-Ocean Escort Force , escorting convoys in the North Atlantic for the next two years . The ship was torpedoed by a German submarine on Christmas Eve 1943 , and had to be scuttled the next day as she was unable to steam back to port . = = Description = = Hurricane displaced 1,350 long tons ( 1,370 t ) at standard load and 1,883 long tons ( 1,913 t ) </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mamadou N 'Diaye ( basketball , born 1993 ) = Mamadou N 'Diaye ( born September 14 , 1993 ) is a Senegalese basketball player who played for the UC Irvine Anteaters men 's basketball team and remained in the NBA draft following his junior season , ending his college eligibility . He was one of the tallest basketball players in the NCAA Division I level , standing 7 ft 6 in ( 2.29 m ) . N 'Diaye attended Brethren Christian Junior / Senior High School in Huntington Beach , California , where he was labeled one of the tallest high school players in the United States . N 'Diaye , a center , was named Big West Conference Defensive Player of the Year after the 2013 – 14 NCAA Division I men 's basketball season and earned all-conference honorable mention accolades as well . He most recently completed his sophomore year at University of California , Irvine and his second season with the Anteaters in 2014 – 15 . He is considered a talented shot-blocker , having accumulated 131 blocks in his fir</t>
+          <t>French battleship Gaulois = Gaulois was a Charlemagne-class pre-dreadnought battleship built for the French Navy in the mid-1890s . She spent most of her career assigned to the Mediterranean Squadron ( Escadre de la Méditerranée ) . The ship accidentally rammed two other French warships early in her career , although neither was seriously damaged , nor was the ship herself . When World War I began , she escorted troop convoys from French North Africa to France for a month and a half . Gaulois was ordered to the Dardanelles in November 1914 to guard against a sortie into the Mediterranean by the German battlecruiser SMS Goeben . In 1915 , she joined British ships in bombarding Turkish fortifications . She was badly damaged during one such bombardment in March and had to beach herself to avoid sinking . She was refloated and sent to Toulon for permanent repairs . Gaulois returned to the Dardanelles and covered the Allied evacuation in January 1916 . On 27 December 1916 , she was en route</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Glenn Robinson III = Glenn Alan Robinson III ( born January 8 , 1994 ) is an American professional basketball player for the Indiana Pacers of the National Basketball Association ( NBA ) . Robinson played college basketball for the Michigan Wolverines for two years . He was an All-State high school basketball player for Lake Central High School in St. John , Indiana . After his sophomore season at Michigan for the 2013 – 14 team he declared for the NBA draft . Robinson was drafted 40th overall by the Minnesota Timberwolves in the 2014 NBA draft . He has also played in the NBA with the Philadelphia 76ers . He is the son of Glenn Robinson , the 1994 NBA first overall draft pick . = = Early life and high school = = Robinson was born , weighing 3 pounds 4 ounces ( 1.5 kg ) , three months premature to his single Purdue University freshman mother , Shantelle Clay , at Methodist Hospital in Gary , Indiana . He spent his first two months in an incubator ( with a miniature basketball ) , until </t>
+          <t>German destroyer Z8 Bruno Heinemann = Z8 Bruno Heinemann was a Type 1934A-class destroyer built for Nazi Germany 's Kriegsmarine in the mid-1930s . After the start of World War II in September 1939 , she blockaded the Polish coast and searched neutral shipping for contraband . In late 1939 and early 1940 the ship made three successful minelaying sorties off the English coast that claimed 17 merchant ships . Bruno Heinemann participated in the early stages of the Norwegian Campaign by transporting troops to the Trondheim area in early April 1940 . The ship was transferred to France a year later to escort German ships that used the French ports on the Atlantic coast . She was returning to France in early 1942 when she struck two mines and sank off the coast of Belgium . = = Design and description = = Bruno Heinemann had an overall length of 119 meters ( 390 ft 5 in ) and was 114 meters ( 374 ft 0 in ) long at the waterline . The ship had a beam of 11.30 meters ( 37 ft 1 in ) , and a maxi</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>work life wrote writing published book written women works history world writer woman early books years known literary thought according children man people author novel poetry death art god human ideas society stories write poems literature historical story family age described writers modern century later church born writings study mother poem father science believed like social school culture poet view spiritual use religious tradition contemporary christian friend novels theory taught characters believe studies idea considered academic prize criticism old form account cult belief comics argued cultural professor great views political chess nature publication readers called publishing sexual teaching influenced philosophical</t>
+          <t>['highway', 'route', 'road', 'freeway', 'interchange', 'intersection', 'terminus', 'north', 'east', 'lane', 'continues', 'state', 'avenue', 'passes', 'traffic']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Churches of Christ = Churches of Christ are autonomous Christian congregations associated with one another through common beliefs and practices . They seek to base doctrine and practice on the Bible alone in order to be the church described in the New Testament . Churches of Christ teach that God saves and adds to His church those who believe in Christ , repent of sin , confess Jesus Christ as the Son of God , and are baptized in the name of Jesus Christ for the forgiveness of sins , which grants the gift of the Holy Spirit ( Acts 2 : 36-47 ) . Churches of Christ in the United States have heritage in the American Restoration Movement . This evangelistic and Bible-based effort began in various places as several people sought a return to the original teachings and practices of the New Testament . Christian leaders including Robert Sandeman , Abner Jones , Elias Smith , James O 'Kelly , Rice Haggard , Thomas Campbell , Alexander Campbell , Walter Scott , and Barton W. Stone were trailblaz</t>
+          <t>California State Route 133 = State Route 133 ( SR 133 ) is a state highway in the U.S. state of California . It connects SR 1 in Laguna Beach through the San Joaquin Hills with several freeways in Irvine , ending at the SR 241 toll road in the latter city . The portion north of SR 73 in Laguna Beach is part of the California Freeway and Expressway System , and it is built as an expressway from SR 73 to Laguna Canyon Road ( just south of I-405 in Irvine ) . SR 133 is a freeway ( the Laguna Freeway ) to I-5 , and a tollway ( part of the Eastern Toll Road ) to SR 241 near the Santa Ana Mountains . SR 133 was constructed as a county road by the 1910s ; the portion from I-405 to I-5 was upgraded to a freeway four decades later . Plans to extend the freeway south were canceled by the state , and the southern part of the road remains an undivided highway . In 1998 , the majority of the Eastern Transportation Corridor opened , and the connector between I-5 and SR 241 was designated as a toll e</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dictator novel = The dictator novel ( Spanish : novela del dictador ) is a genre of Latin American literature that challenges the role of the dictator in Latin American society . The theme of caudillismo — the régime of a charismatic caudillo , a political strongman — is addressed by examining the relationships between power , dictatorship , and writing . Moreover , a dictator novel often is an allegory for the role of the writer in a Latin American society . Although mostly associated with the Latin American Boom of the 1960s and 1970s , the dictator-novel genre has its roots in the nineteenth-century novel Facundo ( 1845 ) , by Domingo Faustino Sarmiento . As an indirect critique of Juan Manuel de Rosas 's dictatorial régime in Argentina , Facundo is the forerunner of the dictator novel genre ; all subsequent dictator novels hearken back to it . As established by Sarmiento , the goal of the genre is not to analyze the rule of particular dictators , or to focus on historical accuracy </t>
+          <t>Geography of South Dakota = South Dakota is a state located in the north-central United States . It is usually considered to be in the Midwestern region of the country . The state can generally be divided into three geographic regions : eastern South Dakota , western South Dakota , and the Black Hills . Eastern South Dakota is lower in elevation and higher in precipitation than the western part of the state , and the Black Hills are a low , isolated mountain group in the southwestern corner of the state . Smaller sub-regions in the state include the Coteau des Prairies , Coteau du Missouri , James River Valley , the Dissected Till Plains , and the Badlands . Geologic formations in South Dakota range in age from two billion-year-old Precambrian granite in the Black Hills to glacial till deposited over the last few million years . South Dakota is the 17th-largest state in the country . South Dakota has a humid continental climate in the east and in the Black Hills , and a semi-arid clima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Andrea Dworkin = Andrea Rita Dworkin ( September 26 , 1946 – April 9 , 2005 ) was an American radical feminist and writer best known for her criticism of pornography , which she argued was linked to rape and other forms of violence against women . Although a radical , she said there was a need for liberals , but was widely criticized by liberal feminists . At the same time , she maintained a dialogue with political conservatives and wrote a topically-related book , Right-Wing Women . After suffering abuse from her first husband , she was introduced to radical feminist literature and began writing Woman Hating . Coming to New York , she became an activist on several issues and a writer , eventually publishing 10 books on feminism . During the late 1970s and 1980s , Dworkin became known as a spokeswoman for the feminist anti-pornography movement and for her writing on pornography and sexuality , particularly Pornography : Men Possessing Women ( 1981 ) and Intercourse ( 1987 ) , which rem</t>
+          <t xml:space="preserve">Blackford County , Indiana = Blackford County is located in the east central portion of the U.S. state of Indiana . The county is named for Judge Isaac Blackford , who was the first speaker of the Indiana General Assembly and a long-time chief justice of the Indiana Supreme Court . Created in 1838 , Blackford County is divided into four townships , and its county seat is Hartford City . Two incorporated cities and one incorporated town are located within the county . The county is also the site of numerous unincorporated communities and ghost towns . Occupying only 165.58 square miles ( 428.9 km2 ) , Blackford County is the fourth smallest county in Indiana . As of the 2010 census , the county 's population is 12,766 people in 5,236 households . Based on population , the county is the 8th smallest county of the 92 in Indiana . Although no interstate highways are located in Blackford County , three Indiana state roads cross the county , and an additional state road is located along the </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Christopher Smart = Christopher Smart ( 11 April 1722 – 21 May 1771 ) , also known as " Kit Smart " , " Kitty Smart " , and " Jack Smart " , was an English poet . He was a major contributor to two popular magazines and a friend to influential cultural icons like Samuel Johnson and Henry Fielding . Smart , a high church Anglican , was widely known throughout London . Smart was infamous as the pseudonymous midwife " Mrs. Mary Midnight " and widespread accounts of his father-in-law , John Newbery , locking him away in a mental asylum for many years over Smart 's supposed religious " mania " . Even after Smart 's eventual release , a negative reputation continued to pursue him as he was known for incurring more debt than he could repay ; this ultimately led to his confinement in debtors ' prison until his death . Smart 's two most widely known works are A Song to David and Jubilate Agno , both at least partly written during his confinement in asylum . However , Jubilate Agno was not publis</t>
+          <t>Wallkill Valley Rail Trail = The Wallkill Valley Rail Trail is a 23.7-mile ( 38.1 km ) rail trail and linear park that runs along the former Wallkill Valley Railroad rail corridor in Ulster County , New York . It stretches from Gardiner through New Paltz , Rosendale , and Ulster to the Kingston city line . The trail is separated from the Walden – Wallkill Rail Trail by two state prisons in Shawangunk , though there have been plans to bypass these facilities , and to connect the Wallkill Valley Rail Trail with other regional rail trails . Plans to create the rail trail began as early as 1983 , when New Paltz considered uses for the then-defunct Wallkill Valley corridor ; the railroad had ceased regular traffic in 1977 , and by 1983 had begun to remove its tracks . In 1991 , a local land trust purchased the 12-mile ( 19 km ) section of the former rail corridor between New Paltz and Gardiner , and conveyed the New Paltz section to the town and village of New Paltz . The trail was formally</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>John B. Cobb = John B. Cobb , Jr . ( born February 9 , 1925 ) is an American theologian , philosopher , and environmentalist . Gary Dorrien has described Cobb as one of the two most important North American theologians of the twentieth century ( the other being Rosemary Radford Ruether ) . Cobb is often regarded as the preeminent scholar in the field of process philosophy and process theology — the school of thought associated with the philosophy of Alfred North Whitehead . Cobb is the author of more than fifty books . In 2014 , Cobb was elected to the prestigious American Academy of Arts and Sciences . A unifying theme of Cobb 's work is his emphasis on ecological interdependence — the idea that every part of the ecosystem is reliant on all the other parts . Cobb has argued that humanity 's most urgent task is to preserve the world on which it lives and depends , an idea which his primary influence — philosopher and mathematician Alfred North Whitehead — describes as " world-loyalty .</t>
+          <t>California State Route 37 = State Route 37 ( SR 37 ) is a state highway in the northern part of California that runs 21 miles ( 34 km ) along the northern shore of San Pablo Bay . It is built from U.S. Route 101 in Novato and runs through the southern tips of Sonoma and Napa counties to Interstate 80 in Vallejo . It serves as a vital connection between the four counties of the North Bay Area , north of San Francisco ; Sonoma Raceway and Six Flags Discovery Kingdom are accessible from Route 37 . Route 37 has been proposed to be built to freeway standards since the early 1950s . However , the proposal was met with many economic and environmental obstacles , making the task all but impossible for much of the route . Problems included a levee break in Vallejo which turned part of the land around the highway into a marsh that is home to endangered salt marsh harvest mice , and a section of highway known as " Blood Alley " for its high rate of fatal accidents . = = Route description = = Inte</t>
         </is>
       </c>
     </row>
@@ -616,32 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tons beam deck consisted guns laid horsepower armor hull boilers displaced steam mounted armament battery knots armored protected stern inch belt commissioned aft scrap torpedo carried waterline ironclad muzzle ship tubes amidships italian shipyard assigned propulsion indicated thick nautical enlisted broken stricken millimeter conning armed trials turrets shaft launched flagship gun twin propeller fired pounder ironclads cruiser caliber submerged load bow driving engines sisters quick powered casemates armour coal forward supplied maximum turbines outbreak draft rounds mounts plates wrought superstructure inches broadside expansion loading iron russian reduced battleship provided secondary hotchkiss class maneuvers fore transverse ammunition backed austro barbettes calibre</t>
+          <t>['election', 'hitler', 'campaign', 'party', 'bush', 'republican', 'political', 'vote', 'labour', 'president', 'presidential', 'democratic', 'war', 'government', 'senate']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SMS Baden ( 1880 ) = SMS Baden was one of four Sachsen-class armored frigates of the German Imperial Navy . Her sister ships were Sachsen , Bayern , and Württemberg . Baden was built in the Imperial Dockyard in Kiel from 1876 to 1883 . The ship was commissioned into the Imperial Navy in September 1883 . She was armed with a main battery of six 26 cm ( 10 in ) guns in two open barbettes . After her commissioning , Baden served with the fleet on numerous training exercises and cruises in the 1880s and 1890s , during which she frequently simulated hostile naval forces . She participated in several cruises escorting Kaiser Wilhelm II on state visits to Great Britain and to various countries in the Baltic Sea in the late 1880s and early 1890s . During 1896 – 1897 , the ship was extensively rebuilt at the Germaniawerft dockyard in Kiel . She was removed from active duty in 1910 and thereafter served in a number of secondary roles , finally serving as a target hulk in the 1920s and 1930s . Sh</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Russian ironclad Kreml = The Russian ironclad Kreml ( Russian : Кремль ) was the third and last Pervenets-class broadside ironclad built for the Imperial Russian Navy during the mid-1860s . She joined the Baltic Fleet upon completion and accidentally sank a Russian frigate in 1869 . The ship was assigned to the Gunnery Training Detachment in 1870 and was frequently rearmed . Kreml sank in shallow water after a storm in 1885 ; she was refloated and returned to service . The ship was placed in reserve in 1904 and disarmed the following year before being sold for scrap in 1908 . = = Design and description = = The Pervenents-class ironclads were designed as coastal defence ships to protect the approaches to Saint Petersburg and were referred to as " self-propelled armored floating batteries " . As such , heavy armament and protection were the most important factors in their design . Kreml was 221 feet ( 67.4 m ) long overall , with a beam of 53 feet ( 16.2 m ) and a mean draft of 15 feet (</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Design A-150 battleship = Design A-150 , also known as the Super Yamato class , was an Imperial Japanese plan for a class of battleships . Begun in 1938 – 39 , the design was mostly complete by 1941 . However , so that a demand for other types of warships could be met , all work on Design A-150 was halted and no keels were laid . Authors William H. Garzke and Robert O. Dulin have argued that Design A-150 would have been the " most powerful battleships in history " because of the massive size of their main battery of six 510 mm ( 20 in ) guns as well as numerous smaller caliber weapons . = = Design = = = = = Background = = = Initial plans for the A-150 battleships called for eight or nine 510 mm ( 20.1 in ) guns in quadruple or triple turrets . The successful construction of a 480 mm ( 18.9 in ) gun in 1920 – 1921 made the Japanese confident that a 510 mm ( 20.1 in ) could be built . In addition , a top speed of 30 knots ( 56 km / h ; 35 mph ) was desired so that the class would be fast</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SMS Nymphe = SMS Nymphe was the third member of the ten-ship Gazelle class , built by the Imperial German Navy . She was built by the Germaniawerft shipyard in Kiel , laid down in 1898 , launched in November 1899 , and commissioned into the High Seas Fleet in September 1900 . Armed with a main battery of ten 10.5 cm ( 4.1 in ) guns and two 45 cm ( 18 in ) torpedo tubes , Nymphe was capable of a top speed of 21.5 knots ( 39.8 km / h ; 24.7 mph ) . The ship had a long , if uneventful , career that spanned over thirty years and saw service in both the Imperial Navy and the Reichsmarine . She served as a coastal defense ship during the first two years of World War I before being reduced to a barracks ship . She returned to active duty with the Reichsmarine in 1924 and served until 1929 . She was stricken in August 1931 and broken up for scrap the following year . = = Construction = = Nymphe was ordered under the contract name " A " and was laid down at the Germaniawerft shipyard in Kiel in</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Italian ironclad Messina = Messina was the second of three Principe di Carignano-class ironclads built for the Italian Regia Marina ( Royal Navy ) in the 1860s . She was laid down in September 1861 , her hull was launched in December 1864 , and she was completed in February 1867 . Messina was a broadside ironclad armed with a battery of four 8-inch ( 200 mm ) guns and eighteen 164-millimeter ( 6.5 in ) guns . Her career was limited , owing to the emergence of more modern ironclads and a severe reduction in the Italian naval budget following their defeat at the Battle of Lissa in 1866 . She was discarded in 1875 and sold to ship breakers to help pay for new ironclads then under construction . = = Design = = Messina was 72.8 meters ( 239 ft ) long between perpendiculars ; she had a beam of 15.1 m ( 50 ft ) and an average draft of 7.27 m ( 23.9 ft ) . She displaced 3,868 metric tons ( 3,807 long tons ; 4,264 short tons ) normally and up to 4,245 t ( 4,178 long tons ; 4,679 short tons ) at</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>different called given form example point elements real use possible formula sequence particular result simple similar method function known physical results defined terms non problem theory important equivalent functions instance shown uses related constant space set value applications linear types zero complex basic field values light figure energy mechanical matrix systems plane standard properties corresponding case triangle gives mathematical direction methods group equation numbers code allows element definition continuous independent structure type frequency fact useful means map components analysis sense finite dimensional ways normal change equal infinite information certain order filter rules surface electrical ratio image step mechanics quantum cell</t>
+          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'rainfall', 'damage', 'landfall', 'wind', 'utc', 'flooding', 'weakened', 'intensity']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jerry Fodor = Jerry Alan Fodor ( / ˈfoʊdər / ; born 1935 ) is an American philosopher and cognitive scientist . He holds the position of State of New Jersey Professor of Philosophy , Emeritus , at Rutgers University and is the author of many works in the fields of philosophy of mind and cognitive science , in which he has laid the groundwork for the modularity of mind and the language of thought hypotheses , among other ideas . He is known for his provocative and sometimes polemical style of argumentation and as " one of the principal philosophers of mind of the late twentieth and early twenty-first century . In addition to having exerted an enormous influence on virtually every portion of the philosophy of mind literature since 1960 , Fodor ’ s work has had a significant impact on the development of the cognitive sciences . " Fodor argues that mental states , such as beliefs and desires , are relations between individuals and mental representations . He maintains that these representa</t>
+          <t xml:space="preserve">Hurricane Iwa = Hurricane Iwa , taken from the Hawaiian language name for the frigatebird ( ʻiwa , lit . " Thief " ) , was at the time the costliest hurricane to affect the state of Hawaiʻi . Iwa was the twenty-third tropical storm and the twelfth and final hurricane of the 1982 Pacific hurricane season . It developed from an active trough of low pressure near the equator on November 19 . The storm moved erratically northward until becoming a hurricane on November 23 when it began accelerating to the northeast in response to strong upper-level flow from the north . Iwa passed within 25 miles of the island of Kauaʻi with peak winds of 90 mph ( 145 km / h ) on November 23 ( November 24 Coordinated Universal Time ) , and the next day it became extratropical to the northeast of the state . The hurricane devastated the islands of Niʻihau , Kauaʻi , and Oʻahu with wind gusts exceeding 100 mph ( 160 km / h ) and rough seas exceeding 30 feet ( 9 m ) in height . The first significant hurricane </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Noctilucent cloud = Night clouds or noctilucent clouds are tenuous cloud-like phenomena that are the " ragged edge " of a much brighter and pervasive polar cloud layer called polar mesospheric clouds in the upper atmosphere , visible in a deep twilight . They are made of ice crystals . Noctilucent roughly means night shining in Latin . They are most commonly observed in the summer months at latitudes between 50 ° and 70 ° north and south of the equator . These clouds can be observed only when the Sun is below the horizon for the observer , but while the clouds are still in sunlight . They are the highest clouds in Earth 's atmosphere , located in the mesosphere at altitudes of around 76 to 85 kilometres ( 47 to 53 mi ) . They are normally too faint to be seen , and are visible only when illuminated by sunlight from below the horizon while the lower layers of the atmosphere are in the Earth 's shadow . Noctilucent clouds are not fully understood and are a recently discovered meteorologi</t>
+          <t>Tropical Storm Harvey ( 1999 ) = Tropical Storm Harvey was a moderately strong tropical storm that caused flooding across south Florida during the 1999 Atlantic hurricane season . The tenth tropical cyclone and eighth named storm of the season , Harvey developed from a tropical wave in the Gulf of Mexico on September 19 . After forming , the system gradually intensified and became a tropical storm early on September 20 . Throughout the rest of its duration , Harvey slowly intensified as it headed eastward . Late on September 21 , Harvey made landfall in Southwest Florida with winds of 60 mph ( 95 km / h ) . Harvey emerged into the Atlantic early on September 22 , but was absorbed by an extratropical cyclone . The remnants of Harvey reached Atlantic Canada before dissipating . Harvey caused minor flooding in south Florida because of light to relatively heavy rainfall in that portion of the state and at least 34 houses and businesses in southern Florida were flooded . There were sporadic</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Speech-generating device = Speech-generating devices ( SGDs ) , also known as voice output communication aids , are electronic augmentative and alternative communication ( AAC ) systems used to supplement or replace speech or writing for individuals with severe speech impairments , enabling them to verbally communicate their needs . SGDs are important for people who have limited means of interacting verbally , as they allow individuals to become active participants in communication interactions . They are particularly helpful for patients suffering from Amyotrophic Lateral Sclerosis ( ALS ) but recently have been used for children with predicted speech deficiencies . There are several input and display methods for users of varying abilities to make use of SGDs . Some SGDs have multiple pages of symbols to accommodate a large number of utterances , and thus only a portion of the symbols available are visible at any one time , with the communicator navigating the various pages . Speech-g</t>
+          <t>1933 Outer Banks hurricane = The 1933 Outer Banks hurricane lashed portions of the North Carolina and Virginia coasts less than a month after another hurricane hit the general area . The twelfth tropical storm and sixth hurricane of the 1933 Atlantic hurricane season , it formed by September 8 to the east of the Lesser Antilles . It moved generally to the north-northwest and strengthened quickly to peak winds of 140 mph ( 220 km / h ) on September 12 . This made it a major hurricane and a Category 4 on the Saffir-Simpson scale . The hurricane remained at or near that intensity for several days while tracking to the northwest . It weakened approaching the southeastern United States , and on September 16 passed just east of Cape Hatteras , North Carolina with winds of about 100 mph ( 160 km / h ) . Turning to the northeast , the hurricane became extratropical on September 18 before moving across Atlantic Canada , eventually dissipating four days later . The threat of the hurricane prompt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Long-term potentiation = In neuroscience , long-term potentiation ( LTP ) is a persistent strengthening of synapses based on recent patterns of activity . These are patterns of synaptic activity that produce a long-lasting increase in signal transmission between two neurons . The opposite of LTP is long-term depression , which produces a long-lasting decrease in synaptic strength . It is one of several phenomena underlying synaptic plasticity , the ability of chemical synapses to change their strength . As memories are thought to be encoded by modification of synaptic strength , LTP is widely considered one of the major cellular mechanisms that underlies learning and memory . LTP was discovered in the rabbit hippocampus by Terje Lømo in 1966 and has remained a popular subject of research since . Many modern LTP studies seek to better understand its basic biology , while others aim to draw a causal link between LTP and behavioral learning . Still others try to develop methods , pharmaco</t>
+          <t xml:space="preserve">Hurricane Barry ( 1983 ) = Hurricane Barry was the fourth tropical depression , second hurricane and named storm of the inactive 1983 Atlantic hurricane season . Developing out of a tropical wave on August 23 , Barry quickly strengthened off the coast of Florida , reaching an initial peak intensity with winds of 60 mph ( 95 km / h ) . However , increased wind shear caused the storm to weaken to a tropical depression before making landfall near Melbourne , Florida , the next morning . Traveling almost due west , the storm regenerated and became a hurricane on August 28 . The storm made landfall on the northern Mexican coastline later that day at peak intensity . Rapid weakening followed shortly after and the storm dissipated the next day . The storm had only minor effects in the United States but destroyed hundreds of homes and left over 400 homeless in northern Mexico . Despite the damage , there were no reports of fatalities or injuries . = = Meteorological history = = The origins of </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ecology = Ecology ( from Greek : οἶκος , " house " , or " environment " ; -λογία , " study of " ) is the scientific analysis and study of interactions among organisms and their environment . It is an interdisciplinary field that includes biology , geography , and Earth science . Ecology includes the study of interactions organisms have with each other , other organisms , and with abiotic components of their environment . Topics of interest to ecologists include the diversity , distribution , amount ( biomass ) , and number ( population ) of particular organisms , as well as cooperation and competition between organisms , both within and among ecosystems . Ecosystems are composed of dynamically interacting parts including organisms , the communities they make up , and the non-living components of their environment . Ecosystem processes , such as primary production , pedogenesis , nutrient cycling , and various niche construction activities , regulate the flux of energy and matter throug</t>
+          <t xml:space="preserve">Cyclogenesis = Cyclogenesis is the development or strengthening of cyclonic circulation in the atmosphere ( a low-pressure area ) . Cyclogenesis is an umbrella term for at least three different processes , all of which result in the development of some sort of cyclone , and at any size from the microscale to the synoptic scale . Tropical cyclones form due to latent heat driven by significant thunderstorm activity , and are warm core . Extratropical cyclones form as waves along weather fronts before occluding later in their life cycle as cold core cyclones . Mesocyclones form as warm core cyclones over land , and can lead to tornado formation . Waterspouts can also form from mesocyclones , but more often develop from environments of high instability and low vertical wind shear . The process in which an extratropical cyclone undergoes a rapid drop in atmospheric pressure ( 24 millibars or more ) in a 24-hour period is referred to as explosive cyclogenesis , and is usually present during </t>
         </is>
       </c>
     </row>
@@ -686,32 +686,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>war american later wrote years began men time british land united_states known general early received including southern day returned state military lincoln new_york near governor family continued led march sent north south town command small president took hamilton major came gave battle new left large died massachusetts july arnold texas fort remained troops washington arrived called soldiers went slavery expedition included ordered settlers colonial end man city government named officers year house slaves new_england death miles days jefferson june navy life white congress virginia army return grant spanish area boston great confederate people slave commander following attack little served moved</t>
+          <t>['king', 'government', 'polish', 'political', 'emperor', 'son', 'arab', 'death', 'military', 'army', 'died', 'pope', 'poland', 'reign', 'byzantine']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Constitutional Convention ( United States ) = The Constitutional Convention ( also known as the Philadelphia Convention , the Federal Convention , or the Grand Convention at Philadelphia ) took place from May 25 to September 17 , 1787 , in Philadelphia , Pennsylvania . Although the Convention was intended to revise the Articles of Confederation , the intention from the outset of many of its proponents , chief among them James Madison and Alexander Hamilton , was to create a new government rather than fix the existing one . The delegates elected George Washington to preside over the Convention . The result of the Convention was the creation of the United States Constitution , placing the Convention among the most significant events in the history of the United States . The most contentious disputes revolved around the composition and election of the Senate , how " proportional representation " was to be defined ( whether to include slaves or other property ) , whether to divide the exec</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zachary Taylor = Zachary Taylor ( November 24 , 1784 – July 9 , 1850 ) was the 12th President of the United States , serving from March 1849 until his death in July 1850 . Before his presidency , Taylor was a career officer in the United States Army , rising to the rank of major general . Taylor 's status as a national hero as a result of his victories in the Mexican-American War won him election to the White House despite his vague political beliefs . His top priority as president was preserving the Union , but he died seventeen months into his term , before making any progress on the status of slavery , which had been inflaming tensions in Congress . Taylor was born into a prominent family of planters who migrated westward from Virginia to Kentucky in his youth . Taylor was commissioned as an officer in the U.S. Army in 1808 and made a name for himself as a captain in the War of 1812 . He climbed the ranks establishing military forts along the Mississippi River and entered the Black </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Spanish conquest of Yucatán = The Spanish conquest of Yucatán was the campaign undertaken by the Spanish conquistadores against the Late Postclassic Maya states and polities in the Yucatán Peninsula , a vast limestone plain covering south-eastern Mexico , northern Guatemala , and all of Belize . The Spanish conquest of the Yucatán Peninsula was hindered by its politically fragmented state . The Spanish engaged in a strategy of concentrating native populations in newly founded colonial towns . Native resistance to the new nucleated settlements took the form of the flight into inaccessible regions such as the forest or joining neighbouring Maya groups that had not yet submitted to the Spanish . Among the Maya , ambush was a favoured tactic . Spanish weaponry included broadswords , rapiers , lances , pikes , halberds , crossbows , matchlocks and light artillery . Maya warriors fought with flint-tipped spears , bows and arrows and stones , and wore padded cotton armour to protect themselve</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gadsden Purchase = The Gadsden Purchase ( known in Mexico as Spanish : Venta de La Mesilla , " Sale of La Mesilla " ) is a 29,670-square-mile ( 76,800 km2 ) region of present-day southern Arizona and southwestern New Mexico that was purchased by the United States in a treaty signed on December 30 , 1853 by James Gadsden who was the American ambassador to Mexico at that time . It was then ratified , with changes , by the U.S. Senate on April 25 , 1854 , and signed by 14th President Franklin Pierce , with final approval action taken by Mexico 's government and their General Congress or Congress of the Union on June 8 , 1854 . The purchase was the last territorial acquisition in the contiguous United States to add a large area to the country . The purchase included lands south of the Gila River and west of the Rio Grande ; it was largely so that the U.S. could construct a transcontinental railroad along a deep southern route . ( This happened with the transcontinental railroad , construct</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Francis Nicholson = Francis Nicholson ( 12 November 1655 – March 16 , 1728 [ O.S. March 5 , 1727 ] ) was a British military officer and colonial administrator . His military service included time in Africa and Europe , after which he was sent as leader of the troops supporting Sir Edmund Andros in the Dominion of New England . There he distinguished himself , and was appointed lieutenant governor of the dominion in 1688 . After news of the Glorious Revolution reached the colonies in 1689 , Andros was overthrown in the Boston Revolt . Nicholson himself was soon caught up in unrest in New York , and fled to England . He next served as lieutenant governor or governor of Virginia and Maryland . He supported the founding of the College of William and Mary , and quarreled with Andros after Andros was selected over him as governor of Virginia . In 1709 he became involved in colonial military actions during Queen Anne 's War , leading an aborted expedition against Canada . He then led the expe</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -721,32 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>game released games player music version original series release story characters players main character japan based development soundtrack tracks hero theme playing japanese published new guitar plot enix playstation gaming created video gameplay versions features included called scenario anime sold localization received previous songs mode composed final_fantasy playable persona tales developed battle square_enix famitsu praised titled manga multiplayer content dragon online best world use rpg developers include arranged ign xbox create downloadable ending console portable different abilities arrangements controller nintendo volumes soundtracks hearts fantasy gamespot items wii protagonist featured difficulty ps2 similar multiple mortal cutscenes fan key containing additional reviewers</t>
+          <t>['species', 'shark', 'genus', 'sharks', 'females', 'prey', 'eggs', 'males', 'cap', 'birds', 'nest', 'habitat', 'fin', 'brown', 'stem']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Guitar Hero Mobile series = Guitar Hero Mobile is a series of rhythm video games in the Guitar Hero series , adapting the normal console-based gameplay which uses a guitar-shaped controller to match notes of popular rock music songs to work with the face buttons on advanced mobile phones , including BlackBerry devices and those supporting the Windows Mobile platform . The first three games in the series — Guitar Hero III Mobile , Guitar Hero III Backstage Pass , and Guitar Hero World Tour Mobile — were developed by MachineWorks Northwest LLC and published by Hands-On Mobile , while a mobile version of Guitar Hero 5 was developed by Glu Mobile . The series has proven to be popular ; the Guitar Hero III Mobile game has been downloaded more than 2 million times , and over 250,000 songs are played each day across the series . = = Development = = Originally , the Guitar Hero Mobile series was published by Hands-On Mobile and developed by MachineWorks Northwest LLC . For the first game , Gui</t>
+          <t>Galapagos shark = The Galapagos shark ( Carcharhinus galapagensis ) is a species of requiem shark , in the family Carcharhinidae , found worldwide . This species favors clear reef environments around oceanic islands , where it is often the most abundant shark species . A large species that often reaches 3.0 m ( 9.8 ft ) , the Galapagos reef shark has a typical fusiform " reef shark " shape and is very difficult to distinguish from the dusky shark ( C. obscurus ) and the grey reef shark ( C. amblyrhynchos ) . An identifying character of this species is its tall first dorsal fin , which has a slightly rounded tip and originates over the rear tips of the pectoral fins . Galapagos sharks are active predators often encountered in large groups . They feed mainly on bottom-dwelling bony fishes and cephalopods ; larger individuals have a much more varied diet , consuming other sharks , marine iguanas , sea lions , and even garbage . As in other requiem sharks , reproduction is viviparous , wit</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Silent Hill : Shattered Memories = Silent Hill : Shattered Memories ( サイレントヒル シャッタードメモリーズ , Sairento Hiru : Shattādo Memorīzu ) is a survival horror video game developed by Climax Studios and published by Konami Digital Entertainment for the Wii in December 2009 . It was ported to the PlayStation 2 and PlayStation Portable platforms , and these versions were released in January 2010 . In April 2014 , it appeared on the PlayStation Network in Europe . The game is the seventh installment in the Silent Hill video game series , serving as both a reboot of the franchise and a reimagining of the first installment . Shattered Memories retains the premise of the original game — Harry Mason 's quest to find his missing daughter in the fictitious American town of Silent Hill — but is set in a different fictional universe , has a different plot , and altered characters , alongside new ones . Five endings are available . Gameplay takes place in two parts : a framing , first-person psychotherapy se</t>
+          <t>Milk shark = The milk shark ( Rhizoprionodon acutus ) is a species of requiem shark , and part of the family Carcharhinidae , whose common name comes from an Indian belief that consumption of its meat promotes lactation . The largest and most widely distributed member of its genus , the milk shark typically measures 1.1 m ( 3.6 ft ) long , and can be found in coastal tropical waters throughout the eastern Atlantic and the Indo-Pacific regions . Occurring from the surface to a depth of 200 m ( 660 ft ) , this species is common near beaches and in estuaries , and has been recorded swimming up rivers in Cambodia . Juveniles are known to inhabit tidal pools and seagrass meadows . The milk shark has a slender body with a long , pointed snout and large eyes , and is a nondescript gray above and white below . This shark can be distinguished from similar species in its range by the long furrows at the corners of its mouth , and seven to 15 enlarged pores just above them . Among the most abunda</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Deus Ex = Deus Ex [ ˈde.ʊs ɛks ] is a cyberpunk-themed action role-playing video game — combining first-person shooter , stealth and role-playing elements — developed by Ion Storm and published by Eidos Interactive in 2000 . First published for personal computers running Microsoft Windows , Deus Ex was later ported to Mac OS systems and PlayStation 2 . Set in a dystopian world during the year 2052 , the central plot follows rookie United Nations Anti-Terrorist Coalition agent JC Denton , as he sets out to combat terrorist forces , which have become increasingly prevalent in a world slipping ever further into chaos . As the plot unfolds , Denton becomes entangled in a deep and ancient conspiracy , encountering organizations such as Majestic 12 , the Illuminati and the Hong Kong Triads during his journey . The game received universal critical acclaim , including repeatedly being named " Best PC Game of All Time " in PC Gamer 's " Top 100 PC Games " in 2011 and in a poll carried out by UK</t>
+          <t>Zebra shark = This species is sometimes called the leopard shark , a name otherwise used for Triakis semifasciata . The zebra shark ( Stegostoma fasciatum ) is a species of carpet shark and the sole member of the family Stegostomatidae . It is found throughout the tropical Indo-Pacific , frequenting coral reefs and sandy flats to a depth of 62 m ( 203 ft ) . Adult zebra sharks are distinctive in appearance , with five longitudinal ridges on a cylindrical body , a low caudal fin comprising nearly half the total length , and a pattern of dark spots on a pale background . Young zebra sharks under 50 – 90 cm ( 20 – 35 in ) long have a completely different pattern , consisting of light vertical stripes on a brown background , and lack the ridges . This species attains a length of 2.5 m ( 8.2 ft ) . Zebra sharks are nocturnal and spend most of the day resting motionless on the sea floor . At night , they actively hunt for molluscs , crustaceans , small bony fishes , and possibly sea snakes i</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nine Hours , Nine Persons , Nine Doors = Nine Hours , Nine Persons , Nine Doors is a visual novel adventure game developed by Chunsoft . It was released in Japan in 2009 and in North America in 2010 for the Nintendo DS , with an iOS version following in 2013 in Japan and 2014 in the rest of the world . The game is the first installment in the Zero Escape series , and is the predecessor to the 2012 game Zero Escape : Virtue 's Last Reward . The story follows Junpei , a college student who is abducted along with eight other people and forced to play the " Nonary Game , " which puts its participants in a life-or-death situation , to escape from a sinking cruise liner . The gameplay alternates between two types of sections : Escape sections , where the player completes puzzles in escape-the-room scenarios ; and Novel sections , where the player reads the game 's narrative and makes decisions that influence the story , making it branch into six different endings . The whole plot is not reve</t>
+          <t xml:space="preserve">Ctenophora = Ctenophora ( / tᵻˈnɒfərə / ; singular ctenophore , / ˈtɛnəfɔːr / or / ˈtiːnəfɔːr / ; from the Greek κτείς kteis ' comb ' and φέρω pherō ' carry ' ; commonly known as comb jellies ) is a phylum of invertebrate animals that live in marine waters worldwide . Their most distinctive feature is the ‘ combs ’ – groups of cilia which they use for swimming – they are the largest animals that swim by means of cilia . Adults of various species range from a few millimeters to 1.5 m ( 4 ft 11 in ) in size . Like cnidarians , their bodies consist of a mass of jelly , with one layer of cells on the outside and another lining the internal cavity . In ctenophores , these layers are two cells deep , while those in cnidarians are only one cell deep . Some authors combined ctenophores and cnidarians in one phylum , Coelenterata , as both groups rely on water flow through the body cavity for both digestion and respiration . Increasing awareness of the differences persuaded more recent authors </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The King of Fighters ' 94 = The King of Fighters ' 94 ( officially abbreviated KOF ' 94 ) is a fighting game released by SNK for the Neo Geo-based arcade system in 1994 , as the inaugural game in The King of Fighters series . The game was soon also released for the Neo Geo home console systems , including a Neo-Geo CD version . In 2008 , KOF ' 94 was one of sixteen games included in SNK Arcade Classics Vol . 1 for the PlayStation 2 , PlayStation Portable and Wii . KOF ' 94 is a crossover featuring characters from SNK 's previous fighting game properties Fatal Fury and Art of Fighting . It also includes revised versions of characters from their pre-Neo Geo games Ikari Warriors and Psycho Soldier , as well as original characters created specifically for the game . The plot features the creation of a new King of Fighters tournament created by the criminal Rugal Bernstein . SNK developed KOF ' 94 with the initial idea of using several games from the company in order to attract gamers who p</t>
+          <t>Jack Fingleton = John " Jack " Henry Webb Fingleton OBE ( 28 April 1908 – 22 November 1981 ) was an Australian cricketer who was trained as a journalist and became a political and cricket commentator after the end of his playing career . A stubborn opening batsman known for his dour defensive approach , he scored five Test centuries , representing Australia in 18 Tests between 1932 and 1938 . He was also known for his involvement in several cricket diplomacy incidents in his career , accused of leaking the infamous verbal exchange between Australian captain Bill Woodfull and English manager Plum Warner during the acrimonious Bodyline series , and later of causing sectarian tension within the team by leading a group of players of Irish Catholic descent in undermining the leadership of the Protestant Don Bradman . In retirement , Fingleton became a prominent political commentator in Canberra , with links to Australian prime ministers . The author of many cricket books , he is regarded as</t>
         </is>
       </c>
     </row>
@@ -756,32 +756,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tropical storm cyclone area cyclones near level wind low formed depression miles winds water west sea activity ice high southwest northwest system storms south volcano peak typhoon coast mph disturbance shear trough surface cold southeast eruption weather feet form circulation temperature day moved upper days formation caused hurricane convection ocean northeast rainfall flows land august developed monsoon volcanic mountain east lava ridge significant air turned subtropical warm atmosphere moving intensity westward july basin dissipated pressure cloud center region weakened lower september severe snow clouds southern strong temperatures active pacific areas zone extratropical large island organized metres mid waters eastern lake</t>
+          <t>['game', 'player', 'gameplay', 'games', 'players', 'soundtrack', 'mario', 'playstation', 'graphics', 'mode', 'hero', 'nintendo', 'characters', 'released', 'version']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1995 – 96 South-West Indian Ocean cyclone season = The 1995 – 96 South-West Indian Ocean cyclone season was a moderately active season that included Cyclone Bonita , which was the first known tropical cyclone to cross from the southern Indian Ocean into the southern Atlantic Ocean . Tropical activity lasted for about six months from the middle of November 1995 to early May 1996 . The first storm , Intense Tropical Cyclone Agnielle , formed in the adjacent Australian basin on November 16 and later reached peak winds in the south-west Indian Ocean . The next named storm after Agnielle was Bonita , which formed in early January and killed 42 people . The basin was most active in February , with two tropical cyclones , or the equivalent of a minimal hurricane , as well as a severe tropical storm . The first of these three was Doloresse , which killed 67 people due to a shipwreck in the Comoros . The next storm was Cyclone Edwige , which caused heavy crop damage on Mauritius before looping </t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1994 – 95 South-West Indian Ocean cyclone season = The 1994 – 95 South-West Indian Ocean cyclone season was fairly active , with storms forming regularly from October through April . It was much less damaging than its predecessor , and most of the storms in the season remained over water or only brushed land . The first system was Tropical Depression A1 , which formed in October and passed north of Madagascar . The first named storm was Albertine , which formed on November 23 in the northeastern portion of the basin and became one of three intense tropical cyclones . The last storm was Marlene , which was also an intense tropical cyclone and dissipated on April 11 . Most of the storms originated from the intertropical convergence zone . In late December into early January , tropical storms Bentha and Christelle persisted to the east of Madagascar , undergoing the Fujiwhara effect with each other . Later in January , Dorina became the second of three intense tropical cyclones , but weak</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1991 Pacific hurricane season = The 1991 Pacific hurricane season was a near-average Pacific hurricane season . The worst storm this year was Tropical Depression Five-E , which killed one person in Mexico . Elsewhere , Tropical Storm Ignacio injured forty people in Mexico , and Hurricane Fefa caused flooding in Hawaii . Hurricane Kevin was the strongest system of the season and became resulted the then longest-lasting hurricane in the eastern north Pacific basin . Hurricane Nora was the strongest November storm at that time . The season officially started on May 15 , 1991 in the eastern Pacific , and on June 1 , 1991 in the central Pacific . It lasted until November 30 , 1991 in both basins . These dates conventionally delimit the period of each year when most tropical cyclones form in the northeastern Pacific Ocean . = = Season summary = = During the season , a total of sixteen tropical cyclones developed , featuring ten hurricanes , four tropical storms and two tropical depressions .</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2002 – 03 South-West Indian Ocean cyclone season = The 2002 – 03 South-West Indian Ocean cyclone season was one of the longest lasting and the second-most active season in the South-West Indian ocean . Storms during the season impacted the Mascarene Islands , Seychelles , Madagascar , and countries in southeastern Africa . The season began early when an unnamed tropical storm struck Seychelles in September , becoming the most damaging storm there in 50 years . The next system , Atang , was the first named storm of the season , but was only a tropical depression ; it was named due to the threat to an outer island of Mauritius . Atang later struck Tanzania in a climatologically unusual area in November , resulting in unconfirmed deaths of fishermen . The first named storm to reach tropical storm intensity was Boura , which brushed the Mascarene Islands with gusty winds and rainfall . In December , Cyclone Crystal threatened to strike Mauritius but instead veered eastward , and later , Tr</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1989 Pacific hurricane season = The 1989 Pacific hurricane season was a really active Pacific hurricane season that produced a lot of tropical cyclones near Mexico and Baja California . It officially started on May 15 , 1989 in the eastern Pacific , and June 1 , 1989 in the central Pacific , and lasted until November 30 , 1989 . These dates conventionally delimit the period of each year when most tropical cyclones form in the northeastern Pacific Ocean . A total of 17 storms and 9 hurricanes formed , which was near long-term averages . Four hurricanes reached major hurricane status ( Category 3 or higher ) on the Saffir-Simpson Hurricane Scale . Notable storms include Hurricanes Cosme , Kiko , and Raymond . Cosme crossed over Mexico and killed 30 people . Hurricane Kiko made landfall on the Gulf of California side of the Baja California Peninsula . Hurricane Raymond was the strongest storm of the season , but weakened significantly before landfall . = = Seasonal summary = = Overall , t</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -791,32 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>court act public law state rights case government right cases united_states courts decision singapore person held review legal states constitutional required appeal provisions subject article constitution section purpose judges non order free federal justice executive laws process jurisdiction requires members amendment powers apply shall human persons action provision clause information criminal question means judgment common freedom property specifically authority people certain statute purposes argued supreme_court necessary interest judicial applicable report effect provides bill opinion prevent judge limited exercise provided protection view congress power citizens scope passed legislation considered acts provide ensure issued judiciary decisions enacted personal involving actions parliament adopted</t>
+          <t>['innings', 'runs', 'league', 'baseball', 'nba', 'batting', 'season', 'career', 'team', 'scored', 'wickets', 'basketball', 'games', 'rebounds', 'batted']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Same-sex marriage in Maryland = Same-sex marriage has been legally recognized in Maryland since January 1 , 2013 . In 2012 , the state 's Democratic representatives , led by Governor Martin O 'Malley , began a campaign for its legalization . After much debate , a law permitting same-sex marriage was passed by the General Assembly ( Maryland 's bicameral legislature , composed of the Senate and House of Delegates ) in February 2012 and signed on March 1 , 2012 . The law took effect on January 1 , 2013 after 52.4 % of voters approved a statewide referendum held on November 6 , 2012 . The vote was hailed as a watershed moment by gay rights activists and marked the first time marriage rights in the United States have been extended to same-sex couples by popular vote . Upon the rise of the same-sex marriage movement in the early 1970s , Maryland established the first law in the United States that expressly defined marriage to be a union between a man and a woman . Attempts to both ban and l</t>
+          <t>Haseeb Ahsan = Haseeb Ahsan ( Urdu : حسيب احسن ; 15 July 1939 – 8 March 2013 ) was a Pakistani cricketer who played 12 Tests for Pakistan between 1958 and 1962 . He was born in Peshawar , Khyber Pakhtunkhwa . A right-arm off spinner , he took 27 wickets in Test cricket at an average of 49.25 , including two five-wicket hauls . During his first-class career , he played 49 matches and took 142 wickets at an average of 27.71 . Former Pakistan cricketer Waqar Hasan said about him that he " was a fighter to the core and served Pakistan cricket with honour and dignity . " Ahsan had conflicts with former Pakistan captain Javed Burki . A controversy regarding his bowling action resulted in the premature end of his international career when he was only 23 . He worked as chief selector , team manager of Pakistan , and member of the 1987 Cricket World Cup organising committee . He died in Karachi on 8 March 2013 , aged 73 . = = Cricketing career = = Ahsan played 49 first-class matches for Pakista</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim Davis ( county clerk ) = Kimberly Jean Davis ( née Bailey ; born September 17 , 1965 ) is the county clerk for Rowan County , Kentucky who gained international attention in August 2015 when she defied a U.S. federal court order to issue marriage licenses to same-sex couples , following the June 26 , 2015 , U.S. Supreme Court decision in Obergefell v. Hodges . Kim Davis reacted to the decision by denying marriage licenses to all couples , saying she was acting " under God 's authority " . Her defiance led to her jail sentence , while both supporters and detractors hotly debated her stance in the national media . Marriage licenses in Rowan County are now being issued to all citizens as required by law . Davis was born in Jackson , Kentucky . By 1991 , Davis was serving as chief deputy clerk of Rowan County , reporting to her mother , the Rowan County clerk . Davis ' first three marriages ended in divorce in 1994 , 2006 , and 2008 ; she then remarried her second husband in 2009 . She </t>
+          <t xml:space="preserve">Somerset County Cricket Club in 1882 = Somerset County Cricket Club made their debut in first-class cricket in the 1882 English cricket season . They were captained by Stephen Newton , and played eight first-class matches , five against county opposition , two against the Marylebone Cricket Club and one against the touring Australian team . They only won one of the eight contests , that against Hampshire at Taunton . Of the other matches , one was drawn and the other six were all losses for Somerset . Wisden Cricketers ' Almanack described the season as " disastrous " , but the publication qualified this statement with mild optimism for 1883 . Part of the reason for Somerset 's poor performances was their inability to consistently field their best players ; at least four of their better cricketers were unable to commit to the full fixture list , and in all the county played 30 different people in their eight matches . Faint praise was offered to the batting of William Herbert Fowler , </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Weiquan movement = The Weiquan movement is a non-centralized group of lawyers , legal experts , and intellectuals in China who seek to protect and defend the civil rights of the citizenry through litigation and legal activism . The movement , which began in the early 2000s , has organized demonstrations , sought reform via the legal system and media , defended victims of human rights abuses , and written appeal letters , despite opposition from Communist Party authorities . Among the issues adopted by Weiquan lawyers are property and housing rights , protection for AIDS victims , environmental damage , religious freedom , freedom of speech and the press , and defending the rights of other lawyers facing disbarment or imprisonment . Individuals involved in the Weiquan movement have met with occasionally harsh reprisals from Chinese officials , including disbarment , detention , harassment , and , in extreme instances , torture . Authorities have also responded to the movement with the l</t>
+          <t>M. P. Bajana = Manek Pallon Bajana ( 14 September 1886 – 28 April 1927 ) was an Indian amateur cricketer who played 55 first-class cricket matches between 1911 and 1920 . Originally a member of the Indian team which toured England in 1911 , he remained in the country and joined Somerset County Cricket Club , for which he played as an opening batsman until 1920 . During his nine-year first-class cricket career , Bajana scored 1,975 runs at an average of 20.78 . He scored three centuries , and made his highest score in 1920 , scoring 115 runs against Cambridge University . = = Early life and Indian tour = = Manek Pallon Bajana was born on 14 September 1886 in India . Leading up to 1911 , he was employed in India by Maharaja Nripendra Narayan of Cooch Behar , and early that year , Bajana travelled as part of the Maharajah 's retinue to England , where Narayan was attending the coronation of King George V. In England , he joined up with the touring Indian cricket team , as one of seven Par</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Petition of Right = The Petition of Right is a major English constitutional document that sets out specific liberties of the subject that the king is prohibited from infringing . Passed on 7 June 1628 , the Petition contains restrictions on non-Parliamentary taxation , forced billeting of soldiers , imprisonment without cause , and the use of martial law . Following disputes between Parliament and King Charles I over the execution of the Thirty Years ' War , Parliament refused to grant subsidies to support the war effort , leading to Charles gathering " forced loans " without Parliamentary approval and arbitrarily imprisoning those who refused to pay . Moreover , the war footing of the nation led to the forced billeting of soldiers within the homes of private citizens , and the declaration of martial law over large swathes of the country . In response , the House of Commons prepared a set of four Resolutions , decrying these actions and restating the validity of Magna Carta and the leg</t>
+          <t>Ron Saggers = Ronald Arthur Saggers ( 15 May 1917 – 17 March 1987 ) was an Australian cricketer who played for New South Wales . He played briefly for the Australian team , playing six Tests between 1948 and 1950 . In his Test cricket career he made 24 dismissals ( 16 catches and 8 stumpings ) and scored 30 runs at an average of 10.00 . As a wicket-keeper , Saggers was " tidy and unobtrusive " , and the understudy to Don Tallon on the 1948 Australian tour of England . The touring party , led by Donald Bradman in his last season , was nicknamed The Invincibles and was widely regarded as one of the strongest ever . Saggers played in the Test match at Headingley , where he took three catches , and his only other experience of Test cricket was on the tour to South Africa in 1949 – 50 , in which Tallon did not take part . Saggers played in all five Tests and took 21 dismissals , but Tallon replaced him for the home Ashes series against England the following season . In domestic cricket , Sa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Compliance requirements = In the United States , compliance requirements are a series of directives United States federal government agencies established that summarize hundreds of federal laws and regulations applicable to federal assistance ( also known as federal aid or federal funds ) . They are currently incorporated into the OMB A-133 Compliance Supplement , which was created by the US Office of Management and Budget ( OMB ) . To facilitate a recipients ' compliance with federal laws and regulations , and as well as its annual Single Audit , the OMB created fourteen basic and standard compliance requirements that recipients must comply with when receiving and using such federal assistance . The OMB also provides detailed explanations , discussions , and guidance about them in the OMB A-133 Compliance Supplement . Compliance requirements are only guidelines for compliance with the hundreds of laws and regulations applicable to the specific type assistance used by the recipient , a</t>
+          <t xml:space="preserve">Geoffrey Boycott = Geoffrey Boycott OBE ( born 21 October 1940 ) is a former Yorkshire and England cricketer . In a prolific and sometimes controversial playing career from 1962 to 1986 , Boycott established himself as one of England 's most successful opening batsmen and since retiring as a player , he has found further success as a cricket commentator . Boycott made his international debut in a 1964 Test match against Australia . He was noted for his ability to occupy the crease and became a key feature of England 's Test batting line up for many years , although he was less successful in his limited One Day International ( ODI ) appearances . He accumulated large scores – he is the equal fifth highest accumulator of first-class centuries in history , eighth in career runs and the first English player to average over 100 in a season ( 1971 and 1979 ) – but often encountered friction with his team mates . Journalist Ian Wooldridge commented that " Boycott , in short , walks alone " , </t>
         </is>
       </c>
     </row>
@@ -826,32 +826,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bridge miles area road construction river route line traffic dam water station feet tunnel built valley project park opened canal south railway motorway bridges mile section completed land creek near north street city toll service proposed located watershed access flood link plans lake lanes downstream roads coal constructed channel rail drainage london west navigation acres lane flows stations east upstream lock mouth crossing site town km2 passengers connect cubic tributaries tributary junction wildlife tunnels connecting areas services routes transit western reaches trout trains reservoir cost extension railroad tolls trail interchange border locks basin transport plan corridor rest passenger operated lower</t>
+          <t>['film', 'films', 'bond', 'disney', 'role', 'movie', 'actor', 'starred', 'cast', 'box', 'tamil', 'director', 'filming', 'grossing', 'production']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Second Avenue Subway = The Second Avenue Subway ( officially the IND Second Avenue Line ; abbreviated to SAS ) is a future New York City Subway line that has been under discussion for almost a century . The line will run primarily under Second Avenue on the East Side of Manhattan . A first phase of this new line is expected to open on December 30 , 2016 , having been under construction since 2007 . It will run between 96th Street and Second Avenue and the existing 63rd Street Lines , where it will connect to the BMT Broadway Line and the rest of the subway system . The Q train will provide full-time service on phase one and will serve about 200,000 daily riders . The full line , when funded , will be built in three additional phases , allowing portions of the line to open before the entire line is completed . When complete , it will be served by a proposed T train and is projected to serve about 560,000 daily riders . The full proposed Second Avenue line would consist of 16 stations an</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Causeway = The Causeway is an arterial traffic crossing in Perth , Western Australia , linking the inner-city suburbs of East Perth and Victoria Park . It is composed of two bridges either side of Heirisson Island that cross the Swan River at the eastern end of Perth Water . The current Causeway is the third structure to have been built across the river at this point . Originally the site of mudflats which restricted river navigation , the Colony Government constructed a causeway and bridge across the site . The project was first planned in 1834 and opened in 1843 . When floods in 1862 almost destroyed it , the structure was rebuilt using convict labour , and raised to better withstand future floods . Governor John Hampton officially opened the new Causeway on 12 November 1867 . Over the following decades , the three bridges making up this second Causeway were widened several times , and they were eventually replaced in 1952 . The current Causeway bridges were designed by E W C God</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A4232 road = The A4232 , which is also known either as the Peripheral Distributor Road ( PDR ) ( Welsh : Ffordd Ddosbarthu Ymylol ) or the Cardiff Link Road ( Welsh : Ffordd Gyswllt Caerdydd ) , is a distributor road in Cardiff , the capital of Wales . The first section of the PDR to be completed was the Southern Way Link Road in 1978 and the last section was the Butetown Link Road in 1995 . Construction of the first phase of the final link road , the Eastern Bay Link Road , started on 17 March 2016 and is due to be completed by April 2017 . When fully completed , the road will form part of the Cardiff ring road system . The PDR runs west , south and east of Cardiff , with the M4 between junction 30 and junction 33 completing the northern section . The PDR is dual carriageway for its entire length except for the East Moors Viaduct , which is a single carriageway . The PDR has been constructed in separate link roads of between 1.61 km ( 1.00 mi ) and 5.47 km ( 3.40 mi ) around Cardiff a</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Central Valley Project = The Central Valley Project ( CVP ) is a federal water management project in the U.S. state of California under the supervision of the United States Bureau of Reclamation . It was devised in 1933 in order to provide irrigation and municipal water to much of California 's Central Valley — by regulating and storing water in reservoirs in the water-rich northern half of the state , and transporting it to the water-poor San Joaquin Valley and its surroundings by means of a series of canals , aqueducts and pump plants , some shared with the California State Water Project ( SWP ) . Many CVP water users are represented by the Central Valley Project Water Association . In addition to water storage and regulation , the system has a hydroelectric capacity of over 2,000 megawatts , provides recreation , and provides flood control with its twenty dams and reservoirs . It has allowed major cities to grow along Valley rivers which previously would flood each spring , and tran</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Indian River Inlet Bridge = The Indian River Inlet Bridge ( officially the Charles W. Cullen Bridge ) is a cable-stayed bridge located in Sussex County , Delaware in the United States . It carries four lanes of Delaware Route 1 ( DE 1 ) over the Indian River Inlet between the Indian River Bay and the Atlantic Ocean . The bridge is within Delaware Seashore State Park between Rehoboth Beach and Bethany Beach . The Indian River Inlet Bridge is maintained by the Delaware Department of Transportation ( DelDOT ) . The bridge is 2,600 feet ( 790 m ) long and 107.66 feet ( 32.81 m ) wide , with a span of 950 feet ( 290 m ) and overhead clearance of 45 feet ( 14 m ) . Prior to the current bridge , four other bridges have spanned the Indian River Inlet , opened in 1934 , 1940 , 1952 , and 1965 , the latter widened by an additional span added in 1976 . All were known informally as the Indian River Inlet Bridge , and all but the first officially were named the Charles W. Cullen Bridge . The 1965 b</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>century known breed horses horse found popular island today breeds including period dog large early include small breeding food region modern islands europe wine population dogs established area especially bred use traditional seen tea quality plants leaves considered common european plant northern imported arabian brought years fried important native birds stud variety red scotland produce grown 19th areas cuisine generally present particularly southern species different meat park britain culture history chinese produced black old vegetables called english tradition stallion chicken 20th regions breeders earliest tree scottish usually water wild local spread cooked norse registered late herd coat created land ancient</t>
+          <t>['french', 'british', 'governor', 'militia', 'troops', 'battle', 'massachusetts', 'boston', 'command', 'kentucky', 'fort', 'men', 'army', 'fleet', 'general']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pasty = A pasty ( / ˈpæsti / , Cornish : Pasti ) is a baked pastry , a traditional variety of which is particularly associated with Cornwall , in the United Kingdom . It is made by placing an uncooked filling , typically meat and vegetables , on one half of a flat shortcrust pastry circle , folding the pastry in half to wrap the filling in a semicircle and crimping the curved edge to form a seal before baking . The traditional Cornish pasty , which since 2011 has Protected Geographical Indication ( PGI ) status in Europe , is filled with beef , sliced or diced potato , swede ( also known as yellow turnip or rutabaga – referred to in Cornwall as turnip ) and onion , seasoned with salt and pepper , and is baked . Today , the pasty is the food most associated with Cornwall . It is regarded as the national dish and accounts for 6 % of the Cornish food economy . Pasties with many different fillings are made and some shops specialise in selling all sorts of pasties . The origins of the pasty</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beer = Beer is the world 's most widely consumed and probably the oldest alcoholic beverage ; it is the third most popular drink overall , after water and tea . The production of beer is called brewing , which involves the fermentation of starches , mainly derived from cereal grains — most commonly malted barley , although wheat , maize ( corn ) , and rice are widely used . Most beer is flavoured with hops , which add bitterness and act as a natural preservative , though other flavourings such as herbs or fruit may occasionally be included . The fermentation process causes a natural carbonation effect , although this is often removed during processing , and replaced with forced carbonation . Some of humanity 's earliest known writings refer to the production and distribution of beer : the Code of Hammurabi included laws regulating beer and beer parlours , and " The Hymn to Ninkasi " , a prayer to the Mesopotamian goddess of beer , served as both a prayer and as a method of remembering </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Poultry = Poultry ( / ˌpoʊltriː / ) are domesticated birds kept by humans for the eggs they produce , their meat , their feathers , or sometimes as pets . These birds are most typically members of the superorder Galloanserae ( fowl ) , especially the order Galliformes ( which includes chickens , quails and turkeys ) and the family Anatidae , in order Anseriformes , commonly known as " waterfowl " and including domestic ducks and domestic geese . Poultry also includes other birds that are killed for their meat , such as the young of pigeons ( known as squabs ) but does not include similar wild birds hunted for sport or food and known as game . The word " poultry " comes from the French / Norman word poule , itself derived from the Latin word pullus , which means small animal . The domestication of poultry took place several thousand years ago . This may have originally been as a result of people hatching and rearing young birds from eggs collected from the wild , but later involved keep</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Natural dye = Natural dyes are dyes or colorants derived from plants , invertebrates , or minerals . The majority of natural dyes are vegetable dyes from plant sources — roots , berries , bark , leaves , and wood — and other organic sources such as fungi and lichens Archaeologists have found evidence of textile dyeing dating back to the Neolithic period . In China , dyeing with plants , barks and insects has been traced back more than 5,000 years . The essential process of dyeing changed little over time . Typically , the dye material is put in a pot of water and then the textiles to be dyed are added to the pot , which is heated and stirred until the color is transferred . Textile fibre may be dyed before spinning ( " dyed in the wool " ) , but most textiles are " yarn-dyed " or " piece-dyed " after weaving . Many natural dyes require the use of chemicals called mordants to bind the dye to the textile fibres ; tannin from oak galls , salt , natural alum , vinegar , and ammonia from st</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Salt = Common salt is a mineral composed primarily of sodium chloride ( NaCl ) , a chemical compound belonging to the larger class of salts ; salt in its natural form as a crystalline mineral is known as rock salt or halite . Salt is present in vast quantities in seawater , where it is the main mineral constituent . The open ocean has about 35 grams ( 1.2 oz ) of solids per litre , a salinity of 3.5 % . Salt is essential for human life , and saltiness is one of the basic human tastes . The tissues of animals contain larger quantities of salt than do plant tissues . Salt is one of the oldest and most ubiquitous food seasonings , and salting is an important method of food preservation . Some of the earliest evidence of salt processing dates to around 8,000 years ago , when people living in an area in what is now known as the country of Romania were boiling spring water to extract the salts ; a salt-works in China dates to approximately the same period . Salt was prized by the ancient Heb</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -896,32 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>september storm mph august hurricane october day damage near early developed later tropical began caused winds system west reported strong people days continued produced moved heavy july late june east reached destroyed brought depression november damaged quickly hours north million shortly florida category peaked status south occurred passed peak turned homes formed northeast deaths resulted estimated initially curved landfall flooding coast rainfall northwestward issued northeastward reaching briefly slightly located area strengthened southern names moving fatalities eastern utc overall struck wave lesser low sustained minimal bermuda southeast maximum island central africa atlantic curving antilles caribbean_sea northwest weakened offshore remnants hurricanes mbar</t>
+          <t>['castle', 'century', 'station', 'church', 'castles', 'built', 'bridge', 'tower', 'pier', 'railway', 'bailey', 'river', 'building', 'trains', 'bristol']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1995 – 96 South Pacific cyclone season = The 1995 – 96 South Pacific cyclone season was one of the least active South Pacific tropical cyclone season 's on record , with only four tropical cyclones occurring within the South Pacific Ocean to the east of 160 ° E. The season officially ran from November 1 , 1995 until April 30 , 1996 . The first storm developed on January 12 , while the last one dissipated on April 2 . During the season the most intense tropical cyclone was Severe Tropical Cyclone Beti , which reached a minimum pressure of 935 hPa ( 27.61 inHg ) as it affected New Caledonia . After the season ended Beti 's name was the only name to be retired from the tropical cyclone naming lists and was replaced with Bune , after it inflicted over 5.6 million ( USD ) worth of damage to Australia , Vanuatu , New Caledonia and New Zealand . During the season , tropical cyclones were officially monitored by the Regional Specialized Meteorological Center ( RSMC ) in Nadi , Fiji , and the T</t>
+          <t>Cowes Castle = Cowes Castle , also known as West Cowes Castle , is a Device Fort in Cowes on the Isle of Wight . Originally built by Henry VIII in 1539 to protect England against the threat of invasion from France and the Holy Roman Empire , it comprised a circular bastion , flanking wings and a keep , and in 1547 it housed 17 pieces of artillery . With its companion fortification at East Cowes , the castle overlooked the entrance to the River Medina , an important anchorage . The invasion threat passed but the fortification continued in use until the middle of the 19th century , very briefly seeing action in 1642 during the English Civil War . Decommissioned in 1854 , the castle was first leased , and later bought outright , by the Royal Yacht Squadron to form their new clubhouse . The Squadron then employed the architect Anthony Salvin to rebuild large parts of it between 1856 and 1858 . It became the headquarters for part of the D-Day invasion force during the Second World War , but</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hurricane Chantal ( 1989 ) = Hurricane Chantal was one of three tropical cyclones to make landfall in Texas during the 1989 Atlantic hurricane season . The third named storm and the first hurricane of the season , Chantal slowly developed on July 30 in the southern Gulf of Mexico from a tropical disturbance that was previously within Intertropical Convergence Zone ( ITCZ ) while near Trinidad and Tobago . While heading north-northwestward , the depression steadily intensified and was upgraded to Tropical Storm Chantal on the following day . Thereafter , Chantal quickly strengthen and became a hurricane on August 1 . After intensifying slightly further , Chantal made landfall near High Island , Texas later that day . The storm quickly weakened upon moving inland and fell to tropical storm intensity a few hours after landfall . Early on August 2 , Chantal weakened to a tropical depression and dissipated over Oklahoma by August 4 . While making landfall in Texas , the storm produced relat</t>
+          <t>Worcester Castle = Worcester Castle was a Norman fortification built between 1068 and 1069 in Worcester , England by Urse d 'Abetot on behalf of William the Conqueror . The castle had a motte-and-bailey design and was located on the south side of the old Anglo-Saxon city , cutting into the grounds of Worcester Cathedral . Royal castles were owned by the king and maintained on his behalf by an appointed constable . At Worcester that role was passed down through the local Beauchamp family on a hereditary basis , giving them permanent control of the castle and considerable power within the city . The castle played an important part in the wars of the 12th and early 13th century , including the Anarchy and the First Barons ' War . In 1217 , Henry III 's government decided to break the power of the Beauchamps and reduce the ongoing military threat posed by the castle by returning much of the castle 's bailey to the cathedral . Without an intact bailey the castle was no longer valuable milit</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hurricane Gabrielle ( 1989 ) = Hurricane Gabrielle was a deadly tropical cyclone that caused nine fatalities in the United States and Canada , despite remaining hundreds of miles offshore . The tenth tropical cyclone , seventh named storm , and third hurricane of the 1989 Atlantic hurricane season , Gabrielle developed on August 30 from a tropical wave near the west coast of Africa . Under favorable conditions , the depression intensified and became Tropical Storm Gabrielle early on the following day . Rapid strengthening occurred thereafter , with Gabrielle reaching hurricane intensity early on September 1 . After becoming a hurricane , further intensification was steady , though by September 5 , Gabrielle peaked as a moderate Category 4 hurricane . On the following day , Gabrielle began to slowly level-off in intensity , while gradually curving northward . After weakening to a Category 2 hurricane , the storm passed east of Bermuda on September 8 . Gabrielle eventually decelerated , </t>
+          <t>Wressle Castle = Wressle Castle is a ruined palace-fortress in the East Riding of Yorkshire , England , built for Thomas Percy in the 1390s . It is privately owned and not open to the public . Wressle Castle originally consisted of four ranges built around a central courtyard ; there was a tower at each corner , and the structure was entered through a gatehouse in the east wall , facing the village . After Thomas Percy was executed for rebelling against Henry IV , Wressle Castle passed into royal control . With occasional periods when it was granted to other people , the castle was mostly under royal control until 1471 when it was returned to the Percy family . Henry Percy , 5th Earl of Northumberland , refurbished the castle and gardens , bringing them to the standard of royal properties . The castle was embedded within an ornamental landscape , with two gardens laid out at the same time as the castle was founded and a third created later . Wressle was intended as a high-status reside</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hurricane Marco ( 1996 ) = Hurricane Marco caused significant flooding in the Greater Antilles and Central America , despite remaining well offshore . The thirteenth tropical cyclone , thirteenth named storm , and ninth hurricane of the 1996 Atlantic hurricane season , Marco developed in the western Caribbean Sea on November 16 after the interaction of a cold front and several tropical waves . Initially a tropical depression , it remained weak as it tracked southwestward and eventually southward . By November 19 , the depression strengthened into Tropical Storm Marco , shortly before slowly curving in a general eastward direction . Marco briefly became a hurricane on November 20 , though upper-level winds caused it to weaken back to a tropical storm later that day . The storm then tracked northeastward toward Hispaniola , but later become nearly stationary and curve eastward , then doubled-back to the west . After weakening to a tropical depression on November 23 , Marco re-strengthene</t>
+          <t>Grade I listed buildings in Somerset = The Grade I listed buildings in Somerset , England , demonstrate the history and diversity of its architecture . The ceremonial county of Somerset consists of a non-metropolitan county , administered by Somerset County Council , which is divided into five districts , and two unitary authorities . The districts of Somerset are West Somerset , South Somerset , Taunton Deane , Mendip and Sedgemoor . The two administratively independent unitary authorities , which were established on 1 April 1996 following the breakup of the county of Avon , are North Somerset and Bath and North East Somerset . These unitary authorities include areas that were once part of Somerset before the creation of Avon in 1974 . In the United Kingdom , the term listed building refers to a building or other structure officially designated as being of special architectural , historical , or cultural significance ; Grade I structures are those considered to be " buildings of excep</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hurricane Jerry ( 1989 ) = Hurricane Jerry caused minor damage in Texas and flash flooding in Kentucky and Virginia in October 1989 . The fourteenth tropical cyclone , tenth named storm of the season , Jerry developed from a tropical wave in the Bay of Campeche on October 12 . Initially a tropical depression , the system moved north-northwestward across the Gulf of Mexico and strengthened into Tropical Storm Jerry early on the following day . Jerry continuously deepened until October 14 and then maintained intensity while curving northeastward and briefly decelerating . Later that day , the storm re-curved north-northwestward . Jerry began to intensify on October 15 and soon became a Category 1 hurricane on the Saffir – Simpson hurricane wind scale . Early on October 16 , Jerry made landfall on Galveston Island , Texas with winds of 85 mph ( 140 km / h ) . Less than six hours later , Jerry weakened to a tropical storm and then a tropical depression shortly thereafter . Late on October </t>
+          <t>Bedford Castle = Bedford Castle was a large medieval castle in Bedford , England . Built after 1100 by Henry I , the castle played a prominent part in both the civil war of the Anarchy and the First Barons ' War . The castle was significantly extended in stone , although the final plan of the castle remains uncertain . Henry III of England besieged the castle in 1224 following a disagreement with Falkes de Breauté ; the siege lasted eight weeks and involved an army of as many as 2,700 soldiers with equipment drawn from across England . After the surrender of the castle , the king ordered its destruction . Although partially refortified in the 17th century during the English Civil War , the castle remained a ruin until the urban expansion in Bedford during the 19th century , when houses were built across much of the property . Today only part of the motte still stands , forming part of an archaeological park built on the site between 2007 and 2009 . = = History = = = = = Early history (</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>said told death police murder family life found asked relationship killed later mother character man killing hospital father child house away help shot kill leave storyline prison arrested trial old find guilty left money sentenced taken bond case wife woman died people stated shooting body revealed years evidence having crime knew authorities sister months sentence investigation charges going days friend friends convicted discovered mercedes incident come soap children tells think believed inmates murders daughter room victim wanted described court home scene testified heard went charged prisoners tried arrest judge officers investigators execution affair saying suicide officer involved escape report sarah</t>
+          <t>['match', 'wrestling', 'championship', 'wwe', 'tag', 'raw', 'ring', 'smackdown', 'defeated', 'heavyweight', 'feud', 'event', 'wwf', 'michaels', 'title']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Miles Straume = Miles Straume is a fictional character played by Ken Leung on the ABC television series Lost . Miles is introduced early in the fourth season as a hotheaded and sarcastic medium as a crew member aboard the freighter called the Kahana that is offshore the island where most of Lost takes place . Miles arrives on the island and is eventually taken captive by John Locke ( played by Terry O 'Quinn ) , who suspects that those on the freighter are there to harm his fellow crash survivors of Oceanic Airlines Flight 815 and expose the island to the general public . Miles is on a mission to obtain Ben Linus ( Michael Emerson ) ; instead , he tries to cut a deal with Ben to lie to Miles 's employer Charles Widmore ( Alan Dale ) that Ben is dead . The writers created the role of Miles specifically for Leung after seeing him guest star on The Sopranos . Leung was the only actor to read for the part . They chose his name because it resembles " maelstrom " , another word for a powerfu</t>
+          <t>Armageddon ( 2008 ) = Armageddon ( 2008 ) was a professional-wrestling pay-per-view event produced by the World Wrestling Entertainment ( WWE ) promotion and presented by Ubisoft 's Prince of Persia . It took place on December 14 , 2008 , at the HSBC Arena in Buffalo , New York . It featured professional wrestlers and other talent from all WWE 's three brands : Raw , SmackDown and ECW . The ninth and final event within the Armageddon chronology , it featured on its card seven professional wrestling matches . During the SmackDown main event , Jeff Hardy defeated Triple H and WWE Champion Edge in a Triple Threat match to win the championship . The Raw main event featured the World Heavyweight Championship contested in a standard wrestling match , in which John Cena defeated Chris Jericho to retain the title . The undercard featured several matches , including CM Punk against Rey Mysterio in the finals of a tournament to determine the number-one contender to the WWE Intercontinental Champ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Joseph Merrick = Joseph Carey Merrick ( 5 August 1862 – 11 April 1890 ) , sometimes named incorrectly as John Merrick , was an English man with severe deformities who was exhibited as a human curiosity named the Elephant Man . He became well known in London society after he went to live at the London Hospital . Merrick was born in Leicester , and began to develop abnormally during the first few years of his life . His skin appeared thick and lumpy , he developed enlarged lips , and a bony lump grew on his forehead . One of his arms and both of his feet became enlarged and at some point during his childhood he fell and damaged his hip , resulting in permanent lameness . When he was 11 , his mother died from bronchopneumonia , and his father soon remarried . Merrick left school at the age of 13 and had difficulty finding employment . Rejected by his father and stepmother , he left home . In late 1879 , Merrick , aged 17 , entered the Leicester Union Workhouse . In 1884 , after four years</t>
+          <t>New Year 's Revolution ( 2007 ) = New Year 's Revolution ( 2007 ) was the third annual and final New Year 's Revolution professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . It took place on January 7 , 2007 , at Kemper Arena in Kansas City , Missouri and featured wrestlers and other talent from WWE 's Raw brand . There were seven professional wrestling matches scheduled on the event 's card . Four championships exclusive to the Raw brand were contested for ; none was lost as all four championships were retained . The main event was a standard wrestling match , in which WWE Champion John Cena defeated challenger Umaga to retain his championship . Two predominant bouts were featured on the undercard . The first was a Tag team match , in which World Tag Team Champions Rated-RKO ( Edge and Randy Orton ) fought D-Generation X ( Triple H and Shawn Michaels ) to a no-contest . Due to WWE rules , a title can only change hands via pinfall or submission ,</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Becky McDonald = Rebecca " Becky " Granger ( also McDonald ) is a fictional character from the British ITV soap opera Coronation Street , a long-running serial drama about working-class life in the fictional town of Weatherfield . She is played by actress Katherine Kelly . Becky was created by producer Steve Frost as a recurring character . She made her debut in the episode airing on 5 February 2006 . Kelly was initially contracted to appear for three months , but became a series regular after impressing the serial 's producers . In early 2011 Kelly announced her decision to leave the soap . Producer Phil Collinson created dramatic storylines in the build-up to her exit . Becky 's storylines have focused on her friendship with Roy ( David Neilson ) and Hayley Cropper ( Julie Hesmondhalgh ) , which helped change public opinion of the character , and her relationships with Jason Grimshaw ( Ryan Thomas ) and Steve McDonald ( Simon Gregson ) , with the latter producing two wedding storylin</t>
+          <t xml:space="preserve">Against All Odds ( 2005 ) = Against All Odds ( 2005 ) was a professional wrestling pay-per-view ( PPV ) event produced by Total Nonstop Action Wrestling ( TNA ) , which took place on February 13 , 2005 at the TNA Impact ! Zone in Orlando , Florida . It was the first event under the Against All Odds chronology . Eight matches were featured on the event 's card . The main event was for the NWA World Heavyweight Championship between the champion , Jeff Jarrett , and the challenger , Kevin Nash , in which Jarrett won to retain the championship . Another featured match was an Iron Man match for the TNA X Division Championship , in which the wrestler with the most scoring conditions after thirty minutes would win . The champion , A.J. Styles , defeated the challenger , Christopher Daniels , to retain the championship in this match . Multiple bouts were scheduled on the undercard . One saw Abyss defeat Jeff Hardy in a match where the competitors had to climb a ladder and retrieve an envelope </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>No Mercy ( 2003 ) = No Mercy ( 2003 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) and presented by Subway , which took place on October 19 , 2003 , at the 1st Mariner Arena in Baltimore , Maryland . It was the sixth event under the No Mercy chronology and starred wrestlers from the SmackDown ! brand . Nine professional wrestling matches were scheduled on the event 's card . The main event saw WWE Champion Brock Lesnar defeat The Undertaker to retain his championship in a match where a chain was hung from a pole and the first man to reach it could use it as a legal weapon in what was called a Biker Chain match . Two featured bouts were scheduled on the undercard . In a standard match for the WWE United States Championship , the Big Show defeated Eddie Guerrero to win the title . The other was also a standard match , in which Kurt Angle defeated John Cena . No Mercy had an attendance of approximately 8,500 and received about 254,000 p</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Maddy Young = Madeleine " Maddy " Young is a fictional character in the BBC medical drama Holby City , portrayed by actress Nadine Lewington . The character first appeared on-screen on 16 January 2007 , in episode " Face Value " - series 9 , episode 15 of the programme . Her final appearance in the show was in the Series 11 episode " Just A Perfect Day " when her character was fatally stabbed . Her role in the show is that of a Senior House Officer undergoing her general surgical rotation in Holby 's acute admissions unit . Described by the BBC as " enthusiastic [ ... ] fun " and " dedicated to her job " , Maddy was created alongside fellow new character General Surgical Consultant Dan Clifford . Her major storylines have centered on their friendship and relationship , as well as her troubled family background and her continual rule-breaking . The character has proven popular with viewers , seeing Lewington long-listed for the ' Most Popular Newcomer ' award at the 2007 National Televi</t>
+          <t>Derick Neikirk = Derick Lee Neikirk ( also spelled Derek Neikirk or Derrick Neikirk , born September 5 , 1974 ) is an American professional wrestler and former minor league baseball player . He has competed for several promotions , and currently competes for Impact Zone Wrestling ( IZW ) , a territory of the National Wrestling Alliance ( NWA ) based in Phoenix , Arizona . He has also wrestled in several other promotions and was signed to a contract with World Wrestling Entertainment ( WWE ) for several years . Much of his career has been connected with fellow wrestler Mike Knox , as the two have held championships together as a tag team and have feuded on multiple occasions . = = Baseball career = = Before entering professional wrestling , Neikirk played catcher for the Mesa Community College baseball team in the Arizona Community College Athletic Conference ( ACCAC ) . In 1996 , he was named to the All-ACCAC Team . That year , he was picked by the Detroit Tigers in the 19th round of t</t>
         </is>
       </c>
     </row>
@@ -966,32 +966,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>city million school company building stadium students center schools year sports largest located community years including library sold public education business area campus hosted financial market founded new local university host include college festival population facilities arena student development billion events established olympic residents companies chicago street museum program firm neighborhoods businesses downtown opened industry united_states expanded arts private facility annual retail buildings housing football expansion mayor venues programs theatre includes offices acquired neighborhood institutions households designed jobs census products commercial home board investment organization members professional art location median families funds fraternity management collection owned national fund culture historic</t>
+          <t>['building', 'city', 'park', 'chicago', 'memorial', 'memorials', 'library', 'fountain', 'indiana', 'square', 'galveston', 'street', 'buildings', 'bay', 'courthouse']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Union Bank of Switzerland = Union Bank of Switzerland ( UBS ) was a large integrated financial services company located in Switzerland . The bank , which at the time was the second largest bank in Switzerland , merged with Swiss Bank Corporation in 1998 , to become UBS to form what was then the largest bank in Europe and the second largest bank in the World . UBS was formed in 1912 through the merger of the Bank in Winterthur and Toggenburger Bank , both founded in the early 1860s . UBS then continued to grow through acquisitions , including Aargauische Kreditanstalt in 1919 , Eidgenössische Bank in 1945 , Interhandel Basel in 1967 , Phillips &amp; Drew in 1986 , and Schröder , Münchmeyer , Hengst &amp; Co. in 1997 among others . The historical UBS logo features a horizontal acronym " UBS " referring to the " Union Bank of Switzerland " , " Union de Banques Suisses " or " Unione di Banche Svizzere " . The vertical acronym " SBG " refers to the name of the bank in German " Schweizerische Bankge</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Coral Springs , Florida = Coral Springs , officially the City of Coral Springs , is a city in Broward County , Florida , approximately 20 miles ( 32 km ) northwest of Fort Lauderdale . As of the 2010 United States Census , the city had a population of 121,096 . The city is part of the Miami metropolitan area , which was home to 5,564,635 people in 2010 . The city , officially chartered on July 10 , 1963 , was master-planned and primarily developed by WCI Communities , then known as Coral Ridge Properties , a division of Westinghouse . The city 's name is derived from the company 's name , and was selected after several earlier proposals had been considered and rejected . Despite the name , there are no springs in the city ; Florida 's springs are found in the central and northern portions of the state . During the 1970s , 1980s , and 1990s the young city grew rapidly , adding over 35,000 residents each decade . Coral Springs has notably strict building codes , which are designed to mai</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rio de Janeiro bid for the 2016 Summer Olympics = The Rio de Janeiro bid for the 2016 Summer Olympics and Paralympics was a successful bid to host the Games of the XXXI Olympiad and the XV Paralympic Games , respectively . It was submitted on September 7 , 2007 , and recognized as an Applicant city by the International Olympic Committee ( IOC ) one week after . On June 4 , 2008 , the IOC Executive Board shortlisted Rio de Janeiro with three of the six other Applicant cities — Chicago , Madrid and Tokyo ; over Baku , Doha and Prague — becoming a Candidate city during the 2008 SportAccord Convention in Athens , Greece . Rio de Janeiro was shortlisted receiving a 6.4 score , according to a study of its Application File delivered to the IOC Working Group on January 14 , 2008 . As a Candidate city , Rio de Janeiro submitted its Candidature File to the IOC on February 11 , 2009 . The dossier was analyzed by the IOC Evaluation Commission , which arrived in the city on April 27 , 2009 , to ass</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>History of Georgia Tech = The history of the Georgia Institute of Technology can be traced back to Reconstruction-era plans to develop the industrial base of the Southern United States . Founded on October 13 , 1885 in Atlanta , Georgia as the Georgia School of Technology , the university opened in 1888 after the construction of Tech Tower and a shop building and only offered one degree in mechanical engineering . By 1901 , degrees in electrical , civil , textile , and chemical engineering were also offered . In 1948 , the name was changed to the Georgia Institute of Technology to reflect its evolution from an engineering school to a full technical institute and research university . Georgia Tech is the birthplace of two other Georgia universities : Georgia State University and the former Southern Polytechnic State University . Georgia Tech 's Evening School of Commerce , established in 1912 and moved to the University of Georgia in 1931 , was independently established as Georgia State</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Swiss Bank Corporation = Swiss Bank Corporation ( SBC ) ( German : Schweizerischer Bankverein ( SBV ) , French : Société de Banque Suisse ( SBS ) , Italian : Società di Banca Svizzera ) was a large integrated financial services company located in Switzerland . Prior to its merger , the bank was the third largest in Switzerland with over CHF300 billion of assets and CHF11.7 billion of equity . Throughout the 1990s , SBC engaged in a large growth initiative , shifting its focus from traditional commercial banking into investment banking , in an effort to match its larger Swiss rival Credit Suisse . As part of this strategy , SBC acquired US-based investment bank Dillon Read &amp; Co. as well as London-based merchant bank S.G. Warburg in the mid-1990s . SBC also acquired Chicago-based Brinson Partners and O 'Connor &amp; Associates . These acquisitions formed the basis for a global investment banking business . In 1998 , SBC merged with Union Bank of Switzerland to form UBS , the largest bank in </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>film role appeared award acting director roles success actor performance directed comedy drama actors films cast movie festival starred television received box awards played actress career play production starring musical reviews theatre alongside debut critical stage best filmography tamil supporting cinema critics stars romantic thriller screen hollywood telugu script performances successful broadway adaptation feature nominations filming life worked mother playing nominated wrote opposite portrayed ballet acclaim screenplay critic acclaimed born met critically commercial theatrical remake picture productions screened indian los_angeles directorial married personal work lynch bollywood producer woman cannes actresses portrayal bafta academy_award movies miss comedian dance voice earned grossed</t>
+          <t>['simpsons', 'episodes', 'episode', 'homer', 'stan', 'parker', 'kenny', 'animated', 'kyle', 'nickelodeon', 'voice', 'lisa', 'jake', 'television', 'voiced']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Grazing Goat Pictures = Grazing Goat Pictures is an Indian film and TV production house launched in 2011 by Hindi film actor Akshay Kumar and Ashvini Yardi . Its first film OMG – Oh My God ! , was banned in UAE and Malaysia due to its controversial story-line . In India a few screenings of the film had to be cancelled and a police case was lodged against the filmmakers and actors for hurting religious sentiments . It won the National Film Award for Best Adapted Screenplay . The next film in their banner Fugly opened to mixed reviews . The company has also produced regional languages films like 72 Miles ( Marathi ) and Bhaji in Problem ( Punjabi ) . Both of these opened to positive reviews from critics . The former one was screened at the London and Pune International Film Festivals and won 3 awards at the 2014 Maharashtra State Film Awards ceremony . The company has also produced the Hindi soap opera Jamai Raja which airs on Zee TV . Kumar had guest appearances in all of his films exce</t>
+          <t>Bill Oakley = Bill Oakley ( born February 27 , 1966 ) is an American television writer and producer , known for his work on the animated comedy series The Simpsons . Oakley and Josh Weinstein became best friends and writing partners at high school ; Oakley then attended Harvard University and was Vice President of the Harvard Lampoon . He worked on several short-term media projects , including writing for the variety show Sunday Best , but was then unemployed for a long period . Oakley and Weinstein eventually penned a spec script for Seinfeld , after which they wrote " Marge Gets a Job " , an episode of The Simpsons . Subsequently , the two were hired to write for the show on a permanent basis in 1992 . After they wrote episodes such as " $ pringfield ( Or , How I Learned to Stop Worrying and Love Legalized Gambling ) " , " Bart vs. Australia " and " Who Shot Mr. Burns ? " , the two were appointed executive producers and showrunners for the seventh and eighth seasons of the show . The</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T. Arthur Cottam = T. Arthur Cottam is a screenwriter , actor , producer and film director . A graduate of the Film and Television Production program at the Tisch School of the Arts of New York University , Cottam resides in Los Angeles , California . He acted in theatre , and received an Artistic Director Achievement Award from the Valley Theatre League for his role in the theatre production Othello as a cast member of Zombie Joe 's Underground Theatre Group . Cottam directed short films along a topical series called " Dirty Little Shorts " . His existential work Pornographic Apathetic deals with four people recounting pornographic film dialog in a state of apathy . Pornographic Apathetic was featured in numerous movie festivals , and received eight film awards as well as critical acclaim . Cottam 's film Carbuncle was featured in 2006 at the Milano Film Festival in Italy , and was recognized with a nomination in the category of " Best Feature Film " . His 2006 film Filthy Food receiv</t>
+          <t>Josh Weinstein = Josh Weinstein ( born May 5 , 1966 ) is an American television writer and producer , known for his work on the animated comedy series The Simpsons . Weinstein and Bill Oakley became best friends and writing partners at St. Albans High School ; Weinstein then attended Stanford University and was editor-in-chief of the Stanford Chaparral . He worked on several short-term media projects , including writing for the variety show Sunday Best , but was then unemployed for a long period . Weinstein and Oakley eventually penned a spec script for Seinfeld , after which they wrote " Marge Gets a Job " , an episode of The Simpsons . Subsequently , the two were hired to write for the show on a permanent basis in 1992 . After they wrote episodes such as " $ pringfield ( Or , How I Learned to Stop Worrying and Love Legalized Gambling ) " , " Bart vs. Australia " and " Who Shot Mr. Burns ? " , the two were appointed executive producers and showrunners for the seventh and eighth season</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Padayappa = Padayappa is a 1999 Indian Tamil-language drama film written and directed by K. S. Ravikumar . The film features Sivaji Ganesan , Rajinikanth , Ramya Krishnan and Soundarya in the lead roles , while Abbas , Lakshmi , Radha Ravi and Nassar play supporting roles . The soundtrack album and background score were composed by A. R. Rahman . The plot revolves around Padayappa ( Rajinikanth ) , a mechanical engineer whose father ( Sivaji Ganesan ) gives up his property to his foster brother ( Manivannan ) , and then dies of shock soon after . Neelambari ( Ramya Krishnan ) initially loves Padayappa , but plans to humiliate him after his family humiliates her father ( Radha Ravi ) . The rest of the plot deals with Padayappa overcoming all the obstacles placed by Neelambari . Principal photography for the film began in October 1998 . Padayappa was released on 10 April 1999 on the eve of Tamil New Year 's day . This was the first Tamil film to be released worldwide with 210 prints and </t>
+          <t xml:space="preserve">Maggie Simpson = Margaret " Maggie " Simpson is a fictional character in the animated television series The Simpsons . She first appeared on television in the Tracey Ullman Show short " Good Night " on April 19 , 1987 . Maggie was created and designed by cartoonist Matt Groening while he was waiting in the lobby of James L. Brooks ' office . She received her first name from Groening 's youngest sister . After appearing on The Tracey Ullman Show for three years , the Simpson family was given their own series on the Fox Broadcasting Company which debuted December 17 , 1989 . Maggie is the youngest child of Marge and Homer , and sister to Bart and Lisa . She is often seen sucking on her red pacifier and , when she walks , she trips over her clothing and falls on her face ( this running gag is used much more in earlier seasons ) . Being an infant , she cannot talk . She is a counterpart to Lisa Simpson . However , she did appear to talk in the first Tracy Ullman short . Therefore , she is </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>André Morell = André Morell ( born Cecil André Mesritz , 20 August 1909 – 28 November 1978 ) was an English actor . He appeared frequently in theatre , film and on television from the 1930s to the 1970s . His best known screen roles were as Professor Bernard Quatermass in the BBC Television serial Quatermass and the Pit ( 1958 – 59 ) , and as Doctor Watson in the Hammer Film Productions version of The Hound of the Baskervilles ( 1959 ) . He also appeared in the films The Bridge on the River Kwai ( 1957 ) and Ben-Hur ( 1959 ) , in several of Hammer 's horror films throughout the 1960s and in the acclaimed ITV historical drama The Caesars ( 1968 ) . His obituary in The Times newspaper described him as possessing a " commanding presence with a rich , responsive voice … whether in the classical or modern theatre he was authoritative and dependable . " = = Biography = = = = = Early life and career = = = Morell was born Cecil André Mesritz in London , England , the son of André and Rosa Mesr</t>
+          <t>Test the Store = " Test the Store " is the seventeenth episode of the eighth season of the American comedy television series The Office and the show 's 169th episode overall . The episode was written by Mindy Kaling , directed by Brent Forrester , and aired on NBC in the United States on March 1 , 2012 . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , Dwight Schrute ( Rainn Wilson ) attempts to put on a theatrical presentation to impress Nellie Bertram ( Catherine Tate ) . Meanwhile , in Scranton , Andy Bernard ( Ed Helms ) comes to work with an embarrassing black eye . " Test the Store " contains many cultural allusions , including several to the NBC action-comedy series Chuck . The episode received mixed reviews from critics . According to the Nielsen Media Research , " Test the Store " was viewed by an estimated 4.95 millio</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alan Dale = Alan Hugh Dale ( born 6 May 1947 ) is a New Zealand actor . As a child , Dale developed a love of theatre and also became a rugby player . After retiring from the sport he took on a number of professions to support his family , before deciding to become a professional actor at the age of 27 . With work limited in New Zealand , Dale moved to Australia , where he played Dr. John Forrest in The Young Doctors from 1979 to 1982 . He later appeared as Jim Robinson in Neighbours , a part he played from 1985 until 1993 . He left the series when he fell out with the producers over the pay he and the rest of the cast received . After leaving Neighbours , Dale found that he had become typecast as Robinson in Australia and struggled to find work . His career was revitalised after he relocated to the United States in 2000 . Since then he has had roles in many American series including prominent parts in The O.C. ( as Caleb Nichol ) and Ugly Betty ( as Bradford Meade ) , as well as recur</t>
+          <t xml:space="preserve">Ned Flanders = Nedward " Ned " Flanders , Jr. is a recurring fictional character in the animated television series The Simpsons . He is voiced by Harry Shearer , and first appeared in the series premiere episode " Simpsons Roasting on an Open Fire " . He is the good-natured , cheery next-door neighbor to the Simpson family and is generally loathed by Homer Simpson . A devout Evangelical Christian with an annoyingly perfect family , he is among the friendliest and most compassionate of Springfield 's citizens and is generally considered a pillar of the Springfield community . He was one of the first characters outside of the immediate Simpson family to appear on the show , and has since been central to several episodes , the first being season two 's " Dead Putting Society " . His last name comes from Flanders St. in Portland , Oregon , the hometown of Simpsons creator Matt Groening . When he was created , he was intended to just be a neighbor who was very nice , but whom Homer loathed </t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cambridge oxford boat competition silver summer competed referred medal seconds olympics compete athletes champions heat race championships crews finishing honour reigning thames rowing olympic races blues medals cox lengths contest paralympics beijing sport stroke bronze surrey universities coached athlete opponents excluding rowed university_of_cambridge fixture participants contained toss gold umpire isis university_of_oxford rower competing annually represented rivalry pounds junior coaches umpired wheelchair competitors participating participate middlesex handing favour swimming clear overall paralympic qualified boxing sports event hammersmith_bridge mile_post contested preliminary river_thames flag worldwide athletics ahead delegation course winner strokes polo participation favourites freestyle rowers disability reserve swimmer events consecutive qualification relay</t>
+          <t>['battalion', 'brigade', 'division', 'regiment', 'infantry', 'battalions', 'squadron', 'training', 'unit', 'units', 'raaf', 'australian', '2nd', 'japanese', '1st']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Little Athletics = Little Athletics is an Australian activity program that involves modified athletics events for children aged 5 to 15 ( or 16 in ACT , NSW , Qld and SA ) . More than 100,000 young Australians competed in the sport in the 2013 / 14 season . The competitions were founded by Trevor Billingham , a young Australian athletics enthusiast from Geelong , Victoria , in 1964 . By 1967 , there were more than 35 Little Athletics clubs in Victoria , and the decision was made to start the Victorian Little Athletics Association ( VLAA ) . Soon after the formation of the VLAA , other states expressed interest in Little Athletics . In February 1968 , a year after the formation of the VLAA , Western Australia held its first Little Athletics meet at Perry Lakes Stadium . In 1972 , the states of Victoria , New South Wales , Northern Territory and Western Australia became the founding members of The Australian Little Athletics Union ( ALAU ) , which was formed in Perth . By 1974 , Tasmania</t>
+          <t>2 / 48th Battalion ( Australia ) = The 2 / 48th Battalion was an infantry battalion of the Australian Army which served during the Second World War . Raised in Adelaide in South Australia in August 1940 , the battalion formed part of the 26th Brigade and was initially assigned to the 7th Division , although it was later transferred to the 9th Division in 1941 when it was deployed to the Middle East . While there , it saw action during the siege of Tobruk and the First and Second Battles of El Alamein before being returned to Australia to take part in the fighting in New Guinea following Japan 's entry into the war . During the campaign in New Guinea , the battalion took part in the advance on Lae during the Salamaua – Lae campaign and the fighting around Finschhafen and Sattelberg , during the Huon Peninsula campaign . Following this it was withdrawn to Australia , where it remained for over a year . In mid-1945 , the 2 / 48th Battalion took part in the landing on Tarakan , which was i</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rebecca Soni = Rebecca Soni ( born March 18 , 1987 ) is an American former competition swimmer and breaststroke specialist who is a six-time Olympic medalist . She is a former world record-holder in the 100-meter breaststroke ( short and long course ) and the 200-meter breaststroke ( short and long course ) , and is the first woman to swim the 200-meter breaststroke in under 2 minutes 20 seconds . As a member of the U.S. national team , she currently holds the world record in the 4 × 100-meter medley relay ( short and long course ) . Soni has won a total of twenty-two medals in major international competition , fourteen gold , seven silver , and one bronze spanning the Olympics , the World , the Universiade , and the Pan Pacific Championships . She burst onto the international scene at the 2008 Summer Olympics where she won two silver medals and one gold . In the 200-meter breaststroke at the Olympics , she set the world record en route to winning gold , shocking Australian favorite Le</t>
+          <t xml:space="preserve">No. 457 Squadron RAAF = No. 457 Squadron was a Royal Australian Air Force ( RAAF ) fighter squadron of World War II . Equipped with Supermarine Spitfire fighters , it was formed in England during June 1941 under Article XV of the Empire Air Training Scheme . The squadron was transferred to Australia in June 1942 and saw combat in the South West Pacific Area before being disbanded in November 1945 . The squadron saw combat against both Nazi Germany and the Empire of Japan during the war . From March to May 1942 it was based in southern England and flew missions over German-occupied France during which it shot down at least five Luftwaffe aircraft . After being deployed to Australia , No. 457 Squadron was based near Darwin as part of No. 1 Wing RAAF and intercepted several Japanese raids on Allied bases in northern Australia between March and November 1943 . The squadron remained at Darwin and saw almost no combat during 1944 , but moved to Morotai and later Labuan in 1945 from where it </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Skeleton at the 2010 Winter Olympics – Women 's = The women 's skeleton event at the 2010 Winter Olympics took place at the Whistler Sliding Centre on 18 – 19 February . The competition was won by British athlete Amy Williams , who set new course records for the track on her first and third runs . Williams , who had never before won a World Cup or World Championship event , became the first British athlete to win a solo Winter Olympic gold medal in 30 years . German sliders Kerstin Szymkowiak and Anja Huber won the silver and bronze medals respectively . Williams ' teammate Shelley Rudman , who had won the silver medal at the 2006 Winter Olympics , and Canadian Mellisa Hollingsworth , both of whom had been expected to be in medal contention , were disappointed . Williams ' victory was not without controversy , as the United States and Canada filed complaints with the judges related to Williams ' helmet . However , judges ruled that ridges in her helmet did not violate International Bob</t>
+          <t xml:space="preserve">17th Airborne Division ( United States ) = The 17th Airborne Division was an airborne infantry division of the United States Army during World War II , and was commanded by Major General William M. Miley . It was officially activated as an airborne division in April 1943 but was not immediately sent to a combat theater , remaining in the United States to complete its training . During this training process , the division took part in several training exercises , including the Knollwood Maneuver , in which it played a vital part in ensuring that the airborne division remained as a military formation in the U.S. Army after the poor performance of American airborne forces in the invasion of Sicily . As such it did not take part in the first two large-scale airborne operations conducted by the Allies , Operation Husky and Operation Neptune , only transferring to Britain after the end of Operation Overlord . When the division arrived in Britain , it came under the command of XVIII Airborne </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Shannon ( horse ) = Shannon ( 1941 – 1955 ) , named Shannon II in America , was an outstanding Australian Thoroughbred racehorse who was inducted into the Hall of Fame . He created new racecourse records in Australia before he was sold to an American buyer who exported him to California in 1948 . There Shannon equalled the world record of 1 : 473 ⁄ 5 for the nine furlongs ( 1,800 metres ) in winning the Forty Niner Handicap Stakes , then one week later equalled the world record of 1 : 594 ⁄ 5 for a mile and a quarter ( 2,000 metres ) . Shannon was named the 1948 American Champion Older Male Horse . At stud in America he proved to be a good sire . = = Breeding = = He was by the leading sire , Midstream ( GB ) ( sire of 39 stakes-winners that won 120 stakes races ) from the race-winner , Idle Words by the good sire , Magpie ( GB ) . Idle Words was the dam of 12 foals , of which 11 raced with 8 winners , including three stakes-winners : Bernbrook ( by Midstream ) , won AJC Doncaster Handi</t>
+          <t xml:space="preserve">Australian Army during World War II = The Australian Army was the largest service in the Australian military during World War II . Prior to the outbreak of war the Australian Army was split into the small full-time Permanent Military Forces ( PMF ) and the larger part-time Militia . Following the outbreak of war , on 14 September 1939 Prime Minister Robert Menzies announced that 40,000 members of the Militia would be called up for training and a 20,000-strong expeditionary force , designated the Second Australian Imperial Force ( Second AIF ) , would be formed for overseas service . Meanwhile , conscription was introduced in October 1939 to keep the Militia at strength as its members volunteered for the AIF . The Australian Army subsequently made an important contribution to the Allied campaigns in the Mediterranean , the Middle East and North Africa fighting the Germans , Italians and Vichy French during 1940 and 1941 , and later in the jungles of the South West Pacific Area fighting </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Donn Cabral = Donald " Donn " Cabral is an American cross country and track athlete from Connecticut who went on to star at Princeton University . As a long distance runner he has been most successful in the steeplechase , but has also been a National Collegiate Athletic Association ( NCAA ) All-American at cross country and the 5000 metres as well as the Ivy League champion at the 3000 metres . He is the current American collegiate steeplechase record holder and was the 2012 NCAA steeplechase champion . He competed in the 2012 Summer Olympic Games in the steeplechase . At Princeton , Cabral was an eight-time NCAA All-American and ten-time individual Ivy League champion . He was a long distance running champion in high school for Glastonbury High School , winning two Class LL championships as a sophomore and then open state and New England championships as a junior and senior . = = Running career = = = = = High school = = = Early on , Cabral showed interest in Olympic competition and h</t>
+          <t>No. 4 Commando = No. 4 Commando was a battalion-sized British Army commando unit , formed in 1940 early in the Second World War . Although it was raised to conduct small-scale raids and harass garrisons along the coast of German occupied France , it was mainly employed as a highly trained infantry assault unit . The unit 's first operation was the successful raid on the Lofoten Islands in March 4 , 1941 . The next two planned operations were both cancelled and it was not until April 22 , 1942 that No. 4 Commando took part in another raid , Operation Abercrombie , a raid on the French coastal town of Hardelot . On August 22 , 1942 , No. 4 was one of three commando units selected for the Dieppe raid . Under the command of Lord Lovat , No. 4 Commando landed on the right flank of the main landings and successfully silenced a German gun battery . This was the only complete success of the operation , which was eventually aborted , after less than 10 hours , following heavy losses . As part o</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>album music songs rock recorded recording band beatles lyrics musicians george_harrison sound harrison song bands track release live things guitar version vocals apple musical 1970s psychedelic included cover written record like material studio group drums backing solo folk metal reissue love single released compositions guitarist genre sessions describes morrison 1960s john_lennon acoustic tour slide recordings bass playing composition musician writes inspired albums piano style author progressive paul_mccartney producer guitars played rolling_stone riff success bob_dylan audience wrote drummer writing particularly biographer popular let blues krishna rhythm jazz lord biographers early emi described sleeve living overdubbed remastered rolling_stones glam late mojo issued</t>
+          <t>['olympics', 'athletes', 'olympic', 'medal', 'meter', 'freestyle', 'championships', 'beijing', 'medals', 'seconds', 'relay', 'gold', 'competed', 'games', 'summer']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Zoo Station ( song ) = " Zoo Station " is a song by the rock band U2 . It is the opening track from their 1991 album Achtung Baby , a record on which the group reinvented themselves musically by incorporating influences from alternative rock , industrial , and electronic dance music . As the album 's opening track , " Zoo Station " introduces the band 's new sound , delivering industrial-influenced percussion and several layers of distorted guitars and vocals . Similarly , the lyrics suggest the group 's new intents and anticipations . The introduction , featuring an " explosion " of percussion and a descending glissando for a guitar hook , was meant to make the listener think the album was mistakenly not U2 's latest record or that their music player was broken . The song 's lyrics were inspired by a surrealistic story about Berlin from World War II that lead vocalist Bono heard , when overnight bombing damaged the zoo and allowed animals to escape and wander around the city 's rubble</t>
+          <t>Andreas Thorkildsen = Andreas Thorkildsen ( born 1 April 1982 ) is a former Norwegian javelin thrower , born in Kristiansand . He is the first male javelin thrower in history to be European champion , World champion and Olympic champion . He was Olympic champion in 2004 and 2008 , European champion in 2006 and 2010 , World Champion in 2009 as well as a three-time silver medalist at the World championships in 2005 , 2007 and in 2011 . He set a world junior record in 2001 . He has a personal best of 91.59 m set in 2006 . = = Personal life = = Thorkildsen 's father Tomm Thorkildsen is a former javelin thrower , achieving a personal best throw of 71.64 metres in 1974 . His mother Bente ( née Amundsen ) became national champion in the 100 metres hurdles in 1972 , representing Hamar IL . He has one older brother . He took his secondary education at Kristiansand Cathedral School . = = = Relationship with Christina Vukicevic = = = Thorkildsen 's relationship with the Norwegian hurdler Christin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yellow ( Coldplay song ) = " Yellow " is a song by British alternative rock band Coldplay . The band wrote the song and co-produced it with British record producer Ken Nelson for their debut studio album , Parachutes ( 2000 ) . The song 's lyrics are a reference to the band 's lead singer Chris Martin 's unrequited love . The song was recorded in March 2000 , and released in June that same year as the second single from Parachutes , following " Shiver " , and the lead single in the United States . The single reached number four in the UK Singles Chart , giving Coldplay their first top-five hit in the United Kingdom . Helped by heavy rotation and usage in promotions , the song thrust the band into massive popularity . " Yellow " has since been covered by various recording artists worldwide , and remains one of the band 's most popular songs . = = Background and inspiration = = " Yellow " was written in a Rockfield studio in Wales called the Quadrangle , where Coldplay began working on t</t>
+          <t>Anky van Grunsven = Theodora Elisabeth Gerarda " Anky " van Grunsven ( born 2 January 1968 ) is a Dutch dressage champion who holds the record for the most Olympic medals won by any equestrian athlete and is the only rider to record three successive Olympic wins in the same event . Along with her Olympic successes , she has won numerous medals at the World Equestrian Games ( WEG ) , and is the only rider to have competed at every WEG since they began in 1990 . Between 1990 and 2006 , she competed at the Games in dressage , but in 2010 she was named as part of the Dutch reining team , marking a major change in discipline . In addition to her Olympic and World Equestrian Games successes , van Grunsven holds the record for the most wins at the Dressage World Cup , winning the event nine times between 1995 and 2008 . She has also competed numerous times at the European Dressage Championships , winning seven individual medals and eight team medals between 1991 and 2009 . Although van Grunsv</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Wasting Light = Wasting Light is the seventh studio album by American rock band Foo Fighters . It was released on April 12 , 2011 on RCA Records , and is the first album to feature rhythm guitarist Pat Smear since The Colour and the Shape ( 1997 ) , making the band a five piece with the album . Wishing to capture the essence of the group 's earlier work and avoid the artificiality of digital recording , frontman Dave Grohl arranged for the band to record in his garage in Encino , California using only analog equipment . The sessions were supervised by producer Butch Vig , with whom Grohl had worked on Nirvana 's Nevermind . Since the old equipment did not allow for many mistakes to be corrected in post-production , the band spent three weeks rehearsing the songs , and Vig had to relearn outdated editing techniques . The band went for a heavier and rawer sound to contrast with the musical experiments from their previous albums , and most of the lyrics were written as Grohl reflected upo</t>
+          <t>American Samoa at the 2008 Summer Olympics = American Samoa sent a team to the 2008 Summer Olympics in Beijing , China . The U.S. territory selected four athletes to compete in three sports : swimming , athletics and judo . The dependency 's participation in Beijing marked its seventh participation in any Olympic game since its debut at the 1988 Summer Olympics in Seoul , and its sixth participation at any Summer Olympic games . Of the four American Samoan athletes who participated in Beijing , all four were first-time Olympians and born outside of American Samoa and none of the four advanced past the qualification or preliminary rounds of their events . More women participated in the 2008 American Samoan Olympic delegation than in any one delegation in its Olympic history . Judoka Silulu A 'etonu was the territory 's flagbearer at the ceremonies . = = Background = = American Samoa is a territory of the United States that lies in the South Pacific Ocean to the far east of Australia . T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Idlewild South = Idlewild South is the second studio album by American Southern rock band the Allman Brothers Band . Produced by Tom Dowd , the album was released on September 23 , 1970 , in the United States by Atco Records and Capricorn Records . Following the release of their 1969 debut , the Allman Brothers Band toured the United States extensively to promote the album , which had little commercial success . Their performances , however , did create positive word of mouth exposure that extended to more famous musicians , such as Eric Clapton , who invited group leader Duane Allman to contribute to his 1970 album Layla and Other Assorted Love Songs . As a result of the band 's relentless touring schedule , Idlewild South was recorded gradually over a period of five months in various cities , including New York , Miami , and Macon , Georgia , the band 's home . Tom Dowd had previously been sought to record the group 's debut but had been unavailable . The material presented on Idlewi</t>
+          <t>Mauritania at the 2004 Summer Olympics = Mauritania competed at the 2004 Summer Olympics in Athens , Greece , from 13 to 29 August 2004 . The country 's participation at Athens marked its sixth appearance in the Summer Olympics since its debut in the 1984 Summer Olympics . The delegation included two track and field athletes , Youba Hmeida and Aminata Kamissoko , who were both selected by wildcards after both failed to meet either the " A " or " B " qualifying standards . Hmeida was selected as the flag bearer for the opening ceremony . Neither of the Mauritanians progressed beyond the heats . = = Background = = Mauritania participated in six Summer Olympic games between its debut in the 1984 Summer Olympics in Los Angeles , United States and the 2004 Summer Olympics in Athens . The Mauritania National Olympic Committee ( NOC ) selected two athletes via wildcards . Usually , an NOC would be able to enter up to 3 qualified athletes in each individual event as long as each athlete met th</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>War Tour = The War Tour was a concert tour by the Irish rock band U2 , which took place in 1982 and 1983 in support of the group 's third album War . The tour took place in Western Europe , the United States , and Japan , with new material from War taking an increasing role as the tour progressed . Venues were mostly halls , but some arenas were introduced later on . U2 's performances were very well received both critically and commercially , especially in the United States where U2 broke through to become a major act . Scenes of lead singer Bono waving a white flag during the song " Sunday Bloody Sunday " became an emblematic image of this phase of U2 's career . It was their first tour as full-time headlining act and their first to be profitable . The live album Under a Blood Red Sky and the concert film U2 Live at Red Rocks : Under a Blood Red Sky both originated from performances on the tour . The latter matched U2 's concert fervour with the spectacular natural setting of the Red</t>
+          <t xml:space="preserve">Great Britain at the 2008 Summer Olympics = The United Kingdom of Great Britain and Northern Ireland competed as Great Britain at the 2008 Summer Olympics in Beijing , China . The United Kingdom was represented by the British Olympic Association ( BOA ) , and the team of selected athletes was officially known as Team GB . Britain is one of only five NOCs to have competed in every modern Summer Olympic Games since 1896 . The delegation of 547 people included 311 competitors – 168 men , 143 women – and 236 officials . The team was made up of athletes from the whole United Kingdom including Northern Ireland ( whose people may elect to hold Irish citizenship and are able to be selected to represent either Great Britain or Ireland at the Olympics ) . Additionally some British overseas territories compete separately from Britain in Olympic competition . Great Britain 's medal performance at the 2008 Summer Olympics was its best in a century ; only its performance at the 1908 Summer Olympics </t>
         </is>
       </c>
     </row>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>song video number like performance tour music madonna performed best songs stage beyoncé week gaga single dance shows chart called wrote spears live audience said dancers singer million felt described noted tickets gave love sold way received included performances billboard hot version musical choreography critics concert fans glee album praised featured release pop released commented debuted according wearing saying list girl added night black kurt sang copies choreographed track wanted costumes onstage dancing britney dress scene interlude awards spectacle cyrus scenes look broadway total weeks cover end lady_gaga singing artist videos lyrics dates napoleon rachel set people mtv different covered</t>
+          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'umpired']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Very Glee Christmas = " A Very Glee Christmas " is the tenth episode of the second season of the American musical television series Glee , and the thirty-second episode overall . It was written by series co-creator Ian Brennan , directed by Alfonso Gomez-Rejon , and premiered on Fox on December 7 , 2010 . It served as the mid-season finale of season two — nearly two months elapsed before the next episode was aired — and featured Artie ( Kevin McHale ) trying to keep his girlfriend Brittany 's ( Heather Morris ) belief in Santa Claus intact , and Sue ( Jane Lynch ) rigging the faculty Secret Santa gift exchange so she gets all the gifts , though she later becomes a Grinch when the gifts are repossessed . The episode features seven songs , two of which come from the television special How the Grinch Stole Christmas ! . The creators of Glee received permission from the estate of Dr. Seuss for the use of characters from How the Grinch Stole Christmas ! , but were not allowed to use them </t>
+          <t>Manor Farm , Ruislip = Manor Farm is a 22-acre ( 8.9 ha ) historic site in Ruislip , Greater London . It incorporates a medieval farm complex , with a main old barn dating from the 13th century and a farm house from the 16th . Nearby are the remains of a motte-and-bailey castle believed to date from shortly after the Norman conquest of England . Original groundwork on the site has been dated to the 9th century . Ownership of the site passed to the King 's College , Cambridge in the 15th century , with whom it remained until 1931 . At this point Manor Farm was included in the sale of Park Wood as a gift to the people of Ruislip . The Great Barn and Little Barn were recognised by a member of the Royal Society of Arts in 1930 as in need of conservation . The site continued as a working farm until 1933 . Throughout 2007 and 2008 , the site was restored with National Lottery funding , and has become a heritage area for the London Borough of Hillingdon . Manor Farm is within the Ruislip Vill</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>You Belong with Me = " You Belong with Me " is a song performed by American singer-songwriter Taylor Swift . The song was co-written by Swift and Liz Rose and produced by Nathan Chapman with Swift 's aid . It was released on April 18 , 2009 , by Big Machine Records as the third single from Swift 's second studio album , Fearless ( 2008 ) . Swift was inspired to write " You Belong with Me " after overhearing a male friend of hers arguing with his girlfriend through a phone call ; she continued to develop a story line afterward . The song contains many pop music elements and its lyrics have Swift desiring an out-of-reach love interest . The song won Favorite song at 2010 Kids ' Choice Awards , and received nominations for the Grammy Awards for Song of the Year , Record of the Year , and Best Female Pop Vocal Performance . " You Belong with Me " enjoyed commercial success as well ; it became a top ten hit in Australia , Canada , New Zealand , and the United States . In the United States ,</t>
+          <t>The Madcap Laughs = The Madcap Laughs is the debut solo album by the English singer-songwriter Syd Barrett . It was recorded after Barrett had left Pink Floyd in April 1968 . The album had a chequered recording history , with work beginning in mid-1968 , but the bulk of the sessions taking place between April and July 1969 , for which five different producers were credited − including Barrett , Peter Jenner ( 1968 sessions ) , Malcolm Jones ( early-to-mid-1969 sessions ) , and fellow Pink Floyd members David Gilmour and Roger Waters ( mid-1969 sessions ) . Among the guest musicians are Willie Wilson from ( Gilmour 's old band ) Jokers Wild and Robert Wyatt of the band Soft Machine . The Madcap Laughs , released in January 1970 on Harvest in the UK , and on Capitol Records in the US , enjoyed minimal commercial success on release , reaching number 40 on the UK 's official albums chart , while failing to hit the US charts . It was re-released in 1974 as part of Syd Barrett ( which contai</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>New York ( Glee ) = " New York " is the twenty-second episode and season finale of the second season of the American musical television series Glee , and the forty-fourth overall . The episode was written and directed by series creator Brad Falchuk , filmed in part on location in New York City , and first aired on May 24 , 2011 on Fox in the United States . With a $ 6 million budget , it was reportedly the most expensive episode of Glee at the time of broadcast . It garnered a Primetime Emmy nomination for Outstanding Costumes for a Series . The episode features an appearance by Patti LuPone as herself and guest stars Jonathan Groff , Cheyenne Jackson , and Charice . The McKinley High School glee club , New Directions , performs at the National show choir competition in New York City and finishes in twelfth place . While they are there , the glee club members see the sights , including Times Square and Central Park . Rachel ( Lea Michele ) and Kurt ( Chris Colfer ) sing a song from a B</t>
+          <t>Joan Curran = Joan Elizabeth Curran ( 26 February 1916 – 10 February 1999 ) was a Welsh scientist who played important roles in the development of radar and the atomic bomb during the Second World War . She invented chaff , a radar countermeasure technique credited with reducing losses among Allied bomber crews . She also worked on the development of the proximity fuse and the electromagnetic isotope separation process for the atomic bomb . = = Early life = = Joan Elizabeth Strothers was born on 26 February 1916 in Swansea , Wales , the daughter of an optician , Charles William Strothers , and his wife , Margaret Beatrice , née Millington . She was educated at Swansea Girls ' High School , and in 1934 won an open scholarship to Newnham College , Cambridge . In 1935 , she rowed for the ladies ' university eight , in the first real Women 's boat race against Oxford . She gained an honours degree in physics , which was not awarded because it was before women were allowed Cambridge degrees</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Womanizer ( song ) = " Womanizer " is a song recorded by American singer Britney Spears for her sixth studio album , Circus ( 2008 ) . It was released on October 3 , 2008 by Jive Records as the lead single of the album . Produced and co-written by Nikesha Briscoe and Rafael Akinyemi of The Outsyders , the song was re-recorded after a snippet was leaked onto the internet . " Womanizer " is an up-tempo electropop and dance-pop song with characteristic sirens and a repetitive hook . Described by Spears as a girl anthem , the song 's lyrics recall a womanizing man , while the protagonist of the song makes clear she knows who he really is . Music critics mostly praised its hook , melody and empowering lyrics . Critics also observed it was a stand-out track from its album and also deemed it as a comeback single for Spears . " Womanizer " was a commercial success , peaking atop of the charts in Belgium , Canada , Denmark , Finland , France , Norway , Sweden and the United States . It also rea</t>
+          <t xml:space="preserve">Amy Robsart = Amy Dudley ( née Robsart ) ( 7 June 1532 – 8 September 1560 ) was the first wife of Lord Robert Dudley , favourite of Elizabeth I of England . She is primarily known for her death by falling down a flight of stairs , the circumstances of which have often been regarded as suspicious . Amy Robsart was the only child of a substantial Norfolk gentleman and at nearly 18 married Robert Dudley , a son of John Dudley , 1st Duke of Northumberland . In 1553 Robert Dudley was condemned to death and imprisoned in the Tower of London , where Amy Dudley was allowed to visit him . After his release the couple lived in strait financial circumstances until , with the accession of Elizabeth I in late 1558 , Dudley became Master of the Horse , an important court office . The Queen soon fell in love with him and there was talk that Amy Dudley , who did not follow her husband to court , was suffering from an illness , and that Elizabeth would perhaps marry her favourite should his wife die . </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>I Wanna Go = " I Wanna Go " is a song recorded by American singer Britney Spears for her seventh studio album , Femme Fatale ( 2011 ) . It was written and produced by Max Martin and Shellback , with additional writing by Savan Kotecha . Spears first posted on her Twitter account a link to a clip of the song in February 2011 , a month prior to the album 's release . Following a poll on her official website , " I Wanna Go " was chosen as the third single of the album , and Jive Records released it on June 13 , 2011 . " I Wanna Go " is a dance-pop and Hi-NRG song that features a heavy bassline and drum fills reminiscent of English rock band New Order . The pre-chorus has a whistled hook that received comparisons to the music of Bob Sinclar and Frankie Knuckles . The lyrics of " I Wanna Go " feature Spears singing about losing inhibitions . The song received mixed to positive reviews from critics . Some praised it for being effective and highlighted its hook , while others dismissed the pr</t>
+          <t>Tom Tancredo presidential campaign , 2008 = The Tom Tancredo presidential campaign , 2008 for President of the United States began with the announcement of candidacy by the Congressman from Colorado on April 2 , 2007 . Since then , the campaign had garnered grassroots support and endorsements from conservative Republicans concerned about illegal immigration and border security . However , the candidate remained low in the polls and was criticized for his nativist campaign , which had been described as " single-issued . " Tancredo stated that he probably would not win the nomination but hoped his campaign would bring forth more debate on his issue of concern , immigration . On December 20 , 2007 Tancredo withdrew from the presidential race , and endorsed Mitt Romney . = = Campaign development = = Prior to his announcement early in 2007 , draft movements sprung to try to convince Congressman Tancredo to run for President of the United States . Tancredo responded to the draft efforts by s</t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>class built main guns line castle new service use long locomotives london speed intended locomotive fire continued range gun designed high war increased ships end originally construction additional carried lines tons maximum railways railway turrets large extended station designs inch turret work design provided aircraft tower instead control steam defences remained decided initially forward mounted power passenger armour armament gauge services bailey artillery fitted castles trains replaced standard short fortification heavy light original south reduced existing required towers rounds ran running improved century mph opened converted belt allow period battlecruisers engines taken proved delivered better gatehouse platform early boiler need</t>
+          <t>['poem', 'poems', 'poetry', 'poet', 'han', 'shakespeare', 'ode', 'riley', 'text', 'sanskrit', 'texts', 'poetic', 'literary', 'works', 'smart']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>North Staffordshire Railway = The North Staffordshire Railway ( NSR ) was a British railway company formed in 1845 to promote a number of lines in the Staffordshire Potteries and surrounding areas in Staffordshire , Cheshire , Derbyshire and Shropshire . The company was based in Stoke-on-Trent and was nicknamed The Knotty ; its lines were built to the standard gauge of 4 ft 8 1 ⁄ 2 in ( 1,435 mm ) . The main routes were constructed between 1846 and 1852 and ran from Macclesfield to Norton Bridge , just north of Stafford , and from Crewe to Egginton Junction , west of Derby . Within these main connections with other railway companies , most notably the London and North Western Railway ( LNWR ) , the company operated a network of smaller lines although the total route mileage of the company never exceeded 221 miles ( 355.7 km ) . The majority of the passenger traffic was local although a number of LNWR services from Manchester to London were operated via Stoke . Freight traffic was mostl</t>
+          <t>And Still I Rise = And Still I Rise is author Maya Angelou 's third volume of poetry , published by Random House in 1978 . It was published during one of the most productive periods in Angelou 's career ; she had written three autobiographies and published two other volumes of poetry up to that point . Angelou considered herself a poet and a playwright , but was best known for her seven autobiographies , especially her first , I Know Why the Caged Bird Sings , although her poetry has also been successful . She began , early in her writing career , alternating the publication of an autobiography and a volume of poetry . Although her poetry collections have been best-sellers , they have not received serious critical attention . And Still I Rise is made up of 32 short poems , divided into three parts . The poems ' themes focus on a hopeful determination to rise above difficulty and discouragement , and on many of the same topics as Angelou 's autobiographies and previous volumes of poetry</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lion-class battlecruiser = The Lion class were a class of battlecruisers built for the British Royal Navy before World War I. Nicknamed the " Splendid Cats " , the ships were a significant improvement over their predecessors of the Indefatigable class in terms of speed , armament and armour . The Lion-class battlecruisers were 2 knots ( 3.7 km / h ; 2.3 mph ) faster , exchanged the 12-inch ( 305 mm ) guns of the older ships for 13.5-inch ( 343 mm ) guns , and had a waterline armour belt 9 inches ( 229 mm ) thick versus the 6 inches ( 152 mm ) of the Indefatigables . These improvements were in response to the German Moltke class , the first German battlecruisers , which were larger and more powerful than the first British battlecruisers of the Invincible class . Lion served as the flagship of the Grand Fleet 's battlecruisers throughout World War I , except when she was being refitted or under repair . She sank the German light cruiser Cöln during the Battle of Heligoland Bight and serv</t>
+          <t>Cricket ( insect ) = Crickets ( also known as " true crickets " ) , of the family Gryllidae , are insects related to bush crickets , and , more distantly , to grasshoppers . The Gryllidae have mainly cylindrical bodies , round heads , and long antennae . Behind the head is a smooth , robust pronotum . The abdomen ends in a pair of long cerci ( spikes ) ; females have a long , cylindrical ovipositor . The hind legs have enlarged femora ( thighs ) , providing power for jumping . The front wings are adapted as tough , leathery elytra ( wing covers ) , and some crickets chirp by rubbing parts of these together . The hind wings are membranous and folded when not in use for flight ; many species , however , are flightless . The largest members of the family are the bull crickets , Brachytrupes , which are up to 5 cm ( 2 in ) long . More than 900 species of crickets are described ; the Gryllidae are distributed all around the world except at latitudes 55 ° or higher , with the greatest divers</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Panavia Tornado = The Panavia Tornado is a family of twin-engine , variable-sweep wing multirole combat aircraft , which was jointly developed and manufactured by Italy , the United Kingdom , and West Germany . There are three primary Tornado variants : the Tornado IDS ( interdictor / strike ) fighter-bomber , the suppression of enemy air defences Tornado ECR ( electronic combat / reconnaissance ) and the Tornado ADV ( air defence variant ) interceptor aircraft . The Tornado was developed and built by Panavia Aircraft GmbH , a tri-national consortium consisting of British Aerospace ( previously British Aircraft Corporation ) , MBB of West Germany , and Aeritalia of Italy . It first flew on 14 August 1974 and was introduced into service in 1979 – 1980 . Due to its multirole nature , it was able to replace several different fleets of aircraft in the adopting air forces . The Royal Saudi Air Force ( RSAF ) became the only export operator of the Tornado in addition to the three original pa</t>
+          <t>Poet Laureate of New Jersey = The Poet Laureate of New Jersey ( statutorily known as New Jersey William Carlos Williams Citation of Merit ) was an honor presented biennially by the Governor of New Jersey to a distinguished New Jersey poet . Created in 1999 , this position existed for less than four years and was abolished by the legislature effective July 2 , 2003 . When the New Jersey State Legislature created the laureate position , the bill provided specifically for the creation of an award named in honor of twentieth-century poet and physician William Carlos Williams ( 1883 – 1963 ) who resided in Rutherford , New Jersey . However , the legislature recognized that the award 's recipient would " be considered the poet laureate of the State of New Jersey for a period of two years . Before the position was abolished , only two poets , Gerald Stern and Amiri Baraka , had been appointed as the state 's poet laureate . The legislature 's bill was signed into law by Governor Christine Tod</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>London Necropolis railway station = London Necropolis railway station was the Waterloo , London terminus of the London Necropolis Railway . The London Necropolis Railway was opened in 1854 as a reaction to severe overcrowding in London 's existing graveyards and cemeteries . It aimed to use the recently developed technology of the railway to move as many burials as possible to the newly built Brookwood Cemetery in Brookwood , Surrey . This location was within easy travelling distance of London , but distant enough for the dead not to pose any risk to public hygiene . There were two locations for the station ; the first was in operation from 1854 to 1902 , the second from 1902 to 1941 . Although it had its own branch line into Brookwood Cemetery , most of the route of the London Necropolis Railway ran on the existing London and South Western Railway ( LSWR ) . Consequently , a site was selected in Waterloo , near the LSWR 's recently opened London terminus at Waterloo Bridge station ( n</t>
+          <t>Ode to Psyche = " Ode to Psyche " is a poem by John Keats written in spring 1819 . The poem is the first of his 1819 odes , which include " Ode on a Grecian Urn " and " Ode to a Nightingale " . " Ode to Psyche " is an experiment in the ode genre , and Keats 's attempt at an expanded version of the sonnet format that describes a dramatic scene . The poem serves as an important departure from Keats 's early poems , which frequently describe an escape into the pleasant realms of one 's imagination . Keats uses the imagination to show the narrator 's intent to resurrect Psyche and reincarnate himself into Eros ( love ) . Keats attempts this by dedicating an " untrodden region " of his mind to the worship of the neglected goddess . = = Background = = Keats was never a professional writer . Instead , he supported himself with a small income that he earned as a surgeon for Guy 's Hospital . At the age of 23 , Keats left the hospital , losing his source of income , in order to devote himself t</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>General Aircraft Hamilcar = The General Aircraft Limited GAL . 49 Hamilcar or Hamilcar Mark I was a large British military glider produced during the Second World War , which was designed to carry heavy cargo , such as the Tetrarch or M22 Locust light tank . When the British airborne establishment was formed in 1940 by the order of Prime Minister Winston Churchill it was decided to develop a large glider which would be able to transport heavy equipment in support of airborne troops . General Aircraft Limited were chosen in January 1941 to develop this glider , which they designated the GAL . 49 ' Hamilcar ' . It was designed to transport a single light tank or two Universal Carriers . A number of problems , which included vacillation by the War Office on the number of gliders that it wanted and poor management by GAL , led to delays in the production of the Hamilcar , and the first production glider was only assembled in mid-1943 . These problems were only partially solved , and produc</t>
+          <t>Ode to Psyche = " Ode to Psyche " is a poem by John Keats written in spring 1819 . The poem is the first of his 1819 odes , which include " Ode on a Grecian Urn " and " Ode to a Nightingale " . " Ode to Psyche " is an experiment in the ode genre , and Keats 's attempt at an expanded version of the sonnet format that describes a dramatic scene . The poem serves as an important departure from Keats 's early poems , which frequently describe an escape into the pleasant realms of one 's imagination . Keats uses the imagination to show the narrator 's intent to resurrect Psyche and reincarnate himself into Eros ( love ) . Keats attempts this by dedicating an " untrodden region " of his mind to the worship of the neglected goddess . = = Background = = Keats was never a professional writer . Instead , he supported himself with a small income that he earned as a surgeon for Guy 's Hospital . At the age of 23 , Keats left the hospital , losing his source of income , in order to devote himself t</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cap fruit color shaped spores bodies fungus stem mushroom spore taxonomy yellow diameter collected gill somewhat commonly hyphae bearing description typically colored epithet grow grows north_america slightly flesh smooth thin orange pale distinguished gills genus covered mushrooms scattered forests specific closely basidia taste whitish roughly measuring characteristics reddish margin attached caps growing dry connections wide brownish distinct clamp distributed odor mycologist similar distinctive specimens mature stipe microscopic translucent occasionally edible measure fine spored hollow hyaline cystidia tissue fungi habitat brown lacks ellipsoid layer yellowish produces broadly attachment narrow distribution maturity walled differences print cheilocystidia cuticle cylindrical cells pink rounded apex</t>
+          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'stud', 'breeding', 'bred', 'arabian', 'stallion', 'riding', 'breeders', 'pony', 'stakes']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Macabeemyrma = Macabeemyrma is an extinct genus of bulldog ants in the subfamily Myrmeciinae containing the single species Macabeemyrma ovata , described in 2006 from Ypresian stage ( Early Eocene ) deposits of British Columbia , Canada . Only a single specimen is known ; a holotype queen found preserved as a compression fossil . The specimen had no wings and small portions of its legs and eyes were faintly preserved . It was a large ant , reaching 25 millimetres ( 0.98 in ) in length . This ants ' behaviour would have been similar to that of extant Myrmeciinae ants , such as foraging singly in search for arthropod prey and nesting in soil or in trees . Macabeemyrma shows similarities to extinct ants in the genus Ypresiomyrma , and to the living Nothomyrmecia macrops , but has not been conclusively assigned to any tribe , instead generally regarded as incertae sedis within Myrmeciinae . However , the sole specimen lacks definitive traits , and its classification in Myrmeciinae , and ev</t>
+          <t>Ahmed Zayat = Ahmed Zayat ( born August 31 , 1962 ) is an Egyptian American entrepreneur and owner of Thoroughbred race horses . He currently serves as the CEO of Zayat Stables , LLC , a Thoroughbred horse racing business which bred and owns the 2015 Triple Crown winner American Pharoah . Joe Drape of The New York Times described Zayat as " controversial " and " one of the most successful and flamboyant owners in thoroughbred racing . " Zayat was born in Cairo , Egypt to a wealthy family , and grew up in an ethnically-diverse neighborhood where he learned to ride horses . At age 18 , he moved to the United States where he attended college and ultimately obtained a master 's degree in business and public health from Boston University . After a brief career in commercial real estate in New York City , he returned to Egypt , and for about a decade ran the Al-Ahram Beverages Company , which he owned as part of an investment group . After the company was purchased by Heineken in 2002 , Zaya</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cryptothecia rubrocincta = Cryptothecia rubrocincta is a species of lichen in the Arthoniaceae family of fungi . The species is distributed in subtropical and tropical locations throughout the southeastern United States , as well as Central and South America , and has been collected infrequently in a few locales in Africa . The body of the lichen forms continuous , circular crust-like patches on dead wood , readily recognizable by the prominent red pigment . The older , central region is covered with red , spherical to cylindrical granules . Moving outwards from the center , zones of color may be distinguished , the first gray-green , the second white , and finally a bright red cottony rim . The red and green colors of this unmistakable woodland lichen give the appearance of a Christmas wreath , suggestive of its common North American name , the Christmas wreath lichen . The red pigment , called chiodectonic acid , is one of several chemicals the lichen produces to help tolerate inhosp</t>
+          <t>Large Black pig = The Large Black , occasionally called the Devon , Cornwall Black or Boggu , is a breed of domestic pig native to Great Britain , particularly Devon , Cornwall and Essex . The Large Black is accurately named , as it is a large swine breed and is the only British pig that is entirely black . It is a hardy and docile pig , with Large Black sows known for having large litters . The breed 's foraging ability make it particularly useful for extensive farming , while a poor candidate for intensive farming . The Large Black combined local black pig breeds from the West Country and the East of England . With the founding of a breed association in 1898 or 1899 , variations between the types from the two areas decreased . The Large Black was popular in the early 1900s and was exported to many areas of the world . Population numbers declined after the Second World War as farmers turned to breeds more suitable to intensive pig farming , and by the 1960s the breed was almost extinc</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Andreacarus voalavo = Andreacarus voalavo is a parasitic mite found on the Malagasy rodent Voalavo gymnocaudus . First described in 2007 , it is closely related to Andreacarus gymnuromys and Andreacarus eliurus , which are found on other Malagasy rodents . The length of the idiosoma , the main body , is 630 to 670 μm in females and 450 to 480 μm in males . Unlike A. eliurus , this species lacks distinct sternal glands ( secretory organs ) between two lyrifissures ( sensory organs ) on the lower part of the female body . The pilus dentilis , a sensory organ on the chelicera , is serrate , which distinguishes it from A. gymnuromys . Females of A. gymnuromys also have a less ornamented sternal shield ( covering part of the underparts ) and shorter setae ( bristles ) on the upperparts . = = Taxonomy and ecology = = Andreacarus voalavo was named in 2007 by Ashley Dowling , Andre Bochkov , and Barry OConnor on the basis of 15 specimens found on an individual of the rodent Voalavo gymnocaudus</t>
+          <t>Lusitano = The Lusitano , also known as the Pure Blood Lusitano or PSL ( Puro Sangue Lusitano ) , is a Portuguese horse breed , closely related to the Spanish Andalusian horse . Both are sometimes called Iberian horses , as the breeds both developed on the Iberian peninsula , and until the 1960s they were considered one breed , under the Andalusian name . Horses were known to be present on the Iberian Peninsula as far back as 20,000 BC , and by 800 BC the region was renowned for its war horses . When the Muslims invaded Iberia in 711 AD , they brought Barb horses with them that were crossed with the native horses , developing a horse that became useful for war , dressage and bull fighting . In 1966 , the Portuguese and Spanish stud books split , and the Portuguese strain of the Iberian horse was named the Lusitano , after the word Lusitania , the ancient Roman name for Portugal . There are three main breed lineages within the breed today , and characteristics differ slightly between ea</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aonchotheca forresteri = Aonchotheca forresteri is a parasitic nematode that infects the marsh rice rat ( Oryzomys palustris ) in Florida . Occurring mainly in adults , it inhabits the stomach . It is much more common during the wet season , perhaps because its unknown intermediate host is an earthworm that only emerges when it rains . The worm was discovered in 1970 and formally described in 1987 . Originally classified in the genus Capillaria , it was reclassified in Aonchotheca in 1999 . A. forresteri is small and narrow-bodied , with a length of 13.8 to 19.4 mm in females and 6.8 to 9.2 mm in males . Similar species such as A. putorii differ in features of the alae and spicule ( organs in the male ) , the size of the female , and the texture of the eggs . = = Taxonomy = = Aonchotheca forresteri was discovered during a survey of the endoparasites of Florida marsh rice rats ( Oryzomys palustris ) by John Kinsella from 1970 to 1972 , and is one of several new parasite species in this </t>
+          <t>Maine Coon = The Maine Coon is the largest domesticated breed of cat . It has a distinctive physical appearance and valuable hunting skills . It is one of the oldest natural breeds in North America , specifically " native " to the state of Maine ( though the feline was simply introduced there ) , where it is the official state cat . No records of the Maine Coon 's exact origins and date of introduction to the United States exist , so several competing hypotheses have been suggested . The breed was popular in cat shows in the late 19th century , but its existence became threatened when long-haired breeds from overseas were introduced in the early 20th century . The Maine Coon has since made a comeback and is now one of the more popular cat breeds in the world . The Maine Coon is a large and sociable cat , hence its nickname , " the gentle giant " . It is characterized by a robust bone structure , rectangular body shape , a silky flowing coat and a long , bushy tail . The breed 's colors</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ornatifilum = Ornatifilum ( Latin ornatus + filum , Ornamented filament ) is an artificial form genus , which is used to categorise any small , branched filaments with external ornamentation . It has been applied to microfossils of Devonian age with fungal affinities , though these taxa have since been recognized as an early growth form of Tortotubus . = = Background = = The form genus Ornatifilum was erected by Burgess and Edwards in 1991 to describe tubular fossils retrieved by acid maceration from the late Silurian . It was originally intended as a form genus , to facilitate stratigraphy and environmental reconstruction ; the fossils do not display enough features to classify them confidently , even at a kingdom level . The organisms comprise tubes of around 10 μm diameter , with an ornamented , granular surface texture . These fossils were compared to late Silurian ( Ludlow epoch ) fossils retrieved from the Burgsvik beds by Sherwood-Pike and Gray , and the genus was used when simi</t>
+          <t>History of the horse in Britain = The known history of the horse in Britain starts with horse remains found in Pakefield , Suffolk , dating from 700,000 BC , and in Boxgrove , West Sussex , dating from 500,000 BC . Early humans were active hunters of horses , and finds from the Ice Age have been recovered from many sites . At that time , land which now forms the British Isles was part of a peninsula attached to continental Europe by a low-lying area now known as " Doggerland , " and land animals could migrate freely between what is now island Britain and continental Europe . The domestication of horses , and their use to pull vehicles , had begun in Britain by 2500 BC ; by the time of the Roman conquest of Britain , British tribes could assemble armies which included thousands of chariots . Horse improvement as a goal , and horse breeding as an enterprise , date to medieval times ; King John imported a hundred Flemish stallions , Edward III imported fifty Spanish stallions , and variou</t>
         </is>
       </c>
     </row>
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>episode mulder plot find scully nielsen doctor files scene david_duchovny finds x-files filmed dana_scully enterprise gillian_anderson alien fox olivia filming agents fox_mulder previously fbi broadcast script paranormal man mythology fringe households agent planet watched chris_carter carter archer smoking viewers linked effects believe rating noting walter duchovny arrives kill frank_spotnitz zack_handlen episodes reception discover lars_pearson skinner trek monster star reviews thought bbc generation voyager cinefantastique tardis wanting robert_shearman producers special ratings stars rated lone paula_vitaris walter_skinner skeptical centers creature kim_manners television tucker amy story scenes aliens gunmen investigate starfleet aired unconnected finale believes mitch_pileggi tells household watching creator mixed reyes killing</t>
+          <t>['creek', 'watershed', 'dam', 'volcano', 'lava', 'pipeline', 'flows', 'volcanic', 'trout', 'mountain', 'park', 'eruption', 'river', 'feet', 'cubic']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>X ( The X-Files ) = X , sometimes referred to as Mr. X , is a fictional character on the American science fiction television series The X-Files . He serves as an informant , leaking information to FBI Special Agents Fox Mulder and Dana Scully to aid their investigation of paranormal cases , dubbed X-Files . The character serves as a replacement for Deep Throat , who had been killed off in the first season finale , " The Erlenmeyer Flask " . X himself would be killed off after appearing in several seasons , eventually being replaced by Marita Covarrubias . X is portrayed in the series by Steven Williams , and made his début in the second season episode " The Host " , although the character would not appear on-screen until " Sleepless " , two episodes later . The role had originally been conceived as female , with Natalija Nogulich cast in the role ; however , her initial scenes were deemed unsatisfactory by the producers , leading to her replacement . Williams ' portrayal of X was inten</t>
+          <t>Sulphur Creek ( California ) = Sulphur Creek is a 4.5-mile ( 7.2 km ) tributary of Aliso Creek in Orange County in the U.S. state of California . Draining about 6 square miles ( 16 km2 ) of mostly residential land in the southern San Joaquin Hills , it is Aliso Creek 's largest tributary . Geologically the Sulphur Creek watershed was once part of a large and shallow sea that covered most of southern California . As the San Joaquin Hills rose and river sediments were deposited , land gradually emerged to form the present-day Orange County coast . Sulphur Creek is located in a crumpled , hilly area in the southern part of this range , formed differently from the continuous mountain chain to the north . Historically , being south of Aliso Creek , the Sulphur Creek watershed was part of the territory of the semi-nomadic Acjachemen Indian group , conquered by Spanish conquistadors in the 17th and 18th centuries and renamed the Juaneño by them . During the 19th century , the watershed became</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dear Doctor = " Dear Doctor " is the thirteenth episode of the first season of the American science fiction television series Star Trek : Enterprise and originally aired on January 23 , 2002 , on UPN . The episode was written by Maria and Andre Jacquemetton , and was directed by James A. Contner . Set in the 22nd century , the series follows the adventures of the first Starfleet starship Enterprise , registration NX-01 . In this episode , Doctor Phlox ( John Billingsley ) faces a serious dilemma as a dying race begs for help from the crew of the Enterprise . The culture consists of two related races , but only the more genetically advanced race has been stricken by a planet-wide plague . UPN requested that the ending of the episode be changed , something that Billingsley did not like . However , he and other members of the cast and crew approved of the final episode . Due to the subject matter and the ending , it is seen as a controversial episode by fans . Although " Dear Doctor " rec</t>
+          <t>Little Catawissa Creek = Little Catawissa Creek is a tributary of Catawissa Creek in Columbia County and Schuylkill County , in Pennsylvania , in the United States . It is approximately 10.8 miles ( 17.4 km ) long and flows through Conyngham Township in Columbia County and Union Township and North Union Township in Schuylkill County . The named tributaries of the creek include Stony Run and Trexler Run . The creek has some alkalinity and is slightly acidic . The main rock formations in the watershed of it are the Mauch Chunk Formation , the Pocono Formation , and the Pottsville Formation . A number of other rock formations occur in small areas of the watershed as well . The main soils in the watershed are the Leck Kill soil and the Hazleton soil . The watershed of Little Catawissa Creek has an area of 16.70 square miles ( 43.3 km2 ) . A number of bridges cross the creek . There are a number of major roads in the watershed of the creek and most of the creek is within several hundred met</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Unity ( Star Trek : Voyager ) = " Unity " is the 17th episode of the third season of the American science fiction television series Star Trek : Voyager , the 59th episode overall . The episode first aired on the UPN network on February 12 , 1997 , as part of sweeps week . It was written by producer Kenneth Biller , and is the second episode to be directed by cast member Robert Duncan McNeill . It marked the first appearance of the Borg in Voyager . Set in the 24th century , the series follows the adventures of the Starfleet and Maquis crew of the starship USS Voyager after they were stranded in the Delta Quadrant far from the rest of the Federation . In this episode , while on an away mission , Chakotay is taken in by a group of former Borg who seek help from the crew of Voyager to reactivate their neural link . The ex-Borg force Chakotay to reactivate a Borg cube ( a large Borg spaceship ) , but , in their new-found " Co-operative " , the ex-Borg make the cube self-destruct , saving V</t>
+          <t>Darby Creek ( Pennsylvania ) = Darby Creek ( historically known as Church Creek or the Derby River ) is a tributary of the Delaware River in Chester County , Delaware County , and Philadelphia County , in Pennsylvania , in the United States . It is approximately 26 miles ( 42 km ) long . The watershed of the creek has an area of 77.2 square miles ( 200 km2 ) . It has twelve named direct tributaries , including Cobbs Creek , Little Darby Creek , Ithan Creek , and Muckinipattis Creek . The creek has a low level of water quality for most of its length . A reach of it is considered to be impaired by habitat modification , siltation , and flow variability stemming from urban runoff and storm sewers . The creek is slightly alkaline . Darby Creek flows through a narrow valley in its upper reaches and a tidal flat in its lower reaches . The creek is in the Piedmont Uplands and Atlantic Coastal Plain physiographic provinces . Major rock formations in the watershed include the Wissahickon Format</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Underneath ( The X-Files ) = " Underneath " is the twelfth episode of the ninth season of the American science fiction television series The X-Files . The episode first aired in the United States on March 31 , 2002 on the Fox network . The episode was written and directed by executive producer John Shiban . The episode is a " monster-of-the-week " episode , a stand-alone plot which is unconnected to the mythology , or overarching fictional history , of The X-Files . The episode earned a Nielsen rating of 4.4 and was viewed by 4.64 million households and 7.3 million viewers . It received mixed reviews from critics . The show centers on FBI special agents who work on cases linked to the paranormal , called X-Files ; this season focuses on the investigations of John Doggett ( Robert Patrick ) , Monica Reyes ( Annabeth Gish ) , and Dana Scully ( Gillian Anderson ) . In this episode , Doggett is determined to find an error in the DNA evidence that freed the convicted Robert Fassl , the " Sc</t>
+          <t xml:space="preserve">West Branch Fishing Creek = West Branch Fishing Creek is one of the northernmost major tributaries of Fishing Creek in Sullivan County , Pennsylvania and Columbia County , Pennsylvania , in the United States . It is 11.1 miles ( 17.9 km ) long and flows through Davidson Township , Sullivan County and Sugarloaf Township , Columbia County . The creek 's watershed has an area of 33.5 square miles , nearly all of which is forested land . Rock formations in the watershed of West Branch Fishing Creek include the Catskill Formation , the Huntley Mountain Formation , and the Burgoon Sandstone . North Mountain , Huckleberry Mountain , and Central Mountain are all in the creek 's vicinity . The temperature of the creek 's waters ranges from − 2 ° C ( 28 ° F ) to 23 ° C ( 73 ° F ) and its pH ranges from approximately 5.5 to just under 7.0 . The creek 's discharge ranges from nearly 0 cubic meters per second to approximately 25 cubic meters per second . Communities in the watershed of West Branch </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Home Soil = " Home Soil " is the 18th episode of the American science fiction television series Star Trek : The Next Generation . It first aired in broadcast syndication on February 22 , 1988 . Robert Sabaroff , Karl Geurs and Ralph Sanchez developed the story , with Sabaroff producing the teleplay . " Home Soil " is one of five episodes of the series directed by Corey Allen . Set in the 24th century , the series follows the adventures of the Starfleet crew on the Federation starship Enterprise-D. In the episode , the crew of the Enterprise investigate the murder of a crewman on a terraforming colony and discover a crystalline life form possessing intelligence . The production team encountered problems with the sets , casting , and scheduling . Due to issues with the script , it was delivered to Allen just one day before shooting . Nine million viewers watched the episode , the second lowest number of viewers for the first season of The Next Generation . Critical reception was mixed , </t>
+          <t xml:space="preserve">Lake Neepaulin = Lake Neepaulin is a small man-made freshwater lake located in Wantage Township in Sussex County , New Jersey in the United States . Located in the watershed of Papakating Creek , a tributary of the Wallkill River , the lake was created in the 1950s by damming an unnamed mountain stream as the feature of a private residential development . The stream , now known as Neepaulakating Creek , did not receive a name until 2002 . = = Description = = Lake Neepaulin is a man-made lake created from the damming of Neepaulakating Creek , a small mountain stream that was not named until 2002 . The creek 's headwaters are located approximately 0.4 miles ( 0.6 km ) northwest of the north end of Lake Neepaulin . These headwaters are located a short distance south of County Route 650 ( Libertyville Road ) roughly halfway between the hamlet of Libertville in Wantage Township and Sussex Borough . Lake Neepaulin 's elevation is 509 feet ( 155m ) above sea level . The lake is the center of </t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>son king died brother death daughter father reign royal kings younger succeeded sons kingdom probably bishop brothers married claim according marriage appears granted wife mentioned lands emperor duke sources edward empire historians successor fortress hungary prince possibly ruler refused conflict account crown powerful stephen fled historian byzantine siege hungarian secure peace castle confirmed likely john invaded chronicle rome sent hands heir seized managed pope cousin surviving ill invasion eldest alexander buried authority crowned uncle records chronicler throne grandfather earl constantinople archbishop ruled nephew bishops william alliance imperial accepted tried papal iii rebellion succession ireland exile mac constantine certainly dublin persuaded</t>
+          <t>['aircraft', 'engine', 'flight', 'fuselage', 'wing', 'air', 'engines', 'prototype', 'radar', 'fighter', 'fuel', 'raf', 'speed', 'car', 'testing']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richard of Dover = Richard ( died 1184 ) was a medieval Benedictine monk and Archbishop of Canterbury . Employed by Thomas Becket immediately before Becket 's death , Richard arranged for Becket to be buried in Canterbury Cathedral and eventually succeeded Becket at Canterbury in a contentious election . Much of Richard 's time as archbishop was spent in a dispute with Roger de Pont L 'Evêque , the Archbishop of York over the primacy of England , and with St Augustine 's Abbey in Canterbury over the archbishop 's jurisdiction over the abbey . Richard had better relations with King Henry II of England than Becket had , and was employed by the king on diplomatic affairs . Richard also had the trust of the papacy , and served as a judge for the papacy . Several of his questions to Pope Alexander III were collected into the Decretals , a collection of ecclesiastical laws , and his patronage of canon lawyers did much to advance the study of canon law in England . = = Early life = = Richard </t>
+          <t>Republic F-105 Thunderchief = The Republic F-105 Thunderchief was a supersonic fighter-bomber used by the United States Air Force . The Mach 2 capable F-105 conducted the majority of strike bombing missions during the early years of the Vietnam War ; it was the only U.S. aircraft to have been removed from combat due to high loss rates . Originally designed as a single-seat , nuclear-attack aircraft , a two-seat Wild Weasel version was later developed for the specialized Suppression of Enemy Air Defenses ( SEAD ) role against surface-to-air missile sites . The F-105 was commonly known as the " Thud " by its crews . As a follow-on to the Mach 1 capable North American F-100 Super Sabre , the F-105 was also armed with missiles and a cannon ; however , its design was tailored to high-speed low-altitude penetration carrying a single nuclear weapon internally . First flown in 1955 , the Thunderchief entered service in 1958 . The F-105 could deliver a greater bomb load than some American heavy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pipe rolls = The Pipe rolls , sometimes called the Great rolls , are a collection of financial records maintained by the English Exchequer , or Treasury , and its successors . The earliest date from the 12th century , and the series extends , mostly complete , from then until 1833 . They form the oldest continuous series of records concerning English governance kept by the English , British and United Kingdom governments , covering a span of about 700 years . The early medieval ones are especially useful for historical study , as they are some of the earliest financial records available from the Middle Ages . A similar set of records was developed for Normandy , which was ruled by the English kings from 1066 to 1205 , but the Norman Pipe rolls have not survived in a continuous series like the English . They were the records of the yearly audits performed by the Exchequer of the accounts and payments presented to the Treasury by the sheriffs and other royal officials ; and owed their na</t>
+          <t xml:space="preserve">Lavochkin La-7 = The Lavochkin La-7 ( Russian : Лавочкин Ла-7 ) was a piston-engined Soviet fighter developed during World War II by the Lavochkin Design Bureau ( OKB ) . It was a development and refinement of the Lavochkin La-5 , and the last in a family of aircraft that had begun with the LaGG-1 in 1938 . Its first flight was in early 1944 and it entered service with the Soviet Air Forces later in the year . A small batch of La-7s was given to the Czechoslovak Air Force the following year , but it was otherwise not exported . Armed with two or three 20 mm ( 0.79 in ) cannon , it had a top speed of 661 kilometers per hour ( 411 mph ) . The La-7 was felt by its pilots to be at least the equal of any German piston-engined fighter and even shot down a Messerschmitt Me 262 jet fighter . It was phased out in 1947 by the Soviet Air Force , but served until 1950 with the Czechoslovak Air Force . = = Design and development = = By 1943 , the La-5 had become a mainstay of the Soviet Air Forces </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Regenbald = Regenbald ( sometimes known as Regenbald of Cirencester ) was a priest and royal official in Anglo-Saxon England under King Edward the Confessor . His name suggests that he was not a native Englishman , and perhaps was German or Norman . He first appears in history as a witness to a royal document in 1050 , and remained a royal chaplain and clerk throughout the rest of King Edward 's reign . Many royal documents give Regenbald the title of " chancellor " but whether this means that he acted in a manner similar to the later Lord Chancellor is unclear , as some of the documents may be forgeries or have been tampered with . Whatever Regenbald 's actual title , King Edward rewarded him with lands and also granted him the status , but not the actual office , of bishop . Regenbald continued to serve the English kings after the Norman Conquest of England , although whether he served King Harold II of England is unclear . His date of death is unknown , but it was probably during th</t>
+          <t>Sukhoi Su-9 ( 1946 ) = The Sukhoi Su-9 , or Samolyet K ( Russian : Aircraft K ) , ( USAF / DOD designation : Type 8 ) , was an early jet fighter built in the Soviet Union shortly after World War II . The design began in 1944 and was intended to use Soviet-designed turbojet engines . The design was heavily influenced by captured German jet fighters and it was subsequently redesigned to use a Soviet copy of a German turbojet . The Su-9 was slower than competing Soviet aircraft and it was cancelled as a result . A modified version with different engines and a revised wing became the Su-11 ( Samolyet KL ) , but this did not enter production either . The Su-13 ( Samolyet KT ) was a proposal to re-engine the aircraft with Soviet copies of the Rolls-Royce Derwent turbojet as well as to modify it for night fighting , but neither proposal was accepted . = = Design and development = = = = = Su-9 = = = In 1944 , the Sukhoi design bureau ( OKB ) began designing a twin-engined fighter powered by tw</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Battle of Baia = The Battle of Baia ( Romanian : Bătălia de la Baia ) was fought on 15 December 1467 between the Moldavian Prince , Stephen the Great and Hungarian King , Matthias Corvinus . The battle was the last Hungarian attempt to subdue the independent Moldavia , as previous attempts had ended in failure . Corvinus invaded Moldavia as a consequence of Stephen 's annexation of Chilia — a fortress and harbour at the coast of the Black Sea , which at the time was controlled by Hungarian and Wallachian forces , though it had belonged to Moldavia centuries earlier . The conflict ended with a bitter defeat for the Hungarians . This put an end to all Hungarian claims on Moldavia . = = Background = = In 1359 , Bogdan I of Moldavia rebelled against Hungary and founded an independent Moldavia . However , the Hungarian attempts to seize control over Moldavia did not end there , and in 1429 , Sigismund , Holy Roman Emperor , and also King of Hungary , met with Władysław Jagiełło , King of Po</t>
+          <t>Petlyakov Pe-3 = The Petlyakov Pe-3 was the long-range , night fighter version of the successful Petlyakov Pe-2 high-speed bomber used by the Soviet Union during World War II . Its design and use followed a comparable path to those taken by the German Luftwaffe with the Junkers Ju 88 and the British Royal Air Force with the De Havilland Mosquito . The Soviets realized the need for a night fighter after the first night bombing of Moscow during Operation Barbarossa . The Petlyakov Pe-2 was selected for modification as the most suitable aircraft available . It was initially used for daylight ground attack missions during the Battle of Moscow , but this proved to be costly since the aircraft was unarmored . Armor and additional guns were retrofitted to the existing aircraft to make it more effective , but the evacuation of the sole factory building the Pe-3 in October 1941 limited the number of aircraft available and many units of the Soviet Air Forces flying the Pe-3 were either disbanded</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rædwald of East Anglia = Rædwald ( Old English : Rædwald , ' power in counsel ' ) , also written as Raedwald or Redwald , was a 7th-century king of East Anglia , a long-lived Anglo-Saxon kingdom which included the present-day English counties of Norfolk and Suffolk . He was the son of Tytila of East Anglia and a member of the Wuffingas dynasty ( named after his grandfather , Wuffa ) , who were the first kings of the East Angles . Details about Rædwald 's reign are scarce , primarily because the Viking invasions of the 9th century destroyed the monasteries in East Anglia where many documents would have been kept . Rædwald reigned from about 599 until his death around 624 , initially under the overlordship of Æthelberht of Kent . In 616 , as a result of fighting the Battle of the River Idle and defeating Æthelfrith of Northumbria , he was able to install Edwin , who was acquiescent to his authority , as the new king of Northumbria . During the battle , both Æthelfrith and Rædwald 's son </t>
+          <t>Polikarpov I-185 = The Polikarpov I-185 was a Soviet fighter aircraft designed in 1940 . It was flown with three engines but all of them were either insufficiently developed for service use or their full production was reserved for other fighters already in production . The I-185 program was cancelled on 27 January 1943 . = = Design and development = = The I-185 , designed in early 1940 , was based on the I-180 , which was itself a development of the I-16 , but was virtually a new design . The monocoque fuselage was similarly built of ' shpon ' , molded birch plywood , and also had an integral fin , but it was considerably longer than that of the I-180 . The two-spar , all-metal wing was smaller and thinner than the I-180 's wing , nearly as thin as that of the Supermarine Spitfire 's wing at 13 % at the root and tapered to 8 % at the wing tip . The wing had a NACA-230 profile and was skinned in duralumin . Pneumatically powered split flaps and leading edge slats were fitted . The oute</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>text notes book bach sunday published setting edition movements describes publication bass read author magazine stories poem note books printed works tone editor ensemble instrumental instruments aria piece strings introduction orchestra melody painting die voices closing poet composed scholar narrative stanza accompanied edited jesus reading repeated movement soprano details conclusion editions format hymn recordings poetry structured praise tenor page writes comments issues god verse focus readers solo volume gospel chapters issue informed occasion leipzig themes violins verses und chorus publishing alto readings sung beginning dramatic contrast composer depiction luke tune argues choral publisher aspects symbol translation content poems pages adventures</t>
+          <t>['trains', 'locomotives', 'locomotive', 'oslo', 'line', 'nok', 'train', 'station', 'tunnel', 'railway', 'class', 'rail', 'railways', 'passenger', 'trondheim']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Violin Concerto ( Mendelssohn ) = Felix Mendelssohn 's Violin Concerto in E minor , Op. 64 , is his last large orchestral work . It forms an important part of the violin repertoire and is one of the most popular and most frequently performed violin concertos of all time . A typical performance lasts just under half an hour . Mendelssohn originally proposed the idea of the violin concerto to Ferdinand David , a close friend and then concertmaster of the Leipzig Gewandhaus Orchestra . Although conceived in 1838 , the work took another six years to complete and was not premiered until 1845 . During this time , Mendelssohn maintained a regular correspondence with David , who gave him many suggestions . The work itself was one of the foremost violin concertos of the Romantic era and was influential on many other composers . Although the concerto consists of three movements in a standard fast – slow – fast structure and each movement follows a traditional form , the concerto was innovative a</t>
+          <t>Ålgård Line = The Ålgård Line ( Norwegian : Ålgårdbanen ) is a closed , but not abandoned , railway line between Ganddal and Ålgård in Rogaland , Norway . The 12.24-kilometer ( 7.61 mi ) line was built as a narrow gauge branch line of the Jæren Line by the Norwegian State Railways ( NSB ) and opened in 1924 . It runs through the villages of Foss-Eikeland and Figgjo in Sandnes to Ålgård in Gjesdal . Several proposals were made for the Ålgård Line to become the first part of the main line from Stavanger to Oslo , but instead the Sørlandet Line was connected to the Jæren Line in 1944 . At the same time , the Ålgård Line was upgraded to standard gauge . The line had up to ten daily round trips with diesel multiple units , until passenger traffic was terminated in 1955 . Freight traffic remained until 1988 , when most of the line was abandoned in 1988 , although 3 kilometers ( 2 mi ) was used until 2001 . The line is owned by the Norwegian National Rail Administration . The station at Figgj</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The Fox , the Wolf and the Husbandman = The Fox , the Wolf and the Husbandman is a poem by the 15th-century Scottish poet Robert Henryson and part of his collection of moral fables known as the Morall Fabillis of Esope the Phrygian . It is written in Middle Scots . As with the other tales in the collection , appended to it is a moralitas which elaborates on the moral that the fable is supposed to contain . However , the appropriateness of the moralitas for the tale itself has been questioned . The tale combines two motifs . Firstly , a husbandman tilling the fields with his new oxen makes a rash oath aloud to give them to the wolf ; when the wolf overhears this , he attempts to make sure that the man fulfills his promise . The fox mediates a solution by speaking to them individually ; eventually he fools the wolf into following him to claim his supposed reward for dropping the case , and tricks him into a draw-well . The moralitas connects the wolf to the wicked man , the fox to the de</t>
+          <t>Hallingskeid Station = Hallingskeid Station ( Norwegian : Hallingskeid stasjon ) is a train station on the Bergensbanen line in the municipality of Ulvik in Hordaland county , Norway . Located at an elevation of 1,110 meters ( 3,640 ft ) above mean sea level , the station is situated inside a snow tunnel . It opened along with the central section of the line on 10 June 1908 and remained as a staffed station until 1982 . It is located on the Hardangervidda plateau in an area without population or road access . The station therefore serves trekkers and mountaineers . Only some of the Norwegian State Railways ( NSB ) trains stop at the station . The original station building was designed by Paul Due , who used the same architectural plan for four other mountain stations on the line . The snow tunnel has caught fire five times . The fires in 1948 , 1953 and 2008 only caused minor damage to the tunnel itself . The 1960 fire burned-down the tunnel , the station building and most of the stati</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gertrude Barrows Bennett = Gertrude Barrows Bennett ( 1883 – 1948 ) was the first major female writer of fantasy and science fiction in the United States , publishing her stories under the pseudonym Francis Stevens . Bennett wrote a number of highly acclaimed fantasies between 1917 and 1923 and has been called " the woman who invented dark fantasy " . Her most famous books include Claimed ( which Augustus T. Swift , in a letter to The Argosy called " One of the strangest and most compelling science fantasy novels you will ever read " ) and the lost world novel The Citadel of Fear . Bennett also wrote an early dystopian novel , The Heads of Cerberus ( 1919 ) . = = Life = = Gertrude Mabel Barrows was born in Minneapolis in 1883 . She completed school through the eighth grade , then attended night school in hopes of becoming an illustrator ( a goal she never achieved ) . Instead , she began working as a stenographer , a job she held on and off for the rest of her life . In 1909 Barrows ma</t>
+          <t>Asker Line = The Asker Line ( Norwegian : Askerbanen ) is a 9.5-kilometre ( 5.9 mi ) railway line between Asker and Lysaker in Norway . The line runs along the same corridor as the Drammen Line , offering increased capacity , speed and regularity on the rail network west of Oslo . The first part opened in 2005 , and in 2011 an extension opened from Sandvika to Lysaker . An extension to Skøyen in Oslo will perhaps be built after 2020 . Most of the railway is in tunnel and is dimensioned for 160 km / h ( 99 mph ) running . The entire railway is electrified at 15 kV 16 2 ⁄ 3 Hz AC . The first section cost NOK 3.7 billion , while the second is budgeted at NOK 2.7 billion . The purpose of the new line is to allow regional and express trains to run directly between Asker Station , Sandvika Station and Lysaker Station , without being slowed and delayed by commuter trains that make frequent stops at intermediate stations . The Asker Line will improve regularity , and capacity will increase fro</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Brainwashing : The Science of Thought Control = Brainwashing : The Science of Thought Control is a non-fiction book analyzing brainwashing , thought reform and mind control , by neuroscientist and physiologist Kathleen Taylor . It was first published in hardcover on December 16 , 2004 by Oxford University Press . Taylor reviews the history of the term brainwashing , from its usage in 1950 by journalist Edward Hunter to its application to cults , marketing , influence , thought reform , torture and reeducation . She references the book Thought Reform and the Psychology of Totalism by psychiatrist Robert Jay Lifton and cites his research on indoctrination techniques experienced by prisoners of war during the Korean War . Taylor explains the neurological basis for reasoning and cognition in the brain , and proposes that the self is changeable while describing the physiology of neurological pathways . She utilizes case studies including Patty Hearst , the Manson Family , and the mass murde</t>
+          <t>Rodeløkka Line = The Rodeløkka Line ( Norwegian : Rodeløkkalinjen ) is a former line of the Oslo Tramway of Norway . It was in use from 1900 to 1961 , serving the neighborhood of Rodeløkka . After closing , the southern part of the line was designated as part of the Sinsen Line . The Rodeløkka Line was built by Kristiania Kommunale Sporveie ( KKS ) in 1900 , and was subsequently taken over by Kristiania Sporveisselskab ( KSS ) in 1905 . In 1924 , the ownership was transferred to Oslo Sporveier . It was served by Line 9 until 1949 , when it was replaced by a bus service . In 1955 , a new route from Carl Berners plass to Rodeløkka was built , and the line was served by Line 13 until 1961 , when the service was terminated . The tracks were removed between 1962 and 1964 . = = Route = = In 1899 , Oslo Municipality established KKS to build and operate three tram lines . The second line to open was the Rodeløkka Line on 23 March 1900 , which connected to the KSS-owned Grünerløkka – Torshov Li</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Christian interpretations of Virgil 's Eclogue 4 = Eclogue 4 , also known as the Fourth Eclogue is the name of a Latin poem by the Roman poet Virgil . Part of his first major work , the Eclogues , the piece was written around 40 BC , during a time of temporary stability following the Treaty of Brundisium ; it was later published in and around the years 39 – 38 BC . The work describes the birth of a boy , a supposed savior , who once of age will become divine and eventually rule over the world . During late antiquity and the Middle Ages , a desire emerged to view Virgil as a virtuous pagan , and as such , early Christians , such as Roman Emperor Constantine , early Christian theologian Lactantius , and St. Augustine — to varying degrees — reinterpreted the poem to be about the birth of Jesus Christ . This belief persisted into the Medieval era , with many scholars arguing that Virgil not only prophesied Christ prior to his birth but also that he was a pre-Christian prophet . Dante Aligh</t>
+          <t xml:space="preserve">District Railway = The Metropolitan District Railway ( commonly known as the District Railway ) was a passenger railway that served London from 1868 to 1933 . Established in 1864 to complete the inner circle , an underground railway in London , the first part of the line opened using gas-lit wooden carriages hauled by steam locomotives . The Metropolitan Railway operated all services until the District introduced its own trains in 1871 . The railway was soon extended westwards through Earl 's Court to Fulham , Richmond , Ealing and Hounslow . After completing the inner circle and reaching Whitechapel in 1884 , it was extended to Upminster in Essex in 1902 . To finance electrification at the beginning of the 20th century , American financier Charles Yerkes took it over and made it part of his Underground Electric Railways Company of London ( UERL ) group . Electric propulsion was introduced in 1905 , and by the end of the year electric multiple units operated all of the services . On 1 </t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>raaf flying wing combat unit training operational pilot officer aircraft flight pilots disbanded commanding squadron air fighter deployed awarded royal_australian_air_force promoted commander responsible missions prototype rank staff aviation flew squadrons bomber fighters weight posted bombing equipment fuselage enemy engine operations headquarters crashed operating mission deployment testing victoria powerplant nuclear nos retired aerial responsibility tactical maintenance bomb instructor bombs duty trained employed chief wingspan conducted flown newly headquartered graduated activated radar senior honor united_states_army air_force cockpit bombers fuel trainers task airmen technical specifications royal_air_force delivered lockheed reconnaissance assistant civilian new_south_wales nose cancelled targets melbourne wartime operated ace disbanding weapon korean piloted</t>
+          <t>['manga', 'anime', 'comics', 'stories', 'story', 'comic', 'magazine', 'volume', 'volumes', 'fiction', 'gay', 'characters', 'pulp', 'published', 'issue']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>John C. " Pappy " Herbst = John C. " Pappy " Herbst ( September 25 , 1909 – July 4 , 1946 ) was an American flying ace who was officially the second highest-scoring fighter pilot in the China Burma India Theater with 18 confirmed victories made during 7 months with the 23d Fighter Group . 23d FG Commander David Lee " Tex " Hill said of Herbst that he was " one of the greatest fighter pilots I ever saw . " Often described as " colorful " , Herbst was one of the more successful aces of the United States Army Air Forces ( USAAF ) . Herbst first fought with the Royal Canadian Air Force in Europe against German aircraft , possibly downing one . He joined the USAAF as an instructor training fighter pilots stateside . After two years of teaching and intelligence duties , Herbst was sent to China to fight the Japanese . For seven months he led the 74th Fighter Squadron on far-ranging independent missions , operating from advance airfields under crude conditions and in the face of Operation Ich</t>
+          <t>Buso Renkin = Buso Renkin ( Japanese : 武装錬金 , Hepburn : Busō Renkin , lit . " Arms Alchemy " ) is a manga series written and drawn by Nobuhiro Watsuki . It follows Kazuki Muto , who becomes an alchemical warrior in the battle against alchemical monsters known as homunculi . Watsuki envisioned the manga as his last shōnen manga , and then he tried to do as much as he could with that genre . It was serialized in Shueisha 's magazine Weekly Shōnen Jump from June 2003 to April 2005 . The individual chapters were republished by Shueisha in ten tankōbon volumes . The series has been licensed by Viz Media for North American release . The manga has been adapted into an anime television series , which was produced by Xebec and was broadcast on Japanese television network TV Tokyo from 2006 to 2007 . In December 2007 , the anime was announced for North American DVD release by Viz Media . In 2009 , the series made its American television debut on the Funimation Channel , with American broadcast r</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ilyushin Il-40 = The Ilyushin Il-40 ( NATO reporting name : Brawny ) was a two-seat Soviet jet-engined armored ground-attack aircraft . The first prototype flew in 1953 and was very successful except when it fired its guns , as their combustion gasses disturbed the airflow into the engines and caused them to flameout or hiccup . Remedying this problem took over a year and involved the radical change of moving the engine air intakes all the way to the very front of the aircraft and repositioning the guns from the tip of the nose to the bottom of the fuselage , just behind the nose wheel . The aircraft , now resembling a double-barreled shotgun from the front , was ordered into production in 1955 . Only five production aircraft had been completed before the entire program was canceled in early 1956 when the VVS discarded its close air support doctrine in favor of tactical nuclear weapons on the battlefield . = = Development = = Sergey Ilyushin had begun design studies during 1950 – 51 fo</t>
+          <t>Neuro : Supernatural Detective = Neuro : Supernatural Detective , known in Japan as Majin Tantei Nōgami Neuro ( Japanese : 魔人探偵 脳噛ネウロ , lit . " Demon Detective Neuro Nōgami " ) , is a Japanese manga series written and illustrated by Yūsei Matsui . The series follows Neuro Nōgami , a demon who depends on mysteries for sustenance . Having consumed all the mysteries in the demon world , Neuro travels to the human world in search of more . There , Neuro recruits high school student Yako Katsuragi as a facade for a detective agency . The supernatural-themed manga was created because Matsui considered himself unable to draw humans . The manga was originally serialized in Weekly Shōnen Jump from February 2005 to April 2009 . The individual chapters were collected and released in 23 tankōbon ( collected volumes ) by Shueisha . A 25-episode anime series directed by Hiroshi Kōjina and animated by Madhouse was originally aired between 2007 and 2008 on Nippon Television . In 2011 , the anime serie</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ilyushin Il-20 ( 1948 ) = The Ilyushin Il-20 was a Soviet prototype for a heavily armored ground attack aircraft to replace the Ilyushin Il-10 . It featured a number of innovative concepts including a cockpit mounted on top of the engine , directly behind the propeller , and wing-mounted autocannon that could be adjusted on the ground to fire level or depressed 23 ° to allow the aircraft to strafe ground targets while remaining in level flight . However it was slower than the Il-10 , and its immature M-47 engine was problematic in flight tests in 1948 – 49 . It was not placed into production . The test pilots called the aircraft the Gorbach ( Hunchback ) . = = Development = = Sergey Ilyushin 's concept to meet the 1947 requirement for a superior aircraft to the Il-10 in performance and firepower was a heavily armored , single-engine , all-metal , low-wing monoplane powered by the newly developed M-47 — also known as the MF-45Sh or M-45Sh — liquid-cooled engine , which developed 3,000 h</t>
+          <t>Otome wa Boku ni Koishiteru = Otome wa Boku ni Koishiteru ( 処女はお姉さまに恋してる , lit . The Maidens Are Falling in Love with Me ) , commonly known as Otoboku ( おとボク ) , is a Japanese adult visual novel developed by Caramel Box and released on January 28 , 2005 playable on Windows PCs . The game was later ported to the PlayStation 2 and PlayStation Portable ( PSP ) with the adult content removed . The Windows version was released in English by MangaGamer in 2012 . The story follows the life of Mizuho Miyanokouji , an androgynous male high school student , who transfers into an all-girls school due to his grandfather 's will . The gameplay in Otoboku follows a branching plot line which offers pre-determined scenarios with courses of interaction , and focuses on the appeal of the six female main characters by the player character . The game ranked as the second best-selling PC game sold in Japan for the time of its release , and charted in the national top 50 several more times afterwards . Cara</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Special Troops Battalion , 173rd Airborne Brigade Combat Team ( United States ) = The Special Troops Battalion , 173rd Airborne Brigade Combat Team is a special troops battalion of the United States Army headquartered at Caserma Del Din in Vicenza , Italy . It is the organization for the command elements of the 173rd Airborne Brigade Combat Team . The battalion contains the brigade 's senior command structure , including its Headquarters and Headquarters Company , as well as communication and support elements . Activated in 2000 from inactivating support units , the Special Troops Battalion deployed with the 173rd Airborne Brigade Combat Team to Afghanistan in 2007 until 2008 and again in early 2010 . = = Organization = = The Special Troops Battalion is subordinate to the 173rd Airborne Brigade Combat Team and is a permanent formation of the brigade , as the 173rd 's command elements are all contained in the STB . The battalion consists of three companies and the brigade 's Headquarter</t>
+          <t>Strawberry Panic ! = Strawberry Panic ! ( ストロベリー ・ パニック ! , Sutoroberī Panikku ! ) is a series of Japanese illustrated short stories written by Sakurako Kimino , which focus on a group of teenage girls attending three affiliated all-girl schools on Astraea Hill . A common theme throughout the stories is the intimate lesbian relationships between the characters . The original artist was Chitose Maki , who was succeeded by Namuchi Takumi when production of the manga and light novels began . Following Strawberry Panic ! ' s first run in Dengeki G 's Magazine it was six months before results began to indicate that the series was a success , and that its fans were growing in number ; the manga and light novels which followed were a reflection of its popularity . The series became sufficiently popular for Seven Seas Entertainment to license the manga series and light novels for English language distribution . Strawberry Panic ! was one of the debut titles on the company 's light novel and yu</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alan Charlesworth = Air Vice Marshal Alan Moorehouse Charlesworth , CBE , AFC ( 17 September 1903 – 21 September 1978 ) was a senior commander in the Royal Australian Air Force ( RAAF ) . Born in Tasmania , he graduated from the Royal Military College , Duntroon , and served with the 2nd Light Horse Regiment in Queensland before transferring to the Air Force in 1925 . Most of his pre-war flying career was spent with No. 1 Squadron at RAAF Station Laverton , Victoria . In 1932 he undertook a series of survey flights around Australia , earning the Air Force Cross . Charlesworth 's early wartime commands included No. 2 Squadron at Laverton , and RAAF Station Pearce in Western Australia . Appointed Air Officer Commanding ( AOC ) Eastern Area in December 1943 , he was promoted temporary air commodore the following year and took over as AOC North-Western Area in Darwin , Northern Territory . Charlesworth 's control of air operations during the North-Western Area Campaign led to his appointme</t>
+          <t>Tsubasa : Reservoir Chronicle = Tsubasa : Reservoir Chronicle ( Japanese : ツバサ-RESERVoir CHRoNiCLE- , Hepburn : Tsubasa : Rezaboa Kuronikuru ) is a shōnen manga series written and illustrated by the manga artist group Clamp . It takes place in the same fictional universe as many of Clamp 's other manga series , most notably xxxHolic . The plot follows how Sakura , the princess of the Kingdom of Clow , loses all her memories and how Syaoran , a young archaeologist who is her childhood friend , goes on a quest to save her . Dimensional Witch Yūko Ichihara instructs him to go with two people , Kurogane and Fai D. Flowright . They search for Sakura 's memories , which were scattered in various worlds in the form as feathers , as gathering them will help save her soul . Tsubasa was conceived when four Clamp artists wanted to create a manga series that connected all their previous works . They took the designs for the main protagonists from their earlier manga called Cardcaptor Sakura . It w</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>took second played runs team tour england australia playing class run came score match taking day scored batsman bat series cricket ended victory won play somerset seven win bowling career total highest bowler season batsmen unbeaten despite india dismissed average cricketer captain wicket bowled opening debut final miller partnership balls reached harvey duck overs having draw test boycott south_africa west_indies best scoring leg international tests scores hit australian players ashes saw leading centuries yorkshire new_zealand half maiden captained tourists fourth fell went ball touring barnes making lost drawn century returned successful keeper hosts reply south_australia victoria trinidad minutes spin club</t>
+          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'driver', 'ferrari', 'qualifying', 'prix', 'session', 'fastest', 'ahead', 'caution', 'hamilton']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pepper Martin = Johnny Leonard Roosevelt " Pepper " Martin ( February 29 , 1904 – March 5 , 1965 ) was an American professional baseball player and minor league manager . He was known as the Wild Horse of the Osage because of his daring , aggressive baserunning abilities . Martin played in Major League Baseball as a third baseman and an outfielder for the St. Louis Cardinals during the 1930s and early 1940s . He was best known for his heroics during the 1931 World Series , in which he was the catalyst in a Cardinals ' upset victory over the Philadelphia Athletics . Martin was an integral member of the Cardinals ' teams of the 1930s that became known as the Gashouse Gang for their roguish behavior and practical jokes . Early in his career , he was labeled by some contemporary press reports as the next Ty Cobb because of his spirited , hustling style of play . However , because his headlong attitude on the playing field took a physical toll on his body , he never lived up to those initia</t>
+          <t>2016 Russian Grand Prix = The 2016 Russian Grand Prix ( formally known as the 2016 Formula 1 Russian Grand Prix ; Russian : Гран-при России 2016 года ) was a Formula One motor race that took place on 1 May 2016 . The race , contested over fifty-three laps , was held at the Sochi Autodrom . It was the fourth round of the 2016 season and marked the fifth running of the Russian Grand Prix , the third time as a round of the Formula One World Championship since the series inception in 1950 . Nico Rosberg of Mercedes came into the race leading the championship ahead of his teammate Lewis Hamilton , who was the defending race winner . Nico Rosberg won the race from pole position , ahead of his teammate Lewis Hamilton , with Kimi Räikkönen completing the podium for Ferrari . While Rosberg extended his winning streak to seven consecutive Grands Prix , Sebastian Vettel retired from the race on the first lap , after contact with Red Bull 's Daniil Kvyat . With the maximum number of 100 points fro</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">1959 National League tie-breaker series = The 1959 National League tie-breaker series was a best-of-three playoff series at the conclusion of Major League Baseball 's ( MLB ) 1959 regular season to decide the winner of the National League ( NL ) pennant . The games were played on September 28 and 29 , 1959 , between the Los Angeles Dodgers and the Milwaukee Braves . The first game was played at Milwaukee County Stadium and the second took place at Los Angeles Memorial Coliseum . The playoff series was necessary after both teams finished the season with identical win – loss records of 86 – 68 . The Dodgers won a coin flip late in the season that gave them home field advantage for the series , although the series did not reach a third game . Following a rain-delayed start , the Dodgers won Game 1 by a close 3 – 2 score , with a home run by John Roseboro providing the margin of victory . The Dodgers then won the series and the pennant with another close victory in Game 2 ; they came back </t>
+          <t>2015 United States Grand Prix = The 2015 United States Grand Prix ( formally known as the 2015 Formula 1 United States Grand Prix ) was a Formula One motor race that took place on 25 October 2015 . The race was contested over fifty-six laps and held at the Circuit of the Americas . It was the sixteenth round of the 2015 season and marked the thirty-seventh time that the United States Grand Prix was run as a round of the World Championship since its inception in 1950 , and the fourth time that the event was hosted at this circuit . Lewis Hamilton was the defending race winner and entered with a 66-point lead in the Drivers ' Championship over Sebastian Vettel of Ferrari , with Hamilton 's Mercedes teammate Nico Rosberg a further seven points behind . The three-day event was run in torrential conditions ; as a result , the second practice session and the final qualifying session were cancelled , while the whole of qualifying was delayed until the morning of the race day . Hamilton won th</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Haseeb Ahsan = Haseeb Ahsan ( Urdu : حسيب احسن ; 15 July 1939 – 8 March 2013 ) was a Pakistani cricketer who played 12 Tests for Pakistan between 1958 and 1962 . He was born in Peshawar , Khyber Pakhtunkhwa . A right-arm off spinner , he took 27 wickets in Test cricket at an average of 49.25 , including two five-wicket hauls . During his first-class career , he played 49 matches and took 142 wickets at an average of 27.71 . Former Pakistan cricketer Waqar Hasan said about him that he " was a fighter to the core and served Pakistan cricket with honour and dignity . " Ahsan had conflicts with former Pakistan captain Javed Burki . A controversy regarding his bowling action resulted in the premature end of his international career when he was only 23 . He worked as chief selector , team manager of Pakistan , and member of the 1987 Cricket World Cup organising committee . He died in Karachi on 8 March 2013 , aged 73 . = = Cricketing career = = Ahsan played 49 first-class matches for Pakista</t>
+          <t>2016 Australian Grand Prix = The 2016 Australian Grand Prix ( formally known as the 2016 Formula 1 Rolex Australian Grand Prix ) was a Formula One motor race that was held on 20 March 2016 in Melbourne . The race was contested over fifty-seven laps of the Melbourne Grand Prix Circuit and was the first round of the 2016 FIA Formula One World Championship . The race marked the eightieth race in the combined history of the Australian Grand Prix — which dates back to the 100 Miles Road Race of 1928 — and the twenty-first time the event was held at the Melbourne Grand Prix Circuit . Mercedes driver Lewis Hamilton was the defending race winner . Hamilton took the first pole position of the season and the fiftieth of his career in a qualifying session that saw the introduction of a new one-by-one elimination format that was widely criticised . His teammate Nico Rosberg took victory ahead of Hamilton and Ferrari 's Sebastian Vettel . The race was stopped on lap 18 following an accident involvi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2014 Philadelphia Phillies season = The Philadelphia Phillies ' 2014 season was the 132nd in the history of the franchise . After a disappointing 2013 , the Phillies entered the offseason with a strategy to reload rather than rebuild ; they did not want to relinquish the opportunity to do well in 2014 in hopes of being competitive down the road . Commensurate with this strategy , among their key acquisitions were right fielder Marlon Byrd and starting pitcher A. J. Burnett . The Phillies began the season with new coaches ( as Ryne Sandberg entered his first season as manager after taking over on an interim basis in August 2013 ) and new broadcasters ; Jamie Moyer and Matt Stairs , two members of the 2008 World Series squad , replaced Chris Wheeler and Gary Matthews as analysts on Comcast SportsNet Philadelphia . After offseason headlines indicated a tenuous relationship between Sandberg and shortstop Jimmy Rollins and controversy about draft picks who did not sign with the team , the s</t>
+          <t>2015 Chinese Grand Prix = The 2015 Chinese Grand Prix ( formally known as the 2015 Formula 1 Chinese Grand Prix ) was a Formula One motor race that was held on 12 April 2015 at the Shanghai International Circuit in Shanghai , China . The race was the third round of the 2015 season , and marked the twelfth time that the Chinese Grand Prix has been run as a round of the Formula One World Championship . Lewis Hamilton was the defending race winner and went into the weekend with a three-point lead in the world championship over Sebastian Vettel , who had surprised the field by taking victory in the previous round at Malaysia . Hamilton took pole position during Saturday 's qualifying , the 41st of his career and the third in a row . He went on to win the race from his team mate Nico Rosberg . = = Report = = = = = Background = = = After Sebastian Vettel 's surprise victory two weeks prior in Malaysia , eyes were on Ferrari whether they would be able to continue their good race pace in China</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>John Lester = John Ashby Lester ( August 1 , 1871 – September 3 , 1969 ) was an American cricketer , active in the late 19th and early 20th centuries . Lester was one of the Philadelphian cricketers who played from the end of the 19th century until the outbreak of World War I. His obituary in Wisden Cricketers ' Almanack , described him as " one of the great figures in American cricket . " During his career , he played in 53 matches for the Philadelphians , 47 of which are considered first class . From 1897 until his retirement in 1908 , Lester led the batting averages in Philadelphia and captained all the international home matches . = = Early life and career = = Lester was born in Penrith , Cumberland , England in 1871 . He began playing cricket at a very young age . He was playing a game in Yorkshire in 1892 when he met Dr. Isaac Sharpless . Sharpless was the president of Haverford College , and invited him to the United States to attend the school . In his early days as a student i</t>
+          <t>2015 Mexican Grand Prix = The 2015 Mexican Grand Prix ( formally known as the Formula 1 Gran Premio de México 2015 ) was a Formula One motor race held at the Autódromo Hermanos Rodríguez in Mexico City on 1 November 2015 . The race , which was contested over seventy-one laps , was the seventeenth race of the 2015 Formula One season . It marked the seventeenth time that the Mexican Grand Prix has been run as a round of the Formula One World Championship since its inception in 1950 , and the first time that the race has been run since 1992 . Nico Rosberg qualified in pole position , having already been fastest in two of the three free practice sessions . He won the race for Mercedes , followed by his teammate Lewis Hamilton , who had secured the Drivers ' Championship at the previous event in the United States . Valtteri Bottas completed the podium in third , driving for Williams . Both Ferrari drivers — Sebastian Vettel and Kimi Räikkönen — retired after crashes , with both losing one p</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>highway north road east route lane south intersection west continues interchange designated completed state passes divided southern freeway portion access turns street northern crosses extended terminus heads northeast past intersects near eastern crossing bus designation lanes segment residential follow exit enters downtown alignment meets comes begins passing concurrent entire business heading follows section southeast end cross concurrency southbound avenue northwest border rural northbound roadway rerouted town continuing bypass highways cloverleaf mile undivided traffic concurrently areas intersections routes constructed routing baltimore old western eastbound commercial delaware splits ends corridor existing widened roads interstate maryland ramp description remainder expressway construction junction expanded</t>
+          <t>['yard', 'yards', 'touchdown', 'tech', 'alabama', 'bowl', 'quarter', 'michigan', 'offense', 'football', 'pass', 'rushing', 'quarterback', 'conference', 'touchdowns']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M-57 ( Michigan highway ) = M-57 is an east – west state trunkline highway in the US state of Michigan . The 105.377-mile ( 169.588 km ) highway connects US Highway 131 ( US 131 ) near Rockford on the west end to M-15 near Otisville in the Lower Peninsula . In between , the mostly rural highway passes through farmland and connects several highways and smaller towns together . Three of these highways are freeways : US 131 , US 127 and Interstate 75 ( I-75 ) . Along the way , between 3,700 and 22,300 vehicles use the highway daily . The current highway that bears the M-57 moniker is the second to do so . The first is now M-75 in the Northern Lower Peninsula . This second highway was designated in the 1930s along a different , but parallel , routing . The first major changes shifted that routing southward to the current corridor in stages . Through additional extensions and truncations , the modern routing was formed by the 1970s . = = Route description = = M-57 is a rural , two-lane high</t>
+          <t>1998 Music City Bowl = The 1998 Music City Bowl was a postseason college football game between the Virginia Tech Hokies and Alabama Crimson Tide . It was the inaugural competition of the annual Music City Bowl . Virginia Tech represented the Big East and the University of Alabama represented the Southeastern Conference ( SEC ) . The game was the final competition for each team in the 1998 college football season . The game ended as a 38 – 7 victory for Virginia Tech . Virginia Tech 's 8 – 3 record during the 1998 college football regular season was good enough to earn it a bid to the inaugural Music City Bowl game . Facing the Hokies were the Alabama Crimson Tide , who had gone 7 – 4 during the regular season . The 1998 Music City Bowl kicked off on December 29 , 1998 in Nashville , Tennessee . The weather at kickoff was " horrid , " as rain and sleet mixed in freezing temperatures . The game 's early going was marked by defense as both teams struggled against the inclement weather . V</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>California State Route 149 = State Route 149 ( SR 149 ) is a short state highway that helps to connect Oroville and Chico through rural Butte County . Connecting State Route 70 at Wicks Corner with State Route 99 east of Durham , it forms part of the primary north – south highway through the eastern Sacramento Valley , a Focus Route of the Interregional Road System . SR 149 was formerly part of the Oroville-Chico Highway ; the majority of the latter was merged into other routes . In the mid-1970s , the highway was reallocated onto a newer two-lane alignment . The route is also part of the California Freeway and Expressway System , and a project to widen the two-lane road to a four-lane expressway was completed in late 2008 , removing the bottleneck from the Oroville-Chico highway . = = Route description = = State Route 149 begins at Wicks Corner as a divided highway , at an interchange with SR 70 several miles north of Oroville . This is the north end of the State Route 70 freeway , wh</t>
+          <t>Bobby Dodd = Robert Lee Dodd ( November 11 , 1908 – June 21 , 1988 ) was an American college football coach at Georgia Tech . He was elected to the College Football Hall of Fame as a player and coach , something that only three people have accomplished . After playing quarterback at the University of Tennessee , he served as an assistant coach under William Alexander at Georgia Tech beginning in December 1930 . Alexander made the hire while Dodd was still a student at Tennessee . Dodd succeeded Alexander in 1945 as the third head coach at the Institute . He retired from coaching after the 1966 season , compiling a 165 – 64 – 8 record . He also served as Athletic Director from 1950 until 1976 . All together , Dodd served Georgia Tech 57 years in various capacities . Bobby Dodd died in June 1988 at the age of 79 in Atlanta , Georgia . = = Early life = = Robert Lee " Bobby " Dodd was born in 1908 in Galax , Virginia . He was named after another famous Virginian , Confederate General Rober</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>California State Route 55 = State Route 55 ( SR 55 ) is an 18-mile ( 30-km ) long north – south highway in the U.S. state of California . The portion of the route built to freeway standards is known as the Costa Mesa Freeway ( formerly the Newport Freeway ) . SR 55 runs between Finley Avenue south of Pacific Coast Highway ( SR 1 ) in Newport Beach and the Riverside Freeway ( SR 91 ) in Anaheim to the north , intersecting other major Orange County freeways such as SR 22 , SR 73 , and Interstate 405 ( I-405 ) . The freeway passes through suburban Orange County . SR 55 was first added to the state highway system in 1931 , known as part of Legislative Route 43 , and was routed on surface streets . It was renumbered SR 55 in 1959 , and the construction of the freeway portion began in the 1960s and continued until 1992 . Due to congestion , several alternatives are being discussed to expand the freeway portion past its current end in Newport Beach . SR 55 received the first carpool lane in O</t>
+          <t>Georgia Tech Yellow Jackets football = The Georgia Tech Yellow Jackets football team represents the Georgia Institute of Technology in the sport of American football . The Yellow Jackets team , also known as the " Ramblin ' Wreck " , and historically as the " Engineers " , competes in the Football Bowl Subdivision ( FBS ) of the National Collegiate Athletic Association ( NCAA ) and the Coastal Division of the Atlantic Coast Conference ( ACC ) . The Georgia Institute of Technology has fielded a football team since 1892 and has an all-time record of 700 – 471 – 43 ( a .594 winning percentage ) . The Yellow Jackets play in Bobby Dodd Stadium at Historic Grant Field in Atlanta , Georgia , which has a capacity of 55,000 . The Yellow Jackets have won four Division I-A college football national championships and fifteen conference titles . A number of successful collegiate and professional football players once played for Tech . The school has 48 first-team All-Americans and over 150 alumni w</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>M-25 ( Michigan highway ) = M-25 is a state trunkline highway in the US state of Michigan . The route follows an arc-like shape closely along the Lake Huron shore of the Thumb in the eastern Lower Peninsula between Port Huron and Bay City . It serves the lakeshore resorts along Lake Huron and Saginaw Bay and generally lies within sight of the lake and the bay . All is surface road and generally scenic , except for the freeway segment near the junction with I-75 and connection into the US 10 freeway . Between Port Huron and Port Austin it is the north – south highway that used to be US 25 before the designation was removed from Michigan . Between Port Austin and Bay City it is an east – west route that appeared on some maps as US 25 and on some maps as M-25 . Since the 1970s , when all of US 25 was deleted north of Cincinnati , Ohio , it is now entirely M-25 . = = Route description = = = = = North to Port Austin = = = The starting point of M-25 at a junction with Business Loop I-69 / Bu</t>
+          <t>1947 Sun Bowl = The 1947 Sun Bowl was a post-season American college football bowl game between the Virginia Tech Hokies of the Southern Conference and the Cincinnati Bearcats . It took place on January 1 , 1947 , at Kidd Field in El Paso , Texas . Cincinnati defeated Virginia Tech 18 – 6 in cold and icy conditions that led to a scoreless first half and three blocked extra points by Virginia Tech . The game was the first NCAA-sanctioned post-season football contest for Cincinnati , and was the first bowl game in Virginia Tech history . The 1947 game was also the 13th edition of the Sun Bowl , which had been played every year since 1935 . In exchange for their participation in the event , each team received $ 9,438 . = = Pregame buildup = = The 1947 Sun Bowl game was held as the culminating event of the Sun Carnival and was held at 15,000-seat Kidd Field on the campus of Texas Western University , today known as the University of Texas El Paso . The matchup of Virginia Tech and Cincinna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>California State Route 209 = State Route 209 ( SR 209 ) was a state highway in the U.S. state of California , connecting Cabrillo National Monument with the interchange of Interstate 5 ( I-5 ) and I-8 in San Diego , passing through the neighborhoods of Point Loma . The majority of the route was along Rosecrans Street ; it also included Cañon Street and Catalina Boulevard leading to the tip of Point Loma . The Rosecrans Street portion of SR 209 corresponded to the original routing of the historic La Playa Trail . Rosecrans Street was paved in the late 1900s through the community of Roseville , and was added to the state highway system in 1933 as Route 12 . SR 209 was designated in the 1964 state highway renumbering , and a full interchange with I-5 and I-8 was completed in 1969 . The designation was removed from the state highway system in 2003 and responsibility for the road was transferred to the city of San Diego . = = Route description = = The route began at a turnaround next to the</t>
+          <t>1966 Liberty Bowl = The 1966 Liberty Bowl was a post-season American college football bowl game between the Virginia Tech Hokies and the Miami Hurricanes at Memphis Memorial Stadium in Memphis , Tennessee on December 10 , 1966 . The game was the final contest of the 1966 college football season for both teams , and ended in a 14 – 7 victory for the Miami Hurricanes . A then-record 39,101 tickets were sold for the game , but due to 36-degree temperatures at game time , only 25,012 spectators attended . The game marked just the second time that Virginia Tech had played in a bowl game since the creation of the team in 1892 . The game also marked the second time in each school 's history that the two teams had faced each other . The previous meeting , held in 1953 , ended in a 26 – 0 shutout victory for the Hurricanes . Current Virginia Tech head football coach and then-player Frank Beamer participated in the game as a backup cornerback for the Hokies . = = Pregame buildup = = = = = Virgin</t>
         </is>
       </c>
     </row>
@@ -1421,32 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>game team play season second defense kick led lead week half record end football field named line year touchdowns players total yards ranked score completed fourth point goal drive quarterback big points head coach teams running remaining nfl punt conference defensive rushing halftime receiver player pass interception returned time offense attempt school loss offensive espn win regular quarter victory coaches plays coordinator national tackles alabama recovered tackle touchdown selected bowl linebacker yard tech passing michigan coaching sec turnover following notre dame played wide ncaa gain ball incomplete senior tennessee possession final passes preseason freshman nationally responded intercepted rushed ohio_state history</t>
+          <t>['wine', 'chicken', 'cheese', 'bacon', 'recipes', 'sandwich', 'fried', 'dish', 'dishes', 'cuisine', 'ingredients', 'cooking', 'beef', 'food', 'product']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers = The Portland Trail Blazers , commonly known as the Blazers , are an American professional basketball team based in Portland , Oregon . The Trail Blazers compete in the National Basketball Association ( NBA ) as a member club of the league 's Western Conference Northwest Division . The team played its home games in the Memorial Coliseum before moving to Moda Center in 1995 ( called the Rose Garden until 2013 ) . The franchise entered the league as an expansion team in 1970 , and has enjoyed a strong following : from 1977 through 1995 , the team sold out 814 consecutive home games , the longest such streak in American major professional sports at the time , and only since surpassed by the Boston Red Sox . The Trail Blazers have been the only NBA team based in the bi-national Pacific Northwest , after the Vancouver Grizzlies relocated to Memphis and became the Memphis Grizzlies in 2001 , and the Seattle SuperSonics relocated to Oklahoma City and became the Oklahom</t>
+          <t>Steak = A steak is a meat generally sliced perpendicular to the muscle fibers , potentially including a bone . Exceptions , in which the meat is sliced parallel to the fibers , include the skirt steak that is cut from the plate , the flank steak that is cut from the abdominal muscles , and the Silverfinger steak that is cut from the loin and includes three rib bones . When the word " steak " is used without qualification , it generally refers to a beefsteak . In a larger sense , there are also fish steaks , ground meat steaks , pork steak and many more varieties . Steaks are usually grilled , but they can be pan-fried , or broiled . Steak is often grilled in an attempt to replicate the flavor of steak cooked over the glowing coals of an open fire . Steak can also be cooked in sauce , such as in steak and kidney pie , or minced and formed into patties , such as hamburgers . Steaks are also cut from grazing animals , usually farmed , other than cattle , including bison , camel , goat , h</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pau Gasol = Pau Gasol Sáez ( Catalan pronunciation : [ ˈpaw ɣəˈzɔɫ ] , Spanish pronunciation : [ ˈpau ɣaˈsol ] ; born July 6 , 1980 ) is a Spanish professional basketball player for the San Antonio Spurs of the National Basketball Association ( NBA ) . He is a six-time NBA All-Star , and a four-time All-NBA selection , twice on the second team and twice on the third team . He has won two NBA championships , both with the Los Angeles Lakers . He was the NBA Rookie of the Year in 2002 with the Memphis Grizzlies , one of only two non-American NBA players to win that award . He is the older brother of fellow NBA player Marc Gasol . Gasol was selected by the Atlanta Hawks with the third overall pick in the first round of the 2001 NBA draft , but his rights were traded to Memphis . He currently holds the Grizzlies franchise records for field goals made and attempted , free throws made and attempted , offensive , defensive , and total rebounds , blocked shots , turnovers , and points . After </t>
+          <t>Kashrut = Kashrut ( also kashruth or kashrus , כַּשְׁרוּת ) is the set of Jewish religious dietary laws . Food that may be consumed according to halakha ( Jewish law ) is termed kosher / ˈkoʊʃər / in English , from the Ashkenazi pronunciation of the Hebrew term kashér ( כָּשֵׁר ) , meaning " fit " ( in this context , fit for consumption ) . Among the numerous laws that form part of kashrut are the prohibitions on the consumption of unclean animals ( such as pork , shellfish ( both Mollusca and Crustacea ) and most insects , with the exception of certain species of kosher locusts ) , mixtures of meat and milk , and the commandment to slaughter mammals and birds according to a process known as shechita . There are also laws regarding agricultural produce that might impact on the suitability of food for consumption . Most of the basic laws of kashrut are derived from the Torah 's Books of Leviticus and Deuteronomy . Their details and practical application , however , are set down in the o</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dirk Nowitzki = Dirk Werner Nowitzki ( German pronunciation : [ ˈdɪʁk ˈvɛʁnɐ noˈvɪtski ] ) ( born June 19 , 1978 ) is a German professional basketball player for the Dallas Mavericks of the National Basketball Association ( NBA ) . An alumnus of Röntgen Gymnasium and the DJK Würzburg basketball club , Nowitzki was chosen as the ninth pick in the 1998 NBA draft by the Milwaukee Bucks and immediately traded to the Mavericks , where he has played since . Listed at 7 ft 0 in ( 2.13 m ) , Nowitzki is considered one of the greatest power forwards in basketball history . Nowitzki led the Mavericks to 15 NBA Playoffs ( 2001 – 2012 ; 2014 – 2016 ) , including the franchise 's first Finals appearance in 2006 and only championship in 2011 . He is a 13-time All-Star , a 12-time All-NBA Team member , and the first European player to start in an All-Star Game as well as the first to receive the NBA Most Valuable Player Award ( 2007 ) . Nowitzki is the highest-scoring foreign-born player in NBA-histo</t>
+          <t xml:space="preserve">Elizabeth David bibliography = Elizabeth David , the British cookery writer , published eight books in the 34 years between 1950 and 1984 ; the last was issued eight years before her death . After David 's death , her literary executor , Jill Norman , supervised the publication of five more books , drawing on David 's unpublished manuscripts and research and on her published writings for books and magazines . David 's first five books , particularly the earlier works , contained recipes interspersed with literary quotation and descriptions of people and places that inspired her . By the time of her third book , Italian Food , David had begun to add sections about the history of the cuisine and the particular dishes that she wrote about . Her interest in the history of cooking led her in her later years to research the history of spices , baking , and ice . Many of the recipes in David 's early books were revised versions of her articles previously published in magazines and newspapers </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1949 Sun Bowl controversy = The 1949 Sun Bowl controversy refers to the student protests at Lafayette College in Easton , Pennsylvania after a Sun Bowl invitation was extended to the Lafayette Leopards football team under the condition that the African American player , David Showell , would not play . On November 19 , 1948 Lafayette College was invited by the Sun Bowl Committee to play against the Texas College of Mines , now The University of Texas at El Paso . Just four days later , on November 23 , the Lafayette faculty voted to turn down the bid because the Sun Bowl Committee would not allow Showell to play . This bid rejection led to a large student demonstration on the Lafayette campus and in the city of Easton against segregation . West Virginia University later accepted the bid after Lafayette 's rejection . The Sun Bowl was played on January 1 , 1949 . West Virginia defeated the Texas College of Mines by a score of 21 – 12 . = = Sun Bowl segregation history = = The segregatio</t>
+          <t xml:space="preserve">Welsh cuisine = Welsh cuisine encompasses the cooking traditions and practices of the country of Wales and the Welsh people . Whilst there are a large number of dishes that can be considered Welsh due to their ingredients and / or history , dishes such as cawl , Welsh rarebit , laverbread , Welsh cakes , bara brith and the Glamorgan sausage have all been regarded as symbols of Welsh food . There is some variation in dishes around Wales , but the most pronounced difference is in the Gower Peninsula , an isolated rural area which was heavily influenced by Somerset and Devon . There the dishes created included whitepot and often incorporated pumpkin . While Wales has imported throughout the centuries some culinary practices and dishes from its British neighbors , uniquely Welsh cuisine grew largely from the lives of the Welsh working folk , such as farmers , shepherds , and peasants , as these Welsh working people tended to be more isolated from outside culinary influences . Welsh common </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers = The Los Angeles Lakers are an American professional basketball team based in Los Angeles , California . The Lakers compete in the National Basketball Association ( NBA ) , as a member club of the league 's Western Conference Pacific Division . The Lakers play their home games at Staples Center , an arena shared with the NBA 's Los Angeles Clippers , the Los Angeles Sparks of the Women 's National Basketball Association , and the Los Angeles Kings of the National Hockey League . The Lakers are one of the most successful teams in the history of the NBA , and have won 16 NBA championships , their last being in 2010 . As of 2015 , the Lakers are the second most valuable franchise in the NBA according to Forbes , having an estimated value of $ 2.7 billion . The franchise began with the 1947 purchase of a disbanded team , the Detroit Gems of the National Basketball League ( NBL ) . The new team began playing in Minneapolis , Minnesota , calling themselves the Minneapolis</t>
+          <t xml:space="preserve">Plum cake = Plum cake refers to a wide range of cakes made with either dried fruit ( such as grapes , currants , raisins or prunes ) or with fresh fruit . There is a wide range of popular plum cakes and puddings . Since the meaning of the word " plum " has changed over time , many items referred to as plum cakes and popular in England since at least the eighteenth century have now become known as fruitcake . The English variety of plum cake also exists on the European mainland , but may vary in ingredients and consistency . Settlers in British colonies brought the dried fruit variety of cake with them , so that for example , in India it was served around the time of the Christmas holiday season and in the American colonies , where it became associated with elections , one version came to be called " election cake " . Plum cakes made with fresh plums came with other migrants from other traditions in which plum cake is prepared using plum as a primary ingredient . In some versions , the </t>
         </is>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>second place position race track car lead fifth fourth sixth pole passed championship ferrari stop grid qualifying practice points drivers prix williams start finished seventh standings held pit teammate ahead started driver positions session seconds tyre flag tyres grand caution laps leading maintained podium saturday stewart finish nascar racing gearbox spun tenth quickest pitted restart fastest button lap going stops chassis conditions able win grip collided moved problems ninth eighth penalty turn team overtake gap races cars retired retire overtaking followed corner engine failed faster meant overtook time final safety collision sessions finishers set reclaimed lotus chevrolet came failure winner</t>
+          <t>['persian', 'army', 'byzantine', 'athens', 'greeks', 'greece', 'battle', 'alexander', 'greek', 'siege', 'muslim', 'cavalry', 'byzantines', 'arab', 'ottoman']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Paradox ( horse ) = Paradox ( 1882 – 1890 ) was a British Thoroughbred racehorse and sire . In a career that lasted from October 1884 until October 1885 he ran eight times and won six races . Despite running only twice in 1884 , he proved himself to be one of the best two-year-olds of his generation by winning the Dewhurst Plate . In the following year he won five of his six races including the 2,000 Guineas , the Grand Prix de Paris , the Sussex Stakes and the Champion Stakes . His only defeat came when he was narrowly beaten by Melton in the Epsom Derby . The final phase of the colt 's racing career was marked by controversy and recrimination following his withdrawal from the Cambridgeshire Handicap in the autumn of 1885 and he was retired from racing in 1886 . Paradox had little opportunity to establish himself at stud , dying in 1890 at the age of eight . = = Background = = Paradox was a strongly-built bay horse bred by the Graham brothers at the Yardley Stud near Birmingham . He w</t>
+          <t>Heraclius = Heraclius ( Latin : Flavius Heraclius Augustus , Greek : Φλάβιος Ἡράκλειος , Armenian : Հերակլես Փլավիոս , c . 575 – February 11 , 641 ) was Byzantine Emperor from 610 to 641 . He was responsible for introducing Greek as the Eastern Empire 's official language . His rise to power began in 608 , when he and his father , Heraclius the Elder , the exarch of Africa , led a revolt against the unpopular usurper Phocas . Heraclius 's reign was marked by several military campaigns . The year Heraclius came to power , the empire was threatened on multiple frontiers . Heraclius immediately took charge of the Byzantine – Sassanid War of 602 – 628 . The first battles of the campaign ended in defeat for the Byzantines ; the Persian army fought their way to the Bosphorus but Constantinople was protected by impenetrable walls and a strong navy and Heraclius was able to avoid total defeat . Soon after , he initiated reforms to rebuild and strengthen the military . Heraclius drove the Persi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Walter Dix = Walter Dix ( born January 31 , 1986 ) is an American sprinter who specializes in the 100 meters and 200 meters . He is the fourth-fastest 200-meter runner ever with a best of 19.53 seconds , and has broken the 10-second barrier in the 100 meters , with a best of 9.88 seconds . Dix was a highly successful amateur athlete , setting a state record in the 100 m and trying out for the US Olympic Team at the age of eighteen . He joined Florida State University and in his first year he broke the 100 m American junior record and won at the NCAA Outdoor Championships . After a fourth-place finish at the 2005 US Championships , Dix continued with his collegiate success , setting an NCAA record of 19.69 seconds in the 200 m and coming within one hundredth of the 100 m record . He completed a 100 m , 200 m , and 4 × 100 meter relay sweep at the 2007 NCAA Outdoor Championships , the first to do so since John Carlos in 1969 . He closed his amateur career in 2008 : another NCAA 200 m tit</t>
+          <t>Justinian I = Justinian I ( / dʒʌˈstɪniən / ; Latin : Flavius Petrus Sabbatius Iustinianus Augustus , Greek : Φλάβιος Πέτρος Σαββάτιος Ἰουστινιανός Flávios Pétros Sabbátios Ioustinianós ) ( c . 482 – 14 November 565 ) , traditionally known as Justinian the Great and also Saint Justinian the Great in the Eastern Orthodox Church , was a Byzantine ( East Roman ) emperor from 527 to 565 . During his reign , Justinian sought to revive the empire 's greatness and reconquer the lost western half of the historical Roman Empire . Justinian 's rule constitutes a distinct epoch in the history of the Later Roman empire , and his reign is marked by the ambitious but only partly realized renovatio imperii , or " restoration of the Empire " . Because of his restoration activities , Justinian has sometimes been called the " last Roman " in modern historiography . This ambition was expressed by the partial recovery of the territories of the defunct western Roman empire . His general , Belisarius , swif</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Porsche RS Spyder = The RS Spyder ( Type 9R6 ) is a racing car designed by Porsche in conjunction with Penske to compete in Le Mans Prototype Class 2 ( LMP2 ) racing . The car takes its name from the legendary 550 Spyder of the 1950s ( combined with Porsche 's common " RennSport " ( lit . : racing sports ) designation ) . The car marked Porsche 's first return to the top level of sports prototype racing since the firm abandoned its Porsche LMP in 1999 . The RS Spyder made its debut in the final event of the 2005 American Le Mans Series ( ALMS ) at Laguna Seca winning its class . Since then the RS Spyder has won the ALMS LMP2 Championship in 2006 , 2007 and 2008 and took class honours at Le Mans in 2008 and 2009 . The outright victory at the 2008 12 Hours of Sebring was the first major victory for Porsche in endurance racing for five years and it was also the first time in 24 years that the non-premier class won the 12 Hours of Sebring overall . Regulation changes for the 2011 season re</t>
+          <t>Siege of Damascus ( 634 ) = The Siege of Damascus ( 634 ) lasted from 21 August to 19 September 634 AD before the city fell to the Rashidun Caliphate . Damascus was the first major city of the Byzantine ( Roman ) empire to fall in the Muslim conquest of Syria . The last of the Roman-Persian Wars ended in 627 , when Heraclius concluded a successful campaign against the Persians in Mesopotamia . At the same time , Mohammad united the Arabs under the banner of Islam . After his death in 632 , Abu Bakr succeeded him as the first Rashidun Caliph . Suppressing several internal revolts , Abu Bakr sought to expand the empire beyond the confines of the Arabian Peninsula . In April 634 , Abu Bakr invaded the Byzantine Empire in the Levant and decisively defeated a Byzantine army at the Battle of Ajnadayn . The Muslim armies marched north and laid siege to Damascus . The city was taken after a monophysite bishop informed Khalid ibn al-Walid , the Muslim commander in chief , that it was possible t</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auto Club Speedway = Auto Club Speedway , formerly California Speedway , is a two-mile ( 3 km ) , low-banked , D-shaped oval superspeedway in Fontana , California which has hosted NASCAR racing annually since 1997 . It is also used for open wheel racing events . The racetrack is located near the former locations of Ontario Motor Speedway and Riverside International Raceway . The track is owned and operated by International Speedway Corporation and is the only track owned by ISC to have naming rights sold . The speedway is served by the nearby Interstate 10 and Interstate 15 freeways as well as a Metrolink station located behind the backstretch . Construction of the track , on the site of the former Kaiser Steel Mill , began in 1995 and was completed in late 1996 . The speedway has a grandstand capacity of 68,000 and 28 skyboxes . In 2006 , a fanzone was added behind the main grandstand . Lights were added to the speedway in 2004 with the addition of a second annual NASCAR weekend . Sin</t>
+          <t>Siege of Constantinople ( 674 – 678 ) = The First Arab Siege of Constantinople in 674 – 678 was a major conflict of the Arab – Byzantine Wars , and the first culmination of the Umayyad Caliphate 's expansionist strategy towards the Byzantine Empire , led by Caliph Mu 'awiya I. Mu 'awiya , who had emerged in 661 as the ruler of the Muslim Arab empire following a civil war , renewed aggressive warfare against Byzantium after a lapse of some years and hoped to deliver a lethal blow by capturing the Byzantine capital , Constantinople . As reported by the Byzantine chronicler Theophanes the Confessor , the Arab attack was methodical : in 672 – 673 Arab fleets secured bases along the coasts of Asia Minor , and then proceeded to install a loose blockade around Constantinople . They used the peninsula of Cyzicus near the city as a base to spend the winter , and returned every spring to launch attacks against the city 's fortifications . Finally , the Byzantines , under Emperor Constantine IV ,</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Waxy ( horse ) = Waxy ( 1790 – 18 April 1818 ) was a British Thoroughbred racehorse that won the 1793 Epsom Derby and was an influential sire in the late eighteenth and early part of the nineteenth century . Waxy was bred by Sir Ferdinando Poole and was foaled at Lewes in 1790 . He was sired by Pot-8-Os , a son of the foundation stallion Eclipse , whose genetic lineage traced to the Darley Arabian . Waxy 's dam , Maria , was sired by the influential stallion Herod and produced one full-brother to Waxy , who was named Worthy . Waxy derived his name from a variety of potato , a choice that was inspired by his sire 's name . Trained by Robert Robson , Waxy won nine races out of 15 starts during his four-year racing career , retiring from racing at the age of seven in 1797 after sustaining an injury during his last start . Beginning in 1798 , Waxy stood at stud at Sir Poole 's estate in Lewes and remained there until Poole 's death in 1804 . After Poole 's death , Waxy was acquired by the </t>
+          <t>Abbasid invasion of Asia Minor ( 782 ) = The Abbasid invasion of Asia Minor in 782 was one of the largest operations launched by the Abbasid Caliphate against the Byzantine Empire . The invasion was launched as a display of Abbasid military might in the aftermath of a series of Byzantine successes . Commanded by the Abbasid heir-apparent , the future Harun al-Rashid , the Abbasid army reached as far as Chrysopolis , across the Bosporus from the Byzantine capital , Constantinople , while secondary forces raided western Asia Minor and defeated the Byzantine forces there . As Harun did not intend to assault Constantinople and lacked ships to do so , he turned back . The Byzantines , who in the meantime had neutralized the detachment left to secure the Abbasid army 's rear in Phrygia , were able to trap Harun 's army between their own converging forces . The defection of the Armenian general Tatzates , however , allowed Harun to regain the upper hand . The Abbasid prince sent for a truce a</t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>episode viewers glee club watched relationship finn rating rachel character tells kurt storyline share demographic television ratings broadcast plot creator aired guest enjoyed reception viewership quinn sue south_park praised vanderwerff storylines gave emma deemed felt think cast received tries nielsen cory_monteith commented kyle liz brittany fun rendition appearance know airing neighbours asks leave reviewers good lea_michele want ign episodes musical said nbc gets going help decides performances attracted scene tina moments houston_chronicle premiere recurring finale canning entertainment_weekly getting job wants previous mash lynch nice funny originally gives comedy cheerleader returns didn james_poniewozik logan perform characters producer reveals friends emotional mike</t>
+          <t>['bach', 'text', 'movements', 'movement', 'soprano', 'gospel', 'jesus', 'hebrew', 'aria', 'alto', 'manuscripts', 'leipzig', 'tenor', 'hymn', 'matthew']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The Duel ( The Office ) = " The Duel " is the twelfth episode of the fifth season of the American comedy television series The Office , and the show 's 84th overall episode . In the episode , Andy learns his fiancee Angela is having an affair with Dwight , and the two challenge each other to a physical fight to win her affections . Meanwhile , Michael travels to New York City for a meeting with David Wallace , where Wallace seeks managerial advice from Michael due to the poor financial condition of the fictional company , Dunder Mifflin . The episode was written by Jennifer Celotta and directed by Dean Holland , the show 's long-time editor making his directorial debut . It featured the conclusion of the love triangle between Dwight , Andy and Angela , a subplot that had been going on since the end of the fourth season . David Wallace 's meeting with Michael marked the show 's first acknowledgment of the economic crisis facing much of the globalized nation at the time of the episode du</t>
+          <t>Biblical Hebrew = Biblical Hebrew ( Hebrew : עִבְרִית מִקְרָאִית Ivrit Miqra 'it or לְשׁוֹן הַמִּקְרָא Leshon ha-Miqra ) , also called Classical Hebrew , is an archaic form of Hebrew , a Canaanite Semitic language spoken by the Israelites in the area known as Israel , roughly west of the Jordan River and east of the Mediterranean Sea . The term " Hebrew " was not used for the language in the Bible , which referred to Canaanite or Judahite , but the name was used in Greek and Mishnaic Hebrew texts . Biblical Hebrew is attested from about the 10th century BCE , and persisted through and beyond the Second Temple period ( which ended in the siege of Jerusalem ( AD 70 ) ) . Biblical Hebrew eventually developed into Mishnaic Hebrew , which was spoken until the second century CE . Biblical Hebrew is best-attested in the Hebrew Bible , the collection of Judaic religious and historical texts which reflect various stages of the Hebrew language in its consonantal skeleton , as well as a vocalic s</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mamma Mia ( 30 Rock ) = " Mamma Mia " is the twenty-first episode of the third season of the American television comedy series 30 Rock , and the 57th overall episode of the series . It was written by co-executive producer Ron Weiner and directed by series producer Don Scardino . The episode originally aired on the National Broadcasting Company ( NBC ) network in the United States on May 7 , 2009 . Guest stars in this episode include Alan Alda , Steve Buscemi , Stuart Margolin , Keith Olbermann , Clayton Dean Smith , and Michael Benjamin Washington . In the episode , Jack Donaghy ( Alec Baldwin ) begins to search for his biological father with help from Liz Lemon ( Tina Fey ) . Meanwhile , Tracy Jordan ( Tracy Morgan ) introduces his supposedly illegitimate son ( Washington ) to the cast and crew of the fictitious show The Girlie Show with Tracy Jordan ( TGS ) , but some question his intentions . At the same time , Jenna Maroney ( Jane Krakowski ) and Liz fight for attention when Jenna </t>
+          <t>Requiem ( Fauré ) = Gabriel Fauré composed his Requiem in D minor , Op. 48 , between 1887 and 1890 . The choral-orchestral setting of the shortened Catholic Mass for the Dead in Latin is the best-known of his large works . Its focus is on eternal rest and consolation . Fauré 's reasons for composing the work are unclear , but do not appear to have had anything to do with the death of his parents in the mid-1880s . He composed the work in the late 1880s and revised it in the 1890s , finishing it in 1900 . In seven movements , the work is scored for soprano and baritone soloists , mixed choir , orchestra and organ . Different from typical Requiem settings , the full sequence Dies irae is omitted , replaced by its section Pie Jesu . The final movement In Paradisum is based on a text that is not part of the liturgy of the funeral mass but of the burial . Fauré wrote of the work , " Everything I managed to entertain by way of religious illusion I put into my Requiem , which moreover is domi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A.A.R.M. = " A.A.R.M. " is the collective name for the twenty-second and twenty-third episodes of the ninth season of the American comedy television series The Office , as well as the 198th and 199th episode overall . It was also the series ' penultimate entry , airing a week before the series finale . It originally aired on NBC on May 9 , 2013 . This episode guest stars Nora Kirkpatrick , Aaron Rodgers , Clay Aiken , Mark McGrath , Santigold , Jessica St. Clair , and Rachel Crow . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , Jim Halpert ( John Krasinski ) convinces Dwight Schrute ( Rainn Wilson ) that he needs to choose someone to act as an Assistant to the Assistant to the Regional Manager ( A.A.R.M. ) ; the two subsequently hold tryouts for the position . Angela Lipton ( Angela Kinsey ) is forced to bring her son , Phill</t>
+          <t>Schubert 's last sonatas = Franz Schubert 's last three piano sonatas , D 958 , 959 and 960 , are the composer 's last major compositions for the piano . They were written during the last months of his life , between the spring and autumn of 1828 , but were not published until about ten years after his death , in 1838 – 39 . Like the rest of Schubert 's piano sonatas , they were mostly neglected in the 19th century . By the late 20th century , however , public and critical opinion had changed , and these sonatas are now considered among the most important of the composer 's mature masterpieces . They are part of the core piano repertoire , appearing regularly on concert programs and recordings . One of the reasons for the long period of neglect of Schubert 's piano sonatas seems to be their dismissal as structurally and dramatically inferior to the sonatas of Beethoven . In fact , the last sonatas contain distinct allusions and similarities to works by Beethoven , a composer Schubert v</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome Wagon ( Veronica Mars ) = " Welcome Wagon " is the season premiere of the third season of the American mystery television series Veronica Mars , and the forty-fifth episode overall . Written by series creator Rob Thomas and directed by John T. Kretchmer , the episode premiered on The CW on October 3 , 2006 . The series depicts the adventures of Veronica Mars ( Kristen Bell ) as she deals with life as a college student while moonlighting as a private detective . In this episode , Veronica transitions to life at Hearst College , meeting several new people and reconnecting with several acquaintances from Neptune High . Meanwhile , a student named Piz ( Chris Lowell ) gets his belongings stolen , and Veronica helps him . In addition , Keith ( Enrico Colantoni ) trails Kendall Casablancas ( Charisma Carpenter ) in the aftermath of receiving a large sum of money from her in " Not Pictured " before learning that she is actually a target of the Fitzpatricks . At the end of the episode </t>
+          <t>The Book of Taliesyn = For the Middle Welsh manuscript , see Book of Taliesin . The Book of Taliesyn is the second studio album by English rock band Deep Purple , recorded only three months after Shades of Deep Purple and released by Tetragrammaton Records in October 1968 , just before their first US tour . The name for the album was taken from the 14th-century Book of Taliesin . The structure of the album is similar to that of their debut , with four original songs and three rearranged covers , although the tracks are longer , the arrangements more complex and the sound more polished than on Shades of Deep Purple . The music style is a mix of psychedelic rock , progressive rock and hard rock , with several inserts of classical music arranged by the band 's keyboard player Jon Lord . Deep Purple 's American record label aimed at a hippie audience , which was very influential in the US at the time , but the chart results of album and singles were not as high as expected . This setback d</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Khonani = " Khonani " is the eighteenth episode of the fourth season of the American television comedy series 30 Rock , and the 76th overall episode of the series . It was written by co-producer Vali Chandrasekaran and directed by Beth McCarthy Miller . It originally aired on the National Broadcasting Company ( NBC ) network in the United States on April 22 , 2010 , following shortly after the episode " Lee Marvin vs. Derek Jeter " on the same night . Guest stars in this episode include Kapil Bawa and Subhas Ramsaywack . In the episode , Jack Donaghy ( Alec Baldwin ) distracts himself from his romantic problems by attempting to resolve a dispute between two janitors ( Bawa and Ramsaywack ) . Meanwhile , Liz Lemon ( Tina Fey ) is offended when she learns that her employees hang out outside of work but do not invite her . This episode of 30 Rock closely mirrored the feud between television hosts Jay Leno and Conan O 'Brien . " Khonani " received generally mixed reviews from television cr</t>
+          <t>Boosey &amp; Hawkes = Boosey &amp; Hawkes is a British music publisher purported to be the largest specialist classical music publisher in the world . Until 2003 , it was also a major manufacturer of brass , string and woodwind musical instruments . Formed in 1930 through the merger of two well-established British music businesses , the company owns the copyrights or agencies to much major , 20th-century music , including works by Bartók , Leonard Bernstein , Britten , Copland , Kodály , Prokofiev , Richard Strauss and Stravinsky . It also publishes many prominent contemporary composers , including Steve Reich , John Adams , James MacMillan , Elliott Carter , Harrison Birtwistle , Osvaldo Golijov , Anna Clyne , and Louis Andriessen . With subsidiaries in Germany , the UK and the US , the company also sells sheet music ; provides ready-made production music for television , radio and audio-visual use ; commissions and produces music for radio , television and advertising ; and administers copyr</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>time year world won games record team years title season final second player win best set open game played career players defeated singles round lost gold sets tournament medal murray said events july olympic history later olympics championships april winning play including reached seed summer march times major following met chess series nba semifinals tournaments tennis august straight november chamberlain event american finals men titles place championship semifinal february june january records doubles slam received silver medals points playing match champion beat bolt high meter fischer masters fight losing clay madrid french relay defeating despite ranked began end freestyle reach</t>
+          <t>['coaster', 'ride', 'roller', 'riders', 'train', 'coasters', 'flags', 'park', 'lift', 'cedar', 'drop', 'brake', 'trains', 'steel', 'hill']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rickey Henderson = Rickey Nelson Henley Henderson ( born December 25 , 1958 ) is an American retired professional baseball left fielder who played in Major League Baseball ( MLB ) for nine teams from 1979 to 2003 , including four stints with his original team , the Oakland Athletics . Nicknamed " The Man of Steal " , he is widely regarded as baseball 's most reliable leadoff hitter and baserunner . He holds the major league records for career stolen bases , runs , unintentional walks and leadoff home runs . At the time of his last major league game in 2003 , the ten-time American League ( AL ) All-Star ranked among the sport 's top 100 all-time home run hitters and was its all-time leader in base on balls . In 2009 , he was inducted to the Baseball Hall of Fame on his first ballot appearance . Henderson also holds the single-season record for stolen bases ( 130 in 1982 ) and is the only player in AL history to steal 100 bases in a season , having done so three times . His 1,406 career </t>
+          <t xml:space="preserve">Abyss ( roller coaster ) = Abyss is a steel roller coaster located at the Adventure World amusement park in Perth , Western Australia . The $ 12-million attraction was announced in April 2013 , and construction began the following month . Six months later , the ride opened to the general public on 1 November 2013 . The Abyss is a Euro-Fighter , a roller coaster model from Gerstlauer that features a " beyond-vertical " first drop which exceeds 90 degrees . In addition to several inversions , the Abyss reaches a top speed of 85 kilometres per hour ( 53 mph ) along the two-minute , 630-metre-long ( 2,070 ft ) ride . The roller coaster has been well received by the public . = = History = = In mid-2012 , the 15-month phase of planning and construction of Abyss began . In April 2013 , Adventure World announced on their Facebook page that they would be adding a $ 12 million , world-class attraction in 2013 . By May 2013 construction had begun . In June 2013 , a concrete slab was poured prior </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1960 Winter Olympics = The 1960 Winter Olympics was a winter multi-sport event held between February 18 – 28 , 1960 in Squaw Valley , California , United States . Squaw Valley was chosen to host the Games at the 1956 meeting of the International Olympic Committee ( IOC ) . It was an undeveloped resort in 1955 , so from 1956 to 1960 the infrastructure and all of the venues were built at a cost of US $ 80,000,000 . It was designed to be intimate , allowing spectators and competitors to walk to nearly all the venues . Squaw Valley hosted athletes from thirty nations who competed in four sports and twenty-seven events . Women 's speed skating and biathlon made their Olympic debuts . The organizers decided the bobsled events did not warrant the cost to build a venue , so for the first and only time bobsled was not on the Winter Olympic program . The Soviet Union dominated the medal count winning twenty-one medals , seven of which were gold . Soviet speed skaters Yevgeny Grishin and Lidiya S</t>
+          <t>Phineas and Ferb 's Quantum Boogaloo = " Phineas and Ferb 's Quantum Boogaloo " is the fourteenth episode of the second season of the animated television series Phineas and Ferb , and the 72nd overall episode of the series . It originally aired on Disney XD in the United States on September 21 , 2009 . In the episode , Phineas and his stepbrother Ferb travel into the future and have their time machine stolen by their older sister Candace , now an adult , who travels back in time to get her brothers in trouble during one of their outlandish schemes . In doing so , however , she sets off a chain reaction leading to a dystopian future ruled by the evil Dr. Doofenshmirtz . " Phineas and Ferb 's Quantum Boogaloo , " written by Scott Peterson and directed by Zac Moncrief , was rated TV-G in the United States . The episode was conceived as a means of expanding the time machine plot that was introduced previously in the episode " It 's About Time . " Dan Povenmire and Jeff " Swampy " Marsh , c</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puerto Rico at the 2008 Summer Olympics = Puerto Rico competed in the 2008 Summer Olympics which was held in Beijing , People 's Republic of China from August 8 to August 24 , 2008 . The American territory with a population of four million people qualified 22 athletes in eight different sports . The appearance of the Puerto Rican delegation at the Beijing Olympics marked the commonwealth 's sixteenth consecutive appearance at the Summer Olympics , and its twenty-second appearance at any Olympic games , since its debut at the 1948 Summer Olympics in London , England . Of its competitors participating in events that involve progression by heats , six athletes advanced at least one round in their events , and two advanced at least two rounds , with Asunción Ocasio almost medaling bronze in taekwondo . However , there were no Puerto Rican medalists at the Beijing Olympics . McWilliams Arroyo , a boxer , bore Puerto Rico 's flag at the ceremonies . = = Background = = Puerto Rico is a large </t>
+          <t>... Baby One More Time Tour = ... Baby One More Time Tour was the debut concert tour by American recording artist Britney Spears . It supported her debut studio album , ... Baby One More Time ( 1999 ) and visited United States and Canada . The tour was announced in March 1999 , with dates released a month later . Tommy Hilfiger was chosen as the tour sponsor . The show was divided into various segments , with each segment being followed by an interlude to the next segment , and it ended with an encore . The setlist consisted of songs from her debut album and several covers . The tour received positive feedback from critics ; many highlighted Spears ' persona and edgy look . = = Background and development = = On March 5 , 1999 , it was reported that Spears was planning her first headlining tour to support her first studio album , ... Baby One More Time ( 1999 ) . Shortly after , she announced that the tour would start in July . On May 12 , 1999 , Tommy Hilfiger was announced as the main</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trevor Hoffman = Trevor William Hoffman ( born October 13 , 1967 ) is an American former baseball relief pitcher who played 18 years in Major League Baseball ( MLB ) from 1993 to 2010 . A long-time closer , Hoffman pitched for the Florida Marlins , San Diego Padres , and the Milwaukee Brewers , including more than 15 years for the Padres . He was the major leagues ' first player to reach the 500- and 600-save milestones , and was the all-time saves leader from 2006 until 2011 . He currently serves as senior advisor for baseball operations for the Padres . Hoffman played shortstop collegiately at the University of Arizona and was drafted in the 11th round by the Cincinnati Reds . After not having much success batting , Hoffman was converted to a pitcher , as he was able to throw up to 95 miles per hour ( mph ) . The Marlins acquired him in the 1992 expansion draft , and he pitched in Florida until he was traded to the Padres mid-season in 1993 in a deal that sent star Gary Sheffield to </t>
+          <t>Kevin Clash = Kevin Jeffrey Clash ( born September 17 , 1960 ) is an American puppeteer whose characters include Elmo , Clifford , Benny Rabbit , and Hoots the Owl . Clash developed an interest in puppetry at an early age , and began performing for local TV children 's shows in his hometown of Baltimore , Maryland , as a teenager . In the early 1980s , he began working in Captain Kangaroo , and began performing in Sesame Street in 1984 . He was the fifth puppeteer to perform Elmo , the character he became the most famous for , and became an executive producer and director for the show . Clash worked in various productions for the Muppets and Jim Henson Productions and in other projects . He resigned from Sesame Street in late 2012 , after allegations of sexual impropriety , which he denied and were dismissed due to statute of limitations expiring . Clash wrote an autobiography , My Life as a Furry Red Monster , which was published in 2006 , and also featured in the 2011 documentary Bei</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tony Parker = William Anthony " Tony " Parker Jr . ( born 17 May 1982 ) is a French professional basketball player for the San Antonio Spurs of the National Basketball Association ( NBA ) . The son of a professional basketball player , Parker played for two years in the French basketball league before entering the 2001 NBA draft . He was selected by the San Antonio Spurs with the 28th overall pick in the draft and quickly became their starting point guard . Parker has helped the Spurs win four NBA championships in 2003 , 2005 , 2007 and 2014 . Employing his pace and high field goal percentage to great effect , Parker has been named to six NBA All-Star games , three All-NBA Second Teams , and an All-NBA Third Team . He was also the 2007 NBA Finals MVP . Playing for the France national basketball team , Parker was named as the EuroBasket 2013 MVP following his team 's victory over Lithuania ( 80 – 66 ) in the gold medal game . The point guard finished as the tournament 's top scorer with</t>
+          <t xml:space="preserve">Kingda Ka = Kingda Ka is a steel accelerator roller coaster located at Six Flags Great Adventure in Jackson , New Jersey , United States . It is the world 's tallest roller coaster , the world 's second fastest roller coaster , and was the second strata coaster ever built . It was built by Stakotra , a subcontractor to Intamin . The train is launched by a hydraulic launch mechanism to 128 miles per hour ( 206 km / h ) in 3.5 seconds . At the end of the launch track , the train climbs the main top hat tower , reaching a height of 456 feet ( 139 m ) and spanning over a 3,118-foot-long ( 950 m ) track by the end of the ride . = = History = = Plans to build Kingda Ka were announced on September 10 , 2004 , at an event held for roller coaster enthusiasts and the media . The event revealed the park 's goal to build " the tallest and fastest roller coaster on earth " , reaching 456 feet ( 139 m ) and accelerating up to 128 miles per hour ( 206 km / h ) in 3.5 seconds . On January 13 , 2005 , </t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>game player mario mega gameplay graphics praised enemies players ign controls gaming sonic arcade console levels development gamespot mode nintendo screen nes adventure features reviewers version games gamepro scrolling developers super boy gamecube multiplayer rare sega ups robot crash graphical bosses items wii gamespy eurogamer reception weapon nintendo_power reviewer difficulty available visuals japan virtual weapons informer lack puzzles metacritic level ported shooter gamers feature collect xbox gamerankings gamesradar handheld north_america enemy puzzle characters allows modes obstacles stages developed criticized sequel creatures gamer abilities predecessor sprites lauded nintendo_entertainment_system hidden ability consoles evil addictive takes playable stating developer online shoot genre cartridge</t>
+          <t>['formula', 'function', 'matrix', 'linear', 'functions', 'space', 'constant', 'defined', 'language', 'filter', 'frequency', 'mass', 'derivative', 'kilogram', 'units']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asher Vollmer = Asher Vollmer ( born September 14 , 1989 ) is an American indie video game developer and creator of Puzzlejuice and Threes . He created the 2012 iOS game Puzzlejuice while a student at USC Interactive Media &amp; Games Division . The game began his collaboration with Greg Wohlwend . The pair 's next release , the 2014 iOS puzzle game Threes , received what review aggregator Metacritic described as " universal acclaim " , including perfect scores from Eurogamer and TouchArcade , and the title of Apple Inc . ' s iPhone game of the year . The game was later ported to multiple platforms . Polygon included Vollmer in their " 50 admirable gaming people " of the year for his work on Threes . Among other projects , Vollmer subsequently worked on Close Castles , a real-time strategy game later put on hiatus , and Royals , a simulation game for OS X and Windows . = = Career = = Vollmer is a graduate of the USC Interactive Media &amp; Games Division program . As a student , he began work </t>
+          <t>Fleiss ' kappa = Fleiss ' kappa ( named after Joseph L. Fleiss ) is a statistical measure for assessing the reliability of agreement between a fixed number of raters when assigning categorical ratings to a number of items or classifying items . This contrasts with other kappas such as Cohen 's kappa , which only work when assessing the agreement between two raters . The measure calculates the degree of agreement in classification over that which would be expected by chance . There is no generally agreed-upon measure of significance , although guidelines have been given . Fleiss ' kappa can be used only with binary or nominal-scale ratings . No version is available for ordered-categorical ratings . = = Introduction = = Fleiss ' kappa is a generalisation of Scott 's pi statistic , [ 1 ] a statistical measure of inter-rater reliability . [ 2 ] It is also related to Cohen 's kappa statistic and Youden 's J statistic which may be more appropriate in certain instances [ 3 ] [ 4 ] . Whereas S</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1979 Revolution : Black Friday = 1979 Revolution : Black Friday is an adventure interactive drama video game developed and published by iNK Studios , with assistance from by N-Fusion Interactive . It was released on April 5 , 2016 for Microsoft Windows and OS X , and on June 10 , 2016 for iOS devices . Players control Reza Shirazi , an aspiring photojournalist , who returns to Iran amidst the Iranian Revolution . As he becomes more involved in the events of the Revolution , Reza is forced to make decisions in order to survive . Players make timed responses throughout the game , determining the outcome of the plot . They are tasked with taking in-game photographs of their surroundings , and given historical background of the events . The game was in development for four years , and was created to combine elements from video games and documentaries with an engaging narrative . Game director Navid Khonsari , who was a child in Iran at the time of the Revolution , developed the game with t</t>
+          <t>Pythagorean theorem = In mathematics , the Pythagorean theorem , also known as Pythagoras ' theorem , is a fundamental relation in Euclidean geometry among the three sides of a right triangle . It states that the square of the hypotenuse ( the side opposite the right angle ) is equal to the sum of the squares of the other two sides . The theorem can be written as an equation relating the lengths of the sides a , b and c , often called the " Pythagorean equation " : &lt;formula&gt; where c represents the length of the hypotenuse and a and b the lengths of the triangle 's other two sides . Although it is often argued that knowledge of the theorem predates him , the theorem is named after the ancient Greek mathematician Pythagoras ( c . 570 – c . 495 BC ) as it is he who , by tradition , is credited with its first recorded proof . There is some evidence that Babylonian mathematicians understood the formula , although little of it indicates an application within a mathematical framework . Mesopo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Silent Hill 3 = Silent Hill 3 is a survival horror video game published by Konami for the PlayStation 2 and developed by Team Silent , a production group within Konami Computer Entertainment Tokyo . It is the third installment in the Silent Hill series and a direct sequel to the first Silent Hill game . It was released in May 2003 , with a port to Microsoft Windows released in October of the same year . This is the only Silent Hill that didn 't make a release on Xbox but is a PlayStation 2 exclusive . A remastered high-definition version was released for the PlayStation 3 and the Xbox 360 on March 20 , 2012 . Set seventeen years after the events of Silent Hill in which Harry Mason defeats the god of the town cult and is given a baby girl to care for , Silent Hill 3 focuses on Heather Mason , a teenage girl raised by Harry in Portland . She discovers that the cult plans to use her to birth their god , and becomes caught in a conflict within the cult . Silent Hill 3 was mostly well recei</t>
+          <t>Penrose tiling = A Penrose tiling is an example of non-periodic tiling generated by an aperiodic set of prototiles . Penrose tilings are named after mathematician and physicist Roger Penrose , who investigated these sets in the 1970s . The aperiodicity of prototiles implies that a shifted copy of a tiling will never match the original . A Penrose tiling may be constructed so as to exhibit both reflection symmetry and fivefold rotational symmetry , as in the diagram at the right . A Penrose tiling has many remarkable properties , most notably : It is non-periodic , which means that it lacks any translational symmetry . It is self-similar , so the same patterns occur at larger and larger scales . Thus , the tiling can be obtained through " inflation " ( or " deflation " ) and any finite patch from the tiling occurs infinitely many times . It is a quasicrystal : implemented as a physical structure a Penrose tiling will produce Bragg diffraction and its diffractogram reveals both the fivef</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tobruk ( video game ) = Tobruk : The Clash of Armour is a turn-based strategy video game developed by Data Design Systems and published by Personal Software Services . It was exclusively released in the United Kingdom for the Commodore 64 , ZX Spectrum and Amstrad CPC in 1987 . It is the eleventh instalment of the Strategic Wargames series . The game is set during the 1941 Siege of Tobruk of the Western Desert Campaign in World War II and revolves around the Allied forces attempts to overthrow German field marshal Erwin Rommel from the city . The game is a turn-based strategy which focuses mainly on tank combat and contains elements of arcade gameplay . In the game , the player controls the Axis powers and must capture and hold various Allied bases in both Italian Libya and British Egypt , with the city of Tobruk being the ultimate goal . The game received mixed reviews upon release ; critics were divided over the gameplay and were largely negative over its interface and tank mechanics</t>
+          <t>Bicycle and motorcycle dynamics = Bicycle and motorcycle dynamics is the science of the motion of bicycles and motorcycles and their components , due to the forces acting on them . Dynamics is a branch of classical mechanics , which in turn is a branch of physics . Bike motions of interest include balancing , steering , braking , accelerating , suspension activation , and vibration . The study of these motions began in the late 19th century and continues today . Bicycles and motorcycles are both single-track vehicles and so their motions have many fundamental attributes in common and are fundamentally different from and more difficult to study than other wheeled vehicles such as dicycles , tricycles , and quadracycles . As with unicycles , bikes lack lateral stability when stationary , and under most circumstances can only remain upright when moving forward . Experimentation and mathematical analysis have shown that a bike stays upright when it is steered to keep its center of mass ove</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Seymour Goes to Hollywood = Seymour Goes to Hollywood , also known as Seymour at the Movies , is a platform and adventure game developed by Big Red Software and originally published in Europe by Codemasters in 1991 . Players control Seymour , a small potato-like creature who wishes to be a film star . The film 's script has been locked in a safe , meaning Seymour must solve puzzles by collecting and using objects scattered throughout the game in order to progress , ultimately retrieving the script and allowing filming to start . The game was originally designed as part of the Dizzy series , with a working title of Movieland Dizzy , but the creators of Dizzy disagreed with the real-world direction the game had taken , despite it being 90 % complete . The developers , Big Red Software , were given 12 weeks to create a new game with a different character . Seymour was adapted from Dizzy , with a new shape and fingers to differentiate the two . Seymour Goes to Hollywood received both posit</t>
+          <t>History of the metric system = Concepts similar to those behind the metric system had been discussed in the 16th and 17th centuries . Simon Stevin had published his ideas for a decimal notation and John Wilkins had published a proposal for a decimal system of measurement based on natural units . The first practical realisation of the metric system came in 1799 , during the French Revolution , when the existing system of measure , which had fallen into disrepute , was temporarily replaced by a decimal system based on the kilogram and the metre . The work of reforming the old system of weights and measures had the support of whoever was in power , including Louis XVI . The metric system was to be , in the words of philosopher and mathematician Condorcet , " for all people for all time " . In the era of humanism , the basic units were taken from the natural world : the unit of length , the metre , was based on the dimensions of the Earth , and the unit of mass , the kilogram , was based o</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>series character television season episodes episode characters story cast dvd aired doctor viewers producer seasons awards broadcast voice producers finale ratings star writing trek original bbc fans relationship enterprise writer comic simpsons anime south_park role writers nominated drama clark homer manga created appeared pilot premiere production gwen voiced animated wanted felt actors animation award emmy nickelodeon voyager executive recurring lisa released airing audience script comedy produced best outstanding shows arc idea portrayed written adventures scripts primetime davies featured spin filmed showrunner scenes adam kenny plot sitcom programme tardis comics main friends life angel volumes fringe fan described actor crew originally</t>
+          <t>['amendment', 'constitution', 'singapore', 'law', 'court', 'courts', 'judicial', 'parliament', 'article', 'constitutional', 'justice', 'shall', 'clause', 'act', 'rights']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Adam ( Buffy the Vampire Slayer ) = Adam is a fictional character in the fourth season of the fantasy television series Buffy the Vampire Slayer . Portrayed by George Hertzberg , he is a monster created from a man and the collected parts of demons , vampires , and technology : the product of a perverse experiment carried out by military scientists . The series ' main character , Buffy Summers , encounters and ultimately defeats him in the fourth season . Adam is the creation of Dr. Maggie Walsh ( Lindsay Crouse ) , the head of a military-like organization called The Initiative that studies how to alter the harmful behavior inherent to demons . Adam and the Initiative are the fourth season 's primary antagonists , or Big Bad . The premise of the series is that Buffy ( Sarah Michelle Gellar ) is a Slayer , endowed with superhuman strength to fight vampires and evil creatures in the fictional town of Sunnydale . In the fourth season , Buffy begins attending college , where she discovers t</t>
+          <t>Rule of law doctrine in Singapore = In Singapore , the rule of law doctrine has been the topic of considerable disagreement and debate , largely through differing conceptions of the doctrine . These conceptions can generally be divided into two categories developed by legal academics , the " thin " , or formal , conception and the " thick " , or substantive , conception of the rule of law . The thin conception , often associated with the legal scholars Albert Venn Dicey and Joseph Raz , advocates the view that the rule of law is fulfilled by adhering to formal procedures and requirements , such as the stipulations that all laws be prospective , clear , stable and constitutionally enacted , and that the parties to legal disputes are treated equally and without bias on the part of judges . While people subscribing to the thin conception do not dismiss the importance of the content of the law , they take the view that this is a matter of substantive justice and should not be regarded as p</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Blackadder Goes Forth = Blackadder Goes Forth is the fourth and final series of the BBC sitcom Blackadder , written by Richard Curtis and Ben Elton , which aired from 28 September to 2 November 1989 on BBC One . The series placed the recurring characters of Blackadder , Baldrick and George in a trench in Flanders during World War I , and followed their various doomed attempts to escape from the trenches to avoid certain death under the misguided command of General Melchett . The series is particularly noted for its criticism of the British Army leadership during the campaign , and also refers to a number of famous figures of the age . In addition , the series is remembered for the poignant ending of the final episode . Despite initial concerns that the comedy series might trivialise the events of 1914 – 1918 , the series won widespread acclaim on its release , and won the British Academy Television Award for Best Comedy Series in 1989 . It has since become regarded as a classic televis</t>
+          <t>2012 Delhi gang rape = The 2012 Delhi gang rape case involved a rape and fatal assault that occurred on 16 December 2012 in Munirka , a neighbourhood in South Delhi . The incident took place when a 23-year-old female physiotherapy intern , Jyoti Singh was beaten , gang raped , and tortured in a private bus in which she was traveling with her friend , Awindra Pratap Pandey . There were six others in the bus , including the driver , all of whom raped the woman and beat her friend . Thirteen days after the assault , she was transferred to a hospital in Singapore for emergency treatment , but died from her injuries two days later . The incident generated widespread national and international coverage and was widely condemned , both in India and abroad . Subsequently , public protests against the state and central governments for failing to provide adequate security for women took place in New Delhi , where thousands of protesters clashed with security forces . Similar protests took place i</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>201 ( South Park ) = " 201 " is the sixth episode of the fourteenth season of South Park , and the 201st overall episode of the series . It originally aired on Comedy Central in the United States on April 21 , 2010 . The episode continued multiple storylines from the previous episode , " 200 " , in which a group of angry celebrities demand South Park produce the Muslim prophet Muhammad . In " 201 " , a superhero-like group of religious figures team up to save South Park from the celebrities and their monster Mecha-Streisand , while Eric Cartman learns the true identity of his father . The episode was written and directed by series co-creator Trey Parker . Like " 200 " , it alludes to several past storylines and controversies from previous South Park episodes , especially Comedy Central 's refusal to show images of Muhammad on the network following controversies in 2005 and 2007 when cartoons depicting Muhammad ran in European newspapers , resulting in riots and threats . Prior to the b</t>
+          <t>Constitutional Convention ( United States ) = The Constitutional Convention ( also known as the Philadelphia Convention , the Federal Convention , or the Grand Convention at Philadelphia ) took place from May 25 to September 17 , 1787 , in Philadelphia , Pennsylvania . Although the Convention was intended to revise the Articles of Confederation , the intention from the outset of many of its proponents , chief among them James Madison and Alexander Hamilton , was to create a new government rather than fix the existing one . The delegates elected George Washington to preside over the Convention . The result of the Convention was the creation of the United States Constitution , placing the Convention among the most significant events in the history of the United States . The most contentious disputes revolved around the composition and election of the Senate , how " proportional representation " was to be defined ( whether to include slaves or other property ) , whether to divide the exec</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Helen Magnus = Dr. Helen Magnus is the series protagonist and central character of the Canadian fantasy-science fiction television series Sanctuary . She is portrayed by Amanda Tapping . In the series , Magnus is a life scientist from Victorian era England , who currently runs the global Sanctuary Network , an organization tasked with finding a series of creatures called " abnormals " , and later bring them to a Sanctuary base for refuge to protect them from the human population . The character is over two and a half centuries old , having been given her advanced longevity by injecting herself with vampire blood , as well as reliving the 20th century from time travel . After traveling back in time , Magnus had to avoid people so she isolated herself . In the season 4 finale " Sanctuary For None : Part 2 " It was revealed that Magnus spent the 113 years creating a new Sanctuary . Tapping was offered a part in the original web series by series creator Damian Kindler and director Martin W</t>
+          <t>Quebec referendum , 1995 = The 1995 Quebec referendum was the second referendum to ask voters in the Canadian province of Quebec whether Quebec should proclaim national sovereignty and become an independent country , with the condition precedent of offering a political and economic agreement to Canada . The culmination of multiple years of debate and planning after the failure of the Meech Lake and Charlottetown constitutional accords , the referendum was launched solely by the provincial Parti Québécois government of Jacques Parizeau . Despite initial predictions of a heavy sovereignist defeat , an eventful and complex campaign followed , with the " Yes " side flourishing after being taken over by charismatic Bloc Québécois leader Lucien Bouchard . The fast rise of the " Yes " campaign and apparent inability of the personalities of the " No " campaign to counter their message created an atmosphere of great uncertainty , both in the federal government and across Canada . Voting took pl</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Grey 's Anatomy ( season 1 ) = The first season of the American television medical drama Grey 's Anatomy , began airing in the United States on the American Broadcasting Company ( ABC ) on March 27 , 2005 and concluded on May 22 , 2005 . The first season introduces the main character , Meredith Grey , as she enrolls in Seattle Grace Hospital 's internship program and faces unexpected challenges and surprises . Season one had nine series regulars , four of whom have been part of the main cast ever since . The season initially served as a mid-season replacement for the legal drama Boston Legal , airing in the Sunday night time slot at 10 : 00 , after Desperate Housewives . Although no clip shows have been produced for this season , the events that occur are recapped in " Straight to Heart " , a clip-show which aired one week before the winter holiday hiatus of the second season ended . The season was officially released on DVD as two-disc Region 1 box set under the title of Grey 's Anato</t>
+          <t xml:space="preserve">First Amendment to the United States Constitution = The First Amendment ( Amendment I ) to the United States Constitution prohibits the making of any law respecting an establishment of religion , impeding the free exercise of religion , abridging the freedom of speech , infringing on the freedom of the press , interfering with the right to peaceably assemble , or prohibiting the petitioning for a governmental redress of grievances . It was adopted on December 15 , 1791 , as one of the ten amendments that constitute the Bill of Rights . The Bill of Rights was originally proposed as a measure to assuage Anti-Federalist opposition to Constitutional ratification . Initially , the First Amendment applied only to laws enacted by the Congress , and many of its provisions were interpreted more narrowly than they are today . Beginning with Gitlow v. New York ( 1925 ) , the Supreme Court applied the First Amendment to states — a process known as incorporation — through the Due Process Clause of </t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>campaign said announced stated saying support election media party political criticized government president leader presidential republican nomination polls campaigning debate bush january interview primary candidacy candidate issues poll senator democratic policy reagan stating nixon asked people conservative nominee vote percent mccarthy kennedy democrats run obama candidates hillary_clinton running state press barack_obama march november cuts issue public voters iraq brown labour told endorsement endorsed general campaigned supported member contest liberal conservatives votes police polling vice harper opposition february white_house gravel cnn budget allegations leadership ballot ronald_reagan senate minister clinton announcement incumbent news showed investigation politics gore received republican_party controversial spending members</t>
+          <t>['management', 'twitter', 'investment', 'bank', 'billion', 'equity', 'watson', 'design', 'banking', 'company', 'users', 'firm', 'business', 'merger', 'assets']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Baltimore mayoral election , 1999 = On November 2 , 1999 , the city of Baltimore , Maryland , elected a new mayor , the 47th in the city 's history . Primary elections were held to determine the nominees for the Democratic Party and Republican Party on September 14 . Incumbent mayor Kurt Schmoke , a Democrat , opted not to run for reelection . Martin O 'Malley , a member of the Baltimore City Council , won the election to succeed Schmoke . Because Baltimore 's electorate is overwhelmingly Democratic , whoever won the Democratic primary election was seen as the favorite over the Republican nominee in the general election . Baltimore 's large African American population initially made it seem likely that the next mayor would also be African American . Kweisi Mfume was the preferred candidate of local politicians , but he opted not to run . Though Carl Stokes and Lawrence Bell , members of the City Council , declared for the race , local leaders were underwhelmed with the quality of decla</t>
+          <t>Chemical Bank = Chemical Bank was a bank with headquarters in New York City from 1824 until 1996 . The bank operated as the primary subsidiary of the Chemical Banking Corporation , a bank holding company established in 1988 . At the end of 1995 , Chemical was the third largest bank in the U.S. with approximately $ 182.9 billion in assets . Beginning in 1920 but accelerating in the 1980s and 1990s , Chemical was a leading consolidator of the banking industry in the United States , acquiring Chase Manhattan Bank , Manufacturers Hanover , Texas Commerce Bank and Corn Exchange Bank among others . Following Chemical 's acquisition of Chase , the bank adopted the venerable Chase brand . What had been Chemical Bank is now a foundational component of what today is JPMorgan Chase . Chemical Bank was headquartered in New York City with more than 39,000 employees globally as of the end of 1995 . = = Overview of the company = = Chemical Bank was the principal operating subsidiary of the Chemical B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sibu by-election , 2010 = The Sibu by-election , 2010 was a by-election for the seat of Sibu in the Parliament of Malaysia . The Sarawak-based seat fell vacant after the death of its incumbent member , Robert Lau Hoi Chew , from liver cancer on 9 April 2010 . The seat was defended for the Barisan Nasional coalition government by Robert Lau Hui Yew of the Sarawak United Peoples ' Party ( SUPP ) , while Sarawak State Assemblyman Wong Ho Leng contested the poll for the Democratic Action Party ( DAP ) in the Pakatan Rakyat opposition coalition . Wong won the election by 398 votes , wresting the seat from the Barisan Nasional . At the time of the election there were 54,695 registered voters , a majority of whom were ethnic Chinese . In the previous general election in 2008 , the incumbent , Hoi Chew retained the seat with a 3,235-vote majority against Wong Ho Leng , and Lim Chin Chuang of the People 's Justice Party . The Sibu seat had been last won by the DAP in 1982 , but had since been w</t>
+          <t xml:space="preserve">Credit Suisse = Credit Suisse Group is a Swiss multinational financial services holding company , headquartered in Zürich , that operates the Credit Suisse Bank and other financial services investments . The company is organized as a stock corporation with four divisions : Investment Banking , Private Banking , Asset Management , and a Shared Services Group that provides marketing and support to the other three divisions . Credit Suisse 's stock unsurprisingly hit a new 52-week low of $ 10.01 during trading on July 6 , 2016 while somewhat recent reports have suggested it is yet again being investigated by the U. S. Department of Justice in relation to tax evasion . Credit Suisse is also contending with a valid federal lawsuit filed against it at a New York City court and related litigation filed with the Administrative Review Board of the U.S. Department of Labor pertaining to the Sarbanes-Oxley Act 's whistleblower protections . On July 15 , 2016 , the latest legal brief was filed in </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jon Corzine = Jon Stevens Corzine ( born January 1 , 1947 ) is an American financial executive and former politician . A Democrat , he was a United States Senator from New Jersey from 2001 to 2006 and was the 54th Governor of New Jersey from 2006 to 2010 . He also worked as CEO of Goldman Sachs during the 1990s and was CEO of MF Global from 2010 to 2011 . He was charged by the Commodity Futures Trading Commission ( CFTC ) in connection with MF 's bankruptcy in 2011 . Corzine began his career in banking and finance . In the early and mid-1970s , he worked for Midwestern banks ( Continental-Illinois National Bank in Chicago , Illinois and BancOhio National Bank in Columbus , Ohio ) during and after his Master of Business Administration ( MBA ) studies at the University of Chicago Booth School of Business . In 1975 he moved to New Jersey to work for Goldman Sachs . He became Chairman and CEO of Goldman Sachs and the leading advocate in the firm 's decision to go public . In 1999 , having </t>
+          <t xml:space="preserve">UBS = UBS AG is a Swiss global financial services company , incorporated in the Canton of Zurich , and co-headquartered in Zurich and Basel . The company provides wealth management , asset management , and investment banking services for private , corporate , and institutional clients worldwide , and is generally considered to be a bulge bracket bank . In Switzerland , these services are also offered to retail clients . The name UBS was originally an abbreviation for the Union Bank of Switzerland , but it ceased to be a representational abbreviation after the bank 's merger with Swiss Bank Corporation in 1998 . The company traces its origins to 1856 , when the earliest of its predecessor banks was founded . UBS is considered the world 's largest manager of private wealth assets , with over CHF 2.2 trillion in invested assets , and remains a leading provider of retail banking and commercial banking services in Switzerland . In 2014 , UBS ' assets under management ( AuM ) amounted to US </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asif Ali Zardari = Asif Ali Zardari ( Urdu : آصف علی زرداری ) Sindhi : آصف علي زرداري ) ; born 26 July 1955 ) is a Pakistani politician and current co-chairperson of Pakistan People 's Party . He served as the 11th President of Pakistan from 2008 to 2013 . A landowner from Sindh , Zardari rose to prominence after his marriage to Benazir Bhutto in 1987 , becoming the First Gentleman after his wife was elected Prime Minister in 1988 . When Bhutto 's government was dismissed by President Ghulam Ishaq Khan in 1990 , Zardari was widely criticized for involvement in corruption scandals that led to its collapse . When Bhutto was reelected in 1993 , Zardari served as Federal Investment Minister and Chairperson Pakistan Environmental Protection Council in her second administration . Following increasing tensions between Bhutto 's brother Murtaza and Zardari , Murtaza was killed in a police encounter in Karachi on 20 September 1996 . Bhutto 's government was dismissed a month later by President </t>
+          <t>Rahm Emanuel = Rahm Israel Emanuel ( / ˈrɑːm / ; born November 29 , 1959 ) is an American politician who serves as the 55th mayor of Chicago . A member of the Democratic Party , Emanuel was elected in 2011 , becoming Chicago 's first Jewish mayor . He was reelected on April 7 , 2015 . Born in Chicago , Emanuel is a graduate of Sarah Lawrence College and Northwestern University . Working early in his career in Democratic politics , Emanuel was appointed as director of the finance committee for Bill Clinton 's 1992 presidential campaign . In 1993 , he joined the Clinton administration , where he served as the assistant to the president for political affairs and as the senior advisor to the president for policy and strategy before resigning , in 1998 . Beginning a career in finance , Emanuel worked at the investment bank Wasserstein Perella &amp; Co. from 1998 for 2 1 / 2 years and served on the board of directors of Freddie Mac . In 2002 , Emanuel ran for a seat in the U.S. House of Represen</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tony Benn = Anthony Neil Wedgwood Benn ( 3 April 1925 – 14 March 2014 ) , originally known as Anthony Wedgwood Benn or Wedgie Benn , but later as Tony Benn , was a British politician who was a Member of Parliament ( MP ) for 47 years between the 1950 and 2001 general elections and a Cabinet minister in the Labour governments of Harold Wilson and James Callaghan in the 1960s and 1970s . Originally a " moderate " , he was identified as being on the party 's hard left from the early 1980s , and was widely seen as a key proponent of democratic socialism within the party . Benn inherited a peerage on his father 's death ( as 2nd Viscount Stansgate ) , which prevented his continuing as an MP . He fought to remain in the House of Commons , and then campaigned for the ability to renounce the title , a campaign which succeeded with the Peerage Act 1963 . In the Labour Government of 1964 – 70 he served first as Postmaster General , where he oversaw the opening of the Post Office Tower , and late</t>
+          <t>Bridgewater Associates = Bridgewater Associates is an American investment management firm founded by Ray Dalio in 1975 . The firm serves institutional clients including pension funds , endowments , foundations , foreign governments and central banks . It utilizes a global macro investing style based on economic trends , such as inflation , currency exchange rates , and U.S. gross domestic product . Bridgewater Associates began as an institutional investment advisory service , graduated to institutional investing and pioneered the risk parity investment approach in 1996 . In 1981 the company moved its headquarters from New York City to Westport , Connecticut and currently engages 1,200 employees . It embraces a corporate culture that encourages transparency and the elimination of the decision making hierarchy , and in 2011 was the " world 's largest macro hedge fund " company with US $ 122 billion in assets under management . = = History = = The firm 's history includes the pioneering o</t>
         </is>
       </c>
     </row>
@@ -1666,32 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>member served elected governor committee serving worked election appointed kentucky married resigned attended born fellow legislature term opposed president massachusetts politics died secretary commission virginia admitted serve chairman votes tenure professor graduated candidate politician education buried attorney retirement helped honor seat degree chosen judge republican vote assistant wife senate democratic prominent union political studied legacy lived practice bill mayor rank board lieutenant deputy lawyer estate majority efforts senator honorary taught retired survived resign vice congress health administration post legislation appointment session delegate west_virginia voted sought refused jones opposition representing candidates daughter reform enrolled democrat master interred graduating establishing parsons attending</t>
+          <t>['mosque', 'temple', 'congregation', 'wall', 'palace', 'hall', 'jewish', 'jews', 'shrine', 'tomb', 'temples', 'cave', 'jerusalem', 'christians', 'dome']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lazarus W. Powell = Lazarus Whitehead Powell ( October 6 , 1812 – July 3 , 1867 ) was the 19th Governor of Kentucky , serving from 1851 to 1855 . He was later elected to represent Kentucky in the U.S. Senate from 1859 to 1865 . The reforms enacted during Powell 's term as governor gave Kentucky one of the top educational systems in the antebellum South . He also improved Kentucky 's transportation system and vetoed legislation that he felt would have created an overabundance of banks in the Commonwealth . Powell 's election as governor marked the end of Whig dominance in Kentucky . Powell 's predecessor , John J. Crittenden , was the last governor elected from the party of the Commonwealth 's favorite son , Henry Clay . Following his term as governor , Powell was elected to the U.S. Senate . Before he could assume office , President James Buchanan dispatched Powell and Major Benjamin McCulloch to Utah to ease tensions with Brigham Young and the Mormons . Powell assumed his Senate seat </t>
+          <t>Amenhotep I = Amenhotep I ( / ˌæmɛnˈhoʊtɛp / ) from Ancient Egyptian " jmn-ḥtp " or " yamānuḥātap " meaning " Amun is satisfied " or Amenophis I ( / əˈmɛnoʊfɪs / ) from Ancient Greek Ἀμένωφις , was the second Pharaoh of the 18th dynasty of Egypt . His reign is generally dated from 1526 to 1506 BC . He was a son of Ahmose I and Ahmose-Nefertari , but had at least two elder brothers , Ahmose-ankh and Ahmose Sapair , and was not expected to inherit the throne . However , sometime in the eight years between Ahmose I 's 17th regnal year and his death , his heir apparent died and Amenhotep became crown prince . He then acceded to the throne and ruled for about 21 years . Although his reign is poorly documented , it is possible to piece together a basic history from available evidence . He inherited the kingdom formed by his father 's military conquests and maintained dominance over Nubia and the Nile Delta but probably did not attempt to maintain Egyptian power in Syrio-Palestine . He contin</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>J. Proctor Knott = James Proctor Knott ( August 29 , 1830 – June 18 , 1911 ) was a U.S. Representative from Kentucky and served as the 29th Governor of Kentucky from 1883 to 1887 . Born in Kentucky , he moved to Missouri in 1850 and began his political career there . He served as Missouri Attorney General from 1859 to 1861 , when he resigned rather than swear an oath of allegiance to the federal government just prior to the outbreak of the Civil War . Knott was disbarred and briefly imprisoned for his refusal to take the oath of allegiance . He returned to Kentucky in 1863 and was elected to the U.S. House of Representatives . In 1871 , he made a notable speech ridiculing a bill to subsidize westward expansion of railroads . In the speech , he lampooned the remote town of Duluth , Minnesota . The Duluth speech was eventually reprinted in several publications and brought Knott national acclaim . He did not stand for re-election in 1870 , instead making a failed run for the office of gov</t>
+          <t xml:space="preserve">Bharatiya Janata Party = The Bharatiya Janata Party ( pronounced [ bʱaːrət ̪ iːjə dʒənət ̪ aː paːrʈiː ] ; translation : Indian People 's Party ; abbr . BJP ) is one of the two major political parties in India , along with the Indian National Congress . As of 2016 , it is the country 's largest political party in terms of representation in the national parliament and state assemblies , and it is the world 's largest party in terms of primary membership . The BJP is a right-wing party , with close ideological and organisational links to the Hindu nationalist Rashtriya Swayamsevak Sangh . The BJP 's origins lie in the Bharatiya Jana Sangh , formed in 1951 by Syama Prasad Mookerjee . After the State of Emergency in 1977 , the Jana Sangh merged with several other parties to form the Janata Party ; it defeated the incumbent Congress party in the 1977 general election . After three years in power , the Janata party dissolved in 1980 with the members of the erstwhile Jana Sangh reconvening to </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Henry Adams Thompson = Henry Adams Thompson ( March 23 , 1837 – July 8 , 1920 ) was an American prohibitionist and professor who was the vice-presidential nominee of the Prohibition Party in 1880 . Thompson was a native of Pennsylvania , but spent much of his career in Ohio . He became a member of the United Brethren church and taught mathematics at several United Brethren colleges in the Midwest . Thompson served as president of Otterbein University from 1872 to 1886 . Much of his time as college president was devoted to improving the financial standing of the school during the economic depression that followed the Panic of 1873 . Initially a Republican , he became an early member of the Prohibition Party . His attempt at election to the vice presidency in 1880 , running on a ticket with Neal Dow of Maine , was the party 's best showing to date , but they still placed a distant fourth to the eventual winners , James A. Garfield and Chester A. Arthur . He ran for office under the Prohi</t>
+          <t xml:space="preserve">Mathematics and architecture = Mathematics and architecture are related , since , as with other arts , architects use mathematics for several reasons . Apart from the mathematics needed when engineering buildings , architects use geometry : to define the spatial form of a building ; from the Pythagoreans of the sixth century BC onwards , to create forms considered harmonious , and thus to lay out buildings and their surroundings according to mathematical , aesthetic and sometimes religious principles ; to decorate buildings with mathematical objects such as tessellations ; and to meet environmental goals , such as to minimise wind speeds around the bases of tall buildings . In Ancient Egypt , Ancient Greece , India , and the Islamic world , buildings including pyramids , temples , mosques , palaces and mausoleums were laid out with specific proportions for religious reasons . In Islamic architecture , geometric shapes and geometric tiling patterns are used to decorate buildings , both </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Q. Marston = Robert Quarles Marston ( February 12 , 1923 – March 14 , 1999 ) was an American physician , research scientist , governmental appointee and university administrator . Marston was a native of Virginia , and , after earning his bachelor 's , medical and research degrees , he became a research scientist and medical professor . He served as the dean of the University of Mississippi School of Medicine , the director of the National Institutes of Health , and the president of the University of Florida . = = Early life and education = = He was born in Toano , Virginia , a small unincorporated community near Williamsburg , in 1923 . He graduated from the Virginia Military Institute ( VMI ) in Lexington , Virginia with a bachelor of science degree in 1944 . While attending the Medical College of Virginia ( MCV ) in Richmond , Virginia , he married Ann Carter Garnett in 1946 . Following his graduation from MCV with a doctor of medicine degree ( M.D. ) in 1947 , he received a </t>
+          <t>Alchi Monastery = Alchi Monastery or Alchi Gompa is a Buddhist monastery , known more as a monastic complex ( chos- ' khor ) of temples in Alchi village in the Leh District , of the Indian state under the Ladakh Autonomous Hill Development Council of Jammu and Kashmir . The complex comprises four separate settlements in the Alchi village in the lower Ladakh region with monuments dated to different periods . Of these four hamlets , Alchi monastery is said to be the oldest and most famous . It is administered by the Likir Monastery . Alchi is also part of the three villages ( all in lower Ladakh region ) which constitute the ‘ Alchi group of monuments ’ ; the other two villages adjoining Alchi are the Mangyu and Sumda Chun . The monuments in these three villages are stated to be of “ unique style and workmanship ’ , but the Alchi monastic complex is the best known . The monastery complex was built , according to local tradition , by the great translator Guru Rinchen Zangpo between 958 an</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Beriah Magoffin = Beriah Magoffin ( April 18 , 1815 – February 28 , 1885 ) was the 21st Governor of Kentucky , serving during the early part of the Civil War . Personally , Magoffin adhered to a states ' rights position , including the right of a state to secede from the Union , and he sympathized with the Confederate cause . Nevertheless , when the Kentucky General Assembly adopted a position of neutrality in the war , Magoffin ardently held to it , refusing calls for aid from both the Union and Confederate governments . In special elections held in June 1861 , Unionists captured nine of Kentucky 's ten congressional seats and obtained two-thirds majorities in both houses of the state legislature . Despite Magoffin 's strict adherence to the policy of neutrality , the Unionist legislature did not trust him and routinely overrode his vetoes . Unable to provide effective leadership due to a hostile legislature , Magoffin agreed to resign as governor in 1862 , provided he could choose hi</t>
+          <t>Kataragama temple = Kataragamam temple ( Sinhalese Katharagama ; Tamil Katirkāmam ) in Kataragama , Sri Lanka , is a temple complex dedicated to Kataragama deviyo . It is one of the few religious sites in Sri Lanka that is venerated by the Sinhala Buddhists , Hindu Sri Lankan Tamils , Sri Lankan Moors and the Vedda people . It is a collection of modest shrines , of which the one dedicated to Kataragama deviyo , is the most important . For most of the past millennia , it was a jungle shrine very difficult to access ; today it is accessible by an all-weather road . Almost all the shrines — and the nearby Kiri Vehera — are managed by Buddhists , apart from shrines dedicated to Teyvāṉai and Shiva and mosques . Up until the 1940s a majority of the pilgrims were Tamil Hindus from Sri Lanka and South India who undertook an arduous padayatra or " pilgrimage on foot " . Since then most pilgrims tend to be Sinhala Buddhists and the cult of Kataragama deviyo has become the most popular amongst th</t>
         </is>
       </c>
     </row>
@@ -1701,32 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>daily trunkline roadway national_highway_system travels designated surveys entire paved intersections designation traveling terminus rural mdot existed crosses intersection aadt continuing mobility turns calculated segment renumbering connecting routing michigan_department_of_transportation continues description connects vehicles annual intersects highways 1930s economy extended concurrency passes turning junction entirely farmland truncated alignment spur racially concurrent concurrently shortened flamboyant responsibilities heading traveled courted terminates buddy continuation calculation meets 1940s mile subtitles enters shifted limits route defied replacing rerouted rampant profanity highway entertained unchanged conducts academically portion statistical ferry lowest undivided oppressed frantic psychologically stretch altogether interstate entering counts bitterness connect reliant heads sacrificing ethnicity realigned exit apocalyptic</t>
+          <t>['scotland', 'scottish', 'island', 'islands', 'norse', 'century', 'edinburgh', 'isles', 'houses', 'architecture', 'mainland', 'scots', 'glasgow', 'highlands', 'churches']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nevada State Route 28 = State Route 28 ( SR 28 ) is a 16.2-mile ( 26.1 km ) road that runs along the northeastern shore of Lake Tahoe . SR 28 starts at US 50 and ends at the California state line at Crystal Bay , continuing across the border as SR 28 . SR 28 is part of the National Scenic Byway system since September 1996 , and the state scenic byway system since June 1994 . The highway serves Douglas County and Washoe County as well as a rural part of Carson City . SR 28 was designated in 1948 , and has not significantly changed since it was first paved . = = Route description = = SR 28 begins at U.S. Route 50 ( US 50 ) in Douglas County , Nevada . It heads north from there , forming part of the boundary of Lake Tahoe – Nevada State Park until crossing into Carson City . The highway then enters Washoe County , where the highway enters Humboldt-Toiyabe National Forest . It then turns northwest , running through Incline Village . In western Incline Village , SR 28 junctions with SR 431 </t>
+          <t>Architecture in early modern Scotland = Architecture in early modern Scotland encompasses all building within the borders of the kingdom of Scotland , from the early sixteenth century to the mid-eighteenth century . The time period roughly corresponds to the early modern era in Europe , beginning with the Renaissance and Reformation and ending with the start of the Enlightenment and Industrialisation . Vernacular architecture made use of local materials such as stone , turf and , where available , wood . Most of the population was housed in small hamlets and isolated dwellings . The most common form of dwelling throughout Scotland was the long house , shared by humans and animals . About ten per cent of the population lived in the burghs , in a mixture of half-timbered and stone houses . The impact of the Renaissance on Scottish architecture began in the reign of James III in the late fifteenth century with the rebuilding of royal palaces such as Linlithgow , and reached its peak under</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>M-212 ( Michigan highway ) = M-212 is a state trunkline highway in the US state of Michigan . The highway was designated in order to provide access from M-33 to both the small community of Aloha on the eastern shore of Mullett Lake , as well as to Aloha State Park , where the highway ends . M-212 is the shortest signed state highway in Michigan , beating out the second shortest , M-239 , which registers at 1.136 miles ( 1.828 km ) . M-212 even beats out Michigan 's shortest signed business route , BUS M-32 in Hillman , which comes in at 0.738 miles ( 1.188 km ) , only about six-thousandths of a mile longer , or about 32 feet ( 9.8 m ) . M-212 was assigned on December 29 , 1937 , from the intersection with Second Street to an intersection with US Highway 23 ( US 23 ) . In 1940 , the state of Michigan rerouted US 23 and replaced it with M-33 . = = Route description = = M-212 begins at an intersection with Second Street and the Tromble Trail north of the entrance to Aloha State Park in th</t>
+          <t>Architecture of Scotland = The architecture of Scotland includes all human building within the modern borders of Scotland , from the Neolithic era to the present day . The earliest surviving houses go back around 9500 years , and the first villages 6000 years : Skara Brae on the Mainland of Orkney being the earliest preserved example in Europe . Crannogs , roundhouses , each built on an artificial island , date from the Bronze Age and stone buildings called Atlantic roundhouses and larger earthwork hill forts from the Iron Age . The arrival of the Romans from about 71 AD led to the creation of forts like that at Trimontium , and a continuous fortification between the Firth of Forth and the Firth of Clyde known as the Antonine Wall , built in the second century AD . Beyond Roman influence , there is evidence of wheelhouses and underground souterrains . After the departure of the Romans there were a series of nucleated hill forts , often utilising major geographical features , as at Duna</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Manitoba Provincial Road 280 = Provincial Road 280 ( PR 280 ) is a road in the Canadian province of Manitoba . It runs from PR 391 northwest of Thompson to local streets in Gillam . The route is 291 kilometres ( 181 mi ) long , which during its length , passes several large lakes and intersects with one provincial road , PR 290 , just north of Gillam . The route is very scenic , passing through dense forests and rural lands . The route supplies three municipalities , Thompson , Split Lake , and Gillam . From its terminus north of Thompson , Manitoba to the town Gillam , PR 280 is classified as a Class A1 Provincial Route . PR 280 was designated in 1987 as a connector from Thompson to Gillam with a spur to Sundance . = = Route description = = PR 280 begins at an intersection north of Thompson on the shores of Birch Tree Lake with PR 391 . PR 280 runs northeast from PR 391 as a two-lane gravel road through the dense woods north of Thompson Airport . As the road bends to the northeast , i</t>
+          <t>Architecture of Scotland in the Prehistoric era = The architecture of Scotland in the prehistoric era includes all human building within the modern borders of Scotland , before the arrival of the Romans in Britain in the first century BCE . Stone Age settlers began to build in wood in what is now Scotland from at least 8,000 years ago . The first permanent houses of stone were constructed around 6,000 years ago , as at Knap of Howar , Orkney and settlements like Skara Brae . There are also large numbers of chambered tombs and cairns from this era , particularly in the west and north . In the south and east there are earthen barrows , often linked to timber monuments of which only remnants remain . Related structures include bank barrows , cursus monuments , mortuary enclosures and timber halls . From the Bronze Age there are fewer new buildings , but there is evidence of crannogs , roundhouses built on an artificial islands and of Clava cairns and the first hillforts . From the Iron Ag</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>K-17 ( Kansas highway ) = K-17 was a 21.138-mile-long ( 34.018 km ) state highway in Kansas that served Kingman and Reno counties . The route originated at an intersection with U.S. Route 54 ( US-54 ) and US-400 south of the unincorporated community of Waterloo and ended at K-96 south of South Hutchinson . The road was maintained by the Kansas Department of Transportation ( KDOT ) , and was a two-lane road for its entire length . The route was designated in 1932 . When originally designated , K-17 ran north to an intersection with US-81 near McPherson . Between 1957 and 1962 , a series of changes to the route shortened it and brought its northern terminus to an intersection with K-96 near South Hutchinson . The route was decommissioned in 2013 . = = Route description = = K-17 began at a diamond interchange with US-54 and US-400 near Waterloo in Kingman County and ran north on a two-lane road . The route passed a cemetery just north of its southern terminus and continued north through l</t>
+          <t>Islands of the Clyde = The Islands of the Firth of Clyde are the fifth largest of the major Scottish island groups after the Inner and Outer Hebrides , Orkney and Shetland . They are situated in the Firth of Clyde between Ayrshire and Argyll . There are about forty islands and skerries , of which only four are inhabited and only nine larger than 40 hectares ( 99 acres ) . The largest and most populous are Arran and Bute , and Great Cumbrae and Holy Isle are also served by dedicated ferry routes . Unlike the four larger Scottish archipelagos , none of the isles in this group are connected to one another or to the mainland by bridges . The geology and geomorphology of the area is complex and the islands and the surrounding sea lochs each have distinctive features . The influence of the Atlantic Ocean and the North Atlantic Drift create a mild , damp oceanic climate . The larger islands have been continuously inhabited since Neolithic times , were influenced by the emergence of the kingdo</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ontario Highway 405 = King 's Highway 405 , also known as Highway 405 and the General Brock Parkway , is a 400-Series Highway in the Canadian province of Ontario connecting the Queen Elizabeth Way ( QEW ) near St. Catharines with the Lewiston – Queenston Bridge in the village of Queenston . It then crosses the Niagara River , where it encounters the international border with the United States and continues into New York as Interstate 190 ( I-190 ) . Designated and under construction by 1960 , the short freeway was opened to traffic on September 11 , 1963 . Since that time , an interchange was added in 1969 and another removed in 2004 . On August 13 , 2006 , Highway 405 was dedicated the General Brock Parkway . The entire length of Highway 405 is patrolled by the Ontario Provincial Police ( OPP ) . = = Route description = = Highway 405 serves to connect the northern end of I-190 in New York at the Lewiston – Queenston Bridge with the QEW , and as such it follows a somewhat direct path b</t>
+          <t>Warfare in early modern Scotland = Warfare in early modern Scotland includes all forms of military activity in Scotland or by Scottish forces , between the adoption of new ideas of the Renaissance in the early sixteenth century and the military defeat of the Jacobite movement in the mid-eighteenth century . In the late Middle Ages , Scottish armies were assembled on the basis of common service , feudal obligations and money contracts of bonds of manrent . In 1513 these systems produced a large and formidable force , but in the mid-sixteenth century there were difficulties in recruitment . Individuals were expected to provide their own equipment , including axes and pole arms . Highland troops often brought bows and two-handed swords . Heavy armour was abandoned after the Flodden campaign . Highland lords tended to continue to use lighter chainmail and ordinary highlanders dressed in the plaid . The crown took an increasing role in the supply of equipment . The pike replaced the spear a</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>song video number single chart performed peaked weeks carey debuted rihanna hot background week girl performance charts pop madonna swift chorus love billboard dance singer lyrics commented live singles vocals wearing united_kingdom beats ballad tempo digital jackson composition don music credits dancing track usher remix vocal accompanying directed mtv critics certified singing dancers compared entered spears artist mtv_news certifications ending formats listings progression scenes version mariah sings reception chord know downloads radio belgium verse charted videos shown premiered peak dress lyrically platinum beat dressed airplay feel peaking perry australian_recording_industry_association boyfriend songwriting hook written critical begins wore awards idolator filmed songwriter</t>
+          <t>['croatian', 'yugoslav', 'partisans', 'serbian', 'croatia', 'yugoslavia', 'partisan', 'serbs', 'bosnia', 'belgrade', 'serbia', 'germans', 'civilians', 'division', 'forces']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Say Yes ( Michelle Williams song ) = " Say Yes " is a song recorded by American recording artist Michelle Williams , taken from her fourth studio album Journey to Freedom ( 2014 ) . It features Williams ' former Destiny 's Child groupmates Beyoncé and Kelly Rowland . The song was written by Williams , Carmen Reece , Al Sherrod Lambert and Harmony Samuels who also produced it . E1 Music released " Say Yes " as the album 's third single on June 2 , 2014 . " Say Yes " marks the third time the trio collaborated as solo artists following the disbandment of their group in 2006 . Musically , " Say Yes " is an uptempo gospel and pop song , which takes influence from dance music . It samples a popular Nigerian gospel tune originally titled " When Jesus Says Yes " . Upon release , " Say Yes " received generally favorable reviews from contemporary music critics who called the song infectious and praised its catchiness . Commercially the song performed well on the gospel charts in the US , peaking</t>
+          <t>Vojislav Lukačević = Vojislav Lukačević ( Serbian Cyrillic : Војислав Лукачевић ; 1908 – 14 August 1945 ) was a Serbian Chetnik commander in the Kingdom of Yugoslavia during World War II . At the outbreak of war , he held the rank of captain of the reserves in the Royal Yugoslav Army . When the Axis powers invaded Yugoslavia in April 1941 , Lukačević became a leader of Chetniks in the Sandžak region and joined the movement of Draža Mihailović . While the Chetniks were an anti-Axis movement in their long-range goals and did engage in marginal resistance activities for limited periods , they also pursued almost throughout the war a tactical or selective collaboration with the occupation authorities against the Yugoslav Partisans . They engaged in cooperation with the Axis powers to one degree or another by establishing modi vivendi or operating as auxiliary forces under Axis control . Lukačević himself collaborated extensively with the Italians and the Germans in actions against the Yugo</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Objection ( Tango ) = " Objection ( Tango ) " is a song recorded by Colombian singer-songwriter Shakira for her fifth studio album and first English-language album Laundry Service ( 2001 ) . It was the first song Shakira wrote in English after being encouraged by American singer Gloria Estefan to record material in the language . She also produced the track along with Lester Mendez . " Objection ( Tango ) " musically combines elements of pop rock and tango , and contains instrumentation from the bandoneón and guitar . Through the lyrics of the song , Shakira aims to end a love triangle she is a part of . The song was released as the third single from the album on 6 July 2002 . A Spanish version of the song , entitled " Te Aviso , Te Anuncio ( Tango ) " ( " I 'm Warning You , I 'm Telling You " ) , was also recorded by the singer . Upon its release , " Objection ( Tango ) " received generally favourable reviews from music critics , some of whom found it similar to the work of American n</t>
+          <t>Serbian State Guard = The Serbian State Guard ( Serbo-Croatian : Srpska državna straža or SDS , Српска државна стража ; German : Serbische Staatsgarde ) was an auxiliary paramilitary force used to impose law and order within the Territory of the Military Commander in Serbia during the German military occupation of the Kingdom of Yugoslavia in World War II . It was formed from two former Yugoslav gendarmerie regiments , was created with the approval of the German military authorities , and for a long period was controlled by the Higher SS and Police Leader in the Territory . It was also known as the Nedićevci after the leader of the Serbian pro-Axis puppet government , General Milan Nedić , who eventually gained control of its operations . It assisted the Germans in imposing one of the most brutal occupation regimes in occupied Europe and helped guard and execute prisoners at the Banjica concentration camp in Belgrade . Its leaders and much of the rank and file were sympathetic to the C</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Remember the Time = " Remember the Time " is a single by American singer-songwriter Michael Jackson recorded at Record One Studios . The song was released by Epic Records on January 14 , 1992 , as the second single from Jackson 's eighth studio album , Dangerous . Written and composed by Teddy Riley , Michael Jackson and Bernard Belle , the song was produced by Riley and Jackson . " Remember the Time " was a successful attempt by Jackson to create a dance-oriented , new jack swing-flavored jam with the accompaniment of co-producer Riley . The lyrics are about remembering being in love with someone . " Remember the Time " was generally well received by contemporary critics . The song was commercially successful , peaking at number three on the Billboard Hot 100 singles chart and number one on Billboard 's R &amp; B singles chart . Internationally , the song was a top ten hit in nine countries , peaking at number one in New Zealand , as well at number two in Spain and three in the United Kin</t>
+          <t>Dimitrije Ljotić = Dimitrije Ljotić ( Serbian Cyrillic : Димитрије Љотић ; 12 August 1891 – 23 April 1945 ) was a Serbian fascist politician and ideologue who established the Yugoslav National Movement ( Zbor ) in 1935 and collaborated with German occupational authorities in the Territory of the Military Commander in Serbia during World War II . He joined the Serbian Army with the outbreak of the Balkan Wars , fought on the Serbian side during World War I and remained in active service until 1920 , when he decided to pursue a career in politics . He joined the People 's Radical Party that year and became regional deputy for the Smederevo District in 1930 . In 1931 , he was appointed to the position of Yugoslav Minister of Justice by King Alexander I but resigned following a disagreement between him and the king over the layout of the Yugoslav political system . Ljotić founded Zbor in 1935 . The party received little support from the largely anti-German Serbian public and never won more</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Say It Right = " Say It Right " is a song by Canadian singer Nelly Furtado from her third studio album Loose ( 2006 ) . Written by Furtado , Tim " Timbaland " Mosley and Nate " Danja " Hills , the song was inspired by , as Furtado described it , the " spooky , keyboard-driven pop sound " of the band Eurythmics , specifically their 1983 song titled , " Here Comes the Rain Again " . The song released as the album 's third single in North America and Australia ( see 2006 in music ) . The song served as the album 's fourth single in certain European and Asian countries . It was released digitally in the United Kingdom in March 2007 . It was the album 's fifth single in Latin America . " Say It Right " attained worldwide success , topping the charts in more than seven countries , including the United States , France , New Zealand and many European countries . The accompanying music video for the song , directed by Rankin &amp; Chris , portrays Furtado singing in various costumes and in various </t>
+          <t>August Meyszner = August Meyszner ( 3 August 1886 – 24 January 1947 ) was an Austrian Gendarmerie officer and right-wing politician who held the post of Higher SS and Police Leader in the German-occupied territory of Serbia from January 1942 to March 1944 , during World War II . Meyszner began his career as an officer in the Gendarmerie , served on the Italian Front during World War I and reached the rank of Major der Polizei by 1921 . He joined the Austrian Nazi Party in September 1925 and became a right-wing parliamentary deputy and provincial minister in the Austrian province of Styria in 1930 . Due to his involvement with the Nazis , Meyszner was forcibly retired in 1933 and arrested in February 1934 , but released after three months at a detention centre in Wöllersdorf . That July , he was rearrested following an attempted coup , but escaped police custody and fled to Nazi Germany , where he joined the Ordnungspolizei and then the Allgemeine SS . After police postings in Austria ,</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fearless ( Taylor Swift song ) = " Fearless " is a country pop song performed by American singer-songwriter Taylor Swift . The song was co-written by Swift in collaboration with Liz Rose and Hillary Lindsey and produced by Nathan Chapman and Swift . " Fearless " was released on January 3 , 2010 by Big Machine Records as the fifth and final single from Swift 's second studio album of the same name ( 2008 ) . Swift composed the song while traveling on tour to promote her eponymous debut album , Taylor Swift ( 2006 ) . She wrote " Fearless " in regard to the fearlessness of falling in love and eventually titled her second studio album after the song . Musically , it contains qualities commonly found in pop rock music and , lyrically , is about a perfect first date . " Fearless " received acclaim from contemporary critics , many of whom complimented it for appealing to different age groups . In the United States , " Fearless " debuted and peaked at number 9 on the Billboard Hot 100 and was</t>
+          <t>Emin Xhinovci = Emin Xhinovci ( also spelled Gjinovci , Djinovci and Džinovci ; born c . 1959 ) is a retired Kosovo Liberation Army ( KLA ) insurgent and restaurant owner from Mitrovica known for his striking resemblance to Nazi leader Adolf Hitler . He immigrated to Germany in 1993 and settled in Düsseldorf , where he started an import-export business . In 1997 , he returned to Kosovo and later joined the KLA with the intention of helping separate the region from Yugoslavia . During his time as a guerrilla , he came to be known by the nickname " Hitler " because of his likeness to the Nazi leader . Following the Kosovo War , he settled in Mitrovica and opened a string of Nazi-themed restaurants that angered some NATO peacekeepers and were quickly closed . Xhinovci firmly believes that he is Hitler reincarnated and resorted to portraying the Nazi leader full-time in his public life , posing for pictures with locals , peacekeepers and tourists and charging between 20 and 80 euros per ph</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>war following german april training japanese division attack march assigned transferred november december command commander 2nd august battalion remained 1st personnel october heavy february service awarded fighting officer september june support july killed men machine raised honours 5th days 6th australian unit combat formed january offensive units germans officers staff formation commanding advance operation 7th positions action battalions moved reserve operations period patrols brigade infantry rest middle_east divisions casualties subsequently world overseas new_zealand returned relieved disbanded squadron 3rd headquarters forces strength elements australia undertook 4th divisional general new_guinea north_africa duties served involved germany lieutenant korean wounded artillery fire gallipoli advancing</t>
+          <t>['plants', 'plant', 'botanical', 'tree', 'camouflage', 'animals', 'organisms', 'animal', 'gardens', 'species', 'garden', 'tea', 'trees', 'ecology', 'predators']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Military career of Audie Murphy = The military career of Audie Murphy ( 20 June 1925 – 28 May 1971 ) encompassed two separate careers . His U. S. Army service covered nine World War II campaigns fought by the 3rd Infantry Division : Tunisia , Sicily , Naples-Foggia , Anzio , Rome-Arno , Southern France , Ardennes-Alsace , Rhineland and Central Europe . He lied about his age to enlist in the United States Army in 1942 . Before his 20th birthday he had earned every Army combat award for valor available during his period of service and had risen to the rank of first lieutenant . On the day he was awarded the Medal of Honor for his January 1945 actions at the Colmar Pocket in France , he was considered to be America 's most decorated World War II soldier and received national recognition as such when Life magazine made him their cover story . His superior officers , as well as the Speaker of the U. S. House of Representatives , encouraged him to apply for enrollment at West Point and offer</t>
+          <t xml:space="preserve">Fish = A fish is any member of a paraphyletic group of organisms that consist of all gill-bearing aquatic craniate animals that lack limbs with digits . Included in this definition are the living hagfish , lampreys , and cartilaginous and bony fish , as well as various extinct related groups . Most fish are ectothermic ( " cold-blooded " ) , allowing their body temperatures to vary as ambient temperatures change , though some of the large active swimmers like white shark and tuna can hold a higher core temperature . Fish are abundant in most bodies of water . They can be found in nearly all aquatic environments , from high mountain streams ( e.g. , char and gudgeon ) to the abyssal and even hadal depths of the deepest oceans ( e.g. , gulpers and anglerfish ) . With 33,100 described species , fish exhibit greater species diversity than any other group of vertebrates . Fish are an important resource for humans worldwide , especially as food . Commercial and subsistence fishers hunt fish </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wehrmacht forces for the Ardennes Offensive = This is a sub-article of Battle of the Bulge The Wehrmacht forces for the Ardennes Offensive were the product of a German recruitment effort targeting German males between the ages of 16 and 60 , to replace troops lost during the past five months of fighting the Western Allies on the Western Front . Although the Wehrmacht ( German Armed Forces ) was keeping the Allied forces contained along the Siegfried Line , the campaign had cost the Wehrmacht nearly 750,000 casualties , mostly irreplaceable . However , the rapid advance of the Allied armies in August and September after Operation Overlord had created a supply problem for the Allies . By October , the progress of the Western Allies ' three army groups had slowed considerably , allowing the Germans to partly rebuild their strength and prepare for the defense of Germany itself . The German leader , Adolf Hitler , decided that the only way to reverse his fortunes would be to launch a counte</t>
+          <t>Ecology = Ecology ( from Greek : οἶκος , " house " , or " environment " ; -λογία , " study of " ) is the scientific analysis and study of interactions among organisms and their environment . It is an interdisciplinary field that includes biology , geography , and Earth science . Ecology includes the study of interactions organisms have with each other , other organisms , and with abiotic components of their environment . Topics of interest to ecologists include the diversity , distribution , amount ( biomass ) , and number ( population ) of particular organisms , as well as cooperation and competition between organisms , both within and among ecosystems . Ecosystems are composed of dynamically interacting parts including organisms , the communities they make up , and the non-living components of their environment . Ecosystem processes , such as primary production , pedogenesis , nutrient cycling , and various niche construction activities , regulate the flux of energy and matter throug</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>George Ingram = George Morby Ingram , VC , MM ( 18 March 1889 – 30 June 1961 ) was an Australian recipient of the Victoria Cross , the highest decoration for gallantry " in the face of the enemy " that can be awarded to members of the British and Commonwealth armed forces . Ingram became Australia 's final recipient of the Victoria Cross during the First World War following his actions during an attack on the village of Montbrehain in France . Leading a platoon during the engagement , he instigated several charges against a number of German strong points that eventuated in the seizure of ten machine guns and sixty-two prisoners , as well as inflicting high casualties . Born in the Victorian town of Bendigo , Ingram was apprenticed as a carpenter and joiner upon leaving school . Joining the militia at the age of fourteen , he later settled in Melbourne where he worked as a building contractor . Following the outbreak of the First World War , Ingram enlisted in the Australian Naval and M</t>
+          <t xml:space="preserve">Desert = A desert is a barren area of land where little precipitation occurs and consequently living conditions are hostile for plant and animal life . The lack of vegetation exposes the unprotected surface of the ground to the processes of denudation . About one third of the land surface of the world is arid or semi-arid . This includes much of the polar regions where little precipitation occurs and which are sometimes called polar deserts or " cold deserts " . Deserts can be classified by the amount of precipitation that falls , by the temperature that prevails , by the causes of desertification or by their geographical location . Deserts are formed by weathering processes as large variations in temperature between day and night put strains on the rocks which consequently break in pieces . Although rain seldom occurs in deserts , there are occasional downpours that can result in flash floods . Rain falling on hot rocks can cause them to shatter and the resulting fragments and rubble </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ernest R. Kouma = Ernest Richard Kouma ( November 23 , 1919 – December 19 , 1993 ) was a soldier in the United States Army during World War II and the Korean War . He rose to the rank of Master Sergeant and received the Medal of Honor for his actions on August 31 and September 1 , 1950 , during the Second Battle of Naktong Bulge in South Korea . Born in Nebraska , Kouma grew up on a family farm before enlisting in the US Army in 1940 . Kouma served as a tank commander during World War II , seeing combat in Germany with the 9th Armored Division from 1944 to 1945 . After that war , Kouma served as part of the occupation force in South Korea and Japan . On the outbreak of the Korean War , Kouma commanded an M26 Pershing tank in the 2nd Infantry Division . While fighting during the Battle of Pusan Perimeter along the Naktong River , Kouma commanded his tank as it single-handedly fended off repeated North Korean attempts to cross the river after units around it had withdrawn . Wounded twice</t>
+          <t>Plant defense against herbivory = Plant defense against herbivory or host-plant resistance ( HPR ) describes a range of adaptations evolved by plants which improve their survival and reproduction by reducing the impact of herbivores . Plants can sense being touched , and they can use several strategies to defend against damage caused by herbivores . Many plants produce secondary metabolites , known as allelochemicals , that influence the behavior , growth , or survival of herbivores . These chemical defenses can act as repellents or toxins to herbivores , or reduce plant digestibility . Other defensive strategies used by plants include escaping or avoiding herbivores in any time and / or any place , for example by growing in a location where plants are not easily found or accessed by herbivores , or by changing seasonal growth patterns . Another approach diverts herbivores toward eating non-essential parts , or enhances the ability of a plant to recover from the damage caused by herbiv</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Long Range Desert Group = The Long Range Desert Group ( LRDG ) was a reconnaissance and raiding unit of the British Army during the Second World War . Originally called the Long Range Patrol ( LRP ) , the unit was founded in Egypt in June 1940 by Major Ralph A. Bagnold , acting under the direction of General Archibald Wavell . Bagnold was assisted by Captain Patrick Clayton and Captain William Shaw . At first the majority of the men were from New Zealand , but they were soon joined by Southern Rhodesian and British volunteers , whereupon new sub-units were formed and the name was changed to the better-known Long Range Desert Group ( LRDG ) . The LRDG never numbered more than 350 men , all of whom were volunteers . The LRDG was formed specifically to carry out deep penetration , covert reconnaissance patrols and intelligence missions from behind Italian lines , although they sometimes engaged in combat operations . Because the LRDG were experts in desert navigation they were sometimes a</t>
+          <t>Hartford City Glass Company = Hartford City Glass Company was among the top three window glass manufacturers in the United States between 1890 and 1899 , and continued to be one of the nation 's largest after its acquisition . It was also the country 's largest manufacturer of chipped glass , with capacity double that of its nearest competitor . The company 's works was the first of eight glass plants that existed in Hartford City , Indiana during the Indiana Gas Boom . It became the city 's largest manufacturer and employer , peaking with 600 employees . Many of the skilled workers employed at the Hartford City Glass Company were from Belgium , at the time the world ’ s leading manufacturer of window glass . The Belgian workers and their families accounted for over one-third of Hartford City 's population during the 1890s , and lived on the city 's south side . Because of the importance of the French-speaking Belgians , one of the local newspapers featured articles in French . In 1899</t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rainfall meteorological preparations watch florida flooding damage winds hurricane issued reported rain landfall mexico usd rains warnings sustained caused wave homes category storm national_hurricane_center flooded flash affected mbar heavy louisiana tides waves hours causing occurred inland gulf_of_mexico evacuated washed shelters warning nhc caribbean_sea saffir offshore eye mph gusts gale estimated remnants watches crops coast destroyed intensity attained ashore downed totaled minimal advised beach coastline reports southeastern strong status portions hundreds tracked surge inhg weakened disaster utc simpson atlantic_ocean impact rapidly rough gradually damaged extratropical coastal drowned hpa bahamas worst wind bermuda evacuation seas peak strongest circulation moderate resulting dropped northwestward</t>
+          <t>['phillies', 'inning', 'yankees', 'dodgers', 'teams', 'breaker', 'giants', 'mlb', 'tie', 'yankee', 'postseason', 'game', 'run', 'pitcher', 'baseball']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hurricane Josephine ( 1984 ) = Hurricane Josephine was a long-lived Atlantic hurricane that threatened the East Coast of the United States for several days in October 1984 . The fifteenth tropical cyclone , tenth named storm , and third hurricane of the season , Josephine developed from an area of disturbed weather near the Bahamas on October 7 , forming with subtropical characteristics . It quickly organized , and gained tropical characteristics as it strengthened into a tropical storm on October 8 . Gradual intensification occurred thereafter , reaching hurricane status on October 10 . The storm headed northward , remaining well offshore of the eastern United States . Josephine strengthened further and peaked as a moderately strong Category 2 hurricane on the Saffir-Simpson Hurricane Scale on October 12 . On the following day , Josephine weakened back to a Category 1 hurricane before becoming nearly stationary . It later headed northeastward and paralleled the coast well offshore of </t>
+          <t>2007 National League Wild Card tie-breaker game = The 2007 National League wild-card tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 2007 regular season , played between the San Diego Padres and Colorado Rockies of the National League 's ( NL ) West Division to determine the NL wild card . It was played at Coors Field in Denver , Colorado , on October 1 , 2007 . The Rockies won the game 9 – 8 in thirteen innings on a controversial play at home plate . The game was necessary after both teams finished the season with identical win – loss records of 89 – 73 . The Rockies won a coin flip late in the season , which awarded them home field for the game . Upon winning , the Rockies advanced to the NL Division Series where they swept the Philadelphia Phillies . After advancing , they swept the Arizona Diamondbacks in the NL Championship Series , winning their first pennant in franchise history . However , the Rockies were , in turn , swept in the 2007 World Series</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1909 Monterrey hurricane = The 1909 Monterrey hurricane was one of the deadliest Atlantic tropical cyclones on record , killing an estimated 4,000 people throughout Mexico . Originating from a tropical storm east of the Leeward Islands on August 20 , the storm tracked west-northwest , entering the Caribbean Sea as a minimal hurricane the next day . After striking Hispaniola on August 23 , the hurricane made another landfall in eastern Cuba before reentering the Caribbean . Once back over open water , the storm intensified into a Category 3 hurricane and moved across the northern tip of the Yucatán Peninsula . By August 26 , the storm had emerged into the Gulf of Mexico as a weakened , but regrouping system . It attained its peak winds of 120 mph ( 185 km / h ) that evening . Maintaining this intensity , the system made landfall in the Mexican state of Tamaulipas late on August 27 and rapidly dissipated the following afternoon . Throughout its existence , the hurricane remained relative</t>
+          <t>2008 Philadelphia Phillies season = The Philadelphia Phillies ' 2008 season was the 126th in the history of the franchise . The team finished with a regular season record of 92 – 70 , first in the National League East . In the post-season , the Phillies won the World Series ; this was the first major sports championship for Philadelphia since the 76ers swept the 1983 NBA Finals . During the season , they were managed by Charlie Manuel . The Phillies opened the season by posting their first winning April since 2003 . They also scored 60 runs over 5 games in late May in a sweep over the Colorado Rockies and accrued a 14 – 4 record over 18 games entering the month of June . The Phillies ' performance declined in late June , but they improved after the All-Star break , going 9 – 6 immediately following the midseason hiatus . Closer Brad Lidge earned eight saves in those games , and did not blow a save throughout the season and the postseason . Philadelphia traded sweeps with the Los Angele</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hurricane Danny ( 2015 ) = Hurricane Danny in August 2015 was the first major hurricane to develop between the Lesser Antilles and Western Africa since Hurricane Julia in 2010 . The hurricane originated from a well-defined tropical wave that emerged over the Atlantic Ocean on August 14 . Traveling west , the system gradually coalesced into a tropical depression by August 18 . After becoming a tropical storm later that day , dry air slowed further development . On August 20 – 21 , dry air became removed from the system , and Danny rapidly intensified into a Category 3 on the Saffir – Simpson hurricane wind scale . Its peak was short-lived as wind shear soon increased and prompted significant weakening . Degrading to a tropical storm by August 23 , Danny approached the Lesser Antilles . It degenerated into a tropical wave as it traversed the archipelago on August 24 and was last noted over Hispaniola the following day . The hurricane prompted the issuance of several tropical storm warnin</t>
+          <t>Cody Ross = Cody Joseph Ross ( born December 23 , 1980 ) , nicknamed " Toy Cannon " and " Ross the Boss , " is a former American professional baseball outfielder . He is 5 feet 10 inches ( 1.78 m ) tall and weighs 195 pounds ( 88 kg ) . Ross has played in MLB for the Detroit Tigers ( 2003 ) , Los Angeles Dodgers ( 2005 – 2006 ) , Cincinnati Reds ( 2006 ) , Florida Marlins ( 2006 – 2010 ) , San Francisco Giants ( 2010 – 2011 ) , Boston Red Sox ( 2012 ) , Arizona Diamondbacks ( 2013 – 2014 ) and Oakland Athletics ( 2015 ) . He is one of the few Major League players to bat right-handed but throw left-handed . Following high school , Ross embarked on his professional career , getting selected by the Detroit Tigers in the fourth round of the 1999 Major League Baseball draft . He reached the Major Leagues in 2003 , but suffered a torn ACL which caused him to miss most of September . He was traded to the Los Angeles Dodgers following spring training in 2004 , appearing in a handful of games w</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1942 Belize hurricane = The 1942 Belize hurricane was the only known hurricane to strike Belize in the month of November . The thirteenth observed tropical cyclone , eleventh tropical storm , and fourth hurricane of the 1942 Atlantic hurricane season , this storm was detected in the vicinity of Turks and Caicos Islands on November 5 . Initially a tropical storm , it strengthened slowly while moving westward and then south-southwestward across the Bahamas . On November 6 , the storm became a Category 1 hurricane on the modern day Saffir – Simpson hurricane wind scale . Later that day , it made landfall in Cayo Romano , Camagüey Province , Cuba . Impact in Cuba and the Bahamas was limited to lower barometric pressure readings and strong winds . While crossing Cuba , the system weakened to a tropical storm early on November 7 , shortly before emerging into the Caribbean Sea . The storm re-strengthened into a hurricane later that day and headed southwestward . Late on November 8 , this sys</t>
+          <t>Brian Wilson ( baseball ) = Brian Patrick Wilson ( born March 16 , 1982 ) is a former American professional baseball relief pitcher . He has pitched in Major League Baseball ( MLB ) for the San Francisco Giants and Los Angeles Dodgers . He stands 6 feet 2 inches ( 1.88 m ) tall and weighs 205 pounds ( 93 kg ) . He throws and bats right-handed . He throws a four-seam fastball , a cutter , a slider , and a two-seam fastball . Wilson pitched collegiately at Louisiana State University . His college career ended during his junior season , when he injured his elbow and underwent Tommy John surgery . The San Francisco Giants selected him in the 2003 draft . He reached the major leagues in 2006 and had become the Giants ' regular closer by the end of 2007 . In 2010 , he led the National League ( NL ) with 48 saves and posted a 1.81 ERA , and he saved clinching games at every level of the playoffs , including the World Series . In the first week of the 2012 season , Wilson injured his elbow and</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tropical Storm Laura ( 2008 ) = Tropical Storm Laura was a large but short-lived tropical cyclone that developed over the north-central Atlantic Ocean in late September during the 2008 Atlantic hurricane season . The 12th named storm of the season , Laura formed out of a large extratropical area of low pressure located about 1015 miles ( 1635 km ) west of the Azores on September 29 . Laura slowly developed tropical characteristics throughout the day as it moved over warmer waters . On the afternoon of September 30 , Laura had acquired enough tropical characteristics to be designated a Tropical Storm . Shortly after being declared tropical , Laura began to undergo an extratropical transition , which did not fully take place until the morning of October 1 . Laura degenerated into a post-tropical cyclone later that morning , and the final advisory by the National Hurricane Center was issued . The remnants of Laura contributed to heavy rainfall and power outages in the British Isles , the </t>
+          <t>Hitting for the cycle = In baseball , hitting for the cycle is the accomplishment of one batter hitting a single , a double , a triple , and a home run in the same game . Collecting the hits in that order is known as a " natural cycle " . Cycles are rare in Major League Baseball ( MLB ) , and have occurred only 309 times since the first by Curry Foley in 1882 . The most recent example was accomplished by Rajai Davis of the Cleveland Indians on July 2 , 2016 , against the Toronto Blue Jays . To this day , the Miami Marlins are the only MLB franchise who have never had a player perform the feat . Nine days earlier , just a few weeks after his Texas Rangers teammate Shin Soo Choo hit for the cycle on July 21 , 2015 , against the Colorado Rockies , Adrián Beltré hit for the cycle on August 3 , 2015 , against the Houston Astros . With the cycle hit on August 3 , 2015 , Beltre became only the fourth ever MLB player to hit for the cycle three times , and the only baseball player to hit for th</t>
         </is>
       </c>
     </row>
@@ -1841,32 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rating office jim dwight episode aired nbc watching nielsen michael pam share rated viewed ratings andy directed broadcast mulder viewers noting guest references files demographic scully agents olds plot tells tries enjoyed television liz households ages employees ign david_duchovny angela rainn_wilson scranton gets fictional dana_scully steve_carell john_krasinski funny comedy lives watched reviews dunder mifflin fbi paranormal credit fox_mulder ultimately trying gillian_anderson jenna deleted camera jenna_fischer documentary says stars talking x-files getting realizes mifflin_paper_company moments finds job michael_scott linked ed_helms calling everyday jim_halpert guide saturday reference aged entry asks depicts favorite cbs dwight_schrute ryan calls decides adults creator alan_sepinwall jan oscar</t>
+          <t>['painting', 'paintings', 'art', 'artist', 'serbian', 'works', 'marie', 'exhibition', 'copenhagen', 'photography', 'photographers', 'canvas', 'painted', 'symphony', 'portrait']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The Convict = " The Convict " is the ninth episode of the third season of the American comedy television series The Office , and the show 's 37th overall . It first aired on November 30 , 2006 in the United States on NBC . The episode was the series ' only original script written by Ricky Gervais and Stephen Merchant , who are the creators of the original British comedy series of the same name . It was directed by Jeffrey Blitz , his first such credit of the series . The series depicts the everyday lives of office employees in the Scranton and Stamford branches of the fictional Dunder Mifflin Paper Company . In this episode , Michael Scott ( Steve Carell ) discovers that an employee named Martin Nash ( Wayne Wilderson ) , who came with the branches ' recent merger , was previously in prison . Michael becomes frustrated when Martin 's stories of prison sound better than working in the office . Meanwhile , Jim Halpert ( John Krasinski ) plays a prank on Pam Beesly ( Jenna Fischer ) by gi</t>
+          <t>Mariana ( poem ) = " Mariana " is a poem by Alfred , Lord Tennyson , published in 1830 . The poem follows a common theme in much of Tennyson 's work — that of despondent isolation . The subject of Mariana is a woman who continuously laments her lack of connection with society . The isolation defines her existence , and her longing for a connection leaves her wishing for death at the end of every stanza . The premise of Mariana originates in William Shakespeare 's Measure for Measure , but the poem ends before Mariana 's lover returns . Tennyson 's version was adapted by others , including John Everett Millais and Elizabeth Gaskell , for use in their own works . The poem was well received by critics , and it is described by critics as an example of Tennyson 's skill at poetry . = = Background = = Tennyson wrote Mariana in 1830 and printed it within his early collection Poems , Chiefly Lyrical . Previously , he contributed poems to the work Poems by Two Brothers ( 1827 ) , where his earl</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jackie Jormp-Jomp = " Jackie Jormp-Jomp " is the eighteenth episode of the third season of the American television series 30 Rock . It was directed by series producer Don Scardino , and written by executive story editor Kay Cannon and script co-coordinator Tracey Wigfield . The episode originally aired on the National Broadcasting Company ( NBC ) in the United States on April 16 , 2009 . Guest stars in the episode include Todd Buonopane , Kerry Butler , Danielle Flora , Mary Catherine Garrison , Christina Gausas , and Elizabeth Marvel . In the episode , Liz Lemon ( Tina Fey ) meets a new group of friends ( Butler , Garrison , Gausas , and Marvel ) while on suspension from work . Meanwhile , Jack Donaghy ( Alec Baldwin ) is worried that Jenna Maroney 's ( Jane Krakowski ) Janis Joplin biographical film will not get released and tries to promote the movie at the Kids ' Choice Awards . However , following a mix-up , the world believes Jenna is dead and Jack tries to use her death to furth</t>
+          <t>Getty Center = The Getty Center , in Los Angeles , California , is a campus of the Getty Museum and other programs of the Getty Trust . The $ 1.3 billion Center opened to the public on December 16 , 1997 and is well known for its architecture , gardens , and views overlooking Los Angeles . The Center sits atop a hill connected to a visitors ' parking garage at the bottom of the hill by a three-car , cable-pulled hovertrain funicular . Located in the Brentwood neighborhood of Los Angeles , the Center is one of two locations of the J. Paul Getty Museum and draws 1.3 million visitors annually . ( The other location is the Getty Villa in the Pacific Palisades neighborhood of Los Angeles , California . ) The Center branch of the Museum features pre-20th-century European paintings , drawings , illuminated manuscripts , sculpture , and decorative arts ; and 19th- and 20th-century American , Asian , and European photographs . In addition , the Museum ’ s collection at the Center includes outdo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Inner Circle ( The Office ) = " The Inner Circle " is the twenty-third episode of the seventh season of the American comedy television series The Office and the show 's 149th episode overall . The episode originally aired on May 5 , 2011 , on NBC . The episode also marked Will Ferrell 's final appearance as Deangelo , having signed up for four episodes . Cody Horn also makes her first guest appearance for the series as Jordan Garfield . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In this episode , new office manager Deangelo begins picking favorites among the staff , revealing his true management style . After he only picks men to join his " inner circle " , many of the female staffers begin to believe he is sexist . The episode was written by Charlie Grandy and directed by Matt Sohn . The episode marks the first episode since Steve Carell left the series as a series regular . " The </t>
+          <t>Kim Ki-young = Kim Ki-young ( October 10 , 1919 – February 5 , 1998 ) was a South Korean film director , known for his intensely psychosexual and melodramatic horror films , often focusing on the psychology of their female characters . Kim was born in Seoul during the colonial period , raised in Pyongyang , where he became interested in theater and cinema . In Korea after the end of World War II , he studied dentistry while becoming involved in the theater . During the Korean War , he made propaganda films for the United States Information Service . In 1955 , he used discarded movie equipments to produce his first two films . With the success of these two films Kim formed his own production company and produced popular melodramas for the rest of the decade . Kim Ki-young 's first expression of his mature style was in his The Housemaid ( 1960 ) , which featured a powerful femme fatale character . It is widely considered to be one of the best Korean films of all time . After a " Golden A</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The Collection ( 30 Rock ) = " The Collection " is the third episode of NBC 's second season of 30 Rock , and the twenty-fourth episode overall . It was written by producer Matt Hubbard and directed by producer Don Scardino , and first aired on October 18 , 2007 in the United States . In the episode , Jack Donaghy ( Alec Baldwin ) hires a private detective , Len ( Steve Buscemi ) , to investigate his past ; Angie Jordan ( Sherri Shepherd ) asks Liz Lemon ( Tina Fey ) to help her watch Tracy Jordan ( Tracy Morgan ) ; and Kenneth Parcell ( Jack McBrayer ) attempts to help Jenna Maroney ( Jane Krakowski ) gain weight by insulting her . The episode features a reference to Studio 60 on the Sunset Strip , which was compared to 30 Rock because of their similar premise . This is a recurring element in the series , as well as references to other aspects of popular culture . " The Collection " received generally positive reviews , however several critics expressed their concern over the misuse o</t>
+          <t>Stuckism = Stuckism is an international art movement founded in 1999 by Billy Childish and Charles Thomson to promote figurative painting as opposed to conceptual art . By July 2012 the initial group of 13 British artists had expanded to 233 groups in 52 countries . Childish and Thomson have issued several manifestos . The first one was The Stuckists , consisting of 20 points starting with " Stuckism is a quest for authenticity " . Remodernism , the other well-known manifesto of the movement , is a criticism of postmodernism ; it aims to get back to the true spirit of modernism , to produce art with spiritual value regardless of style , subject matter or medium . In another manifesto they define themselves as anti-anti-art which is against anti-art and for art . After exhibiting in small galleries in Shoreditch , London , the Stuckists ' first show in a major public museum was held in 2004 at the Walker Art Gallery , as part of the Liverpool Biennial . The group has demonstrated annual</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Free Family Portrait Studio = " Free Family Portrait Studio " is the twenty-fourth episode and season finale of the eighth season of the American comedy television series The Office , and the show 's 176th episode overall . The episode originally aired on NBC on May 10 , 2012 . " Free Family Portrait Studio " was written and directed by B. J. Novak , who also wrote and directed the season premiere " The List " . The episode guest stars Andy Buckley , Jack Coleman , Sendhil Ramamurthy , Jerry Minor , and Michael Schur . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , David Wallace ( Andy Buckley ) helps Andy Bernard ( Ed Helms ) go undercover and stage a coup , and a new opportunity arises for Robert California ( James Spader ) . " Free Family Portrait Studio " received mixed reviews from critics , with many noting that the epi</t>
+          <t>Louvre = The Louvre or the Louvre Museum ( French : Musée du Louvre , pronounced : [ myze dy luvʁ ] ) ( French ) is the world 's largest museum and a historic monument in Paris , France . A central landmark of the city , it is located on the Right Bank of the Seine in the 1st arrondissement ( ward ) . Nearly 35,000 objects from prehistory to the 21st century are exhibited over an area of 60,600 square metres ( 652,300 square feet ) . The Louvre is the world 's second most visited museum after the Palace Museum in China , receiving more than 9.26 million visitors in 2014 . The museum is housed in the Louvre Palace , originally built as a fortress in the late 12th century under Philip II . Remnants of the fortress are visible in the basement of the museum . The building was extended many times to form the present Louvre Palace . In 1682 , Louis XIV chose the Palace of Versailles for his household , leaving the Louvre primarily as a place to display the royal collection , including , from</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>species small female large male found larger size long shark dorsal head adult waters body range eyes sharks females males fins fin mainly upper feeding caught eggs adults prey black predators length lower genus populations tail habitat pectoral shallow fisheries reef bird fishes juveniles individuals marine birds water teeth sea food likely fish common skin taxonomy highly concern nest spots tip fishing mouth egg feeds reproductive snout ray assessed mating smaller jaw occurs bony animals sexual feed caudal aggressive juvenile predator pairs threatened reproduction threat tooth relatively description embryos ventral mature jaws animal subspecies usually observed anal yolk habitats catch</t>
+          <t>['spacecraft', 'apollo', 'nasa', 'orbit', 'mission', 'lunar', 'launch', 'saturn', 'docking', 'flight', 'manned', 'module', 'space', 'landing', 'earth']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malacostraca = Malacostraca is the largest of the six classes of crustaceans , containing about 40,000 living species , divided among 16 orders . Its members , the malacostracans , display a great diversity of body forms and include crabs , lobsters , crayfish , shrimp , krill , woodlice , scuds ( Amphipoda ) , mantis shrimp and many other less familiar animals . They are abundant in all marine environments and have colonised freshwater and terrestrial habitats . They are segmented animals , united by a common body plan comprising 20 body segments ( rarely 21 ) , and divided into a head , thorax , and abdomen . = = Etymology = = The name Malacostraca was coined by the French zoologist Pierre André Latreille in 1802 . He was curator of the arthropod collection at the National Museum of Natural History in Paris . The name comes from the Greek roots μαλακός ( malakós , meaning " soft " ) and ὄστρακον ( óstrakon , meaning " shell " ) . The name is misleading , since the shell is only soft </t>
+          <t>Beatrice Hicks = Beatrice Alice Hicks ( January 2 , 1919 – October 21 , 1979 ) was an American engineer , the first woman engineer to be hired by Western Electric , and both co-founder and first president of the Society of Women Engineers . Despite entering the field at a time where engineering was seen as an inappropriate career for a woman , Hicks held a variety of leadership positions and eventually became the owner of an engineering firm . During her time there , Hicks developed a gas density switch that would be used in the U.S. space program , including the Apollo moon landing missions . = = Early life = = Beatrice Hicks was born in 1919 in Orange , New Jersey , to William Lux Hicks , a chemical engineer , and Florence Benedict . Hicks decided at an early age that she wished to be an engineer . While her parents neither supported nor opposed Hicks ' desired career path , some of her teachers and classmates tried to discourage her from becoming an engineer , viewing it as a social</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flatworm = The flatworms , flat worms , Platyhelminthes , Plathelminthes , or platyhelminths ( from the Greek πλατύ , platy , meaning " flat " and ἕλμινς ( root : ἑλμινθ- ) , helminth- , meaning " worm " ) are a phylum of relatively simple bilaterian , unsegmented , soft-bodied invertebrates . Unlike other bilaterians , they are acoelomates ( having no body cavity ) , and have no specialized circulatory and respiratory organs , which restricts them to having flattened shapes that allow oxygen and nutrients to pass through their bodies by diffusion . The digestive cavity has only one opening for both ingestion ( intake of nutrients ) and egestion ( removal of undigested wastes ) ; as a result , the food cannot be processed continuously . In traditional medicinal texts , Platyhelminthes are divided into Turbellaria , which are mostly non-parasitic animals such as planarians , and three entirely parasitic groups : Cestoda , Trematoda and Monogenea ; however , since the turbellarians have </t>
+          <t>Glen P. Robinson = Glen Parmelee Robinson , Jr . ( September 10 , 1923 – January 16 , 2013 ) , called the " father of high-tech industry in Georgia " , was an American businessman and founder of Scientific Atlanta , now a subsidiary of Cisco Systems . Robinson was the first employee of Scientific Atlanta , where he remained CEO then Chairman of the company until he retired . Initially a ham radio enthusiast and subsequently a graduate of the Georgia Institute of Technology ( Georgia Tech ) with both bachelor 's and master 's degrees in physics , Robinson worked at the Georgia Tech Research Institute and the Oak Ridge National Laboratory before founding Scientific Atlanta . Later in life , he founded and invested in numerous Atlanta-based science-related companies . Robinson was named an IEEE Fellow and held at least 39 patents in fields including solar energy devices and antenna systems . For his contributions , he was named Georgia 's Small Businessman of the Year in 1965 , the Georgi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gastrotrich = The gastrotrichs ( phylum Gastrotricha ) , commonly referred to as hairybacks , are a group of microscopic ( 0.06-3.0 mm ) , worm-like , pseudocoelomate animals , and are widely distributed and abundant in freshwater and marine environments . They are mostly benthic and live within the periphyton , the layer of tiny organisms and detritus that is found on the seabed and the beds of other water bodies . The majority live on and between particles of sediment or on other submerged surfaces , but a few species are terrestrial and live on land in the film of water surrounding grains of soil . Gastrotrichs are divided into two orders , the Macrodasyida which are marine ( except for two species ) , and the Chaetonotida , some of which are marine and some freshwater . Nearly eight hundred species of gastrotrich have been described . Gastrotrichs have a simple body plan with a head region , with a brain and sensory organs , and a trunk with a simple gut and the reproductive organs</t>
+          <t>Howard Sims = Howard " Sandman " Sims ( January 24 , 1917 – May 20 , 2003 ) was an African-American tap dancer who began his career in vaudeville . He was skilled in a style of dancing that he performed in a wooden sandbox of his own construction , and acquired his nickname from the sand he sprinkled to alter and amplify the sound of his dance steps . " They called the board my Stradivarius , " Sims said of his sandbox . From the 1950s to the year 2000 , Sims was a regular attraction — a " fixture " — at Harlem 's noted Apollo Theater , comedically ushering failed acts offstage with a hook , broom or other prop . He was also involved in New York City 's Hoofers Club , a venue primarily for Black tap dancers . As part of the resurgence of interest in tap dancing in the 1980s , Sandman Sims served as a cultural ambassador , representing the United States with dance performances around the world . He was featured in the 1989 dance film Tap , along with Sammy Davis Jr . , Gregory Hines and</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Varanus salvadorii = Varanus salvadorii is a monitor lizard found in New Guinea . It is also known by the common names crocodile monitor , Papua ( n ) monitor , Salvadori 's monitor and artellia . The largest monitor lizard in New Guinea , it is believed to be one of the longest lizards in the world , verified at up to 244 cm ( 8 ft ) , and in rare cases it may rival or exceed the length of the world 's largest lizard , the Komodo dragon . It is the sole member of the subgenus Papusaurus . V. salvadorii is an arboreal lizard with a dark green body and yellowish bands , a blunt snout and a very long tail . It lives in mangrove swamps and coastal rainforests in the southeastern part of the island , where it feeds on birds , small mammals , eggs , and carrion in the wild , using teeth better adapted than those of most monitors for seizing fast-moving prey . Like all monitors , it has anatomical features that enable it to breathe more easily when running than other lizards can , and V. sal</t>
+          <t>Really Achieving Your Childhood Dreams = " Really Achieving Your Childhood Dreams " ( also referred to as " The Last Lecture " ) was a lecture given by Carnegie Mellon University computer science professor Randy Pausch on September 18 , 2007 , that received a large amount of media coverage , and was the basis for The Last Lecture , a New York Times best-selling book co-authored with Wall Street Journal reporter Jeffrey Zaslow . Pausch had been diagnosed with pancreatic cancer in September 2006 . On September 19 , 2006 , Pausch underwent a pancreaticoduodenectomy to remove the malignant tumor from his pancreas . In August 2007 , after doctors discovered that the cancer had recurred , Pausch was given a terminal diagnosis and was told to expect a remaining three to six months of good health . During the lecture , Pausch was upbeat and humorous , alternating between wisecracks , insights on computer science and engineering education , advice on building multi-disciplinary collaborations ,</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ocellated electric ray = The ocellated electric ray or bullseye electric ray ( Diplobatis ommata ) is a species of electric ray in the family Narcinidae , native to the shallow inshore waters of the eastern central Pacific from the Gulf of California to Ecuador . Reaching 25 cm ( 9.8 in ) in length , this species has a rounded pectoral fin disc and pelvic fins with convex margins . Its short and thick tail bears two dorsal fins and terminates in a triangular caudal fin . The ocellated electric ray is named for the distinctive large eyespot on the middle of its disc , consisting of a black or yellow center surrounded by concentric rings . Its dorsal coloration is otherwise highly variable , ranging from plain to ornately patterned on a light to dark brown background . The front part of its disc is darker brown . Solitary and nocturnal in nature , the ocellated electric ray is a bottom-dweller found in sandy and rocky habitats . It moves along the bottom by " hopping " on its pelvic fins</t>
+          <t>Thunderbirds Are Go = Thunderbirds Are Go is a 1966 British science-fiction film based on Thunderbirds , a 1960s television series starring marionette puppets and featuring scale model effects in a filming process dubbed " Supermarionation " . Written by Thunderbirds creators Gerry and Sylvia Anderson , directed by David Lane and produced by AP Films , Thunderbirds Are Go develops the franchise with a plot focusing on the futuristic spacecraft Zero-X and its manned mission to Mars . When Zero-X suffers a mechanical failure during re-entry , it is up to International Rescue , with the aid of the Thunderbird machines , to save the astronauts on board before the spacecraft is obliterated in a crash landing . Filmed from March to June 1966 and premiering in December , Thunderbirds Are Go includes , in a first for an AP Films production , cameo appearances from puppets of real-life celebrities Cliff Richard and The Shadows , who also contributed to the musical score . It is also the first m</t>
         </is>
       </c>
     </row>
@@ -1911,32 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ride train coaster roller riders station steel trains lift operate hour brake drop themed officially cars passengers roll opened passenger foot operated attraction chain oslo norwegian services hill guests locomotive owned market rides locomotives plans height build tall flags amusement nok railway platform shoulder manufactured longest operating adventure car supports park planning travel layout tallest tunnel experience pier coasters queue bought ticket cedar poll seating attractions capacity vertical operates stock delivered announcement platforms purchase acquired norway facilities railways brand approximately opening installation drops attendance loop purchased products restraints installed freight seats allow reopened manufacturer store banked stations venue express axle</t>
+          <t>['contest', 'broadcaster', 'semi', 'countries', 'jury', 'final', 'participating', 'greece', 'voting', 'host', 'idol', 'entry', 'philippine', 'song', 'country']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS T1000 = T1000 and T1300 were two rapid transit train classes used on Oslo Metro in Oslo , Norway . The 197 cars were built by Strømmens Verksted , Norsk Elektrisk &amp; Brown Boveri and AEG between 1960 and 1981 . They were the first metro trains used in Oslo , and had remained in active use until being replaced by OS MX3000 trains in 2007 . Each car is equipped with a driver 's cab at one or both ends and four motors , each with 98 kilowatts ( 131 hp ) . The cars are 17 metres ( 56 ft ) long , 3.2 metres ( 10 ft ) wide and 3.65 metres ( 12.0 ft ) tall . The trains use 750 V current , and are capable of 70 kilometres per hour ( 43 mph ) . Signaling is provided through automatic train protection . In 1960 , two less powerful T single-car units were built , designed to be prototypes used on the Oslo Tramway . After a one-year trial , they were put into scheduled traffic to the Kolsås Line , where they remained in regular service until 1983 . The production series is somewhat different in </t>
+          <t>Fred Dyer = Fred Dyer born Frederick William O 'Dwyer ( 29 April 1888 – date of death unknown ) , was a Welsh boxing champion , boxing manager and baritone singer . Trained by vocal teacher Clara Novello Davies , Dyer was famed for singing to audiences after he had fought in a contest and was nicknamed ' The Singing Boxer ' . In 1913 Dyer was briefly Wales welterweight champion when he beat Jack Delaney , who won the belt back just six weeks later . During his professional career Dyer took two overseas tours , to Australia from 1914 to 1915 and the United States from 1916 to 1919 . Due to the time spent in Australia , he became eligible to contest for national titles , unsuccessfully challenging Les Darcy for the welterweight belt in 1915 . The highpoint of his time in America , then during the ' no decision ' era , was a win over Panama Joe Gans . Due to a knee injury , Dyer was refused active service during the First World War ; instead he was recruited into the United States Army as</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Roa – Hønefoss Line = The Roa – Hønefoss Line ( Norwegian : Roa – Hønefossbanen , formerly Roa – Hønefosslinjen ) is a 32-kilometer ( 20 mi ) long , single track railway line between Roa and Hønefoss in Norway . At Roa Station , the line connects to the Gjøvik Line , while at Hønefoss Station , it connects to the Randsfjorden Line and the Bergen Line . The line runs through Buskerud and Oppland and allowed the Bergen Line access to Oslo at Oslo East Station . The Line was built by the Norwegian State Railways ( NSB ) and opened on 1 December 1909 , along with the last part of the Bergen Line . The line was electrified in 1961 . Until 1989 , nearly all Oslo – Bergen trains used the line to terminate at Oslo East Station . It was also possible to reach Oslo from Hønefoss via the Randsfjord Line , albeit terminating at Oslo West Station . NSB also ran a local service between Hønefoss and Oslo along the Roa – Hønefoss Line . Oslo – Bergen trains ran via the Randsfjord Line after 1989 and l</t>
+          <t>Nigella Lawson = Nigella Lucy Lawson ( born 6 January 1960 ) is an English journalist , broadcaster , television personality , gourmet , and food writer . She is the daughter of Nigel Lawson , a former Chancellor of the Exchequer , and Vanessa ( née Salmon ) Lawson , whose family owned the J. Lyons and Co. food and catering business . After graduating from Lady Margaret Hall , Oxford University , Lawson started work as a book reviewer and restaurant critic , later becoming the deputy literary editor of The Sunday Times in 1986 . She then embarked upon a career as a freelance journalist , writing for a number of newspapers and magazines . In 1998 , she brought out her first cookery book , How to Eat , which sold 300,000 copies and became a best-seller . She wrote her second book in 2000 , How to Be a Domestic Goddess , which won her the British Book Award for Author of the Year . In 1999 , she hosted her own cooking show series , Nigella Bites , on Channel 4 , accompanied by another bes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Long Ashton railway station = Long Ashton railway station was a railway station on the Bristol to Exeter Line , 3.5 miles ( 5.6 km ) southwest of Bristol Temple Meads , serving the village of Long Ashton in North Somerset , England . There were two stations on the site , the first , called " Ashton " , opened in either 1841 or 1852 and closed in 1856 . The second station , originally known as " Long Ashton Platform " before being renamed as " Long Ashton " in 1929 , was operational from 1926 to 1941 . The site is now partly under the A370 Long Ashton Bypass . There is local support for the station to be reopened , possibly sited further to the west , and possibly as part of the University of Bristol 's proposed Fenswood Farm development . = = First station = = The Bristol and Exeter Railway was opened between Bristol Temple Meads and Bridgwater on 14 June 1841 , engineered by Isambard Kingdom Brunel and build originally as 7 ft ( 2,134 mm ) broad-gauge . A station named " Ashton " , se</t>
+          <t>Persona 3 The Movie : No. 1 , Spring of Birth = Persona 3 The Movie : # 1 Spring of Birth ( 劇場版 「 ペルソナ3 」 第１章 , Gekijōban Perusona 3 Dai Ichi Shō ) is a 2013 Japanese animated film and the first installment in a film series based on the Shin Megami Tensei : Persona 3 video game by Atlus . Directed by Noriaki Akitaya and written by Jun Kumagai , it is based on the original story by Atlus and distributed by Aniplex . It stars voice actors Akira Ishida , Megumi Toyoguchi , Kōsuke Toriumi , Rie Tanaka , Hikaru Midorikawa and Mamiko Noto . Set in 2009 , the film follows the exploits of transfer student Makoto Yuki who , upon moving to Iwatodai City , discovers the Shadow creatures which feed on human psyche during the Dark Hour midnight phenomenon . After awakening to an ability called Persona , Yuki finds himself intertwined in the battle against the Shadows with his new schoolmates . Development of the film was first announced in a teaser trailer during the limited theatrical release of P</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gardermoen Line = The Gardermoen Line ( Norwegian : Gardermobanen ) is a high-speed railway line between Oslo and Eidsvoll , Norway , running past Lillestrøm and Oslo Airport , Gardermoen . The line is 64 kilometres ( 40 mi ) long and replaced the older Hoved Line as the main line north-east of Oslo . The older Hoved Line now handles commuter and freight traffic , while the Gardermoen Line handles high-speed passenger trains and freight trains laden with jet fuel for the airport . Both lines are owned by the Norwegian National Rail Administration . The line was opened in 1998 , at the same time as the airport that gave the line its name . It is used by the Flytoget airport express train service as well as express trains by Norges Statsbaner . It is the only high-speed railway in the kingdom , with a maximum permitted speed of 210 km / h ( 130 mph ) . Most of the line between Oslo and Lillestrøm is through the 14,580-metre ( 47,830 ft ) long Romeriksporten tunnel — the longest railway t</t>
+          <t>Hilda Solis = Hilda Lucia Solis ( / soʊˈliːs / ; born October 20 , 1957 ) is an American politician and a member of the Los Angeles County Board of Supervisors for District 1 . Solis previously served as the 25th United States Secretary of Labor from 2009 to 2013 , as part of the administration of President Barack Obama . She is a member of the Democratic Party and served in the United States House of Representatives from 2001 to 2009 , representing the 31st and 32nd congressional districts of California that include East Los Angeles and the San Gabriel Valley . Solis was raised in La Puente , California , by immigrant parents from Nicaragua and Mexico . She gained degrees from the California State Polytechnic University , Pomona and the University of Southern California and worked for two federal agencies in Washington , D.C. Returning to her native state , she was elected to the Rio Hondo Community College Board of Trustees in 1985 , the California State Assembly in 1992 , and the Ca</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMB Class 71 = GMB Class 71 is an electric multiple unit used by Flytoget for the Airport Express Trains on the Gardermoen Line of Norway . Sixteen three-car train sets were built by Adtranz Strømmen between 1997 and 1998 . The units are capable of 210 km / h ( 130 mph ) , connecting Oslo Central Station and other stations in Metropolitan Oslo to the Oslo Airport , Gardermoen , along Norway 's only high-speed railway . In a three-car configuration , the units weigh 158 tonnes ( 156 long tons ; 174 short tons ) and are 82.3 metres ( 270 ft 0 in ) long , with a power output of 2,645 kW ( 3,547 hp ) . The units are similar to the NSB Class 73 , and are related to the Swedish X2 units . By 2009 , all units were expanded with a fourth car . = = Specifications = = The unit is based on the Swedish X2 designed by Kalmar Verkstad in the 1980s , and delivered from 1990 to the Swedish State Railways for use in their X 2000 high-speed intercity trains . Although the technology involved is similar </t>
+          <t xml:space="preserve">KevJumba = Kevin Wu ( traditional Chinese : 吳凱文 ; simplified Chinese : 吴凯文 ; pinyin : Wú Kǎiwén ) ( born June 12 , 1990 ) is an American blogger and former comedian and actor . He was a YouTube celebrity best known by his YouTube username of KevJumba . The San Francisco Chronicle 's Jeff Yang has noted that Wu is not a comedian in the conventional sense but that by " just talking [ he ] is , well , pretty hilarious " due to his deadpan vocal delivery , animated facial expressions and tendency toward unexpected digressions . Wu previously appeared on The CW Television Network 's short-lived Online Nation and co-starred with Jessica Lee Rose and Philip DeFranco in Hooking Up from HBOLabs ( the online arm of HBO ) in 2008 . In 2010 , Wu and his father , Michael , competed as a team on the 17th season of The Amazing Race , placing seventh out of eleven teams . In 2014 , Wu starred in crime drama film Revenge of the Green Dragons ( executive produced by Martin Scorsese ) . = = Background = </t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>building church stone wall built site listed roof windows century walls buildings tower 19th restoration corner chapel entrance interior structure memorial architect parish window constructed location house hall architecture floor grade temple decorated architectural nave designed surrounding monument chancel rebuilt remains exterior dedicated towers bell demolished sir room 16th brick 18th door castle arches erected masonry facing cathedral rooms carved stands style pier medieval date glass statue rector houses restored mosque surrounded oldest centuries originally cross foundation centre rectangular arch nearby metres square occupied dating block storey 17th stained topped marble altar structures housed architects porch installed slate font depicting</t>
+          <t>['lighthouse', 'light', 'keeper', 'tower', 'lens', 'keepers', 'concrete', 'connecticut', 'lamp', 'cottages', 'installed', 'constructed', 'lamps', 'island', 'iron']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wells Fargo Building ( Philadelphia ) = The Wells Fargo Building , originally the Fidelity-Philadelphia Trust Company Building , is a skyscraper in Center City , Philadelphia , Pennsylvania , United States . Designed in the Beaux-Arts style by the architectural firm Simon &amp; Simon , the building was erected for the Fidelity-Philadelphia Trust Co. in 1928 . The 29-story high-rise is listed on the National Register of Historic Places . The building was long regarded as premier office space , but by the 1980s , tenants were leaving for newer buildings in the West Market Street neighborhood . Extensive rehab work has since drawn new tenants . Its largest tenant has always been the Fidelity-Philadelphia Trust Company or its successor companies — today , Wells Fargo . The 405-foot ( 123 m ) limestone and granite skyscraper features recesses that give the building an H-shape above the fifth floor . Decorations include sculpture by Piccirilli Brothers and 150,000 square feet ( 14,000 m2 ) of ma</t>
+          <t>Lundy = Lundy is the largest island in the Bristol Channel . It lies 12 miles ( 19 km ) off the coast of Devon , England , about a third of the distance across the channel from Devon , England to South Wales . Lundy gives its name to a British sea area and is one of the islands of England . Lundy has been designated by Natural England as national character area 159 , one of England 's natural regions . In 2007 , Lundy had a resident population of 28 people , including volunteers . These include a warden , ranger , island manager and farmer , as well as bar and house-keeping staff . Most live in and around the village at the south of the island . Most visitors are day-trippers , although there are 23 holiday properties and a camp site for staying visitors , mostly also around the south of the island . In a 2005 opinion poll of Radio Times readers , Lundy was named as Britain 's tenth greatest natural wonder . The entire island has been designated as a Site of Special Scientific Interest</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cleeve Abbey = Cleeve Abbey is a medieval monastery located near the village of Washford , in Somerset , England . It is a Grade I listed building and has been scheduled as an ancient monument . The abbey was founded in the late twelfth century as a house for monks of the austere Cistercian order . Over its 350-year monastic history Cleeve was undistinguished amongst the abbeys of its order , frequently ill-governed and often financially troubled . The sole member of the community to achieve prominence was John Hooper , who became a bishop during the Reformation . In 1536 Cleeve was closed by Henry VIII in the course of the Dissolution of the Monasteries and the abbey was converted into a country house . Subsequently , the status of the site declined and the abbey was used as farm buildings until the latter half of the nineteenth century when steps were taken to conserve the remains . In the twentieth century Cleeve was taken into state care ; the abbey is now looked after by English H</t>
+          <t xml:space="preserve">River Weaver = The River Weaver is a river , navigable in its lower reaches , running in a curving route anti-clockwise across west Cheshire , northern England . Improvements to the river to make it navigable were authorised in 1720 and the work , which included eleven locks , was completed in 1732 . An unusual clause in the enabling Act of Parliament stipulated that profits should be given to the County of Cheshire for the improvement of roads and bridges , but the navigation was not initially profitable , and it was 1775 before the first payments were made . Trade continued to rise , and by 1845 , over £ 500,000 had been given to the county . The major trade was salt . The arrival of the Trent and Mersey Canal at Anderton in 1773 was detrimental to the salt trade at first , but ultimately beneficial , as salt was tipped down chutes from the canal into barges on the river navigation . Access to the river was improved in 1810 by the Weston Canal , which provided a link to Weston Point </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Upper Brook Street Chapel , Manchester = The Upper Brook Street Chapel , also known as the Islamic Academy , the Unitarian Chapel and the Welsh Baptist Chapel , is a former chapel with an attached Sunday School on the east side of Upper Brook Street , Chorlton-on-Medlock , Manchester , England . It is said to be the first neogothic Nonconformist chapel , having been constructed between 1837 and 1839 . It was designed by Sir Charles Barry , who later went on to design the Palace of Westminster . A listed building since 3 October 1974 ( currently Grade II * ) , it is owned by Manchester City Council and is on the Buildings at Risk Register , rated as " very bad " . It was partially demolished in 2006 . The Victorian Society recently placed the building on a list of ten most threatened buildings in England and Wales . = = History = = The chapel was designed by Sir Charles Barry , shortly before he designed the Palace of Westminster . It was constructed between 1837 and 1839 out of sandsto</t>
+          <t>108 St Georges Terrace = 108 St Georges Terrace or South32 Tower ( formerly known as Bankwest Tower , the Bond Tower and the R &amp; I Tower ) is a 50-storey office tower in Perth , Western Australia . Completed in 1988 , the building measures 214 metres ( 702 ft ) to its roof and 247 metres ( 810 ft ) to the tip of its communications antenna . It was the tallest building in Perth from its completion in 1988 until 1992 when it was overtaken in height by Central Park . As of 2012 , it remains the third-tallest building in the city . The concrete tower has a distinctive profile , with a triangular plan . The site occupied by the tower was home to the Palace Hotel , and organised opposition was formed to try to save that building from demolition to make way for an office tower . The site was subsequently acquired by businessman Alan Bond and the tower was approved and constructed in a plan that would retain much of the Palace Hotel . The tower then remained the headquarters of Bond 's compani</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Christ Church , Newton = Christ Church , Newton , also known as Christ Episcopal Church , is a Christian house of worship located on the corner of Church Street and Main Street ( U.S. Route 206 ) in Newton , New Jersey . It is a parish overseen by the Episcopal Diocese of Newark , a diocese of the Episcopal Church in the United States of America . The congregation first met on 28 December 1769 and was granted a charter by New Jersey 's last Royal Governor William Franklin on behalf of Britain 's King George III . Christ Church is the oldest church in Newton and the third oldest parish in the Diocese of Newark . The current church building , erected in 1868 – 1869 , is the second structure built at the site , and is an example of the Broken Ashlar or Rustic mode of Gothic Revival architecture patterned after medieval English parish churches . The interior nave features several stained-glass windows depicting scenes from the life of Jesus of Nazareth fabricated by J &amp; R Lamb Studios . On</t>
+          <t>Alcatraz Federal Penitentiary = The Alcatraz Federal Penitentiary or United States Penitentiary , Alcatraz Island ( often just referred to as Alcatraz ) was a maximum high-security federal prison on Alcatraz Island , 1.25 miles ( 2.01 km ) off the coast of San Francisco , California , USA , which operated from 1934 to 1963 . The main prison building was built in 1910 – 12 during its time as a United States Army military prison ; Alcatraz had been the site of a citadel since the 1860s . The United States Disciplinary Barracks , Pacific Branch on Alcatraz was acquired by the United States Department of Justice on October 12 , 1933 , and the island became a prison of the Federal Bureau of Prisons in August 1934 after the buildings were modernized to meet the requirements of a top-notch security prison . Given this high security and the location of Alcatraz in the cold waters and strong currents of San Francisco Bay , the prison operators believed Alcatraz to be escape-proof and America 's</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Doune Castle = Doune Castle is a medieval stronghold near the village of Doune , in the Stirling district of central Scotland . The castle is sited on a wooded bend where the Ardoch Burn flows into the River Teith . It lies 8 miles ( 13 km ) north-west of Stirling , where the Teith flows into the River Forth . Upstream , 8 miles ( 13 km ) further north-west , the town of Callander lies at the edge of the Trossachs , on the fringe of the Scottish Highlands . Recent research has shown that Doune Castle was originally built in the thirteenth century , then probably damaged in the Scottish Wars of Independence , before being rebuilt in its present form in the late 14th century by Robert Stewart , Duke of Albany ( c.1340 – 1420 ) , the son of King Robert II of Scotland , and Regent of Scotland from 1388 until his death . Duke Robert 's stronghold has survived relatively unchanged and complete , and the whole castle was traditionally thought of as the result of a single period of constructio</t>
+          <t>Gregorian Tower = The Gregorian Tower ( Italian : Torre Gregoriana ) or Tower of the Winds ( Italian : Torre dei Venti ) is a round tower located above the Gallery of Maps , which connects the Villa Belvedere with the Apostolic Palace in Vatican City . The tower was built between 1578 and 1580 to a design by the Bolognese architect Ottaviano Mascherino ( who was credited with building the Apostolic Palace ) mainly to promote the study of astronomy for the Gregorian Calendar Reform which was commissioned by Pope Gregory XIII and promulgated in 1582 . It was then also known as the Tower of Winds . The tower is now called the " Specola Astronomica Vaticana " , the Vatican Observatory . Four stages of progressive development have occurred since it was first established . The tower was an edifice of great value for astronomical observations made using a sundial as they provided essential confirmation of the need to reform the Julian calendar . = = Early history = = The first stage of buildi</t>
         </is>
       </c>
     </row>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>battle men army troops french command general british sent attack soldiers forces wounded killed commanded camp siege retreat captured advance garrison arrived aftermath retreated supplies expedition ordered casualties force fire cavalry capture americans fort losses militia colonel news arrival fought flank fleet advanced wars armies surrender action marched infantry continental_army commander captain orders withdrew artillery occupied reinforcements suffered howe companies new_york enemy led guard battles defeat engagement crossed washington persian frigate revolutionary austrians left assault sailed surrendered regiments raid marching rhine learned defenders retreating allies fight column invasion musket engaged eventually hms quebec surprise loyalist attempt taken frigates decided landed</t>
+          <t>['ben', 'survivors', 'shannon', 'island', 'freighter', 'charlotte', 'bernard', 'michael', 'plane', 'daniel', 'tom', 'frank', 'dave', 'kate', 'oceanic']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Siege of Krujë ( 1450 ) = The first Siege of Krujë occurred in 1450 when an Ottoman army of approximately 100,000 men laid siege to the Albanian town of Krujë . The League of Lezhë , led by Skanderbeg , experienced low morale after losing Svetigrad and Berat between 1448 and 1450 . Nevertheless , Skanderbeg 's exhortations and the support of the clergy , who claimed to have had visions of angels and victory , motivated the Albanians to defend the capital of the League , Krujë , at all costs . After leaving a protective garrison of 4,000 men under his trusted lieutenant Vrana Konti ( also known as Kont Urani ) , Skanderbeg harassed the Ottoman camps around Krujë and attacked the supply caravans of Sultan Murad II 's army . By September the Ottoman camp was in disarray as morale sank and disease ran rampant . The Ottoman army acknowledged that the castle of Krujë would not fall by strength of arms , lifted the siege , and made its way to Edirne . Soon thereafter , in the winter of 1450 –</t>
+          <t>Grace , Replaced = " Grace , Replaced " is the eighteenth episode of the first season of the American television series Will &amp; Grace . It was written by Katie Palmer and directed by series producer James Burrows . The episode originally aired on the National Broadcasting Company ( NBC ) in the United States on April 8 , 1999 . Actors Molly Shannon , Leigh-Allyn Baker , and Tom Gallop guest starred on " Grace , Replaced " . In the episode , Grace 's ( Debra Messing ) job forces her to work overtime , which leads to Will ( Eric McCormack ) feeling neglected . As a result , he seeks solace in the company of a new neighbor , Val ( Shannon ) . Meanwhile , Jack ( Sean Hayes ) is annoyed that he has to perform community service for assaulting a meter maid . Before the airing , NBC moved the program to Thursdays at 8 : 30 p.m. , after it was a success in the Tuesday lineup . " Grace , Replaced " was the first episode to debut on the Thursday slot . Since then , the episode has generally receiv</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Army of the Rhine and Moselle = The Army of the Rhine and Moselle ( French : Armée de Rhin-et-Moselle ) was one of the field units of the French Revolutionary Army . It was formed on 20 April 1795 by merging the Army of the Rhine and the Army of the Moselle . The army figured in two principal campaigns in the War of the First Coalition , although the unsuccessful 1795 campaign concluded with the removal of Jean-Charles Pichegru from command . In 1796 , the army , under command of Jean Victor Marie Moreau , proved itself more successful . By this time , many of the changes inaugurated by the French military reform of 1794 had taken hold . On 29 September 1797 the Army of the Rhine and Moselle merged with the Army of Sambre-et-Meuse to form the Army of Germany . = = Purpose and formation = = Military planners in Paris understood that the upper Rhine Valley , the south-western German territories , and Danube river basin were strategically important for the defense of the Republic . The Rh</t>
+          <t>Move Like This = Move Like This is the seventh , and , to date , final studio album by American rock band The Cars , released on May 10 , 2011 . The album is their first since 1987 's Door to Door and features all of the original band members except for bassist and vocalist Benjamin Orr , who died of pancreatic cancer in 2000 . The album reached the top ten of the Billboard 200 and peaked at number 2 on the Billboard Top Rock Albums chart ; a single from the album , " Sad Song " , reached number 33 on the Billboard Rock Songs chart . Following the release of the album , the band launched an eleven-city tour of North America . = = Background = = Move Like This is the first reunion of The Cars to feature original lead singer , songwriter , rhythm guitarist , and co-producer Ric Ocasek since their 1988 split . In 1997 , Ocasek told a journalist that the band would never reunite : " I 'm saying never and you can count on that . " A partial reunion of the band occurred in 2005 when keyboard</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Battle of Kleidion = The Battle of Kleidion ( or Clidium , after the medieval name of the village of Klyuch , " ( the ) key " ; also known as the Battle of Belasitsa ) took place on July 29 , 1014 between the Byzantine Empire and the Bulgarian Empire . It was the culmination of the nearly half-century struggle between the Byzantine Emperor Basil II and the Bulgarian Emperor Samuel in the late 10th and early 11th centuries . The result was a decisive Byzantine victory . The battle took place in the valley between the mountains of Belasitsa and Ograzhden near the modern Bulgarian village of Klyuch . The decisive encounter occurred on July 29 with an attack in the rear by a force under the Byzantine general Nikephoros Xiphias , who had infiltrated the Bulgarian positions . The ensuing battle was a major defeat for the Bulgarians . Bulgarian soldiers were captured and reputedly blinded by order of Basil II , who would subsequently be known as the " Bulgar-Slayer " . Samuel survived the bat</t>
+          <t>Blackcurrant = The blackcurrant ( Ribes nigrum ) is a woody shrub in the family Grossulariaceae grown for its piquant berries . It is native to temperate parts of central and northern Europe and northern Asia where it prefers damp fertile soils and is widely cultivated both commercially and domestically . It is winter hardy but cold weather at flowering time during the spring reduces the size of the crop . Bunches of small , glossy black fruit develop along the stems in the summer and can be harvested by hand or by machine . The fruit is rich in vitamin C , various other nutrients , phytochemicals and antioxidants . Blackcurrants can be eaten raw but are usually cooked in a variety of sweet or savoury dishes . They are used to make jams , jellies and syrups and are grown commercially for the juice market . The fruit is also used in the preparation of alcoholic beverages and both fruit and foliage have uses in traditional medicine and the preparation of dyes . As a crop , the blackcurra</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Burning of Norfolk = The Burning of Norfolk was an incident that occurred on January 1 , 1776 , during the American Revolutionary War . British Royal Navy ships in the harbor of Norfolk , Virginia began shelling the town , and landing parties came ashore to burn specific properties . The town , whose significantly Tory ( Loyalist ) population had fled , was occupied by Whig ( Revolutionary ) forces from Virginia and North Carolina . Although these forces worked to drive off the landing parties , they did nothing to impede the progress of the flames , and began burning and looting Tory properties . After three days , most of the town had been destroyed , principally by the action of the Whig forces . The destruction was completed by Whig forces in early February to deny use of even the remnants to the British . Norfolk was the last significant foothold of British authority in Virginia ; after raiding Virginia 's coastal areas for a time , its last Royal Governor , Lord Dunmore , left fo</t>
+          <t>HMS Ben-my-Chree = HMS Ben-my-Chree ( Manx : " Woman of My Heart " ) was a packet steamer and a Royal Navy ( RN ) seaplane carrier of the First World War . She was originally built in 1907 by Vickers for the Isle of Man Steam Packet Company and was intended for use on the England – Isle of Man route . She was the third vessel to bear her name . To this day Ben-my-Chree holds the crossing speed record from Liverpool to Douglas for a steamship at under three hours . She was chartered by the RN at the beginning of 1915 and participated in several abortive attacks on Germany in May . The ship was transferred to the Dardanelles in June to support the Gallipoli Campaign . One of her aircraft made the first ship-launched aerial torpedo attack on a ship in August . After Gallipoli was evacuated at the end of the year , Ben-my-Chree became flagship of the East Indies and Egypt Seaplane Squadron that operated in the Eastern Mediterranean , performing reconnaissance missions and attacking Turkish</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Second Persian invasion of Greece = The second Persian invasion of Greece ( 480 – 479 BC ) occurred during the Greco-Persian Wars , as King Xerxes I of Persia sought to conquer all of Greece . The invasion was a direct , if delayed , response to the defeat of the first Persian invasion of Greece ( 492 – 490 BC ) at the Battle of Marathon , which ended Darius I 's attempts to subjugate Greece . After Darius 's death , his son Xerxes spent several years planning for the second invasion , mustering an enormous army and navy . The Athenians and Spartans led the Greek resistance . About a tenth of the Greek city-states joined the ' Allied ' effort ; most remained neutral or submitted to Xerxes . The invasion began in spring 480 BC , when the Persian army crossed the Hellespont and marched through Thrace and Macedon to Thessaly . The Persian advance was blocked at the pass of Thermopylae by a small Allied force under King Leonidas I of Sparta ; simultaneously , the Persian fleet was blocked </t>
+          <t>Art Spiegelman = Art Spiegelman ( born Itzhak Avraham ben Zeev on February 15 , 1948 ) is an American cartoonist , editor , and comics advocate best known for his graphic novel Maus . His work as co-editor on the comics magazines Arcade and Raw has been influential , and from 1992 he spent a decade as contributing artist for The New Yorker , where he made several high-profile and sometimes controversial covers . He is married to designer and editor Françoise Mouly and is the father of writer Nadja Spiegelman . Spiegelman began his career with the Topps bubblegum card company in the mid-1960s , which was his main financial support for two decades ; there he co-created parodic series such as Wacky Packages in the 1960s and the Garbage Pail Kids in the 1980s . He gained prominence in the underground comix scene in the 1970s with short , experimental , and often autobiographical work . A selection of these strips appeared in the collection Breakdowns in 1977 , after which Spiegelman turned</t>
         </is>
       </c>
     </row>
@@ -2016,32 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>championship match title defeated event team face won night following kane attacked main wrestler win referee rope professional view pay heavyweight wrestlers champion survivor announced pinfall pin contest michaels interfered rematch cage ring retain pinned undertaker pinning wrestlemania shawn_michaels smackdown john_cena wrestled wrestling featured backstage wwf ecw randy_orton feud contender bout storyline summerslam teamed ringside elimination eliminated superstars faced fight heel began submission world_wrestling_entertainment involved ladder joe wwe disqualification stipulation nwa mat rumble signature retained feuds challenged versus defended lost intercontinental raw divas maneuver fan feuded hart promotion flair scripted royal_rumble world teaming attacking hold edge triple tag wrestle impact</t>
+          <t>['motorway', 'croatia', 'adriatic', 'croatian', 'toll', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'kilometres', 'section', 'areas', 'rest', 'yugoslavia']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Félix Trinidad = Juan Félix " Tito " Trinidad García ( born January 10 , 1973 ) , best known as Félix Trinidad , is a Puerto Rican former professional boxer , considered one of the best in Puerto Rico 's history . After winning five national amateur championships in Puerto Rico , Trinidad debuted as a professional in 1990 , when he was seventeen . He would go on to become a three-weight world champion , first by defeating Maurice Blocker to win the IBF welterweight title in 1993 . Trinidad holds the record for the second most welterweight title defenses , with fifteen , and also holds the record for longest reign as welterweight champion , at six years , eight months and fourteen days . As his career continued , he defeated Oscar De La Hoya to win the WBC and lineal welterweight titles in 1999 ; Fernando Vargas to win the unified WBA and IBF light middleweight titles in 2000 ; and William Joppy to win the WBA middleweight title in 2001 . Trinidad 's first professional loss was against </t>
+          <t>Louis I of Hungary = Louis I , also Louis the Great ( Hungarian : Nagy Lajos ; Croatian : Ludovik Veliki ; Slovak : Ľudovít Veľký ) or Louis the Hungarian ( Polish : Ludwik Węgierski ; 5 March 1326 – 10 September 1382 ) , was King of Hungary and Croatia from 1342 and King of Poland from 1370 . He was the first child of Charles I of Hungary and his wife , Elizabeth of Poland , to survive infancy . A 1338 treaty between his father and Casimir III of Poland , Louis 's maternal uncle , confirmed Louis 's right to inherit the Kingdom of Poland if his uncle died without a son . In exchange , Louis was obliged to assist his uncle to reoccupy the lands that Poland had lost in previous decades . He bore the title of Duke of Transylvania between 1339 and 1342 but did not administer the province . Louis was of age when succeeded his father in 1342 , but his deeply religious mother exerted a powerful influence on him . He inherited a centralized kingdom and a rich treasury from his father . During</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sixto Escobar = Sixto Escobar ( March 23 , 1913 – November 17 , 1979 ) was a Puerto Rican professional boxer . Competing in the bantamweight division , he became Puerto Rico 's first world champion . Escobar was born in Barceloneta and raised in San Juan . There he received his primary education and took interest in boxing . After gathering a record of 21-1-1 as an amateur , Escobar debuted as a professional in 1931 defeating Luis " Kid Dominican " Pérez by knockout . Early in his career , he moved to Venezuela due to the lack of opponents in his division . There he received an opportunity for the Venezuelan Bantamweight championship , but lost by points . Subsequently he moved to New York and began boxing in other states , eventually capturing the Montreal Athletic Commission World Bantamweight Title . In 1936 , he defeated Tony Marino to unify this championship with the one recognized by the International Boxing Union , in the process becoming the third Latin American undisputed worl</t>
+          <t>A9 ( Croatia ) = The A9 motorway ( Croatian : Autocesta A9 ) is a north – south motorway in Croatia , with a length of 78.3 kilometres ( 48.7 miles ) . Beginning in Pula , the largest city on the Istrian peninsula , it runs north to the Croatian motorway and expressway network at the Kanfanar interchange . Here it meets the A8 motorway , forming the Istrian Y road system . The A9 continues north from here to the Kaštel and Plovanija border crossings into Slovenia . The motorway represents a significant north – south transportation corridor in Croatia and is a part of the European route E751 . The motorway 's national significance is reflected in the positive economic impact on the cities and towns it connects , as well as its importance to tourism in Croatia . Importance of the motorway for tourism is particularly high during summer tourist seasons , when traffic volume increases by more than 80 % . The A9 motorway construction works began in 1988 with its first section opening in 1991</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WWE 2K = WWE 2K is a series that has more than 20 of those professional wrestling video games that are currently developed by Visual Concepts and Yuke 's , and it was later published by 2K Sports . These series of games are based on the professional wrestling promotion WWE , which features the professional wrestling match types , storylines , and playable characters based on WWE programming . The series was originally named SmackDown ! , after it has garnered from the WWE 's own SmackDown television program . The first release in the series was WWF SmackDown ! in March 2000 , which along with these subsequent titles , remained exclusive to Sony 's PlayStation consoles . After the brand extension , the series was retitled SmackDown ! vs. Raw in 2004 , to indicate the Raw brand was also featured . Within a few years , the series had expanded to a yearly release cycle for various seventh-generation consoles as well as mobile devices . Yuke 's had also released the games in Japan under the</t>
+          <t>Zinfandel = Zinfandel ( also known as Primitivo ) is a variety of black-skinned wine grape . The variety is grown in over 10 percent of California vineyards . DNA analysis has revealed that it is genetically equivalent to the Croatian grapes Crljenak Kaštelanski and Tribidrag , as well as to the Primitivo variety traditionally grown in Apulia ( the " heel " of Italy ) , where it was introduced in the 18th century . The grape found its way to the United States in the mid-19th century , where it became known by variations of the name " Zinfandel " , a name which is probably of Austrian origin . The grapes typically produce a robust red wine , although in the United States a semi-sweet rosé ( blush-style ) wine called White Zinfandel has six times as many sales as the red wine . The grape 's high sugar content can be fermented into levels of alcohol exceeding 15 percent . The taste of the red wine depends on the ripeness of the grapes from which it is made . Red berry fruit flavors like r</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TNA World Beer Drinking Championship = The TNA World Beer Drinking Championship was an unsanctioned professional wrestling championship owned by the Total Nonstop Action Wrestling ( TNA ) promotion . The championship was introduced on November 11 , 2007 at TNA 's Genesis pay-per-view ( PPV ) event . It was active until February 26 , 2008 when the title belt was destroyed at the taping of the March 6 , 2008 episode of TNA 's television program TNA Impact ! . It debuted as a part of a feud between James Storm and Eric Young ; they were involved in a storyline that revolved around drinking beer . Like most professional wrestling championships , the title was won as a result of a scripted match or backstage segment . There were three reigns among two wrestlers in the title 's brief history . Storm was the first and last champion . = = History = = The TNA World Beer Drinking Championship was unveiled on November 11 , 2007 at TNA 's Genesis PPV event , during a backstage segment involving Ja</t>
+          <t>Stephen II of Hungary = Stephen II ( Hungarian : II István ; Croatian : Stjepan II ; Slovak : Štefan II ; 1101 – early 1131 ) , King of Hungary and Croatia , ruled from 1116 until 1131 . His father , King Coloman , had him crowned as a child , thus denying the crown to his uncle Álmos . In the first year of his reign , Venice occupied Dalmatia and Stephen never restored his rule in that province . His reign was characterized by frequent wars with neighbouring countries . = = Early years ( till 1116 ) = = Stephen and his twin brother , Ladislaus , were sons of King Coloman of Hungary by his queen , Felicia of Sicily . According to the Illuminated Chronicle , they were born " ... in the year of our Lord 1101 . " Stephen was named after the first king of Hungary , who had been canonized in 1083 , implying that he was his father 's heir from birth . A document written in Zadar in approximately 1105 AD makes mention of " Stephen , our most renowned king " along with Coloman , proving that t</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>The Ultimate Fighter = The Ultimate Fighter is an American reality television series and mixed martial arts ( MMA ) competition produced by Fox Sports 1 and the Ultimate Fighting Championship ( UFC ) . It previously aired for fourteen seasons on Spike TV . The show features professional MMA fighters living together in Las Vegas , Nevada , and follows them as they train and compete against each other for a prized contract with the UFC . The series debuted on January 17 , 2005 , with its first episode , " The Quest Begins " . To date , there have been twenty two seasons of the show , two per calendar year . Each season features either one or two weight classes in the tournament . The historic Forrest Griffin vs. Stephan Bonnar fight in the first season drew millions of viewers to the show and launched the sport into the mainstream . Because of this success , The Ultimate Fighter was regarded as instrumental to the survival and expansion of the UFC and mixed martial arts into the mainstre</t>
+          <t>European route E751 = The European route E751 , or E751 , as defined by the Declaration on the Construction of Main International Traffic Arteries of 1975 , and subsequent documents which amended the treaty , is an east-west Class-B branching European road route . Originating in Rijeka , Croatia , where it diverges from European route E61 before passing through the Kanfanar interchange , the route connects Pula , Rovinj , Poreč and Umag in Croatia with Koper in Slovenia . The route provides a high-performance road link in Istria and Slovenian Littoral . Unlike most routes , the E751 centers on the Kanfanar interchange and has three arms , each extending to Rijeka , Pula and Koper . The total length of the route , including all the route arms , is 160 km ( 99 mi ) . The E751 mostly consists of motorways , but considerable sections are either expressways or two-lane roads with at-grade intersections . All motorway sections of the E751 are tolled , using the electronic toll collection ( E</t>
         </is>
       </c>
     </row>
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>entertain entertained buddy profanity flamboyant racially courted rampant subtitles bishop psychologically app oppressed horrific bother sacrificing unconventional bitterness pencil backgrounds academically format infamous predecessor dos manipulate ethnicity preparation longstanding oppressive physique fortunes balloons defied revamped denominations passport onscreen monstrous odyssey proficient apocalyptic dump laborers surpass misunderstood masks frantic promoting reliant headline economies packages dictated virtually slump professed massively dialog exchanges fascinated revolutions adapting variations solidified awakened prepared challenging stirred injustice healed opt verbally reconsider apologized dealt irresponsible replicated exams endorsing despised portrayals manage promoter hugely multinational repercussions reviewed eyewitness lifestyles inherently adversary famously certificates irregularities hoc frequented improves instalment resorted</t>
+          <t>['rockets', 'nba', 'arena', 'playoffs', 'houston', 'team', 'franchise', 'ownership', 'finals', 'relocation', 'toronto', 'draft', 'games', 'pick', 'season']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ISO 3166-2 : SJ = ISO 3166-2 : SJ is the entry for Svalbard and Jan Mayen in ISO 3166-2 , part of the ISO 3166 standard published by the International Organization for Standardization ( ISO ) . The standard defines codes for names of principal subdivisions of all countries coded in ISO 3166-1 . Svalbard and Jan Mayen does not exist as an administrative region , but rather consists of two separate parts of Norway under separate jurisdictions — Svalbard and Jan Mayen . Further subdivision for Svalbard and Jan Mayen occurs under Norway 's entry , ISO 3166-2 : NO , namely NO-21 for Svalbard and NO-22 for Jan Mayen . There are currently no ISO 3166-2 codes for Svalbard and Jan Mayen . = = Allocation = = Svalbard and Jan Mayen constitute two outlying areas of Norway . Svalbard is an archipelago in the Arctic about midway between mainland Norway and the North Pole . The group of islands ranges from 74 ° to 81 ° north latitude , and from 10 ° to 35 ° east longitude . The Svalbard Treaty of 192</t>
+          <t>Eldridge Recasner = Eldridge David Recasner ( born December 14 , 1967 ) is a retired American professional basketball player . In college , he was a three-time All-Pac-10 Conference guard for the Washington Huskies men 's basketball team . After college , he played in a variety of professional leagues such as the Continental Basketball Association ( CBA ) and Europe before entering the NBA . He subsequently played for several National Basketball Association 's ( NBA ) teams including the Denver Nuggets , Houston Rockets , Atlanta Hawks , Charlotte Hornets and Los Angeles Clippers . In the 1994 – 95 season , his fifth season after college , he earned the CBA MVP award while leading the Yakima Sun Kings to the league championship . After that CBA season was completed , he signed to play in the NBA at the end of the 1994 – 95 NBA season for the Nuggets . The following season , he earned a spot on the roster of the two-time defending champion Rockets . He played in the NBA for seven more s</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>As I was going by Charing Cross = " As I was going by Charing Cross " ( sometimes referred to as " As I was going to Charing Cross " ) , is an English language nursery rhyme . The rhyme was first recorded in the 1840s , but it may have older origins in street cries and verse of the seventeenth century . It refers to the equestrian statue of King Charles I in Charing Cross , London , and may allude to his death or be a puritan satire on royalist reactions to his execution . It was not recorded in its modern form until the mid-nineteenth century . It has a Roud Folk Song Index number of 20564 . = = Lyrics = = Modern versions include : The Roud Folk Song Index , which catalogues folk songs and their variations by number , classifies the song as 20564 . = = Origin = = The rhyme is thought to refer to the equestrian statue of Charles I ( r . 1625 – 49 ) , which was erected after the Restoration in 1660 and was moved in 1675 to the site of the old Charing Cross in central London . The tarnis</t>
+          <t>John Hummer = John Hummer ( born May 4 , 1948 ) is a venture capitalist and retired professional basketball player who was an original member of the Buffalo Braves after starring for the Princeton Tigers men 's basketball team . He also led his high school to the 1966 Virginia State 1A championship and helped Princeton earn a 1967-68 co-Ivy League Championship as well as a 1968-69 outright Ivy League Championship . Over the course of his basketball career , he was coached by four National Basketball Hall of Fame members . In college , Hummer was a three-time All-Ivy League selection ( first-team : 1969 &amp; 1970 , second team : 1968 ) . He played for two Ivy League champion teams and served as team captain as a senior . He was a part of the first of head coach Pete Carril 's thirteen Ivy League champions ( 1968 ) , eleven NCAA Division I Men 's Basketball Tournament teams ( 1969 ) and three undefeated conference champions ( 1969 ) . Although Hummer set no statistical records , his name co</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fursuit = Fursuits are animal costumes . Fursuits can be worn for personal enjoyment , work or charity . The term " fursuit " is believed to have been coined in 1993 by Robert King and is usually used to describe custom-made animal costumes owned and worn by cosplayers or members of the furry fandom . Unlike mascot suits , which are usually affiliated with a team or organization , fursuits represent a stand-alone character . Fursuiters may adopt another personality while in costume for the purpose of performance . Fursuits are typically sold online by commission or auction , but can also be sold at conventions . = = Creation and construction = = Most fursuits are created by specialized online businesses if they are not self-made . Workmanship quality varies widely depending on the cost of the suit and skill of the maker . A fursuit may cost more than a thousand dollars . Many suits include special padding or undersuits to give the character its desired shape ( this is especially presen</t>
+          <t>Svalbard Rocket Range = The Svalbard Rocket Range ( Norwegian : Svalbard Rakettskytefelt ) or SvalRak is a launch site for sounding rockets at Ny-Ålesund in Svalbard , Norway . The site has been in use since 1997 and is owned by Andøya Rocket Range , which is again owned by the Norwegian Space Centre and the Kongsberg Group . SvalRak 's location at the 79th parallel north makes it well-suited for launching rockets to investigate Earth 's magnetic field . It is used mostly by American , Japanese and Norwegian researchers . It is the world 's northernmost launch site . = = History = = Planning of a launch site in Ny-Ålesund started in 1993 , a location chosen because of its ideal location to study the polar cusp . Construction of the site started in the summer of 1997 . The Norwegian Institute for Air Research , which conducts air measurements in Ny-Ålesund , was concerned that the rockets could pollute their measurements . A test rocket was launched on 15 November . The first proper lau</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Becket Hill State Park Reserve = Becket Hill State Park Reserve is a public recreation area lying adjacent to Nehantic State Forest in the town of Lyme , Connecticut , United States . The state park is listed by the Connecticut Department of Energy and Environmental Protection as an undeveloped , walk-in park totaling 260 acres ( 110 ha ) with no officially listed activities . The park 's name is sometimes misspelled as Beckett Hill . = = History = = Becket Hill State Park Reserve is named for an early settler of the area named Becket and the land was part of the Nehantic tribe 's territory . This state park was acquired by the State of Connecticut in order to preserve the hill , but unlike the abutting Nehantic State Forest , Becket Hill has accessibility problems and is returning to its natural state . In 1961 , the land for the Becket Hill State Park Reserve was given to the State of Connecticut by the George Dudley Seymour Trust . Beckett Hill was first listed on the Connecticut Re</t>
+          <t xml:space="preserve">Anthony Parker = Anthony Michael Parker ( born June 19 , 1975 ) is an American retired professional basketball player who played in the National Basketball Association ( NBA ) , as well as in Italy and Israel . After graduating from Bradley University with a major in liberal arts , he entered the 1997 NBA Draft and played briefly in the NBA before plying his trade in Europe . There , Parker spent five seasons with the Israeli Super League basketball club Maccabi Tel Aviv and one season with the Italian Serie A club Lottomatica Roma . With Maccabi he won five Israeli Super League national championships , five Israeli National Cups , three European titles ( two Euroleague Basketball titles and the FIBA SuproLeague title in 2001 ) , and was voted two consecutive times Euroleague MVP . After returning to the NBA as a free agent in 2006 , Parker was the Toronto Raptors ' starting shooting guard . In his first season with the Raptors , Parker helped the team clinch their first ever division </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cynfarwy = Cynfarwy was a Christian in the 7th century about whom little is known . He was venerated by the early church in Wales as a saint , although he was never formally canonised . St Cynfarwy 's Church in Anglesey is dedicated to him , and his name is also preserved in the name of the settlement around the church , Llechgynfarwy ( or sometimes " Llechcynfarwy " ) . His feast day is in November , although the date varies between sources . = = Life and commemoration = = Little is known for certain about Cynfarwy ; his dates of birth and death are not given in the Bonedd y Saint ( a Welsh genealogical tract compiled in the late 18th century using material from older manuscripts ) . According to the 19th-century Celtic scholar Robert Williams , Cynfarwy was active in the 7th century . According to the Bonedd y Saint , he was the son of the otherwise unknown " Awy ab Llehenog , Lord of Cornwall " . Cynfarwy is venerated as a saint , although he was never canonized by a pope : as the h</t>
+          <t>1998 – 99 NBA lockout = The 1998 – 99 NBA lockout was the third lockout of four in the history of the National Basketball Association ( NBA ) . It lasted from July 1 , 1998 to January 20 , 1999 , and forced the 1998 – 99 regular season to be shortened to 50 games per team and that season 's All-Star Game to be canceled . NBA owners reopened the league 's collective bargaining agreement ( CBA ) in March 1998 , seeking changes to the league 's salary cap system and a ceiling on individual player salaries . The National Basketball Players Association ( NBPA ) opposed the owners ' plans and wanted raises for players who earned the league 's minimum salary . After the two sides failed to reach an agreement , the owners began the lockout . The dispute received a tepid response from sports fans , and provoked criticism from media members . It continued into January 1999 , threatening cancellation of the entire season . After division within the players union , however , NBPA executive directo</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>production system crew mission use development based high million aircraft engine control announced new flight launch including spacecraft range program speed time nasa vehicle apollo missions sales fuel ground air lunar market low project moon performance twitter launched landing pilot developed car flights engines cost version available models orbit designed weapons level hours saturn technology vehicles toyota began capability june manned march service testing missile altitude module radar total united_states combat tested december earth produced capabilities company stage model thrust billion rocket systems cabin january missiles planned oxygen price equipment flew nuclear industry april stated design reported increased year software</t>
+          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sukhoi Su-35 = The Sukhoi Su-35 ( Russian : Сухой Су-35 ; NATO reporting name : Flanker-E ) is a designation for two separate , heavily upgraded derivatives of the Su-27 ' Flanker ' jet plane . They are single-seat , twin-engine , supermaneuverable multirole fighters , designed by Sukhoi and built by Komsomolsk-on-Amur Aircraft Production Association ( KnAAPO ) . The first variant was designed during the 1980s , when Sukhoi sought to upgrade its high-performance Su-27 , and was initially known as the Su-27M . Later re-designated Su-35 , this derivative incorporated aerodynamic refinements with increased manoeuvrability , enhanced avionics , longer range , and more powerful engines . The first Su-35 prototype , converted from a Su-27 , made its maiden flight in June 1988 . More than a dozen of these were built , some of which were used by the Russian Knights aerobatic demonstration team . The first Su-35 design was later modified into the Su-37 , which possessed thrust vectoring engines</t>
+          <t>Philadelphia municipal election , 1951 = Philadelphia 's municipal election of November 6 , 1951 was the first held under the city 's new charter , which had been approved by the voters the previous April . The positions contested included those of mayor , district attorney , all seventeen city council seats , among other offices . There was also a referendum on whether to consolidate the city and county governments . Citywide , the Democrats took majorities of over 100,000 votes , breaking a 67-year Republican hold on city government . Joseph S. Clark , Jr. and Richardson Dilworth , two of the main movers for the charter reform , were elected mayor and district attorney , respectively . The Democrats also took fourteen of seventeen city council seats , and city-county consolidation passed by a wide margin . The election marked the beginning of Democratic dominance of Philadelphia city politics , which continues today . = = Mayor = = The incumbent Republican mayor , Bernard Samuel , di</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Northrop F-20 Tigershark = The Northrop F-20 Tigershark ( initially F-5G ) was a privately financed light fighter , designed and built by Northrop . Its development began in 1975 as a further evolution of Northrop 's F-5E Tiger II , featuring a new engine that greatly improved overall performance , and a modern avionics suite including a powerful and flexible radar . Compared with the F-5E , the F-20 was much faster , gained beyond-visual-range air-to-air capability , and had a full suite of air-to-ground modes capable of firing most U.S. weapons . With these improved capabilities , the F-20 became competitive with contemporary fighter designs such as the General Dynamics F-16 Fighting Falcon , but was much less expensive to purchase and operate . Much of the F-20 's development was carried out under a US Department of Defense ( DoD ) project called " FX " . FX sought to develop fighters that would be capable in combat with the latest Soviet aircraft , but excluding sensitive front-lin</t>
+          <t>Tempest ( Smallville ) = " Tempest " is the twenty-first episode and season finale of the first season of the WB original series Smallville . The episode originally aired on May 21 , 2002 ; Alfred Gough and Miles Millar wrote the script , and Greg Beeman directed . In the episode 's narrative , Lex attempts to forge his own destiny away from LuthorCorp ; Whitney leaves Smallville for the Marines ; Roger Nixon discovers Clark 's secret and attempts to expose him to the world ; and Lana is pulled into a tornado . Director Greg Beeman attempted to create a visual theme among the characters that would parallel the approaching storm . The episode would mark the departure of Eric Johnson as Whitney Fordman , though he would return as a special guest in seasons two and four . Although the Smallville finale pulled in just over half of the viewership attained by the pilot episode , it was still favorably received by critics . It was also nominated for two awards . = = Plot = = Lionel Luthor ( J</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Avro Vulcan = The Avro Vulcan ( later Hawker Siddeley Vulcan from July 1963 ) is a jet-powered tailless delta wing high-altitude strategic bomber , which was operated by the Royal Air Force ( RAF ) from 1956 until 1984 . Aircraft manufacturer A.V. Roe and Company ( Avro ) designed the Vulcan in response to Specification B.35 / 46 . Of the three V bombers produced , the Vulcan was considered the most technically advanced and hence the riskiest option . Several scale aircraft , designated Avro 707 , were produced to test and refine the delta wing design principles . The Vulcan B.1 was first delivered to the RAF in 1956 ; deliveries of the improved Vulcan B.2 started in 1960 . The B.2 featured more powerful engines , a larger wing , an improved electrical system and electronic countermeasures ( ECM ) ; many were modified to accept the Blue Steel missile . As a part of the V-force , the Vulcan was the backbone of the United Kingdom ’ s airborne nuclear deterrent during much of the Cold War</t>
+          <t>Rob Howard = Rob Howard ( born 1954 or 1955 ) is a Canadian politician who was elected to the 39th Parliament of British Columbia as the Member of the Legislative Assembly of British Columbia from the riding of Richmond Centre . A member of the BC Liberal Party , he replaced retiring BC Liberal Olga Ilich in that riding , by winning the riding in the 2009 provincial election . While his party formed a majority government , Howard was not included in Gordon Campbell 's cabinet but was appointed to several committees , including the Select Standing Committee on Public Accounts in the first two sessions , and Select Standing Committee on Finance and Government Services in the third and fourth session . Howard introduced one piece of legislation , the Trustee Board of the Church of God , Richmond Municipality , B.C. ( Corporate Restoration ) Act , 2009 ( Pr 402 ) , to retroactively restore that organization 's corporate status . As chair of the Select Standing Committee on Finance and Gove</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sinclair C5 = The Sinclair C5 is a small one-person battery electric vehicle , technically an " electrically assisted pedal cycle " . ( Although widely described as an " electric car " , Sinclair characterised it as a " vehicle , not a car " . ) It was the culmination of Sir Clive Sinclair 's long-running interest in electric vehicles . Sinclair had become one of the UK 's best-known millionaires and earned a knighthood on the back of the highly successful Sinclair Research range of home computers in the early 1980s . He now hoped to repeat his success in the electric vehicle market , which he saw as ripe for a new approach . The C5 emerged from an earlier project to produce a Renault Twizy-style electric car called the C1 . After a change in the law prompted by lobbying from bicycle manufacturers , Sinclair developed the C5 as an electrically powered tricycle with a polypropylene body and a chassis designed by Lotus Cars . It was intended to be the first in a series of increasingly am</t>
+          <t>Meat ant = The meat ant ( Iridomyrmex purpureus ) , also known as the gravel ant or southern meat ant , is a species of ant endemic to Australia . A member of the genus Iridomyrmex in the subfamily Dolichoderinae , it was described by British entomologist Frederick Smith in 1858 . The meat ant is associated with many common names due to its appearance , nest-building behaviour and abundance , of which its specific name , purpureus , refers to its coloured appearance . It is among the best-known species of ant found throughout Australia ; it occurs in almost all states and territories except for Tasmania . Its enormous distribution , aggression and ecological importance have made this ant a dominant species . The meat ant is monomorphic ( occurs in a particular form ) , although there is evidence that certain populations can be polymorphic . It is characterised by its dark-bluish body and red head . It is a medium to large species , measuring 6 – 12 mm ( 0.24 – 0.47 in ) . The workers a</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hawker Hunter = The Hawker Hunter is a transonic British jet aircraft developed in the late 1940s and early 1950s . The single-seat Hunter entered service as a manoeuvrable fighter aircraft , and later operated in fighter-bomber and reconnaissance roles in numerous conflicts . Two-seat variants remained in use for training and secondary roles with the Royal Air Force ( RAF ) and Royal Navy until the early 1990s . The Hunter was also widely exported , serving with 21 other air forces . Sixty years after its original introduction it was still in active service , operated by the Lebanese Air Force until 2014 . On 7 September 1953 , the modified first prototype broke the world air speed record for jet-powered aircraft , achieving 727.63 mph ( 1,171.01 km / h ; 632.29 kn ) . Hunters were also used by two RAF display teams : the " Black Arrows " , who on one occasion looped a record-breaking 24 examples in formation , and later the " Blue Diamonds " , who flew 16 aircraft . Overall , 1,972 H</t>
+          <t>Bang ! Pow ! Boom ! = Bang ! Pow ! Boom ! is the eleventh studio album by American hip hop group Insane Clown Posse . Released on September 1 , 2009 by Psychopathic Records , it was the group 's second album with producer Mike E. Clark since his return to Psychopathic Records , and the first album to focus on the Dark Carnival since the conclusion of the group 's original " Joker 's Cards " series . The character is the first of a set of six new Joker 's Cards . The album 's title refers to a character within the Dark Carnival described as a large , continuing explosion which clears evil souls from the carnival grounds . Bang ! Pow ! Boom ! peaked at number four in the Billboard Top 200 . Critics praised Clark 's production and the return to the Dark Carnival concept . In 2010 , Psychopathic Records released a " Nuclear Edition " of the album , which featured previously unreleased material . The music video for the song " Miracles " , produced for the reissue , became viral , and was t</t>
         </is>
       </c>
     </row>
@@ -2121,32 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>album songs number band release single music track copies released chart billboard tracks sound recording albums record week features reviews lyrics critics soundtrack studio debuted pop charts peaked vocals carey sold previous selling albums_chart contains certified producer performed singles cover platinum recorded felt listing song rock metacritic allmusic debut sales best label stars live hip sample hot hop rap shipments inspired promotion fans awards riaa promotional interview featuring drake grammy united_kingdom feel additional want jay-z written itunes assigns samples weeks bonus piano charting featured arranged writing arrangements sessions produced artist garbage recording_industry_association_of_america charted tour mixed wanted praised composed sounds rapper</t>
+          <t>['grammy', 'neo', 'hawaiian', 'soul', 'nominees', 'category', 'awards', 'rap', 'award', 'presented', 'categories', 'artists', 'recipients', 'academy', 'disco']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Paramore ( album ) = Paramore is the self-titled fourth studio album by the American rock band Paramore . It was released on April 5 , 2013 , through Fueled by Ramen as a follow-up to Brand New Eyes ( 2009 ) . It is their first full-length album released after the departure of co-founders Josh and Zac Farro in 2010 . Recorded between April and November 1 , 2012 , the album was described by the band as being a " statement " and a reintroduction of the band to the world and to themselves . The album was the final one recorded with bassist Jeremy Davis before departing the band in 2015 . The album was produced by Justin Meldal-Johnsen , with lead guitarist Taylor York co-producing on four tracks . In contrast to band 's previous work , the production of Paramore contains the band 's experimentation with new musical genres , such as new wave and funk rock , and features three acoustic interludes . Paramore received acclaim from music critics , who praised the band 's maturity and experimen</t>
+          <t>Tree : A Life Story = Tree : A Life Story ( or Tree : A Biography in Australia ) is a Canadian non-fiction book written by David Suzuki and Wayne Grady , and illustrated by Robert Bateman . The book profiles the life of a Douglas-fir tree , from seed to maturity to death . The story provides ecological context by describing interactions with other lifeforms in the forest and historical context through parallels with world events that occur during the tree 's 700 years of life . Digressions from the biographical narrative , scattered throughout the book , provide background into related topics , such as the history of botany . Suzuki was inspired to write a biography of a tree when he noticed a Douglas-fir with an uncharacteristic curve in its trunk and speculated what caused it to grow into that shape . Suzuki studied the topic with the help of a research assistant and solicited Grady to help write the book . Vancouver publishers Greystone Books released the book in September 2004 . In</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>American Tragedy ( album ) = American Tragedy is the second studio album by American rap rock band Hollywood Undead . Production for the album began following the induction of Daniel Murillo into the band in early 2010 and lasted until December . Don Gilmore and Ben Grosse , who helped produce the band 's debut album , Swan Songs ( 2008 ) , also returned to produce the album along with several other producers including Kevin Rudolf , Sam Hollander , Dave Katz , Griffin Boice , Jeff Halavacs , and Jacob Kasher . The album is musically heavier and features darker lyrical content than the band 's previous effort . Originally set to release in March , American Tragedy was released on April 5 , 2011 in the United States and was released on various other dates that month in other countries . A remix of the album , American Tragedy Redux , was released on November 21 , 2011 . The album debuted at number four on the US Billboard 200 , selling approximately 67,000 copies in its first week in th</t>
+          <t>I See the Light = " I See the Light " is a song written by composer Alan Menken and lyricist Glenn Slater for Walt Disney Animation Studios ' 50th animated feature film Tangled ( 2010 ) . A duet originally recorded by American recording artist and actress Mandy Moore and American actor Zachary Levi in their respective film roles as main characters Rapunzel and Flynn Rider , the folk-inspired pop ballad serves as both the film 's love and theme song . Lyrically , " I See the Light " describes the developing romantic relationship between Rapunzel and Flynn , and is featured as the seventh track on the film 's soundtrack album . Tangled was originally conceived by Disney animator Glen Keane . Subsequently , Walt Disney Animation Studios hired veteran Disney composer Alan Menken and lyricist Glenn Slater to write the film 's songs . Initially , Menken and Slater had written a more anthemic version of " I See the Light " before finally re-working it into a gentler , simpler and more folk-or</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Thank Me Later = Thank Me Later is the debut studio album by Canadian recording artist Drake , released on June 15 , 2010 , by Aspire Music Group , Young Money Entertainment , Cash Money Records , and Universal Motown Records . Production for the album took place at various recording studios during 2009 to 2010 and was mostly produced by longtime collaborators Noah " 40 " Shebib and Boi-1da . It also featured contributions from Timbaland , Swizz Beatz , Nicki Minaj , Lil Wayne , The-Dream , and Kanye West , among others . Thank Me Later has a languorous , ambient production that incorporates moody synthesizers , sparse beats , obscured keyboards , minor keys , and subtle arrangements . Thematically , the album focuses on Drake 's introduction to fame and his romances over the course of confessional , club-oriented , and sexual songs . Drake 's emotionally transparent , self-deprecating lyrics are delivered in both rapped and subtly sung verses , and explore feelings of doubt , insecuri</t>
+          <t xml:space="preserve">Coming Up to Breathe = Coming Up to Breathe is the fourth studio album by Christian rock band MercyMe . Released on April 25 , 2006 , by INO Records , the album was intended by MercyMe to be edgier than their previous albums . Coming Up to Breathe sold 58,000 copies its first week , MercyMe 's biggest sales week at the time . It debuted and peaked at number one on the Billboard Christian Albums chart , number five on the Rock Albums chart , and number thirteen on the Billboard 200 . It also appeared on the Alternative Albums chart in 2007 , peaking at number thirteen . Coming Up to Breathe was certified Gold by the Recording Industry Association of America ( RIAA ) in 2007 , signifying shipments of over 500,000 copies . Coming Up to Breathe received positive reviews from critics . It was also nominated for Best Pop / Contemporary Gospel Album at the 49th Grammy Awards , and for Pop / Contemporary Album of the Year at the 38th GMA Dove Awards . The song " Bring the Rain " was nominated </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gravity ( Lecrae album ) = Gravity is the sixth studio album by American Christian hip hop artist Lecrae , released on September 4 , 2012 . The album features appearances from Big K.R.I.T. , Mathai , Ashthon Jones , and Mali Music , along with labelmates Trip Lee , Andy Mineo , Derek Minor , who was formerly known as PRo , and Tedashii . Producers on the album include DJ Khalil , Street Symphony 's Heat Academy , and The Watchmen . The first single off the album , " I Know " , was released on July 24 , 2012 , and was followed by " Tell the World " featuring Mali Music on August 15 , 2012 , and " Mayday " featuring Big K.R.I.T. and Ashthon Jones on August 30 , 2012 . Reach Records released five music videos for the album : " Lord Have Mercy " , featuring Tedashii along with No Malice of Clipse , on August 1 , 2012 , " Tell the World " , featuring Mali Music , on October 19 , 2012 , " Mayday " , featuring Big K.R.I.T. and Ashthon Jones , on December 13 , 2012 , " Fakin ' " , featuring Th</t>
+          <t>Nothing Was the Same = Nothing Was the Same is the third studio album by Canadian recording artist Drake . It was released on September 24 , 2013 , by OVO Sound , Young Money Entertainment , Cash Money Records and Republic Records . Work on the record began in 2012 and continued through 2013 . As its executive producer , Drake enlisted collaborators including 2 Chainz , Big Sean , Jay Z , Jhené Aiko and Sampha to appear as guest appearances on the album . The album 's production was primarily handled by Noah " 40 " Shebib and other OVO Sound producers ; Boi-1da , Mike Zombie , Majid Jordan and Nineteen85 , among others such as , Detail , Key Wane , Hudson Mohawke and Jake One . Nothing Was the Same was supported by the seven successful singles ; " Started from the Bottom " , " Hold On , We 're Going Home " featuring Majid Jordan , " All Me " featuring 2 Chainz and Big Sean , " Pound Cake " featuring Jay Z , " The Language " , " Too Much " featuring Sampha and " Worst Behavior " . " Wu-</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coming Up to Breathe = Coming Up to Breathe is the fourth studio album by Christian rock band MercyMe . Released on April 25 , 2006 , by INO Records , the album was intended by MercyMe to be edgier than their previous albums . Coming Up to Breathe sold 58,000 copies its first week , MercyMe 's biggest sales week at the time . It debuted and peaked at number one on the Billboard Christian Albums chart , number five on the Rock Albums chart , and number thirteen on the Billboard 200 . It also appeared on the Alternative Albums chart in 2007 , peaking at number thirteen . Coming Up to Breathe was certified Gold by the Recording Industry Association of America ( RIAA ) in 2007 , signifying shipments of over 500,000 copies . Coming Up to Breathe received positive reviews from critics . It was also nominated for Best Pop / Contemporary Gospel Album at the 49th Grammy Awards , and for Pop / Contemporary Album of the Year at the 38th GMA Dove Awards . The song " Bring the Rain " was nominated </t>
+          <t>Squidward Tentacles = Squidward Tentacles is a fictional character voiced by actor Rodger Bumpass in the American animated television series SpongeBob SquarePants . Squidward was created and designed by marine biologist and animator Stephen Hillenburg . He first appeared on television in the series ' pilot episode " Help Wanted " on May 1 , 1999 . Although his name has the word " Squid " in it and he has six arms ( Hillenburg designed Squidward with six arms , believing that " it was really just simpler for animation to draw him with six legs instead of eight " . ) , Squidward is an anthropomorphic octopus . He lives in a moai between SpongeBob SquarePants ' and Patrick Star 's houses . The character is portrayed as ill-tempered , pretentious , and cynical who strongly despises his neighbors for their constant boisterous , noisy behavior . However , the pair are unaware of Squidward 's antipathy towards them and see him as a friend . Squidward works as a cashier at the Krusty Krab rest</t>
         </is>
       </c>
     </row>
@@ -2156,67 +2156,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ship ships torpedo tons guns admiral cruiser fleet submarine sank laid sinking convoy german destroyer destroyers ordered boats damaged deck naval sunk knots escorted gun mounts repairs flagship torpedoes assigned stern shaft british flotilla vessels nautical escort transferred hms admiralty fire battleship aboard boilers cruisers beam hull convoys shipyard port malta april crew captain armament aft returning bow vessel horsepower sailed commissioned turbines french north_sea merchant royal_navy launched engagement submarines tubes range frigate escorting carried refit shipping inch displaced turrets kiel twin submerged engaged survivors warships wreck sms sea joined consisted battleships blockade departed fired maximum hipper thick sister returned</t>
+          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'thread', 'ink', 'issued', 'signature']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SMS Niobe = SMS Niobe ( " His Majesty 's Ship Niobe " ) was the second member of the ten-ship Gazelle class of light cruisers built by the Imperial German Navy . She was built by the AG Weser shipyard in Bremen , laid down in 1898 , launched in July 1899 , and commissioned into the High Seas Fleet in June 1900 . She was named after Niobe , a figure from Greek mythology . Armed with a main battery of ten 10.5 cm ( 4.1 in ) guns and two 45 cm ( 18 in ) torpedo tubes , Niobe was capable of a top speed of 21.5 knots ( 39.8 km / h ; 24.7 mph ) . The ship had a long career , serving in all three German navies , along with the Yugoslav and Italian fleets over the span of over 40 years in service . Niobe served in both home and overseas waters in the Imperial Navy , before being reduced to a coastal defense ship after the outbreak of World War I. She survived the conflict and was one of six cruisers permitted to the Reichsmarine by the Treaty of Versailles . In 1925 , the German Navy sold the </t>
+          <t>Constantine the Great = Constantine the Great ( Latin : Flavius Valerius Aurelius Constantinus Augustus ; Greek : Κωνσταντῖνος ὁ Μέγας ; 27 February c . 272 AD – 22 May 337 AD ) , also known as Constantine I or Saint Constantine ( in the Orthodox Church as Saint Constantine the Great , Equal-to-the-Apostles ) , was a Roman Emperor from 306 to 337 AD . Constantine was the son of Flavius Valerius Constantius , a Roman army officer , and his consort Helena . His father became Caesar , the deputy emperor in the west in 293 AD . Constantine was sent east , where he rose through the ranks to become a military tribune under the emperors Diocletian and Galerius . In 305 , Constantius was raised to the rank of Augustus , senior western emperor , and Constantine was recalled west to campaign under his father in Britannia ( Britain ) . Acclaimed as emperor by the army at Eboracum ( modern-day York ) after his father 's death in 306 AD , Constantine emerged victorious in a series of civil wars aga</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SM UB-16 = SM UB-16 was a German Type UB I submarine or U-boat in the German Imperial Navy ( German : Kaiserliche Marine ) during World War I. The submarine was sunk by a British submarine in May 1918 . UB-16 was ordered in November 1914 and was laid down at the AG Weser shipyard in Bremen in February 1915 . UB-16 was a little under 28 metres ( 92 ft ) in length and displaced between 127 and 141 tonnes ( 125 and 139 long tons ) , depending on whether surfaced or submerged . She carried two torpedoes for her two bow torpedo tubes and was also armed with a deck-mounted machine gun . UB-16 was broken into sections and shipped by rail to Antwerp for reassembly . She was launched in April 1915 and commissioned as SM UB-16 in May . UB-16 spent her entire career in the Flanders Flotilla and sank 23 merchant ships , about half of them British fishing vessels . The U-boat was also responsible for sinking the new British destroyer Recruit in 1917 . In 1918 , UB-16 was converted into a minelayer </t>
+          <t>National Front ( France ) = The National Front ( French : Front national , French pronunciation : ​ [ fʁɔ ̃ na.sjɔ.nal ] , FN ) is a socially conservative , nationalist political party in France . Its major policies include economic protectionism , a zero tolerance approach to law and order issues , and opposition to immigration . A eurosceptic party , the FN has opposed the European Union since its creation in 1993 . Most political commentators place the FN on the right to far right but party representatives reject this and suggest other ways of looking at the left – right axis . The party was founded in 1972 to unify a variety of French nationalist movements of the time . Jean-Marie Le Pen was the party 's first leader and the undisputed centre of the party from its start until his resignation in 2011 . Marine Le Pen , his daughter , was elected as the current leader . While the party struggled as a marginal force for its first ten years , since 1984 it has been the major force of Fr</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>German submarine U-37 ( 1938 ) = German submarine U-37 was a Type IXA U-boat of Nazi Germany 's Kriegsmarine during World War II . The submarine was laid down on 15 March 1937 at the DeSchiMAG AG Weser yard in Bremen , launched on 14 May 1938 , and commissioned on 4 August 1938 under the command of Kapitänleutnant Heinrich Schuch as part of the 6th U-boat Flotilla . Between August 1939 and March 1941 , U-37 conducted eleven combat patrols , sinking 53 merchant ships , for a total of 200,124 gross register tons ( GRT ) ; and two warships , the British Hastings-class sloop HMS Penzance , and the French submarine Sfax ( Q182 ) . U-37 was then withdrawn from front-line service and assigned to training units until the end of the war . On 8 May 1945 the U-boat was scuttled in Sonderburg Bay , off Flensburg . U-37 was the sixth most successful U-boat in World War II . = = Design = = As one of the eight original German Type IX submarines , later designated IXA , U-37 had a displacement of 1,03</t>
+          <t>William Shirley = William Shirley ( 2 December 1694 – 24 March 1771 ) was a British colonial administrator who was the longest-serving governor of the Province of Massachusetts Bay ( 1741 – 1749 and 1753 – 1756 ) and then Governor of the Bahamas ( 1760 – 1768 ) . He is best known for his role in organizing the 1745 Siege of Louisbourg during King George 's War , and for his role in military affairs during the French and Indian War . He spent most of his years in the colonial administration of North America working to defeat New France , but his lack of formal military training led to political difficulties and his eventual downfall . Politically well connected , Shirley began his career in Massachusetts as advocate general in the admiralty court , and quickly became an opponent of Governor Jonathan Belcher . He joined with Belcher 's other political enemies to bring about Belcher 's recall , and was appointed Governor of Massachusetts Bay in Belcher 's place . He successfully quieted p</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Japanese battleship Hiei = Hiei ( 比叡 ) was a warship of the Imperial Japanese Navy during World War I and World War II . Designed by British naval architect George Thurston , she was the second launched of four Kongō-class battlecruisers , among the most heavily armed ships in any navy when built . Laid down in 1911 at the Yokosuka Naval Arsenal , Hiei was formally commissioned in 1914 . She patrolled off the Chinese coast on several occasions during World War I , and helped with rescue efforts following the 1923 Great Kantō earthquake . Starting in 1929 , Hiei was converted to a gunnery training ship to avoid being scrapped under the terms of the Washington Naval Treaty . She served as Emperor Hirohito 's transport in the mid-1930s . Starting in 1937 , she underwent a full-scale reconstruction that completely rebuilt her superstructure , upgraded her powerplant , and equipped her with launch catapults for floatplanes . Now fast enough to accompany Japan 's growing fleet of aircraft ca</t>
+          <t>United States v. Jackalow = United States v. Jackalow , 66 U.S. ( 1 Black ) 484 ( 1862 ) , is a U.S. Supreme Court case interpreting the Venue and Vicinage clauses of the United States Constitution . It was an " unusual criminal case " , and one of the few constitutional criminal cases from the Taney Court . Jackalow , a mariner from the Ryukyu Islands , was suspected of the robbery and murder of the captain of the sloop Spray , Jonathan Leete , and Jonathan 's brother Elijah , while the ship was at sea . He was convicted of robbery in the Long Island Sound , but as there was disagreement over the question of jurisdiction between the two judges who heard the post-trial motion – Judge Mahlon Dickerson and Supreme Court Justice Robert Cooper Grier – the case was referred to the Supreme Court by certificate of division . The Supreme Court directed the circuit court for the District of New Jersey to grant Jackalow a new trial . The Court held that , while the trial court should determine t</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>HMS Brilliant ( 1757 ) = HMS Brilliant was a 36-gun Venus-class fifth-rate frigate of the Royal Navy which saw active service during the Seven Years ' War with France . Designed in 1756 and launched the following year , she was one of the first Royal Navy vessels to be built to a classic frigate design with a single gun deck and an emphasis on speed . Her principal focus was as a hunter of French privateers , capturing eight such vessels and sinking two more during her six years at sea . She also performed well against the regular French Navy in the 1760 Battle of Bishops Court and the 1761 Battle of Cape Finisterre , but was less capable when deployed for bombardment duty off enemy ports . Decommissioned in 1763 , she was sold thirteen years later to the East India Company but was wrecked in the Comoros Islands in 1782 . One naval historian has described Brilliant as one of " the best British fighting cruisers " of her day . However she remained slightly inferior to her French equival</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>government war military led political country party support polish foreign soviet revolution leader russian members alliance army influence forces russia france poland coup leaders german independence economic minister arab regime germany nationalist according established power people communist soviet_union reforms policies control european death western official ties conflict lithuanian diplomatic commonwealth relations leadership french general exile empire countries hitler peasants authorities local remained appointed uprising agreed faction moscow lithuania armed central anti new struggle nationalists sent troops supported syria emperor jewish national jews prime policy nationalism commander austria egypt armenian increasingly years international despite socialist revolt member ethnic china monarchy governments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>History of the Han dynasty = The Han dynasty ( 206 BCE – 220 CE ) , founded by the peasant rebel leader Liu Bang ( known posthumously as Emperor Gaozu ) , was the second imperial dynasty of China . It followed the Qin dynasty ( 221 – 206 BCE ) , which had unified the Warring States of China by conquest . Interrupted briefly by the Xin dynasty ( 9 – 23 CE ) of Wang Mang , the Han dynasty is divided into two periods : the Western Han ( 206 BCE – 9 CE ) and the Eastern Han ( 25 – 220 CE ) . These appellations are derived from the locations of the capital cities Chang 'an and Luoyang , respectively . The third and final capital of the dynasty was Xuchang , where the court moved in 196 CE during a period of political turmoil and civil war . The Han dynasty ruled in an era of Chinese cultural consolidation , political experimentation , relative economic prosperity and maturity , and great technological advances . There was unprecedented territorial expansion and exploration initiated by stru</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Alexei Kosygin = Alexei Nikolayevich Kosygin ( Russian : Алексе ́ й Никола ́ евич Косы ́ гин , tr . Aleksej Nikolajevič Kosygin ; IPA : [ ɐlʲɪˈksʲej nʲɪkɐˈlajɪvʲɪtɕ kɐˈsɨɡʲɪn ] ; 21 February [ O.S. 5 March ] 1904 – 18 December 1980 ) was a Soviet-Russian statesman during the Cold War . Kosygin was born in the city of St. Petersburg in 1904 to a Russian working-class family . He was conscripted into the labour army during the Russian Civil War , and after the Red Army 's demobilisation in 1921 , he worked in Siberia as an industrial manager . Kosygin returned to Leningrad in the early 1930s and worked his way up the Soviet hierarchy . During the Great Patriotic War ( World War II ) , Kosygin was a member of the State Defence Committee and was tasked with moving Soviet industry out of territories soon to be overrun by the German Army . He served as Minister of Finance for a year before becoming Minister of Light Industry and later , the Minister of Light and Food Industry . Stalin remove</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Malagasy Uprising = The Malagasy Uprising ( French : Insurrection malgache ) was a Malagasy nationalist rebellion against French colonial rule in Madagascar , lasting from March 1947 to December 1948 . Starting in late 1945 , Madagascar 's first French National Assembly deputies , Joseph Raseta , Joseph Ravoahangy and Jacques Rabemananjara of the Mouvement démocratique de la rénovation malgache ( MDRM ) political party , led an effort to achieve independence for Madagascar through legal channels . The failure of this initiative and the harsh response it drew from the Socialist Ramadier administration radicalized elements of the Malagasy population , including leaders of several militant nationalist secret societies . On the evening of 29 March 1947 , coordinated surprise attacks were launched by Malagasy nationalists , armed mainly with spears , against military bases and French-owned plantations in the eastern part of the island concentrated around Moramanga and Manakara . The nationa</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Adolf Hitler = Adolf Hitler ( German : [ ˈadɔlf ˈhɪtlɐ ] ; 20 April 1889 – 30 April 1945 ) was a German politician who was the leader of the Nazi Party ( Nationalsozialistische Deutsche Arbeiterpartei ; NSDAP ) , Chancellor of Germany from 1933 to 1945 , and Führer ( " leader " ) of Nazi Germany from 1934 to 1945 . As dictator of Nazi Germany , he initiated World War II in Europe with the invasion of Poland in September 1939 and was a central figure of the Holocaust . Hitler was born in Austria , then part of Austria-Hungary , and raised near Linz . He moved to Germany in 1913 and was decorated during his service in the German Army in World War I. He joined the German Workers ' Party , the precursor of the NSDAP , in 1919 and became leader of the NSDAP in 1921 . In 1923 , he attempted a coup in Munich to seize power . The failed coup resulted in Hitler 's imprisonment , during which time he dictated the first volume of his autobiography and political manifesto Mein Kampf ( " My Struggl</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Suharto = Suharto ( Javanese : ꦯꦸꦲꦂꦠ ; Gêdrìk : Suhartå ; O-Javanese : Suharta ; pronunciation ; 8 June 1921 – 27 January 2008 ) was the second President of Indonesia , holding the office for 31 years from the ousting of Sukarno in 1967 until his resignation in 1998 . Suharto was born in a small village , Kemusuk , in the Godean area near the city of Yogyakarta , during the Dutch colonial era . He grew up in humble circumstances . His Javanese Muslim parents divorced not long after his birth , and he was passed between foster parents for much of his childhood . During the Japanese occupation of Indonesia , Suharto served in Japanese-organised Indonesian security forces . Indonesia 's independence struggle saw his joining the newly formed Indonesian army . Suharto rose to the rank of Major General following Indonesian independence . An attempted coup on 30 September 1965 was countered by Suharto-led troops and was blamed on the Indonesian Communist Party . The army subsequently led an a</t>
+          <t>Return the Favor = " Return the Favor " is a song by American recording artist and songwriter Keri Hilson . The song features Timbaland , who wrote the song with Hilson and her songwriting / production team The Clutch , as well as Walter Milsap . Following the moderate international chart success of Hilson ’ s lead single , " Energy " , " Return the Favor " was released from Hilson 's debut album , In a Perfect World ... , serving as the international second single while the urban single , " Turnin Me On " was released in the US . As Hilson 's second vocal collaboration with mentor Timbaland , Hilson stated the purpose of the song 's initial conception was to re-create the success of their worldwide hit , " The Way I Are " , as Timbaland called the " Return the Favor " bigger and better . Contemporary critics gave the song mixed reviews , noting the production and vocal similarities to " The Way I Are " , preferring the latter track . The song reached the top twenty in the United Kingd</t>
         </is>
       </c>
     </row>

--- a/data/top_docs/ctm/thetas_thr_top_docs.xlsx
+++ b/data/top_docs/ctm/thetas_thr_top_docs.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['episode', 'mulder', 'doctor', 'scully', 'viewers', 'episodes', 'series', 'television', 'character', 'season', 'watched', 'dwight', 'broadcast', 'trek', 'jack']</t>
+          <t>['album', 'song', 'chart', 'music', 'video', 'band', 'songs', 'madonna', 'track', 'pop', 'single', 'recording', 'lyrics', 'vocals', 'billboard']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['album', 'song', 'madonna', 'chart', 'video', 'music', 'harrison', 'songs', 'carey', 'band', 'pop', 'track', 'recording', 'billboard', 'number']</t>
+          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'damage', 'rainfall', 'landfall', 'utc', 'wind', 'weakened', 'flooding', 'intensity']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bitch I 'm Madonna = " Bitch I 'm Madonna " is a song by American singer Madonna from her thirteenth studio album , Rebel Heart ( 2015 ) , featuring guest vocals from rapper Nicki Minaj . The artists co-wrote the song with MoZella , Toby Gad , Ariel Rechtshaid , Diplo , and Sophie ; the latter two co-produced it with Madonna . It was released as the third single from the album by Interscope Records on June 15 , 2015 , along with a number of remixes commissioned . An EDM and vaporwave song , the lyrics speak about having continuous fun because she is " Madonna " . The song divided music critics , as some called it " energetic " , applauding Minaj 's rap verse and the unusual composition , while others criticized it for being a " desperate to shock " endeavor . In the United States , " Bitch I 'm Madonna " became the first Madonna song to enter the Billboard Hot 100 in three years , peaking at number 84 . The song became Minaj 's 63rd and Madonna 's 57th Hot 100 entry , placing them at p</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La Isla Bonita = " La Isla Bonita " ( English : The Beautiful Island ) is a song by American singer Madonna from her third studio album True Blue ( 1986 ) . It was released as the album 's final single on February 25 , 1987 by Sire Records . The instrumental version of the song was first offered to Michael Jackson before Madonna both accepted it and wrote the lyrics and melody . " La Isla Bonita " is noted for being the first Madonna song to have a Latino influence in it , with arrangements of Cuban drums and Spanish guitar , maracas , harmonicas and a mix of synthesized and real drumming . The lyrics of the song tell about a beautiful island and was a tribute to the beauty of the Latin people according to Madonna . Following its release , " La Isla Bonita " received positive appreciation from critics . It also achieved worldwide popularity , topping the record charts in countries such as Austria , Canada , France , Germany and Switzerland . It became Madonna 's fourth number-one singl</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Already Gone ( Kelly Clarkson song ) = " Already Gone " is a song performed by American pop singer-songwriter Kelly Clarkson from her fourth studio album , All I Ever Wanted . It is co-written by Clarkson and Ryan Tedder , who also produced it . The song was released as the album 's third single in August 2009 . Lyrically , " Already Gone " is about the breakup of a relationship ; the music consists of an arrangement using a piano , drums , and string instruments . The production and release of " Already Gone " have been surrounded in controversy . Clarkson claimed that Tedder re-used the musical arrangement on the 2008 Beyoncé Knowles song " Halo " , and stated that the public would incorrectly assume that she had stolen it ; Tedder declared the accusations hurtful and false . After failing to prevent the song from being included on All I Ever Wanted because the track listing had already been finalized and the album was already being pressed , Clarkson then voiced her anger towards he</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Put the Needle on It = " Put the Needle on It " is a song performed by Australian singer Dannii Minogue , which was written by Minogue , Mathias Johansson , Henrik Korpi and Karen Poole for Minogue 's fourth album Neon Nights ( 2003 ) . It is the opening track , and was released as its lead single on 4 November 2002 . It reached the top twenty on the Australian , Irish and United Kingdom Singles Charts . In the UK it also topped the club charts . In 2003 , it was certified gold by the Australian Recording Industry Association indicating shipment of 35,000 units . " Put the Needle on It " is a dance-pop song which received mixed reviews from music critics , and its musical style was compared to United States pop singer , Madonna . Its music video , directed by Miikka Lommi , features Minogue in a studio surrounded with colourful neon lights and spinning on a human-sized record player . = = Background and writing = = In 2002 , Minogue began writing and recording material for her fourth a</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The Generous Mr. Lovewell = The Generous Mr. Lovewell is the sixth studio album by Christian rock band MercyMe . Released in May 2010 , the album is a concept record revolving around a fictional character , ' Mr. Lovewell ' , and the overall theme of love . Produced by Brown Bannister and Dan Muckala , the album met with positive critical and commercial reception . The album sold over 88,000 copies its first week and debuted at number three on the Billboard 200 and at number one on the Christian Albums chart . Three singles were released in promotion of the album , all of them reaching number one on Billboard 's Christian Songs chart . Lead single " All of Creation " spent ten weeks at the top of the Christian Songs chart , also peaking at No. 14 on the Heatseekers Songs chart and No. 2 on the Bubbling Under Hot 100 Singles chart . " Beautiful " and " Move " also reached number one on the Christian Songs chart , holding the top spot for one and nine weeks , respectively , with " Move "</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'inch', 'cruiser', 'fleet', 'gun', 'deck', 'admiral', 'german', 'turrets', 'cruisers']</t>
+          <t>['episode', 'mulder', 'scully', 'doctor', 'episodes', 'trek', 'files', 'series', 'character', 'enterprise', 'viewers', 'television', 'season', 'broadcast', 'star']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Admiral-class battlecruiser = The Admiral-class battlecruisers were to have been a class of four British Royal Navy battlecruisers designed near the end of World War I. Their design began as an improved version of the Queen Elizabeth-class battleships , but it was recast as a battlecruiser after Admiral John Jellicoe , commander of the Grand Fleet , pointed out that there was no real need for more battleships , but that a number of German battlecruisers had been laid down that were superior to the bulk of the Grand Fleet 's battlecruisers and the design was revised to counter these . The class was to have consisted of HMS Hood , Anson , Howe , and Rodney — all names of famous admirals — but the latter three ships were suspended as the material and labour required to complete them was needed for higher-priority merchantmen and escort vessels . Their designs were updated to incorporate the lessons from the Battle of Jutland , but the Admiralty eventually decided that it was better to beg</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HMS Beagle ( H30 ) = HMS Beagle was a B-class destroyer built for the Royal Navy ( RN ) around 1930 . Initially assigned to the Mediterranean Fleet , she was transferred to the Home Fleet in 1936 . During World War II , the ship spent the bulk of the war on escort duty , participating in the Norwegian Campaign , the Battle of the Atlantic , Operation Torch , the Russian Convoys , and in the Normandy landings before accepting the surrender of the German garrison of the Channel Islands the day after the formal German surrender on 9 May together with another ship . One exception to this pattern was when she helped to evacuate British soldiers and civilians during the Battle of France in 1940 . During the war , Beagle assisted in sinking one German submarine and claimed to have shot down two German aircraft . Redundant after the war , she was broken up for scrap in 1946 . = = Description = = Beagle displaced 1,360 long tons ( 1,380 t ) at standard load and 1,790 long tons ( 1,820 t ) at de</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HMS Hurricane ( H06 ) = HMS Hurricane was an H-class destroyer that had originally been ordered by the Brazilian Navy in the late 1930s with the name Japura , but was bought by the Royal Navy after the beginning of World War II in September 1939 and later renamed . When completed in June 1940 , the ship was temporarily assigned to the Home Fleet before she began escorting convoys and conducting anti-submarine patrols . She was badly damaged during a German air raid on Liverpool in May 1941 and her repairs were not completed until the beginning of 1942 . Hurricane was then assigned as the flotilla leader of Escort Group B1 assigned to the Mid-Ocean Escort Force , escorting convoys in the North Atlantic for the next two years . The ship was torpedoed by a German submarine on Christmas Eve 1943 , and had to be scuttled the next day as she was unable to steam back to port . = = Description = = Hurricane displaced 1,350 long tons ( 1,370 t ) at standard load and 1,883 long tons ( 1,913 t ) </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>French battleship Gaulois = Gaulois was a Charlemagne-class pre-dreadnought battleship built for the French Navy in the mid-1890s . She spent most of her career assigned to the Mediterranean Squadron ( Escadre de la Méditerranée ) . The ship accidentally rammed two other French warships early in her career , although neither was seriously damaged , nor was the ship herself . When World War I began , she escorted troop convoys from French North Africa to France for a month and a half . Gaulois was ordered to the Dardanelles in November 1914 to guard against a sortie into the Mediterranean by the German battlecruiser SMS Goeben . In 1915 , she joined British ships in bombarding Turkish fortifications . She was badly damaged during one such bombardment in March and had to beach herself to avoid sinking . She was refloated and sent to Toulon for permanent repairs . Gaulois returned to the Dardanelles and covered the Allied evacuation in January 1916 . On 27 December 1916 , she was en route</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>German destroyer Z8 Bruno Heinemann = Z8 Bruno Heinemann was a Type 1934A-class destroyer built for Nazi Germany 's Kriegsmarine in the mid-1930s . After the start of World War II in September 1939 , she blockaded the Polish coast and searched neutral shipping for contraband . In late 1939 and early 1940 the ship made three successful minelaying sorties off the English coast that claimed 17 merchant ships . Bruno Heinemann participated in the early stages of the Norwegian Campaign by transporting troops to the Trondheim area in early April 1940 . The ship was transferred to France a year later to escort German ships that used the French ports on the Atlantic coast . She was returning to France in early 1942 when she struck two mines and sank off the coast of Belgium . = = Design and description = = Bruno Heinemann had an overall length of 119 meters ( 390 ft 5 in ) and was 114 meters ( 374 ft 0 in ) long at the waterline . The ship had a beam of 11.30 meters ( 37 ft 1 in ) , and a maxi</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['highway', 'route', 'road', 'freeway', 'interchange', 'intersection', 'terminus', 'north', 'east', 'lane', 'continues', 'state', 'avenue', 'passes', 'traffic']</t>
+          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'cruiser', 'inch', 'fleet', 'cruisers', 'deck', 'gun', 'turrets', 'admiral', 'steam']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>California State Route 133 = State Route 133 ( SR 133 ) is a state highway in the U.S. state of California . It connects SR 1 in Laguna Beach through the San Joaquin Hills with several freeways in Irvine , ending at the SR 241 toll road in the latter city . The portion north of SR 73 in Laguna Beach is part of the California Freeway and Expressway System , and it is built as an expressway from SR 73 to Laguna Canyon Road ( just south of I-405 in Irvine ) . SR 133 is a freeway ( the Laguna Freeway ) to I-5 , and a tollway ( part of the Eastern Toll Road ) to SR 241 near the Santa Ana Mountains . SR 133 was constructed as a county road by the 1910s ; the portion from I-405 to I-5 was upgraded to a freeway four decades later . Plans to extend the freeway south were canceled by the state , and the southern part of the road remains an undivided highway . In 1998 , the majority of the Eastern Transportation Corridor opened , and the connector between I-5 and SR 241 was designated as a toll e</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Geography of South Dakota = South Dakota is a state located in the north-central United States . It is usually considered to be in the Midwestern region of the country . The state can generally be divided into three geographic regions : eastern South Dakota , western South Dakota , and the Black Hills . Eastern South Dakota is lower in elevation and higher in precipitation than the western part of the state , and the Black Hills are a low , isolated mountain group in the southwestern corner of the state . Smaller sub-regions in the state include the Coteau des Prairies , Coteau du Missouri , James River Valley , the Dissected Till Plains , and the Badlands . Geologic formations in South Dakota range in age from two billion-year-old Precambrian granite in the Black Hills to glacial till deposited over the last few million years . South Dakota is the 17th-largest state in the country . South Dakota has a humid continental climate in the east and in the Black Hills , and a semi-arid clima</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackford County , Indiana = Blackford County is located in the east central portion of the U.S. state of Indiana . The county is named for Judge Isaac Blackford , who was the first speaker of the Indiana General Assembly and a long-time chief justice of the Indiana Supreme Court . Created in 1838 , Blackford County is divided into four townships , and its county seat is Hartford City . Two incorporated cities and one incorporated town are located within the county . The county is also the site of numerous unincorporated communities and ghost towns . Occupying only 165.58 square miles ( 428.9 km2 ) , Blackford County is the fourth smallest county in Indiana . As of the 2010 census , the county 's population is 12,766 people in 5,236 households . Based on population , the county is the 8th smallest county of the 92 in Indiana . Although no interstate highways are located in Blackford County , three Indiana state roads cross the county , and an additional state road is located along the </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wallkill Valley Rail Trail = The Wallkill Valley Rail Trail is a 23.7-mile ( 38.1 km ) rail trail and linear park that runs along the former Wallkill Valley Railroad rail corridor in Ulster County , New York . It stretches from Gardiner through New Paltz , Rosendale , and Ulster to the Kingston city line . The trail is separated from the Walden – Wallkill Rail Trail by two state prisons in Shawangunk , though there have been plans to bypass these facilities , and to connect the Wallkill Valley Rail Trail with other regional rail trails . Plans to create the rail trail began as early as 1983 , when New Paltz considered uses for the then-defunct Wallkill Valley corridor ; the railroad had ceased regular traffic in 1977 , and by 1983 had begun to remove its tracks . In 1991 , a local land trust purchased the 12-mile ( 19 km ) section of the former rail corridor between New Paltz and Gardiner , and conveyed the New Paltz section to the town and village of New Paltz . The trail was formally</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>California State Route 37 = State Route 37 ( SR 37 ) is a state highway in the northern part of California that runs 21 miles ( 34 km ) along the northern shore of San Pablo Bay . It is built from U.S. Route 101 in Novato and runs through the southern tips of Sonoma and Napa counties to Interstate 80 in Vallejo . It serves as a vital connection between the four counties of the North Bay Area , north of San Francisco ; Sonoma Raceway and Six Flags Discovery Kingdom are accessible from Route 37 . Route 37 has been proposed to be built to freeway standards since the early 1950s . However , the proposal was met with many economic and environmental obstacles , making the task all but impossible for much of the route . Problems included a levee break in Vallejo which turned part of the land around the highway into a marsh that is home to endangered salt marsh harvest mice , and a section of highway known as " Blood Alley " for its high rate of fatal accidents . = = Route description = = Inte</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['election', 'hitler', 'campaign', 'party', 'bush', 'republican', 'political', 'vote', 'labour', 'president', 'presidential', 'democratic', 'war', 'government', 'senate']</t>
+          <t>['species', 'genus', 'shark', 'females', 'prey', 'eggs', 'males', 'cap', 'sharks', 'fruit', 'stem', 'brown', 'habitat', 'birds', 'specimens']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,32 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'rainfall', 'damage', 'landfall', 'wind', 'utc', 'flooding', 'weakened', 'intensity']</t>
+          <t>['highway', 'route', 'road', 'interchange', 'freeway', 'intersection', 'east', 'north', 'terminus', 'lane', 'continues', 'passes', 'avenue', 'state', 'highways']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hurricane Iwa = Hurricane Iwa , taken from the Hawaiian language name for the frigatebird ( ʻiwa , lit . " Thief " ) , was at the time the costliest hurricane to affect the state of Hawaiʻi . Iwa was the twenty-third tropical storm and the twelfth and final hurricane of the 1982 Pacific hurricane season . It developed from an active trough of low pressure near the equator on November 19 . The storm moved erratically northward until becoming a hurricane on November 23 when it began accelerating to the northeast in response to strong upper-level flow from the north . Iwa passed within 25 miles of the island of Kauaʻi with peak winds of 90 mph ( 145 km / h ) on November 23 ( November 24 Coordinated Universal Time ) , and the next day it became extratropical to the northeast of the state . The hurricane devastated the islands of Niʻihau , Kauaʻi , and Oʻahu with wind gusts exceeding 100 mph ( 160 km / h ) and rough seas exceeding 30 feet ( 9 m ) in height . The first significant hurricane </t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tropical Storm Harvey ( 1999 ) = Tropical Storm Harvey was a moderately strong tropical storm that caused flooding across south Florida during the 1999 Atlantic hurricane season . The tenth tropical cyclone and eighth named storm of the season , Harvey developed from a tropical wave in the Gulf of Mexico on September 19 . After forming , the system gradually intensified and became a tropical storm early on September 20 . Throughout the rest of its duration , Harvey slowly intensified as it headed eastward . Late on September 21 , Harvey made landfall in Southwest Florida with winds of 60 mph ( 95 km / h ) . Harvey emerged into the Atlantic early on September 22 , but was absorbed by an extratropical cyclone . The remnants of Harvey reached Atlantic Canada before dissipating . Harvey caused minor flooding in south Florida because of light to relatively heavy rainfall in that portion of the state and at least 34 houses and businesses in southern Florida were flooded . There were sporadic</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1933 Outer Banks hurricane = The 1933 Outer Banks hurricane lashed portions of the North Carolina and Virginia coasts less than a month after another hurricane hit the general area . The twelfth tropical storm and sixth hurricane of the 1933 Atlantic hurricane season , it formed by September 8 to the east of the Lesser Antilles . It moved generally to the north-northwest and strengthened quickly to peak winds of 140 mph ( 220 km / h ) on September 12 . This made it a major hurricane and a Category 4 on the Saffir-Simpson scale . The hurricane remained at or near that intensity for several days while tracking to the northwest . It weakened approaching the southeastern United States , and on September 16 passed just east of Cape Hatteras , North Carolina with winds of about 100 mph ( 160 km / h ) . Turning to the northeast , the hurricane became extratropical on September 18 before moving across Atlantic Canada , eventually dissipating four days later . The threat of the hurricane prompt</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hurricane Barry ( 1983 ) = Hurricane Barry was the fourth tropical depression , second hurricane and named storm of the inactive 1983 Atlantic hurricane season . Developing out of a tropical wave on August 23 , Barry quickly strengthened off the coast of Florida , reaching an initial peak intensity with winds of 60 mph ( 95 km / h ) . However , increased wind shear caused the storm to weaken to a tropical depression before making landfall near Melbourne , Florida , the next morning . Traveling almost due west , the storm regenerated and became a hurricane on August 28 . The storm made landfall on the northern Mexican coastline later that day at peak intensity . Rapid weakening followed shortly after and the storm dissipated the next day . The storm had only minor effects in the United States but destroyed hundreds of homes and left over 400 homeless in northern Mexico . Despite the damage , there were no reports of fatalities or injuries . = = Meteorological history = = The origins of </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cyclogenesis = Cyclogenesis is the development or strengthening of cyclonic circulation in the atmosphere ( a low-pressure area ) . Cyclogenesis is an umbrella term for at least three different processes , all of which result in the development of some sort of cyclone , and at any size from the microscale to the synoptic scale . Tropical cyclones form due to latent heat driven by significant thunderstorm activity , and are warm core . Extratropical cyclones form as waves along weather fronts before occluding later in their life cycle as cold core cyclones . Mesocyclones form as warm core cyclones over land , and can lead to tornado formation . Waterspouts can also form from mesocyclones , but more often develop from environments of high instability and low vertical wind shear . The process in which an extratropical cyclone undergoes a rapid drop in atmospheric pressure ( 24 millibars or more ) in a 24-hour period is referred to as explosive cyclogenesis , and is usually present during </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['king', 'government', 'polish', 'political', 'emperor', 'son', 'arab', 'death', 'military', 'army', 'died', 'pope', 'poland', 'reign', 'byzantine']</t>
+          <t>['game', 'player', 'gameplay', 'games', 'players', 'playstation', 'nintendo', 'released', 'xbox', 'characters', 'graphics', 'soundtrack', 'mode', 'version', 'mario']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,32 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['species', 'shark', 'genus', 'sharks', 'females', 'prey', 'eggs', 'males', 'cap', 'birds', 'nest', 'habitat', 'fin', 'brown', 'stem']</t>
+          <t>['film', 'films', 'bond', 'disney', 'movie', 'role', 'actor', 'director', 'cast', 'filming', 'script', 'production', 'starred', 'grossing', 'batman']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Galapagos shark = The Galapagos shark ( Carcharhinus galapagensis ) is a species of requiem shark , in the family Carcharhinidae , found worldwide . This species favors clear reef environments around oceanic islands , where it is often the most abundant shark species . A large species that often reaches 3.0 m ( 9.8 ft ) , the Galapagos reef shark has a typical fusiform " reef shark " shape and is very difficult to distinguish from the dusky shark ( C. obscurus ) and the grey reef shark ( C. amblyrhynchos ) . An identifying character of this species is its tall first dorsal fin , which has a slightly rounded tip and originates over the rear tips of the pectoral fins . Galapagos sharks are active predators often encountered in large groups . They feed mainly on bottom-dwelling bony fishes and cephalopods ; larger individuals have a much more varied diet , consuming other sharks , marine iguanas , sea lions , and even garbage . As in other requiem sharks , reproduction is viviparous , wit</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Milk shark = The milk shark ( Rhizoprionodon acutus ) is a species of requiem shark , and part of the family Carcharhinidae , whose common name comes from an Indian belief that consumption of its meat promotes lactation . The largest and most widely distributed member of its genus , the milk shark typically measures 1.1 m ( 3.6 ft ) long , and can be found in coastal tropical waters throughout the eastern Atlantic and the Indo-Pacific regions . Occurring from the surface to a depth of 200 m ( 660 ft ) , this species is common near beaches and in estuaries , and has been recorded swimming up rivers in Cambodia . Juveniles are known to inhabit tidal pools and seagrass meadows . The milk shark has a slender body with a long , pointed snout and large eyes , and is a nondescript gray above and white below . This shark can be distinguished from similar species in its range by the long furrows at the corners of its mouth , and seven to 15 enlarged pores just above them . Among the most abunda</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Zebra shark = This species is sometimes called the leopard shark , a name otherwise used for Triakis semifasciata . The zebra shark ( Stegostoma fasciatum ) is a species of carpet shark and the sole member of the family Stegostomatidae . It is found throughout the tropical Indo-Pacific , frequenting coral reefs and sandy flats to a depth of 62 m ( 203 ft ) . Adult zebra sharks are distinctive in appearance , with five longitudinal ridges on a cylindrical body , a low caudal fin comprising nearly half the total length , and a pattern of dark spots on a pale background . Young zebra sharks under 50 – 90 cm ( 20 – 35 in ) long have a completely different pattern , consisting of light vertical stripes on a brown background , and lack the ridges . This species attains a length of 2.5 m ( 8.2 ft ) . Zebra sharks are nocturnal and spend most of the day resting motionless on the sea floor . At night , they actively hunt for molluscs , crustaceans , small bony fishes , and possibly sea snakes i</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ctenophora = Ctenophora ( / tᵻˈnɒfərə / ; singular ctenophore , / ˈtɛnəfɔːr / or / ˈtiːnəfɔːr / ; from the Greek κτείς kteis ' comb ' and φέρω pherō ' carry ' ; commonly known as comb jellies ) is a phylum of invertebrate animals that live in marine waters worldwide . Their most distinctive feature is the ‘ combs ’ – groups of cilia which they use for swimming – they are the largest animals that swim by means of cilia . Adults of various species range from a few millimeters to 1.5 m ( 4 ft 11 in ) in size . Like cnidarians , their bodies consist of a mass of jelly , with one layer of cells on the outside and another lining the internal cavity . In ctenophores , these layers are two cells deep , while those in cnidarians are only one cell deep . Some authors combined ctenophores and cnidarians in one phylum , Coelenterata , as both groups rely on water flow through the body cavity for both digestion and respiration . Increasing awareness of the differences persuaded more recent authors </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Jack Fingleton = John " Jack " Henry Webb Fingleton OBE ( 28 April 1908 – 22 November 1981 ) was an Australian cricketer who was trained as a journalist and became a political and cricket commentator after the end of his playing career . A stubborn opening batsman known for his dour defensive approach , he scored five Test centuries , representing Australia in 18 Tests between 1932 and 1938 . He was also known for his involvement in several cricket diplomacy incidents in his career , accused of leaking the infamous verbal exchange between Australian captain Bill Woodfull and English manager Plum Warner during the acrimonious Bodyline series , and later of causing sectarian tension within the team by leading a group of players of Irish Catholic descent in undermining the leadership of the Protestant Don Bradman . In retirement , Fingleton became a prominent political commentator in Canberra , with links to Australian prime ministers . The author of many cricket books , he is regarded as</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['game', 'player', 'gameplay', 'games', 'players', 'soundtrack', 'mario', 'playstation', 'graphics', 'mode', 'hero', 'nintendo', 'characters', 'released', 'version']</t>
+          <t>['army', 'persian', 'byzantine', 'arab', 'syria', 'emperor', 'polish', 'muslim', 'byzantines', 'constantine', 'battle', 'hungary', 'ottoman', 'king', 'forces']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -791,32 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['innings', 'runs', 'league', 'baseball', 'nba', 'batting', 'season', 'career', 'team', 'scored', 'wickets', 'basketball', 'games', 'rebounds', 'batted']</t>
+          <t>['trains', 'station', 'railway', 'building', 'line', 'tunnel', 'bridge', 'rail', 'services', 'train', 'oslo', 'passenger', 'stations', 'river', 'built']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Haseeb Ahsan = Haseeb Ahsan ( Urdu : حسيب احسن ; 15 July 1939 – 8 March 2013 ) was a Pakistani cricketer who played 12 Tests for Pakistan between 1958 and 1962 . He was born in Peshawar , Khyber Pakhtunkhwa . A right-arm off spinner , he took 27 wickets in Test cricket at an average of 49.25 , including two five-wicket hauls . During his first-class career , he played 49 matches and took 142 wickets at an average of 27.71 . Former Pakistan cricketer Waqar Hasan said about him that he " was a fighter to the core and served Pakistan cricket with honour and dignity . " Ahsan had conflicts with former Pakistan captain Javed Burki . A controversy regarding his bowling action resulted in the premature end of his international career when he was only 23 . He worked as chief selector , team manager of Pakistan , and member of the 1987 Cricket World Cup organising committee . He died in Karachi on 8 March 2013 , aged 73 . = = Cricketing career = = Ahsan played 49 first-class matches for Pakista</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Somerset County Cricket Club in 1882 = Somerset County Cricket Club made their debut in first-class cricket in the 1882 English cricket season . They were captained by Stephen Newton , and played eight first-class matches , five against county opposition , two against the Marylebone Cricket Club and one against the touring Australian team . They only won one of the eight contests , that against Hampshire at Taunton . Of the other matches , one was drawn and the other six were all losses for Somerset . Wisden Cricketers ' Almanack described the season as " disastrous " , but the publication qualified this statement with mild optimism for 1883 . Part of the reason for Somerset 's poor performances was their inability to consistently field their best players ; at least four of their better cricketers were unable to commit to the full fixture list , and in all the county played 30 different people in their eight matches . Faint praise was offered to the batting of William Herbert Fowler , </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>M. P. Bajana = Manek Pallon Bajana ( 14 September 1886 – 28 April 1927 ) was an Indian amateur cricketer who played 55 first-class cricket matches between 1911 and 1920 . Originally a member of the Indian team which toured England in 1911 , he remained in the country and joined Somerset County Cricket Club , for which he played as an opening batsman until 1920 . During his nine-year first-class cricket career , Bajana scored 1,975 runs at an average of 20.78 . He scored three centuries , and made his highest score in 1920 , scoring 115 runs against Cambridge University . = = Early life and Indian tour = = Manek Pallon Bajana was born on 14 September 1886 in India . Leading up to 1911 , he was employed in India by Maharaja Nripendra Narayan of Cooch Behar , and early that year , Bajana travelled as part of the Maharajah 's retinue to England , where Narayan was attending the coronation of King George V. In England , he joined up with the touring Indian cricket team , as one of seven Par</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ron Saggers = Ronald Arthur Saggers ( 15 May 1917 – 17 March 1987 ) was an Australian cricketer who played for New South Wales . He played briefly for the Australian team , playing six Tests between 1948 and 1950 . In his Test cricket career he made 24 dismissals ( 16 catches and 8 stumpings ) and scored 30 runs at an average of 10.00 . As a wicket-keeper , Saggers was " tidy and unobtrusive " , and the understudy to Don Tallon on the 1948 Australian tour of England . The touring party , led by Donald Bradman in his last season , was nicknamed The Invincibles and was widely regarded as one of the strongest ever . Saggers played in the Test match at Headingley , where he took three catches , and his only other experience of Test cricket was on the tour to South Africa in 1949 – 50 , in which Tallon did not take part . Saggers played in all five Tests and took 21 dismissals , but Tallon replaced him for the home Ashes series against England the following season . In domestic cricket , Sa</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geoffrey Boycott = Geoffrey Boycott OBE ( born 21 October 1940 ) is a former Yorkshire and England cricketer . In a prolific and sometimes controversial playing career from 1962 to 1986 , Boycott established himself as one of England 's most successful opening batsmen and since retiring as a player , he has found further success as a cricket commentator . Boycott made his international debut in a 1964 Test match against Australia . He was noted for his ability to occupy the crease and became a key feature of England 's Test batting line up for many years , although he was less successful in his limited One Day International ( ODI ) appearances . He accumulated large scores – he is the equal fifth highest accumulator of first-class centuries in history , eighth in career runs and the first English player to average over 100 in a season ( 1971 and 1979 ) – but often encountered friction with his team mates . Journalist Ian Wooldridge commented that " Boycott , in short , walks alone " , </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['film', 'films', 'bond', 'disney', 'role', 'movie', 'actor', 'starred', 'cast', 'box', 'tamil', 'director', 'filming', 'grossing', 'production']</t>
+          <t>['battalion', 'brigade', 'aircraft', 'division', 'regiment', 'squadron', 'wing', 'infantry', 'training', 'battalions', 'unit', 'units', 'flight', 'air', 'australian']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['french', 'british', 'governor', 'militia', 'troops', 'battle', 'massachusetts', 'boston', 'command', 'kentucky', 'fort', 'men', 'army', 'fleet', 'general']</t>
+          <t>['election', 'governor', 'bush', 'republican', 'senate', 'president', 'democratic', 'massachusetts', 'campaign', 'presidential', 'elected', 'kentucky', 'lincoln', 'senator', 'vote']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -896,32 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['castle', 'century', 'station', 'church', 'castles', 'built', 'bridge', 'tower', 'pier', 'railway', 'bailey', 'river', 'building', 'trains', 'bristol']</t>
+          <t>['castle', 'church', 'century', 'castles', 'king', 'cathedral', 'tower', 'medieval', 'earl', 'england', 'nave', 'bishop', 'edward', 'chancel', 'built']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cowes Castle = Cowes Castle , also known as West Cowes Castle , is a Device Fort in Cowes on the Isle of Wight . Originally built by Henry VIII in 1539 to protect England against the threat of invasion from France and the Holy Roman Empire , it comprised a circular bastion , flanking wings and a keep , and in 1547 it housed 17 pieces of artillery . With its companion fortification at East Cowes , the castle overlooked the entrance to the River Medina , an important anchorage . The invasion threat passed but the fortification continued in use until the middle of the 19th century , very briefly seeing action in 1642 during the English Civil War . Decommissioned in 1854 , the castle was first leased , and later bought outright , by the Royal Yacht Squadron to form their new clubhouse . The Squadron then employed the architect Anthony Salvin to rebuild large parts of it between 1856 and 1858 . It became the headquarters for part of the D-Day invasion force during the Second World War , but</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Worcester Castle = Worcester Castle was a Norman fortification built between 1068 and 1069 in Worcester , England by Urse d 'Abetot on behalf of William the Conqueror . The castle had a motte-and-bailey design and was located on the south side of the old Anglo-Saxon city , cutting into the grounds of Worcester Cathedral . Royal castles were owned by the king and maintained on his behalf by an appointed constable . At Worcester that role was passed down through the local Beauchamp family on a hereditary basis , giving them permanent control of the castle and considerable power within the city . The castle played an important part in the wars of the 12th and early 13th century , including the Anarchy and the First Barons ' War . In 1217 , Henry III 's government decided to break the power of the Beauchamps and reduce the ongoing military threat posed by the castle by returning much of the castle 's bailey to the cathedral . Without an intact bailey the castle was no longer valuable milit</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wressle Castle = Wressle Castle is a ruined palace-fortress in the East Riding of Yorkshire , England , built for Thomas Percy in the 1390s . It is privately owned and not open to the public . Wressle Castle originally consisted of four ranges built around a central courtyard ; there was a tower at each corner , and the structure was entered through a gatehouse in the east wall , facing the village . After Thomas Percy was executed for rebelling against Henry IV , Wressle Castle passed into royal control . With occasional periods when it was granted to other people , the castle was mostly under royal control until 1471 when it was returned to the Percy family . Henry Percy , 5th Earl of Northumberland , refurbished the castle and gardens , bringing them to the standard of royal properties . The castle was embedded within an ornamental landscape , with two gardens laid out at the same time as the castle was founded and a third created later . Wressle was intended as a high-status reside</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grade I listed buildings in Somerset = The Grade I listed buildings in Somerset , England , demonstrate the history and diversity of its architecture . The ceremonial county of Somerset consists of a non-metropolitan county , administered by Somerset County Council , which is divided into five districts , and two unitary authorities . The districts of Somerset are West Somerset , South Somerset , Taunton Deane , Mendip and Sedgemoor . The two administratively independent unitary authorities , which were established on 1 April 1996 following the breakup of the county of Avon , are North Somerset and Bath and North East Somerset . These unitary authorities include areas that were once part of Somerset before the creation of Avon in 1974 . In the United Kingdom , the term listed building refers to a building or other structure officially designated as being of special architectural , historical , or cultural significance ; Grade I structures are those considered to be " buildings of excep</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bedford Castle = Bedford Castle was a large medieval castle in Bedford , England . Built after 1100 by Henry I , the castle played a prominent part in both the civil war of the Anarchy and the First Barons ' War . The castle was significantly extended in stone , although the final plan of the castle remains uncertain . Henry III of England besieged the castle in 1224 following a disagreement with Falkes de Breauté ; the siege lasted eight weeks and involved an army of as many as 2,700 soldiers with equipment drawn from across England . After the surrender of the castle , the king ordered its destruction . Although partially refortified in the 17th century during the English Civil War , the castle remained a ruin until the urban expansion in Bedford during the 19th century , when houses were built across much of the property . Today only part of the motte still stands , forming part of an archaeological park built on the site between 2007 and 2009 . = = History = = = = = Early history (</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['match', 'wrestling', 'championship', 'wwe', 'tag', 'raw', 'ring', 'smackdown', 'defeated', 'heavyweight', 'feud', 'event', 'wwf', 'michaels', 'title']</t>
+          <t>['yard', 'yards', 'touchdown', 'season', 'michigan', 'team', 'nba', 'league', 'coach', 'tech', 'alabama', 'football', 'points', 'quarter', 'games']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Armageddon ( 2008 ) = Armageddon ( 2008 ) was a professional-wrestling pay-per-view event produced by the World Wrestling Entertainment ( WWE ) promotion and presented by Ubisoft 's Prince of Persia . It took place on December 14 , 2008 , at the HSBC Arena in Buffalo , New York . It featured professional wrestlers and other talent from all WWE 's three brands : Raw , SmackDown and ECW . The ninth and final event within the Armageddon chronology , it featured on its card seven professional wrestling matches . During the SmackDown main event , Jeff Hardy defeated Triple H and WWE Champion Edge in a Triple Threat match to win the championship . The Raw main event featured the World Heavyweight Championship contested in a standard wrestling match , in which John Cena defeated Chris Jericho to retain the title . The undercard featured several matches , including CM Punk against Rey Mysterio in the finals of a tournament to determine the number-one contender to the WWE Intercontinental Champ</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>New Year 's Revolution ( 2007 ) = New Year 's Revolution ( 2007 ) was the third annual and final New Year 's Revolution professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) . It took place on January 7 , 2007 , at Kemper Arena in Kansas City , Missouri and featured wrestlers and other talent from WWE 's Raw brand . There were seven professional wrestling matches scheduled on the event 's card . Four championships exclusive to the Raw brand were contested for ; none was lost as all four championships were retained . The main event was a standard wrestling match , in which WWE Champion John Cena defeated challenger Umaga to retain his championship . Two predominant bouts were featured on the undercard . The first was a Tag team match , in which World Tag Team Champions Rated-RKO ( Edge and Randy Orton ) fought D-Generation X ( Triple H and Shawn Michaels ) to a no-contest . Due to WWE rules , a title can only change hands via pinfall or submission ,</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Against All Odds ( 2005 ) = Against All Odds ( 2005 ) was a professional wrestling pay-per-view ( PPV ) event produced by Total Nonstop Action Wrestling ( TNA ) , which took place on February 13 , 2005 at the TNA Impact ! Zone in Orlando , Florida . It was the first event under the Against All Odds chronology . Eight matches were featured on the event 's card . The main event was for the NWA World Heavyweight Championship between the champion , Jeff Jarrett , and the challenger , Kevin Nash , in which Jarrett won to retain the championship . Another featured match was an Iron Man match for the TNA X Division Championship , in which the wrestler with the most scoring conditions after thirty minutes would win . The champion , A.J. Styles , defeated the challenger , Christopher Daniels , to retain the championship in this match . Multiple bouts were scheduled on the undercard . One saw Abyss defeat Jeff Hardy in a match where the competitors had to climb a ladder and retrieve an envelope </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No Mercy ( 2003 ) = No Mercy ( 2003 ) was a professional wrestling pay-per-view event produced by World Wrestling Entertainment ( WWE ) and presented by Subway , which took place on October 19 , 2003 , at the 1st Mariner Arena in Baltimore , Maryland . It was the sixth event under the No Mercy chronology and starred wrestlers from the SmackDown ! brand . Nine professional wrestling matches were scheduled on the event 's card . The main event saw WWE Champion Brock Lesnar defeat The Undertaker to retain his championship in a match where a chain was hung from a pole and the first man to reach it could use it as a legal weapon in what was called a Biker Chain match . Two featured bouts were scheduled on the undercard . In a standard match for the WWE United States Championship , the Big Show defeated Eddie Guerrero to win the title . The other was also a standard match , in which Kurt Angle defeated John Cena . No Mercy had an attendance of approximately 8,500 and received about 254,000 p</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Derick Neikirk = Derick Lee Neikirk ( also spelled Derek Neikirk or Derrick Neikirk , born September 5 , 1974 ) is an American professional wrestler and former minor league baseball player . He has competed for several promotions , and currently competes for Impact Zone Wrestling ( IZW ) , a territory of the National Wrestling Alliance ( NWA ) based in Phoenix , Arizona . He has also wrestled in several other promotions and was signed to a contract with World Wrestling Entertainment ( WWE ) for several years . Much of his career has been connected with fellow wrestler Mike Knox , as the two have held championships together as a tag team and have feuded on multiple occasions . = = Baseball career = = Before entering professional wrestling , Neikirk played catcher for the Mesa Community College baseball team in the Arizona Community College Athletic Conference ( ACCAC ) . In 1996 , he was named to the All-ACCAC Team . That year , he was picked by the Detroit Tigers in the 19th round of t</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['building', 'city', 'park', 'chicago', 'memorial', 'memorials', 'library', 'fountain', 'indiana', 'square', 'galveston', 'street', 'buildings', 'bay', 'courthouse']</t>
+          <t>['olympics', 'olympic', 'athletes', 'medal', 'championships', 'murray', 'meter', 'freestyle', 'round', 'beijing', 'medals', 'games', 'gold', 'seconds', 'relay']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['simpsons', 'episodes', 'episode', 'homer', 'stan', 'parker', 'kenny', 'animated', 'kyle', 'nickelodeon', 'voice', 'lisa', 'jake', 'television', 'voiced']</t>
+          <t>['match', 'tag', 'wrestling', 'championship', 'wwe', 'ring', 'raw', 'event', 'michaels', 'defeated', 'heavyweight', 'smackdown', 'feud', 'wwf', 'angle']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bill Oakley = Bill Oakley ( born February 27 , 1966 ) is an American television writer and producer , known for his work on the animated comedy series The Simpsons . Oakley and Josh Weinstein became best friends and writing partners at high school ; Oakley then attended Harvard University and was Vice President of the Harvard Lampoon . He worked on several short-term media projects , including writing for the variety show Sunday Best , but was then unemployed for a long period . Oakley and Weinstein eventually penned a spec script for Seinfeld , after which they wrote " Marge Gets a Job " , an episode of The Simpsons . Subsequently , the two were hired to write for the show on a permanent basis in 1992 . After they wrote episodes such as " $ pringfield ( Or , How I Learned to Stop Worrying and Love Legalized Gambling ) " , " Bart vs. Australia " and " Who Shot Mr. Burns ? " , the two were appointed executive producers and showrunners for the seventh and eighth seasons of the show . The</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Josh Weinstein = Josh Weinstein ( born May 5 , 1966 ) is an American television writer and producer , known for his work on the animated comedy series The Simpsons . Weinstein and Bill Oakley became best friends and writing partners at St. Albans High School ; Weinstein then attended Stanford University and was editor-in-chief of the Stanford Chaparral . He worked on several short-term media projects , including writing for the variety show Sunday Best , but was then unemployed for a long period . Weinstein and Oakley eventually penned a spec script for Seinfeld , after which they wrote " Marge Gets a Job " , an episode of The Simpsons . Subsequently , the two were hired to write for the show on a permanent basis in 1992 . After they wrote episodes such as " $ pringfield ( Or , How I Learned to Stop Worrying and Love Legalized Gambling ) " , " Bart vs. Australia " and " Who Shot Mr. Burns ? " , the two were appointed executive producers and showrunners for the seventh and eighth season</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maggie Simpson = Margaret " Maggie " Simpson is a fictional character in the animated television series The Simpsons . She first appeared on television in the Tracey Ullman Show short " Good Night " on April 19 , 1987 . Maggie was created and designed by cartoonist Matt Groening while he was waiting in the lobby of James L. Brooks ' office . She received her first name from Groening 's youngest sister . After appearing on The Tracey Ullman Show for three years , the Simpson family was given their own series on the Fox Broadcasting Company which debuted December 17 , 1989 . Maggie is the youngest child of Marge and Homer , and sister to Bart and Lisa . She is often seen sucking on her red pacifier and , when she walks , she trips over her clothing and falls on her face ( this running gag is used much more in earlier seasons ) . Being an infant , she cannot talk . She is a counterpart to Lisa Simpson . However , she did appear to talk in the first Tracy Ullman short . Therefore , she is </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Test the Store = " Test the Store " is the seventeenth episode of the eighth season of the American comedy television series The Office and the show 's 169th episode overall . The episode was written by Mindy Kaling , directed by Brent Forrester , and aired on NBC in the United States on March 1 , 2012 . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , Dwight Schrute ( Rainn Wilson ) attempts to put on a theatrical presentation to impress Nellie Bertram ( Catherine Tate ) . Meanwhile , in Scranton , Andy Bernard ( Ed Helms ) comes to work with an embarrassing black eye . " Test the Store " contains many cultural allusions , including several to the NBC action-comedy series Chuck . The episode received mixed reviews from critics . According to the Nielsen Media Research , " Test the Store " was viewed by an estimated 4.95 millio</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ned Flanders = Nedward " Ned " Flanders , Jr. is a recurring fictional character in the animated television series The Simpsons . He is voiced by Harry Shearer , and first appeared in the series premiere episode " Simpsons Roasting on an Open Fire " . He is the good-natured , cheery next-door neighbor to the Simpson family and is generally loathed by Homer Simpson . A devout Evangelical Christian with an annoyingly perfect family , he is among the friendliest and most compassionate of Springfield 's citizens and is generally considered a pillar of the Springfield community . He was one of the first characters outside of the immediate Simpson family to appear on the show , and has since been central to several episodes , the first being season two 's " Dead Putting Society " . His last name comes from Flanders St. in Portland , Oregon , the hometown of Simpsons creator Matt Groening . When he was created , he was intended to just be a neighbor who was very nice , but whom Homer loathed </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['battalion', 'brigade', 'division', 'regiment', 'infantry', 'battalions', 'squadron', 'training', 'unit', 'units', 'raaf', 'australian', '2nd', 'japanese', '1st']</t>
+          <t>['watershed', 'creek', 'dam', 'island', 'population', 'city', 'area', 'river', 'volcano', 'volcanic', 'flows', 'lighthouse', 'lava', 'bay', 'water']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2 / 48th Battalion ( Australia ) = The 2 / 48th Battalion was an infantry battalion of the Australian Army which served during the Second World War . Raised in Adelaide in South Australia in August 1940 , the battalion formed part of the 26th Brigade and was initially assigned to the 7th Division , although it was later transferred to the 9th Division in 1941 when it was deployed to the Middle East . While there , it saw action during the siege of Tobruk and the First and Second Battles of El Alamein before being returned to Australia to take part in the fighting in New Guinea following Japan 's entry into the war . During the campaign in New Guinea , the battalion took part in the advance on Lae during the Salamaua – Lae campaign and the fighting around Finschhafen and Sattelberg , during the Huon Peninsula campaign . Following this it was withdrawn to Australia , where it remained for over a year . In mid-1945 , the 2 / 48th Battalion took part in the landing on Tarakan , which was i</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">No. 457 Squadron RAAF = No. 457 Squadron was a Royal Australian Air Force ( RAAF ) fighter squadron of World War II . Equipped with Supermarine Spitfire fighters , it was formed in England during June 1941 under Article XV of the Empire Air Training Scheme . The squadron was transferred to Australia in June 1942 and saw combat in the South West Pacific Area before being disbanded in November 1945 . The squadron saw combat against both Nazi Germany and the Empire of Japan during the war . From March to May 1942 it was based in southern England and flew missions over German-occupied France during which it shot down at least five Luftwaffe aircraft . After being deployed to Australia , No. 457 Squadron was based near Darwin as part of No. 1 Wing RAAF and intercepted several Japanese raids on Allied bases in northern Australia between March and November 1943 . The squadron remained at Darwin and saw almost no combat during 1944 , but moved to Morotai and later Labuan in 1945 from where it </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">17th Airborne Division ( United States ) = The 17th Airborne Division was an airborne infantry division of the United States Army during World War II , and was commanded by Major General William M. Miley . It was officially activated as an airborne division in April 1943 but was not immediately sent to a combat theater , remaining in the United States to complete its training . During this training process , the division took part in several training exercises , including the Knollwood Maneuver , in which it played a vital part in ensuring that the airborne division remained as a military formation in the U.S. Army after the poor performance of American airborne forces in the invasion of Sicily . As such it did not take part in the first two large-scale airborne operations conducted by the Allies , Operation Husky and Operation Neptune , only transferring to Britain after the end of Operation Overlord . When the division arrived in Britain , it came under the command of XVIII Airborne </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Australian Army during World War II = The Australian Army was the largest service in the Australian military during World War II . Prior to the outbreak of war the Australian Army was split into the small full-time Permanent Military Forces ( PMF ) and the larger part-time Militia . Following the outbreak of war , on 14 September 1939 Prime Minister Robert Menzies announced that 40,000 members of the Militia would be called up for training and a 20,000-strong expeditionary force , designated the Second Australian Imperial Force ( Second AIF ) , would be formed for overseas service . Meanwhile , conscription was introduced in October 1939 to keep the Militia at strength as its members volunteered for the AIF . The Australian Army subsequently made an important contribution to the Allied campaigns in the Mediterranean , the Middle East and North Africa fighting the Germans , Italians and Vichy French during 1940 and 1941 , and later in the jungles of the South West Pacific Area fighting </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No. 4 Commando = No. 4 Commando was a battalion-sized British Army commando unit , formed in 1940 early in the Second World War . Although it was raised to conduct small-scale raids and harass garrisons along the coast of German occupied France , it was mainly employed as a highly trained infantry assault unit . The unit 's first operation was the successful raid on the Lofoten Islands in March 4 , 1941 . The next two planned operations were both cancelled and it was not until April 22 , 1942 that No. 4 Commando took part in another raid , Operation Abercrombie , a raid on the French coastal town of Hardelot . On August 22 , 1942 , No. 4 was one of three commando units selected for the Dieppe raid . Under the command of Lord Lovat , No. 4 Commando landed on the right flank of the main landings and successfully silenced a German gun battery . This was the only complete success of the operation , which was eventually aborted , after less than 10 hours , following heavy losses . As part o</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['olympics', 'athletes', 'olympic', 'medal', 'meter', 'freestyle', 'championships', 'beijing', 'medals', 'seconds', 'relay', 'gold', 'competed', 'games', 'summer']</t>
+          <t>['liz', 'dwight', 'jim', 'pam', 'michael', 'episode', 'nbc', 'jack', 'fey', 'jenna', 'andy', 'office', 'tracy', 'kenneth', 'tgs']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Andreas Thorkildsen = Andreas Thorkildsen ( born 1 April 1982 ) is a former Norwegian javelin thrower , born in Kristiansand . He is the first male javelin thrower in history to be European champion , World champion and Olympic champion . He was Olympic champion in 2004 and 2008 , European champion in 2006 and 2010 , World Champion in 2009 as well as a three-time silver medalist at the World championships in 2005 , 2007 and in 2011 . He set a world junior record in 2001 . He has a personal best of 91.59 m set in 2006 . = = Personal life = = Thorkildsen 's father Tomm Thorkildsen is a former javelin thrower , achieving a personal best throw of 71.64 metres in 1974 . His mother Bente ( née Amundsen ) became national champion in the 100 metres hurdles in 1972 , representing Hamar IL . He has one older brother . He took his secondary education at Kristiansand Cathedral School . = = = Relationship with Christina Vukicevic = = = Thorkildsen 's relationship with the Norwegian hurdler Christin</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Anky van Grunsven = Theodora Elisabeth Gerarda " Anky " van Grunsven ( born 2 January 1968 ) is a Dutch dressage champion who holds the record for the most Olympic medals won by any equestrian athlete and is the only rider to record three successive Olympic wins in the same event . Along with her Olympic successes , she has won numerous medals at the World Equestrian Games ( WEG ) , and is the only rider to have competed at every WEG since they began in 1990 . Between 1990 and 2006 , she competed at the Games in dressage , but in 2010 she was named as part of the Dutch reining team , marking a major change in discipline . In addition to her Olympic and World Equestrian Games successes , van Grunsven holds the record for the most wins at the Dressage World Cup , winning the event nine times between 1995 and 2008 . She has also competed numerous times at the European Dressage Championships , winning seven individual medals and eight team medals between 1991 and 2009 . Although van Grunsv</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>American Samoa at the 2008 Summer Olympics = American Samoa sent a team to the 2008 Summer Olympics in Beijing , China . The U.S. territory selected four athletes to compete in three sports : swimming , athletics and judo . The dependency 's participation in Beijing marked its seventh participation in any Olympic game since its debut at the 1988 Summer Olympics in Seoul , and its sixth participation at any Summer Olympic games . Of the four American Samoan athletes who participated in Beijing , all four were first-time Olympians and born outside of American Samoa and none of the four advanced past the qualification or preliminary rounds of their events . More women participated in the 2008 American Samoan Olympic delegation than in any one delegation in its Olympic history . Judoka Silulu A 'etonu was the territory 's flagbearer at the ceremonies . = = Background = = American Samoa is a territory of the United States that lies in the South Pacific Ocean to the far east of Australia . T</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mauritania at the 2004 Summer Olympics = Mauritania competed at the 2004 Summer Olympics in Athens , Greece , from 13 to 29 August 2004 . The country 's participation at Athens marked its sixth appearance in the Summer Olympics since its debut in the 1984 Summer Olympics . The delegation included two track and field athletes , Youba Hmeida and Aminata Kamissoko , who were both selected by wildcards after both failed to meet either the " A " or " B " qualifying standards . Hmeida was selected as the flag bearer for the opening ceremony . Neither of the Mauritanians progressed beyond the heats . = = Background = = Mauritania participated in six Summer Olympic games between its debut in the 1984 Summer Olympics in Los Angeles , United States and the 2004 Summer Olympics in Athens . The Mauritania National Olympic Committee ( NOC ) selected two athletes via wildcards . Usually , an NOC would be able to enter up to 3 qualified athletes in each individual event as long as each athlete met th</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great Britain at the 2008 Summer Olympics = The United Kingdom of Great Britain and Northern Ireland competed as Great Britain at the 2008 Summer Olympics in Beijing , China . The United Kingdom was represented by the British Olympic Association ( BOA ) , and the team of selected athletes was officially known as Team GB . Britain is one of only five NOCs to have competed in every modern Summer Olympic Games since 1896 . The delegation of 547 people included 311 competitors – 168 men , 143 women – and 236 officials . The team was made up of athletes from the whole United Kingdom including Northern Ireland ( whose people may elect to hold Irish citizenship and are able to be selected to represent either Great Britain or Ireland at the Olympics ) . Additionally some British overseas territories compete separately from Britain in Olympic competition . Great Britain 's medal performance at the 2008 Summer Olympics was its best in a century ; only its performance at the 1908 Summer Olympics </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'umpired']</t>
+          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'university_of_cambridge']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Manor Farm , Ruislip = Manor Farm is a 22-acre ( 8.9 ha ) historic site in Ruislip , Greater London . It incorporates a medieval farm complex , with a main old barn dating from the 13th century and a farm house from the 16th . Nearby are the remains of a motte-and-bailey castle believed to date from shortly after the Norman conquest of England . Original groundwork on the site has been dated to the 9th century . Ownership of the site passed to the King 's College , Cambridge in the 15th century , with whom it remained until 1931 . At this point Manor Farm was included in the sale of Park Wood as a gift to the people of Ruislip . The Great Barn and Little Barn were recognised by a member of the Royal Society of Arts in 1930 as in need of conservation . The site continued as a working farm until 1933 . Throughout 2007 and 2008 , the site was restored with National Lottery funding , and has become a heritage area for the London Borough of Hillingdon . Manor Farm is within the Ruislip Vill</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Madcap Laughs = The Madcap Laughs is the debut solo album by the English singer-songwriter Syd Barrett . It was recorded after Barrett had left Pink Floyd in April 1968 . The album had a chequered recording history , with work beginning in mid-1968 , but the bulk of the sessions taking place between April and July 1969 , for which five different producers were credited − including Barrett , Peter Jenner ( 1968 sessions ) , Malcolm Jones ( early-to-mid-1969 sessions ) , and fellow Pink Floyd members David Gilmour and Roger Waters ( mid-1969 sessions ) . Among the guest musicians are Willie Wilson from ( Gilmour 's old band ) Jokers Wild and Robert Wyatt of the band Soft Machine . The Madcap Laughs , released in January 1970 on Harvest in the UK , and on Capitol Records in the US , enjoyed minimal commercial success on release , reaching number 40 on the UK 's official albums chart , while failing to hit the US charts . It was re-released in 1974 as part of Syd Barrett ( which contai</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Joan Curran = Joan Elizabeth Curran ( 26 February 1916 – 10 February 1999 ) was a Welsh scientist who played important roles in the development of radar and the atomic bomb during the Second World War . She invented chaff , a radar countermeasure technique credited with reducing losses among Allied bomber crews . She also worked on the development of the proximity fuse and the electromagnetic isotope separation process for the atomic bomb . = = Early life = = Joan Elizabeth Strothers was born on 26 February 1916 in Swansea , Wales , the daughter of an optician , Charles William Strothers , and his wife , Margaret Beatrice , née Millington . She was educated at Swansea Girls ' High School , and in 1934 won an open scholarship to Newnham College , Cambridge . In 1935 , she rowed for the ladies ' university eight , in the first real Women 's boat race against Oxford . She gained an honours degree in physics , which was not awarded because it was before women were allowed Cambridge degrees</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amy Robsart = Amy Dudley ( née Robsart ) ( 7 June 1532 – 8 September 1560 ) was the first wife of Lord Robert Dudley , favourite of Elizabeth I of England . She is primarily known for her death by falling down a flight of stairs , the circumstances of which have often been regarded as suspicious . Amy Robsart was the only child of a substantial Norfolk gentleman and at nearly 18 married Robert Dudley , a son of John Dudley , 1st Duke of Northumberland . In 1553 Robert Dudley was condemned to death and imprisoned in the Tower of London , where Amy Dudley was allowed to visit him . After his release the couple lived in strait financial circumstances until , with the accession of Elizabeth I in late 1558 , Dudley became Master of the Horse , an important court office . The Queen soon fell in love with him and there was talk that Amy Dudley , who did not follow her husband to court , was suffering from an illness , and that Elizabeth would perhaps marry her favourite should his wife die . </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tom Tancredo presidential campaign , 2008 = The Tom Tancredo presidential campaign , 2008 for President of the United States began with the announcement of candidacy by the Congressman from Colorado on April 2 , 2007 . Since then , the campaign had garnered grassroots support and endorsements from conservative Republicans concerned about illegal immigration and border security . However , the candidate remained low in the polls and was criticized for his nativist campaign , which had been described as " single-issued . " Tancredo stated that he probably would not win the nomination but hoped his campaign would bring forth more debate on his issue of concern , immigration . On December 20 , 2007 Tancredo withdrew from the presidential race , and endorsed Mitt Romney . = = Campaign development = = Prior to his announcement early in 2007 , draft movements sprung to try to convince Congressman Tancredo to run for President of the United States . Tancredo responded to the draft efforts by s</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['poem', 'poems', 'poetry', 'poet', 'han', 'shakespeare', 'ode', 'riley', 'text', 'sanskrit', 'texts', 'poetic', 'literary', 'works', 'smart']</t>
+          <t>['women', 'party', 'police', 'labour', 'book', 'rights', 'suffrage', 'government', 'feminist', 'political', 'feminism', 'murder', 'case', 'minister', 'trial']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>And Still I Rise = And Still I Rise is author Maya Angelou 's third volume of poetry , published by Random House in 1978 . It was published during one of the most productive periods in Angelou 's career ; she had written three autobiographies and published two other volumes of poetry up to that point . Angelou considered herself a poet and a playwright , but was best known for her seven autobiographies , especially her first , I Know Why the Caged Bird Sings , although her poetry has also been successful . She began , early in her writing career , alternating the publication of an autobiography and a volume of poetry . Although her poetry collections have been best-sellers , they have not received serious critical attention . And Still I Rise is made up of 32 short poems , divided into three parts . The poems ' themes focus on a hopeful determination to rise above difficulty and discouragement , and on many of the same topics as Angelou 's autobiographies and previous volumes of poetry</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cricket ( insect ) = Crickets ( also known as " true crickets " ) , of the family Gryllidae , are insects related to bush crickets , and , more distantly , to grasshoppers . The Gryllidae have mainly cylindrical bodies , round heads , and long antennae . Behind the head is a smooth , robust pronotum . The abdomen ends in a pair of long cerci ( spikes ) ; females have a long , cylindrical ovipositor . The hind legs have enlarged femora ( thighs ) , providing power for jumping . The front wings are adapted as tough , leathery elytra ( wing covers ) , and some crickets chirp by rubbing parts of these together . The hind wings are membranous and folded when not in use for flight ; many species , however , are flightless . The largest members of the family are the bull crickets , Brachytrupes , which are up to 5 cm ( 2 in ) long . More than 900 species of crickets are described ; the Gryllidae are distributed all around the world except at latitudes 55 ° or higher , with the greatest divers</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Poet Laureate of New Jersey = The Poet Laureate of New Jersey ( statutorily known as New Jersey William Carlos Williams Citation of Merit ) was an honor presented biennially by the Governor of New Jersey to a distinguished New Jersey poet . Created in 1999 , this position existed for less than four years and was abolished by the legislature effective July 2 , 2003 . When the New Jersey State Legislature created the laureate position , the bill provided specifically for the creation of an award named in honor of twentieth-century poet and physician William Carlos Williams ( 1883 – 1963 ) who resided in Rutherford , New Jersey . However , the legislature recognized that the award 's recipient would " be considered the poet laureate of the State of New Jersey for a period of two years . Before the position was abolished , only two poets , Gerald Stern and Amiri Baraka , had been appointed as the state 's poet laureate . The legislature 's bill was signed into law by Governor Christine Tod</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ode to Psyche = " Ode to Psyche " is a poem by John Keats written in spring 1819 . The poem is the first of his 1819 odes , which include " Ode on a Grecian Urn " and " Ode to a Nightingale " . " Ode to Psyche " is an experiment in the ode genre , and Keats 's attempt at an expanded version of the sonnet format that describes a dramatic scene . The poem serves as an important departure from Keats 's early poems , which frequently describe an escape into the pleasant realms of one 's imagination . Keats uses the imagination to show the narrator 's intent to resurrect Psyche and reincarnate himself into Eros ( love ) . Keats attempts this by dedicating an " untrodden region " of his mind to the worship of the neglected goddess . = = Background = = Keats was never a professional writer . Instead , he supported himself with a small income that he earned as a surgeon for Guy 's Hospital . At the age of 23 , Keats left the hospital , losing his source of income , in order to devote himself t</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ode to Psyche = " Ode to Psyche " is a poem by John Keats written in spring 1819 . The poem is the first of his 1819 odes , which include " Ode on a Grecian Urn " and " Ode to a Nightingale " . " Ode to Psyche " is an experiment in the ode genre , and Keats 's attempt at an expanded version of the sonnet format that describes a dramatic scene . The poem serves as an important departure from Keats 's early poems , which frequently describe an escape into the pleasant realms of one 's imagination . Keats uses the imagination to show the narrator 's intent to resurrect Psyche and reincarnate himself into Eros ( love ) . Keats attempts this by dedicating an " untrodden region " of his mind to the worship of the neglected goddess . = = Background = = Keats was never a professional writer . Instead , he supported himself with a small income that he earned as a surgeon for Guy 's Hospital . At the age of 23 , Keats left the hospital , losing his source of income , in order to devote himself t</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'stud', 'breeding', 'bred', 'arabian', 'stallion', 'riding', 'breeders', 'pony', 'stakes']</t>
+          <t>['officer', 'commander', 'lieutenant', 'command', 'fighter', 'promoted', 'victories', 'war', 'aircraft', 'flying', 'squadron', 'enemy', 'rank', 'medal', 'training']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ahmed Zayat = Ahmed Zayat ( born August 31 , 1962 ) is an Egyptian American entrepreneur and owner of Thoroughbred race horses . He currently serves as the CEO of Zayat Stables , LLC , a Thoroughbred horse racing business which bred and owns the 2015 Triple Crown winner American Pharoah . Joe Drape of The New York Times described Zayat as " controversial " and " one of the most successful and flamboyant owners in thoroughbred racing . " Zayat was born in Cairo , Egypt to a wealthy family , and grew up in an ethnically-diverse neighborhood where he learned to ride horses . At age 18 , he moved to the United States where he attended college and ultimately obtained a master 's degree in business and public health from Boston University . After a brief career in commercial real estate in New York City , he returned to Egypt , and for about a decade ran the Al-Ahram Beverages Company , which he owned as part of an investment group . After the company was purchased by Heineken in 2002 , Zaya</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Large Black pig = The Large Black , occasionally called the Devon , Cornwall Black or Boggu , is a breed of domestic pig native to Great Britain , particularly Devon , Cornwall and Essex . The Large Black is accurately named , as it is a large swine breed and is the only British pig that is entirely black . It is a hardy and docile pig , with Large Black sows known for having large litters . The breed 's foraging ability make it particularly useful for extensive farming , while a poor candidate for intensive farming . The Large Black combined local black pig breeds from the West Country and the East of England . With the founding of a breed association in 1898 or 1899 , variations between the types from the two areas decreased . The Large Black was popular in the early 1900s and was exported to many areas of the world . Population numbers declined after the Second World War as farmers turned to breeds more suitable to intensive pig farming , and by the 1960s the breed was almost extinc</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lusitano = The Lusitano , also known as the Pure Blood Lusitano or PSL ( Puro Sangue Lusitano ) , is a Portuguese horse breed , closely related to the Spanish Andalusian horse . Both are sometimes called Iberian horses , as the breeds both developed on the Iberian peninsula , and until the 1960s they were considered one breed , under the Andalusian name . Horses were known to be present on the Iberian Peninsula as far back as 20,000 BC , and by 800 BC the region was renowned for its war horses . When the Muslims invaded Iberia in 711 AD , they brought Barb horses with them that were crossed with the native horses , developing a horse that became useful for war , dressage and bull fighting . In 1966 , the Portuguese and Spanish stud books split , and the Portuguese strain of the Iberian horse was named the Lusitano , after the word Lusitania , the ancient Roman name for Portugal . There are three main breed lineages within the breed today , and characteristics differ slightly between ea</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Maine Coon = The Maine Coon is the largest domesticated breed of cat . It has a distinctive physical appearance and valuable hunting skills . It is one of the oldest natural breeds in North America , specifically " native " to the state of Maine ( though the feline was simply introduced there ) , where it is the official state cat . No records of the Maine Coon 's exact origins and date of introduction to the United States exist , so several competing hypotheses have been suggested . The breed was popular in cat shows in the late 19th century , but its existence became threatened when long-haired breeds from overseas were introduced in the early 20th century . The Maine Coon has since made a comeback and is now one of the more popular cat breeds in the world . The Maine Coon is a large and sociable cat , hence its nickname , " the gentle giant " . It is characterized by a robust bone structure , rectangular body shape , a silky flowing coat and a long , bushy tail . The breed 's colors</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>History of the horse in Britain = The known history of the horse in Britain starts with horse remains found in Pakefield , Suffolk , dating from 700,000 BC , and in Boxgrove , West Sussex , dating from 500,000 BC . Early humans were active hunters of horses , and finds from the Ice Age have been recovered from many sites . At that time , land which now forms the British Isles was part of a peninsula attached to continental Europe by a low-lying area now known as " Doggerland , " and land animals could migrate freely between what is now island Britain and continental Europe . The domestication of horses , and their use to pull vehicles , had begun in Britain by 2500 BC ; by the time of the Roman conquest of Britain , British tribes could assemble armies which included thousands of chariots . Horse improvement as a goal , and horse breeding as an enterprise , date to medieval times ; King John imported a hundred Flemish stallions , Edward III imported fifty Spanish stallions , and variou</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['creek', 'watershed', 'dam', 'volcano', 'lava', 'pipeline', 'flows', 'volcanic', 'trout', 'mountain', 'park', 'eruption', 'river', 'feet', 'cubic']</t>
+          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'arabian', 'bred', 'breeding', 'stud', 'stallion', 'breeders', 'pony', 'registered', 'hair']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sulphur Creek ( California ) = Sulphur Creek is a 4.5-mile ( 7.2 km ) tributary of Aliso Creek in Orange County in the U.S. state of California . Draining about 6 square miles ( 16 km2 ) of mostly residential land in the southern San Joaquin Hills , it is Aliso Creek 's largest tributary . Geologically the Sulphur Creek watershed was once part of a large and shallow sea that covered most of southern California . As the San Joaquin Hills rose and river sediments were deposited , land gradually emerged to form the present-day Orange County coast . Sulphur Creek is located in a crumpled , hilly area in the southern part of this range , formed differently from the continuous mountain chain to the north . Historically , being south of Aliso Creek , the Sulphur Creek watershed was part of the territory of the semi-nomadic Acjachemen Indian group , conquered by Spanish conquistadors in the 17th and 18th centuries and renamed the Juaneño by them . During the 19th century , the watershed became</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Little Catawissa Creek = Little Catawissa Creek is a tributary of Catawissa Creek in Columbia County and Schuylkill County , in Pennsylvania , in the United States . It is approximately 10.8 miles ( 17.4 km ) long and flows through Conyngham Township in Columbia County and Union Township and North Union Township in Schuylkill County . The named tributaries of the creek include Stony Run and Trexler Run . The creek has some alkalinity and is slightly acidic . The main rock formations in the watershed of it are the Mauch Chunk Formation , the Pocono Formation , and the Pottsville Formation . A number of other rock formations occur in small areas of the watershed as well . The main soils in the watershed are the Leck Kill soil and the Hazleton soil . The watershed of Little Catawissa Creek has an area of 16.70 square miles ( 43.3 km2 ) . A number of bridges cross the creek . There are a number of major roads in the watershed of the creek and most of the creek is within several hundred met</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Darby Creek ( Pennsylvania ) = Darby Creek ( historically known as Church Creek or the Derby River ) is a tributary of the Delaware River in Chester County , Delaware County , and Philadelphia County , in Pennsylvania , in the United States . It is approximately 26 miles ( 42 km ) long . The watershed of the creek has an area of 77.2 square miles ( 200 km2 ) . It has twelve named direct tributaries , including Cobbs Creek , Little Darby Creek , Ithan Creek , and Muckinipattis Creek . The creek has a low level of water quality for most of its length . A reach of it is considered to be impaired by habitat modification , siltation , and flow variability stemming from urban runoff and storm sewers . The creek is slightly alkaline . Darby Creek flows through a narrow valley in its upper reaches and a tidal flat in its lower reaches . The creek is in the Piedmont Uplands and Atlantic Coastal Plain physiographic provinces . Major rock formations in the watershed include the Wissahickon Format</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">West Branch Fishing Creek = West Branch Fishing Creek is one of the northernmost major tributaries of Fishing Creek in Sullivan County , Pennsylvania and Columbia County , Pennsylvania , in the United States . It is 11.1 miles ( 17.9 km ) long and flows through Davidson Township , Sullivan County and Sugarloaf Township , Columbia County . The creek 's watershed has an area of 33.5 square miles , nearly all of which is forested land . Rock formations in the watershed of West Branch Fishing Creek include the Catskill Formation , the Huntley Mountain Formation , and the Burgoon Sandstone . North Mountain , Huckleberry Mountain , and Central Mountain are all in the creek 's vicinity . The temperature of the creek 's waters ranges from − 2 ° C ( 28 ° F ) to 23 ° C ( 73 ° F ) and its pH ranges from approximately 5.5 to just under 7.0 . The creek 's discharge ranges from nearly 0 cubic meters per second to approximately 25 cubic meters per second . Communities in the watershed of West Branch </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lake Neepaulin = Lake Neepaulin is a small man-made freshwater lake located in Wantage Township in Sussex County , New Jersey in the United States . Located in the watershed of Papakating Creek , a tributary of the Wallkill River , the lake was created in the 1950s by damming an unnamed mountain stream as the feature of a private residential development . The stream , now known as Neepaulakating Creek , did not receive a name until 2002 . = = Description = = Lake Neepaulin is a man-made lake created from the damming of Neepaulakating Creek , a small mountain stream that was not named until 2002 . The creek 's headwaters are located approximately 0.4 miles ( 0.6 km ) northwest of the north end of Lake Neepaulin . These headwaters are located a short distance south of County Route 650 ( Libertyville Road ) roughly halfway between the hamlet of Libertville in Wantage Township and Sussex Borough . Lake Neepaulin 's elevation is 509 feet ( 155m ) above sea level . The lake is the center of </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['aircraft', 'engine', 'flight', 'fuselage', 'wing', 'air', 'engines', 'prototype', 'radar', 'fighter', 'fuel', 'raf', 'speed', 'car', 'testing']</t>
+          <t>['british', 'french', 'militia', 'troops', 'fort', 'howe', 'battle', 'frigate', 'spanish', 'men', 'washington', 'fleet', 'expedition', 'continental_army', 'wounded']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Republic F-105 Thunderchief = The Republic F-105 Thunderchief was a supersonic fighter-bomber used by the United States Air Force . The Mach 2 capable F-105 conducted the majority of strike bombing missions during the early years of the Vietnam War ; it was the only U.S. aircraft to have been removed from combat due to high loss rates . Originally designed as a single-seat , nuclear-attack aircraft , a two-seat Wild Weasel version was later developed for the specialized Suppression of Enemy Air Defenses ( SEAD ) role against surface-to-air missile sites . The F-105 was commonly known as the " Thud " by its crews . As a follow-on to the Mach 1 capable North American F-100 Super Sabre , the F-105 was also armed with missiles and a cannon ; however , its design was tailored to high-speed low-altitude penetration carrying a single nuclear weapon internally . First flown in 1955 , the Thunderchief entered service in 1958 . The F-105 could deliver a greater bomb load than some American heavy</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavochkin La-7 = The Lavochkin La-7 ( Russian : Лавочкин Ла-7 ) was a piston-engined Soviet fighter developed during World War II by the Lavochkin Design Bureau ( OKB ) . It was a development and refinement of the Lavochkin La-5 , and the last in a family of aircraft that had begun with the LaGG-1 in 1938 . Its first flight was in early 1944 and it entered service with the Soviet Air Forces later in the year . A small batch of La-7s was given to the Czechoslovak Air Force the following year , but it was otherwise not exported . Armed with two or three 20 mm ( 0.79 in ) cannon , it had a top speed of 661 kilometers per hour ( 411 mph ) . The La-7 was felt by its pilots to be at least the equal of any German piston-engined fighter and even shot down a Messerschmitt Me 262 jet fighter . It was phased out in 1947 by the Soviet Air Force , but served until 1950 with the Czechoslovak Air Force . = = Design and development = = By 1943 , the La-5 had become a mainstay of the Soviet Air Forces </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sukhoi Su-9 ( 1946 ) = The Sukhoi Su-9 , or Samolyet K ( Russian : Aircraft K ) , ( USAF / DOD designation : Type 8 ) , was an early jet fighter built in the Soviet Union shortly after World War II . The design began in 1944 and was intended to use Soviet-designed turbojet engines . The design was heavily influenced by captured German jet fighters and it was subsequently redesigned to use a Soviet copy of a German turbojet . The Su-9 was slower than competing Soviet aircraft and it was cancelled as a result . A modified version with different engines and a revised wing became the Su-11 ( Samolyet KL ) , but this did not enter production either . The Su-13 ( Samolyet KT ) was a proposal to re-engine the aircraft with Soviet copies of the Rolls-Royce Derwent turbojet as well as to modify it for night fighting , but neither proposal was accepted . = = Design and development = = = = = Su-9 = = = In 1944 , the Sukhoi design bureau ( OKB ) began designing a twin-engined fighter powered by tw</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Petlyakov Pe-3 = The Petlyakov Pe-3 was the long-range , night fighter version of the successful Petlyakov Pe-2 high-speed bomber used by the Soviet Union during World War II . Its design and use followed a comparable path to those taken by the German Luftwaffe with the Junkers Ju 88 and the British Royal Air Force with the De Havilland Mosquito . The Soviets realized the need for a night fighter after the first night bombing of Moscow during Operation Barbarossa . The Petlyakov Pe-2 was selected for modification as the most suitable aircraft available . It was initially used for daylight ground attack missions during the Battle of Moscow , but this proved to be costly since the aircraft was unarmored . Armor and additional guns were retrofitted to the existing aircraft to make it more effective , but the evacuation of the sole factory building the Pe-3 in October 1941 limited the number of aircraft available and many units of the Soviet Air Forces flying the Pe-3 were either disbanded</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Polikarpov I-185 = The Polikarpov I-185 was a Soviet fighter aircraft designed in 1940 . It was flown with three engines but all of them were either insufficiently developed for service use or their full production was reserved for other fighters already in production . The I-185 program was cancelled on 27 January 1943 . = = Design and development = = The I-185 , designed in early 1940 , was based on the I-180 , which was itself a development of the I-16 , but was virtually a new design . The monocoque fuselage was similarly built of ' shpon ' , molded birch plywood , and also had an integral fin , but it was considerably longer than that of the I-180 . The two-spar , all-metal wing was smaller and thinner than the I-180 's wing , nearly as thin as that of the Supermarine Spitfire 's wing at 13 % at the root and tapered to 8 % at the wing tip . The wing had a NACA-230 profile and was skinned in duralumin . Pneumatically powered split flaps and leading edge slats were fitted . The oute</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['trains', 'locomotives', 'locomotive', 'oslo', 'line', 'nok', 'train', 'station', 'tunnel', 'railway', 'class', 'rail', 'railways', 'passenger', 'trondheim']</t>
+          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'ferrari', 'prix', 'driver', 'qualifying', 'session', 'fastest', 'ahead', 'hamilton', 'points']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ålgård Line = The Ålgård Line ( Norwegian : Ålgårdbanen ) is a closed , but not abandoned , railway line between Ganddal and Ålgård in Rogaland , Norway . The 12.24-kilometer ( 7.61 mi ) line was built as a narrow gauge branch line of the Jæren Line by the Norwegian State Railways ( NSB ) and opened in 1924 . It runs through the villages of Foss-Eikeland and Figgjo in Sandnes to Ålgård in Gjesdal . Several proposals were made for the Ålgård Line to become the first part of the main line from Stavanger to Oslo , but instead the Sørlandet Line was connected to the Jæren Line in 1944 . At the same time , the Ålgård Line was upgraded to standard gauge . The line had up to ten daily round trips with diesel multiple units , until passenger traffic was terminated in 1955 . Freight traffic remained until 1988 , when most of the line was abandoned in 1988 , although 3 kilometers ( 2 mi ) was used until 2001 . The line is owned by the Norwegian National Rail Administration . The station at Figgj</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hallingskeid Station = Hallingskeid Station ( Norwegian : Hallingskeid stasjon ) is a train station on the Bergensbanen line in the municipality of Ulvik in Hordaland county , Norway . Located at an elevation of 1,110 meters ( 3,640 ft ) above mean sea level , the station is situated inside a snow tunnel . It opened along with the central section of the line on 10 June 1908 and remained as a staffed station until 1982 . It is located on the Hardangervidda plateau in an area without population or road access . The station therefore serves trekkers and mountaineers . Only some of the Norwegian State Railways ( NSB ) trains stop at the station . The original station building was designed by Paul Due , who used the same architectural plan for four other mountain stations on the line . The snow tunnel has caught fire five times . The fires in 1948 , 1953 and 2008 only caused minor damage to the tunnel itself . The 1960 fire burned-down the tunnel , the station building and most of the stati</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Asker Line = The Asker Line ( Norwegian : Askerbanen ) is a 9.5-kilometre ( 5.9 mi ) railway line between Asker and Lysaker in Norway . The line runs along the same corridor as the Drammen Line , offering increased capacity , speed and regularity on the rail network west of Oslo . The first part opened in 2005 , and in 2011 an extension opened from Sandvika to Lysaker . An extension to Skøyen in Oslo will perhaps be built after 2020 . Most of the railway is in tunnel and is dimensioned for 160 km / h ( 99 mph ) running . The entire railway is electrified at 15 kV 16 2 ⁄ 3 Hz AC . The first section cost NOK 3.7 billion , while the second is budgeted at NOK 2.7 billion . The purpose of the new line is to allow regional and express trains to run directly between Asker Station , Sandvika Station and Lysaker Station , without being slowed and delayed by commuter trains that make frequent stops at intermediate stations . The Asker Line will improve regularity , and capacity will increase fro</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rodeløkka Line = The Rodeløkka Line ( Norwegian : Rodeløkkalinjen ) is a former line of the Oslo Tramway of Norway . It was in use from 1900 to 1961 , serving the neighborhood of Rodeløkka . After closing , the southern part of the line was designated as part of the Sinsen Line . The Rodeløkka Line was built by Kristiania Kommunale Sporveie ( KKS ) in 1900 , and was subsequently taken over by Kristiania Sporveisselskab ( KSS ) in 1905 . In 1924 , the ownership was transferred to Oslo Sporveier . It was served by Line 9 until 1949 , when it was replaced by a bus service . In 1955 , a new route from Carl Berners plass to Rodeløkka was built , and the line was served by Line 13 until 1961 , when the service was terminated . The tracks were removed between 1962 and 1964 . = = Route = = In 1899 , Oslo Municipality established KKS to build and operate three tram lines . The second line to open was the Rodeløkka Line on 23 March 1900 , which connected to the KSS-owned Grünerløkka – Torshov Li</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">District Railway = The Metropolitan District Railway ( commonly known as the District Railway ) was a passenger railway that served London from 1868 to 1933 . Established in 1864 to complete the inner circle , an underground railway in London , the first part of the line opened using gas-lit wooden carriages hauled by steam locomotives . The Metropolitan Railway operated all services until the District introduced its own trains in 1871 . The railway was soon extended westwards through Earl 's Court to Fulham , Richmond , Ealing and Hounslow . After completing the inner circle and reaching Whitechapel in 1884 , it was extended to Upminster in Essex in 1902 . To finance electrification at the beginning of the 20th century , American financier Charles Yerkes took it over and made it part of his Underground Electric Railways Company of London ( UERL ) group . Electric propulsion was introduced in 1905 , and by the end of the year electric multiple units operated all of the services . On 1 </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['manga', 'anime', 'comics', 'stories', 'story', 'comic', 'magazine', 'volume', 'volumes', 'fiction', 'gay', 'characters', 'pulp', 'published', 'issue']</t>
+          <t>['temple', 'mosque', 'han', 'dynasty', 'sanskrit', 'buddhist', 'hindu', 'chinese', 'bce', 'texts', 'monastery', 'buddhism', 'temples', 'wall', 'text']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Buso Renkin = Buso Renkin ( Japanese : 武装錬金 , Hepburn : Busō Renkin , lit . " Arms Alchemy " ) is a manga series written and drawn by Nobuhiro Watsuki . It follows Kazuki Muto , who becomes an alchemical warrior in the battle against alchemical monsters known as homunculi . Watsuki envisioned the manga as his last shōnen manga , and then he tried to do as much as he could with that genre . It was serialized in Shueisha 's magazine Weekly Shōnen Jump from June 2003 to April 2005 . The individual chapters were republished by Shueisha in ten tankōbon volumes . The series has been licensed by Viz Media for North American release . The manga has been adapted into an anime television series , which was produced by Xebec and was broadcast on Japanese television network TV Tokyo from 2006 to 2007 . In December 2007 , the anime was announced for North American DVD release by Viz Media . In 2009 , the series made its American television debut on the Funimation Channel , with American broadcast r</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Neuro : Supernatural Detective = Neuro : Supernatural Detective , known in Japan as Majin Tantei Nōgami Neuro ( Japanese : 魔人探偵 脳噛ネウロ , lit . " Demon Detective Neuro Nōgami " ) , is a Japanese manga series written and illustrated by Yūsei Matsui . The series follows Neuro Nōgami , a demon who depends on mysteries for sustenance . Having consumed all the mysteries in the demon world , Neuro travels to the human world in search of more . There , Neuro recruits high school student Yako Katsuragi as a facade for a detective agency . The supernatural-themed manga was created because Matsui considered himself unable to draw humans . The manga was originally serialized in Weekly Shōnen Jump from February 2005 to April 2009 . The individual chapters were collected and released in 23 tankōbon ( collected volumes ) by Shueisha . A 25-episode anime series directed by Hiroshi Kōjina and animated by Madhouse was originally aired between 2007 and 2008 on Nippon Television . In 2011 , the anime serie</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Otome wa Boku ni Koishiteru = Otome wa Boku ni Koishiteru ( 処女はお姉さまに恋してる , lit . The Maidens Are Falling in Love with Me ) , commonly known as Otoboku ( おとボク ) , is a Japanese adult visual novel developed by Caramel Box and released on January 28 , 2005 playable on Windows PCs . The game was later ported to the PlayStation 2 and PlayStation Portable ( PSP ) with the adult content removed . The Windows version was released in English by MangaGamer in 2012 . The story follows the life of Mizuho Miyanokouji , an androgynous male high school student , who transfers into an all-girls school due to his grandfather 's will . The gameplay in Otoboku follows a branching plot line which offers pre-determined scenarios with courses of interaction , and focuses on the appeal of the six female main characters by the player character . The game ranked as the second best-selling PC game sold in Japan for the time of its release , and charted in the national top 50 several more times afterwards . Cara</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Strawberry Panic ! = Strawberry Panic ! ( ストロベリー ・ パニック ! , Sutoroberī Panikku ! ) is a series of Japanese illustrated short stories written by Sakurako Kimino , which focus on a group of teenage girls attending three affiliated all-girl schools on Astraea Hill . A common theme throughout the stories is the intimate lesbian relationships between the characters . The original artist was Chitose Maki , who was succeeded by Namuchi Takumi when production of the manga and light novels began . Following Strawberry Panic ! ' s first run in Dengeki G 's Magazine it was six months before results began to indicate that the series was a success , and that its fans were growing in number ; the manga and light novels which followed were a reflection of its popularity . The series became sufficiently popular for Seven Seas Entertainment to license the manga series and light novels for English language distribution . Strawberry Panic ! was one of the debut titles on the company 's light novel and yu</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tsubasa : Reservoir Chronicle = Tsubasa : Reservoir Chronicle ( Japanese : ツバサ-RESERVoir CHRoNiCLE- , Hepburn : Tsubasa : Rezaboa Kuronikuru ) is a shōnen manga series written and illustrated by the manga artist group Clamp . It takes place in the same fictional universe as many of Clamp 's other manga series , most notably xxxHolic . The plot follows how Sakura , the princess of the Kingdom of Clow , loses all her memories and how Syaoran , a young archaeologist who is her childhood friend , goes on a quest to save her . Dimensional Witch Yūko Ichihara instructs him to go with two people , Kurogane and Fai D. Flowright . They search for Sakura 's memories , which were scattered in various worlds in the form as feathers , as gathering them will help save her soul . Tsubasa was conceived when four Clamp artists wanted to create a manga series that connected all their previous works . They took the designs for the main protagonists from their earlier manga called Cardcaptor Sakura . It w</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'driver', 'ferrari', 'qualifying', 'prix', 'session', 'fastest', 'ahead', 'caution', 'hamilton']</t>
+          <t>['simpsons', 'south_park', 'homer', 'lisa', 'episode', 'episodes', 'kenny', 'jake', 'stan', 'kyle', 'finn', 'animated', 'parker', 'voice', 'voiced']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2016 Russian Grand Prix = The 2016 Russian Grand Prix ( formally known as the 2016 Formula 1 Russian Grand Prix ; Russian : Гран-при России 2016 года ) was a Formula One motor race that took place on 1 May 2016 . The race , contested over fifty-three laps , was held at the Sochi Autodrom . It was the fourth round of the 2016 season and marked the fifth running of the Russian Grand Prix , the third time as a round of the Formula One World Championship since the series inception in 1950 . Nico Rosberg of Mercedes came into the race leading the championship ahead of his teammate Lewis Hamilton , who was the defending race winner . Nico Rosberg won the race from pole position , ahead of his teammate Lewis Hamilton , with Kimi Räikkönen completing the podium for Ferrari . While Rosberg extended his winning streak to seven consecutive Grands Prix , Sebastian Vettel retired from the race on the first lap , after contact with Red Bull 's Daniil Kvyat . With the maximum number of 100 points fro</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2015 United States Grand Prix = The 2015 United States Grand Prix ( formally known as the 2015 Formula 1 United States Grand Prix ) was a Formula One motor race that took place on 25 October 2015 . The race was contested over fifty-six laps and held at the Circuit of the Americas . It was the sixteenth round of the 2015 season and marked the thirty-seventh time that the United States Grand Prix was run as a round of the World Championship since its inception in 1950 , and the fourth time that the event was hosted at this circuit . Lewis Hamilton was the defending race winner and entered with a 66-point lead in the Drivers ' Championship over Sebastian Vettel of Ferrari , with Hamilton 's Mercedes teammate Nico Rosberg a further seven points behind . The three-day event was run in torrential conditions ; as a result , the second practice session and the final qualifying session were cancelled , while the whole of qualifying was delayed until the morning of the race day . Hamilton won th</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2016 Australian Grand Prix = The 2016 Australian Grand Prix ( formally known as the 2016 Formula 1 Rolex Australian Grand Prix ) was a Formula One motor race that was held on 20 March 2016 in Melbourne . The race was contested over fifty-seven laps of the Melbourne Grand Prix Circuit and was the first round of the 2016 FIA Formula One World Championship . The race marked the eightieth race in the combined history of the Australian Grand Prix — which dates back to the 100 Miles Road Race of 1928 — and the twenty-first time the event was held at the Melbourne Grand Prix Circuit . Mercedes driver Lewis Hamilton was the defending race winner . Hamilton took the first pole position of the season and the fiftieth of his career in a qualifying session that saw the introduction of a new one-by-one elimination format that was widely criticised . His teammate Nico Rosberg took victory ahead of Hamilton and Ferrari 's Sebastian Vettel . The race was stopped on lap 18 following an accident involvi</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2015 Chinese Grand Prix = The 2015 Chinese Grand Prix ( formally known as the 2015 Formula 1 Chinese Grand Prix ) was a Formula One motor race that was held on 12 April 2015 at the Shanghai International Circuit in Shanghai , China . The race was the third round of the 2015 season , and marked the twelfth time that the Chinese Grand Prix has been run as a round of the Formula One World Championship . Lewis Hamilton was the defending race winner and went into the weekend with a three-point lead in the world championship over Sebastian Vettel , who had surprised the field by taking victory in the previous round at Malaysia . Hamilton took pole position during Saturday 's qualifying , the 41st of his career and the third in a row . He went on to win the race from his team mate Nico Rosberg . = = Report = = = = = Background = = = After Sebastian Vettel 's surprise victory two weeks prior in Malaysia , eyes were on Ferrari whether they would be able to continue their good race pace in China</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2015 Mexican Grand Prix = The 2015 Mexican Grand Prix ( formally known as the Formula 1 Gran Premio de México 2015 ) was a Formula One motor race held at the Autódromo Hermanos Rodríguez in Mexico City on 1 November 2015 . The race , which was contested over seventy-one laps , was the seventeenth race of the 2015 Formula One season . It marked the seventeenth time that the Mexican Grand Prix has been run as a round of the Formula One World Championship since its inception in 1950 , and the first time that the race has been run since 1992 . Nico Rosberg qualified in pole position , having already been fastest in two of the three free practice sessions . He won the race for Mercedes , followed by his teammate Lewis Hamilton , who had secured the Drivers ' Championship at the previous event in the United States . Valtteri Bottas completed the podium in third , driving for Williams . Both Ferrari drivers — Sebastian Vettel and Kimi Räikkönen — retired after crashes , with both losing one p</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['yard', 'yards', 'touchdown', 'tech', 'alabama', 'bowl', 'quarter', 'michigan', 'offense', 'football', 'pass', 'rushing', 'quarterback', 'conference', 'touchdowns']</t>
+          <t>['formula', 'matrix', 'function', 'newton', 'linear', 'plants', 'constant', 'language', 'defined', 'theory', 'functions', 'example', 'consciousness', 'space', 'derivative']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1998 Music City Bowl = The 1998 Music City Bowl was a postseason college football game between the Virginia Tech Hokies and Alabama Crimson Tide . It was the inaugural competition of the annual Music City Bowl . Virginia Tech represented the Big East and the University of Alabama represented the Southeastern Conference ( SEC ) . The game was the final competition for each team in the 1998 college football season . The game ended as a 38 – 7 victory for Virginia Tech . Virginia Tech 's 8 – 3 record during the 1998 college football regular season was good enough to earn it a bid to the inaugural Music City Bowl game . Facing the Hokies were the Alabama Crimson Tide , who had gone 7 – 4 during the regular season . The 1998 Music City Bowl kicked off on December 29 , 1998 in Nashville , Tennessee . The weather at kickoff was " horrid , " as rain and sleet mixed in freezing temperatures . The game 's early going was marked by defense as both teams struggled against the inclement weather . V</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bobby Dodd = Robert Lee Dodd ( November 11 , 1908 – June 21 , 1988 ) was an American college football coach at Georgia Tech . He was elected to the College Football Hall of Fame as a player and coach , something that only three people have accomplished . After playing quarterback at the University of Tennessee , he served as an assistant coach under William Alexander at Georgia Tech beginning in December 1930 . Alexander made the hire while Dodd was still a student at Tennessee . Dodd succeeded Alexander in 1945 as the third head coach at the Institute . He retired from coaching after the 1966 season , compiling a 165 – 64 – 8 record . He also served as Athletic Director from 1950 until 1976 . All together , Dodd served Georgia Tech 57 years in various capacities . Bobby Dodd died in June 1988 at the age of 79 in Atlanta , Georgia . = = Early life = = Robert Lee " Bobby " Dodd was born in 1908 in Galax , Virginia . He was named after another famous Virginian , Confederate General Rober</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Georgia Tech Yellow Jackets football = The Georgia Tech Yellow Jackets football team represents the Georgia Institute of Technology in the sport of American football . The Yellow Jackets team , also known as the " Ramblin ' Wreck " , and historically as the " Engineers " , competes in the Football Bowl Subdivision ( FBS ) of the National Collegiate Athletic Association ( NCAA ) and the Coastal Division of the Atlantic Coast Conference ( ACC ) . The Georgia Institute of Technology has fielded a football team since 1892 and has an all-time record of 700 – 471 – 43 ( a .594 winning percentage ) . The Yellow Jackets play in Bobby Dodd Stadium at Historic Grant Field in Atlanta , Georgia , which has a capacity of 55,000 . The Yellow Jackets have won four Division I-A college football national championships and fifteen conference titles . A number of successful collegiate and professional football players once played for Tech . The school has 48 first-team All-Americans and over 150 alumni w</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1947 Sun Bowl = The 1947 Sun Bowl was a post-season American college football bowl game between the Virginia Tech Hokies of the Southern Conference and the Cincinnati Bearcats . It took place on January 1 , 1947 , at Kidd Field in El Paso , Texas . Cincinnati defeated Virginia Tech 18 – 6 in cold and icy conditions that led to a scoreless first half and three blocked extra points by Virginia Tech . The game was the first NCAA-sanctioned post-season football contest for Cincinnati , and was the first bowl game in Virginia Tech history . The 1947 game was also the 13th edition of the Sun Bowl , which had been played every year since 1935 . In exchange for their participation in the event , each team received $ 9,438 . = = Pregame buildup = = The 1947 Sun Bowl game was held as the culminating event of the Sun Carnival and was held at 15,000-seat Kidd Field on the campus of Texas Western University , today known as the University of Texas El Paso . The matchup of Virginia Tech and Cincinna</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1966 Liberty Bowl = The 1966 Liberty Bowl was a post-season American college football bowl game between the Virginia Tech Hokies and the Miami Hurricanes at Memphis Memorial Stadium in Memphis , Tennessee on December 10 , 1966 . The game was the final contest of the 1966 college football season for both teams , and ended in a 14 – 7 victory for the Miami Hurricanes . A then-record 39,101 tickets were sold for the game , but due to 36-degree temperatures at game time , only 25,012 spectators attended . The game marked just the second time that Virginia Tech had played in a bowl game since the creation of the team in 1892 . The game also marked the second time in each school 's history that the two teams had faced each other . The previous meeting , held in 1953 , ended in a 26 – 0 shutout victory for the Hurricanes . Current Virginia Tech head football coach and then-player Frank Beamer participated in the game as a backup cornerback for the Hokies . = = Pregame buildup = = = = = Virgin</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1421,32 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['wine', 'chicken', 'cheese', 'bacon', 'recipes', 'sandwich', 'fried', 'dish', 'dishes', 'cuisine', 'ingredients', 'cooking', 'beef', 'food', 'product']</t>
+          <t>['glee', 'kurt', 'rachel', 'meredith', 'finn', 'episode', 'grey', 'quinn', 'anatomy', 'viewers', 'sue', 'watched', 'yang', 'club', 'grace']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Steak = A steak is a meat generally sliced perpendicular to the muscle fibers , potentially including a bone . Exceptions , in which the meat is sliced parallel to the fibers , include the skirt steak that is cut from the plate , the flank steak that is cut from the abdominal muscles , and the Silverfinger steak that is cut from the loin and includes three rib bones . When the word " steak " is used without qualification , it generally refers to a beefsteak . In a larger sense , there are also fish steaks , ground meat steaks , pork steak and many more varieties . Steaks are usually grilled , but they can be pan-fried , or broiled . Steak is often grilled in an attempt to replicate the flavor of steak cooked over the glowing coals of an open fire . Steak can also be cooked in sauce , such as in steak and kidney pie , or minced and formed into patties , such as hamburgers . Steaks are also cut from grazing animals , usually farmed , other than cattle , including bison , camel , goat , h</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kashrut = Kashrut ( also kashruth or kashrus , כַּשְׁרוּת ) is the set of Jewish religious dietary laws . Food that may be consumed according to halakha ( Jewish law ) is termed kosher / ˈkoʊʃər / in English , from the Ashkenazi pronunciation of the Hebrew term kashér ( כָּשֵׁר ) , meaning " fit " ( in this context , fit for consumption ) . Among the numerous laws that form part of kashrut are the prohibitions on the consumption of unclean animals ( such as pork , shellfish ( both Mollusca and Crustacea ) and most insects , with the exception of certain species of kosher locusts ) , mixtures of meat and milk , and the commandment to slaughter mammals and birds according to a process known as shechita . There are also laws regarding agricultural produce that might impact on the suitability of food for consumption . Most of the basic laws of kashrut are derived from the Torah 's Books of Leviticus and Deuteronomy . Their details and practical application , however , are set down in the o</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elizabeth David bibliography = Elizabeth David , the British cookery writer , published eight books in the 34 years between 1950 and 1984 ; the last was issued eight years before her death . After David 's death , her literary executor , Jill Norman , supervised the publication of five more books , drawing on David 's unpublished manuscripts and research and on her published writings for books and magazines . David 's first five books , particularly the earlier works , contained recipes interspersed with literary quotation and descriptions of people and places that inspired her . By the time of her third book , Italian Food , David had begun to add sections about the history of the cuisine and the particular dishes that she wrote about . Her interest in the history of cooking led her in her later years to research the history of spices , baking , and ice . Many of the recipes in David 's early books were revised versions of her articles previously published in magazines and newspapers </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welsh cuisine = Welsh cuisine encompasses the cooking traditions and practices of the country of Wales and the Welsh people . Whilst there are a large number of dishes that can be considered Welsh due to their ingredients and / or history , dishes such as cawl , Welsh rarebit , laverbread , Welsh cakes , bara brith and the Glamorgan sausage have all been regarded as symbols of Welsh food . There is some variation in dishes around Wales , but the most pronounced difference is in the Gower Peninsula , an isolated rural area which was heavily influenced by Somerset and Devon . There the dishes created included whitepot and often incorporated pumpkin . While Wales has imported throughout the centuries some culinary practices and dishes from its British neighbors , uniquely Welsh cuisine grew largely from the lives of the Welsh working folk , such as farmers , shepherds , and peasants , as these Welsh working people tended to be more isolated from outside culinary influences . Welsh common </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plum cake = Plum cake refers to a wide range of cakes made with either dried fruit ( such as grapes , currants , raisins or prunes ) or with fresh fruit . There is a wide range of popular plum cakes and puddings . Since the meaning of the word " plum " has changed over time , many items referred to as plum cakes and popular in England since at least the eighteenth century have now become known as fruitcake . The English variety of plum cake also exists on the European mainland , but may vary in ingredients and consistency . Settlers in British colonies brought the dried fruit variety of cake with them , so that for example , in India it was served around the time of the Christmas holiday season and in the American colonies , where it became associated with elections , one version came to be called " election cake " . Plum cakes made with fresh plums came with other migrants from other traditions in which plum cake is prepared using plum as a primary ingredient . In some versions , the </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['persian', 'army', 'byzantine', 'athens', 'greeks', 'greece', 'battle', 'alexander', 'greek', 'siege', 'muslim', 'cavalry', 'byzantines', 'arab', 'ottoman']</t>
+          <t>['bach', 'poem', 'poems', 'shakespeare', 'poet', 'poetry', 'movement', 'ode', 'movements', 'soprano', 'text', 'alto', 'aria', 'stanza', 'narrator']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Heraclius = Heraclius ( Latin : Flavius Heraclius Augustus , Greek : Φλάβιος Ἡράκλειος , Armenian : Հերակլես Փլավիոս , c . 575 – February 11 , 641 ) was Byzantine Emperor from 610 to 641 . He was responsible for introducing Greek as the Eastern Empire 's official language . His rise to power began in 608 , when he and his father , Heraclius the Elder , the exarch of Africa , led a revolt against the unpopular usurper Phocas . Heraclius 's reign was marked by several military campaigns . The year Heraclius came to power , the empire was threatened on multiple frontiers . Heraclius immediately took charge of the Byzantine – Sassanid War of 602 – 628 . The first battles of the campaign ended in defeat for the Byzantines ; the Persian army fought their way to the Bosphorus but Constantinople was protected by impenetrable walls and a strong navy and Heraclius was able to avoid total defeat . Soon after , he initiated reforms to rebuild and strengthen the military . Heraclius drove the Persi</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Justinian I = Justinian I ( / dʒʌˈstɪniən / ; Latin : Flavius Petrus Sabbatius Iustinianus Augustus , Greek : Φλάβιος Πέτρος Σαββάτιος Ἰουστινιανός Flávios Pétros Sabbátios Ioustinianós ) ( c . 482 – 14 November 565 ) , traditionally known as Justinian the Great and also Saint Justinian the Great in the Eastern Orthodox Church , was a Byzantine ( East Roman ) emperor from 527 to 565 . During his reign , Justinian sought to revive the empire 's greatness and reconquer the lost western half of the historical Roman Empire . Justinian 's rule constitutes a distinct epoch in the history of the Later Roman empire , and his reign is marked by the ambitious but only partly realized renovatio imperii , or " restoration of the Empire " . Because of his restoration activities , Justinian has sometimes been called the " last Roman " in modern historiography . This ambition was expressed by the partial recovery of the territories of the defunct western Roman empire . His general , Belisarius , swif</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Siege of Damascus ( 634 ) = The Siege of Damascus ( 634 ) lasted from 21 August to 19 September 634 AD before the city fell to the Rashidun Caliphate . Damascus was the first major city of the Byzantine ( Roman ) empire to fall in the Muslim conquest of Syria . The last of the Roman-Persian Wars ended in 627 , when Heraclius concluded a successful campaign against the Persians in Mesopotamia . At the same time , Mohammad united the Arabs under the banner of Islam . After his death in 632 , Abu Bakr succeeded him as the first Rashidun Caliph . Suppressing several internal revolts , Abu Bakr sought to expand the empire beyond the confines of the Arabian Peninsula . In April 634 , Abu Bakr invaded the Byzantine Empire in the Levant and decisively defeated a Byzantine army at the Battle of Ajnadayn . The Muslim armies marched north and laid siege to Damascus . The city was taken after a monophysite bishop informed Khalid ibn al-Walid , the Muslim commander in chief , that it was possible t</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Siege of Constantinople ( 674 – 678 ) = The First Arab Siege of Constantinople in 674 – 678 was a major conflict of the Arab – Byzantine Wars , and the first culmination of the Umayyad Caliphate 's expansionist strategy towards the Byzantine Empire , led by Caliph Mu 'awiya I. Mu 'awiya , who had emerged in 661 as the ruler of the Muslim Arab empire following a civil war , renewed aggressive warfare against Byzantium after a lapse of some years and hoped to deliver a lethal blow by capturing the Byzantine capital , Constantinople . As reported by the Byzantine chronicler Theophanes the Confessor , the Arab attack was methodical : in 672 – 673 Arab fleets secured bases along the coasts of Asia Minor , and then proceeded to install a loose blockade around Constantinople . They used the peninsula of Cyzicus near the city as a base to spend the winter , and returned every spring to launch attacks against the city 's fortifications . Finally , the Byzantines , under Emperor Constantine IV ,</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Abbasid invasion of Asia Minor ( 782 ) = The Abbasid invasion of Asia Minor in 782 was one of the largest operations launched by the Abbasid Caliphate against the Byzantine Empire . The invasion was launched as a display of Abbasid military might in the aftermath of a series of Byzantine successes . Commanded by the Abbasid heir-apparent , the future Harun al-Rashid , the Abbasid army reached as far as Chrysopolis , across the Bosporus from the Byzantine capital , Constantinople , while secondary forces raided western Asia Minor and defeated the Byzantine forces there . As Harun did not intend to assault Constantinople and lacked ships to do so , he turned back . The Byzantines , who in the meantime had neutralized the detachment left to secure the Abbasid army 's rear in Phrygia , were able to trap Harun 's army between their own converging forces . The defection of the Armenian general Tatzates , however , allowed Harun to regain the upper hand . The Abbasid prince sent for a truce a</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['bach', 'text', 'movements', 'movement', 'soprano', 'gospel', 'jesus', 'hebrew', 'aria', 'alto', 'manuscripts', 'leipzig', 'tenor', 'hymn', 'matthew']</t>
+          <t>['wickets', 'innings', 'test', 'cricket', 'wicket', 'runs', 'matches', 'australia', 'england', 'scored', 'bowling', 'match', 'bowled', 'overs', 'miller']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Biblical Hebrew = Biblical Hebrew ( Hebrew : עִבְרִית מִקְרָאִית Ivrit Miqra 'it or לְשׁוֹן הַמִּקְרָא Leshon ha-Miqra ) , also called Classical Hebrew , is an archaic form of Hebrew , a Canaanite Semitic language spoken by the Israelites in the area known as Israel , roughly west of the Jordan River and east of the Mediterranean Sea . The term " Hebrew " was not used for the language in the Bible , which referred to Canaanite or Judahite , but the name was used in Greek and Mishnaic Hebrew texts . Biblical Hebrew is attested from about the 10th century BCE , and persisted through and beyond the Second Temple period ( which ended in the siege of Jerusalem ( AD 70 ) ) . Biblical Hebrew eventually developed into Mishnaic Hebrew , which was spoken until the second century CE . Biblical Hebrew is best-attested in the Hebrew Bible , the collection of Judaic religious and historical texts which reflect various stages of the Hebrew language in its consonantal skeleton , as well as a vocalic s</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Requiem ( Fauré ) = Gabriel Fauré composed his Requiem in D minor , Op. 48 , between 1887 and 1890 . The choral-orchestral setting of the shortened Catholic Mass for the Dead in Latin is the best-known of his large works . Its focus is on eternal rest and consolation . Fauré 's reasons for composing the work are unclear , but do not appear to have had anything to do with the death of his parents in the mid-1880s . He composed the work in the late 1880s and revised it in the 1890s , finishing it in 1900 . In seven movements , the work is scored for soprano and baritone soloists , mixed choir , orchestra and organ . Different from typical Requiem settings , the full sequence Dies irae is omitted , replaced by its section Pie Jesu . The final movement In Paradisum is based on a text that is not part of the liturgy of the funeral mass but of the burial . Fauré wrote of the work , " Everything I managed to entertain by way of religious illusion I put into my Requiem , which moreover is domi</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Schubert 's last sonatas = Franz Schubert 's last three piano sonatas , D 958 , 959 and 960 , are the composer 's last major compositions for the piano . They were written during the last months of his life , between the spring and autumn of 1828 , but were not published until about ten years after his death , in 1838 – 39 . Like the rest of Schubert 's piano sonatas , they were mostly neglected in the 19th century . By the late 20th century , however , public and critical opinion had changed , and these sonatas are now considered among the most important of the composer 's mature masterpieces . They are part of the core piano repertoire , appearing regularly on concert programs and recordings . One of the reasons for the long period of neglect of Schubert 's piano sonatas seems to be their dismissal as structurally and dramatically inferior to the sonatas of Beethoven . In fact , the last sonatas contain distinct allusions and similarities to works by Beethoven , a composer Schubert v</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>The Book of Taliesyn = For the Middle Welsh manuscript , see Book of Taliesin . The Book of Taliesyn is the second studio album by English rock band Deep Purple , recorded only three months after Shades of Deep Purple and released by Tetragrammaton Records in October 1968 , just before their first US tour . The name for the album was taken from the 14th-century Book of Taliesin . The structure of the album is similar to that of their debut , with four original songs and three rearranged covers , although the tracks are longer , the arrangements more complex and the sound more polished than on Shades of Deep Purple . The music style is a mix of psychedelic rock , progressive rock and hard rock , with several inserts of classical music arranged by the band 's keyboard player Jon Lord . Deep Purple 's American record label aimed at a hippie audience , which was very influential in the US at the time , but the chart results of album and singles were not as high as expected . This setback d</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Boosey &amp; Hawkes = Boosey &amp; Hawkes is a British music publisher purported to be the largest specialist classical music publisher in the world . Until 2003 , it was also a major manufacturer of brass , string and woodwind musical instruments . Formed in 1930 through the merger of two well-established British music businesses , the company owns the copyrights or agencies to much major , 20th-century music , including works by Bartók , Leonard Bernstein , Britten , Copland , Kodály , Prokofiev , Richard Strauss and Stravinsky . It also publishes many prominent contemporary composers , including Steve Reich , John Adams , James MacMillan , Elliott Carter , Harrison Birtwistle , Osvaldo Golijov , Anna Clyne , and Louis Andriessen . With subsidiaries in Germany , the UK and the US , the company also sells sheet music ; provides ready-made production music for television , radio and audio-visual use ; commissions and produces music for radio , television and advertising ; and administers copyr</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['coaster', 'ride', 'roller', 'riders', 'train', 'coasters', 'flags', 'park', 'lift', 'cedar', 'drop', 'brake', 'trains', 'steel', 'hill']</t>
+          <t>['hitler', 'holocaust', 'physics', 'jews', 'nazi', 'nuclear', 'germany', 'manhattan_project', 'atomic', 'berlin', 'jewish', 'nobel', 'german', 'munich', 'research']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abyss ( roller coaster ) = Abyss is a steel roller coaster located at the Adventure World amusement park in Perth , Western Australia . The $ 12-million attraction was announced in April 2013 , and construction began the following month . Six months later , the ride opened to the general public on 1 November 2013 . The Abyss is a Euro-Fighter , a roller coaster model from Gerstlauer that features a " beyond-vertical " first drop which exceeds 90 degrees . In addition to several inversions , the Abyss reaches a top speed of 85 kilometres per hour ( 53 mph ) along the two-minute , 630-metre-long ( 2,070 ft ) ride . The roller coaster has been well received by the public . = = History = = In mid-2012 , the 15-month phase of planning and construction of Abyss began . In April 2013 , Adventure World announced on their Facebook page that they would be adding a $ 12 million , world-class attraction in 2013 . By May 2013 construction had begun . In June 2013 , a concrete slab was poured prior </t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Phineas and Ferb 's Quantum Boogaloo = " Phineas and Ferb 's Quantum Boogaloo " is the fourteenth episode of the second season of the animated television series Phineas and Ferb , and the 72nd overall episode of the series . It originally aired on Disney XD in the United States on September 21 , 2009 . In the episode , Phineas and his stepbrother Ferb travel into the future and have their time machine stolen by their older sister Candace , now an adult , who travels back in time to get her brothers in trouble during one of their outlandish schemes . In doing so , however , she sets off a chain reaction leading to a dystopian future ruled by the evil Dr. Doofenshmirtz . " Phineas and Ferb 's Quantum Boogaloo , " written by Scott Peterson and directed by Zac Moncrief , was rated TV-G in the United States . The episode was conceived as a means of expanding the time machine plot that was introduced previously in the episode " It 's About Time . " Dan Povenmire and Jeff " Swampy " Marsh , c</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>... Baby One More Time Tour = ... Baby One More Time Tour was the debut concert tour by American recording artist Britney Spears . It supported her debut studio album , ... Baby One More Time ( 1999 ) and visited United States and Canada . The tour was announced in March 1999 , with dates released a month later . Tommy Hilfiger was chosen as the tour sponsor . The show was divided into various segments , with each segment being followed by an interlude to the next segment , and it ended with an encore . The setlist consisted of songs from her debut album and several covers . The tour received positive feedback from critics ; many highlighted Spears ' persona and edgy look . = = Background and development = = On March 5 , 1999 , it was reported that Spears was planning her first headlining tour to support her first studio album , ... Baby One More Time ( 1999 ) . Shortly after , she announced that the tour would start in July . On May 12 , 1999 , Tommy Hilfiger was announced as the main</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kevin Clash = Kevin Jeffrey Clash ( born September 17 , 1960 ) is an American puppeteer whose characters include Elmo , Clifford , Benny Rabbit , and Hoots the Owl . Clash developed an interest in puppetry at an early age , and began performing for local TV children 's shows in his hometown of Baltimore , Maryland , as a teenager . In the early 1980s , he began working in Captain Kangaroo , and began performing in Sesame Street in 1984 . He was the fifth puppeteer to perform Elmo , the character he became the most famous for , and became an executive producer and director for the show . Clash worked in various productions for the Muppets and Jim Henson Productions and in other projects . He resigned from Sesame Street in late 2012 , after allegations of sexual impropriety , which he denied and were dismissed due to statute of limitations expiring . Clash wrote an autobiography , My Life as a Furry Red Monster , which was published in 2006 , and also featured in the 2011 documentary Bei</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kingda Ka = Kingda Ka is a steel accelerator roller coaster located at Six Flags Great Adventure in Jackson , New Jersey , United States . It is the world 's tallest roller coaster , the world 's second fastest roller coaster , and was the second strata coaster ever built . It was built by Stakotra , a subcontractor to Intamin . The train is launched by a hydraulic launch mechanism to 128 miles per hour ( 206 km / h ) in 3.5 seconds . At the end of the launch track , the train climbs the main top hat tower , reaching a height of 456 feet ( 139 m ) and spanning over a 3,118-foot-long ( 950 m ) track by the end of the ride . = = History = = Plans to build Kingda Ka were announced on September 10 , 2004 , at an event held for roller coaster enthusiasts and the media . The event revealed the park 's goal to build " the tallest and fastest roller coaster on earth " , reaching 456 feet ( 139 m ) and accelerating up to 128 miles per hour ( 206 km / h ) in 3.5 seconds . On January 13 , 2005 , </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['formula', 'function', 'matrix', 'linear', 'functions', 'space', 'constant', 'defined', 'language', 'filter', 'frequency', 'mass', 'derivative', 'kilogram', 'units']</t>
+          <t>['ride', 'coaster', 'roller', 'riders', 'train', 'flags', 'coasters', 'park', 'cedar', 'lift', 'attraction', 'drop', 'queue', 'trains', 'rides']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fleiss ' kappa = Fleiss ' kappa ( named after Joseph L. Fleiss ) is a statistical measure for assessing the reliability of agreement between a fixed number of raters when assigning categorical ratings to a number of items or classifying items . This contrasts with other kappas such as Cohen 's kappa , which only work when assessing the agreement between two raters . The measure calculates the degree of agreement in classification over that which would be expected by chance . There is no generally agreed-upon measure of significance , although guidelines have been given . Fleiss ' kappa can be used only with binary or nominal-scale ratings . No version is available for ordered-categorical ratings . = = Introduction = = Fleiss ' kappa is a generalisation of Scott 's pi statistic , [ 1 ] a statistical measure of inter-rater reliability . [ 2 ] It is also related to Cohen 's kappa statistic and Youden 's J statistic which may be more appropriate in certain instances [ 3 ] [ 4 ] . Whereas S</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pythagorean theorem = In mathematics , the Pythagorean theorem , also known as Pythagoras ' theorem , is a fundamental relation in Euclidean geometry among the three sides of a right triangle . It states that the square of the hypotenuse ( the side opposite the right angle ) is equal to the sum of the squares of the other two sides . The theorem can be written as an equation relating the lengths of the sides a , b and c , often called the " Pythagorean equation " : &lt;formula&gt; where c represents the length of the hypotenuse and a and b the lengths of the triangle 's other two sides . Although it is often argued that knowledge of the theorem predates him , the theorem is named after the ancient Greek mathematician Pythagoras ( c . 570 – c . 495 BC ) as it is he who , by tradition , is credited with its first recorded proof . There is some evidence that Babylonian mathematicians understood the formula , although little of it indicates an application within a mathematical framework . Mesopo</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Penrose tiling = A Penrose tiling is an example of non-periodic tiling generated by an aperiodic set of prototiles . Penrose tilings are named after mathematician and physicist Roger Penrose , who investigated these sets in the 1970s . The aperiodicity of prototiles implies that a shifted copy of a tiling will never match the original . A Penrose tiling may be constructed so as to exhibit both reflection symmetry and fivefold rotational symmetry , as in the diagram at the right . A Penrose tiling has many remarkable properties , most notably : It is non-periodic , which means that it lacks any translational symmetry . It is self-similar , so the same patterns occur at larger and larger scales . Thus , the tiling can be obtained through " inflation " ( or " deflation " ) and any finite patch from the tiling occurs infinitely many times . It is a quasicrystal : implemented as a physical structure a Penrose tiling will produce Bragg diffraction and its diffractogram reveals both the fivef</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bicycle and motorcycle dynamics = Bicycle and motorcycle dynamics is the science of the motion of bicycles and motorcycles and their components , due to the forces acting on them . Dynamics is a branch of classical mechanics , which in turn is a branch of physics . Bike motions of interest include balancing , steering , braking , accelerating , suspension activation , and vibration . The study of these motions began in the late 19th century and continues today . Bicycles and motorcycles are both single-track vehicles and so their motions have many fundamental attributes in common and are fundamentally different from and more difficult to study than other wheeled vehicles such as dicycles , tricycles , and quadracycles . As with unicycles , bikes lack lateral stability when stationary , and under most circumstances can only remain upright when moving forward . Experimentation and mathematical analysis have shown that a bike stays upright when it is steered to keep its center of mass ove</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>History of the metric system = Concepts similar to those behind the metric system had been discussed in the 16th and 17th centuries . Simon Stevin had published his ideas for a decimal notation and John Wilkins had published a proposal for a decimal system of measurement based on natural units . The first practical realisation of the metric system came in 1799 , during the French Revolution , when the existing system of measure , which had fallen into disrepute , was temporarily replaced by a decimal system based on the kilogram and the metre . The work of reforming the old system of weights and measures had the support of whoever was in power , including Louis XVI . The metric system was to be , in the words of philosopher and mathematician Condorcet , " for all people for all time " . In the era of humanism , the basic units were taken from the natural world : the unit of length , the metre , was based on the dimensions of the Earth , and the unit of mass , the kilogram , was based o</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['amendment', 'constitution', 'singapore', 'law', 'court', 'courts', 'judicial', 'parliament', 'article', 'constitutional', 'justice', 'shall', 'clause', 'act', 'rights']</t>
+          <t>['chicken', 'cheese', 'fried', 'sandwich', 'wine', 'dishes', 'recipes', 'dish', 'cream', 'cuisine', 'cooking', 'food', 'ingredients', 'bacon', 'meat']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rule of law doctrine in Singapore = In Singapore , the rule of law doctrine has been the topic of considerable disagreement and debate , largely through differing conceptions of the doctrine . These conceptions can generally be divided into two categories developed by legal academics , the " thin " , or formal , conception and the " thick " , or substantive , conception of the rule of law . The thin conception , often associated with the legal scholars Albert Venn Dicey and Joseph Raz , advocates the view that the rule of law is fulfilled by adhering to formal procedures and requirements , such as the stipulations that all laws be prospective , clear , stable and constitutionally enacted , and that the parties to legal disputes are treated equally and without bias on the part of judges . While people subscribing to the thin conception do not dismiss the importance of the content of the law , they take the view that this is a matter of substantive justice and should not be regarded as p</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2012 Delhi gang rape = The 2012 Delhi gang rape case involved a rape and fatal assault that occurred on 16 December 2012 in Munirka , a neighbourhood in South Delhi . The incident took place when a 23-year-old female physiotherapy intern , Jyoti Singh was beaten , gang raped , and tortured in a private bus in which she was traveling with her friend , Awindra Pratap Pandey . There were six others in the bus , including the driver , all of whom raped the woman and beat her friend . Thirteen days after the assault , she was transferred to a hospital in Singapore for emergency treatment , but died from her injuries two days later . The incident generated widespread national and international coverage and was widely condemned , both in India and abroad . Subsequently , public protests against the state and central governments for failing to provide adequate security for women took place in New Delhi , where thousands of protesters clashed with security forces . Similar protests took place i</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Constitutional Convention ( United States ) = The Constitutional Convention ( also known as the Philadelphia Convention , the Federal Convention , or the Grand Convention at Philadelphia ) took place from May 25 to September 17 , 1787 , in Philadelphia , Pennsylvania . Although the Convention was intended to revise the Articles of Confederation , the intention from the outset of many of its proponents , chief among them James Madison and Alexander Hamilton , was to create a new government rather than fix the existing one . The delegates elected George Washington to preside over the Convention . The result of the Convention was the creation of the United States Constitution , placing the Convention among the most significant events in the history of the United States . The most contentious disputes revolved around the composition and election of the Senate , how " proportional representation " was to be defined ( whether to include slaves or other property ) , whether to divide the exec</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Quebec referendum , 1995 = The 1995 Quebec referendum was the second referendum to ask voters in the Canadian province of Quebec whether Quebec should proclaim national sovereignty and become an independent country , with the condition precedent of offering a political and economic agreement to Canada . The culmination of multiple years of debate and planning after the failure of the Meech Lake and Charlottetown constitutional accords , the referendum was launched solely by the provincial Parti Québécois government of Jacques Parizeau . Despite initial predictions of a heavy sovereignist defeat , an eventful and complex campaign followed , with the " Yes " side flourishing after being taken over by charismatic Bloc Québécois leader Lucien Bouchard . The fast rise of the " Yes " campaign and apparent inability of the personalities of the " No " campaign to counter their message created an atmosphere of great uncertainty , both in the federal government and across Canada . Voting took pl</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">First Amendment to the United States Constitution = The First Amendment ( Amendment I ) to the United States Constitution prohibits the making of any law respecting an establishment of religion , impeding the free exercise of religion , abridging the freedom of speech , infringing on the freedom of the press , interfering with the right to peaceably assemble , or prohibiting the petitioning for a governmental redress of grievances . It was adopted on December 15 , 1791 , as one of the ten amendments that constitute the Bill of Rights . The Bill of Rights was originally proposed as a measure to assuage Anti-Federalist opposition to Constitutional ratification . Initially , the First Amendment applied only to laws enacted by the Congress , and many of its provisions were interpreted more narrowly than they are today . Beginning with Gitlow v. New York ( 1925 ) , the Supreme Court applied the First Amendment to states — a process known as incorporation — through the Due Process Clause of </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['management', 'twitter', 'investment', 'bank', 'billion', 'equity', 'watson', 'design', 'banking', 'company', 'users', 'firm', 'business', 'merger', 'assets']</t>
+          <t>['buenos_aires', 'soviet', 'argentina', 'argentine', 'revolution', 'cuban', 'dictator', 'drug', 'government', 'soviet_union', 'mafia', 'cuba', 'spanish', 'political', 'spain']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chemical Bank = Chemical Bank was a bank with headquarters in New York City from 1824 until 1996 . The bank operated as the primary subsidiary of the Chemical Banking Corporation , a bank holding company established in 1988 . At the end of 1995 , Chemical was the third largest bank in the U.S. with approximately $ 182.9 billion in assets . Beginning in 1920 but accelerating in the 1980s and 1990s , Chemical was a leading consolidator of the banking industry in the United States , acquiring Chase Manhattan Bank , Manufacturers Hanover , Texas Commerce Bank and Corn Exchange Bank among others . Following Chemical 's acquisition of Chase , the bank adopted the venerable Chase brand . What had been Chemical Bank is now a foundational component of what today is JPMorgan Chase . Chemical Bank was headquartered in New York City with more than 39,000 employees globally as of the end of 1995 . = = Overview of the company = = Chemical Bank was the principal operating subsidiary of the Chemical B</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Credit Suisse = Credit Suisse Group is a Swiss multinational financial services holding company , headquartered in Zürich , that operates the Credit Suisse Bank and other financial services investments . The company is organized as a stock corporation with four divisions : Investment Banking , Private Banking , Asset Management , and a Shared Services Group that provides marketing and support to the other three divisions . Credit Suisse 's stock unsurprisingly hit a new 52-week low of $ 10.01 during trading on July 6 , 2016 while somewhat recent reports have suggested it is yet again being investigated by the U. S. Department of Justice in relation to tax evasion . Credit Suisse is also contending with a valid federal lawsuit filed against it at a New York City court and related litigation filed with the Administrative Review Board of the U.S. Department of Labor pertaining to the Sarbanes-Oxley Act 's whistleblower protections . On July 15 , 2016 , the latest legal brief was filed in </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">UBS = UBS AG is a Swiss global financial services company , incorporated in the Canton of Zurich , and co-headquartered in Zurich and Basel . The company provides wealth management , asset management , and investment banking services for private , corporate , and institutional clients worldwide , and is generally considered to be a bulge bracket bank . In Switzerland , these services are also offered to retail clients . The name UBS was originally an abbreviation for the Union Bank of Switzerland , but it ceased to be a representational abbreviation after the bank 's merger with Swiss Bank Corporation in 1998 . The company traces its origins to 1856 , when the earliest of its predecessor banks was founded . UBS is considered the world 's largest manager of private wealth assets , with over CHF 2.2 trillion in invested assets , and remains a leading provider of retail banking and commercial banking services in Switzerland . In 2014 , UBS ' assets under management ( AuM ) amounted to US </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rahm Emanuel = Rahm Israel Emanuel ( / ˈrɑːm / ; born November 29 , 1959 ) is an American politician who serves as the 55th mayor of Chicago . A member of the Democratic Party , Emanuel was elected in 2011 , becoming Chicago 's first Jewish mayor . He was reelected on April 7 , 2015 . Born in Chicago , Emanuel is a graduate of Sarah Lawrence College and Northwestern University . Working early in his career in Democratic politics , Emanuel was appointed as director of the finance committee for Bill Clinton 's 1992 presidential campaign . In 1993 , he joined the Clinton administration , where he served as the assistant to the president for political affairs and as the senior advisor to the president for policy and strategy before resigning , in 1998 . Beginning a career in finance , Emanuel worked at the investment bank Wasserstein Perella &amp; Co. from 1998 for 2 1 / 2 years and served on the board of directors of Freddie Mac . In 2002 , Emanuel ran for a seat in the U.S. House of Represen</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bridgewater Associates = Bridgewater Associates is an American investment management firm founded by Ray Dalio in 1975 . The firm serves institutional clients including pension funds , endowments , foundations , foreign governments and central banks . It utilizes a global macro investing style based on economic trends , such as inflation , currency exchange rates , and U.S. gross domestic product . Bridgewater Associates began as an institutional investment advisory service , graduated to institutional investing and pioneered the risk parity investment approach in 1996 . In 1981 the company moved its headquarters from New York City to Westport , Connecticut and currently engages 1,200 employees . It embraces a corporate culture that encourages transparency and the elimination of the decision making hierarchy , and in 2011 was the " world 's largest macro hedge fund " company with US $ 122 billion in assets under management . = = History = = The firm 's history includes the pioneering o</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1666,32 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['mosque', 'temple', 'congregation', 'wall', 'palace', 'hall', 'jewish', 'jews', 'shrine', 'tomb', 'temples', 'cave', 'jerusalem', 'christians', 'dome']</t>
+          <t>['twitter', 'cylinder', 'cylinders', 'vehicle', 'watson', 'vehicles', 'toyota', 'users', 'model', 'models', 'gas', 'car', 'electric', 'engine', 'valve']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Amenhotep I = Amenhotep I ( / ˌæmɛnˈhoʊtɛp / ) from Ancient Egyptian " jmn-ḥtp " or " yamānuḥātap " meaning " Amun is satisfied " or Amenophis I ( / əˈmɛnoʊfɪs / ) from Ancient Greek Ἀμένωφις , was the second Pharaoh of the 18th dynasty of Egypt . His reign is generally dated from 1526 to 1506 BC . He was a son of Ahmose I and Ahmose-Nefertari , but had at least two elder brothers , Ahmose-ankh and Ahmose Sapair , and was not expected to inherit the throne . However , sometime in the eight years between Ahmose I 's 17th regnal year and his death , his heir apparent died and Amenhotep became crown prince . He then acceded to the throne and ruled for about 21 years . Although his reign is poorly documented , it is possible to piece together a basic history from available evidence . He inherited the kingdom formed by his father 's military conquests and maintained dominance over Nubia and the Nile Delta but probably did not attempt to maintain Egyptian power in Syrio-Palestine . He contin</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bharatiya Janata Party = The Bharatiya Janata Party ( pronounced [ bʱaːrət ̪ iːjə dʒənət ̪ aː paːrʈiː ] ; translation : Indian People 's Party ; abbr . BJP ) is one of the two major political parties in India , along with the Indian National Congress . As of 2016 , it is the country 's largest political party in terms of representation in the national parliament and state assemblies , and it is the world 's largest party in terms of primary membership . The BJP is a right-wing party , with close ideological and organisational links to the Hindu nationalist Rashtriya Swayamsevak Sangh . The BJP 's origins lie in the Bharatiya Jana Sangh , formed in 1951 by Syama Prasad Mookerjee . After the State of Emergency in 1977 , the Jana Sangh merged with several other parties to form the Janata Party ; it defeated the incumbent Congress party in the 1977 general election . After three years in power , the Janata party dissolved in 1980 with the members of the erstwhile Jana Sangh reconvening to </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mathematics and architecture = Mathematics and architecture are related , since , as with other arts , architects use mathematics for several reasons . Apart from the mathematics needed when engineering buildings , architects use geometry : to define the spatial form of a building ; from the Pythagoreans of the sixth century BC onwards , to create forms considered harmonious , and thus to lay out buildings and their surroundings according to mathematical , aesthetic and sometimes religious principles ; to decorate buildings with mathematical objects such as tessellations ; and to meet environmental goals , such as to minimise wind speeds around the bases of tall buildings . In Ancient Egypt , Ancient Greece , India , and the Islamic world , buildings including pyramids , temples , mosques , palaces and mausoleums were laid out with specific proportions for religious reasons . In Islamic architecture , geometric shapes and geometric tiling patterns are used to decorate buildings , both </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Alchi Monastery = Alchi Monastery or Alchi Gompa is a Buddhist monastery , known more as a monastic complex ( chos- ' khor ) of temples in Alchi village in the Leh District , of the Indian state under the Ladakh Autonomous Hill Development Council of Jammu and Kashmir . The complex comprises four separate settlements in the Alchi village in the lower Ladakh region with monuments dated to different periods . Of these four hamlets , Alchi monastery is said to be the oldest and most famous . It is administered by the Likir Monastery . Alchi is also part of the three villages ( all in lower Ladakh region ) which constitute the ‘ Alchi group of monuments ’ ; the other two villages adjoining Alchi are the Mangyu and Sumda Chun . The monuments in these three villages are stated to be of “ unique style and workmanship ’ , but the Alchi monastic complex is the best known . The monastery complex was built , according to local tradition , by the great translator Guru Rinchen Zangpo between 958 an</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kataragama temple = Kataragamam temple ( Sinhalese Katharagama ; Tamil Katirkāmam ) in Kataragama , Sri Lanka , is a temple complex dedicated to Kataragama deviyo . It is one of the few religious sites in Sri Lanka that is venerated by the Sinhala Buddhists , Hindu Sri Lankan Tamils , Sri Lankan Moors and the Vedda people . It is a collection of modest shrines , of which the one dedicated to Kataragama deviyo , is the most important . For most of the past millennia , it was a jungle shrine very difficult to access ; today it is accessible by an all-weather road . Almost all the shrines — and the nearby Kiri Vehera — are managed by Buddhists , apart from shrines dedicated to Teyvāṉai and Shiva and mosques . Up until the 1940s a majority of the pilgrims were Tamil Hindus from Sri Lanka and South India who undertook an arduous padayatra or " pilgrimage on foot " . Since then most pilgrims tend to be Sinhala Buddhists and the cult of Kataragama deviyo has become the most popular amongst th</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1701,32 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['scotland', 'scottish', 'island', 'islands', 'norse', 'century', 'edinburgh', 'isles', 'houses', 'architecture', 'mainland', 'scots', 'glasgow', 'highlands', 'churches']</t>
+          <t>['fiction', 'gay', 'stories', 'pulp', 'lgbt', 'science', 'magazine', 'lesbian', 'comics', 'fantasy', 'issue', 'magazines', 'comic', 'hugo', 'published']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Architecture in early modern Scotland = Architecture in early modern Scotland encompasses all building within the borders of the kingdom of Scotland , from the early sixteenth century to the mid-eighteenth century . The time period roughly corresponds to the early modern era in Europe , beginning with the Renaissance and Reformation and ending with the start of the Enlightenment and Industrialisation . Vernacular architecture made use of local materials such as stone , turf and , where available , wood . Most of the population was housed in small hamlets and isolated dwellings . The most common form of dwelling throughout Scotland was the long house , shared by humans and animals . About ten per cent of the population lived in the burghs , in a mixture of half-timbered and stone houses . The impact of the Renaissance on Scottish architecture began in the reign of James III in the late fifteenth century with the rebuilding of royal palaces such as Linlithgow , and reached its peak under</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Architecture of Scotland = The architecture of Scotland includes all human building within the modern borders of Scotland , from the Neolithic era to the present day . The earliest surviving houses go back around 9500 years , and the first villages 6000 years : Skara Brae on the Mainland of Orkney being the earliest preserved example in Europe . Crannogs , roundhouses , each built on an artificial island , date from the Bronze Age and stone buildings called Atlantic roundhouses and larger earthwork hill forts from the Iron Age . The arrival of the Romans from about 71 AD led to the creation of forts like that at Trimontium , and a continuous fortification between the Firth of Forth and the Firth of Clyde known as the Antonine Wall , built in the second century AD . Beyond Roman influence , there is evidence of wheelhouses and underground souterrains . After the departure of the Romans there were a series of nucleated hill forts , often utilising major geographical features , as at Duna</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Architecture of Scotland in the Prehistoric era = The architecture of Scotland in the prehistoric era includes all human building within the modern borders of Scotland , before the arrival of the Romans in Britain in the first century BCE . Stone Age settlers began to build in wood in what is now Scotland from at least 8,000 years ago . The first permanent houses of stone were constructed around 6,000 years ago , as at Knap of Howar , Orkney and settlements like Skara Brae . There are also large numbers of chambered tombs and cairns from this era , particularly in the west and north . In the south and east there are earthen barrows , often linked to timber monuments of which only remnants remain . Related structures include bank barrows , cursus monuments , mortuary enclosures and timber halls . From the Bronze Age there are fewer new buildings , but there is evidence of crannogs , roundhouses built on an artificial islands and of Clava cairns and the first hillforts . From the Iron Ag</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Islands of the Clyde = The Islands of the Firth of Clyde are the fifth largest of the major Scottish island groups after the Inner and Outer Hebrides , Orkney and Shetland . They are situated in the Firth of Clyde between Ayrshire and Argyll . There are about forty islands and skerries , of which only four are inhabited and only nine larger than 40 hectares ( 99 acres ) . The largest and most populous are Arran and Bute , and Great Cumbrae and Holy Isle are also served by dedicated ferry routes . Unlike the four larger Scottish archipelagos , none of the isles in this group are connected to one another or to the mainland by bridges . The geology and geomorphology of the area is complex and the islands and the surrounding sea lochs each have distinctive features . The influence of the Atlantic Ocean and the North Atlantic Drift create a mild , damp oceanic climate . The larger islands have been continuously inhabited since Neolithic times , were influenced by the emergence of the kingdo</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Warfare in early modern Scotland = Warfare in early modern Scotland includes all forms of military activity in Scotland or by Scottish forces , between the adoption of new ideas of the Renaissance in the early sixteenth century and the military defeat of the Jacobite movement in the mid-eighteenth century . In the late Middle Ages , Scottish armies were assembled on the basis of common service , feudal obligations and money contracts of bonds of manrent . In 1513 these systems produced a large and formidable force , but in the mid-sixteenth century there were difficulties in recruitment . Individuals were expected to provide their own equipment , including axes and pole arms . Highland troops often brought bows and two-handed swords . Heavy armour was abandoned after the Flodden campaign . Highland lords tended to continue to use lighter chainmail and ordinary highlanders dressed in the plaid . The crown took an increasing role in the supply of equipment . The pike replaced the spear a</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['croatian', 'yugoslav', 'partisans', 'serbian', 'croatia', 'yugoslavia', 'partisan', 'serbs', 'bosnia', 'belgrade', 'serbia', 'germans', 'civilians', 'division', 'forces']</t>
+          <t>['nickelodeon', 'patrick', 'dvd', 'bikini', 'episodes', 'animation', 'kenny', 'voice', 'kids', 'storyboard', 'episode', 'animated', 'lawrence', 'character', 'television']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vojislav Lukačević = Vojislav Lukačević ( Serbian Cyrillic : Војислав Лукачевић ; 1908 – 14 August 1945 ) was a Serbian Chetnik commander in the Kingdom of Yugoslavia during World War II . At the outbreak of war , he held the rank of captain of the reserves in the Royal Yugoslav Army . When the Axis powers invaded Yugoslavia in April 1941 , Lukačević became a leader of Chetniks in the Sandžak region and joined the movement of Draža Mihailović . While the Chetniks were an anti-Axis movement in their long-range goals and did engage in marginal resistance activities for limited periods , they also pursued almost throughout the war a tactical or selective collaboration with the occupation authorities against the Yugoslav Partisans . They engaged in cooperation with the Axis powers to one degree or another by establishing modi vivendi or operating as auxiliary forces under Axis control . Lukačević himself collaborated extensively with the Italians and the Germans in actions against the Yugo</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Serbian State Guard = The Serbian State Guard ( Serbo-Croatian : Srpska državna straža or SDS , Српска државна стража ; German : Serbische Staatsgarde ) was an auxiliary paramilitary force used to impose law and order within the Territory of the Military Commander in Serbia during the German military occupation of the Kingdom of Yugoslavia in World War II . It was formed from two former Yugoslav gendarmerie regiments , was created with the approval of the German military authorities , and for a long period was controlled by the Higher SS and Police Leader in the Territory . It was also known as the Nedićevci after the leader of the Serbian pro-Axis puppet government , General Milan Nedić , who eventually gained control of its operations . It assisted the Germans in imposing one of the most brutal occupation regimes in occupied Europe and helped guard and execute prisoners at the Banjica concentration camp in Belgrade . Its leaders and much of the rank and file were sympathetic to the C</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dimitrije Ljotić = Dimitrije Ljotić ( Serbian Cyrillic : Димитрије Љотић ; 12 August 1891 – 23 April 1945 ) was a Serbian fascist politician and ideologue who established the Yugoslav National Movement ( Zbor ) in 1935 and collaborated with German occupational authorities in the Territory of the Military Commander in Serbia during World War II . He joined the Serbian Army with the outbreak of the Balkan Wars , fought on the Serbian side during World War I and remained in active service until 1920 , when he decided to pursue a career in politics . He joined the People 's Radical Party that year and became regional deputy for the Smederevo District in 1930 . In 1931 , he was appointed to the position of Yugoslav Minister of Justice by King Alexander I but resigned following a disagreement between him and the king over the layout of the Yugoslav political system . Ljotić founded Zbor in 1935 . The party received little support from the largely anti-German Serbian public and never won more</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>August Meyszner = August Meyszner ( 3 August 1886 – 24 January 1947 ) was an Austrian Gendarmerie officer and right-wing politician who held the post of Higher SS and Police Leader in the German-occupied territory of Serbia from January 1942 to March 1944 , during World War II . Meyszner began his career as an officer in the Gendarmerie , served on the Italian Front during World War I and reached the rank of Major der Polizei by 1921 . He joined the Austrian Nazi Party in September 1925 and became a right-wing parliamentary deputy and provincial minister in the Austrian province of Styria in 1930 . Due to his involvement with the Nazis , Meyszner was forcibly retired in 1933 and arrested in February 1934 , but released after three months at a detention centre in Wöllersdorf . That July , he was rearrested following an attempted coup , but escaped police custody and fled to Nazi Germany , where he joined the Ordnungspolizei and then the Allgemeine SS . After police postings in Austria ,</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Emin Xhinovci = Emin Xhinovci ( also spelled Gjinovci , Djinovci and Džinovci ; born c . 1959 ) is a retired Kosovo Liberation Army ( KLA ) insurgent and restaurant owner from Mitrovica known for his striking resemblance to Nazi leader Adolf Hitler . He immigrated to Germany in 1993 and settled in Düsseldorf , where he started an import-export business . In 1997 , he returned to Kosovo and later joined the KLA with the intention of helping separate the region from Yugoslavia . During his time as a guerrilla , he came to be known by the nickname " Hitler " because of his likeness to the Nazi leader . Following the Kosovo War , he settled in Mitrovica and opened a string of Nazi-themed restaurants that angered some NATO peacekeepers and were quickly closed . Xhinovci firmly believes that he is Hitler reincarnated and resorted to portraying the Nazi leader full-time in his public life , posing for pictures with locals , peacekeepers and tourists and charging between 20 and 80 euros per ph</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['plants', 'plant', 'botanical', 'tree', 'camouflage', 'animals', 'organisms', 'animal', 'gardens', 'species', 'garden', 'tea', 'trees', 'ecology', 'predators']</t>
+          <t>['scottish', 'scotland', 'painting', 'edinburgh', 'architecture', 'houses', 'century', 'churches', 'scots', 'bricks', 'portrait', 'highlands', 'glasgow', 'brick', 'portraits']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fish = A fish is any member of a paraphyletic group of organisms that consist of all gill-bearing aquatic craniate animals that lack limbs with digits . Included in this definition are the living hagfish , lampreys , and cartilaginous and bony fish , as well as various extinct related groups . Most fish are ectothermic ( " cold-blooded " ) , allowing their body temperatures to vary as ambient temperatures change , though some of the large active swimmers like white shark and tuna can hold a higher core temperature . Fish are abundant in most bodies of water . They can be found in nearly all aquatic environments , from high mountain streams ( e.g. , char and gudgeon ) to the abyssal and even hadal depths of the deepest oceans ( e.g. , gulpers and anglerfish ) . With 33,100 described species , fish exhibit greater species diversity than any other group of vertebrates . Fish are an important resource for humans worldwide , especially as food . Commercial and subsistence fishers hunt fish </t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ecology = Ecology ( from Greek : οἶκος , " house " , or " environment " ; -λογία , " study of " ) is the scientific analysis and study of interactions among organisms and their environment . It is an interdisciplinary field that includes biology , geography , and Earth science . Ecology includes the study of interactions organisms have with each other , other organisms , and with abiotic components of their environment . Topics of interest to ecologists include the diversity , distribution , amount ( biomass ) , and number ( population ) of particular organisms , as well as cooperation and competition between organisms , both within and among ecosystems . Ecosystems are composed of dynamically interacting parts including organisms , the communities they make up , and the non-living components of their environment . Ecosystem processes , such as primary production , pedogenesis , nutrient cycling , and various niche construction activities , regulate the flux of energy and matter throug</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desert = A desert is a barren area of land where little precipitation occurs and consequently living conditions are hostile for plant and animal life . The lack of vegetation exposes the unprotected surface of the ground to the processes of denudation . About one third of the land surface of the world is arid or semi-arid . This includes much of the polar regions where little precipitation occurs and which are sometimes called polar deserts or " cold deserts " . Deserts can be classified by the amount of precipitation that falls , by the temperature that prevails , by the causes of desertification or by their geographical location . Deserts are formed by weathering processes as large variations in temperature between day and night put strains on the rocks which consequently break in pieces . Although rain seldom occurs in deserts , there are occasional downpours that can result in flash floods . Rain falling on hot rocks can cause them to shatter and the resulting fragments and rubble </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Plant defense against herbivory = Plant defense against herbivory or host-plant resistance ( HPR ) describes a range of adaptations evolved by plants which improve their survival and reproduction by reducing the impact of herbivores . Plants can sense being touched , and they can use several strategies to defend against damage caused by herbivores . Many plants produce secondary metabolites , known as allelochemicals , that influence the behavior , growth , or survival of herbivores . These chemical defenses can act as repellents or toxins to herbivores , or reduce plant digestibility . Other defensive strategies used by plants include escaping or avoiding herbivores in any time and / or any place , for example by growing in a location where plants are not easily found or accessed by herbivores , or by changing seasonal growth patterns . Another approach diverts herbivores toward eating non-essential parts , or enhances the ability of a plant to recover from the damage caused by herbiv</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hartford City Glass Company = Hartford City Glass Company was among the top three window glass manufacturers in the United States between 1890 and 1899 , and continued to be one of the nation 's largest after its acquisition . It was also the country 's largest manufacturer of chipped glass , with capacity double that of its nearest competitor . The company 's works was the first of eight glass plants that existed in Hartford City , Indiana during the Indiana Gas Boom . It became the city 's largest manufacturer and employer , peaking with 600 employees . Many of the skilled workers employed at the Hartford City Glass Company were from Belgium , at the time the world ’ s leading manufacturer of window glass . The Belgian workers and their families accounted for over one-third of Hartford City 's population during the 1890s , and lived on the city 's south side . Because of the importance of the French-speaking Belgians , one of the local newspapers featured articles in French . In 1899</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['phillies', 'inning', 'yankees', 'dodgers', 'teams', 'breaker', 'giants', 'mlb', 'tie', 'yankee', 'postseason', 'game', 'run', 'pitcher', 'baseball']</t>
+          <t>['hebrew', 'text', 'manuscripts', 'gospel', 'jesus', 'manuscript', 'matthew', 'john', 'biblical', 'luke', 'greek', 'printing', 'readings', 'scholars', 'letters']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2007 National League Wild Card tie-breaker game = The 2007 National League wild-card tie-breaker game was a one-game extension to Major League Baseball 's ( MLB ) 2007 regular season , played between the San Diego Padres and Colorado Rockies of the National League 's ( NL ) West Division to determine the NL wild card . It was played at Coors Field in Denver , Colorado , on October 1 , 2007 . The Rockies won the game 9 – 8 in thirteen innings on a controversial play at home plate . The game was necessary after both teams finished the season with identical win – loss records of 89 – 73 . The Rockies won a coin flip late in the season , which awarded them home field for the game . Upon winning , the Rockies advanced to the NL Division Series where they swept the Philadelphia Phillies . After advancing , they swept the Arizona Diamondbacks in the NL Championship Series , winning their first pennant in franchise history . However , the Rockies were , in turn , swept in the 2007 World Series</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2008 Philadelphia Phillies season = The Philadelphia Phillies ' 2008 season was the 126th in the history of the franchise . The team finished with a regular season record of 92 – 70 , first in the National League East . In the post-season , the Phillies won the World Series ; this was the first major sports championship for Philadelphia since the 76ers swept the 1983 NBA Finals . During the season , they were managed by Charlie Manuel . The Phillies opened the season by posting their first winning April since 2003 . They also scored 60 runs over 5 games in late May in a sweep over the Colorado Rockies and accrued a 14 – 4 record over 18 games entering the month of June . The Phillies ' performance declined in late June , but they improved after the All-Star break , going 9 – 6 immediately following the midseason hiatus . Closer Brad Lidge earned eight saves in those games , and did not blow a save throughout the season and the postseason . Philadelphia traded sweeps with the Los Angele</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cody Ross = Cody Joseph Ross ( born December 23 , 1980 ) , nicknamed " Toy Cannon " and " Ross the Boss , " is a former American professional baseball outfielder . He is 5 feet 10 inches ( 1.78 m ) tall and weighs 195 pounds ( 88 kg ) . Ross has played in MLB for the Detroit Tigers ( 2003 ) , Los Angeles Dodgers ( 2005 – 2006 ) , Cincinnati Reds ( 2006 ) , Florida Marlins ( 2006 – 2010 ) , San Francisco Giants ( 2010 – 2011 ) , Boston Red Sox ( 2012 ) , Arizona Diamondbacks ( 2013 – 2014 ) and Oakland Athletics ( 2015 ) . He is one of the few Major League players to bat right-handed but throw left-handed . Following high school , Ross embarked on his professional career , getting selected by the Detroit Tigers in the fourth round of the 1999 Major League Baseball draft . He reached the Major Leagues in 2003 , but suffered a torn ACL which caused him to miss most of September . He was traded to the Los Angeles Dodgers following spring training in 2004 , appearing in a handful of games w</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Brian Wilson ( baseball ) = Brian Patrick Wilson ( born March 16 , 1982 ) is a former American professional baseball relief pitcher . He has pitched in Major League Baseball ( MLB ) for the San Francisco Giants and Los Angeles Dodgers . He stands 6 feet 2 inches ( 1.88 m ) tall and weighs 205 pounds ( 93 kg ) . He throws and bats right-handed . He throws a four-seam fastball , a cutter , a slider , and a two-seam fastball . Wilson pitched collegiately at Louisiana State University . His college career ended during his junior season , when he injured his elbow and underwent Tommy John surgery . The San Francisco Giants selected him in the 2003 draft . He reached the major leagues in 2006 and had become the Giants ' regular closer by the end of 2007 . In 2010 , he led the National League ( NL ) with 48 saves and posted a 1.81 ERA , and he saved clinching games at every level of the playoffs , including the World Series . In the first week of the 2012 season , Wilson injured his elbow and</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hitting for the cycle = In baseball , hitting for the cycle is the accomplishment of one batter hitting a single , a double , a triple , and a home run in the same game . Collecting the hits in that order is known as a " natural cycle " . Cycles are rare in Major League Baseball ( MLB ) , and have occurred only 309 times since the first by Curry Foley in 1882 . The most recent example was accomplished by Rajai Davis of the Cleveland Indians on July 2 , 2016 , against the Toronto Blue Jays . To this day , the Miami Marlins are the only MLB franchise who have never had a player perform the feat . Nine days earlier , just a few weeks after his Texas Rangers teammate Shin Soo Choo hit for the cycle on July 21 , 2015 , against the Colorado Rockies , Adrián Beltré hit for the cycle on August 3 , 2015 , against the Houston Astros . With the cycle hit on August 3 , 2015 , Beltre became only the fourth ever MLB player to hit for the cycle three times , and the only baseball player to hit for th</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1841,32 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['painting', 'paintings', 'art', 'artist', 'serbian', 'works', 'marie', 'exhibition', 'copenhagen', 'photography', 'photographers', 'canvas', 'painted', 'symphony', 'portrait']</t>
+          <t>['comics', 'story', 'belgian', 'adventures', 'snowy', 'moon', 'brussels', 'cartoonist', 'comic', 'depiction', 'belgium', 'adventure', 'sun', 'explorers', 'book']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mariana ( poem ) = " Mariana " is a poem by Alfred , Lord Tennyson , published in 1830 . The poem follows a common theme in much of Tennyson 's work — that of despondent isolation . The subject of Mariana is a woman who continuously laments her lack of connection with society . The isolation defines her existence , and her longing for a connection leaves her wishing for death at the end of every stanza . The premise of Mariana originates in William Shakespeare 's Measure for Measure , but the poem ends before Mariana 's lover returns . Tennyson 's version was adapted by others , including John Everett Millais and Elizabeth Gaskell , for use in their own works . The poem was well received by critics , and it is described by critics as an example of Tennyson 's skill at poetry . = = Background = = Tennyson wrote Mariana in 1830 and printed it within his early collection Poems , Chiefly Lyrical . Previously , he contributed poems to the work Poems by Two Brothers ( 1827 ) , where his earl</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Getty Center = The Getty Center , in Los Angeles , California , is a campus of the Getty Museum and other programs of the Getty Trust . The $ 1.3 billion Center opened to the public on December 16 , 1997 and is well known for its architecture , gardens , and views overlooking Los Angeles . The Center sits atop a hill connected to a visitors ' parking garage at the bottom of the hill by a three-car , cable-pulled hovertrain funicular . Located in the Brentwood neighborhood of Los Angeles , the Center is one of two locations of the J. Paul Getty Museum and draws 1.3 million visitors annually . ( The other location is the Getty Villa in the Pacific Palisades neighborhood of Los Angeles , California . ) The Center branch of the Museum features pre-20th-century European paintings , drawings , illuminated manuscripts , sculpture , and decorative arts ; and 19th- and 20th-century American , Asian , and European photographs . In addition , the Museum ’ s collection at the Center includes outdo</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Kim Ki-young = Kim Ki-young ( October 10 , 1919 – February 5 , 1998 ) was a South Korean film director , known for his intensely psychosexual and melodramatic horror films , often focusing on the psychology of their female characters . Kim was born in Seoul during the colonial period , raised in Pyongyang , where he became interested in theater and cinema . In Korea after the end of World War II , he studied dentistry while becoming involved in the theater . During the Korean War , he made propaganda films for the United States Information Service . In 1955 , he used discarded movie equipments to produce his first two films . With the success of these two films Kim formed his own production company and produced popular melodramas for the rest of the decade . Kim Ki-young 's first expression of his mature style was in his The Housemaid ( 1960 ) , which featured a powerful femme fatale character . It is widely considered to be one of the best Korean films of all time . After a " Golden A</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stuckism = Stuckism is an international art movement founded in 1999 by Billy Childish and Charles Thomson to promote figurative painting as opposed to conceptual art . By July 2012 the initial group of 13 British artists had expanded to 233 groups in 52 countries . Childish and Thomson have issued several manifestos . The first one was The Stuckists , consisting of 20 points starting with " Stuckism is a quest for authenticity " . Remodernism , the other well-known manifesto of the movement , is a criticism of postmodernism ; it aims to get back to the true spirit of modernism , to produce art with spiritual value regardless of style , subject matter or medium . In another manifesto they define themselves as anti-anti-art which is against anti-art and for art . After exhibiting in small galleries in Shoreditch , London , the Stuckists ' first show in a major public museum was held in 2004 at the Walker Art Gallery , as part of the Liverpool Biennial . The group has demonstrated annual</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Louvre = The Louvre or the Louvre Museum ( French : Musée du Louvre , pronounced : [ myze dy luvʁ ] ) ( French ) is the world 's largest museum and a historic monument in Paris , France . A central landmark of the city , it is located on the Right Bank of the Seine in the 1st arrondissement ( ward ) . Nearly 35,000 objects from prehistory to the 21st century are exhibited over an area of 60,600 square metres ( 652,300 square feet ) . The Louvre is the world 's second most visited museum after the Palace Museum in China , receiving more than 9.26 million visitors in 2014 . The museum is housed in the Louvre Palace , originally built as a fortress in the late 12th century under Philip II . Remnants of the fortress are visible in the basement of the museum . The building was extended many times to form the present Louvre Palace . In 1682 , Louis XIV chose the Palace of Versailles for his household , leaving the Louvre primarily as a place to display the royal collection , including , from</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['spacecraft', 'apollo', 'nasa', 'orbit', 'mission', 'lunar', 'launch', 'saturn', 'docking', 'flight', 'manned', 'module', 'space', 'landing', 'earth']</t>
+          <t>['spacecraft', 'apollo', 'nasa', 'lunar', 'mission', 'orbit', 'launch', 'moon', 'saturn', 'module', 'manned', 'docking', 'landing', 'flight', 'space']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Beatrice Hicks = Beatrice Alice Hicks ( January 2 , 1919 – October 21 , 1979 ) was an American engineer , the first woman engineer to be hired by Western Electric , and both co-founder and first president of the Society of Women Engineers . Despite entering the field at a time where engineering was seen as an inappropriate career for a woman , Hicks held a variety of leadership positions and eventually became the owner of an engineering firm . During her time there , Hicks developed a gas density switch that would be used in the U.S. space program , including the Apollo moon landing missions . = = Early life = = Beatrice Hicks was born in 1919 in Orange , New Jersey , to William Lux Hicks , a chemical engineer , and Florence Benedict . Hicks decided at an early age that she wished to be an engineer . While her parents neither supported nor opposed Hicks ' desired career path , some of her teachers and classmates tried to discourage her from becoming an engineer , viewing it as a social</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Glen P. Robinson = Glen Parmelee Robinson , Jr . ( September 10 , 1923 – January 16 , 2013 ) , called the " father of high-tech industry in Georgia " , was an American businessman and founder of Scientific Atlanta , now a subsidiary of Cisco Systems . Robinson was the first employee of Scientific Atlanta , where he remained CEO then Chairman of the company until he retired . Initially a ham radio enthusiast and subsequently a graduate of the Georgia Institute of Technology ( Georgia Tech ) with both bachelor 's and master 's degrees in physics , Robinson worked at the Georgia Tech Research Institute and the Oak Ridge National Laboratory before founding Scientific Atlanta . Later in life , he founded and invested in numerous Atlanta-based science-related companies . Robinson was named an IEEE Fellow and held at least 39 patents in fields including solar energy devices and antenna systems . For his contributions , he was named Georgia 's Small Businessman of the Year in 1965 , the Georgi</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Howard Sims = Howard " Sandman " Sims ( January 24 , 1917 – May 20 , 2003 ) was an African-American tap dancer who began his career in vaudeville . He was skilled in a style of dancing that he performed in a wooden sandbox of his own construction , and acquired his nickname from the sand he sprinkled to alter and amplify the sound of his dance steps . " They called the board my Stradivarius , " Sims said of his sandbox . From the 1950s to the year 2000 , Sims was a regular attraction — a " fixture " — at Harlem 's noted Apollo Theater , comedically ushering failed acts offstage with a hook , broom or other prop . He was also involved in New York City 's Hoofers Club , a venue primarily for Black tap dancers . As part of the resurgence of interest in tap dancing in the 1980s , Sandman Sims served as a cultural ambassador , representing the United States with dance performances around the world . He was featured in the 1989 dance film Tap , along with Sammy Davis Jr . , Gregory Hines and</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Really Achieving Your Childhood Dreams = " Really Achieving Your Childhood Dreams " ( also referred to as " The Last Lecture " ) was a lecture given by Carnegie Mellon University computer science professor Randy Pausch on September 18 , 2007 , that received a large amount of media coverage , and was the basis for The Last Lecture , a New York Times best-selling book co-authored with Wall Street Journal reporter Jeffrey Zaslow . Pausch had been diagnosed with pancreatic cancer in September 2006 . On September 19 , 2006 , Pausch underwent a pancreaticoduodenectomy to remove the malignant tumor from his pancreas . In August 2007 , after doctors discovered that the cancer had recurred , Pausch was given a terminal diagnosis and was told to expect a remaining three to six months of good health . During the lecture , Pausch was upbeat and humorous , alternating between wisecracks , insights on computer science and engineering education , advice on building multi-disciplinary collaborations ,</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Thunderbirds Are Go = Thunderbirds Are Go is a 1966 British science-fiction film based on Thunderbirds , a 1960s television series starring marionette puppets and featuring scale model effects in a filming process dubbed " Supermarionation " . Written by Thunderbirds creators Gerry and Sylvia Anderson , directed by David Lane and produced by AP Films , Thunderbirds Are Go develops the franchise with a plot focusing on the futuristic spacecraft Zero-X and its manned mission to Mars . When Zero-X suffers a mechanical failure during re-entry , it is up to International Rescue , with the aid of the Thunderbird machines , to save the astronauts on board before the spacecraft is obliterated in a crash landing . Filmed from March to June 1966 and premiering in December , Thunderbirds Are Go includes , in a first for an AP Films production , cameo appearances from puppets of real-life celebrities Cliff Richard and The Shadows , who also contributed to the musical score . It is also the first m</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1911,32 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['contest', 'broadcaster', 'semi', 'countries', 'jury', 'final', 'participating', 'greece', 'voting', 'host', 'idol', 'entry', 'philippine', 'song', 'country']</t>
+          <t>['phillies', 'inning', 'yankees', 'dodgers', 'giants', 'yankee', 'breaker', 'innings', 'tie', 'pitcher', 'run', 'braves', 'game', 'runs', 'pennant']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fred Dyer = Fred Dyer born Frederick William O 'Dwyer ( 29 April 1888 – date of death unknown ) , was a Welsh boxing champion , boxing manager and baritone singer . Trained by vocal teacher Clara Novello Davies , Dyer was famed for singing to audiences after he had fought in a contest and was nicknamed ' The Singing Boxer ' . In 1913 Dyer was briefly Wales welterweight champion when he beat Jack Delaney , who won the belt back just six weeks later . During his professional career Dyer took two overseas tours , to Australia from 1914 to 1915 and the United States from 1916 to 1919 . Due to the time spent in Australia , he became eligible to contest for national titles , unsuccessfully challenging Les Darcy for the welterweight belt in 1915 . The highpoint of his time in America , then during the ' no decision ' era , was a win over Panama Joe Gans . Due to a knee injury , Dyer was refused active service during the First World War ; instead he was recruited into the United States Army as</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nigella Lawson = Nigella Lucy Lawson ( born 6 January 1960 ) is an English journalist , broadcaster , television personality , gourmet , and food writer . She is the daughter of Nigel Lawson , a former Chancellor of the Exchequer , and Vanessa ( née Salmon ) Lawson , whose family owned the J. Lyons and Co. food and catering business . After graduating from Lady Margaret Hall , Oxford University , Lawson started work as a book reviewer and restaurant critic , later becoming the deputy literary editor of The Sunday Times in 1986 . She then embarked upon a career as a freelance journalist , writing for a number of newspapers and magazines . In 1998 , she brought out her first cookery book , How to Eat , which sold 300,000 copies and became a best-seller . She wrote her second book in 2000 , How to Be a Domestic Goddess , which won her the British Book Award for Author of the Year . In 1999 , she hosted her own cooking show series , Nigella Bites , on Channel 4 , accompanied by another bes</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Persona 3 The Movie : No. 1 , Spring of Birth = Persona 3 The Movie : # 1 Spring of Birth ( 劇場版 「 ペルソナ3 」 第１章 , Gekijōban Perusona 3 Dai Ichi Shō ) is a 2013 Japanese animated film and the first installment in a film series based on the Shin Megami Tensei : Persona 3 video game by Atlus . Directed by Noriaki Akitaya and written by Jun Kumagai , it is based on the original story by Atlus and distributed by Aniplex . It stars voice actors Akira Ishida , Megumi Toyoguchi , Kōsuke Toriumi , Rie Tanaka , Hikaru Midorikawa and Mamiko Noto . Set in 2009 , the film follows the exploits of transfer student Makoto Yuki who , upon moving to Iwatodai City , discovers the Shadow creatures which feed on human psyche during the Dark Hour midnight phenomenon . After awakening to an ability called Persona , Yuki finds himself intertwined in the battle against the Shadows with his new schoolmates . Development of the film was first announced in a teaser trailer during the limited theatrical release of P</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hilda Solis = Hilda Lucia Solis ( / soʊˈliːs / ; born October 20 , 1957 ) is an American politician and a member of the Los Angeles County Board of Supervisors for District 1 . Solis previously served as the 25th United States Secretary of Labor from 2009 to 2013 , as part of the administration of President Barack Obama . She is a member of the Democratic Party and served in the United States House of Representatives from 2001 to 2009 , representing the 31st and 32nd congressional districts of California that include East Los Angeles and the San Gabriel Valley . Solis was raised in La Puente , California , by immigrant parents from Nicaragua and Mexico . She gained degrees from the California State Polytechnic University , Pomona and the University of Southern California and worked for two federal agencies in Washington , D.C. Returning to her native state , she was elected to the Rio Hondo Community College Board of Trustees in 1985 , the California State Assembly in 1992 , and the Ca</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">KevJumba = Kevin Wu ( traditional Chinese : 吳凱文 ; simplified Chinese : 吴凯文 ; pinyin : Wú Kǎiwén ) ( born June 12 , 1990 ) is an American blogger and former comedian and actor . He was a YouTube celebrity best known by his YouTube username of KevJumba . The San Francisco Chronicle 's Jeff Yang has noted that Wu is not a comedian in the conventional sense but that by " just talking [ he ] is , well , pretty hilarious " due to his deadpan vocal delivery , animated facial expressions and tendency toward unexpected digressions . Wu previously appeared on The CW Television Network 's short-lived Online Nation and co-starred with Jessica Lee Rose and Philip DeFranco in Hooking Up from HBOLabs ( the online arm of HBO ) in 2008 . In 2010 , Wu and his father , Michael , competed as a team on the 17th season of The Amazing Race , placing seventh out of eleven teams . In 2014 , Wu starred in crime drama film Revenge of the Green Dragons ( executive produced by Martin Scorsese ) . = = Background = </t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['lighthouse', 'light', 'keeper', 'tower', 'lens', 'keepers', 'concrete', 'connecticut', 'lamp', 'cottages', 'installed', 'constructed', 'lamps', 'island', 'iron']</t>
+          <t>['amendment', 'shall', 'constitution', 'clause', 'defendant', 'states', 'rights', 'congress', 'jury', 'amendments', 'ratification', 'constitutional', 'supreme_court', 'senate', 'convention']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lundy = Lundy is the largest island in the Bristol Channel . It lies 12 miles ( 19 km ) off the coast of Devon , England , about a third of the distance across the channel from Devon , England to South Wales . Lundy gives its name to a British sea area and is one of the islands of England . Lundy has been designated by Natural England as national character area 159 , one of England 's natural regions . In 2007 , Lundy had a resident population of 28 people , including volunteers . These include a warden , ranger , island manager and farmer , as well as bar and house-keeping staff . Most live in and around the village at the south of the island . Most visitors are day-trippers , although there are 23 holiday properties and a camp site for staying visitors , mostly also around the south of the island . In a 2005 opinion poll of Radio Times readers , Lundy was named as Britain 's tenth greatest natural wonder . The entire island has been designated as a Site of Special Scientific Interest</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">River Weaver = The River Weaver is a river , navigable in its lower reaches , running in a curving route anti-clockwise across west Cheshire , northern England . Improvements to the river to make it navigable were authorised in 1720 and the work , which included eleven locks , was completed in 1732 . An unusual clause in the enabling Act of Parliament stipulated that profits should be given to the County of Cheshire for the improvement of roads and bridges , but the navigation was not initially profitable , and it was 1775 before the first payments were made . Trade continued to rise , and by 1845 , over £ 500,000 had been given to the county . The major trade was salt . The arrival of the Trent and Mersey Canal at Anderton in 1773 was detrimental to the salt trade at first , but ultimately beneficial , as salt was tipped down chutes from the canal into barges on the river navigation . Access to the river was improved in 1810 by the Weston Canal , which provided a link to Weston Point </t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>108 St Georges Terrace = 108 St Georges Terrace or South32 Tower ( formerly known as Bankwest Tower , the Bond Tower and the R &amp; I Tower ) is a 50-storey office tower in Perth , Western Australia . Completed in 1988 , the building measures 214 metres ( 702 ft ) to its roof and 247 metres ( 810 ft ) to the tip of its communications antenna . It was the tallest building in Perth from its completion in 1988 until 1992 when it was overtaken in height by Central Park . As of 2012 , it remains the third-tallest building in the city . The concrete tower has a distinctive profile , with a triangular plan . The site occupied by the tower was home to the Palace Hotel , and organised opposition was formed to try to save that building from demolition to make way for an office tower . The site was subsequently acquired by businessman Alan Bond and the tower was approved and constructed in a plan that would retain much of the Palace Hotel . The tower then remained the headquarters of Bond 's compani</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Alcatraz Federal Penitentiary = The Alcatraz Federal Penitentiary or United States Penitentiary , Alcatraz Island ( often just referred to as Alcatraz ) was a maximum high-security federal prison on Alcatraz Island , 1.25 miles ( 2.01 km ) off the coast of San Francisco , California , USA , which operated from 1934 to 1963 . The main prison building was built in 1910 – 12 during its time as a United States Army military prison ; Alcatraz had been the site of a citadel since the 1860s . The United States Disciplinary Barracks , Pacific Branch on Alcatraz was acquired by the United States Department of Justice on October 12 , 1933 , and the island became a prison of the Federal Bureau of Prisons in August 1934 after the buildings were modernized to meet the requirements of a top-notch security prison . Given this high security and the location of Alcatraz in the cold waters and strong currents of San Francisco Bay , the prison operators believed Alcatraz to be escape-proof and America 's</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Gregorian Tower = The Gregorian Tower ( Italian : Torre Gregoriana ) or Tower of the Winds ( Italian : Torre dei Venti ) is a round tower located above the Gallery of Maps , which connects the Villa Belvedere with the Apostolic Palace in Vatican City . The tower was built between 1578 and 1580 to a design by the Bolognese architect Ottaviano Mascherino ( who was credited with building the Apostolic Palace ) mainly to promote the study of astronomy for the Gregorian Calendar Reform which was commissioned by Pope Gregory XIII and promulgated in 1582 . It was then also known as the Tower of Winds . The tower is now called the " Specola Astronomica Vaticana " , the Vatican Observatory . Four stages of progressive development have occurred since it was first established . The tower was an edifice of great value for astronomical observations made using a sundial as they provided essential confirmation of the need to reform the Julian calendar . = = Early history = = The first stage of buildi</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['ben', 'survivors', 'shannon', 'island', 'freighter', 'charlotte', 'bernard', 'michael', 'plane', 'daniel', 'tom', 'frank', 'dave', 'kate', 'oceanic']</t>
+          <t>['singapore', 'law', 'judicial', 'parliament', 'constitution', 'article', 'courts', 'minister', 'court', 'constitutional', 'high_court', 'persons', 'public', 'tribunal', 'act']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Grace , Replaced = " Grace , Replaced " is the eighteenth episode of the first season of the American television series Will &amp; Grace . It was written by Katie Palmer and directed by series producer James Burrows . The episode originally aired on the National Broadcasting Company ( NBC ) in the United States on April 8 , 1999 . Actors Molly Shannon , Leigh-Allyn Baker , and Tom Gallop guest starred on " Grace , Replaced " . In the episode , Grace 's ( Debra Messing ) job forces her to work overtime , which leads to Will ( Eric McCormack ) feeling neglected . As a result , he seeks solace in the company of a new neighbor , Val ( Shannon ) . Meanwhile , Jack ( Sean Hayes ) is annoyed that he has to perform community service for assaulting a meter maid . Before the airing , NBC moved the program to Thursdays at 8 : 30 p.m. , after it was a success in the Tuesday lineup . " Grace , Replaced " was the first episode to debut on the Thursday slot . Since then , the episode has generally receiv</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Move Like This = Move Like This is the seventh , and , to date , final studio album by American rock band The Cars , released on May 10 , 2011 . The album is their first since 1987 's Door to Door and features all of the original band members except for bassist and vocalist Benjamin Orr , who died of pancreatic cancer in 2000 . The album reached the top ten of the Billboard 200 and peaked at number 2 on the Billboard Top Rock Albums chart ; a single from the album , " Sad Song " , reached number 33 on the Billboard Rock Songs chart . Following the release of the album , the band launched an eleven-city tour of North America . = = Background = = Move Like This is the first reunion of The Cars to feature original lead singer , songwriter , rhythm guitarist , and co-producer Ric Ocasek since their 1988 split . In 1997 , Ocasek told a journalist that the band would never reunite : " I 'm saying never and you can count on that . " A partial reunion of the band occurred in 2005 when keyboard</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Blackcurrant = The blackcurrant ( Ribes nigrum ) is a woody shrub in the family Grossulariaceae grown for its piquant berries . It is native to temperate parts of central and northern Europe and northern Asia where it prefers damp fertile soils and is widely cultivated both commercially and domestically . It is winter hardy but cold weather at flowering time during the spring reduces the size of the crop . Bunches of small , glossy black fruit develop along the stems in the summer and can be harvested by hand or by machine . The fruit is rich in vitamin C , various other nutrients , phytochemicals and antioxidants . Blackcurrants can be eaten raw but are usually cooked in a variety of sweet or savoury dishes . They are used to make jams , jellies and syrups and are grown commercially for the juice market . The fruit is also used in the preparation of alcoholic beverages and both fruit and foliage have uses in traditional medicine and the preparation of dyes . As a crop , the blackcurra</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HMS Ben-my-Chree = HMS Ben-my-Chree ( Manx : " Woman of My Heart " ) was a packet steamer and a Royal Navy ( RN ) seaplane carrier of the First World War . She was originally built in 1907 by Vickers for the Isle of Man Steam Packet Company and was intended for use on the England – Isle of Man route . She was the third vessel to bear her name . To this day Ben-my-Chree holds the crossing speed record from Liverpool to Douglas for a steamship at under three hours . She was chartered by the RN at the beginning of 1915 and participated in several abortive attacks on Germany in May . The ship was transferred to the Dardanelles in June to support the Gallipoli Campaign . One of her aircraft made the first ship-launched aerial torpedo attack on a ship in August . After Gallipoli was evacuated at the end of the year , Ben-my-Chree became flagship of the East Indies and Egypt Seaplane Squadron that operated in the Eastern Mediterranean , performing reconnaissance missions and attacking Turkish</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Art Spiegelman = Art Spiegelman ( born Itzhak Avraham ben Zeev on February 15 , 1948 ) is an American cartoonist , editor , and comics advocate best known for his graphic novel Maus . His work as co-editor on the comics magazines Arcade and Raw has been influential , and from 1992 he spent a decade as contributing artist for The New Yorker , where he made several high-profile and sometimes controversial covers . He is married to designer and editor Françoise Mouly and is the father of writer Nadja Spiegelman . Spiegelman began his career with the Topps bubblegum card company in the mid-1960s , which was his main financial support for two decades ; there he co-created parodic series such as Wacky Packages in the 1960s and the Garbage Pail Kids in the 1980s . He gained prominence in the underground comix scene in the 1970s with short , experimental , and often autobiographical work . A selection of these strips appeared in the collection Breakdowns in 1977 , after which Spiegelman turned</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -2016,32 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['motorway', 'croatia', 'adriatic', 'croatian', 'toll', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'kilometres', 'section', 'areas', 'rest', 'yugoslavia']</t>
+          <t>['motorway', 'croatia', 'toll', 'croatian', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'section', 'rest', 'kilometres', 'areas', 'tunnels', 'construction']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Louis I of Hungary = Louis I , also Louis the Great ( Hungarian : Nagy Lajos ; Croatian : Ludovik Veliki ; Slovak : Ľudovít Veľký ) or Louis the Hungarian ( Polish : Ludwik Węgierski ; 5 March 1326 – 10 September 1382 ) , was King of Hungary and Croatia from 1342 and King of Poland from 1370 . He was the first child of Charles I of Hungary and his wife , Elizabeth of Poland , to survive infancy . A 1338 treaty between his father and Casimir III of Poland , Louis 's maternal uncle , confirmed Louis 's right to inherit the Kingdom of Poland if his uncle died without a son . In exchange , Louis was obliged to assist his uncle to reoccupy the lands that Poland had lost in previous decades . He bore the title of Duke of Transylvania between 1339 and 1342 but did not administer the province . Louis was of age when succeeded his father in 1342 , but his deeply religious mother exerted a powerful influence on him . He inherited a centralized kingdom and a rich treasury from his father . During</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A9 ( Croatia ) = The A9 motorway ( Croatian : Autocesta A9 ) is a north – south motorway in Croatia , with a length of 78.3 kilometres ( 48.7 miles ) . Beginning in Pula , the largest city on the Istrian peninsula , it runs north to the Croatian motorway and expressway network at the Kanfanar interchange . Here it meets the A8 motorway , forming the Istrian Y road system . The A9 continues north from here to the Kaštel and Plovanija border crossings into Slovenia . The motorway represents a significant north – south transportation corridor in Croatia and is a part of the European route E751 . The motorway 's national significance is reflected in the positive economic impact on the cities and towns it connects , as well as its importance to tourism in Croatia . Importance of the motorway for tourism is particularly high during summer tourist seasons , when traffic volume increases by more than 80 % . The A9 motorway construction works began in 1988 with its first section opening in 1991</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Zinfandel = Zinfandel ( also known as Primitivo ) is a variety of black-skinned wine grape . The variety is grown in over 10 percent of California vineyards . DNA analysis has revealed that it is genetically equivalent to the Croatian grapes Crljenak Kaštelanski and Tribidrag , as well as to the Primitivo variety traditionally grown in Apulia ( the " heel " of Italy ) , where it was introduced in the 18th century . The grape found its way to the United States in the mid-19th century , where it became known by variations of the name " Zinfandel " , a name which is probably of Austrian origin . The grapes typically produce a robust red wine , although in the United States a semi-sweet rosé ( blush-style ) wine called White Zinfandel has six times as many sales as the red wine . The grape 's high sugar content can be fermented into levels of alcohol exceeding 15 percent . The taste of the red wine depends on the ripeness of the grapes from which it is made . Red berry fruit flavors like r</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stephen II of Hungary = Stephen II ( Hungarian : II István ; Croatian : Stjepan II ; Slovak : Štefan II ; 1101 – early 1131 ) , King of Hungary and Croatia , ruled from 1116 until 1131 . His father , King Coloman , had him crowned as a child , thus denying the crown to his uncle Álmos . In the first year of his reign , Venice occupied Dalmatia and Stephen never restored his rule in that province . His reign was characterized by frequent wars with neighbouring countries . = = Early years ( till 1116 ) = = Stephen and his twin brother , Ladislaus , were sons of King Coloman of Hungary by his queen , Felicia of Sicily . According to the Illuminated Chronicle , they were born " ... in the year of our Lord 1101 . " Stephen was named after the first king of Hungary , who had been canonized in 1083 , implying that he was his father 's heir from birth . A document written in Zadar in approximately 1105 AD makes mention of " Stephen , our most renowned king " along with Coloman , proving that t</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>European route E751 = The European route E751 , or E751 , as defined by the Declaration on the Construction of Main International Traffic Arteries of 1975 , and subsequent documents which amended the treaty , is an east-west Class-B branching European road route . Originating in Rijeka , Croatia , where it diverges from European route E61 before passing through the Kanfanar interchange , the route connects Pula , Rovinj , Poreč and Umag in Croatia with Koper in Slovenia . The route provides a high-performance road link in Istria and Slovenian Littoral . Unlike most routes , the E751 centers on the Kanfanar interchange and has three arms , each extending to Rijeka , Pula and Koper . The total length of the route , including all the route arms , is 160 km ( 99 mi ) . The E751 mostly consists of motorways , but considerable sections are either expressways or two-lane roads with at-grade intersections . All motorway sections of the E751 are tolled , using the electronic toll collection ( E</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['rockets', 'nba', 'arena', 'playoffs', 'houston', 'team', 'franchise', 'ownership', 'finals', 'relocation', 'toronto', 'draft', 'games', 'pick', 'season']</t>
+          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Eldridge Recasner = Eldridge David Recasner ( born December 14 , 1967 ) is a retired American professional basketball player . In college , he was a three-time All-Pac-10 Conference guard for the Washington Huskies men 's basketball team . After college , he played in a variety of professional leagues such as the Continental Basketball Association ( CBA ) and Europe before entering the NBA . He subsequently played for several National Basketball Association 's ( NBA ) teams including the Denver Nuggets , Houston Rockets , Atlanta Hawks , Charlotte Hornets and Los Angeles Clippers . In the 1994 – 95 season , his fifth season after college , he earned the CBA MVP award while leading the Yakima Sun Kings to the league championship . After that CBA season was completed , he signed to play in the NBA at the end of the 1994 – 95 NBA season for the Nuggets . The following season , he earned a spot on the roster of the two-time defending champion Rockets . He played in the NBA for seven more s</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>John Hummer = John Hummer ( born May 4 , 1948 ) is a venture capitalist and retired professional basketball player who was an original member of the Buffalo Braves after starring for the Princeton Tigers men 's basketball team . He also led his high school to the 1966 Virginia State 1A championship and helped Princeton earn a 1967-68 co-Ivy League Championship as well as a 1968-69 outright Ivy League Championship . Over the course of his basketball career , he was coached by four National Basketball Hall of Fame members . In college , Hummer was a three-time All-Ivy League selection ( first-team : 1969 &amp; 1970 , second team : 1968 ) . He played for two Ivy League champion teams and served as team captain as a senior . He was a part of the first of head coach Pete Carril 's thirteen Ivy League champions ( 1968 ) , eleven NCAA Division I Men 's Basketball Tournament teams ( 1969 ) and three undefeated conference champions ( 1969 ) . Although Hummer set no statistical records , his name co</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Svalbard Rocket Range = The Svalbard Rocket Range ( Norwegian : Svalbard Rakettskytefelt ) or SvalRak is a launch site for sounding rockets at Ny-Ålesund in Svalbard , Norway . The site has been in use since 1997 and is owned by Andøya Rocket Range , which is again owned by the Norwegian Space Centre and the Kongsberg Group . SvalRak 's location at the 79th parallel north makes it well-suited for launching rockets to investigate Earth 's magnetic field . It is used mostly by American , Japanese and Norwegian researchers . It is the world 's northernmost launch site . = = History = = Planning of a launch site in Ny-Ålesund started in 1993 , a location chosen because of its ideal location to study the polar cusp . Construction of the site started in the summer of 1997 . The Norwegian Institute for Air Research , which conducts air measurements in Ny-Ålesund , was concerned that the rockets could pollute their measurements . A test rocket was launched on 15 November . The first proper lau</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anthony Parker = Anthony Michael Parker ( born June 19 , 1975 ) is an American retired professional basketball player who played in the National Basketball Association ( NBA ) , as well as in Italy and Israel . After graduating from Bradley University with a major in liberal arts , he entered the 1997 NBA Draft and played briefly in the NBA before plying his trade in Europe . There , Parker spent five seasons with the Israeli Super League basketball club Maccabi Tel Aviv and one season with the Italian Serie A club Lottomatica Roma . With Maccabi he won five Israeli Super League national championships , five Israeli National Cups , three European titles ( two Euroleague Basketball titles and the FIBA SuproLeague title in 2001 ) , and was voted two consecutive times Euroleague MVP . After returning to the NBA as a free agent in 2006 , Parker was the Toronto Raptors ' starting shooting guard . In his first season with the Raptors , Parker helped the team clinch their first ever division </t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1998 – 99 NBA lockout = The 1998 – 99 NBA lockout was the third lockout of four in the history of the National Basketball Association ( NBA ) . It lasted from July 1 , 1998 to January 20 , 1999 , and forced the 1998 – 99 regular season to be shortened to 50 games per team and that season 's All-Star Game to be canceled . NBA owners reopened the league 's collective bargaining agreement ( CBA ) in March 1998 , seeking changes to the league 's salary cap system and a ceiling on individual player salaries . The National Basketball Players Association ( NBPA ) opposed the owners ' plans and wanted raises for players who earned the league 's minimum salary . After the two sides failed to reach an agreement , the owners began the lockout . The dispute received a tepid response from sports fans , and provoked criticism from media members . It continued into January 1999 , threatening cancellation of the entire season . After division within the players union , however , NBPA executive directo</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
+          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'puerto_rico', 'thread', 'ink', 'issued']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Philadelphia municipal election , 1951 = Philadelphia 's municipal election of November 6 , 1951 was the first held under the city 's new charter , which had been approved by the voters the previous April . The positions contested included those of mayor , district attorney , all seventeen city council seats , among other offices . There was also a referendum on whether to consolidate the city and county governments . Citywide , the Democrats took majorities of over 100,000 votes , breaking a 67-year Republican hold on city government . Joseph S. Clark , Jr. and Richardson Dilworth , two of the main movers for the charter reform , were elected mayor and district attorney , respectively . The Democrats also took fourteen of seventeen city council seats , and city-county consolidation passed by a wide margin . The election marked the beginning of Democratic dominance of Philadelphia city politics , which continues today . = = Mayor = = The incumbent Republican mayor , Bernard Samuel , di</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tempest ( Smallville ) = " Tempest " is the twenty-first episode and season finale of the first season of the WB original series Smallville . The episode originally aired on May 21 , 2002 ; Alfred Gough and Miles Millar wrote the script , and Greg Beeman directed . In the episode 's narrative , Lex attempts to forge his own destiny away from LuthorCorp ; Whitney leaves Smallville for the Marines ; Roger Nixon discovers Clark 's secret and attempts to expose him to the world ; and Lana is pulled into a tornado . Director Greg Beeman attempted to create a visual theme among the characters that would parallel the approaching storm . The episode would mark the departure of Eric Johnson as Whitney Fordman , though he would return as a special guest in seasons two and four . Although the Smallville finale pulled in just over half of the viewership attained by the pilot episode , it was still favorably received by critics . It was also nominated for two awards . = = Plot = = Lionel Luthor ( J</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rob Howard = Rob Howard ( born 1954 or 1955 ) is a Canadian politician who was elected to the 39th Parliament of British Columbia as the Member of the Legislative Assembly of British Columbia from the riding of Richmond Centre . A member of the BC Liberal Party , he replaced retiring BC Liberal Olga Ilich in that riding , by winning the riding in the 2009 provincial election . While his party formed a majority government , Howard was not included in Gordon Campbell 's cabinet but was appointed to several committees , including the Select Standing Committee on Public Accounts in the first two sessions , and Select Standing Committee on Finance and Government Services in the third and fourth session . Howard introduced one piece of legislation , the Trustee Board of the Church of God , Richmond Municipality , B.C. ( Corporate Restoration ) Act , 2009 ( Pr 402 ) , to retroactively restore that organization 's corporate status . As chair of the Select Standing Committee on Finance and Gove</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Meat ant = The meat ant ( Iridomyrmex purpureus ) , also known as the gravel ant or southern meat ant , is a species of ant endemic to Australia . A member of the genus Iridomyrmex in the subfamily Dolichoderinae , it was described by British entomologist Frederick Smith in 1858 . The meat ant is associated with many common names due to its appearance , nest-building behaviour and abundance , of which its specific name , purpureus , refers to its coloured appearance . It is among the best-known species of ant found throughout Australia ; it occurs in almost all states and territories except for Tasmania . Its enormous distribution , aggression and ecological importance have made this ant a dominant species . The meat ant is monomorphic ( occurs in a particular form ) , although there is evidence that certain populations can be polymorphic . It is characterised by its dark-bluish body and red head . It is a medium to large species , measuring 6 – 12 mm ( 0.24 – 0.47 in ) . The workers a</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bang ! Pow ! Boom ! = Bang ! Pow ! Boom ! is the eleventh studio album by American hip hop group Insane Clown Posse . Released on September 1 , 2009 by Psychopathic Records , it was the group 's second album with producer Mike E. Clark since his return to Psychopathic Records , and the first album to focus on the Dark Carnival since the conclusion of the group 's original " Joker 's Cards " series . The character is the first of a set of six new Joker 's Cards . The album 's title refers to a character within the Dark Carnival described as a large , continuing explosion which clears evil souls from the carnival grounds . Bang ! Pow ! Boom ! peaked at number four in the Billboard Top 200 . Critics praised Clark 's production and the return to the Dark Carnival concept . In 2010 , Psychopathic Records released a " Nuclear Edition " of the album , which featured previously unreleased material . The music video for the song " Miracles " , produced for the reissue , became viral , and was t</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -2121,32 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['grammy', 'neo', 'hawaiian', 'soul', 'nominees', 'category', 'awards', 'rap', 'award', 'presented', 'categories', 'artists', 'recipients', 'academy', 'disco']</t>
+          <t>['painting', 'paintings', 'works', 'abstract', 'dots', 'art', 'canvas', 'okay', 'artist', 'breasts', 'portrait', 'mirror', 'girl', 'work', 'balloon']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tree : A Life Story = Tree : A Life Story ( or Tree : A Biography in Australia ) is a Canadian non-fiction book written by David Suzuki and Wayne Grady , and illustrated by Robert Bateman . The book profiles the life of a Douglas-fir tree , from seed to maturity to death . The story provides ecological context by describing interactions with other lifeforms in the forest and historical context through parallels with world events that occur during the tree 's 700 years of life . Digressions from the biographical narrative , scattered throughout the book , provide background into related topics , such as the history of botany . Suzuki was inspired to write a biography of a tree when he noticed a Douglas-fir with an uncharacteristic curve in its trunk and speculated what caused it to grow into that shape . Suzuki studied the topic with the help of a research assistant and solicited Grady to help write the book . Vancouver publishers Greystone Books released the book in September 2004 . In</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>I See the Light = " I See the Light " is a song written by composer Alan Menken and lyricist Glenn Slater for Walt Disney Animation Studios ' 50th animated feature film Tangled ( 2010 ) . A duet originally recorded by American recording artist and actress Mandy Moore and American actor Zachary Levi in their respective film roles as main characters Rapunzel and Flynn Rider , the folk-inspired pop ballad serves as both the film 's love and theme song . Lyrically , " I See the Light " describes the developing romantic relationship between Rapunzel and Flynn , and is featured as the seventh track on the film 's soundtrack album . Tangled was originally conceived by Disney animator Glen Keane . Subsequently , Walt Disney Animation Studios hired veteran Disney composer Alan Menken and lyricist Glenn Slater to write the film 's songs . Initially , Menken and Slater had written a more anthemic version of " I See the Light " before finally re-working it into a gentler , simpler and more folk-or</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coming Up to Breathe = Coming Up to Breathe is the fourth studio album by Christian rock band MercyMe . Released on April 25 , 2006 , by INO Records , the album was intended by MercyMe to be edgier than their previous albums . Coming Up to Breathe sold 58,000 copies its first week , MercyMe 's biggest sales week at the time . It debuted and peaked at number one on the Billboard Christian Albums chart , number five on the Rock Albums chart , and number thirteen on the Billboard 200 . It also appeared on the Alternative Albums chart in 2007 , peaking at number thirteen . Coming Up to Breathe was certified Gold by the Recording Industry Association of America ( RIAA ) in 2007 , signifying shipments of over 500,000 copies . Coming Up to Breathe received positive reviews from critics . It was also nominated for Best Pop / Contemporary Gospel Album at the 49th Grammy Awards , and for Pop / Contemporary Album of the Year at the 38th GMA Dove Awards . The song " Bring the Rain " was nominated </t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Nothing Was the Same = Nothing Was the Same is the third studio album by Canadian recording artist Drake . It was released on September 24 , 2013 , by OVO Sound , Young Money Entertainment , Cash Money Records and Republic Records . Work on the record began in 2012 and continued through 2013 . As its executive producer , Drake enlisted collaborators including 2 Chainz , Big Sean , Jay Z , Jhené Aiko and Sampha to appear as guest appearances on the album . The album 's production was primarily handled by Noah " 40 " Shebib and other OVO Sound producers ; Boi-1da , Mike Zombie , Majid Jordan and Nineteen85 , among others such as , Detail , Key Wane , Hudson Mohawke and Jake One . Nothing Was the Same was supported by the seven successful singles ; " Started from the Bottom " , " Hold On , We 're Going Home " featuring Majid Jordan , " All Me " featuring 2 Chainz and Big Sean , " Pound Cake " featuring Jay Z , " The Language " , " Too Much " featuring Sampha and " Worst Behavior " . " Wu-</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Squidward Tentacles = Squidward Tentacles is a fictional character voiced by actor Rodger Bumpass in the American animated television series SpongeBob SquarePants . Squidward was created and designed by marine biologist and animator Stephen Hillenburg . He first appeared on television in the series ' pilot episode " Help Wanted " on May 1 , 1999 . Although his name has the word " Squid " in it and he has six arms ( Hillenburg designed Squidward with six arms , believing that " it was really just simpler for animation to draw him with six legs instead of eight " . ) , Squidward is an anthropomorphic octopus . He lives in a moai between SpongeBob SquarePants ' and Patrick Star 's houses . The character is portrayed as ill-tempered , pretentious , and cynical who strongly despises his neighbors for their constant boisterous , noisy behavior . However , the pair are unaware of Squidward 's antipathy towards them and see him as a friend . Squidward works as a cashier at the Krusty Krab rest</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>
@@ -2156,32 +2156,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'thread', 'ink', 'issued', 'signature']</t>
+          <t>['ben', 'shannon', 'survivors', 'bernard', 'island', 'freighter', 'dave', 'frank', 'plane', 'jack', 'alex', 'miles', 'kate', 'crash', 'rose']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Constantine the Great = Constantine the Great ( Latin : Flavius Valerius Aurelius Constantinus Augustus ; Greek : Κωνσταντῖνος ὁ Μέγας ; 27 February c . 272 AD – 22 May 337 AD ) , also known as Constantine I or Saint Constantine ( in the Orthodox Church as Saint Constantine the Great , Equal-to-the-Apostles ) , was a Roman Emperor from 306 to 337 AD . Constantine was the son of Flavius Valerius Constantius , a Roman army officer , and his consort Helena . His father became Caesar , the deputy emperor in the west in 293 AD . Constantine was sent east , where he rose through the ranks to become a military tribune under the emperors Diocletian and Galerius . In 305 , Constantius was raised to the rank of Augustus , senior western emperor , and Constantine was recalled west to campaign under his father in Britannia ( Britain ) . Acclaimed as emperor by the army at Eboracum ( modern-day York ) after his father 's death in 306 AD , Constantine emerged victorious in a series of civil wars aga</t>
+          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>National Front ( France ) = The National Front ( French : Front national , French pronunciation : ​ [ fʁɔ ̃ na.sjɔ.nal ] , FN ) is a socially conservative , nationalist political party in France . Its major policies include economic protectionism , a zero tolerance approach to law and order issues , and opposition to immigration . A eurosceptic party , the FN has opposed the European Union since its creation in 1993 . Most political commentators place the FN on the right to far right but party representatives reject this and suggest other ways of looking at the left – right axis . The party was founded in 1972 to unify a variety of French nationalist movements of the time . Jean-Marie Le Pen was the party 's first leader and the undisputed centre of the party from its start until his resignation in 2011 . Marine Le Pen , his daughter , was elected as the current leader . While the party struggled as a marginal force for its first ten years , since 1984 it has been the major force of Fr</t>
+          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>William Shirley = William Shirley ( 2 December 1694 – 24 March 1771 ) was a British colonial administrator who was the longest-serving governor of the Province of Massachusetts Bay ( 1741 – 1749 and 1753 – 1756 ) and then Governor of the Bahamas ( 1760 – 1768 ) . He is best known for his role in organizing the 1745 Siege of Louisbourg during King George 's War , and for his role in military affairs during the French and Indian War . He spent most of his years in the colonial administration of North America working to defeat New France , but his lack of formal military training led to political difficulties and his eventual downfall . Politically well connected , Shirley began his career in Massachusetts as advocate general in the admiralty court , and quickly became an opponent of Governor Jonathan Belcher . He joined with Belcher 's other political enemies to bring about Belcher 's recall , and was appointed Governor of Massachusetts Bay in Belcher 's place . He successfully quieted p</t>
+          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>United States v. Jackalow = United States v. Jackalow , 66 U.S. ( 1 Black ) 484 ( 1862 ) , is a U.S. Supreme Court case interpreting the Venue and Vicinage clauses of the United States Constitution . It was an " unusual criminal case " , and one of the few constitutional criminal cases from the Taney Court . Jackalow , a mariner from the Ryukyu Islands , was suspected of the robbery and murder of the captain of the sloop Spray , Jonathan Leete , and Jonathan 's brother Elijah , while the ship was at sea . He was convicted of robbery in the Long Island Sound , but as there was disagreement over the question of jurisdiction between the two judges who heard the post-trial motion – Judge Mahlon Dickerson and Supreme Court Justice Robert Cooper Grier – the case was referred to the Supreme Court by certificate of division . The Supreme Court directed the circuit court for the District of New Jersey to grant Jackalow a new trial . The Court held that , while the trial court should determine t</t>
+          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Return the Favor = " Return the Favor " is a song by American recording artist and songwriter Keri Hilson . The song features Timbaland , who wrote the song with Hilson and her songwriting / production team The Clutch , as well as Walter Milsap . Following the moderate international chart success of Hilson ’ s lead single , " Energy " , " Return the Favor " was released from Hilson 's debut album , In a Perfect World ... , serving as the international second single while the urban single , " Turnin Me On " was released in the US . As Hilson 's second vocal collaboration with mentor Timbaland , Hilson stated the purpose of the song 's initial conception was to re-create the success of their worldwide hit , " The Way I Are " , as Timbaland called the " Return the Favor " bigger and better . Contemporary critics gave the song mixed reviews , noting the production and vocal similarities to " The Way I Are " , preferring the latter track . The song reached the top twenty in the United Kingd</t>
+          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
         </is>
       </c>
     </row>

--- a/data/top_docs/ctm/thetas_thr_top_docs.xlsx
+++ b/data/top_docs/ctm/thetas_thr_top_docs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['album', 'song', 'chart', 'music', 'video', 'band', 'songs', 'madonna', 'track', 'pop', 'single', 'recording', 'lyrics', 'vocals', 'billboard']</t>
+          <t>['credits', 'composition', 'allmusic', 'listing', 'charts', 'piano', 'drums', 'beats', 'liner', 'label', 'recording', 'download', 'ballad', 'songwriter', 'vocals']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>I 'm That Chick = " I 'm That Chick " is a song by American singer and songwriter Mariah Carey from her eleventh studio album , E = MC ² ( 2008 ) . A disco track with influences of R &amp; B , it was written by Carey , Johntá Austin and production duo Stargate ( Mikkel S. Eriksen and Tor E. Hermansen ) . It contains elements of a song called " Off the Wall " originally performed by Michael Jackson . Rod Temperton , the songs composer , received a songwriting for " I 'm That Chick " as result . The track was positively received amongst most music critics , many of whom called it the best song on the album and praised is disco composition . Carey performed " I 'm That Chick " on The Hills season premiere party , the 2008 Fashion Rocks , Canadian Idol , and included it on the set-list of her eighth concert tour , The Elusive Chanteuse Show ( 2014 ) . It peaked at number 82 on the U.S. Billboard Hot R &amp; B / Hip-Hop Songs chart . = = Recording and composition = = " I 'm That Chick " was written</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Sing Like Me = " Sing Like Me " is a song by American recording artist Chris Brown . It was released as a promotional single from his third studio album , Graffiti , on November 24 , 2009 in the United States . The number was written by Brown , Big Makk , Keith Thomas , Lorenza " Big Lo " Lennon and Atozzio Towns , and produced by Makk , Thomas and Lennon . A pop and R &amp; B ballad , the song contains lyrics about Brown leaving a nightclub with several women . " Sing Like Me " received mixed response from critics , and charted for two weeks on the US Hot R &amp; B / Hip-Hop Songs in 2010 , peaking at number eighty-four . = = Background and composition = = " Sing Like Me " was written by Chris Brown , Big Makk , Keith Thomas , andf Lorenza " Big Lo " Lennon , with Makk , Thomas and Lennon producing the track . It was recorded at The Compound — a recording studio in Orlando , Florida — and Tony Maserati mixed the tune at The Record Plant — a studio in Los Angeles , California . The cover art o</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Hot Tottie = " Hot Tottie " is a song by recording artist Usher . It was written by Usher , Ester Dean , Jay-Z and Polow da Don , with the latter producing it . The song features guest vocals from rapper Jay-Z and background vocals by Ester Dean . It is the second single in the United States and Canada from his EP , Versus , which is an extension of his sixth studio album , Raymond v. Raymond . The song was sent to rhythmic and urban airplay on August 9 , 2010 . " Hot Tottie " samples Big Tymers 's " Big Ballin ' " off their 1998 album How You Luv That Vol . 2 . " Hot Tottie " is an R &amp; B song with hip hop tones , accompanied by strobing , electronic beats . It received positive reviews , with many critics noting it as a standout from the EP . It peaked at number twenty-one on the US Billboard Hot 100 , and was a top ten hit on the US Hot R &amp; B / Hip-Hop Songs chart . Usher performed the song on The Early Show and on his OMG Tour . = = Background and composition = = The song was leaked</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>I 'm Not Your Hero = " I 'm Not Your Hero " is a song written , recorded and performed by Canadian duo Tegan and Sara and produced by Greg Kurstin for the album Heartthrob ( 2013 ) . Recorded at Echo Studio and EastWest Studios in California in 2012 , it was released on October 21 of that year as a promotional single . The lyrics for the new wave synthpop ballad were written by Sara Quin , and discuss her teenage life in the 1990s when she was unable to identify with the lives of pop culture figures and had unforeseen thoughts about her later life . Guitar chords , drums , bass guitar , synths and harmonized vocals are also played in the track . " I 'm Not Your Hero " was mostly well-received by critics for its songwriting and composition . The track garnered comparisons to the works of Santigold , Fleetwood Mac and The Temper Trap . Commercially , it peaked at number 58 on the Billboard Canadian Hot 100 and 157 on the French SNEP singles chart . Tegan and Sara have performed it at the</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>La Llamada = " La Llamada " ( English : " The Phone Call " ) is a song recorded by American recording artist Selena for her first live album Live ! ( 1993 ) . It was composed by Selena y Los Dinos backup singer Pete Astudillo and Selena 's brother and principal record producer A.B. Quintanilla III . The song was produced by Quintanilla III and Argentine music producer Bebu Silvetti . " La Llamada " was released as the second single from Live ! . It peaked at number 5 on the US Hot Latin Tracks on the week ending 23 October 1993 . On the week ending 9 April 2011 , " La Llamada " entered the Regional Mexican Digital Songs chart . The lyrical content of the song describes a girlfriend 's feelings after witnessing her boyfriend kissing another girl , telling him to never call her again and ending the relationship . The central theme explored on " La Llamada " suggests women empowerment . " La Llamada " is an uptempo Mexican cumbia song . The song received generally positive reviews from mu</t>
         </is>
       </c>
     </row>
@@ -511,32 +511,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['tropical', 'storm', 'hurricane', 'winds', 'depression', 'cyclone', 'mph', 'damage', 'rainfall', 'landfall', 'utc', 'wind', 'weakened', 'flooding', 'intensity']</t>
+          <t>['film', 'release', 'released', 'million', 'story', 'scene', 'scenes', 'script', 'effects', 'production', 'opening', 'plot', 'filming', 'original', 'director']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Octopussy = Octopussy ( 1983 ) is the thirteenth entry in the Eon Productions James Bond film series , and the sixth to star Roger Moore as the fictional MI6 agent James Bond . The film 's title is taken from a short story in Ian Fleming 's 1966 short story collection Octopussy and The Living Daylights , although the film 's plot is original . It does , however , include a scene inspired by the Fleming short story " The Property of a Lady " ( included in 1967 and later editions of Octopussy and The Living Daylights ) , while the events of the short story " Octopussy " form a part of the title character 's background and are recounted by her . Bond is assigned the task of following a general who is stealing jewels and relics from the Soviet government . This leads him to a wealthy Afghan prince , Kamal Khan , and his associate , Octopussy . Bond uncovers a plot to force disarmament in Europe with the use of a nuclear weapon . Octopussy was produced by Albert R. Broccoli and Michael G. W</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>The Thin Red Line ( 1998 film ) = The Thin Red Line is a 1998 American ensemble epic war film written and directed by Terrence Malick . Based on the novel by James Jones , it tells a semi-fictionalized version of the Battle of Mount Austen , which was part of the Guadalcanal Campaign in the Pacific Theater of World War II . It portrays soldiers of C Company , 1st Battalion , 27th Infantry Regiment , 25th Infantry Division , played by Sean Penn , Jim Caviezel , Nick Nolte , Elias Koteas and Ben Chaplin . Although the title may seem to refer to a line from Rudyard Kipling 's poem " Tommy " , from Barrack-Room Ballads , in which he calls foot soldiers " the thin red line of heroes " , referring to the stand of the 93rd Regiment in the Battle of Balaclava of the Crimean War , it is in reality a quote from James Jones 's book which reads , " they discover the thin red line that divides the sane from the mad ... and the living from the dead ... " The film marked Malick 's return to filmmakin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Mary Kom ( film ) = Mary Kom is a 2014 Indian biographical sports film directed by Omung Kumar and produced by Sanjay Leela Bhansali . The film stars Priyanka Chopra in the lead role of the eponymous boxer , with Darshan Kumar and Sunil Thapa in supporting roles as her husband and mentor , respectively . The film depicts Kom 's journey of becoming a boxer to her victory at the 2008 World Boxing Championships in Ningbo . Chopra made her first appearance as a Hindi playback singer with the lullaby , " Chaoro " , in the film . The feature was developed by writer Saiwyn Quadras , who suggested the storyline to Kumar when Kom , despite her numerous achievements , was not a familiar name in India . Kumar met Kom to ask her permission for the film , much before her bronze medal victory at the 2012 Summer Olympics , which brought her recognition . Chopra underwent extensive physical training for three months to attain a muscular physique . She also trained for Kom 's distinct boxing styles . P</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Mars Attacks ! = Mars Attacks ! is a 1996 American comedy science fiction film directed by Tim Burton and written by Jonathan Gems . Based on the cult trading card series of the same name minus the punctuation , the film features an ensemble cast consisting of Jack Nicholson ( in a dual role ) , Glenn Close , Annette Bening , Pierce Brosnan , Danny DeVito , Martin Short , Sarah Jessica Parker , Michael J. Fox , Rod Steiger , Tom Jones , Lukas Haas , Natalie Portman , Jim Brown , Lisa Marie Smith , and Sylvia Sidney . The film is a parody of science fiction B movies with elements of black comedy and political satire . Alex Cox had tried to make a Mars Attacks ! film in the 1980s before Burton and Gems began development in 1993 . When Gems turned in his first draft in 1994 , Warner Bros. commissioned rewrites from Gems , Burton , Scott Alexander and Larry Karaszewski in an attempt to lower the budget to $ 60 million . The final production budget came to $ 80 million , while Warner Bros. </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Beetlejuice = Beetlejuice is a 1988 American comedy fantasy film directed by Tim Burton , produced by The Geffen Film Company and distributed by Warner Bros. The plot revolves around a recently deceased young couple ( Alec Baldwin and Geena Davis ) who become ghosts haunting their former home , and an obnoxious , devious ghost named Betelgeuse ( pronounced Beetlejuice , portrayed by Michael Keaton ) from the Netherworld who tries to scare away the new inhabitants ( Catherine O 'Hara , Jeffrey Jones , and Winona Ryder ) permanently . After the success of Pee-wee 's Big Adventure , Burton was sent several scripts and became disheartened by their lack of imagination and originality . When he was sent Michael McDowell 's original script for Beetlejuice , Burton agreed to direct , although Larry Wilson and later Warren Skaaren were hired to rewrite it . Beetlejuice was a critical and commercial success , grossing $ 73.7 million from a budget of $ 15 million . It won the Academy Award for Be</t>
         </is>
       </c>
     </row>
@@ -546,32 +546,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['episode', 'mulder', 'scully', 'doctor', 'episodes', 'trek', 'files', 'series', 'character', 'enterprise', 'viewers', 'television', 'season', 'broadcast', 'star']</t>
+          <t>['career', 'hit', 'games', 'season', 'league', 'baseball', 'major_league_baseball', 'signed', 'home', 'played', 'manager', 'professional', 'minor', 'earned', 'hits']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Manny Harris = Corperryale L 'Adorable " Manny " Harris ( born September 21 , 1989 ) is an American professional basketball player for the Anhui Wenyi of the Chinese NBL . He has previously played for the Los Angeles Lakers , Cleveland Cavaliers , Los Angeles D-Fenders , Canton Charge , Texas Legends , BC Azovmash and NSK Eskişehir Basket . He is a former All-Big Ten Conference guard who played three seasons for the Michigan Wolverines team . He decided to forgo his final year of collegiate eligibility and declare himself eligible for the 2010 NBA draft , but went undrafted . He signed with the Cavaliers of the National Basketball Association ( NBA ) . He began his second year injured and rehabbed for two months in the NBA D-League with Cavaliers ' affiliate , the Canton Charge , before being re-signed by the Cavaliers . He signed with BC Azovmash of Ukraine in September 2012 and spent 2012 – 13 playing in the Ukrainian Basketball SuperLeague . For the following two seasons he split ti</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>2012 – 13 Ivy League men 's basketball season = The 2012 – 13 Ivy League men 's basketball season marked the continuation of the annual tradition of competitive basketball among Ivy League members . The tradition began when the league was formed during the 1956 – 57 season and its history extends to the predecessor Eastern Intercollegiate Basketball League , which was formed in 1902 . Due to a cheating scandal that involved defending champion Harvard , Princeton was the preseason favorite . Harvard won the regular season title outright and earned the conference 's only postseason bid . Princeton 's Ian Hummer earned the Ivy League Men 's Basketball Player of the Year after setting records for most single-season and career Ivy League Player of the Week awards . Harvard tied an Ivy League single-season team record with 13 combined Player of the Week and Rookie of the Week Awards . Ivy League records also fell for career games played by Hummer and career free throw percentage ( Brian Barb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Mets – Phillies rivalry = The Mets – Phillies rivalry or Battle of the Broads is a Major League Baseball ( MLB ) rivalry between the New York Mets and Philadelphia Phillies . Both clubs are members of MLB 's National League ( NL ) East division . The rivalry between the two clubs is said to be among the most fiercely contested in the NL . The two NL East divisional rivals have met each other recently in playoff , division , and Wild Card races . Aside from several brawls in the 1980s , the rivalry remained relatively low-key before the 2006 season , as the teams had seldom been equally good at the same time . A notable moment in their early meetings was Jim Bunning 's perfect game on Father 's Day of 1964 , the first perfect game in Phillies history , which happened when the Mets were on a losing streak . The Phillies were near the bottom of the NL East when the Mets won the 1969 World Series and the National League pennant in 1973 , while the Mets did not enjoy success in the late 197</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Mamadou N 'Diaye ( basketball , born 1993 ) = Mamadou N 'Diaye ( born September 14 , 1993 ) is a Senegalese basketball player who played for the UC Irvine Anteaters men 's basketball team and remained in the NBA draft following his junior season , ending his college eligibility . He was one of the tallest basketball players in the NCAA Division I level , standing 7 ft 6 in ( 2.29 m ) . N 'Diaye attended Brethren Christian Junior / Senior High School in Huntington Beach , California , where he was labeled one of the tallest high school players in the United States . N 'Diaye , a center , was named Big West Conference Defensive Player of the Year after the 2013 – 14 NCAA Division I men 's basketball season and earned all-conference honorable mention accolades as well . He most recently completed his sophomore year at University of California , Irvine and his second season with the Anteaters in 2014 – 15 . He is considered a talented shot-blocker , having accumulated 131 blocks in his fir</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Glenn Robinson III = Glenn Alan Robinson III ( born January 8 , 1994 ) is an American professional basketball player for the Indiana Pacers of the National Basketball Association ( NBA ) . Robinson played college basketball for the Michigan Wolverines for two years . He was an All-State high school basketball player for Lake Central High School in St. John , Indiana . After his sophomore season at Michigan for the 2013 – 14 team he declared for the NBA draft . Robinson was drafted 40th overall by the Minnesota Timberwolves in the 2014 NBA draft . He has also played in the NBA with the Philadelphia 76ers . He is the son of Glenn Robinson , the 1994 NBA first overall draft pick . = = Early life and high school = = Robinson was born , weighing 3 pounds 4 ounces ( 1.5 kg ) , three months premature to his single Purdue University freshman mother , Shantelle Clay , at Methodist Hospital in Gary , Indiana . He spent his first two months in an incubator ( with a miniature basketball ) , until </t>
         </is>
       </c>
     </row>
@@ -581,32 +581,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['ship', 'guns', 'ships', 'tons', 'torpedo', 'knots', 'cruiser', 'inch', 'fleet', 'cruisers', 'deck', 'gun', 'turrets', 'admiral', 'steam']</t>
+          <t>['work', 'life', 'wrote', 'writing', 'published', 'book', 'written', 'women', 'works', 'history', 'world', 'writer', 'woman', 'early', 'books']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Churches of Christ = Churches of Christ are autonomous Christian congregations associated with one another through common beliefs and practices . They seek to base doctrine and practice on the Bible alone in order to be the church described in the New Testament . Churches of Christ teach that God saves and adds to His church those who believe in Christ , repent of sin , confess Jesus Christ as the Son of God , and are baptized in the name of Jesus Christ for the forgiveness of sins , which grants the gift of the Holy Spirit ( Acts 2 : 36-47 ) . Churches of Christ in the United States have heritage in the American Restoration Movement . This evangelistic and Bible-based effort began in various places as several people sought a return to the original teachings and practices of the New Testament . Christian leaders including Robert Sandeman , Abner Jones , Elias Smith , James O 'Kelly , Rice Haggard , Thomas Campbell , Alexander Campbell , Walter Scott , and Barton W. Stone were trailblaz</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Dictator novel = The dictator novel ( Spanish : novela del dictador ) is a genre of Latin American literature that challenges the role of the dictator in Latin American society . The theme of caudillismo — the régime of a charismatic caudillo , a political strongman — is addressed by examining the relationships between power , dictatorship , and writing . Moreover , a dictator novel often is an allegory for the role of the writer in a Latin American society . Although mostly associated with the Latin American Boom of the 1960s and 1970s , the dictator-novel genre has its roots in the nineteenth-century novel Facundo ( 1845 ) , by Domingo Faustino Sarmiento . As an indirect critique of Juan Manuel de Rosas 's dictatorial régime in Argentina , Facundo is the forerunner of the dictator novel genre ; all subsequent dictator novels hearken back to it . As established by Sarmiento , the goal of the genre is not to analyze the rule of particular dictators , or to focus on historical accuracy </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Andrea Dworkin = Andrea Rita Dworkin ( September 26 , 1946 – April 9 , 2005 ) was an American radical feminist and writer best known for her criticism of pornography , which she argued was linked to rape and other forms of violence against women . Although a radical , she said there was a need for liberals , but was widely criticized by liberal feminists . At the same time , she maintained a dialogue with political conservatives and wrote a topically-related book , Right-Wing Women . After suffering abuse from her first husband , she was introduced to radical feminist literature and began writing Woman Hating . Coming to New York , she became an activist on several issues and a writer , eventually publishing 10 books on feminism . During the late 1970s and 1980s , Dworkin became known as a spokeswoman for the feminist anti-pornography movement and for her writing on pornography and sexuality , particularly Pornography : Men Possessing Women ( 1981 ) and Intercourse ( 1987 ) , which rem</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Christopher Smart = Christopher Smart ( 11 April 1722 – 21 May 1771 ) , also known as " Kit Smart " , " Kitty Smart " , and " Jack Smart " , was an English poet . He was a major contributor to two popular magazines and a friend to influential cultural icons like Samuel Johnson and Henry Fielding . Smart , a high church Anglican , was widely known throughout London . Smart was infamous as the pseudonymous midwife " Mrs. Mary Midnight " and widespread accounts of his father-in-law , John Newbery , locking him away in a mental asylum for many years over Smart 's supposed religious " mania " . Even after Smart 's eventual release , a negative reputation continued to pursue him as he was known for incurring more debt than he could repay ; this ultimately led to his confinement in debtors ' prison until his death . Smart 's two most widely known works are A Song to David and Jubilate Agno , both at least partly written during his confinement in asylum . However , Jubilate Agno was not publis</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>John B. Cobb = John B. Cobb , Jr . ( born February 9 , 1925 ) is an American theologian , philosopher , and environmentalist . Gary Dorrien has described Cobb as one of the two most important North American theologians of the twentieth century ( the other being Rosemary Radford Ruether ) . Cobb is often regarded as the preeminent scholar in the field of process philosophy and process theology — the school of thought associated with the philosophy of Alfred North Whitehead . Cobb is the author of more than fifty books . In 2014 , Cobb was elected to the prestigious American Academy of Arts and Sciences . A unifying theme of Cobb 's work is his emphasis on ecological interdependence — the idea that every part of the ecosystem is reliant on all the other parts . Cobb has argued that humanity 's most urgent task is to preserve the world on which it lives and depends , an idea which his primary influence — philosopher and mathematician Alfred North Whitehead — describes as " world-loyalty .</t>
         </is>
       </c>
     </row>
@@ -616,32 +616,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['species', 'genus', 'shark', 'females', 'prey', 'eggs', 'males', 'cap', 'sharks', 'fruit', 'stem', 'brown', 'habitat', 'birds', 'specimens']</t>
+          <t>['tons', 'beam', 'deck', 'consisted', 'guns', 'laid', 'horsepower', 'armor', 'hull', 'boilers', 'displaced', 'steam', 'mounted', 'armament', 'battery']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>SMS Baden ( 1880 ) = SMS Baden was one of four Sachsen-class armored frigates of the German Imperial Navy . Her sister ships were Sachsen , Bayern , and Württemberg . Baden was built in the Imperial Dockyard in Kiel from 1876 to 1883 . The ship was commissioned into the Imperial Navy in September 1883 . She was armed with a main battery of six 26 cm ( 10 in ) guns in two open barbettes . After her commissioning , Baden served with the fleet on numerous training exercises and cruises in the 1880s and 1890s , during which she frequently simulated hostile naval forces . She participated in several cruises escorting Kaiser Wilhelm II on state visits to Great Britain and to various countries in the Baltic Sea in the late 1880s and early 1890s . During 1896 – 1897 , the ship was extensively rebuilt at the Germaniawerft dockyard in Kiel . She was removed from active duty in 1910 and thereafter served in a number of secondary roles , finally serving as a target hulk in the 1920s and 1930s . Sh</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Russian ironclad Kreml = The Russian ironclad Kreml ( Russian : Кремль ) was the third and last Pervenets-class broadside ironclad built for the Imperial Russian Navy during the mid-1860s . She joined the Baltic Fleet upon completion and accidentally sank a Russian frigate in 1869 . The ship was assigned to the Gunnery Training Detachment in 1870 and was frequently rearmed . Kreml sank in shallow water after a storm in 1885 ; she was refloated and returned to service . The ship was placed in reserve in 1904 and disarmed the following year before being sold for scrap in 1908 . = = Design and description = = The Pervenents-class ironclads were designed as coastal defence ships to protect the approaches to Saint Petersburg and were referred to as " self-propelled armored floating batteries " . As such , heavy armament and protection were the most important factors in their design . Kreml was 221 feet ( 67.4 m ) long overall , with a beam of 53 feet ( 16.2 m ) and a mean draft of 15 feet (</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Design A-150 battleship = Design A-150 , also known as the Super Yamato class , was an Imperial Japanese plan for a class of battleships . Begun in 1938 – 39 , the design was mostly complete by 1941 . However , so that a demand for other types of warships could be met , all work on Design A-150 was halted and no keels were laid . Authors William H. Garzke and Robert O. Dulin have argued that Design A-150 would have been the " most powerful battleships in history " because of the massive size of their main battery of six 510 mm ( 20 in ) guns as well as numerous smaller caliber weapons . = = Design = = = = = Background = = = Initial plans for the A-150 battleships called for eight or nine 510 mm ( 20.1 in ) guns in quadruple or triple turrets . The successful construction of a 480 mm ( 18.9 in ) gun in 1920 – 1921 made the Japanese confident that a 510 mm ( 20.1 in ) could be built . In addition , a top speed of 30 knots ( 56 km / h ; 35 mph ) was desired so that the class would be fast</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>SMS Nymphe = SMS Nymphe was the third member of the ten-ship Gazelle class , built by the Imperial German Navy . She was built by the Germaniawerft shipyard in Kiel , laid down in 1898 , launched in November 1899 , and commissioned into the High Seas Fleet in September 1900 . Armed with a main battery of ten 10.5 cm ( 4.1 in ) guns and two 45 cm ( 18 in ) torpedo tubes , Nymphe was capable of a top speed of 21.5 knots ( 39.8 km / h ; 24.7 mph ) . The ship had a long , if uneventful , career that spanned over thirty years and saw service in both the Imperial Navy and the Reichsmarine . She served as a coastal defense ship during the first two years of World War I before being reduced to a barracks ship . She returned to active duty with the Reichsmarine in 1924 and served until 1929 . She was stricken in August 1931 and broken up for scrap the following year . = = Construction = = Nymphe was ordered under the contract name " A " and was laid down at the Germaniawerft shipyard in Kiel in</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Italian ironclad Messina = Messina was the second of three Principe di Carignano-class ironclads built for the Italian Regia Marina ( Royal Navy ) in the 1860s . She was laid down in September 1861 , her hull was launched in December 1864 , and she was completed in February 1867 . Messina was a broadside ironclad armed with a battery of four 8-inch ( 200 mm ) guns and eighteen 164-millimeter ( 6.5 in ) guns . Her career was limited , owing to the emergence of more modern ironclads and a severe reduction in the Italian naval budget following their defeat at the Battle of Lissa in 1866 . She was discarded in 1875 and sold to ship breakers to help pay for new ironclads then under construction . = = Design = = Messina was 72.8 meters ( 239 ft ) long between perpendiculars ; she had a beam of 15.1 m ( 50 ft ) and an average draft of 7.27 m ( 23.9 ft ) . She displaced 3,868 metric tons ( 3,807 long tons ; 4,264 short tons ) normally and up to 4,245 t ( 4,178 long tons ; 4,679 short tons ) at</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['highway', 'route', 'road', 'interchange', 'freeway', 'intersection', 'east', 'north', 'terminus', 'lane', 'continues', 'passes', 'avenue', 'state', 'highways']</t>
+          <t>['different', 'called', 'given', 'form', 'example', 'point', 'elements', 'real', 'use', 'possible', 'formula', 'sequence', 'particular', 'result', 'simple']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Jerry Fodor = Jerry Alan Fodor ( / ˈfoʊdər / ; born 1935 ) is an American philosopher and cognitive scientist . He holds the position of State of New Jersey Professor of Philosophy , Emeritus , at Rutgers University and is the author of many works in the fields of philosophy of mind and cognitive science , in which he has laid the groundwork for the modularity of mind and the language of thought hypotheses , among other ideas . He is known for his provocative and sometimes polemical style of argumentation and as " one of the principal philosophers of mind of the late twentieth and early twenty-first century . In addition to having exerted an enormous influence on virtually every portion of the philosophy of mind literature since 1960 , Fodor ’ s work has had a significant impact on the development of the cognitive sciences . " Fodor argues that mental states , such as beliefs and desires , are relations between individuals and mental representations . He maintains that these representa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Noctilucent cloud = Night clouds or noctilucent clouds are tenuous cloud-like phenomena that are the " ragged edge " of a much brighter and pervasive polar cloud layer called polar mesospheric clouds in the upper atmosphere , visible in a deep twilight . They are made of ice crystals . Noctilucent roughly means night shining in Latin . They are most commonly observed in the summer months at latitudes between 50 ° and 70 ° north and south of the equator . These clouds can be observed only when the Sun is below the horizon for the observer , but while the clouds are still in sunlight . They are the highest clouds in Earth 's atmosphere , located in the mesosphere at altitudes of around 76 to 85 kilometres ( 47 to 53 mi ) . They are normally too faint to be seen , and are visible only when illuminated by sunlight from below the horizon while the lower layers of the atmosphere are in the Earth 's shadow . Noctilucent clouds are not fully understood and are a recently discovered meteorologi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Speech-generating device = Speech-generating devices ( SGDs ) , also known as voice output communication aids , are electronic augmentative and alternative communication ( AAC ) systems used to supplement or replace speech or writing for individuals with severe speech impairments , enabling them to verbally communicate their needs . SGDs are important for people who have limited means of interacting verbally , as they allow individuals to become active participants in communication interactions . They are particularly helpful for patients suffering from Amyotrophic Lateral Sclerosis ( ALS ) but recently have been used for children with predicted speech deficiencies . There are several input and display methods for users of varying abilities to make use of SGDs . Some SGDs have multiple pages of symbols to accommodate a large number of utterances , and thus only a portion of the symbols available are visible at any one time , with the communicator navigating the various pages . Speech-g</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Long-term potentiation = In neuroscience , long-term potentiation ( LTP ) is a persistent strengthening of synapses based on recent patterns of activity . These are patterns of synaptic activity that produce a long-lasting increase in signal transmission between two neurons . The opposite of LTP is long-term depression , which produces a long-lasting decrease in synaptic strength . It is one of several phenomena underlying synaptic plasticity , the ability of chemical synapses to change their strength . As memories are thought to be encoded by modification of synaptic strength , LTP is widely considered one of the major cellular mechanisms that underlies learning and memory . LTP was discovered in the rabbit hippocampus by Terje Lømo in 1966 and has remained a popular subject of research since . Many modern LTP studies seek to better understand its basic biology , while others aim to draw a causal link between LTP and behavioral learning . Still others try to develop methods , pharmaco</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Ecology = Ecology ( from Greek : οἶκος , " house " , or " environment " ; -λογία , " study of " ) is the scientific analysis and study of interactions among organisms and their environment . It is an interdisciplinary field that includes biology , geography , and Earth science . Ecology includes the study of interactions organisms have with each other , other organisms , and with abiotic components of their environment . Topics of interest to ecologists include the diversity , distribution , amount ( biomass ) , and number ( population ) of particular organisms , as well as cooperation and competition between organisms , both within and among ecosystems . Ecosystems are composed of dynamically interacting parts including organisms , the communities they make up , and the non-living components of their environment . Ecosystem processes , such as primary production , pedogenesis , nutrient cycling , and various niche construction activities , regulate the flux of energy and matter throug</t>
         </is>
       </c>
     </row>
@@ -686,32 +686,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['game', 'player', 'gameplay', 'games', 'players', 'playstation', 'nintendo', 'released', 'xbox', 'characters', 'graphics', 'soundtrack', 'mode', 'version', 'mario']</t>
+          <t>['war', 'american', 'later', 'wrote', 'years', 'began', 'men', 'time', 'british', 'land', 'united_states', 'known', 'general', 'early', 'received']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Constitutional Convention ( United States ) = The Constitutional Convention ( also known as the Philadelphia Convention , the Federal Convention , or the Grand Convention at Philadelphia ) took place from May 25 to September 17 , 1787 , in Philadelphia , Pennsylvania . Although the Convention was intended to revise the Articles of Confederation , the intention from the outset of many of its proponents , chief among them James Madison and Alexander Hamilton , was to create a new government rather than fix the existing one . The delegates elected George Washington to preside over the Convention . The result of the Convention was the creation of the United States Constitution , placing the Convention among the most significant events in the history of the United States . The most contentious disputes revolved around the composition and election of the Senate , how " proportional representation " was to be defined ( whether to include slaves or other property ) , whether to divide the exec</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Zachary Taylor = Zachary Taylor ( November 24 , 1784 – July 9 , 1850 ) was the 12th President of the United States , serving from March 1849 until his death in July 1850 . Before his presidency , Taylor was a career officer in the United States Army , rising to the rank of major general . Taylor 's status as a national hero as a result of his victories in the Mexican-American War won him election to the White House despite his vague political beliefs . His top priority as president was preserving the Union , but he died seventeen months into his term , before making any progress on the status of slavery , which had been inflaming tensions in Congress . Taylor was born into a prominent family of planters who migrated westward from Virginia to Kentucky in his youth . Taylor was commissioned as an officer in the U.S. Army in 1808 and made a name for himself as a captain in the War of 1812 . He climbed the ranks establishing military forts along the Mississippi River and entered the Black </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Spanish conquest of Yucatán = The Spanish conquest of Yucatán was the campaign undertaken by the Spanish conquistadores against the Late Postclassic Maya states and polities in the Yucatán Peninsula , a vast limestone plain covering south-eastern Mexico , northern Guatemala , and all of Belize . The Spanish conquest of the Yucatán Peninsula was hindered by its politically fragmented state . The Spanish engaged in a strategy of concentrating native populations in newly founded colonial towns . Native resistance to the new nucleated settlements took the form of the flight into inaccessible regions such as the forest or joining neighbouring Maya groups that had not yet submitted to the Spanish . Among the Maya , ambush was a favoured tactic . Spanish weaponry included broadswords , rapiers , lances , pikes , halberds , crossbows , matchlocks and light artillery . Maya warriors fought with flint-tipped spears , bows and arrows and stones , and wore padded cotton armour to protect themselve</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Gadsden Purchase = The Gadsden Purchase ( known in Mexico as Spanish : Venta de La Mesilla , " Sale of La Mesilla " ) is a 29,670-square-mile ( 76,800 km2 ) region of present-day southern Arizona and southwestern New Mexico that was purchased by the United States in a treaty signed on December 30 , 1853 by James Gadsden who was the American ambassador to Mexico at that time . It was then ratified , with changes , by the U.S. Senate on April 25 , 1854 , and signed by 14th President Franklin Pierce , with final approval action taken by Mexico 's government and their General Congress or Congress of the Union on June 8 , 1854 . The purchase was the last territorial acquisition in the contiguous United States to add a large area to the country . The purchase included lands south of the Gila River and west of the Rio Grande ; it was largely so that the U.S. could construct a transcontinental railroad along a deep southern route . ( This happened with the transcontinental railroad , construct</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Francis Nicholson = Francis Nicholson ( 12 November 1655 – March 16 , 1728 [ O.S. March 5 , 1727 ] ) was a British military officer and colonial administrator . His military service included time in Africa and Europe , after which he was sent as leader of the troops supporting Sir Edmund Andros in the Dominion of New England . There he distinguished himself , and was appointed lieutenant governor of the dominion in 1688 . After news of the Glorious Revolution reached the colonies in 1689 , Andros was overthrown in the Boston Revolt . Nicholson himself was soon caught up in unrest in New York , and fled to England . He next served as lieutenant governor or governor of Virginia and Maryland . He supported the founding of the College of William and Mary , and quarreled with Andros after Andros was selected over him as governor of Virginia . In 1709 he became involved in colonial military actions during Queen Anne 's War , leading an aborted expedition against Canada . He then led the expe</t>
         </is>
       </c>
     </row>
@@ -721,32 +721,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['film', 'films', 'bond', 'disney', 'movie', 'role', 'actor', 'director', 'cast', 'filming', 'script', 'production', 'starred', 'grossing', 'batman']</t>
+          <t>['game', 'released', 'games', 'player', 'music', 'version', 'original', 'series', 'release', 'story', 'characters', 'players', 'main', 'character', 'japan']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Guitar Hero Mobile series = Guitar Hero Mobile is a series of rhythm video games in the Guitar Hero series , adapting the normal console-based gameplay which uses a guitar-shaped controller to match notes of popular rock music songs to work with the face buttons on advanced mobile phones , including BlackBerry devices and those supporting the Windows Mobile platform . The first three games in the series — Guitar Hero III Mobile , Guitar Hero III Backstage Pass , and Guitar Hero World Tour Mobile — were developed by MachineWorks Northwest LLC and published by Hands-On Mobile , while a mobile version of Guitar Hero 5 was developed by Glu Mobile . The series has proven to be popular ; the Guitar Hero III Mobile game has been downloaded more than 2 million times , and over 250,000 songs are played each day across the series . = = Development = = Originally , the Guitar Hero Mobile series was published by Hands-On Mobile and developed by MachineWorks Northwest LLC . For the first game , Gui</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Silent Hill : Shattered Memories = Silent Hill : Shattered Memories ( サイレントヒル シャッタードメモリーズ , Sairento Hiru : Shattādo Memorīzu ) is a survival horror video game developed by Climax Studios and published by Konami Digital Entertainment for the Wii in December 2009 . It was ported to the PlayStation 2 and PlayStation Portable platforms , and these versions were released in January 2010 . In April 2014 , it appeared on the PlayStation Network in Europe . The game is the seventh installment in the Silent Hill video game series , serving as both a reboot of the franchise and a reimagining of the first installment . Shattered Memories retains the premise of the original game — Harry Mason 's quest to find his missing daughter in the fictitious American town of Silent Hill — but is set in a different fictional universe , has a different plot , and altered characters , alongside new ones . Five endings are available . Gameplay takes place in two parts : a framing , first-person psychotherapy se</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Deus Ex = Deus Ex [ ˈde.ʊs ɛks ] is a cyberpunk-themed action role-playing video game — combining first-person shooter , stealth and role-playing elements — developed by Ion Storm and published by Eidos Interactive in 2000 . First published for personal computers running Microsoft Windows , Deus Ex was later ported to Mac OS systems and PlayStation 2 . Set in a dystopian world during the year 2052 , the central plot follows rookie United Nations Anti-Terrorist Coalition agent JC Denton , as he sets out to combat terrorist forces , which have become increasingly prevalent in a world slipping ever further into chaos . As the plot unfolds , Denton becomes entangled in a deep and ancient conspiracy , encountering organizations such as Majestic 12 , the Illuminati and the Hong Kong Triads during his journey . The game received universal critical acclaim , including repeatedly being named " Best PC Game of All Time " in PC Gamer 's " Top 100 PC Games " in 2011 and in a poll carried out by UK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Nine Hours , Nine Persons , Nine Doors = Nine Hours , Nine Persons , Nine Doors is a visual novel adventure game developed by Chunsoft . It was released in Japan in 2009 and in North America in 2010 for the Nintendo DS , with an iOS version following in 2013 in Japan and 2014 in the rest of the world . The game is the first installment in the Zero Escape series , and is the predecessor to the 2012 game Zero Escape : Virtue 's Last Reward . The story follows Junpei , a college student who is abducted along with eight other people and forced to play the " Nonary Game , " which puts its participants in a life-or-death situation , to escape from a sinking cruise liner . The gameplay alternates between two types of sections : Escape sections , where the player completes puzzles in escape-the-room scenarios ; and Novel sections , where the player reads the game 's narrative and makes decisions that influence the story , making it branch into six different endings . The whole plot is not reve</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>The King of Fighters ' 94 = The King of Fighters ' 94 ( officially abbreviated KOF ' 94 ) is a fighting game released by SNK for the Neo Geo-based arcade system in 1994 , as the inaugural game in The King of Fighters series . The game was soon also released for the Neo Geo home console systems , including a Neo-Geo CD version . In 2008 , KOF ' 94 was one of sixteen games included in SNK Arcade Classics Vol . 1 for the PlayStation 2 , PlayStation Portable and Wii . KOF ' 94 is a crossover featuring characters from SNK 's previous fighting game properties Fatal Fury and Art of Fighting . It also includes revised versions of characters from their pre-Neo Geo games Ikari Warriors and Psycho Soldier , as well as original characters created specifically for the game . The plot features the creation of a new King of Fighters tournament created by the criminal Rugal Bernstein . SNK developed KOF ' 94 with the initial idea of using several games from the company in order to attract gamers who p</t>
         </is>
       </c>
     </row>
@@ -756,32 +756,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['army', 'persian', 'byzantine', 'arab', 'syria', 'emperor', 'polish', 'muslim', 'byzantines', 'constantine', 'battle', 'hungary', 'ottoman', 'king', 'forces']</t>
+          <t>['tropical', 'storm', 'cyclone', 'area', 'cyclones', 'near', 'level', 'wind', 'low', 'formed', 'depression', 'miles', 'winds', 'water', 'west']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">1995 – 96 South-West Indian Ocean cyclone season = The 1995 – 96 South-West Indian Ocean cyclone season was a moderately active season that included Cyclone Bonita , which was the first known tropical cyclone to cross from the southern Indian Ocean into the southern Atlantic Ocean . Tropical activity lasted for about six months from the middle of November 1995 to early May 1996 . The first storm , Intense Tropical Cyclone Agnielle , formed in the adjacent Australian basin on November 16 and later reached peak winds in the south-west Indian Ocean . The next named storm after Agnielle was Bonita , which formed in early January and killed 42 people . The basin was most active in February , with two tropical cyclones , or the equivalent of a minimal hurricane , as well as a severe tropical storm . The first of these three was Doloresse , which killed 67 people due to a shipwreck in the Comoros . The next storm was Cyclone Edwige , which caused heavy crop damage on Mauritius before looping </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>1994 – 95 South-West Indian Ocean cyclone season = The 1994 – 95 South-West Indian Ocean cyclone season was fairly active , with storms forming regularly from October through April . It was much less damaging than its predecessor , and most of the storms in the season remained over water or only brushed land . The first system was Tropical Depression A1 , which formed in October and passed north of Madagascar . The first named storm was Albertine , which formed on November 23 in the northeastern portion of the basin and became one of three intense tropical cyclones . The last storm was Marlene , which was also an intense tropical cyclone and dissipated on April 11 . Most of the storms originated from the intertropical convergence zone . In late December into early January , tropical storms Bentha and Christelle persisted to the east of Madagascar , undergoing the Fujiwhara effect with each other . Later in January , Dorina became the second of three intense tropical cyclones , but weak</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>1991 Pacific hurricane season = The 1991 Pacific hurricane season was a near-average Pacific hurricane season . The worst storm this year was Tropical Depression Five-E , which killed one person in Mexico . Elsewhere , Tropical Storm Ignacio injured forty people in Mexico , and Hurricane Fefa caused flooding in Hawaii . Hurricane Kevin was the strongest system of the season and became resulted the then longest-lasting hurricane in the eastern north Pacific basin . Hurricane Nora was the strongest November storm at that time . The season officially started on May 15 , 1991 in the eastern Pacific , and on June 1 , 1991 in the central Pacific . It lasted until November 30 , 1991 in both basins . These dates conventionally delimit the period of each year when most tropical cyclones form in the northeastern Pacific Ocean . = = Season summary = = During the season , a total of sixteen tropical cyclones developed , featuring ten hurricanes , four tropical storms and two tropical depressions .</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>2002 – 03 South-West Indian Ocean cyclone season = The 2002 – 03 South-West Indian Ocean cyclone season was one of the longest lasting and the second-most active season in the South-West Indian ocean . Storms during the season impacted the Mascarene Islands , Seychelles , Madagascar , and countries in southeastern Africa . The season began early when an unnamed tropical storm struck Seychelles in September , becoming the most damaging storm there in 50 years . The next system , Atang , was the first named storm of the season , but was only a tropical depression ; it was named due to the threat to an outer island of Mauritius . Atang later struck Tanzania in a climatologically unusual area in November , resulting in unconfirmed deaths of fishermen . The first named storm to reach tropical storm intensity was Boura , which brushed the Mascarene Islands with gusty winds and rainfall . In December , Cyclone Crystal threatened to strike Mauritius but instead veered eastward , and later , Tr</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>1989 Pacific hurricane season = The 1989 Pacific hurricane season was a really active Pacific hurricane season that produced a lot of tropical cyclones near Mexico and Baja California . It officially started on May 15 , 1989 in the eastern Pacific , and June 1 , 1989 in the central Pacific , and lasted until November 30 , 1989 . These dates conventionally delimit the period of each year when most tropical cyclones form in the northeastern Pacific Ocean . A total of 17 storms and 9 hurricanes formed , which was near long-term averages . Four hurricanes reached major hurricane status ( Category 3 or higher ) on the Saffir-Simpson Hurricane Scale . Notable storms include Hurricanes Cosme , Kiko , and Raymond . Cosme crossed over Mexico and killed 30 people . Hurricane Kiko made landfall on the Gulf of California side of the Baja California Peninsula . Hurricane Raymond was the strongest storm of the season , but weakened significantly before landfall . = = Seasonal summary = = Overall , t</t>
         </is>
       </c>
     </row>
@@ -791,32 +791,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['trains', 'station', 'railway', 'building', 'line', 'tunnel', 'bridge', 'rail', 'services', 'train', 'oslo', 'passenger', 'stations', 'river', 'built']</t>
+          <t>['court', 'act', 'public', 'law', 'state', 'rights', 'case', 'government', 'right', 'cases', 'united_states', 'courts', 'decision', 'singapore', 'person']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Same-sex marriage in Maryland = Same-sex marriage has been legally recognized in Maryland since January 1 , 2013 . In 2012 , the state 's Democratic representatives , led by Governor Martin O 'Malley , began a campaign for its legalization . After much debate , a law permitting same-sex marriage was passed by the General Assembly ( Maryland 's bicameral legislature , composed of the Senate and House of Delegates ) in February 2012 and signed on March 1 , 2012 . The law took effect on January 1 , 2013 after 52.4 % of voters approved a statewide referendum held on November 6 , 2012 . The vote was hailed as a watershed moment by gay rights activists and marked the first time marriage rights in the United States have been extended to same-sex couples by popular vote . Upon the rise of the same-sex marriage movement in the early 1970s , Maryland established the first law in the United States that expressly defined marriage to be a union between a man and a woman . Attempts to both ban and l</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Kim Davis ( county clerk ) = Kimberly Jean Davis ( née Bailey ; born September 17 , 1965 ) is the county clerk for Rowan County , Kentucky who gained international attention in August 2015 when she defied a U.S. federal court order to issue marriage licenses to same-sex couples , following the June 26 , 2015 , U.S. Supreme Court decision in Obergefell v. Hodges . Kim Davis reacted to the decision by denying marriage licenses to all couples , saying she was acting " under God 's authority " . Her defiance led to her jail sentence , while both supporters and detractors hotly debated her stance in the national media . Marriage licenses in Rowan County are now being issued to all citizens as required by law . Davis was born in Jackson , Kentucky . By 1991 , Davis was serving as chief deputy clerk of Rowan County , reporting to her mother , the Rowan County clerk . Davis ' first three marriages ended in divorce in 1994 , 2006 , and 2008 ; she then remarried her second husband in 2009 . She </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Weiquan movement = The Weiquan movement is a non-centralized group of lawyers , legal experts , and intellectuals in China who seek to protect and defend the civil rights of the citizenry through litigation and legal activism . The movement , which began in the early 2000s , has organized demonstrations , sought reform via the legal system and media , defended victims of human rights abuses , and written appeal letters , despite opposition from Communist Party authorities . Among the issues adopted by Weiquan lawyers are property and housing rights , protection for AIDS victims , environmental damage , religious freedom , freedom of speech and the press , and defending the rights of other lawyers facing disbarment or imprisonment . Individuals involved in the Weiquan movement have met with occasionally harsh reprisals from Chinese officials , including disbarment , detention , harassment , and , in extreme instances , torture . Authorities have also responded to the movement with the l</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Petition of Right = The Petition of Right is a major English constitutional document that sets out specific liberties of the subject that the king is prohibited from infringing . Passed on 7 June 1628 , the Petition contains restrictions on non-Parliamentary taxation , forced billeting of soldiers , imprisonment without cause , and the use of martial law . Following disputes between Parliament and King Charles I over the execution of the Thirty Years ' War , Parliament refused to grant subsidies to support the war effort , leading to Charles gathering " forced loans " without Parliamentary approval and arbitrarily imprisoning those who refused to pay . Moreover , the war footing of the nation led to the forced billeting of soldiers within the homes of private citizens , and the declaration of martial law over large swathes of the country . In response , the House of Commons prepared a set of four Resolutions , decrying these actions and restating the validity of Magna Carta and the leg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Compliance requirements = In the United States , compliance requirements are a series of directives United States federal government agencies established that summarize hundreds of federal laws and regulations applicable to federal assistance ( also known as federal aid or federal funds ) . They are currently incorporated into the OMB A-133 Compliance Supplement , which was created by the US Office of Management and Budget ( OMB ) . To facilitate a recipients ' compliance with federal laws and regulations , and as well as its annual Single Audit , the OMB created fourteen basic and standard compliance requirements that recipients must comply with when receiving and using such federal assistance . The OMB also provides detailed explanations , discussions , and guidance about them in the OMB A-133 Compliance Supplement . Compliance requirements are only guidelines for compliance with the hundreds of laws and regulations applicable to the specific type assistance used by the recipient , a</t>
         </is>
       </c>
     </row>
@@ -826,32 +826,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['battalion', 'brigade', 'aircraft', 'division', 'regiment', 'squadron', 'wing', 'infantry', 'training', 'battalions', 'unit', 'units', 'flight', 'air', 'australian']</t>
+          <t>['bridge', 'miles', 'area', 'road', 'construction', 'river', 'route', 'line', 'traffic', 'dam', 'water', 'station', 'feet', 'tunnel', 'built']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Second Avenue Subway = The Second Avenue Subway ( officially the IND Second Avenue Line ; abbreviated to SAS ) is a future New York City Subway line that has been under discussion for almost a century . The line will run primarily under Second Avenue on the East Side of Manhattan . A first phase of this new line is expected to open on December 30 , 2016 , having been under construction since 2007 . It will run between 96th Street and Second Avenue and the existing 63rd Street Lines , where it will connect to the BMT Broadway Line and the rest of the subway system . The Q train will provide full-time service on phase one and will serve about 200,000 daily riders . The full line , when funded , will be built in three additional phases , allowing portions of the line to open before the entire line is completed . When complete , it will be served by a proposed T train and is projected to serve about 560,000 daily riders . The full proposed Second Avenue line would consist of 16 stations an</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>The Causeway = The Causeway is an arterial traffic crossing in Perth , Western Australia , linking the inner-city suburbs of East Perth and Victoria Park . It is composed of two bridges either side of Heirisson Island that cross the Swan River at the eastern end of Perth Water . The current Causeway is the third structure to have been built across the river at this point . Originally the site of mudflats which restricted river navigation , the Colony Government constructed a causeway and bridge across the site . The project was first planned in 1834 and opened in 1843 . When floods in 1862 almost destroyed it , the structure was rebuilt using convict labour , and raised to better withstand future floods . Governor John Hampton officially opened the new Causeway on 12 November 1867 . Over the following decades , the three bridges making up this second Causeway were widened several times , and they were eventually replaced in 1952 . The current Causeway bridges were designed by E W C God</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>A4232 road = The A4232 , which is also known either as the Peripheral Distributor Road ( PDR ) ( Welsh : Ffordd Ddosbarthu Ymylol ) or the Cardiff Link Road ( Welsh : Ffordd Gyswllt Caerdydd ) , is a distributor road in Cardiff , the capital of Wales . The first section of the PDR to be completed was the Southern Way Link Road in 1978 and the last section was the Butetown Link Road in 1995 . Construction of the first phase of the final link road , the Eastern Bay Link Road , started on 17 March 2016 and is due to be completed by April 2017 . When fully completed , the road will form part of the Cardiff ring road system . The PDR runs west , south and east of Cardiff , with the M4 between junction 30 and junction 33 completing the northern section . The PDR is dual carriageway for its entire length except for the East Moors Viaduct , which is a single carriageway . The PDR has been constructed in separate link roads of between 1.61 km ( 1.00 mi ) and 5.47 km ( 3.40 mi ) around Cardiff a</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Central Valley Project = The Central Valley Project ( CVP ) is a federal water management project in the U.S. state of California under the supervision of the United States Bureau of Reclamation . It was devised in 1933 in order to provide irrigation and municipal water to much of California 's Central Valley — by regulating and storing water in reservoirs in the water-rich northern half of the state , and transporting it to the water-poor San Joaquin Valley and its surroundings by means of a series of canals , aqueducts and pump plants , some shared with the California State Water Project ( SWP ) . Many CVP water users are represented by the Central Valley Project Water Association . In addition to water storage and regulation , the system has a hydroelectric capacity of over 2,000 megawatts , provides recreation , and provides flood control with its twenty dams and reservoirs . It has allowed major cities to grow along Valley rivers which previously would flood each spring , and tran</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Indian River Inlet Bridge = The Indian River Inlet Bridge ( officially the Charles W. Cullen Bridge ) is a cable-stayed bridge located in Sussex County , Delaware in the United States . It carries four lanes of Delaware Route 1 ( DE 1 ) over the Indian River Inlet between the Indian River Bay and the Atlantic Ocean . The bridge is within Delaware Seashore State Park between Rehoboth Beach and Bethany Beach . The Indian River Inlet Bridge is maintained by the Delaware Department of Transportation ( DelDOT ) . The bridge is 2,600 feet ( 790 m ) long and 107.66 feet ( 32.81 m ) wide , with a span of 950 feet ( 290 m ) and overhead clearance of 45 feet ( 14 m ) . Prior to the current bridge , four other bridges have spanned the Indian River Inlet , opened in 1934 , 1940 , 1952 , and 1965 , the latter widened by an additional span added in 1976 . All were known informally as the Indian River Inlet Bridge , and all but the first officially were named the Charles W. Cullen Bridge . The 1965 b</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['election', 'governor', 'bush', 'republican', 'senate', 'president', 'democratic', 'massachusetts', 'campaign', 'presidential', 'elected', 'kentucky', 'lincoln', 'senator', 'vote']</t>
+          <t>['century', 'known', 'breed', 'horses', 'horse', 'found', 'popular', 'island', 'today', 'breeds', 'including', 'period', 'dog', 'large', 'early']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Pasty = A pasty ( / ˈpæsti / , Cornish : Pasti ) is a baked pastry , a traditional variety of which is particularly associated with Cornwall , in the United Kingdom . It is made by placing an uncooked filling , typically meat and vegetables , on one half of a flat shortcrust pastry circle , folding the pastry in half to wrap the filling in a semicircle and crimping the curved edge to form a seal before baking . The traditional Cornish pasty , which since 2011 has Protected Geographical Indication ( PGI ) status in Europe , is filled with beef , sliced or diced potato , swede ( also known as yellow turnip or rutabaga – referred to in Cornwall as turnip ) and onion , seasoned with salt and pepper , and is baked . Today , the pasty is the food most associated with Cornwall . It is regarded as the national dish and accounts for 6 % of the Cornish food economy . Pasties with many different fillings are made and some shops specialise in selling all sorts of pasties . The origins of the pasty</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Beer = Beer is the world 's most widely consumed and probably the oldest alcoholic beverage ; it is the third most popular drink overall , after water and tea . The production of beer is called brewing , which involves the fermentation of starches , mainly derived from cereal grains — most commonly malted barley , although wheat , maize ( corn ) , and rice are widely used . Most beer is flavoured with hops , which add bitterness and act as a natural preservative , though other flavourings such as herbs or fruit may occasionally be included . The fermentation process causes a natural carbonation effect , although this is often removed during processing , and replaced with forced carbonation . Some of humanity 's earliest known writings refer to the production and distribution of beer : the Code of Hammurabi included laws regulating beer and beer parlours , and " The Hymn to Ninkasi " , a prayer to the Mesopotamian goddess of beer , served as both a prayer and as a method of remembering </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Poultry = Poultry ( / ˌpoʊltriː / ) are domesticated birds kept by humans for the eggs they produce , their meat , their feathers , or sometimes as pets . These birds are most typically members of the superorder Galloanserae ( fowl ) , especially the order Galliformes ( which includes chickens , quails and turkeys ) and the family Anatidae , in order Anseriformes , commonly known as " waterfowl " and including domestic ducks and domestic geese . Poultry also includes other birds that are killed for their meat , such as the young of pigeons ( known as squabs ) but does not include similar wild birds hunted for sport or food and known as game . The word " poultry " comes from the French / Norman word poule , itself derived from the Latin word pullus , which means small animal . The domestication of poultry took place several thousand years ago . This may have originally been as a result of people hatching and rearing young birds from eggs collected from the wild , but later involved keep</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Natural dye = Natural dyes are dyes or colorants derived from plants , invertebrates , or minerals . The majority of natural dyes are vegetable dyes from plant sources — roots , berries , bark , leaves , and wood — and other organic sources such as fungi and lichens Archaeologists have found evidence of textile dyeing dating back to the Neolithic period . In China , dyeing with plants , barks and insects has been traced back more than 5,000 years . The essential process of dyeing changed little over time . Typically , the dye material is put in a pot of water and then the textiles to be dyed are added to the pot , which is heated and stirred until the color is transferred . Textile fibre may be dyed before spinning ( " dyed in the wool " ) , but most textiles are " yarn-dyed " or " piece-dyed " after weaving . Many natural dyes require the use of chemicals called mordants to bind the dye to the textile fibres ; tannin from oak galls , salt , natural alum , vinegar , and ammonia from st</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Salt = Common salt is a mineral composed primarily of sodium chloride ( NaCl ) , a chemical compound belonging to the larger class of salts ; salt in its natural form as a crystalline mineral is known as rock salt or halite . Salt is present in vast quantities in seawater , where it is the main mineral constituent . The open ocean has about 35 grams ( 1.2 oz ) of solids per litre , a salinity of 3.5 % . Salt is essential for human life , and saltiness is one of the basic human tastes . The tissues of animals contain larger quantities of salt than do plant tissues . Salt is one of the oldest and most ubiquitous food seasonings , and salting is an important method of food preservation . Some of the earliest evidence of salt processing dates to around 8,000 years ago , when people living in an area in what is now known as the country of Romania were boiling spring water to extract the salts ; a salt-works in China dates to approximately the same period . Salt was prized by the ancient Heb</t>
         </is>
       </c>
     </row>
@@ -896,32 +896,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['castle', 'church', 'century', 'castles', 'king', 'cathedral', 'tower', 'medieval', 'earl', 'england', 'nave', 'bishop', 'edward', 'chancel', 'built']</t>
+          <t>['september', 'storm', 'mph', 'august', 'hurricane', 'october', 'day', 'damage', 'near', 'early', 'developed', 'later', 'tropical', 'began', 'caused']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>1995 – 96 South Pacific cyclone season = The 1995 – 96 South Pacific cyclone season was one of the least active South Pacific tropical cyclone season 's on record , with only four tropical cyclones occurring within the South Pacific Ocean to the east of 160 ° E. The season officially ran from November 1 , 1995 until April 30 , 1996 . The first storm developed on January 12 , while the last one dissipated on April 2 . During the season the most intense tropical cyclone was Severe Tropical Cyclone Beti , which reached a minimum pressure of 935 hPa ( 27.61 inHg ) as it affected New Caledonia . After the season ended Beti 's name was the only name to be retired from the tropical cyclone naming lists and was replaced with Bune , after it inflicted over 5.6 million ( USD ) worth of damage to Australia , Vanuatu , New Caledonia and New Zealand . During the season , tropical cyclones were officially monitored by the Regional Specialized Meteorological Center ( RSMC ) in Nadi , Fiji , and the T</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Hurricane Chantal ( 1989 ) = Hurricane Chantal was one of three tropical cyclones to make landfall in Texas during the 1989 Atlantic hurricane season . The third named storm and the first hurricane of the season , Chantal slowly developed on July 30 in the southern Gulf of Mexico from a tropical disturbance that was previously within Intertropical Convergence Zone ( ITCZ ) while near Trinidad and Tobago . While heading north-northwestward , the depression steadily intensified and was upgraded to Tropical Storm Chantal on the following day . Thereafter , Chantal quickly strengthen and became a hurricane on August 1 . After intensifying slightly further , Chantal made landfall near High Island , Texas later that day . The storm quickly weakened upon moving inland and fell to tropical storm intensity a few hours after landfall . Early on August 2 , Chantal weakened to a tropical depression and dissipated over Oklahoma by August 4 . While making landfall in Texas , the storm produced relat</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t xml:space="preserve">Hurricane Gabrielle ( 1989 ) = Hurricane Gabrielle was a deadly tropical cyclone that caused nine fatalities in the United States and Canada , despite remaining hundreds of miles offshore . The tenth tropical cyclone , seventh named storm , and third hurricane of the 1989 Atlantic hurricane season , Gabrielle developed on August 30 from a tropical wave near the west coast of Africa . Under favorable conditions , the depression intensified and became Tropical Storm Gabrielle early on the following day . Rapid strengthening occurred thereafter , with Gabrielle reaching hurricane intensity early on September 1 . After becoming a hurricane , further intensification was steady , though by September 5 , Gabrielle peaked as a moderate Category 4 hurricane . On the following day , Gabrielle began to slowly level-off in intensity , while gradually curving northward . After weakening to a Category 2 hurricane , the storm passed east of Bermuda on September 8 . Gabrielle eventually decelerated , </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Hurricane Marco ( 1996 ) = Hurricane Marco caused significant flooding in the Greater Antilles and Central America , despite remaining well offshore . The thirteenth tropical cyclone , thirteenth named storm , and ninth hurricane of the 1996 Atlantic hurricane season , Marco developed in the western Caribbean Sea on November 16 after the interaction of a cold front and several tropical waves . Initially a tropical depression , it remained weak as it tracked southwestward and eventually southward . By November 19 , the depression strengthened into Tropical Storm Marco , shortly before slowly curving in a general eastward direction . Marco briefly became a hurricane on November 20 , though upper-level winds caused it to weaken back to a tropical storm later that day . The storm then tracked northeastward toward Hispaniola , but later become nearly stationary and curve eastward , then doubled-back to the west . After weakening to a tropical depression on November 23 , Marco re-strengthene</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Hurricane Jerry ( 1989 ) = Hurricane Jerry caused minor damage in Texas and flash flooding in Kentucky and Virginia in October 1989 . The fourteenth tropical cyclone , tenth named storm of the season , Jerry developed from a tropical wave in the Bay of Campeche on October 12 . Initially a tropical depression , the system moved north-northwestward across the Gulf of Mexico and strengthened into Tropical Storm Jerry early on the following day . Jerry continuously deepened until October 14 and then maintained intensity while curving northeastward and briefly decelerating . Later that day , the storm re-curved north-northwestward . Jerry began to intensify on October 15 and soon became a Category 1 hurricane on the Saffir – Simpson hurricane wind scale . Early on October 16 , Jerry made landfall on Galveston Island , Texas with winds of 85 mph ( 140 km / h ) . Less than six hours later , Jerry weakened to a tropical storm and then a tropical depression shortly thereafter . Late on October </t>
         </is>
       </c>
     </row>
@@ -931,22 +931,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['yard', 'yards', 'touchdown', 'season', 'michigan', 'team', 'nba', 'league', 'coach', 'tech', 'alabama', 'football', 'points', 'quarter', 'games']</t>
+          <t>['said', 'told', 'death', 'police', 'murder', 'family', 'life', 'found', 'asked', 'relationship', 'killed', 'later', 'mother', 'character', 'man']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Miles Straume = Miles Straume is a fictional character played by Ken Leung on the ABC television series Lost . Miles is introduced early in the fourth season as a hotheaded and sarcastic medium as a crew member aboard the freighter called the Kahana that is offshore the island where most of Lost takes place . Miles arrives on the island and is eventually taken captive by John Locke ( played by Terry O 'Quinn ) , who suspects that those on the freighter are there to harm his fellow crash survivors of Oceanic Airlines Flight 815 and expose the island to the general public . Miles is on a mission to obtain Ben Linus ( Michael Emerson ) ; instead , he tries to cut a deal with Ben to lie to Miles 's employer Charles Widmore ( Alan Dale ) that Ben is dead . The writers created the role of Miles specifically for Leung after seeing him guest star on The Sopranos . Leung was the only actor to read for the part . They chose his name because it resembles " maelstrom " , another word for a powerfu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Joseph Merrick = Joseph Carey Merrick ( 5 August 1862 – 11 April 1890 ) , sometimes named incorrectly as John Merrick , was an English man with severe deformities who was exhibited as a human curiosity named the Elephant Man . He became well known in London society after he went to live at the London Hospital . Merrick was born in Leicester , and began to develop abnormally during the first few years of his life . His skin appeared thick and lumpy , he developed enlarged lips , and a bony lump grew on his forehead . One of his arms and both of his feet became enlarged and at some point during his childhood he fell and damaged his hip , resulting in permanent lameness . When he was 11 , his mother died from bronchopneumonia , and his father soon remarried . Merrick left school at the age of 13 and had difficulty finding employment . Rejected by his father and stepmother , he left home . In late 1879 , Merrick , aged 17 , entered the Leicester Union Workhouse . In 1884 , after four years</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Becky McDonald = Rebecca " Becky " Granger ( also McDonald ) is a fictional character from the British ITV soap opera Coronation Street , a long-running serial drama about working-class life in the fictional town of Weatherfield . She is played by actress Katherine Kelly . Becky was created by producer Steve Frost as a recurring character . She made her debut in the episode airing on 5 February 2006 . Kelly was initially contracted to appear for three months , but became a series regular after impressing the serial 's producers . In early 2011 Kelly announced her decision to leave the soap . Producer Phil Collinson created dramatic storylines in the build-up to her exit . Becky 's storylines have focused on her friendship with Roy ( David Neilson ) and Hayley Cropper ( Julie Hesmondhalgh ) , which helped change public opinion of the character , and her relationships with Jason Grimshaw ( Ryan Thomas ) and Steve McDonald ( Simon Gregson ) , with the latter producing two wedding storylin</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Maddy Young = Madeleine " Maddy " Young is a fictional character in the BBC medical drama Holby City , portrayed by actress Nadine Lewington . The character first appeared on-screen on 16 January 2007 , in episode " Face Value " - series 9 , episode 15 of the programme . Her final appearance in the show was in the Series 11 episode " Just A Perfect Day " when her character was fatally stabbed . Her role in the show is that of a Senior House Officer undergoing her general surgical rotation in Holby 's acute admissions unit . Described by the BBC as " enthusiastic [ ... ] fun " and " dedicated to her job " , Maddy was created alongside fellow new character General Surgical Consultant Dan Clifford . Her major storylines have centered on their friendship and relationship , as well as her troubled family background and her continual rule-breaking . The character has proven popular with viewers , seeing Lewington long-listed for the ' Most Popular Newcomer ' award at the 2007 National Televi</t>
         </is>
       </c>
     </row>
@@ -966,32 +966,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['olympics', 'olympic', 'athletes', 'medal', 'championships', 'murray', 'meter', 'freestyle', 'round', 'beijing', 'medals', 'games', 'gold', 'seconds', 'relay']</t>
+          <t>['city', 'million', 'school', 'company', 'building', 'stadium', 'students', 'center', 'schools', 'year', 'sports', 'largest', 'located', 'community', 'years']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Union Bank of Switzerland = Union Bank of Switzerland ( UBS ) was a large integrated financial services company located in Switzerland . The bank , which at the time was the second largest bank in Switzerland , merged with Swiss Bank Corporation in 1998 , to become UBS to form what was then the largest bank in Europe and the second largest bank in the World . UBS was formed in 1912 through the merger of the Bank in Winterthur and Toggenburger Bank , both founded in the early 1860s . UBS then continued to grow through acquisitions , including Aargauische Kreditanstalt in 1919 , Eidgenössische Bank in 1945 , Interhandel Basel in 1967 , Phillips &amp; Drew in 1986 , and Schröder , Münchmeyer , Hengst &amp; Co. in 1997 among others . The historical UBS logo features a horizontal acronym " UBS " referring to the " Union Bank of Switzerland " , " Union de Banques Suisses " or " Unione di Banche Svizzere " . The vertical acronym " SBG " refers to the name of the bank in German " Schweizerische Bankge</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Coral Springs , Florida = Coral Springs , officially the City of Coral Springs , is a city in Broward County , Florida , approximately 20 miles ( 32 km ) northwest of Fort Lauderdale . As of the 2010 United States Census , the city had a population of 121,096 . The city is part of the Miami metropolitan area , which was home to 5,564,635 people in 2010 . The city , officially chartered on July 10 , 1963 , was master-planned and primarily developed by WCI Communities , then known as Coral Ridge Properties , a division of Westinghouse . The city 's name is derived from the company 's name , and was selected after several earlier proposals had been considered and rejected . Despite the name , there are no springs in the city ; Florida 's springs are found in the central and northern portions of the state . During the 1970s , 1980s , and 1990s the young city grew rapidly , adding over 35,000 residents each decade . Coral Springs has notably strict building codes , which are designed to mai</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Rio de Janeiro bid for the 2016 Summer Olympics = The Rio de Janeiro bid for the 2016 Summer Olympics and Paralympics was a successful bid to host the Games of the XXXI Olympiad and the XV Paralympic Games , respectively . It was submitted on September 7 , 2007 , and recognized as an Applicant city by the International Olympic Committee ( IOC ) one week after . On June 4 , 2008 , the IOC Executive Board shortlisted Rio de Janeiro with three of the six other Applicant cities — Chicago , Madrid and Tokyo ; over Baku , Doha and Prague — becoming a Candidate city during the 2008 SportAccord Convention in Athens , Greece . Rio de Janeiro was shortlisted receiving a 6.4 score , according to a study of its Application File delivered to the IOC Working Group on January 14 , 2008 . As a Candidate city , Rio de Janeiro submitted its Candidature File to the IOC on February 11 , 2009 . The dossier was analyzed by the IOC Evaluation Commission , which arrived in the city on April 27 , 2009 , to ass</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>History of Georgia Tech = The history of the Georgia Institute of Technology can be traced back to Reconstruction-era plans to develop the industrial base of the Southern United States . Founded on October 13 , 1885 in Atlanta , Georgia as the Georgia School of Technology , the university opened in 1888 after the construction of Tech Tower and a shop building and only offered one degree in mechanical engineering . By 1901 , degrees in electrical , civil , textile , and chemical engineering were also offered . In 1948 , the name was changed to the Georgia Institute of Technology to reflect its evolution from an engineering school to a full technical institute and research university . Georgia Tech is the birthplace of two other Georgia universities : Georgia State University and the former Southern Polytechnic State University . Georgia Tech 's Evening School of Commerce , established in 1912 and moved to the University of Georgia in 1931 , was independently established as Georgia State</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Swiss Bank Corporation = Swiss Bank Corporation ( SBC ) ( German : Schweizerischer Bankverein ( SBV ) , French : Société de Banque Suisse ( SBS ) , Italian : Società di Banca Svizzera ) was a large integrated financial services company located in Switzerland . Prior to its merger , the bank was the third largest in Switzerland with over CHF300 billion of assets and CHF11.7 billion of equity . Throughout the 1990s , SBC engaged in a large growth initiative , shifting its focus from traditional commercial banking into investment banking , in an effort to match its larger Swiss rival Credit Suisse . As part of this strategy , SBC acquired US-based investment bank Dillon Read &amp; Co. as well as London-based merchant bank S.G. Warburg in the mid-1990s . SBC also acquired Chicago-based Brinson Partners and O 'Connor &amp; Associates . These acquisitions formed the basis for a global investment banking business . In 1998 , SBC merged with Union Bank of Switzerland to form UBS , the largest bank in </t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['match', 'tag', 'wrestling', 'championship', 'wwe', 'ring', 'raw', 'event', 'michaels', 'defeated', 'heavyweight', 'smackdown', 'feud', 'wwf', 'angle']</t>
+          <t>['film', 'role', 'appeared', 'award', 'acting', 'director', 'roles', 'success', 'actor', 'performance', 'directed', 'comedy', 'drama', 'actors', 'films']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Grazing Goat Pictures = Grazing Goat Pictures is an Indian film and TV production house launched in 2011 by Hindi film actor Akshay Kumar and Ashvini Yardi . Its first film OMG – Oh My God ! , was banned in UAE and Malaysia due to its controversial story-line . In India a few screenings of the film had to be cancelled and a police case was lodged against the filmmakers and actors for hurting religious sentiments . It won the National Film Award for Best Adapted Screenplay . The next film in their banner Fugly opened to mixed reviews . The company has also produced regional languages films like 72 Miles ( Marathi ) and Bhaji in Problem ( Punjabi ) . Both of these opened to positive reviews from critics . The former one was screened at the London and Pune International Film Festivals and won 3 awards at the 2014 Maharashtra State Film Awards ceremony . The company has also produced the Hindi soap opera Jamai Raja which airs on Zee TV . Kumar had guest appearances in all of his films exce</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>T. Arthur Cottam = T. Arthur Cottam is a screenwriter , actor , producer and film director . A graduate of the Film and Television Production program at the Tisch School of the Arts of New York University , Cottam resides in Los Angeles , California . He acted in theatre , and received an Artistic Director Achievement Award from the Valley Theatre League for his role in the theatre production Othello as a cast member of Zombie Joe 's Underground Theatre Group . Cottam directed short films along a topical series called " Dirty Little Shorts " . His existential work Pornographic Apathetic deals with four people recounting pornographic film dialog in a state of apathy . Pornographic Apathetic was featured in numerous movie festivals , and received eight film awards as well as critical acclaim . Cottam 's film Carbuncle was featured in 2006 at the Milano Film Festival in Italy , and was recognized with a nomination in the category of " Best Feature Film " . His 2006 film Filthy Food receiv</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t xml:space="preserve">Padayappa = Padayappa is a 1999 Indian Tamil-language drama film written and directed by K. S. Ravikumar . The film features Sivaji Ganesan , Rajinikanth , Ramya Krishnan and Soundarya in the lead roles , while Abbas , Lakshmi , Radha Ravi and Nassar play supporting roles . The soundtrack album and background score were composed by A. R. Rahman . The plot revolves around Padayappa ( Rajinikanth ) , a mechanical engineer whose father ( Sivaji Ganesan ) gives up his property to his foster brother ( Manivannan ) , and then dies of shock soon after . Neelambari ( Ramya Krishnan ) initially loves Padayappa , but plans to humiliate him after his family humiliates her father ( Radha Ravi ) . The rest of the plot deals with Padayappa overcoming all the obstacles placed by Neelambari . Principal photography for the film began in October 1998 . Padayappa was released on 10 April 1999 on the eve of Tamil New Year 's day . This was the first Tamil film to be released worldwide with 210 prints and </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>André Morell = André Morell ( born Cecil André Mesritz , 20 August 1909 – 28 November 1978 ) was an English actor . He appeared frequently in theatre , film and on television from the 1930s to the 1970s . His best known screen roles were as Professor Bernard Quatermass in the BBC Television serial Quatermass and the Pit ( 1958 – 59 ) , and as Doctor Watson in the Hammer Film Productions version of The Hound of the Baskervilles ( 1959 ) . He also appeared in the films The Bridge on the River Kwai ( 1957 ) and Ben-Hur ( 1959 ) , in several of Hammer 's horror films throughout the 1960s and in the acclaimed ITV historical drama The Caesars ( 1968 ) . His obituary in The Times newspaper described him as possessing a " commanding presence with a rich , responsive voice … whether in the classical or modern theatre he was authoritative and dependable . " = = Biography = = = = = Early life and career = = = Morell was born Cecil André Mesritz in London , England , the son of André and Rosa Mesr</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Alan Dale = Alan Hugh Dale ( born 6 May 1947 ) is a New Zealand actor . As a child , Dale developed a love of theatre and also became a rugby player . After retiring from the sport he took on a number of professions to support his family , before deciding to become a professional actor at the age of 27 . With work limited in New Zealand , Dale moved to Australia , where he played Dr. John Forrest in The Young Doctors from 1979 to 1982 . He later appeared as Jim Robinson in Neighbours , a part he played from 1985 until 1993 . He left the series when he fell out with the producers over the pay he and the rest of the cast received . After leaving Neighbours , Dale found that he had become typecast as Robinson in Australia and struggled to find work . His career was revitalised after he relocated to the United States in 2000 . Since then he has had roles in many American series including prominent parts in The O.C. ( as Caleb Nichol ) and Ugly Betty ( as Bradford Meade ) , as well as recur</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['watershed', 'creek', 'dam', 'island', 'population', 'city', 'area', 'river', 'volcano', 'volcanic', 'flows', 'lighthouse', 'lava', 'bay', 'water']</t>
+          <t>['cambridge', 'oxford', 'boat', 'competition', 'silver', 'summer', 'competed', 'referred', 'medal', 'seconds', 'olympics', 'compete', 'athletes', 'champions', 'heat']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Little Athletics = Little Athletics is an Australian activity program that involves modified athletics events for children aged 5 to 15 ( or 16 in ACT , NSW , Qld and SA ) . More than 100,000 young Australians competed in the sport in the 2013 / 14 season . The competitions were founded by Trevor Billingham , a young Australian athletics enthusiast from Geelong , Victoria , in 1964 . By 1967 , there were more than 35 Little Athletics clubs in Victoria , and the decision was made to start the Victorian Little Athletics Association ( VLAA ) . Soon after the formation of the VLAA , other states expressed interest in Little Athletics . In February 1968 , a year after the formation of the VLAA , Western Australia held its first Little Athletics meet at Perry Lakes Stadium . In 1972 , the states of Victoria , New South Wales , Northern Territory and Western Australia became the founding members of The Australian Little Athletics Union ( ALAU ) , which was formed in Perth . By 1974 , Tasmania</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Rebecca Soni = Rebecca Soni ( born March 18 , 1987 ) is an American former competition swimmer and breaststroke specialist who is a six-time Olympic medalist . She is a former world record-holder in the 100-meter breaststroke ( short and long course ) and the 200-meter breaststroke ( short and long course ) , and is the first woman to swim the 200-meter breaststroke in under 2 minutes 20 seconds . As a member of the U.S. national team , she currently holds the world record in the 4 × 100-meter medley relay ( short and long course ) . Soni has won a total of twenty-two medals in major international competition , fourteen gold , seven silver , and one bronze spanning the Olympics , the World , the Universiade , and the Pan Pacific Championships . She burst onto the international scene at the 2008 Summer Olympics where she won two silver medals and one gold . In the 200-meter breaststroke at the Olympics , she set the world record en route to winning gold , shocking Australian favorite Le</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Skeleton at the 2010 Winter Olympics – Women 's = The women 's skeleton event at the 2010 Winter Olympics took place at the Whistler Sliding Centre on 18 – 19 February . The competition was won by British athlete Amy Williams , who set new course records for the track on her first and third runs . Williams , who had never before won a World Cup or World Championship event , became the first British athlete to win a solo Winter Olympic gold medal in 30 years . German sliders Kerstin Szymkowiak and Anja Huber won the silver and bronze medals respectively . Williams ' teammate Shelley Rudman , who had won the silver medal at the 2006 Winter Olympics , and Canadian Mellisa Hollingsworth , both of whom had been expected to be in medal contention , were disappointed . Williams ' victory was not without controversy , as the United States and Canada filed complaints with the judges related to Williams ' helmet . However , judges ruled that ridges in her helmet did not violate International Bob</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Shannon ( horse ) = Shannon ( 1941 – 1955 ) , named Shannon II in America , was an outstanding Australian Thoroughbred racehorse who was inducted into the Hall of Fame . He created new racecourse records in Australia before he was sold to an American buyer who exported him to California in 1948 . There Shannon equalled the world record of 1 : 473 ⁄ 5 for the nine furlongs ( 1,800 metres ) in winning the Forty Niner Handicap Stakes , then one week later equalled the world record of 1 : 594 ⁄ 5 for a mile and a quarter ( 2,000 metres ) . Shannon was named the 1948 American Champion Older Male Horse . At stud in America he proved to be a good sire . = = Breeding = = He was by the leading sire , Midstream ( GB ) ( sire of 39 stakes-winners that won 120 stakes races ) from the race-winner , Idle Words by the good sire , Magpie ( GB ) . Idle Words was the dam of 12 foals , of which 11 raced with 8 winners , including three stakes-winners : Bernbrook ( by Midstream ) , won AJC Doncaster Handi</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Donn Cabral = Donald " Donn " Cabral is an American cross country and track athlete from Connecticut who went on to star at Princeton University . As a long distance runner he has been most successful in the steeplechase , but has also been a National Collegiate Athletic Association ( NCAA ) All-American at cross country and the 5000 metres as well as the Ivy League champion at the 3000 metres . He is the current American collegiate steeplechase record holder and was the 2012 NCAA steeplechase champion . He competed in the 2012 Summer Olympic Games in the steeplechase . At Princeton , Cabral was an eight-time NCAA All-American and ten-time individual Ivy League champion . He was a long distance running champion in high school for Glastonbury High School , winning two Class LL championships as a sophomore and then open state and New England championships as a junior and senior . = = Running career = = = = = High school = = = Early on , Cabral showed interest in Olympic competition and h</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['liz', 'dwight', 'jim', 'pam', 'michael', 'episode', 'nbc', 'jack', 'fey', 'jenna', 'andy', 'office', 'tracy', 'kenneth', 'tgs']</t>
+          <t>['album', 'music', 'songs', 'rock', 'recorded', 'recording', 'band', 'beatles', 'lyrics', 'musicians', 'george_harrison', 'sound', 'harrison', 'song', 'bands']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Zoo Station ( song ) = " Zoo Station " is a song by the rock band U2 . It is the opening track from their 1991 album Achtung Baby , a record on which the group reinvented themselves musically by incorporating influences from alternative rock , industrial , and electronic dance music . As the album 's opening track , " Zoo Station " introduces the band 's new sound , delivering industrial-influenced percussion and several layers of distorted guitars and vocals . Similarly , the lyrics suggest the group 's new intents and anticipations . The introduction , featuring an " explosion " of percussion and a descending glissando for a guitar hook , was meant to make the listener think the album was mistakenly not U2 's latest record or that their music player was broken . The song 's lyrics were inspired by a surrealistic story about Berlin from World War II that lead vocalist Bono heard , when overnight bombing damaged the zoo and allowed animals to escape and wander around the city 's rubble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Yellow ( Coldplay song ) = " Yellow " is a song by British alternative rock band Coldplay . The band wrote the song and co-produced it with British record producer Ken Nelson for their debut studio album , Parachutes ( 2000 ) . The song 's lyrics are a reference to the band 's lead singer Chris Martin 's unrequited love . The song was recorded in March 2000 , and released in June that same year as the second single from Parachutes , following " Shiver " , and the lead single in the United States . The single reached number four in the UK Singles Chart , giving Coldplay their first top-five hit in the United Kingdom . Helped by heavy rotation and usage in promotions , the song thrust the band into massive popularity . " Yellow " has since been covered by various recording artists worldwide , and remains one of the band 's most popular songs . = = Background and inspiration = = " Yellow " was written in a Rockfield studio in Wales called the Quadrangle , where Coldplay began working on t</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Wasting Light = Wasting Light is the seventh studio album by American rock band Foo Fighters . It was released on April 12 , 2011 on RCA Records , and is the first album to feature rhythm guitarist Pat Smear since The Colour and the Shape ( 1997 ) , making the band a five piece with the album . Wishing to capture the essence of the group 's earlier work and avoid the artificiality of digital recording , frontman Dave Grohl arranged for the band to record in his garage in Encino , California using only analog equipment . The sessions were supervised by producer Butch Vig , with whom Grohl had worked on Nirvana 's Nevermind . Since the old equipment did not allow for many mistakes to be corrected in post-production , the band spent three weeks rehearsing the songs , and Vig had to relearn outdated editing techniques . The band went for a heavier and rawer sound to contrast with the musical experiments from their previous albums , and most of the lyrics were written as Grohl reflected upo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Idlewild South = Idlewild South is the second studio album by American Southern rock band the Allman Brothers Band . Produced by Tom Dowd , the album was released on September 23 , 1970 , in the United States by Atco Records and Capricorn Records . Following the release of their 1969 debut , the Allman Brothers Band toured the United States extensively to promote the album , which had little commercial success . Their performances , however , did create positive word of mouth exposure that extended to more famous musicians , such as Eric Clapton , who invited group leader Duane Allman to contribute to his 1970 album Layla and Other Assorted Love Songs . As a result of the band 's relentless touring schedule , Idlewild South was recorded gradually over a period of five months in various cities , including New York , Miami , and Macon , Georgia , the band 's home . Tom Dowd had previously been sought to record the group 's debut but had been unavailable . The material presented on Idlewi</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>War Tour = The War Tour was a concert tour by the Irish rock band U2 , which took place in 1982 and 1983 in support of the group 's third album War . The tour took place in Western Europe , the United States , and Japan , with new material from War taking an increasing role as the tour progressed . Venues were mostly halls , but some arenas were introduced later on . U2 's performances were very well received both critically and commercially , especially in the United States where U2 broke through to become a major act . Scenes of lead singer Bono waving a white flag during the song " Sunday Bloody Sunday " became an emblematic image of this phase of U2 's career . It was their first tour as full-time headlining act and their first to be profitable . The live album Under a Blood Red Sky and the concert film U2 Live at Red Rocks : Under a Blood Red Sky both originated from performances on the tour . The latter matched U2 's concert fervour with the spectacular natural setting of the Red</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['oxford', 'cambridge', 'race', 'boat', 'blues', 'rowed', 'rowing', 'lengths', 'crews', 'rower', 'thames', 'races', 'crew', 'universities', 'university_of_cambridge']</t>
+          <t>['song', 'video', 'number', 'like', 'performance', 'tour', 'music', 'madonna', 'performed', 'best', 'songs', 'stage', 'beyoncé', 'week', 'gaga']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">A Very Glee Christmas = " A Very Glee Christmas " is the tenth episode of the second season of the American musical television series Glee , and the thirty-second episode overall . It was written by series co-creator Ian Brennan , directed by Alfonso Gomez-Rejon , and premiered on Fox on December 7 , 2010 . It served as the mid-season finale of season two — nearly two months elapsed before the next episode was aired — and featured Artie ( Kevin McHale ) trying to keep his girlfriend Brittany 's ( Heather Morris ) belief in Santa Claus intact , and Sue ( Jane Lynch ) rigging the faculty Secret Santa gift exchange so she gets all the gifts , though she later becomes a Grinch when the gifts are repossessed . The episode features seven songs , two of which come from the television special How the Grinch Stole Christmas ! . The creators of Glee received permission from the estate of Dr. Seuss for the use of characters from How the Grinch Stole Christmas ! , but were not allowed to use them </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>You Belong with Me = " You Belong with Me " is a song performed by American singer-songwriter Taylor Swift . The song was co-written by Swift and Liz Rose and produced by Nathan Chapman with Swift 's aid . It was released on April 18 , 2009 , by Big Machine Records as the third single from Swift 's second studio album , Fearless ( 2008 ) . Swift was inspired to write " You Belong with Me " after overhearing a male friend of hers arguing with his girlfriend through a phone call ; she continued to develop a story line afterward . The song contains many pop music elements and its lyrics have Swift desiring an out-of-reach love interest . The song won Favorite song at 2010 Kids ' Choice Awards , and received nominations for the Grammy Awards for Song of the Year , Record of the Year , and Best Female Pop Vocal Performance . " You Belong with Me " enjoyed commercial success as well ; it became a top ten hit in Australia , Canada , New Zealand , and the United States . In the United States ,</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>New York ( Glee ) = " New York " is the twenty-second episode and season finale of the second season of the American musical television series Glee , and the forty-fourth overall . The episode was written and directed by series creator Brad Falchuk , filmed in part on location in New York City , and first aired on May 24 , 2011 on Fox in the United States . With a $ 6 million budget , it was reportedly the most expensive episode of Glee at the time of broadcast . It garnered a Primetime Emmy nomination for Outstanding Costumes for a Series . The episode features an appearance by Patti LuPone as herself and guest stars Jonathan Groff , Cheyenne Jackson , and Charice . The McKinley High School glee club , New Directions , performs at the National show choir competition in New York City and finishes in twelfth place . While they are there , the glee club members see the sights , including Times Square and Central Park . Rachel ( Lea Michele ) and Kurt ( Chris Colfer ) sing a song from a B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Womanizer ( song ) = " Womanizer " is a song recorded by American singer Britney Spears for her sixth studio album , Circus ( 2008 ) . It was released on October 3 , 2008 by Jive Records as the lead single of the album . Produced and co-written by Nikesha Briscoe and Rafael Akinyemi of The Outsyders , the song was re-recorded after a snippet was leaked onto the internet . " Womanizer " is an up-tempo electropop and dance-pop song with characteristic sirens and a repetitive hook . Described by Spears as a girl anthem , the song 's lyrics recall a womanizing man , while the protagonist of the song makes clear she knows who he really is . Music critics mostly praised its hook , melody and empowering lyrics . Critics also observed it was a stand-out track from its album and also deemed it as a comeback single for Spears . " Womanizer " was a commercial success , peaking atop of the charts in Belgium , Canada , Denmark , Finland , France , Norway , Sweden and the United States . It also rea</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>I Wanna Go = " I Wanna Go " is a song recorded by American singer Britney Spears for her seventh studio album , Femme Fatale ( 2011 ) . It was written and produced by Max Martin and Shellback , with additional writing by Savan Kotecha . Spears first posted on her Twitter account a link to a clip of the song in February 2011 , a month prior to the album 's release . Following a poll on her official website , " I Wanna Go " was chosen as the third single of the album , and Jive Records released it on June 13 , 2011 . " I Wanna Go " is a dance-pop and Hi-NRG song that features a heavy bassline and drum fills reminiscent of English rock band New Order . The pre-chorus has a whistled hook that received comparisons to the music of Bob Sinclar and Frankie Knuckles . The lyrics of " I Wanna Go " feature Spears singing about losing inhibitions . The song received mixed to positive reviews from critics . Some praised it for being effective and highlighted its hook , while others dismissed the pr</t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['women', 'party', 'police', 'labour', 'book', 'rights', 'suffrage', 'government', 'feminist', 'political', 'feminism', 'murder', 'case', 'minister', 'trial']</t>
+          <t>['class', 'built', 'main', 'guns', 'line', 'castle', 'new', 'service', 'use', 'long', 'locomotives', 'london', 'speed', 'intended', 'locomotive']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>North Staffordshire Railway = The North Staffordshire Railway ( NSR ) was a British railway company formed in 1845 to promote a number of lines in the Staffordshire Potteries and surrounding areas in Staffordshire , Cheshire , Derbyshire and Shropshire . The company was based in Stoke-on-Trent and was nicknamed The Knotty ; its lines were built to the standard gauge of 4 ft 8 1 ⁄ 2 in ( 1,435 mm ) . The main routes were constructed between 1846 and 1852 and ran from Macclesfield to Norton Bridge , just north of Stafford , and from Crewe to Egginton Junction , west of Derby . Within these main connections with other railway companies , most notably the London and North Western Railway ( LNWR ) , the company operated a network of smaller lines although the total route mileage of the company never exceeded 221 miles ( 355.7 km ) . The majority of the passenger traffic was local although a number of LNWR services from Manchester to London were operated via Stoke . Freight traffic was mostl</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Lion-class battlecruiser = The Lion class were a class of battlecruisers built for the British Royal Navy before World War I. Nicknamed the " Splendid Cats " , the ships were a significant improvement over their predecessors of the Indefatigable class in terms of speed , armament and armour . The Lion-class battlecruisers were 2 knots ( 3.7 km / h ; 2.3 mph ) faster , exchanged the 12-inch ( 305 mm ) guns of the older ships for 13.5-inch ( 343 mm ) guns , and had a waterline armour belt 9 inches ( 229 mm ) thick versus the 6 inches ( 152 mm ) of the Indefatigables . These improvements were in response to the German Moltke class , the first German battlecruisers , which were larger and more powerful than the first British battlecruisers of the Invincible class . Lion served as the flagship of the Grand Fleet 's battlecruisers throughout World War I , except when she was being refitted or under repair . She sank the German light cruiser Cöln during the Battle of Heligoland Bight and serv</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Panavia Tornado = The Panavia Tornado is a family of twin-engine , variable-sweep wing multirole combat aircraft , which was jointly developed and manufactured by Italy , the United Kingdom , and West Germany . There are three primary Tornado variants : the Tornado IDS ( interdictor / strike ) fighter-bomber , the suppression of enemy air defences Tornado ECR ( electronic combat / reconnaissance ) and the Tornado ADV ( air defence variant ) interceptor aircraft . The Tornado was developed and built by Panavia Aircraft GmbH , a tri-national consortium consisting of British Aerospace ( previously British Aircraft Corporation ) , MBB of West Germany , and Aeritalia of Italy . It first flew on 14 August 1974 and was introduced into service in 1979 – 1980 . Due to its multirole nature , it was able to replace several different fleets of aircraft in the adopting air forces . The Royal Saudi Air Force ( RSAF ) became the only export operator of the Tornado in addition to the three original pa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>London Necropolis railway station = London Necropolis railway station was the Waterloo , London terminus of the London Necropolis Railway . The London Necropolis Railway was opened in 1854 as a reaction to severe overcrowding in London 's existing graveyards and cemeteries . It aimed to use the recently developed technology of the railway to move as many burials as possible to the newly built Brookwood Cemetery in Brookwood , Surrey . This location was within easy travelling distance of London , but distant enough for the dead not to pose any risk to public hygiene . There were two locations for the station ; the first was in operation from 1854 to 1902 , the second from 1902 to 1941 . Although it had its own branch line into Brookwood Cemetery , most of the route of the London Necropolis Railway ran on the existing London and South Western Railway ( LSWR ) . Consequently , a site was selected in Waterloo , near the LSWR 's recently opened London terminus at Waterloo Bridge station ( n</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>General Aircraft Hamilcar = The General Aircraft Limited GAL . 49 Hamilcar or Hamilcar Mark I was a large British military glider produced during the Second World War , which was designed to carry heavy cargo , such as the Tetrarch or M22 Locust light tank . When the British airborne establishment was formed in 1940 by the order of Prime Minister Winston Churchill it was decided to develop a large glider which would be able to transport heavy equipment in support of airborne troops . General Aircraft Limited were chosen in January 1941 to develop this glider , which they designated the GAL . 49 ' Hamilcar ' . It was designed to transport a single light tank or two Universal Carriers . A number of problems , which included vacillation by the War Office on the number of gliders that it wanted and poor management by GAL , led to delays in the production of the Hamilcar , and the first production glider was only assembled in mid-1943 . These problems were only partially solved , and produc</t>
         </is>
       </c>
     </row>
@@ -1176,32 +1176,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['officer', 'commander', 'lieutenant', 'command', 'fighter', 'promoted', 'victories', 'war', 'aircraft', 'flying', 'squadron', 'enemy', 'rank', 'medal', 'training']</t>
+          <t>['cap', 'fruit', 'color', 'shaped', 'spores', 'bodies', 'fungus', 'stem', 'mushroom', 'spore', 'taxonomy', 'yellow', 'diameter', 'collected', 'gill']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Macabeemyrma = Macabeemyrma is an extinct genus of bulldog ants in the subfamily Myrmeciinae containing the single species Macabeemyrma ovata , described in 2006 from Ypresian stage ( Early Eocene ) deposits of British Columbia , Canada . Only a single specimen is known ; a holotype queen found preserved as a compression fossil . The specimen had no wings and small portions of its legs and eyes were faintly preserved . It was a large ant , reaching 25 millimetres ( 0.98 in ) in length . This ants ' behaviour would have been similar to that of extant Myrmeciinae ants , such as foraging singly in search for arthropod prey and nesting in soil or in trees . Macabeemyrma shows similarities to extinct ants in the genus Ypresiomyrma , and to the living Nothomyrmecia macrops , but has not been conclusively assigned to any tribe , instead generally regarded as incertae sedis within Myrmeciinae . However , the sole specimen lacks definitive traits , and its classification in Myrmeciinae , and ev</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Cryptothecia rubrocincta = Cryptothecia rubrocincta is a species of lichen in the Arthoniaceae family of fungi . The species is distributed in subtropical and tropical locations throughout the southeastern United States , as well as Central and South America , and has been collected infrequently in a few locales in Africa . The body of the lichen forms continuous , circular crust-like patches on dead wood , readily recognizable by the prominent red pigment . The older , central region is covered with red , spherical to cylindrical granules . Moving outwards from the center , zones of color may be distinguished , the first gray-green , the second white , and finally a bright red cottony rim . The red and green colors of this unmistakable woodland lichen give the appearance of a Christmas wreath , suggestive of its common North American name , the Christmas wreath lichen . The red pigment , called chiodectonic acid , is one of several chemicals the lichen produces to help tolerate inhosp</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Andreacarus voalavo = Andreacarus voalavo is a parasitic mite found on the Malagasy rodent Voalavo gymnocaudus . First described in 2007 , it is closely related to Andreacarus gymnuromys and Andreacarus eliurus , which are found on other Malagasy rodents . The length of the idiosoma , the main body , is 630 to 670 μm in females and 450 to 480 μm in males . Unlike A. eliurus , this species lacks distinct sternal glands ( secretory organs ) between two lyrifissures ( sensory organs ) on the lower part of the female body . The pilus dentilis , a sensory organ on the chelicera , is serrate , which distinguishes it from A. gymnuromys . Females of A. gymnuromys also have a less ornamented sternal shield ( covering part of the underparts ) and shorter setae ( bristles ) on the upperparts . = = Taxonomy and ecology = = Andreacarus voalavo was named in 2007 by Ashley Dowling , Andre Bochkov , and Barry OConnor on the basis of 15 specimens found on an individual of the rodent Voalavo gymnocaudus</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Aonchotheca forresteri = Aonchotheca forresteri is a parasitic nematode that infects the marsh rice rat ( Oryzomys palustris ) in Florida . Occurring mainly in adults , it inhabits the stomach . It is much more common during the wet season , perhaps because its unknown intermediate host is an earthworm that only emerges when it rains . The worm was discovered in 1970 and formally described in 1987 . Originally classified in the genus Capillaria , it was reclassified in Aonchotheca in 1999 . A. forresteri is small and narrow-bodied , with a length of 13.8 to 19.4 mm in females and 6.8 to 9.2 mm in males . Similar species such as A. putorii differ in features of the alae and spicule ( organs in the male ) , the size of the female , and the texture of the eggs . = = Taxonomy = = Aonchotheca forresteri was discovered during a survey of the endoparasites of Florida marsh rice rats ( Oryzomys palustris ) by John Kinsella from 1970 to 1972 , and is one of several new parasite species in this </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Ornatifilum = Ornatifilum ( Latin ornatus + filum , Ornamented filament ) is an artificial form genus , which is used to categorise any small , branched filaments with external ornamentation . It has been applied to microfossils of Devonian age with fungal affinities , though these taxa have since been recognized as an early growth form of Tortotubus . = = Background = = The form genus Ornatifilum was erected by Burgess and Edwards in 1991 to describe tubular fossils retrieved by acid maceration from the late Silurian . It was originally intended as a form genus , to facilitate stratigraphy and environmental reconstruction ; the fossils do not display enough features to classify them confidently , even at a kingdom level . The organisms comprise tubes of around 10 μm diameter , with an ornamented , granular surface texture . These fossils were compared to late Silurian ( Ludlow epoch ) fossils retrieved from the Burgsvik beds by Sherwood-Pike and Gray , and the genus was used when simi</t>
         </is>
       </c>
     </row>
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['breed', 'horses', 'horse', 'breeds', 'dog', 'dogs', 'arabian', 'bred', 'breeding', 'stud', 'stallion', 'breeders', 'pony', 'registered', 'hair']</t>
+          <t>['episode', 'mulder', 'plot', 'find', 'scully', 'nielsen', 'doctor', 'files', 'scene', 'david_duchovny', 'finds', 'x-files', 'filmed', 'dana_scully', 'enterprise']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>X ( The X-Files ) = X , sometimes referred to as Mr. X , is a fictional character on the American science fiction television series The X-Files . He serves as an informant , leaking information to FBI Special Agents Fox Mulder and Dana Scully to aid their investigation of paranormal cases , dubbed X-Files . The character serves as a replacement for Deep Throat , who had been killed off in the first season finale , " The Erlenmeyer Flask " . X himself would be killed off after appearing in several seasons , eventually being replaced by Marita Covarrubias . X is portrayed in the series by Steven Williams , and made his début in the second season episode " The Host " , although the character would not appear on-screen until " Sleepless " , two episodes later . The role had originally been conceived as female , with Natalija Nogulich cast in the role ; however , her initial scenes were deemed unsatisfactory by the producers , leading to her replacement . Williams ' portrayal of X was inten</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Dear Doctor = " Dear Doctor " is the thirteenth episode of the first season of the American science fiction television series Star Trek : Enterprise and originally aired on January 23 , 2002 , on UPN . The episode was written by Maria and Andre Jacquemetton , and was directed by James A. Contner . Set in the 22nd century , the series follows the adventures of the first Starfleet starship Enterprise , registration NX-01 . In this episode , Doctor Phlox ( John Billingsley ) faces a serious dilemma as a dying race begs for help from the crew of the Enterprise . The culture consists of two related races , but only the more genetically advanced race has been stricken by a planet-wide plague . UPN requested that the ending of the episode be changed , something that Billingsley did not like . However , he and other members of the cast and crew approved of the final episode . Due to the subject matter and the ending , it is seen as a controversial episode by fans . Although " Dear Doctor " rec</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Unity ( Star Trek : Voyager ) = " Unity " is the 17th episode of the third season of the American science fiction television series Star Trek : Voyager , the 59th episode overall . The episode first aired on the UPN network on February 12 , 1997 , as part of sweeps week . It was written by producer Kenneth Biller , and is the second episode to be directed by cast member Robert Duncan McNeill . It marked the first appearance of the Borg in Voyager . Set in the 24th century , the series follows the adventures of the Starfleet and Maquis crew of the starship USS Voyager after they were stranded in the Delta Quadrant far from the rest of the Federation . In this episode , while on an away mission , Chakotay is taken in by a group of former Borg who seek help from the crew of Voyager to reactivate their neural link . The ex-Borg force Chakotay to reactivate a Borg cube ( a large Borg spaceship ) , but , in their new-found " Co-operative " , the ex-Borg make the cube self-destruct , saving V</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Underneath ( The X-Files ) = " Underneath " is the twelfth episode of the ninth season of the American science fiction television series The X-Files . The episode first aired in the United States on March 31 , 2002 on the Fox network . The episode was written and directed by executive producer John Shiban . The episode is a " monster-of-the-week " episode , a stand-alone plot which is unconnected to the mythology , or overarching fictional history , of The X-Files . The episode earned a Nielsen rating of 4.4 and was viewed by 4.64 million households and 7.3 million viewers . It received mixed reviews from critics . The show centers on FBI special agents who work on cases linked to the paranormal , called X-Files ; this season focuses on the investigations of John Doggett ( Robert Patrick ) , Monica Reyes ( Annabeth Gish ) , and Dana Scully ( Gillian Anderson ) . In this episode , Doggett is determined to find an error in the DNA evidence that freed the convicted Robert Fassl , the " Sc</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Home Soil = " Home Soil " is the 18th episode of the American science fiction television series Star Trek : The Next Generation . It first aired in broadcast syndication on February 22 , 1988 . Robert Sabaroff , Karl Geurs and Ralph Sanchez developed the story , with Sabaroff producing the teleplay . " Home Soil " is one of five episodes of the series directed by Corey Allen . Set in the 24th century , the series follows the adventures of the Starfleet crew on the Federation starship Enterprise-D. In the episode , the crew of the Enterprise investigate the murder of a crewman on a terraforming colony and discover a crystalline life form possessing intelligence . The production team encountered problems with the sets , casting , and scheduling . Due to issues with the script , it was delivered to Allen just one day before shooting . Nine million viewers watched the episode , the second lowest number of viewers for the first season of The Next Generation . Critical reception was mixed , </t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['british', 'french', 'militia', 'troops', 'fort', 'howe', 'battle', 'frigate', 'spanish', 'men', 'washington', 'fleet', 'expedition', 'continental_army', 'wounded']</t>
+          <t>['son', 'king', 'died', 'brother', 'death', 'daughter', 'father', 'reign', 'royal', 'kings', 'younger', 'succeeded', 'sons', 'kingdom', 'probably']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Richard of Dover = Richard ( died 1184 ) was a medieval Benedictine monk and Archbishop of Canterbury . Employed by Thomas Becket immediately before Becket 's death , Richard arranged for Becket to be buried in Canterbury Cathedral and eventually succeeded Becket at Canterbury in a contentious election . Much of Richard 's time as archbishop was spent in a dispute with Roger de Pont L 'Evêque , the Archbishop of York over the primacy of England , and with St Augustine 's Abbey in Canterbury over the archbishop 's jurisdiction over the abbey . Richard had better relations with King Henry II of England than Becket had , and was employed by the king on diplomatic affairs . Richard also had the trust of the papacy , and served as a judge for the papacy . Several of his questions to Pope Alexander III were collected into the Decretals , a collection of ecclesiastical laws , and his patronage of canon lawyers did much to advance the study of canon law in England . = = Early life = = Richard </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Pipe rolls = The Pipe rolls , sometimes called the Great rolls , are a collection of financial records maintained by the English Exchequer , or Treasury , and its successors . The earliest date from the 12th century , and the series extends , mostly complete , from then until 1833 . They form the oldest continuous series of records concerning English governance kept by the English , British and United Kingdom governments , covering a span of about 700 years . The early medieval ones are especially useful for historical study , as they are some of the earliest financial records available from the Middle Ages . A similar set of records was developed for Normandy , which was ruled by the English kings from 1066 to 1205 , but the Norman Pipe rolls have not survived in a continuous series like the English . They were the records of the yearly audits performed by the Exchequer of the accounts and payments presented to the Treasury by the sheriffs and other royal officials ; and owed their na</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Regenbald = Regenbald ( sometimes known as Regenbald of Cirencester ) was a priest and royal official in Anglo-Saxon England under King Edward the Confessor . His name suggests that he was not a native Englishman , and perhaps was German or Norman . He first appears in history as a witness to a royal document in 1050 , and remained a royal chaplain and clerk throughout the rest of King Edward 's reign . Many royal documents give Regenbald the title of " chancellor " but whether this means that he acted in a manner similar to the later Lord Chancellor is unclear , as some of the documents may be forgeries or have been tampered with . Whatever Regenbald 's actual title , King Edward rewarded him with lands and also granted him the status , but not the actual office , of bishop . Regenbald continued to serve the English kings after the Norman Conquest of England , although whether he served King Harold II of England is unclear . His date of death is unknown , but it was probably during th</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Battle of Baia = The Battle of Baia ( Romanian : Bătălia de la Baia ) was fought on 15 December 1467 between the Moldavian Prince , Stephen the Great and Hungarian King , Matthias Corvinus . The battle was the last Hungarian attempt to subdue the independent Moldavia , as previous attempts had ended in failure . Corvinus invaded Moldavia as a consequence of Stephen 's annexation of Chilia — a fortress and harbour at the coast of the Black Sea , which at the time was controlled by Hungarian and Wallachian forces , though it had belonged to Moldavia centuries earlier . The conflict ended with a bitter defeat for the Hungarians . This put an end to all Hungarian claims on Moldavia . = = Background = = In 1359 , Bogdan I of Moldavia rebelled against Hungary and founded an independent Moldavia . However , the Hungarian attempts to seize control over Moldavia did not end there , and in 1429 , Sigismund , Holy Roman Emperor , and also King of Hungary , met with Władysław Jagiełło , King of Po</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Rædwald of East Anglia = Rædwald ( Old English : Rædwald , ' power in counsel ' ) , also written as Raedwald or Redwald , was a 7th-century king of East Anglia , a long-lived Anglo-Saxon kingdom which included the present-day English counties of Norfolk and Suffolk . He was the son of Tytila of East Anglia and a member of the Wuffingas dynasty ( named after his grandfather , Wuffa ) , who were the first kings of the East Angles . Details about Rædwald 's reign are scarce , primarily because the Viking invasions of the 9th century destroyed the monasteries in East Anglia where many documents would have been kept . Rædwald reigned from about 599 until his death around 624 , initially under the overlordship of Æthelberht of Kent . In 616 , as a result of fighting the Battle of the River Idle and defeating Æthelfrith of Northumbria , he was able to install Edwin , who was acquiescent to his authority , as the new king of Northumbria . During the battle , both Æthelfrith and Rædwald 's son </t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['lap', 'race', 'drivers', 'laps', 'pit', 'car', 'ferrari', 'prix', 'driver', 'qualifying', 'session', 'fastest', 'ahead', 'hamilton', 'points']</t>
+          <t>['text', 'notes', 'book', 'bach', 'sunday', 'published', 'setting', 'edition', 'movements', 'describes', 'publication', 'bass', 'read', 'author', 'magazine']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Violin Concerto ( Mendelssohn ) = Felix Mendelssohn 's Violin Concerto in E minor , Op. 64 , is his last large orchestral work . It forms an important part of the violin repertoire and is one of the most popular and most frequently performed violin concertos of all time . A typical performance lasts just under half an hour . Mendelssohn originally proposed the idea of the violin concerto to Ferdinand David , a close friend and then concertmaster of the Leipzig Gewandhaus Orchestra . Although conceived in 1838 , the work took another six years to complete and was not premiered until 1845 . During this time , Mendelssohn maintained a regular correspondence with David , who gave him many suggestions . The work itself was one of the foremost violin concertos of the Romantic era and was influential on many other composers . Although the concerto consists of three movements in a standard fast – slow – fast structure and each movement follows a traditional form , the concerto was innovative a</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>The Fox , the Wolf and the Husbandman = The Fox , the Wolf and the Husbandman is a poem by the 15th-century Scottish poet Robert Henryson and part of his collection of moral fables known as the Morall Fabillis of Esope the Phrygian . It is written in Middle Scots . As with the other tales in the collection , appended to it is a moralitas which elaborates on the moral that the fable is supposed to contain . However , the appropriateness of the moralitas for the tale itself has been questioned . The tale combines two motifs . Firstly , a husbandman tilling the fields with his new oxen makes a rash oath aloud to give them to the wolf ; when the wolf overhears this , he attempts to make sure that the man fulfills his promise . The fox mediates a solution by speaking to them individually ; eventually he fools the wolf into following him to claim his supposed reward for dropping the case , and tricks him into a draw-well . The moralitas connects the wolf to the wicked man , the fox to the de</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Gertrude Barrows Bennett = Gertrude Barrows Bennett ( 1883 – 1948 ) was the first major female writer of fantasy and science fiction in the United States , publishing her stories under the pseudonym Francis Stevens . Bennett wrote a number of highly acclaimed fantasies between 1917 and 1923 and has been called " the woman who invented dark fantasy " . Her most famous books include Claimed ( which Augustus T. Swift , in a letter to The Argosy called " One of the strangest and most compelling science fantasy novels you will ever read " ) and the lost world novel The Citadel of Fear . Bennett also wrote an early dystopian novel , The Heads of Cerberus ( 1919 ) . = = Life = = Gertrude Mabel Barrows was born in Minneapolis in 1883 . She completed school through the eighth grade , then attended night school in hopes of becoming an illustrator ( a goal she never achieved ) . Instead , she began working as a stenographer , a job she held on and off for the rest of her life . In 1909 Barrows ma</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Brainwashing : The Science of Thought Control = Brainwashing : The Science of Thought Control is a non-fiction book analyzing brainwashing , thought reform and mind control , by neuroscientist and physiologist Kathleen Taylor . It was first published in hardcover on December 16 , 2004 by Oxford University Press . Taylor reviews the history of the term brainwashing , from its usage in 1950 by journalist Edward Hunter to its application to cults , marketing , influence , thought reform , torture and reeducation . She references the book Thought Reform and the Psychology of Totalism by psychiatrist Robert Jay Lifton and cites his research on indoctrination techniques experienced by prisoners of war during the Korean War . Taylor explains the neurological basis for reasoning and cognition in the brain , and proposes that the self is changeable while describing the physiology of neurological pathways . She utilizes case studies including Patty Hearst , the Manson Family , and the mass murde</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Christian interpretations of Virgil 's Eclogue 4 = Eclogue 4 , also known as the Fourth Eclogue is the name of a Latin poem by the Roman poet Virgil . Part of his first major work , the Eclogues , the piece was written around 40 BC , during a time of temporary stability following the Treaty of Brundisium ; it was later published in and around the years 39 – 38 BC . The work describes the birth of a boy , a supposed savior , who once of age will become divine and eventually rule over the world . During late antiquity and the Middle Ages , a desire emerged to view Virgil as a virtuous pagan , and as such , early Christians , such as Roman Emperor Constantine , early Christian theologian Lactantius , and St. Augustine — to varying degrees — reinterpreted the poem to be about the birth of Jesus Christ . This belief persisted into the Medieval era , with many scholars arguing that Virgil not only prophesied Christ prior to his birth but also that he was a pre-Christian prophet . Dante Aligh</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['temple', 'mosque', 'han', 'dynasty', 'sanskrit', 'buddhist', 'hindu', 'chinese', 'bce', 'texts', 'monastery', 'buddhism', 'temples', 'wall', 'text']</t>
+          <t>['raaf', 'flying', 'wing', 'combat', 'unit', 'training', 'operational', 'pilot', 'officer', 'aircraft', 'flight', 'pilots', 'disbanded', 'commanding', 'squadron']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>John C. " Pappy " Herbst = John C. " Pappy " Herbst ( September 25 , 1909 – July 4 , 1946 ) was an American flying ace who was officially the second highest-scoring fighter pilot in the China Burma India Theater with 18 confirmed victories made during 7 months with the 23d Fighter Group . 23d FG Commander David Lee " Tex " Hill said of Herbst that he was " one of the greatest fighter pilots I ever saw . " Often described as " colorful " , Herbst was one of the more successful aces of the United States Army Air Forces ( USAAF ) . Herbst first fought with the Royal Canadian Air Force in Europe against German aircraft , possibly downing one . He joined the USAAF as an instructor training fighter pilots stateside . After two years of teaching and intelligence duties , Herbst was sent to China to fight the Japanese . For seven months he led the 74th Fighter Squadron on far-ranging independent missions , operating from advance airfields under crude conditions and in the face of Operation Ich</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Ilyushin Il-40 = The Ilyushin Il-40 ( NATO reporting name : Brawny ) was a two-seat Soviet jet-engined armored ground-attack aircraft . The first prototype flew in 1953 and was very successful except when it fired its guns , as their combustion gasses disturbed the airflow into the engines and caused them to flameout or hiccup . Remedying this problem took over a year and involved the radical change of moving the engine air intakes all the way to the very front of the aircraft and repositioning the guns from the tip of the nose to the bottom of the fuselage , just behind the nose wheel . The aircraft , now resembling a double-barreled shotgun from the front , was ordered into production in 1955 . Only five production aircraft had been completed before the entire program was canceled in early 1956 when the VVS discarded its close air support doctrine in favor of tactical nuclear weapons on the battlefield . = = Development = = Sergey Ilyushin had begun design studies during 1950 – 51 fo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Ilyushin Il-20 ( 1948 ) = The Ilyushin Il-20 was a Soviet prototype for a heavily armored ground attack aircraft to replace the Ilyushin Il-10 . It featured a number of innovative concepts including a cockpit mounted on top of the engine , directly behind the propeller , and wing-mounted autocannon that could be adjusted on the ground to fire level or depressed 23 ° to allow the aircraft to strafe ground targets while remaining in level flight . However it was slower than the Il-10 , and its immature M-47 engine was problematic in flight tests in 1948 – 49 . It was not placed into production . The test pilots called the aircraft the Gorbach ( Hunchback ) . = = Development = = Sergey Ilyushin 's concept to meet the 1947 requirement for a superior aircraft to the Il-10 in performance and firepower was a heavily armored , single-engine , all-metal , low-wing monoplane powered by the newly developed M-47 — also known as the MF-45Sh or M-45Sh — liquid-cooled engine , which developed 3,000 h</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Special Troops Battalion , 173rd Airborne Brigade Combat Team ( United States ) = The Special Troops Battalion , 173rd Airborne Brigade Combat Team is a special troops battalion of the United States Army headquartered at Caserma Del Din in Vicenza , Italy . It is the organization for the command elements of the 173rd Airborne Brigade Combat Team . The battalion contains the brigade 's senior command structure , including its Headquarters and Headquarters Company , as well as communication and support elements . Activated in 2000 from inactivating support units , the Special Troops Battalion deployed with the 173rd Airborne Brigade Combat Team to Afghanistan in 2007 until 2008 and again in early 2010 . = = Organization = = The Special Troops Battalion is subordinate to the 173rd Airborne Brigade Combat Team and is a permanent formation of the brigade , as the 173rd 's command elements are all contained in the STB . The battalion consists of three companies and the brigade 's Headquarter</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Alan Charlesworth = Air Vice Marshal Alan Moorehouse Charlesworth , CBE , AFC ( 17 September 1903 – 21 September 1978 ) was a senior commander in the Royal Australian Air Force ( RAAF ) . Born in Tasmania , he graduated from the Royal Military College , Duntroon , and served with the 2nd Light Horse Regiment in Queensland before transferring to the Air Force in 1925 . Most of his pre-war flying career was spent with No. 1 Squadron at RAAF Station Laverton , Victoria . In 1932 he undertook a series of survey flights around Australia , earning the Air Force Cross . Charlesworth 's early wartime commands included No. 2 Squadron at Laverton , and RAAF Station Pearce in Western Australia . Appointed Air Officer Commanding ( AOC ) Eastern Area in December 1943 , he was promoted temporary air commodore the following year and took over as AOC North-Western Area in Darwin , Northern Territory . Charlesworth 's control of air operations during the North-Western Area Campaign led to his appointme</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['simpsons', 'south_park', 'homer', 'lisa', 'episode', 'episodes', 'kenny', 'jake', 'stan', 'kyle', 'finn', 'animated', 'parker', 'voice', 'voiced']</t>
+          <t>['took', 'second', 'played', 'runs', 'team', 'tour', 'england', 'australia', 'playing', 'class', 'run', 'came', 'score', 'match', 'taking']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Pepper Martin = Johnny Leonard Roosevelt " Pepper " Martin ( February 29 , 1904 – March 5 , 1965 ) was an American professional baseball player and minor league manager . He was known as the Wild Horse of the Osage because of his daring , aggressive baserunning abilities . Martin played in Major League Baseball as a third baseman and an outfielder for the St. Louis Cardinals during the 1930s and early 1940s . He was best known for his heroics during the 1931 World Series , in which he was the catalyst in a Cardinals ' upset victory over the Philadelphia Athletics . Martin was an integral member of the Cardinals ' teams of the 1930s that became known as the Gashouse Gang for their roguish behavior and practical jokes . Early in his career , he was labeled by some contemporary press reports as the next Ty Cobb because of his spirited , hustling style of play . However , because his headlong attitude on the playing field took a physical toll on his body , he never lived up to those initia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">1959 National League tie-breaker series = The 1959 National League tie-breaker series was a best-of-three playoff series at the conclusion of Major League Baseball 's ( MLB ) 1959 regular season to decide the winner of the National League ( NL ) pennant . The games were played on September 28 and 29 , 1959 , between the Los Angeles Dodgers and the Milwaukee Braves . The first game was played at Milwaukee County Stadium and the second took place at Los Angeles Memorial Coliseum . The playoff series was necessary after both teams finished the season with identical win – loss records of 86 – 68 . The Dodgers won a coin flip late in the season that gave them home field advantage for the series , although the series did not reach a third game . Following a rain-delayed start , the Dodgers won Game 1 by a close 3 – 2 score , with a home run by John Roseboro providing the margin of victory . The Dodgers then won the series and the pennant with another close victory in Game 2 ; they came back </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Haseeb Ahsan = Haseeb Ahsan ( Urdu : حسيب احسن ; 15 July 1939 – 8 March 2013 ) was a Pakistani cricketer who played 12 Tests for Pakistan between 1958 and 1962 . He was born in Peshawar , Khyber Pakhtunkhwa . A right-arm off spinner , he took 27 wickets in Test cricket at an average of 49.25 , including two five-wicket hauls . During his first-class career , he played 49 matches and took 142 wickets at an average of 27.71 . Former Pakistan cricketer Waqar Hasan said about him that he " was a fighter to the core and served Pakistan cricket with honour and dignity . " Ahsan had conflicts with former Pakistan captain Javed Burki . A controversy regarding his bowling action resulted in the premature end of his international career when he was only 23 . He worked as chief selector , team manager of Pakistan , and member of the 1987 Cricket World Cup organising committee . He died in Karachi on 8 March 2013 , aged 73 . = = Cricketing career = = Ahsan played 49 first-class matches for Pakista</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>2014 Philadelphia Phillies season = The Philadelphia Phillies ' 2014 season was the 132nd in the history of the franchise . After a disappointing 2013 , the Phillies entered the offseason with a strategy to reload rather than rebuild ; they did not want to relinquish the opportunity to do well in 2014 in hopes of being competitive down the road . Commensurate with this strategy , among their key acquisitions were right fielder Marlon Byrd and starting pitcher A. J. Burnett . The Phillies began the season with new coaches ( as Ryne Sandberg entered his first season as manager after taking over on an interim basis in August 2013 ) and new broadcasters ; Jamie Moyer and Matt Stairs , two members of the 2008 World Series squad , replaced Chris Wheeler and Gary Matthews as analysts on Comcast SportsNet Philadelphia . After offseason headlines indicated a tenuous relationship between Sandberg and shortstop Jimmy Rollins and controversy about draft picks who did not sign with the team , the s</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>John Lester = John Ashby Lester ( August 1 , 1871 – September 3 , 1969 ) was an American cricketer , active in the late 19th and early 20th centuries . Lester was one of the Philadelphian cricketers who played from the end of the 19th century until the outbreak of World War I. His obituary in Wisden Cricketers ' Almanack , described him as " one of the great figures in American cricket . " During his career , he played in 53 matches for the Philadelphians , 47 of which are considered first class . From 1897 until his retirement in 1908 , Lester led the batting averages in Philadelphia and captained all the international home matches . = = Early life and career = = Lester was born in Penrith , Cumberland , England in 1871 . He began playing cricket at a very young age . He was playing a game in Yorkshire in 1892 when he met Dr. Isaac Sharpless . Sharpless was the president of Haverford College , and invited him to the United States to attend the school . In his early days as a student i</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['formula', 'matrix', 'function', 'newton', 'linear', 'plants', 'constant', 'language', 'defined', 'theory', 'functions', 'example', 'consciousness', 'space', 'derivative']</t>
+          <t>['highway', 'north', 'road', 'east', 'route', 'lane', 'south', 'intersection', 'west', 'continues', 'interchange', 'designated', 'completed', 'state', 'passes']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>M-57 ( Michigan highway ) = M-57 is an east – west state trunkline highway in the US state of Michigan . The 105.377-mile ( 169.588 km ) highway connects US Highway 131 ( US 131 ) near Rockford on the west end to M-15 near Otisville in the Lower Peninsula . In between , the mostly rural highway passes through farmland and connects several highways and smaller towns together . Three of these highways are freeways : US 131 , US 127 and Interstate 75 ( I-75 ) . Along the way , between 3,700 and 22,300 vehicles use the highway daily . The current highway that bears the M-57 moniker is the second to do so . The first is now M-75 in the Northern Lower Peninsula . This second highway was designated in the 1930s along a different , but parallel , routing . The first major changes shifted that routing southward to the current corridor in stages . Through additional extensions and truncations , the modern routing was formed by the 1970s . = = Route description = = M-57 is a rural , two-lane high</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>California State Route 149 = State Route 149 ( SR 149 ) is a short state highway that helps to connect Oroville and Chico through rural Butte County . Connecting State Route 70 at Wicks Corner with State Route 99 east of Durham , it forms part of the primary north – south highway through the eastern Sacramento Valley , a Focus Route of the Interregional Road System . SR 149 was formerly part of the Oroville-Chico Highway ; the majority of the latter was merged into other routes . In the mid-1970s , the highway was reallocated onto a newer two-lane alignment . The route is also part of the California Freeway and Expressway System , and a project to widen the two-lane road to a four-lane expressway was completed in late 2008 , removing the bottleneck from the Oroville-Chico highway . = = Route description = = State Route 149 begins at Wicks Corner as a divided highway , at an interchange with SR 70 several miles north of Oroville . This is the north end of the State Route 70 freeway , wh</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>California State Route 55 = State Route 55 ( SR 55 ) is an 18-mile ( 30-km ) long north – south highway in the U.S. state of California . The portion of the route built to freeway standards is known as the Costa Mesa Freeway ( formerly the Newport Freeway ) . SR 55 runs between Finley Avenue south of Pacific Coast Highway ( SR 1 ) in Newport Beach and the Riverside Freeway ( SR 91 ) in Anaheim to the north , intersecting other major Orange County freeways such as SR 22 , SR 73 , and Interstate 405 ( I-405 ) . The freeway passes through suburban Orange County . SR 55 was first added to the state highway system in 1931 , known as part of Legislative Route 43 , and was routed on surface streets . It was renumbered SR 55 in 1959 , and the construction of the freeway portion began in the 1960s and continued until 1992 . Due to congestion , several alternatives are being discussed to expand the freeway portion past its current end in Newport Beach . SR 55 received the first carpool lane in O</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>M-25 ( Michigan highway ) = M-25 is a state trunkline highway in the US state of Michigan . The route follows an arc-like shape closely along the Lake Huron shore of the Thumb in the eastern Lower Peninsula between Port Huron and Bay City . It serves the lakeshore resorts along Lake Huron and Saginaw Bay and generally lies within sight of the lake and the bay . All is surface road and generally scenic , except for the freeway segment near the junction with I-75 and connection into the US 10 freeway . Between Port Huron and Port Austin it is the north – south highway that used to be US 25 before the designation was removed from Michigan . Between Port Austin and Bay City it is an east – west route that appeared on some maps as US 25 and on some maps as M-25 . Since the 1970s , when all of US 25 was deleted north of Cincinnati , Ohio , it is now entirely M-25 . = = Route description = = = = = North to Port Austin = = = The starting point of M-25 at a junction with Business Loop I-69 / Bu</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>California State Route 209 = State Route 209 ( SR 209 ) was a state highway in the U.S. state of California , connecting Cabrillo National Monument with the interchange of Interstate 5 ( I-5 ) and I-8 in San Diego , passing through the neighborhoods of Point Loma . The majority of the route was along Rosecrans Street ; it also included Cañon Street and Catalina Boulevard leading to the tip of Point Loma . The Rosecrans Street portion of SR 209 corresponded to the original routing of the historic La Playa Trail . Rosecrans Street was paved in the late 1900s through the community of Roseville , and was added to the state highway system in 1933 as Route 12 . SR 209 was designated in the 1964 state highway renumbering , and a full interchange with I-5 and I-8 was completed in 1969 . The designation was removed from the state highway system in 2003 and responsibility for the road was transferred to the city of San Diego . = = Route description = = The route began at a turnaround next to the</t>
         </is>
       </c>
     </row>
@@ -1421,32 +1421,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['glee', 'kurt', 'rachel', 'meredith', 'finn', 'episode', 'grey', 'quinn', 'anatomy', 'viewers', 'sue', 'watched', 'yang', 'club', 'grace']</t>
+          <t>['game', 'team', 'play', 'season', 'second', 'defense', 'kick', 'led', 'lead', 'week', 'half', 'record', 'end', 'football', 'field']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Portland Trail Blazers = The Portland Trail Blazers , commonly known as the Blazers , are an American professional basketball team based in Portland , Oregon . The Trail Blazers compete in the National Basketball Association ( NBA ) as a member club of the league 's Western Conference Northwest Division . The team played its home games in the Memorial Coliseum before moving to Moda Center in 1995 ( called the Rose Garden until 2013 ) . The franchise entered the league as an expansion team in 1970 , and has enjoyed a strong following : from 1977 through 1995 , the team sold out 814 consecutive home games , the longest such streak in American major professional sports at the time , and only since surpassed by the Boston Red Sox . The Trail Blazers have been the only NBA team based in the bi-national Pacific Northwest , after the Vancouver Grizzlies relocated to Memphis and became the Memphis Grizzlies in 2001 , and the Seattle SuperSonics relocated to Oklahoma City and became the Oklahom</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Pau Gasol = Pau Gasol Sáez ( Catalan pronunciation : [ ˈpaw ɣəˈzɔɫ ] , Spanish pronunciation : [ ˈpau ɣaˈsol ] ; born July 6 , 1980 ) is a Spanish professional basketball player for the San Antonio Spurs of the National Basketball Association ( NBA ) . He is a six-time NBA All-Star , and a four-time All-NBA selection , twice on the second team and twice on the third team . He has won two NBA championships , both with the Los Angeles Lakers . He was the NBA Rookie of the Year in 2002 with the Memphis Grizzlies , one of only two non-American NBA players to win that award . He is the older brother of fellow NBA player Marc Gasol . Gasol was selected by the Atlanta Hawks with the third overall pick in the first round of the 2001 NBA draft , but his rights were traded to Memphis . He currently holds the Grizzlies franchise records for field goals made and attempted , free throws made and attempted , offensive , defensive , and total rebounds , blocked shots , turnovers , and points . After </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Dirk Nowitzki = Dirk Werner Nowitzki ( German pronunciation : [ ˈdɪʁk ˈvɛʁnɐ noˈvɪtski ] ) ( born June 19 , 1978 ) is a German professional basketball player for the Dallas Mavericks of the National Basketball Association ( NBA ) . An alumnus of Röntgen Gymnasium and the DJK Würzburg basketball club , Nowitzki was chosen as the ninth pick in the 1998 NBA draft by the Milwaukee Bucks and immediately traded to the Mavericks , where he has played since . Listed at 7 ft 0 in ( 2.13 m ) , Nowitzki is considered one of the greatest power forwards in basketball history . Nowitzki led the Mavericks to 15 NBA Playoffs ( 2001 – 2012 ; 2014 – 2016 ) , including the franchise 's first Finals appearance in 2006 and only championship in 2011 . He is a 13-time All-Star , a 12-time All-NBA Team member , and the first European player to start in an All-Star Game as well as the first to receive the NBA Most Valuable Player Award ( 2007 ) . Nowitzki is the highest-scoring foreign-born player in NBA-histo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>1949 Sun Bowl controversy = The 1949 Sun Bowl controversy refers to the student protests at Lafayette College in Easton , Pennsylvania after a Sun Bowl invitation was extended to the Lafayette Leopards football team under the condition that the African American player , David Showell , would not play . On November 19 , 1948 Lafayette College was invited by the Sun Bowl Committee to play against the Texas College of Mines , now The University of Texas at El Paso . Just four days later , on November 23 , the Lafayette faculty voted to turn down the bid because the Sun Bowl Committee would not allow Showell to play . This bid rejection led to a large student demonstration on the Lafayette campus and in the city of Easton against segregation . West Virginia University later accepted the bid after Lafayette 's rejection . The Sun Bowl was played on January 1 , 1949 . West Virginia defeated the Texas College of Mines by a score of 21 – 12 . = = Sun Bowl segregation history = = The segregatio</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Los Angeles Lakers = The Los Angeles Lakers are an American professional basketball team based in Los Angeles , California . The Lakers compete in the National Basketball Association ( NBA ) , as a member club of the league 's Western Conference Pacific Division . The Lakers play their home games at Staples Center , an arena shared with the NBA 's Los Angeles Clippers , the Los Angeles Sparks of the Women 's National Basketball Association , and the Los Angeles Kings of the National Hockey League . The Lakers are one of the most successful teams in the history of the NBA , and have won 16 NBA championships , their last being in 2010 . As of 2015 , the Lakers are the second most valuable franchise in the NBA according to Forbes , having an estimated value of $ 2.7 billion . The franchise began with the 1947 purchase of a disbanded team , the Detroit Gems of the National Basketball League ( NBL ) . The new team began playing in Minneapolis , Minnesota , calling themselves the Minneapolis</t>
         </is>
       </c>
     </row>
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['bach', 'poem', 'poems', 'shakespeare', 'poet', 'poetry', 'movement', 'ode', 'movements', 'soprano', 'text', 'alto', 'aria', 'stanza', 'narrator']</t>
+          <t>['second', 'place', 'position', 'race', 'track', 'car', 'lead', 'fifth', 'fourth', 'sixth', 'pole', 'passed', 'championship', 'ferrari', 'stop']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Paradox ( horse ) = Paradox ( 1882 – 1890 ) was a British Thoroughbred racehorse and sire . In a career that lasted from October 1884 until October 1885 he ran eight times and won six races . Despite running only twice in 1884 , he proved himself to be one of the best two-year-olds of his generation by winning the Dewhurst Plate . In the following year he won five of his six races including the 2,000 Guineas , the Grand Prix de Paris , the Sussex Stakes and the Champion Stakes . His only defeat came when he was narrowly beaten by Melton in the Epsom Derby . The final phase of the colt 's racing career was marked by controversy and recrimination following his withdrawal from the Cambridgeshire Handicap in the autumn of 1885 and he was retired from racing in 1886 . Paradox had little opportunity to establish himself at stud , dying in 1890 at the age of eight . = = Background = = Paradox was a strongly-built bay horse bred by the Graham brothers at the Yardley Stud near Birmingham . He w</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Walter Dix = Walter Dix ( born January 31 , 1986 ) is an American sprinter who specializes in the 100 meters and 200 meters . He is the fourth-fastest 200-meter runner ever with a best of 19.53 seconds , and has broken the 10-second barrier in the 100 meters , with a best of 9.88 seconds . Dix was a highly successful amateur athlete , setting a state record in the 100 m and trying out for the US Olympic Team at the age of eighteen . He joined Florida State University and in his first year he broke the 100 m American junior record and won at the NCAA Outdoor Championships . After a fourth-place finish at the 2005 US Championships , Dix continued with his collegiate success , setting an NCAA record of 19.69 seconds in the 200 m and coming within one hundredth of the 100 m record . He completed a 100 m , 200 m , and 4 × 100 meter relay sweep at the 2007 NCAA Outdoor Championships , the first to do so since John Carlos in 1969 . He closed his amateur career in 2008 : another NCAA 200 m tit</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Porsche RS Spyder = The RS Spyder ( Type 9R6 ) is a racing car designed by Porsche in conjunction with Penske to compete in Le Mans Prototype Class 2 ( LMP2 ) racing . The car takes its name from the legendary 550 Spyder of the 1950s ( combined with Porsche 's common " RennSport " ( lit . : racing sports ) designation ) . The car marked Porsche 's first return to the top level of sports prototype racing since the firm abandoned its Porsche LMP in 1999 . The RS Spyder made its debut in the final event of the 2005 American Le Mans Series ( ALMS ) at Laguna Seca winning its class . Since then the RS Spyder has won the ALMS LMP2 Championship in 2006 , 2007 and 2008 and took class honours at Le Mans in 2008 and 2009 . The outright victory at the 2008 12 Hours of Sebring was the first major victory for Porsche in endurance racing for five years and it was also the first time in 24 years that the non-premier class won the 12 Hours of Sebring overall . Regulation changes for the 2011 season re</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Auto Club Speedway = Auto Club Speedway , formerly California Speedway , is a two-mile ( 3 km ) , low-banked , D-shaped oval superspeedway in Fontana , California which has hosted NASCAR racing annually since 1997 . It is also used for open wheel racing events . The racetrack is located near the former locations of Ontario Motor Speedway and Riverside International Raceway . The track is owned and operated by International Speedway Corporation and is the only track owned by ISC to have naming rights sold . The speedway is served by the nearby Interstate 10 and Interstate 15 freeways as well as a Metrolink station located behind the backstretch . Construction of the track , on the site of the former Kaiser Steel Mill , began in 1995 and was completed in late 1996 . The speedway has a grandstand capacity of 68,000 and 28 skyboxes . In 2006 , a fanzone was added behind the main grandstand . Lights were added to the speedway in 2004 with the addition of a second annual NASCAR weekend . Sin</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Waxy ( horse ) = Waxy ( 1790 – 18 April 1818 ) was a British Thoroughbred racehorse that won the 1793 Epsom Derby and was an influential sire in the late eighteenth and early part of the nineteenth century . Waxy was bred by Sir Ferdinando Poole and was foaled at Lewes in 1790 . He was sired by Pot-8-Os , a son of the foundation stallion Eclipse , whose genetic lineage traced to the Darley Arabian . Waxy 's dam , Maria , was sired by the influential stallion Herod and produced one full-brother to Waxy , who was named Worthy . Waxy derived his name from a variety of potato , a choice that was inspired by his sire 's name . Trained by Robert Robson , Waxy won nine races out of 15 starts during his four-year racing career , retiring from racing at the age of seven in 1797 after sustaining an injury during his last start . Beginning in 1798 , Waxy stood at stud at Sir Poole 's estate in Lewes and remained there until Poole 's death in 1804 . After Poole 's death , Waxy was acquired by the </t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['wickets', 'innings', 'test', 'cricket', 'wicket', 'runs', 'matches', 'australia', 'england', 'scored', 'bowling', 'match', 'bowled', 'overs', 'miller']</t>
+          <t>['episode', 'viewers', 'glee', 'club', 'watched', 'relationship', 'finn', 'rating', 'rachel', 'character', 'tells', 'kurt', 'storyline', 'share', 'demographic']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>The Duel ( The Office ) = " The Duel " is the twelfth episode of the fifth season of the American comedy television series The Office , and the show 's 84th overall episode . In the episode , Andy learns his fiancee Angela is having an affair with Dwight , and the two challenge each other to a physical fight to win her affections . Meanwhile , Michael travels to New York City for a meeting with David Wallace , where Wallace seeks managerial advice from Michael due to the poor financial condition of the fictional company , Dunder Mifflin . The episode was written by Jennifer Celotta and directed by Dean Holland , the show 's long-time editor making his directorial debut . It featured the conclusion of the love triangle between Dwight , Andy and Angela , a subplot that had been going on since the end of the fourth season . David Wallace 's meeting with Michael marked the show 's first acknowledgment of the economic crisis facing much of the globalized nation at the time of the episode du</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Mamma Mia ( 30 Rock ) = " Mamma Mia " is the twenty-first episode of the third season of the American television comedy series 30 Rock , and the 57th overall episode of the series . It was written by co-executive producer Ron Weiner and directed by series producer Don Scardino . The episode originally aired on the National Broadcasting Company ( NBC ) network in the United States on May 7 , 2009 . Guest stars in this episode include Alan Alda , Steve Buscemi , Stuart Margolin , Keith Olbermann , Clayton Dean Smith , and Michael Benjamin Washington . In the episode , Jack Donaghy ( Alec Baldwin ) begins to search for his biological father with help from Liz Lemon ( Tina Fey ) . Meanwhile , Tracy Jordan ( Tracy Morgan ) introduces his supposedly illegitimate son ( Washington ) to the cast and crew of the fictitious show The Girlie Show with Tracy Jordan ( TGS ) , but some question his intentions . At the same time , Jenna Maroney ( Jane Krakowski ) and Liz fight for attention when Jenna </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>A.A.R.M. = " A.A.R.M. " is the collective name for the twenty-second and twenty-third episodes of the ninth season of the American comedy television series The Office , as well as the 198th and 199th episode overall . It was also the series ' penultimate entry , airing a week before the series finale . It originally aired on NBC on May 9 , 2013 . This episode guest stars Nora Kirkpatrick , Aaron Rodgers , Clay Aiken , Mark McGrath , Santigold , Jessica St. Clair , and Rachel Crow . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , Jim Halpert ( John Krasinski ) convinces Dwight Schrute ( Rainn Wilson ) that he needs to choose someone to act as an Assistant to the Assistant to the Regional Manager ( A.A.R.M. ) ; the two subsequently hold tryouts for the position . Angela Lipton ( Angela Kinsey ) is forced to bring her son , Phill</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Welcome Wagon ( Veronica Mars ) = " Welcome Wagon " is the season premiere of the third season of the American mystery television series Veronica Mars , and the forty-fifth episode overall . Written by series creator Rob Thomas and directed by John T. Kretchmer , the episode premiered on The CW on October 3 , 2006 . The series depicts the adventures of Veronica Mars ( Kristen Bell ) as she deals with life as a college student while moonlighting as a private detective . In this episode , Veronica transitions to life at Hearst College , meeting several new people and reconnecting with several acquaintances from Neptune High . Meanwhile , a student named Piz ( Chris Lowell ) gets his belongings stolen , and Veronica helps him . In addition , Keith ( Enrico Colantoni ) trails Kendall Casablancas ( Charisma Carpenter ) in the aftermath of receiving a large sum of money from her in " Not Pictured " before learning that she is actually a target of the Fitzpatricks . At the end of the episode </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Khonani = " Khonani " is the eighteenth episode of the fourth season of the American television comedy series 30 Rock , and the 76th overall episode of the series . It was written by co-producer Vali Chandrasekaran and directed by Beth McCarthy Miller . It originally aired on the National Broadcasting Company ( NBC ) network in the United States on April 22 , 2010 , following shortly after the episode " Lee Marvin vs. Derek Jeter " on the same night . Guest stars in this episode include Kapil Bawa and Subhas Ramsaywack . In the episode , Jack Donaghy ( Alec Baldwin ) distracts himself from his romantic problems by attempting to resolve a dispute between two janitors ( Bawa and Ramsaywack ) . Meanwhile , Liz Lemon ( Tina Fey ) is offended when she learns that her employees hang out outside of work but do not invite her . This episode of 30 Rock closely mirrored the feud between television hosts Jay Leno and Conan O 'Brien . " Khonani " received generally mixed reviews from television cr</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['hitler', 'holocaust', 'physics', 'jews', 'nazi', 'nuclear', 'germany', 'manhattan_project', 'atomic', 'berlin', 'jewish', 'nobel', 'german', 'munich', 'research']</t>
+          <t>['time', 'year', 'world', 'won', 'games', 'record', 'team', 'years', 'title', 'season', 'final', 'second', 'player', 'win', 'best']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Rickey Henderson = Rickey Nelson Henley Henderson ( born December 25 , 1958 ) is an American retired professional baseball left fielder who played in Major League Baseball ( MLB ) for nine teams from 1979 to 2003 , including four stints with his original team , the Oakland Athletics . Nicknamed " The Man of Steal " , he is widely regarded as baseball 's most reliable leadoff hitter and baserunner . He holds the major league records for career stolen bases , runs , unintentional walks and leadoff home runs . At the time of his last major league game in 2003 , the ten-time American League ( AL ) All-Star ranked among the sport 's top 100 all-time home run hitters and was its all-time leader in base on balls . In 2009 , he was inducted to the Baseball Hall of Fame on his first ballot appearance . Henderson also holds the single-season record for stolen bases ( 130 in 1982 ) and is the only player in AL history to steal 100 bases in a season , having done so three times . His 1,406 career </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>1960 Winter Olympics = The 1960 Winter Olympics was a winter multi-sport event held between February 18 – 28 , 1960 in Squaw Valley , California , United States . Squaw Valley was chosen to host the Games at the 1956 meeting of the International Olympic Committee ( IOC ) . It was an undeveloped resort in 1955 , so from 1956 to 1960 the infrastructure and all of the venues were built at a cost of US $ 80,000,000 . It was designed to be intimate , allowing spectators and competitors to walk to nearly all the venues . Squaw Valley hosted athletes from thirty nations who competed in four sports and twenty-seven events . Women 's speed skating and biathlon made their Olympic debuts . The organizers decided the bobsled events did not warrant the cost to build a venue , so for the first and only time bobsled was not on the Winter Olympic program . The Soviet Union dominated the medal count winning twenty-one medals , seven of which were gold . Soviet speed skaters Yevgeny Grishin and Lidiya S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t xml:space="preserve">Puerto Rico at the 2008 Summer Olympics = Puerto Rico competed in the 2008 Summer Olympics which was held in Beijing , People 's Republic of China from August 8 to August 24 , 2008 . The American territory with a population of four million people qualified 22 athletes in eight different sports . The appearance of the Puerto Rican delegation at the Beijing Olympics marked the commonwealth 's sixteenth consecutive appearance at the Summer Olympics , and its twenty-second appearance at any Olympic games , since its debut at the 1948 Summer Olympics in London , England . Of its competitors participating in events that involve progression by heats , six athletes advanced at least one round in their events , and two advanced at least two rounds , with Asunción Ocasio almost medaling bronze in taekwondo . However , there were no Puerto Rican medalists at the Beijing Olympics . McWilliams Arroyo , a boxer , bore Puerto Rico 's flag at the ceremonies . = = Background = = Puerto Rico is a large </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Trevor Hoffman = Trevor William Hoffman ( born October 13 , 1967 ) is an American former baseball relief pitcher who played 18 years in Major League Baseball ( MLB ) from 1993 to 2010 . A long-time closer , Hoffman pitched for the Florida Marlins , San Diego Padres , and the Milwaukee Brewers , including more than 15 years for the Padres . He was the major leagues ' first player to reach the 500- and 600-save milestones , and was the all-time saves leader from 2006 until 2011 . He currently serves as senior advisor for baseball operations for the Padres . Hoffman played shortstop collegiately at the University of Arizona and was drafted in the 11th round by the Cincinnati Reds . After not having much success batting , Hoffman was converted to a pitcher , as he was able to throw up to 95 miles per hour ( mph ) . The Marlins acquired him in the 1992 expansion draft , and he pitched in Florida until he was traded to the Padres mid-season in 1993 in a deal that sent star Gary Sheffield to </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Tony Parker = William Anthony " Tony " Parker Jr . ( born 17 May 1982 ) is a French professional basketball player for the San Antonio Spurs of the National Basketball Association ( NBA ) . The son of a professional basketball player , Parker played for two years in the French basketball league before entering the 2001 NBA draft . He was selected by the San Antonio Spurs with the 28th overall pick in the draft and quickly became their starting point guard . Parker has helped the Spurs win four NBA championships in 2003 , 2005 , 2007 and 2014 . Employing his pace and high field goal percentage to great effect , Parker has been named to six NBA All-Star games , three All-NBA Second Teams , and an All-NBA Third Team . He was also the 2007 NBA Finals MVP . Playing for the France national basketball team , Parker was named as the EuroBasket 2013 MVP following his team 's victory over Lithuania ( 80 – 66 ) in the gold medal game . The point guard finished as the tournament 's top scorer with</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['ride', 'coaster', 'roller', 'riders', 'train', 'flags', 'coasters', 'park', 'cedar', 'lift', 'attraction', 'drop', 'queue', 'trains', 'rides']</t>
+          <t>['game', 'player', 'mario', 'mega', 'gameplay', 'graphics', 'praised', 'enemies', 'players', 'ign', 'controls', 'gaming', 'sonic', 'arcade', 'console']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Asher Vollmer = Asher Vollmer ( born September 14 , 1989 ) is an American indie video game developer and creator of Puzzlejuice and Threes . He created the 2012 iOS game Puzzlejuice while a student at USC Interactive Media &amp; Games Division . The game began his collaboration with Greg Wohlwend . The pair 's next release , the 2014 iOS puzzle game Threes , received what review aggregator Metacritic described as " universal acclaim " , including perfect scores from Eurogamer and TouchArcade , and the title of Apple Inc . ' s iPhone game of the year . The game was later ported to multiple platforms . Polygon included Vollmer in their " 50 admirable gaming people " of the year for his work on Threes . Among other projects , Vollmer subsequently worked on Close Castles , a real-time strategy game later put on hiatus , and Royals , a simulation game for OS X and Windows . = = Career = = Vollmer is a graduate of the USC Interactive Media &amp; Games Division program . As a student , he began work </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>1979 Revolution : Black Friday = 1979 Revolution : Black Friday is an adventure interactive drama video game developed and published by iNK Studios , with assistance from by N-Fusion Interactive . It was released on April 5 , 2016 for Microsoft Windows and OS X , and on June 10 , 2016 for iOS devices . Players control Reza Shirazi , an aspiring photojournalist , who returns to Iran amidst the Iranian Revolution . As he becomes more involved in the events of the Revolution , Reza is forced to make decisions in order to survive . Players make timed responses throughout the game , determining the outcome of the plot . They are tasked with taking in-game photographs of their surroundings , and given historical background of the events . The game was in development for four years , and was created to combine elements from video games and documentaries with an engaging narrative . Game director Navid Khonsari , who was a child in Iran at the time of the Revolution , developed the game with t</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Silent Hill 3 = Silent Hill 3 is a survival horror video game published by Konami for the PlayStation 2 and developed by Team Silent , a production group within Konami Computer Entertainment Tokyo . It is the third installment in the Silent Hill series and a direct sequel to the first Silent Hill game . It was released in May 2003 , with a port to Microsoft Windows released in October of the same year . This is the only Silent Hill that didn 't make a release on Xbox but is a PlayStation 2 exclusive . A remastered high-definition version was released for the PlayStation 3 and the Xbox 360 on March 20 , 2012 . Set seventeen years after the events of Silent Hill in which Harry Mason defeats the god of the town cult and is given a baby girl to care for , Silent Hill 3 focuses on Heather Mason , a teenage girl raised by Harry in Portland . She discovers that the cult plans to use her to birth their god , and becomes caught in a conflict within the cult . Silent Hill 3 was mostly well recei</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Tobruk ( video game ) = Tobruk : The Clash of Armour is a turn-based strategy video game developed by Data Design Systems and published by Personal Software Services . It was exclusively released in the United Kingdom for the Commodore 64 , ZX Spectrum and Amstrad CPC in 1987 . It is the eleventh instalment of the Strategic Wargames series . The game is set during the 1941 Siege of Tobruk of the Western Desert Campaign in World War II and revolves around the Allied forces attempts to overthrow German field marshal Erwin Rommel from the city . The game is a turn-based strategy which focuses mainly on tank combat and contains elements of arcade gameplay . In the game , the player controls the Axis powers and must capture and hold various Allied bases in both Italian Libya and British Egypt , with the city of Tobruk being the ultimate goal . The game received mixed reviews upon release ; critics were divided over the gameplay and were largely negative over its interface and tank mechanics</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Seymour Goes to Hollywood = Seymour Goes to Hollywood , also known as Seymour at the Movies , is a platform and adventure game developed by Big Red Software and originally published in Europe by Codemasters in 1991 . Players control Seymour , a small potato-like creature who wishes to be a film star . The film 's script has been locked in a safe , meaning Seymour must solve puzzles by collecting and using objects scattered throughout the game in order to progress , ultimately retrieving the script and allowing filming to start . The game was originally designed as part of the Dizzy series , with a working title of Movieland Dizzy , but the creators of Dizzy disagreed with the real-world direction the game had taken , despite it being 90 % complete . The developers , Big Red Software , were given 12 weeks to create a new game with a different character . Seymour was adapted from Dizzy , with a new shape and fingers to differentiate the two . Seymour Goes to Hollywood received both posit</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['chicken', 'cheese', 'fried', 'sandwich', 'wine', 'dishes', 'recipes', 'dish', 'cream', 'cuisine', 'cooking', 'food', 'ingredients', 'bacon', 'meat']</t>
+          <t>['series', 'character', 'television', 'season', 'episodes', 'episode', 'characters', 'story', 'cast', 'dvd', 'aired', 'doctor', 'viewers', 'producer', 'seasons']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Adam ( Buffy the Vampire Slayer ) = Adam is a fictional character in the fourth season of the fantasy television series Buffy the Vampire Slayer . Portrayed by George Hertzberg , he is a monster created from a man and the collected parts of demons , vampires , and technology : the product of a perverse experiment carried out by military scientists . The series ' main character , Buffy Summers , encounters and ultimately defeats him in the fourth season . Adam is the creation of Dr. Maggie Walsh ( Lindsay Crouse ) , the head of a military-like organization called The Initiative that studies how to alter the harmful behavior inherent to demons . Adam and the Initiative are the fourth season 's primary antagonists , or Big Bad . The premise of the series is that Buffy ( Sarah Michelle Gellar ) is a Slayer , endowed with superhuman strength to fight vampires and evil creatures in the fictional town of Sunnydale . In the fourth season , Buffy begins attending college , where she discovers t</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Blackadder Goes Forth = Blackadder Goes Forth is the fourth and final series of the BBC sitcom Blackadder , written by Richard Curtis and Ben Elton , which aired from 28 September to 2 November 1989 on BBC One . The series placed the recurring characters of Blackadder , Baldrick and George in a trench in Flanders during World War I , and followed their various doomed attempts to escape from the trenches to avoid certain death under the misguided command of General Melchett . The series is particularly noted for its criticism of the British Army leadership during the campaign , and also refers to a number of famous figures of the age . In addition , the series is remembered for the poignant ending of the final episode . Despite initial concerns that the comedy series might trivialise the events of 1914 – 1918 , the series won widespread acclaim on its release , and won the British Academy Television Award for Best Comedy Series in 1989 . It has since become regarded as a classic televis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>201 ( South Park ) = " 201 " is the sixth episode of the fourteenth season of South Park , and the 201st overall episode of the series . It originally aired on Comedy Central in the United States on April 21 , 2010 . The episode continued multiple storylines from the previous episode , " 200 " , in which a group of angry celebrities demand South Park produce the Muslim prophet Muhammad . In " 201 " , a superhero-like group of religious figures team up to save South Park from the celebrities and their monster Mecha-Streisand , while Eric Cartman learns the true identity of his father . The episode was written and directed by series co-creator Trey Parker . Like " 200 " , it alludes to several past storylines and controversies from previous South Park episodes , especially Comedy Central 's refusal to show images of Muhammad on the network following controversies in 2005 and 2007 when cartoons depicting Muhammad ran in European newspapers , resulting in riots and threats . Prior to the b</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Helen Magnus = Dr. Helen Magnus is the series protagonist and central character of the Canadian fantasy-science fiction television series Sanctuary . She is portrayed by Amanda Tapping . In the series , Magnus is a life scientist from Victorian era England , who currently runs the global Sanctuary Network , an organization tasked with finding a series of creatures called " abnormals " , and later bring them to a Sanctuary base for refuge to protect them from the human population . The character is over two and a half centuries old , having been given her advanced longevity by injecting herself with vampire blood , as well as reliving the 20th century from time travel . After traveling back in time , Magnus had to avoid people so she isolated herself . In the season 4 finale " Sanctuary For None : Part 2 " It was revealed that Magnus spent the 113 years creating a new Sanctuary . Tapping was offered a part in the original web series by series creator Damian Kindler and director Martin W</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Grey 's Anatomy ( season 1 ) = The first season of the American television medical drama Grey 's Anatomy , began airing in the United States on the American Broadcasting Company ( ABC ) on March 27 , 2005 and concluded on May 22 , 2005 . The first season introduces the main character , Meredith Grey , as she enrolls in Seattle Grace Hospital 's internship program and faces unexpected challenges and surprises . Season one had nine series regulars , four of whom have been part of the main cast ever since . The season initially served as a mid-season replacement for the legal drama Boston Legal , airing in the Sunday night time slot at 10 : 00 , after Desperate Housewives . Although no clip shows have been produced for this season , the events that occur are recapped in " Straight to Heart " , a clip-show which aired one week before the winter holiday hiatus of the second season ended . The season was officially released on DVD as two-disc Region 1 box set under the title of Grey 's Anato</t>
         </is>
       </c>
     </row>
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['buenos_aires', 'soviet', 'argentina', 'argentine', 'revolution', 'cuban', 'dictator', 'drug', 'government', 'soviet_union', 'mafia', 'cuba', 'spanish', 'political', 'spain']</t>
+          <t>['campaign', 'said', 'announced', 'stated', 'saying', 'support', 'election', 'media', 'party', 'political', 'criticized', 'government', 'president', 'leader', 'presidential']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Baltimore mayoral election , 1999 = On November 2 , 1999 , the city of Baltimore , Maryland , elected a new mayor , the 47th in the city 's history . Primary elections were held to determine the nominees for the Democratic Party and Republican Party on September 14 . Incumbent mayor Kurt Schmoke , a Democrat , opted not to run for reelection . Martin O 'Malley , a member of the Baltimore City Council , won the election to succeed Schmoke . Because Baltimore 's electorate is overwhelmingly Democratic , whoever won the Democratic primary election was seen as the favorite over the Republican nominee in the general election . Baltimore 's large African American population initially made it seem likely that the next mayor would also be African American . Kweisi Mfume was the preferred candidate of local politicians , but he opted not to run . Though Carl Stokes and Lawrence Bell , members of the City Council , declared for the race , local leaders were underwhelmed with the quality of decla</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Sibu by-election , 2010 = The Sibu by-election , 2010 was a by-election for the seat of Sibu in the Parliament of Malaysia . The Sarawak-based seat fell vacant after the death of its incumbent member , Robert Lau Hoi Chew , from liver cancer on 9 April 2010 . The seat was defended for the Barisan Nasional coalition government by Robert Lau Hui Yew of the Sarawak United Peoples ' Party ( SUPP ) , while Sarawak State Assemblyman Wong Ho Leng contested the poll for the Democratic Action Party ( DAP ) in the Pakatan Rakyat opposition coalition . Wong won the election by 398 votes , wresting the seat from the Barisan Nasional . At the time of the election there were 54,695 registered voters , a majority of whom were ethnic Chinese . In the previous general election in 2008 , the incumbent , Hoi Chew retained the seat with a 3,235-vote majority against Wong Ho Leng , and Lim Chin Chuang of the People 's Justice Party . The Sibu seat had been last won by the DAP in 1982 , but had since been w</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t xml:space="preserve">Jon Corzine = Jon Stevens Corzine ( born January 1 , 1947 ) is an American financial executive and former politician . A Democrat , he was a United States Senator from New Jersey from 2001 to 2006 and was the 54th Governor of New Jersey from 2006 to 2010 . He also worked as CEO of Goldman Sachs during the 1990s and was CEO of MF Global from 2010 to 2011 . He was charged by the Commodity Futures Trading Commission ( CFTC ) in connection with MF 's bankruptcy in 2011 . Corzine began his career in banking and finance . In the early and mid-1970s , he worked for Midwestern banks ( Continental-Illinois National Bank in Chicago , Illinois and BancOhio National Bank in Columbus , Ohio ) during and after his Master of Business Administration ( MBA ) studies at the University of Chicago Booth School of Business . In 1975 he moved to New Jersey to work for Goldman Sachs . He became Chairman and CEO of Goldman Sachs and the leading advocate in the firm 's decision to go public . In 1999 , having </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Asif Ali Zardari = Asif Ali Zardari ( Urdu : آصف علی زرداری ) Sindhi : آصف علي زرداري ) ; born 26 July 1955 ) is a Pakistani politician and current co-chairperson of Pakistan People 's Party . He served as the 11th President of Pakistan from 2008 to 2013 . A landowner from Sindh , Zardari rose to prominence after his marriage to Benazir Bhutto in 1987 , becoming the First Gentleman after his wife was elected Prime Minister in 1988 . When Bhutto 's government was dismissed by President Ghulam Ishaq Khan in 1990 , Zardari was widely criticized for involvement in corruption scandals that led to its collapse . When Bhutto was reelected in 1993 , Zardari served as Federal Investment Minister and Chairperson Pakistan Environmental Protection Council in her second administration . Following increasing tensions between Bhutto 's brother Murtaza and Zardari , Murtaza was killed in a police encounter in Karachi on 20 September 1996 . Bhutto 's government was dismissed a month later by President </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Tony Benn = Anthony Neil Wedgwood Benn ( 3 April 1925 – 14 March 2014 ) , originally known as Anthony Wedgwood Benn or Wedgie Benn , but later as Tony Benn , was a British politician who was a Member of Parliament ( MP ) for 47 years between the 1950 and 2001 general elections and a Cabinet minister in the Labour governments of Harold Wilson and James Callaghan in the 1960s and 1970s . Originally a " moderate " , he was identified as being on the party 's hard left from the early 1980s , and was widely seen as a key proponent of democratic socialism within the party . Benn inherited a peerage on his father 's death ( as 2nd Viscount Stansgate ) , which prevented his continuing as an MP . He fought to remain in the House of Commons , and then campaigned for the ability to renounce the title , a campaign which succeeded with the Peerage Act 1963 . In the Labour Government of 1964 – 70 he served first as Postmaster General , where he oversaw the opening of the Post Office Tower , and late</t>
         </is>
       </c>
     </row>
@@ -1666,32 +1666,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['twitter', 'cylinder', 'cylinders', 'vehicle', 'watson', 'vehicles', 'toyota', 'users', 'model', 'models', 'gas', 'car', 'electric', 'engine', 'valve']</t>
+          <t>['member', 'served', 'elected', 'governor', 'committee', 'serving', 'worked', 'election', 'appointed', 'kentucky', 'married', 'resigned', 'attended', 'born', 'fellow']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Lazarus W. Powell = Lazarus Whitehead Powell ( October 6 , 1812 – July 3 , 1867 ) was the 19th Governor of Kentucky , serving from 1851 to 1855 . He was later elected to represent Kentucky in the U.S. Senate from 1859 to 1865 . The reforms enacted during Powell 's term as governor gave Kentucky one of the top educational systems in the antebellum South . He also improved Kentucky 's transportation system and vetoed legislation that he felt would have created an overabundance of banks in the Commonwealth . Powell 's election as governor marked the end of Whig dominance in Kentucky . Powell 's predecessor , John J. Crittenden , was the last governor elected from the party of the Commonwealth 's favorite son , Henry Clay . Following his term as governor , Powell was elected to the U.S. Senate . Before he could assume office , President James Buchanan dispatched Powell and Major Benjamin McCulloch to Utah to ease tensions with Brigham Young and the Mormons . Powell assumed his Senate seat </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>J. Proctor Knott = James Proctor Knott ( August 29 , 1830 – June 18 , 1911 ) was a U.S. Representative from Kentucky and served as the 29th Governor of Kentucky from 1883 to 1887 . Born in Kentucky , he moved to Missouri in 1850 and began his political career there . He served as Missouri Attorney General from 1859 to 1861 , when he resigned rather than swear an oath of allegiance to the federal government just prior to the outbreak of the Civil War . Knott was disbarred and briefly imprisoned for his refusal to take the oath of allegiance . He returned to Kentucky in 1863 and was elected to the U.S. House of Representatives . In 1871 , he made a notable speech ridiculing a bill to subsidize westward expansion of railroads . In the speech , he lampooned the remote town of Duluth , Minnesota . The Duluth speech was eventually reprinted in several publications and brought Knott national acclaim . He did not stand for re-election in 1870 , instead making a failed run for the office of gov</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Henry Adams Thompson = Henry Adams Thompson ( March 23 , 1837 – July 8 , 1920 ) was an American prohibitionist and professor who was the vice-presidential nominee of the Prohibition Party in 1880 . Thompson was a native of Pennsylvania , but spent much of his career in Ohio . He became a member of the United Brethren church and taught mathematics at several United Brethren colleges in the Midwest . Thompson served as president of Otterbein University from 1872 to 1886 . Much of his time as college president was devoted to improving the financial standing of the school during the economic depression that followed the Panic of 1873 . Initially a Republican , he became an early member of the Prohibition Party . His attempt at election to the vice presidency in 1880 , running on a ticket with Neal Dow of Maine , was the party 's best showing to date , but they still placed a distant fourth to the eventual winners , James A. Garfield and Chester A. Arthur . He ran for office under the Prohi</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Robert Q. Marston = Robert Quarles Marston ( February 12 , 1923 – March 14 , 1999 ) was an American physician , research scientist , governmental appointee and university administrator . Marston was a native of Virginia , and , after earning his bachelor 's , medical and research degrees , he became a research scientist and medical professor . He served as the dean of the University of Mississippi School of Medicine , the director of the National Institutes of Health , and the president of the University of Florida . = = Early life and education = = He was born in Toano , Virginia , a small unincorporated community near Williamsburg , in 1923 . He graduated from the Virginia Military Institute ( VMI ) in Lexington , Virginia with a bachelor of science degree in 1944 . While attending the Medical College of Virginia ( MCV ) in Richmond , Virginia , he married Ann Carter Garnett in 1946 . Following his graduation from MCV with a doctor of medicine degree ( M.D. ) in 1947 , he received a </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Beriah Magoffin = Beriah Magoffin ( April 18 , 1815 – February 28 , 1885 ) was the 21st Governor of Kentucky , serving during the early part of the Civil War . Personally , Magoffin adhered to a states ' rights position , including the right of a state to secede from the Union , and he sympathized with the Confederate cause . Nevertheless , when the Kentucky General Assembly adopted a position of neutrality in the war , Magoffin ardently held to it , refusing calls for aid from both the Union and Confederate governments . In special elections held in June 1861 , Unionists captured nine of Kentucky 's ten congressional seats and obtained two-thirds majorities in both houses of the state legislature . Despite Magoffin 's strict adherence to the policy of neutrality , the Unionist legislature did not trust him and routinely overrode his vetoes . Unable to provide effective leadership due to a hostile legislature , Magoffin agreed to resign as governor in 1862 , provided he could choose hi</t>
         </is>
       </c>
     </row>
@@ -1701,32 +1701,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['fiction', 'gay', 'stories', 'pulp', 'lgbt', 'science', 'magazine', 'lesbian', 'comics', 'fantasy', 'issue', 'magazines', 'comic', 'hugo', 'published']</t>
+          <t>['daily', 'trunkline', 'roadway', 'national_highway_system', 'travels', 'designated', 'surveys', 'entire', 'paved', 'intersections', 'designation', 'traveling', 'terminus', 'rural', 'mdot']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Nevada State Route 28 = State Route 28 ( SR 28 ) is a 16.2-mile ( 26.1 km ) road that runs along the northeastern shore of Lake Tahoe . SR 28 starts at US 50 and ends at the California state line at Crystal Bay , continuing across the border as SR 28 . SR 28 is part of the National Scenic Byway system since September 1996 , and the state scenic byway system since June 1994 . The highway serves Douglas County and Washoe County as well as a rural part of Carson City . SR 28 was designated in 1948 , and has not significantly changed since it was first paved . = = Route description = = SR 28 begins at U.S. Route 50 ( US 50 ) in Douglas County , Nevada . It heads north from there , forming part of the boundary of Lake Tahoe – Nevada State Park until crossing into Carson City . The highway then enters Washoe County , where the highway enters Humboldt-Toiyabe National Forest . It then turns northwest , running through Incline Village . In western Incline Village , SR 28 junctions with SR 431 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>M-212 ( Michigan highway ) = M-212 is a state trunkline highway in the US state of Michigan . The highway was designated in order to provide access from M-33 to both the small community of Aloha on the eastern shore of Mullett Lake , as well as to Aloha State Park , where the highway ends . M-212 is the shortest signed state highway in Michigan , beating out the second shortest , M-239 , which registers at 1.136 miles ( 1.828 km ) . M-212 even beats out Michigan 's shortest signed business route , BUS M-32 in Hillman , which comes in at 0.738 miles ( 1.188 km ) , only about six-thousandths of a mile longer , or about 32 feet ( 9.8 m ) . M-212 was assigned on December 29 , 1937 , from the intersection with Second Street to an intersection with US Highway 23 ( US 23 ) . In 1940 , the state of Michigan rerouted US 23 and replaced it with M-33 . = = Route description = = M-212 begins at an intersection with Second Street and the Tromble Trail north of the entrance to Aloha State Park in th</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Manitoba Provincial Road 280 = Provincial Road 280 ( PR 280 ) is a road in the Canadian province of Manitoba . It runs from PR 391 northwest of Thompson to local streets in Gillam . The route is 291 kilometres ( 181 mi ) long , which during its length , passes several large lakes and intersects with one provincial road , PR 290 , just north of Gillam . The route is very scenic , passing through dense forests and rural lands . The route supplies three municipalities , Thompson , Split Lake , and Gillam . From its terminus north of Thompson , Manitoba to the town Gillam , PR 280 is classified as a Class A1 Provincial Route . PR 280 was designated in 1987 as a connector from Thompson to Gillam with a spur to Sundance . = = Route description = = PR 280 begins at an intersection north of Thompson on the shores of Birch Tree Lake with PR 391 . PR 280 runs northeast from PR 391 as a two-lane gravel road through the dense woods north of Thompson Airport . As the road bends to the northeast , i</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>K-17 ( Kansas highway ) = K-17 was a 21.138-mile-long ( 34.018 km ) state highway in Kansas that served Kingman and Reno counties . The route originated at an intersection with U.S. Route 54 ( US-54 ) and US-400 south of the unincorporated community of Waterloo and ended at K-96 south of South Hutchinson . The road was maintained by the Kansas Department of Transportation ( KDOT ) , and was a two-lane road for its entire length . The route was designated in 1932 . When originally designated , K-17 ran north to an intersection with US-81 near McPherson . Between 1957 and 1962 , a series of changes to the route shortened it and brought its northern terminus to an intersection with K-96 near South Hutchinson . The route was decommissioned in 2013 . = = Route description = = K-17 began at a diamond interchange with US-54 and US-400 near Waterloo in Kingman County and ran north on a two-lane road . The route passed a cemetery just north of its southern terminus and continued north through l</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Ontario Highway 405 = King 's Highway 405 , also known as Highway 405 and the General Brock Parkway , is a 400-Series Highway in the Canadian province of Ontario connecting the Queen Elizabeth Way ( QEW ) near St. Catharines with the Lewiston – Queenston Bridge in the village of Queenston . It then crosses the Niagara River , where it encounters the international border with the United States and continues into New York as Interstate 190 ( I-190 ) . Designated and under construction by 1960 , the short freeway was opened to traffic on September 11 , 1963 . Since that time , an interchange was added in 1969 and another removed in 2004 . On August 13 , 2006 , Highway 405 was dedicated the General Brock Parkway . The entire length of Highway 405 is patrolled by the Ontario Provincial Police ( OPP ) . = = Route description = = Highway 405 serves to connect the northern end of I-190 in New York at the Lewiston – Queenston Bridge with the QEW , and as such it follows a somewhat direct path b</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['nickelodeon', 'patrick', 'dvd', 'bikini', 'episodes', 'animation', 'kenny', 'voice', 'kids', 'storyboard', 'episode', 'animated', 'lawrence', 'character', 'television']</t>
+          <t>['song', 'video', 'number', 'single', 'chart', 'performed', 'peaked', 'weeks', 'carey', 'debuted', 'rihanna', 'hot', 'background', 'week', 'girl']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Say Yes ( Michelle Williams song ) = " Say Yes " is a song recorded by American recording artist Michelle Williams , taken from her fourth studio album Journey to Freedom ( 2014 ) . It features Williams ' former Destiny 's Child groupmates Beyoncé and Kelly Rowland . The song was written by Williams , Carmen Reece , Al Sherrod Lambert and Harmony Samuels who also produced it . E1 Music released " Say Yes " as the album 's third single on June 2 , 2014 . " Say Yes " marks the third time the trio collaborated as solo artists following the disbandment of their group in 2006 . Musically , " Say Yes " is an uptempo gospel and pop song , which takes influence from dance music . It samples a popular Nigerian gospel tune originally titled " When Jesus Says Yes " . Upon release , " Say Yes " received generally favorable reviews from contemporary music critics who called the song infectious and praised its catchiness . Commercially the song performed well on the gospel charts in the US , peaking</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Objection ( Tango ) = " Objection ( Tango ) " is a song recorded by Colombian singer-songwriter Shakira for her fifth studio album and first English-language album Laundry Service ( 2001 ) . It was the first song Shakira wrote in English after being encouraged by American singer Gloria Estefan to record material in the language . She also produced the track along with Lester Mendez . " Objection ( Tango ) " musically combines elements of pop rock and tango , and contains instrumentation from the bandoneón and guitar . Through the lyrics of the song , Shakira aims to end a love triangle she is a part of . The song was released as the third single from the album on 6 July 2002 . A Spanish version of the song , entitled " Te Aviso , Te Anuncio ( Tango ) " ( " I 'm Warning You , I 'm Telling You " ) , was also recorded by the singer . Upon its release , " Objection ( Tango ) " received generally favourable reviews from music critics , some of whom found it similar to the work of American n</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Remember the Time = " Remember the Time " is a single by American singer-songwriter Michael Jackson recorded at Record One Studios . The song was released by Epic Records on January 14 , 1992 , as the second single from Jackson 's eighth studio album , Dangerous . Written and composed by Teddy Riley , Michael Jackson and Bernard Belle , the song was produced by Riley and Jackson . " Remember the Time " was a successful attempt by Jackson to create a dance-oriented , new jack swing-flavored jam with the accompaniment of co-producer Riley . The lyrics are about remembering being in love with someone . " Remember the Time " was generally well received by contemporary critics . The song was commercially successful , peaking at number three on the Billboard Hot 100 singles chart and number one on Billboard 's R &amp; B singles chart . Internationally , the song was a top ten hit in nine countries , peaking at number one in New Zealand , as well at number two in Spain and three in the United Kin</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t xml:space="preserve">Say It Right = " Say It Right " is a song by Canadian singer Nelly Furtado from her third studio album Loose ( 2006 ) . Written by Furtado , Tim " Timbaland " Mosley and Nate " Danja " Hills , the song was inspired by , as Furtado described it , the " spooky , keyboard-driven pop sound " of the band Eurythmics , specifically their 1983 song titled , " Here Comes the Rain Again " . The song released as the album 's third single in North America and Australia ( see 2006 in music ) . The song served as the album 's fourth single in certain European and Asian countries . It was released digitally in the United Kingdom in March 2007 . It was the album 's fifth single in Latin America . " Say It Right " attained worldwide success , topping the charts in more than seven countries , including the United States , France , New Zealand and many European countries . The accompanying music video for the song , directed by Rankin &amp; Chris , portrays Furtado singing in various costumes and in various </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Fearless ( Taylor Swift song ) = " Fearless " is a country pop song performed by American singer-songwriter Taylor Swift . The song was co-written by Swift in collaboration with Liz Rose and Hillary Lindsey and produced by Nathan Chapman and Swift . " Fearless " was released on January 3 , 2010 by Big Machine Records as the fifth and final single from Swift 's second studio album of the same name ( 2008 ) . Swift composed the song while traveling on tour to promote her eponymous debut album , Taylor Swift ( 2006 ) . She wrote " Fearless " in regard to the fearlessness of falling in love and eventually titled her second studio album after the song . Musically , it contains qualities commonly found in pop rock music and , lyrically , is about a perfect first date . " Fearless " received acclaim from contemporary critics , many of whom complimented it for appealing to different age groups . In the United States , " Fearless " debuted and peaked at number 9 on the Billboard Hot 100 and was</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['scottish', 'scotland', 'painting', 'edinburgh', 'architecture', 'houses', 'century', 'churches', 'scots', 'bricks', 'portrait', 'highlands', 'glasgow', 'brick', 'portraits']</t>
+          <t>['war', 'following', 'german', 'april', 'training', 'japanese', 'division', 'attack', 'march', 'assigned', 'transferred', 'november', 'december', 'command', 'commander']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Military career of Audie Murphy = The military career of Audie Murphy ( 20 June 1925 – 28 May 1971 ) encompassed two separate careers . His U. S. Army service covered nine World War II campaigns fought by the 3rd Infantry Division : Tunisia , Sicily , Naples-Foggia , Anzio , Rome-Arno , Southern France , Ardennes-Alsace , Rhineland and Central Europe . He lied about his age to enlist in the United States Army in 1942 . Before his 20th birthday he had earned every Army combat award for valor available during his period of service and had risen to the rank of first lieutenant . On the day he was awarded the Medal of Honor for his January 1945 actions at the Colmar Pocket in France , he was considered to be America 's most decorated World War II soldier and received national recognition as such when Life magazine made him their cover story . His superior officers , as well as the Speaker of the U. S. House of Representatives , encouraged him to apply for enrollment at West Point and offer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Wehrmacht forces for the Ardennes Offensive = This is a sub-article of Battle of the Bulge The Wehrmacht forces for the Ardennes Offensive were the product of a German recruitment effort targeting German males between the ages of 16 and 60 , to replace troops lost during the past five months of fighting the Western Allies on the Western Front . Although the Wehrmacht ( German Armed Forces ) was keeping the Allied forces contained along the Siegfried Line , the campaign had cost the Wehrmacht nearly 750,000 casualties , mostly irreplaceable . However , the rapid advance of the Allied armies in August and September after Operation Overlord had created a supply problem for the Allies . By October , the progress of the Western Allies ' three army groups had slowed considerably , allowing the Germans to partly rebuild their strength and prepare for the defense of Germany itself . The German leader , Adolf Hitler , decided that the only way to reverse his fortunes would be to launch a counte</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>George Ingram = George Morby Ingram , VC , MM ( 18 March 1889 – 30 June 1961 ) was an Australian recipient of the Victoria Cross , the highest decoration for gallantry " in the face of the enemy " that can be awarded to members of the British and Commonwealth armed forces . Ingram became Australia 's final recipient of the Victoria Cross during the First World War following his actions during an attack on the village of Montbrehain in France . Leading a platoon during the engagement , he instigated several charges against a number of German strong points that eventuated in the seizure of ten machine guns and sixty-two prisoners , as well as inflicting high casualties . Born in the Victorian town of Bendigo , Ingram was apprenticed as a carpenter and joiner upon leaving school . Joining the militia at the age of fourteen , he later settled in Melbourne where he worked as a building contractor . Following the outbreak of the First World War , Ingram enlisted in the Australian Naval and M</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Ernest R. Kouma = Ernest Richard Kouma ( November 23 , 1919 – December 19 , 1993 ) was a soldier in the United States Army during World War II and the Korean War . He rose to the rank of Master Sergeant and received the Medal of Honor for his actions on August 31 and September 1 , 1950 , during the Second Battle of Naktong Bulge in South Korea . Born in Nebraska , Kouma grew up on a family farm before enlisting in the US Army in 1940 . Kouma served as a tank commander during World War II , seeing combat in Germany with the 9th Armored Division from 1944 to 1945 . After that war , Kouma served as part of the occupation force in South Korea and Japan . On the outbreak of the Korean War , Kouma commanded an M26 Pershing tank in the 2nd Infantry Division . While fighting during the Battle of Pusan Perimeter along the Naktong River , Kouma commanded his tank as it single-handedly fended off repeated North Korean attempts to cross the river after units around it had withdrawn . Wounded twice</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Long Range Desert Group = The Long Range Desert Group ( LRDG ) was a reconnaissance and raiding unit of the British Army during the Second World War . Originally called the Long Range Patrol ( LRP ) , the unit was founded in Egypt in June 1940 by Major Ralph A. Bagnold , acting under the direction of General Archibald Wavell . Bagnold was assisted by Captain Patrick Clayton and Captain William Shaw . At first the majority of the men were from New Zealand , but they were soon joined by Southern Rhodesian and British volunteers , whereupon new sub-units were formed and the name was changed to the better-known Long Range Desert Group ( LRDG ) . The LRDG never numbered more than 350 men , all of whom were volunteers . The LRDG was formed specifically to carry out deep penetration , covert reconnaissance patrols and intelligence missions from behind Italian lines , although they sometimes engaged in combat operations . Because the LRDG were experts in desert navigation they were sometimes a</t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['hebrew', 'text', 'manuscripts', 'gospel', 'jesus', 'manuscript', 'matthew', 'john', 'biblical', 'luke', 'greek', 'printing', 'readings', 'scholars', 'letters']</t>
+          <t>['rainfall', 'meteorological', 'preparations', 'watch', 'florida', 'flooding', 'damage', 'winds', 'hurricane', 'issued', 'reported', 'rain', 'landfall', 'mexico', 'usd']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Hurricane Josephine ( 1984 ) = Hurricane Josephine was a long-lived Atlantic hurricane that threatened the East Coast of the United States for several days in October 1984 . The fifteenth tropical cyclone , tenth named storm , and third hurricane of the season , Josephine developed from an area of disturbed weather near the Bahamas on October 7 , forming with subtropical characteristics . It quickly organized , and gained tropical characteristics as it strengthened into a tropical storm on October 8 . Gradual intensification occurred thereafter , reaching hurricane status on October 10 . The storm headed northward , remaining well offshore of the eastern United States . Josephine strengthened further and peaked as a moderately strong Category 2 hurricane on the Saffir-Simpson Hurricane Scale on October 12 . On the following day , Josephine weakened back to a Category 1 hurricane before becoming nearly stationary . It later headed northeastward and paralleled the coast well offshore of </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>1909 Monterrey hurricane = The 1909 Monterrey hurricane was one of the deadliest Atlantic tropical cyclones on record , killing an estimated 4,000 people throughout Mexico . Originating from a tropical storm east of the Leeward Islands on August 20 , the storm tracked west-northwest , entering the Caribbean Sea as a minimal hurricane the next day . After striking Hispaniola on August 23 , the hurricane made another landfall in eastern Cuba before reentering the Caribbean . Once back over open water , the storm intensified into a Category 3 hurricane and moved across the northern tip of the Yucatán Peninsula . By August 26 , the storm had emerged into the Gulf of Mexico as a weakened , but regrouping system . It attained its peak winds of 120 mph ( 185 km / h ) that evening . Maintaining this intensity , the system made landfall in the Mexican state of Tamaulipas late on August 27 and rapidly dissipated the following afternoon . Throughout its existence , the hurricane remained relative</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Hurricane Danny ( 2015 ) = Hurricane Danny in August 2015 was the first major hurricane to develop between the Lesser Antilles and Western Africa since Hurricane Julia in 2010 . The hurricane originated from a well-defined tropical wave that emerged over the Atlantic Ocean on August 14 . Traveling west , the system gradually coalesced into a tropical depression by August 18 . After becoming a tropical storm later that day , dry air slowed further development . On August 20 – 21 , dry air became removed from the system , and Danny rapidly intensified into a Category 3 on the Saffir – Simpson hurricane wind scale . Its peak was short-lived as wind shear soon increased and prompted significant weakening . Degrading to a tropical storm by August 23 , Danny approached the Lesser Antilles . It degenerated into a tropical wave as it traversed the archipelago on August 24 and was last noted over Hispaniola the following day . The hurricane prompted the issuance of several tropical storm warnin</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>1942 Belize hurricane = The 1942 Belize hurricane was the only known hurricane to strike Belize in the month of November . The thirteenth observed tropical cyclone , eleventh tropical storm , and fourth hurricane of the 1942 Atlantic hurricane season , this storm was detected in the vicinity of Turks and Caicos Islands on November 5 . Initially a tropical storm , it strengthened slowly while moving westward and then south-southwestward across the Bahamas . On November 6 , the storm became a Category 1 hurricane on the modern day Saffir – Simpson hurricane wind scale . Later that day , it made landfall in Cayo Romano , Camagüey Province , Cuba . Impact in Cuba and the Bahamas was limited to lower barometric pressure readings and strong winds . While crossing Cuba , the system weakened to a tropical storm early on November 7 , shortly before emerging into the Caribbean Sea . The storm re-strengthened into a hurricane later that day and headed southwestward . Late on November 8 , this sys</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Tropical Storm Laura ( 2008 ) = Tropical Storm Laura was a large but short-lived tropical cyclone that developed over the north-central Atlantic Ocean in late September during the 2008 Atlantic hurricane season . The 12th named storm of the season , Laura formed out of a large extratropical area of low pressure located about 1015 miles ( 1635 km ) west of the Azores on September 29 . Laura slowly developed tropical characteristics throughout the day as it moved over warmer waters . On the afternoon of September 30 , Laura had acquired enough tropical characteristics to be designated a Tropical Storm . Shortly after being declared tropical , Laura began to undergo an extratropical transition , which did not fully take place until the morning of October 1 . Laura degenerated into a post-tropical cyclone later that morning , and the final advisory by the National Hurricane Center was issued . The remnants of Laura contributed to heavy rainfall and power outages in the British Isles , the </t>
         </is>
       </c>
     </row>
@@ -1841,32 +1841,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['comics', 'story', 'belgian', 'adventures', 'snowy', 'moon', 'brussels', 'cartoonist', 'comic', 'depiction', 'belgium', 'adventure', 'sun', 'explorers', 'book']</t>
+          <t>['rating', 'office', 'jim', 'dwight', 'episode', 'aired', 'nbc', 'watching', 'nielsen', 'michael', 'pam', 'share', 'rated', 'viewed', 'ratings']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>The Convict = " The Convict " is the ninth episode of the third season of the American comedy television series The Office , and the show 's 37th overall . It first aired on November 30 , 2006 in the United States on NBC . The episode was the series ' only original script written by Ricky Gervais and Stephen Merchant , who are the creators of the original British comedy series of the same name . It was directed by Jeffrey Blitz , his first such credit of the series . The series depicts the everyday lives of office employees in the Scranton and Stamford branches of the fictional Dunder Mifflin Paper Company . In this episode , Michael Scott ( Steve Carell ) discovers that an employee named Martin Nash ( Wayne Wilderson ) , who came with the branches ' recent merger , was previously in prison . Michael becomes frustrated when Martin 's stories of prison sound better than working in the office . Meanwhile , Jim Halpert ( John Krasinski ) plays a prank on Pam Beesly ( Jenna Fischer ) by gi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Jackie Jormp-Jomp = " Jackie Jormp-Jomp " is the eighteenth episode of the third season of the American television series 30 Rock . It was directed by series producer Don Scardino , and written by executive story editor Kay Cannon and script co-coordinator Tracey Wigfield . The episode originally aired on the National Broadcasting Company ( NBC ) in the United States on April 16 , 2009 . Guest stars in the episode include Todd Buonopane , Kerry Butler , Danielle Flora , Mary Catherine Garrison , Christina Gausas , and Elizabeth Marvel . In the episode , Liz Lemon ( Tina Fey ) meets a new group of friends ( Butler , Garrison , Gausas , and Marvel ) while on suspension from work . Meanwhile , Jack Donaghy ( Alec Baldwin ) is worried that Jenna Maroney 's ( Jane Krakowski ) Janis Joplin biographical film will not get released and tries to promote the movie at the Kids ' Choice Awards . However , following a mix-up , the world believes Jenna is dead and Jack tries to use her death to furth</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t xml:space="preserve">The Inner Circle ( The Office ) = " The Inner Circle " is the twenty-third episode of the seventh season of the American comedy television series The Office and the show 's 149th episode overall . The episode originally aired on May 5 , 2011 , on NBC . The episode also marked Will Ferrell 's final appearance as Deangelo , having signed up for four episodes . Cody Horn also makes her first guest appearance for the series as Jordan Garfield . The series depicts the everyday lives of office employees in the Scranton , Pennsylvania branch of the fictional Dunder Mifflin Paper Company . In this episode , new office manager Deangelo begins picking favorites among the staff , revealing his true management style . After he only picks men to join his " inner circle " , many of the female staffers begin to believe he is sexist . The episode was written by Charlie Grandy and directed by Matt Sohn . The episode marks the first episode since Steve Carell left the series as a series regular . " The </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>The Collection ( 30 Rock ) = " The Collection " is the third episode of NBC 's second season of 30 Rock , and the twenty-fourth episode overall . It was written by producer Matt Hubbard and directed by producer Don Scardino , and first aired on October 18 , 2007 in the United States . In the episode , Jack Donaghy ( Alec Baldwin ) hires a private detective , Len ( Steve Buscemi ) , to investigate his past ; Angie Jordan ( Sherri Shepherd ) asks Liz Lemon ( Tina Fey ) to help her watch Tracy Jordan ( Tracy Morgan ) ; and Kenneth Parcell ( Jack McBrayer ) attempts to help Jenna Maroney ( Jane Krakowski ) gain weight by insulting her . The episode features a reference to Studio 60 on the Sunset Strip , which was compared to 30 Rock because of their similar premise . This is a recurring element in the series , as well as references to other aspects of popular culture . " The Collection " received generally positive reviews , however several critics expressed their concern over the misuse o</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Free Family Portrait Studio = " Free Family Portrait Studio " is the twenty-fourth episode and season finale of the eighth season of the American comedy television series The Office , and the show 's 176th episode overall . The episode originally aired on NBC on May 10 , 2012 . " Free Family Portrait Studio " was written and directed by B. J. Novak , who also wrote and directed the season premiere " The List " . The episode guest stars Andy Buckley , Jack Coleman , Sendhil Ramamurthy , Jerry Minor , and Michael Schur . The series — presented as if it were a real documentary — depicts the everyday lives of office employees in the Scranton , Pennsylvania , branch of the fictional Dunder Mifflin Paper Company . In the episode , David Wallace ( Andy Buckley ) helps Andy Bernard ( Ed Helms ) go undercover and stage a coup , and a new opportunity arises for Robert California ( James Spader ) . " Free Family Portrait Studio " received mixed reviews from critics , with many noting that the epi</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['spacecraft', 'apollo', 'nasa', 'lunar', 'mission', 'orbit', 'launch', 'moon', 'saturn', 'module', 'manned', 'docking', 'landing', 'flight', 'space']</t>
+          <t>['species', 'small', 'female', 'large', 'male', 'found', 'larger', 'size', 'long', 'shark', 'dorsal', 'head', 'adult', 'waters', 'body']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Malacostraca = Malacostraca is the largest of the six classes of crustaceans , containing about 40,000 living species , divided among 16 orders . Its members , the malacostracans , display a great diversity of body forms and include crabs , lobsters , crayfish , shrimp , krill , woodlice , scuds ( Amphipoda ) , mantis shrimp and many other less familiar animals . They are abundant in all marine environments and have colonised freshwater and terrestrial habitats . They are segmented animals , united by a common body plan comprising 20 body segments ( rarely 21 ) , and divided into a head , thorax , and abdomen . = = Etymology = = The name Malacostraca was coined by the French zoologist Pierre André Latreille in 1802 . He was curator of the arthropod collection at the National Museum of Natural History in Paris . The name comes from the Greek roots μαλακός ( malakós , meaning " soft " ) and ὄστρακον ( óstrakon , meaning " shell " ) . The name is misleading , since the shell is only soft </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">Flatworm = The flatworms , flat worms , Platyhelminthes , Plathelminthes , or platyhelminths ( from the Greek πλατύ , platy , meaning " flat " and ἕλμινς ( root : ἑλμινθ- ) , helminth- , meaning " worm " ) are a phylum of relatively simple bilaterian , unsegmented , soft-bodied invertebrates . Unlike other bilaterians , they are acoelomates ( having no body cavity ) , and have no specialized circulatory and respiratory organs , which restricts them to having flattened shapes that allow oxygen and nutrients to pass through their bodies by diffusion . The digestive cavity has only one opening for both ingestion ( intake of nutrients ) and egestion ( removal of undigested wastes ) ; as a result , the food cannot be processed continuously . In traditional medicinal texts , Platyhelminthes are divided into Turbellaria , which are mostly non-parasitic animals such as planarians , and three entirely parasitic groups : Cestoda , Trematoda and Monogenea ; however , since the turbellarians have </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Gastrotrich = The gastrotrichs ( phylum Gastrotricha ) , commonly referred to as hairybacks , are a group of microscopic ( 0.06-3.0 mm ) , worm-like , pseudocoelomate animals , and are widely distributed and abundant in freshwater and marine environments . They are mostly benthic and live within the periphyton , the layer of tiny organisms and detritus that is found on the seabed and the beds of other water bodies . The majority live on and between particles of sediment or on other submerged surfaces , but a few species are terrestrial and live on land in the film of water surrounding grains of soil . Gastrotrichs are divided into two orders , the Macrodasyida which are marine ( except for two species ) , and the Chaetonotida , some of which are marine and some freshwater . Nearly eight hundred species of gastrotrich have been described . Gastrotrichs have a simple body plan with a head region , with a brain and sensory organs , and a trunk with a simple gut and the reproductive organs</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Varanus salvadorii = Varanus salvadorii is a monitor lizard found in New Guinea . It is also known by the common names crocodile monitor , Papua ( n ) monitor , Salvadori 's monitor and artellia . The largest monitor lizard in New Guinea , it is believed to be one of the longest lizards in the world , verified at up to 244 cm ( 8 ft ) , and in rare cases it may rival or exceed the length of the world 's largest lizard , the Komodo dragon . It is the sole member of the subgenus Papusaurus . V. salvadorii is an arboreal lizard with a dark green body and yellowish bands , a blunt snout and a very long tail . It lives in mangrove swamps and coastal rainforests in the southeastern part of the island , where it feeds on birds , small mammals , eggs , and carrion in the wild , using teeth better adapted than those of most monitors for seizing fast-moving prey . Like all monitors , it has anatomical features that enable it to breathe more easily when running than other lizards can , and V. sal</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Ocellated electric ray = The ocellated electric ray or bullseye electric ray ( Diplobatis ommata ) is a species of electric ray in the family Narcinidae , native to the shallow inshore waters of the eastern central Pacific from the Gulf of California to Ecuador . Reaching 25 cm ( 9.8 in ) in length , this species has a rounded pectoral fin disc and pelvic fins with convex margins . Its short and thick tail bears two dorsal fins and terminates in a triangular caudal fin . The ocellated electric ray is named for the distinctive large eyespot on the middle of its disc , consisting of a black or yellow center surrounded by concentric rings . Its dorsal coloration is otherwise highly variable , ranging from plain to ornately patterned on a light to dark brown background . The front part of its disc is darker brown . Solitary and nocturnal in nature , the ocellated electric ray is a bottom-dweller found in sandy and rocky habitats . It moves along the bottom by " hopping " on its pelvic fins</t>
         </is>
       </c>
     </row>
@@ -1911,32 +1911,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['phillies', 'inning', 'yankees', 'dodgers', 'giants', 'yankee', 'breaker', 'innings', 'tie', 'pitcher', 'run', 'braves', 'game', 'runs', 'pennant']</t>
+          <t>['ride', 'train', 'coaster', 'roller', 'riders', 'station', 'steel', 'trains', 'lift', 'operate', 'hour', 'brake', 'drop', 'themed', 'officially']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">OS T1000 = T1000 and T1300 were two rapid transit train classes used on Oslo Metro in Oslo , Norway . The 197 cars were built by Strømmens Verksted , Norsk Elektrisk &amp; Brown Boveri and AEG between 1960 and 1981 . They were the first metro trains used in Oslo , and had remained in active use until being replaced by OS MX3000 trains in 2007 . Each car is equipped with a driver 's cab at one or both ends and four motors , each with 98 kilowatts ( 131 hp ) . The cars are 17 metres ( 56 ft ) long , 3.2 metres ( 10 ft ) wide and 3.65 metres ( 12.0 ft ) tall . The trains use 750 V current , and are capable of 70 kilometres per hour ( 43 mph ) . Signaling is provided through automatic train protection . In 1960 , two less powerful T single-car units were built , designed to be prototypes used on the Oslo Tramway . After a one-year trial , they were put into scheduled traffic to the Kolsås Line , where they remained in regular service until 1983 . The production series is somewhat different in </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Roa – Hønefoss Line = The Roa – Hønefoss Line ( Norwegian : Roa – Hønefossbanen , formerly Roa – Hønefosslinjen ) is a 32-kilometer ( 20 mi ) long , single track railway line between Roa and Hønefoss in Norway . At Roa Station , the line connects to the Gjøvik Line , while at Hønefoss Station , it connects to the Randsfjorden Line and the Bergen Line . The line runs through Buskerud and Oppland and allowed the Bergen Line access to Oslo at Oslo East Station . The Line was built by the Norwegian State Railways ( NSB ) and opened on 1 December 1909 , along with the last part of the Bergen Line . The line was electrified in 1961 . Until 1989 , nearly all Oslo – Bergen trains used the line to terminate at Oslo East Station . It was also possible to reach Oslo from Hønefoss via the Randsfjord Line , albeit terminating at Oslo West Station . NSB also ran a local service between Hønefoss and Oslo along the Roa – Hønefoss Line . Oslo – Bergen trains ran via the Randsfjord Line after 1989 and l</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Long Ashton railway station = Long Ashton railway station was a railway station on the Bristol to Exeter Line , 3.5 miles ( 5.6 km ) southwest of Bristol Temple Meads , serving the village of Long Ashton in North Somerset , England . There were two stations on the site , the first , called " Ashton " , opened in either 1841 or 1852 and closed in 1856 . The second station , originally known as " Long Ashton Platform " before being renamed as " Long Ashton " in 1929 , was operational from 1926 to 1941 . The site is now partly under the A370 Long Ashton Bypass . There is local support for the station to be reopened , possibly sited further to the west , and possibly as part of the University of Bristol 's proposed Fenswood Farm development . = = First station = = The Bristol and Exeter Railway was opened between Bristol Temple Meads and Bridgwater on 14 June 1841 , engineered by Isambard Kingdom Brunel and build originally as 7 ft ( 2,134 mm ) broad-gauge . A station named " Ashton " , se</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Gardermoen Line = The Gardermoen Line ( Norwegian : Gardermobanen ) is a high-speed railway line between Oslo and Eidsvoll , Norway , running past Lillestrøm and Oslo Airport , Gardermoen . The line is 64 kilometres ( 40 mi ) long and replaced the older Hoved Line as the main line north-east of Oslo . The older Hoved Line now handles commuter and freight traffic , while the Gardermoen Line handles high-speed passenger trains and freight trains laden with jet fuel for the airport . Both lines are owned by the Norwegian National Rail Administration . The line was opened in 1998 , at the same time as the airport that gave the line its name . It is used by the Flytoget airport express train service as well as express trains by Norges Statsbaner . It is the only high-speed railway in the kingdom , with a maximum permitted speed of 210 km / h ( 130 mph ) . Most of the line between Oslo and Lillestrøm is through the 14,580-metre ( 47,830 ft ) long Romeriksporten tunnel — the longest railway t</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">GMB Class 71 = GMB Class 71 is an electric multiple unit used by Flytoget for the Airport Express Trains on the Gardermoen Line of Norway . Sixteen three-car train sets were built by Adtranz Strømmen between 1997 and 1998 . The units are capable of 210 km / h ( 130 mph ) , connecting Oslo Central Station and other stations in Metropolitan Oslo to the Oslo Airport , Gardermoen , along Norway 's only high-speed railway . In a three-car configuration , the units weigh 158 tonnes ( 156 long tons ; 174 short tons ) and are 82.3 metres ( 270 ft 0 in ) long , with a power output of 2,645 kW ( 3,547 hp ) . The units are similar to the NSB Class 73 , and are related to the Swedish X2 units . By 2009 , all units were expanded with a fourth car . = = Specifications = = The unit is based on the Swedish X2 designed by Kalmar Verkstad in the 1980s , and delivered from 1990 to the Swedish State Railways for use in their X 2000 high-speed intercity trains . Although the technology involved is similar </t>
         </is>
       </c>
     </row>
@@ -1946,32 +1946,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['amendment', 'shall', 'constitution', 'clause', 'defendant', 'states', 'rights', 'congress', 'jury', 'amendments', 'ratification', 'constitutional', 'supreme_court', 'senate', 'convention']</t>
+          <t>['building', 'church', 'stone', 'wall', 'built', 'site', 'listed', 'roof', 'windows', 'century', 'walls', 'buildings', 'tower', '19th', 'restoration']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Wells Fargo Building ( Philadelphia ) = The Wells Fargo Building , originally the Fidelity-Philadelphia Trust Company Building , is a skyscraper in Center City , Philadelphia , Pennsylvania , United States . Designed in the Beaux-Arts style by the architectural firm Simon &amp; Simon , the building was erected for the Fidelity-Philadelphia Trust Co. in 1928 . The 29-story high-rise is listed on the National Register of Historic Places . The building was long regarded as premier office space , but by the 1980s , tenants were leaving for newer buildings in the West Market Street neighborhood . Extensive rehab work has since drawn new tenants . Its largest tenant has always been the Fidelity-Philadelphia Trust Company or its successor companies — today , Wells Fargo . The 405-foot ( 123 m ) limestone and granite skyscraper features recesses that give the building an H-shape above the fifth floor . Decorations include sculpture by Piccirilli Brothers and 150,000 square feet ( 14,000 m2 ) of ma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Cleeve Abbey = Cleeve Abbey is a medieval monastery located near the village of Washford , in Somerset , England . It is a Grade I listed building and has been scheduled as an ancient monument . The abbey was founded in the late twelfth century as a house for monks of the austere Cistercian order . Over its 350-year monastic history Cleeve was undistinguished amongst the abbeys of its order , frequently ill-governed and often financially troubled . The sole member of the community to achieve prominence was John Hooper , who became a bishop during the Reformation . In 1536 Cleeve was closed by Henry VIII in the course of the Dissolution of the Monasteries and the abbey was converted into a country house . Subsequently , the status of the site declined and the abbey was used as farm buildings until the latter half of the nineteenth century when steps were taken to conserve the remains . In the twentieth century Cleeve was taken into state care ; the abbey is now looked after by English H</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Upper Brook Street Chapel , Manchester = The Upper Brook Street Chapel , also known as the Islamic Academy , the Unitarian Chapel and the Welsh Baptist Chapel , is a former chapel with an attached Sunday School on the east side of Upper Brook Street , Chorlton-on-Medlock , Manchester , England . It is said to be the first neogothic Nonconformist chapel , having been constructed between 1837 and 1839 . It was designed by Sir Charles Barry , who later went on to design the Palace of Westminster . A listed building since 3 October 1974 ( currently Grade II * ) , it is owned by Manchester City Council and is on the Buildings at Risk Register , rated as " very bad " . It was partially demolished in 2006 . The Victorian Society recently placed the building on a list of ten most threatened buildings in England and Wales . = = History = = The chapel was designed by Sir Charles Barry , shortly before he designed the Palace of Westminster . It was constructed between 1837 and 1839 out of sandsto</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Christ Church , Newton = Christ Church , Newton , also known as Christ Episcopal Church , is a Christian house of worship located on the corner of Church Street and Main Street ( U.S. Route 206 ) in Newton , New Jersey . It is a parish overseen by the Episcopal Diocese of Newark , a diocese of the Episcopal Church in the United States of America . The congregation first met on 28 December 1769 and was granted a charter by New Jersey 's last Royal Governor William Franklin on behalf of Britain 's King George III . Christ Church is the oldest church in Newton and the third oldest parish in the Diocese of Newark . The current church building , erected in 1868 – 1869 , is the second structure built at the site , and is an example of the Broken Ashlar or Rustic mode of Gothic Revival architecture patterned after medieval English parish churches . The interior nave features several stained-glass windows depicting scenes from the life of Jesus of Nazareth fabricated by J &amp; R Lamb Studios . On</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Doune Castle = Doune Castle is a medieval stronghold near the village of Doune , in the Stirling district of central Scotland . The castle is sited on a wooded bend where the Ardoch Burn flows into the River Teith . It lies 8 miles ( 13 km ) north-west of Stirling , where the Teith flows into the River Forth . Upstream , 8 miles ( 13 km ) further north-west , the town of Callander lies at the edge of the Trossachs , on the fringe of the Scottish Highlands . Recent research has shown that Doune Castle was originally built in the thirteenth century , then probably damaged in the Scottish Wars of Independence , before being rebuilt in its present form in the late 14th century by Robert Stewart , Duke of Albany ( c.1340 – 1420 ) , the son of King Robert II of Scotland , and Regent of Scotland from 1388 until his death . Duke Robert 's stronghold has survived relatively unchanged and complete , and the whole castle was traditionally thought of as the result of a single period of constructio</t>
         </is>
       </c>
     </row>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['singapore', 'law', 'judicial', 'parliament', 'constitution', 'article', 'courts', 'minister', 'court', 'constitutional', 'high_court', 'persons', 'public', 'tribunal', 'act']</t>
+          <t>['battle', 'men', 'army', 'troops', 'french', 'command', 'general', 'british', 'sent', 'attack', 'soldiers', 'forces', 'wounded', 'killed', 'commanded']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Siege of Krujë ( 1450 ) = The first Siege of Krujë occurred in 1450 when an Ottoman army of approximately 100,000 men laid siege to the Albanian town of Krujë . The League of Lezhë , led by Skanderbeg , experienced low morale after losing Svetigrad and Berat between 1448 and 1450 . Nevertheless , Skanderbeg 's exhortations and the support of the clergy , who claimed to have had visions of angels and victory , motivated the Albanians to defend the capital of the League , Krujë , at all costs . After leaving a protective garrison of 4,000 men under his trusted lieutenant Vrana Konti ( also known as Kont Urani ) , Skanderbeg harassed the Ottoman camps around Krujë and attacked the supply caravans of Sultan Murad II 's army . By September the Ottoman camp was in disarray as morale sank and disease ran rampant . The Ottoman army acknowledged that the castle of Krujë would not fall by strength of arms , lifted the siege , and made its way to Edirne . Soon thereafter , in the winter of 1450 –</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Army of the Rhine and Moselle = The Army of the Rhine and Moselle ( French : Armée de Rhin-et-Moselle ) was one of the field units of the French Revolutionary Army . It was formed on 20 April 1795 by merging the Army of the Rhine and the Army of the Moselle . The army figured in two principal campaigns in the War of the First Coalition , although the unsuccessful 1795 campaign concluded with the removal of Jean-Charles Pichegru from command . In 1796 , the army , under command of Jean Victor Marie Moreau , proved itself more successful . By this time , many of the changes inaugurated by the French military reform of 1794 had taken hold . On 29 September 1797 the Army of the Rhine and Moselle merged with the Army of Sambre-et-Meuse to form the Army of Germany . = = Purpose and formation = = Military planners in Paris understood that the upper Rhine Valley , the south-western German territories , and Danube river basin were strategically important for the defense of the Republic . The Rh</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Battle of Kleidion = The Battle of Kleidion ( or Clidium , after the medieval name of the village of Klyuch , " ( the ) key " ; also known as the Battle of Belasitsa ) took place on July 29 , 1014 between the Byzantine Empire and the Bulgarian Empire . It was the culmination of the nearly half-century struggle between the Byzantine Emperor Basil II and the Bulgarian Emperor Samuel in the late 10th and early 11th centuries . The result was a decisive Byzantine victory . The battle took place in the valley between the mountains of Belasitsa and Ograzhden near the modern Bulgarian village of Klyuch . The decisive encounter occurred on July 29 with an attack in the rear by a force under the Byzantine general Nikephoros Xiphias , who had infiltrated the Bulgarian positions . The ensuing battle was a major defeat for the Bulgarians . Bulgarian soldiers were captured and reputedly blinded by order of Basil II , who would subsequently be known as the " Bulgar-Slayer " . Samuel survived the bat</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Burning of Norfolk = The Burning of Norfolk was an incident that occurred on January 1 , 1776 , during the American Revolutionary War . British Royal Navy ships in the harbor of Norfolk , Virginia began shelling the town , and landing parties came ashore to burn specific properties . The town , whose significantly Tory ( Loyalist ) population had fled , was occupied by Whig ( Revolutionary ) forces from Virginia and North Carolina . Although these forces worked to drive off the landing parties , they did nothing to impede the progress of the flames , and began burning and looting Tory properties . After three days , most of the town had been destroyed , principally by the action of the Whig forces . The destruction was completed by Whig forces in early February to deny use of even the remnants to the British . Norfolk was the last significant foothold of British authority in Virginia ; after raiding Virginia 's coastal areas for a time , its last Royal Governor , Lord Dunmore , left fo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Second Persian invasion of Greece = The second Persian invasion of Greece ( 480 – 479 BC ) occurred during the Greco-Persian Wars , as King Xerxes I of Persia sought to conquer all of Greece . The invasion was a direct , if delayed , response to the defeat of the first Persian invasion of Greece ( 492 – 490 BC ) at the Battle of Marathon , which ended Darius I 's attempts to subjugate Greece . After Darius 's death , his son Xerxes spent several years planning for the second invasion , mustering an enormous army and navy . The Athenians and Spartans led the Greek resistance . About a tenth of the Greek city-states joined the ' Allied ' effort ; most remained neutral or submitted to Xerxes . The invasion began in spring 480 BC , when the Persian army crossed the Hellespont and marched through Thrace and Macedon to Thessaly . The Persian advance was blocked at the pass of Thermopylae by a small Allied force under King Leonidas I of Sparta ; simultaneously , the Persian fleet was blocked </t>
         </is>
       </c>
     </row>
@@ -2016,32 +2016,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['motorway', 'croatia', 'toll', 'croatian', 'traffic', 'interchanges', 'kilometre', 'route', 'interchange', 'section', 'rest', 'kilometres', 'areas', 'tunnels', 'construction']</t>
+          <t>['championship', 'match', 'title', 'defeated', 'event', 'team', 'face', 'won', 'night', 'following', 'kane', 'attacked', 'main', 'wrestler', 'win']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">Félix Trinidad = Juan Félix " Tito " Trinidad García ( born January 10 , 1973 ) , best known as Félix Trinidad , is a Puerto Rican former professional boxer , considered one of the best in Puerto Rico 's history . After winning five national amateur championships in Puerto Rico , Trinidad debuted as a professional in 1990 , when he was seventeen . He would go on to become a three-weight world champion , first by defeating Maurice Blocker to win the IBF welterweight title in 1993 . Trinidad holds the record for the second most welterweight title defenses , with fifteen , and also holds the record for longest reign as welterweight champion , at six years , eight months and fourteen days . As his career continued , he defeated Oscar De La Hoya to win the WBC and lineal welterweight titles in 1999 ; Fernando Vargas to win the unified WBA and IBF light middleweight titles in 2000 ; and William Joppy to win the WBA middleweight title in 2001 . Trinidad 's first professional loss was against </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Sixto Escobar = Sixto Escobar ( March 23 , 1913 – November 17 , 1979 ) was a Puerto Rican professional boxer . Competing in the bantamweight division , he became Puerto Rico 's first world champion . Escobar was born in Barceloneta and raised in San Juan . There he received his primary education and took interest in boxing . After gathering a record of 21-1-1 as an amateur , Escobar debuted as a professional in 1931 defeating Luis " Kid Dominican " Pérez by knockout . Early in his career , he moved to Venezuela due to the lack of opponents in his division . There he received an opportunity for the Venezuelan Bantamweight championship , but lost by points . Subsequently he moved to New York and began boxing in other states , eventually capturing the Montreal Athletic Commission World Bantamweight Title . In 1936 , he defeated Tony Marino to unify this championship with the one recognized by the International Boxing Union , in the process becoming the third Latin American undisputed worl</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>WWE 2K = WWE 2K is a series that has more than 20 of those professional wrestling video games that are currently developed by Visual Concepts and Yuke 's , and it was later published by 2K Sports . These series of games are based on the professional wrestling promotion WWE , which features the professional wrestling match types , storylines , and playable characters based on WWE programming . The series was originally named SmackDown ! , after it has garnered from the WWE 's own SmackDown television program . The first release in the series was WWF SmackDown ! in March 2000 , which along with these subsequent titles , remained exclusive to Sony 's PlayStation consoles . After the brand extension , the series was retitled SmackDown ! vs. Raw in 2004 , to indicate the Raw brand was also featured . Within a few years , the series had expanded to a yearly release cycle for various seventh-generation consoles as well as mobile devices . Yuke 's had also released the games in Japan under the</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>TNA World Beer Drinking Championship = The TNA World Beer Drinking Championship was an unsanctioned professional wrestling championship owned by the Total Nonstop Action Wrestling ( TNA ) promotion . The championship was introduced on November 11 , 2007 at TNA 's Genesis pay-per-view ( PPV ) event . It was active until February 26 , 2008 when the title belt was destroyed at the taping of the March 6 , 2008 episode of TNA 's television program TNA Impact ! . It debuted as a part of a feud between James Storm and Eric Young ; they were involved in a storyline that revolved around drinking beer . Like most professional wrestling championships , the title was won as a result of a scripted match or backstage segment . There were three reigns among two wrestlers in the title 's brief history . Storm was the first and last champion . = = History = = The TNA World Beer Drinking Championship was unveiled on November 11 , 2007 at TNA 's Genesis PPV event , during a backstage segment involving Ja</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>The Ultimate Fighter = The Ultimate Fighter is an American reality television series and mixed martial arts ( MMA ) competition produced by Fox Sports 1 and the Ultimate Fighting Championship ( UFC ) . It previously aired for fourteen seasons on Spike TV . The show features professional MMA fighters living together in Las Vegas , Nevada , and follows them as they train and compete against each other for a prized contract with the UFC . The series debuted on January 17 , 2005 , with its first episode , " The Quest Begins " . To date , there have been twenty two seasons of the show , two per calendar year . Each season features either one or two weight classes in the tournament . The historic Forrest Griffin vs. Stephan Bonnar fight in the first season drew millions of viewers to the show and launched the sport into the mainstream . Because of this success , The Ultimate Fighter was regarded as instrumental to the survival and expansion of the UFC and mixed martial arts into the mainstre</t>
         </is>
       </c>
     </row>
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['clark', 'superman', 'oliver', 'finale', 'season', 'comic', 'character', 'relationship', 'whitney', 'metropolis', 'believes', 'discovers', 'secret', 'martha', 'series']</t>
+          <t>['entertain', 'entertained', 'buddy', 'profanity', 'flamboyant', 'racially', 'courted', 'rampant', 'subtitles', 'bishop', 'psychologically', 'app', 'oppressed', 'horrific', 'bother']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>ISO 3166-2 : SJ = ISO 3166-2 : SJ is the entry for Svalbard and Jan Mayen in ISO 3166-2 , part of the ISO 3166 standard published by the International Organization for Standardization ( ISO ) . The standard defines codes for names of principal subdivisions of all countries coded in ISO 3166-1 . Svalbard and Jan Mayen does not exist as an administrative region , but rather consists of two separate parts of Norway under separate jurisdictions — Svalbard and Jan Mayen . Further subdivision for Svalbard and Jan Mayen occurs under Norway 's entry , ISO 3166-2 : NO , namely NO-21 for Svalbard and NO-22 for Jan Mayen . There are currently no ISO 3166-2 codes for Svalbard and Jan Mayen . = = Allocation = = Svalbard and Jan Mayen constitute two outlying areas of Norway . Svalbard is an archipelago in the Arctic about midway between mainland Norway and the North Pole . The group of islands ranges from 74 ° to 81 ° north latitude , and from 10 ° to 35 ° east longitude . The Svalbard Treaty of 192</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>As I was going by Charing Cross = " As I was going by Charing Cross " ( sometimes referred to as " As I was going to Charing Cross " ) , is an English language nursery rhyme . The rhyme was first recorded in the 1840s , but it may have older origins in street cries and verse of the seventeenth century . It refers to the equestrian statue of King Charles I in Charing Cross , London , and may allude to his death or be a puritan satire on royalist reactions to his execution . It was not recorded in its modern form until the mid-nineteenth century . It has a Roud Folk Song Index number of 20564 . = = Lyrics = = Modern versions include : The Roud Folk Song Index , which catalogues folk songs and their variations by number , classifies the song as 20564 . = = Origin = = The rhyme is thought to refer to the equestrian statue of Charles I ( r . 1625 – 49 ) , which was erected after the Restoration in 1660 and was moved in 1675 to the site of the old Charing Cross in central London . The tarnis</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Fursuit = Fursuits are animal costumes . Fursuits can be worn for personal enjoyment , work or charity . The term " fursuit " is believed to have been coined in 1993 by Robert King and is usually used to describe custom-made animal costumes owned and worn by cosplayers or members of the furry fandom . Unlike mascot suits , which are usually affiliated with a team or organization , fursuits represent a stand-alone character . Fursuiters may adopt another personality while in costume for the purpose of performance . Fursuits are typically sold online by commission or auction , but can also be sold at conventions . = = Creation and construction = = Most fursuits are created by specialized online businesses if they are not self-made . Workmanship quality varies widely depending on the cost of the suit and skill of the maker . A fursuit may cost more than a thousand dollars . Many suits include special padding or undersuits to give the character its desired shape ( this is especially presen</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Becket Hill State Park Reserve = Becket Hill State Park Reserve is a public recreation area lying adjacent to Nehantic State Forest in the town of Lyme , Connecticut , United States . The state park is listed by the Connecticut Department of Energy and Environmental Protection as an undeveloped , walk-in park totaling 260 acres ( 110 ha ) with no officially listed activities . The park 's name is sometimes misspelled as Beckett Hill . = = History = = Becket Hill State Park Reserve is named for an early settler of the area named Becket and the land was part of the Nehantic tribe 's territory . This state park was acquired by the State of Connecticut in order to preserve the hill , but unlike the abutting Nehantic State Forest , Becket Hill has accessibility problems and is returning to its natural state . In 1961 , the land for the Becket Hill State Park Reserve was given to the State of Connecticut by the George Dudley Seymour Trust . Beckett Hill was first listed on the Connecticut Re</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Cynfarwy = Cynfarwy was a Christian in the 7th century about whom little is known . He was venerated by the early church in Wales as a saint , although he was never formally canonised . St Cynfarwy 's Church in Anglesey is dedicated to him , and his name is also preserved in the name of the settlement around the church , Llechgynfarwy ( or sometimes " Llechcynfarwy " ) . His feast day is in November , although the date varies between sources . = = Life and commemoration = = Little is known for certain about Cynfarwy ; his dates of birth and death are not given in the Bonedd y Saint ( a Welsh genealogical tract compiled in the late 18th century using material from older manuscripts ) . According to the 19th-century Celtic scholar Robert Williams , Cynfarwy was active in the 7th century . According to the Bonedd y Saint , he was the son of the otherwise unknown " Awy ab Llehenog , Lord of Cornwall " . Cynfarwy is venerated as a saint , although he was never canonized by a pope : as the h</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['euro', 'coins', 'currency', 'note', 'notes', 'denominations', 'dollar', 'value', 'stripe', 'tender', 'silver', 'puerto_rico', 'thread', 'ink', 'issued']</t>
+          <t>['production', 'system', 'crew', 'mission', 'use', 'development', 'based', 'high', 'million', 'aircraft', 'engine', 'control', 'announced', 'new', 'flight']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Sukhoi Su-35 = The Sukhoi Su-35 ( Russian : Сухой Су-35 ; NATO reporting name : Flanker-E ) is a designation for two separate , heavily upgraded derivatives of the Su-27 ' Flanker ' jet plane . They are single-seat , twin-engine , supermaneuverable multirole fighters , designed by Sukhoi and built by Komsomolsk-on-Amur Aircraft Production Association ( KnAAPO ) . The first variant was designed during the 1980s , when Sukhoi sought to upgrade its high-performance Su-27 , and was initially known as the Su-27M . Later re-designated Su-35 , this derivative incorporated aerodynamic refinements with increased manoeuvrability , enhanced avionics , longer range , and more powerful engines . The first Su-35 prototype , converted from a Su-27 , made its maiden flight in June 1988 . More than a dozen of these were built , some of which were used by the Russian Knights aerobatic demonstration team . The first Su-35 design was later modified into the Su-37 , which possessed thrust vectoring engines</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>Northrop F-20 Tigershark = The Northrop F-20 Tigershark ( initially F-5G ) was a privately financed light fighter , designed and built by Northrop . Its development began in 1975 as a further evolution of Northrop 's F-5E Tiger II , featuring a new engine that greatly improved overall performance , and a modern avionics suite including a powerful and flexible radar . Compared with the F-5E , the F-20 was much faster , gained beyond-visual-range air-to-air capability , and had a full suite of air-to-ground modes capable of firing most U.S. weapons . With these improved capabilities , the F-20 became competitive with contemporary fighter designs such as the General Dynamics F-16 Fighting Falcon , but was much less expensive to purchase and operate . Much of the F-20 's development was carried out under a US Department of Defense ( DoD ) project called " FX " . FX sought to develop fighters that would be capable in combat with the latest Soviet aircraft , but excluding sensitive front-lin</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Avro Vulcan = The Avro Vulcan ( later Hawker Siddeley Vulcan from July 1963 ) is a jet-powered tailless delta wing high-altitude strategic bomber , which was operated by the Royal Air Force ( RAF ) from 1956 until 1984 . Aircraft manufacturer A.V. Roe and Company ( Avro ) designed the Vulcan in response to Specification B.35 / 46 . Of the three V bombers produced , the Vulcan was considered the most technically advanced and hence the riskiest option . Several scale aircraft , designated Avro 707 , were produced to test and refine the delta wing design principles . The Vulcan B.1 was first delivered to the RAF in 1956 ; deliveries of the improved Vulcan B.2 started in 1960 . The B.2 featured more powerful engines , a larger wing , an improved electrical system and electronic countermeasures ( ECM ) ; many were modified to accept the Blue Steel missile . As a part of the V-force , the Vulcan was the backbone of the United Kingdom ’ s airborne nuclear deterrent during much of the Cold War</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Sinclair C5 = The Sinclair C5 is a small one-person battery electric vehicle , technically an " electrically assisted pedal cycle " . ( Although widely described as an " electric car " , Sinclair characterised it as a " vehicle , not a car " . ) It was the culmination of Sir Clive Sinclair 's long-running interest in electric vehicles . Sinclair had become one of the UK 's best-known millionaires and earned a knighthood on the back of the highly successful Sinclair Research range of home computers in the early 1980s . He now hoped to repeat his success in the electric vehicle market , which he saw as ripe for a new approach . The C5 emerged from an earlier project to produce a Renault Twizy-style electric car called the C1 . After a change in the law prompted by lobbying from bicycle manufacturers , Sinclair developed the C5 as an electrically powered tricycle with a polypropylene body and a chassis designed by Lotus Cars . It was intended to be the first in a series of increasingly am</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>Hawker Hunter = The Hawker Hunter is a transonic British jet aircraft developed in the late 1940s and early 1950s . The single-seat Hunter entered service as a manoeuvrable fighter aircraft , and later operated in fighter-bomber and reconnaissance roles in numerous conflicts . Two-seat variants remained in use for training and secondary roles with the Royal Air Force ( RAF ) and Royal Navy until the early 1990s . The Hunter was also widely exported , serving with 21 other air forces . Sixty years after its original introduction it was still in active service , operated by the Lebanese Air Force until 2014 . On 7 September 1953 , the modified first prototype broke the world air speed record for jet-powered aircraft , achieving 727.63 mph ( 1,171.01 km / h ; 632.29 kn ) . Hunters were also used by two RAF display teams : the " Black Arrows " , who on one occasion looped a record-breaking 24 examples in formation , and later the " Blue Diamonds " , who flew 16 aircraft . Overall , 1,972 H</t>
         </is>
       </c>
     </row>
@@ -2121,32 +2121,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['painting', 'paintings', 'works', 'abstract', 'dots', 'art', 'canvas', 'okay', 'artist', 'breasts', 'portrait', 'mirror', 'girl', 'work', 'balloon']</t>
+          <t>['album', 'songs', 'number', 'band', 'release', 'single', 'music', 'track', 'copies', 'released', 'chart', 'billboard', 'tracks', 'sound', 'recording']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t>Paramore ( album ) = Paramore is the self-titled fourth studio album by the American rock band Paramore . It was released on April 5 , 2013 , through Fueled by Ramen as a follow-up to Brand New Eyes ( 2009 ) . It is their first full-length album released after the departure of co-founders Josh and Zac Farro in 2010 . Recorded between April and November 1 , 2012 , the album was described by the band as being a " statement " and a reintroduction of the band to the world and to themselves . The album was the final one recorded with bassist Jeremy Davis before departing the band in 2015 . The album was produced by Justin Meldal-Johnsen , with lead guitarist Taylor York co-producing on four tracks . In contrast to band 's previous work , the production of Paramore contains the band 's experimentation with new musical genres , such as new wave and funk rock , and features three acoustic interludes . Paramore received acclaim from music critics , who praised the band 's maturity and experimen</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t>American Tragedy ( album ) = American Tragedy is the second studio album by American rap rock band Hollywood Undead . Production for the album began following the induction of Daniel Murillo into the band in early 2010 and lasted until December . Don Gilmore and Ben Grosse , who helped produce the band 's debut album , Swan Songs ( 2008 ) , also returned to produce the album along with several other producers including Kevin Rudolf , Sam Hollander , Dave Katz , Griffin Boice , Jeff Halavacs , and Jacob Kasher . The album is musically heavier and features darker lyrical content than the band 's previous effort . Originally set to release in March , American Tragedy was released on April 5 , 2011 in the United States and was released on various other dates that month in other countries . A remix of the album , American Tragedy Redux , was released on November 21 , 2011 . The album debuted at number four on the US Billboard 200 , selling approximately 67,000 copies in its first week in th</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>Thank Me Later = Thank Me Later is the debut studio album by Canadian recording artist Drake , released on June 15 , 2010 , by Aspire Music Group , Young Money Entertainment , Cash Money Records , and Universal Motown Records . Production for the album took place at various recording studios during 2009 to 2010 and was mostly produced by longtime collaborators Noah " 40 " Shebib and Boi-1da . It also featured contributions from Timbaland , Swizz Beatz , Nicki Minaj , Lil Wayne , The-Dream , and Kanye West , among others . Thank Me Later has a languorous , ambient production that incorporates moody synthesizers , sparse beats , obscured keyboards , minor keys , and subtle arrangements . Thematically , the album focuses on Drake 's introduction to fame and his romances over the course of confessional , club-oriented , and sexual songs . Drake 's emotionally transparent , self-deprecating lyrics are delivered in both rapped and subtly sung verses , and explore feelings of doubt , insecuri</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Gravity ( Lecrae album ) = Gravity is the sixth studio album by American Christian hip hop artist Lecrae , released on September 4 , 2012 . The album features appearances from Big K.R.I.T. , Mathai , Ashthon Jones , and Mali Music , along with labelmates Trip Lee , Andy Mineo , Derek Minor , who was formerly known as PRo , and Tedashii . Producers on the album include DJ Khalil , Street Symphony 's Heat Academy , and The Watchmen . The first single off the album , " I Know " , was released on July 24 , 2012 , and was followed by " Tell the World " featuring Mali Music on August 15 , 2012 , and " Mayday " featuring Big K.R.I.T. and Ashthon Jones on August 30 , 2012 . Reach Records released five music videos for the album : " Lord Have Mercy " , featuring Tedashii along with No Malice of Clipse , on August 1 , 2012 , " Tell the World " , featuring Mali Music , on October 19 , 2012 , " Mayday " , featuring Big K.R.I.T. and Ashthon Jones , on December 13 , 2012 , " Fakin ' " , featuring Th</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t xml:space="preserve">Coming Up to Breathe = Coming Up to Breathe is the fourth studio album by Christian rock band MercyMe . Released on April 25 , 2006 , by INO Records , the album was intended by MercyMe to be edgier than their previous albums . Coming Up to Breathe sold 58,000 copies its first week , MercyMe 's biggest sales week at the time . It debuted and peaked at number one on the Billboard Christian Albums chart , number five on the Rock Albums chart , and number thirteen on the Billboard 200 . It also appeared on the Alternative Albums chart in 2007 , peaking at number thirteen . Coming Up to Breathe was certified Gold by the Recording Industry Association of America ( RIAA ) in 2007 , signifying shipments of over 500,000 copies . Coming Up to Breathe received positive reviews from critics . It was also nominated for Best Pop / Contemporary Gospel Album at the 49th Grammy Awards , and for Pop / Contemporary Album of the Year at the 38th GMA Dove Awards . The song " Bring the Rain " was nominated </t>
         </is>
       </c>
     </row>
@@ -2156,32 +2156,67 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['ben', 'shannon', 'survivors', 'bernard', 'island', 'freighter', 'dave', 'frank', 'plane', 'jack', 'alex', 'miles', 'kate', 'crash', 'rose']</t>
+          <t>['ship', 'ships', 'torpedo', 'tons', 'guns', 'admiral', 'cruiser', 'fleet', 'submarine', 'sank', 'laid', 'sinking', 'convoy', 'german', 'destroyer']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cicely Mary Barker = Cicely Mary Barker ( 28 June 1895 – 16 February 1973 ) was an English illustrator best known for a series of fantasy illustrations depicting fairies and flowers . Barker 's art education began in girlhood with correspondence courses and instruction at the Croydon School of Art . Her earliest professional work included greeting cards and juvenile magazine illustrations , and her first book , Flower Fairies of the Spring , was published in 1923 . Similar books were published in the following decades . Barker was a devout Anglican , and donated her artworks to Christian fundraisers and missionary organizations . She produced a few Christian-themed books such as The Children ’ s Book of Hymns and , in collaboration with her sister Dorothy , He Leadeth Me . She designed a stained glass window for St. Edmund 's Church , Pitlake , and her painting of the Christ Child , The Darling of the World Has Come , was purchased by Queen Mary . Barker was equally proficient in water</t>
+          <t xml:space="preserve">SMS Niobe = SMS Niobe ( " His Majesty 's Ship Niobe " ) was the second member of the ten-ship Gazelle class of light cruisers built by the Imperial German Navy . She was built by the AG Weser shipyard in Bremen , laid down in 1898 , launched in July 1899 , and commissioned into the High Seas Fleet in June 1900 . She was named after Niobe , a figure from Greek mythology . Armed with a main battery of ten 10.5 cm ( 4.1 in ) guns and two 45 cm ( 18 in ) torpedo tubes , Niobe was capable of a top speed of 21.5 knots ( 39.8 km / h ; 24.7 mph ) . The ship had a long career , serving in all three German navies , along with the Yugoslav and Italian fleets over the span of over 40 years in service . Niobe served in both home and overseas waters in the Imperial Navy , before being reduced to a coastal defense ship after the outbreak of World War I. She survived the conflict and was one of six cruisers permitted to the Reichsmarine by the Treaty of Versailles . In 1925 , the German Navy sold the </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Field hockey pitch = A hockey pitch is the playing surface for the game of field hockey . Historically , the game was played on natural turf ( grass ) but nowadays is predominantly played on an artificial turf . The transition onto artificial pitches came during the 1970s and was made mandatory for major competitions in 1976 . All the lines , markings and goal specifications are outlined by the International Hockey Federation in " The Rules of Hockey " . All line markings on the pitch form part of the area which they define . For example , a ball on the side line is still in the field of play ; a ball on the line of the penalty circle is in the penalty circle ; a foul committed over the 23-metre ( 25-yard ) line has occurred in the 23-metre area . A ball must completely cross a boundary line to be out of play , and a ball must wholly cross the goal line before a goal is scored . Due to the original formulation of the rules in England , the standard dimensions of a hockey pitch were ori</t>
+          <t xml:space="preserve">SM UB-16 = SM UB-16 was a German Type UB I submarine or U-boat in the German Imperial Navy ( German : Kaiserliche Marine ) during World War I. The submarine was sunk by a British submarine in May 1918 . UB-16 was ordered in November 1914 and was laid down at the AG Weser shipyard in Bremen in February 1915 . UB-16 was a little under 28 metres ( 92 ft ) in length and displaced between 127 and 141 tonnes ( 125 and 139 long tons ) , depending on whether surfaced or submerged . She carried two torpedoes for her two bow torpedo tubes and was also armed with a deck-mounted machine gun . UB-16 was broken into sections and shipped by rail to Antwerp for reassembly . She was launched in April 1915 and commissioned as SM UB-16 in May . UB-16 spent her entire career in the Flanders Flotilla and sank 23 merchant ships , about half of them British fishing vessels . The U-boat was also responsible for sinking the new British destroyer Recruit in 1917 . In 1918 , UB-16 was converted into a minelayer </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transport in the Soviet Union = Transport in the Union of Soviet Socialist Republics ( USSR ) was an important part of the nation 's economy . The economic centralisation of the late 1920s and 1930s led to the development of infrastructure at a massive scale and rapid pace . Before the Soviet Union 's collapse in 1991 , there were a wide variety of modes of transport by land , water and air . However , because of government policies before , during and after the Era of Stagnation , investments in transport were low . By the late 1970s and early 1980s Soviet economists were calling for the construction of more roads to alleviate some of the strain from the railways and to improve the state budget . The Civil aviation industry , represented by Aeroflot , was the largest in the world , but inefficiencies plagued it until the USSR 's collapse . The road network remained underdeveloped , and dirt roads were common outside major cities . At the same time , the attendance of the few roads the</t>
+          <t>German submarine U-37 ( 1938 ) = German submarine U-37 was a Type IXA U-boat of Nazi Germany 's Kriegsmarine during World War II . The submarine was laid down on 15 March 1937 at the DeSchiMAG AG Weser yard in Bremen , launched on 14 May 1938 , and commissioned on 4 August 1938 under the command of Kapitänleutnant Heinrich Schuch as part of the 6th U-boat Flotilla . Between August 1939 and March 1941 , U-37 conducted eleven combat patrols , sinking 53 merchant ships , for a total of 200,124 gross register tons ( GRT ) ; and two warships , the British Hastings-class sloop HMS Penzance , and the French submarine Sfax ( Q182 ) . U-37 was then withdrawn from front-line service and assigned to training units until the end of the war . On 8 May 1945 the U-boat was scuttled in Sonderburg Bay , off Flensburg . U-37 was the sixth most successful U-boat in World War II . = = Design = = As one of the eight original German Type IX submarines , later designated IXA , U-37 had a displacement of 1,03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Amy Wyatt = Amy Marie Violet Wyatt is a fictional character from the British soap opera Emmerdale , played by Chelsea Halfpenny . She debuted on-screen during the episode airing on 8 October 2010 . Since her inception Amy has been central to main storylines and has been played as the serial 's rebellious teenager . Halfpenny has said she enjoys playing the character 's mischievous side . Amy 's unstable upbringing in children 's homes and foster care has impacted on her persona . She is a troubled character and protects herself by creating a hard exterior . Amy 's biggest fear is embarrassment and she aspires to lead a normal family life with her foster parents Val and Eric Pollard . As her storylines have developed she has grown close to the pair , yet rebelled at various stages . Charlie Hardwick and Chris Chittell who play Val and Eric have expressed their delight with the positive impact Amy has had on their on-screen family . She has a kooky style and wears heavy make-up . Other s</t>
+          <t>Japanese battleship Hiei = Hiei ( 比叡 ) was a warship of the Imperial Japanese Navy during World War I and World War II . Designed by British naval architect George Thurston , she was the second launched of four Kongō-class battlecruisers , among the most heavily armed ships in any navy when built . Laid down in 1911 at the Yokosuka Naval Arsenal , Hiei was formally commissioned in 1914 . She patrolled off the Chinese coast on several occasions during World War I , and helped with rescue efforts following the 1923 Great Kantō earthquake . Starting in 1929 , Hiei was converted to a gunnery training ship to avoid being scrapped under the terms of the Washington Naval Treaty . She served as Emperor Hirohito 's transport in the mid-1930s . Starting in 1937 , she underwent a full-scale reconstruction that completely rebuilt her superstructure , upgraded her powerplant , and equipped her with launch catapults for floatplanes . Now fast enough to accompany Japan 's growing fleet of aircraft ca</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ivan Jones ( Emmerdale ) = Ivan Jones is a fictional character in the British soap opera Emmerdale , played by Daniel Brocklebank . He appeared in the series from 5 May 2005 until 2 August 2006 . Ivan was originally introduced to participate in a storyline about the character of Jarvis Skelton ( Richard Moore ) and only meant to feature in three episodes . The serial 's producers were impressed with Brocklebank and made Ivan a regular character . The character is a Geordie , which required the actor to adopt the accent . Ivan is characterised as a “ good-humoured " and " charming " dustman , while Brocklebank described him as having " quite a few " love interests and stated that he has " slept his way around the village " . It was later announced that the character is bisexual and he starts a sexual relationship with Paul Lambert ( Mathew Bose ) . Their relationship proved to be an " explosive combination " due to Ivan wanting it to remain a secret . Brocklebank has praised his storyli</t>
+          <t>HMS Brilliant ( 1757 ) = HMS Brilliant was a 36-gun Venus-class fifth-rate frigate of the Royal Navy which saw active service during the Seven Years ' War with France . Designed in 1756 and launched the following year , she was one of the first Royal Navy vessels to be built to a classic frigate design with a single gun deck and an emphasis on speed . Her principal focus was as a hunter of French privateers , capturing eight such vessels and sinking two more during her six years at sea . She also performed well against the regular French Navy in the 1760 Battle of Bishops Court and the 1761 Battle of Cape Finisterre , but was less capable when deployed for bombardment duty off enemy ports . Decommissioned in 1763 , she was sold thirteen years later to the East India Company but was wrecked in the Comoros Islands in 1782 . One naval historian has described Brilliant as one of " the best British fighting cruisers " of her day . However she remained slightly inferior to her French equival</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['government', 'war', 'military', 'led', 'political', 'country', 'party', 'support', 'polish', 'foreign', 'soviet', 'revolution', 'leader', 'russian', 'members']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>History of the Han dynasty = The Han dynasty ( 206 BCE – 220 CE ) , founded by the peasant rebel leader Liu Bang ( known posthumously as Emperor Gaozu ) , was the second imperial dynasty of China . It followed the Qin dynasty ( 221 – 206 BCE ) , which had unified the Warring States of China by conquest . Interrupted briefly by the Xin dynasty ( 9 – 23 CE ) of Wang Mang , the Han dynasty is divided into two periods : the Western Han ( 206 BCE – 9 CE ) and the Eastern Han ( 25 – 220 CE ) . These appellations are derived from the locations of the capital cities Chang 'an and Luoyang , respectively . The third and final capital of the dynasty was Xuchang , where the court moved in 196 CE during a period of political turmoil and civil war . The Han dynasty ruled in an era of Chinese cultural consolidation , political experimentation , relative economic prosperity and maturity , and great technological advances . There was unprecedented territorial expansion and exploration initiated by stru</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Alexei Kosygin = Alexei Nikolayevich Kosygin ( Russian : Алексе ́ й Никола ́ евич Косы ́ гин , tr . Aleksej Nikolajevič Kosygin ; IPA : [ ɐlʲɪˈksʲej nʲɪkɐˈlajɪvʲɪtɕ kɐˈsɨɡʲɪn ] ; 21 February [ O.S. 5 March ] 1904 – 18 December 1980 ) was a Soviet-Russian statesman during the Cold War . Kosygin was born in the city of St. Petersburg in 1904 to a Russian working-class family . He was conscripted into the labour army during the Russian Civil War , and after the Red Army 's demobilisation in 1921 , he worked in Siberia as an industrial manager . Kosygin returned to Leningrad in the early 1930s and worked his way up the Soviet hierarchy . During the Great Patriotic War ( World War II ) , Kosygin was a member of the State Defence Committee and was tasked with moving Soviet industry out of territories soon to be overrun by the German Army . He served as Minister of Finance for a year before becoming Minister of Light Industry and later , the Minister of Light and Food Industry . Stalin remove</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Malagasy Uprising = The Malagasy Uprising ( French : Insurrection malgache ) was a Malagasy nationalist rebellion against French colonial rule in Madagascar , lasting from March 1947 to December 1948 . Starting in late 1945 , Madagascar 's first French National Assembly deputies , Joseph Raseta , Joseph Ravoahangy and Jacques Rabemananjara of the Mouvement démocratique de la rénovation malgache ( MDRM ) political party , led an effort to achieve independence for Madagascar through legal channels . The failure of this initiative and the harsh response it drew from the Socialist Ramadier administration radicalized elements of the Malagasy population , including leaders of several militant nationalist secret societies . On the evening of 29 March 1947 , coordinated surprise attacks were launched by Malagasy nationalists , armed mainly with spears , against military bases and French-owned plantations in the eastern part of the island concentrated around Moramanga and Manakara . The nationa</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Adolf Hitler = Adolf Hitler ( German : [ ˈadɔlf ˈhɪtlɐ ] ; 20 April 1889 – 30 April 1945 ) was a German politician who was the leader of the Nazi Party ( Nationalsozialistische Deutsche Arbeiterpartei ; NSDAP ) , Chancellor of Germany from 1933 to 1945 , and Führer ( " leader " ) of Nazi Germany from 1934 to 1945 . As dictator of Nazi Germany , he initiated World War II in Europe with the invasion of Poland in September 1939 and was a central figure of the Holocaust . Hitler was born in Austria , then part of Austria-Hungary , and raised near Linz . He moved to Germany in 1913 and was decorated during his service in the German Army in World War I. He joined the German Workers ' Party , the precursor of the NSDAP , in 1919 and became leader of the NSDAP in 1921 . In 1923 , he attempted a coup in Munich to seize power . The failed coup resulted in Hitler 's imprisonment , during which time he dictated the first volume of his autobiography and political manifesto Mein Kampf ( " My Struggl</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Suharto = Suharto ( Javanese : ꦯꦸꦲꦂꦠ ; Gêdrìk : Suhartå ; O-Javanese : Suharta ; pronunciation ; 8 June 1921 – 27 January 2008 ) was the second President of Indonesia , holding the office for 31 years from the ousting of Sukarno in 1967 until his resignation in 1998 . Suharto was born in a small village , Kemusuk , in the Godean area near the city of Yogyakarta , during the Dutch colonial era . He grew up in humble circumstances . His Javanese Muslim parents divorced not long after his birth , and he was passed between foster parents for much of his childhood . During the Japanese occupation of Indonesia , Suharto served in Japanese-organised Indonesian security forces . Indonesia 's independence struggle saw his joining the newly formed Indonesian army . Suharto rose to the rank of Major General following Indonesian independence . An attempted coup on 30 September 1965 was countered by Suharto-led troops and was blamed on the Indonesian Communist Party . The army subsequently led an a</t>
         </is>
       </c>
     </row>
